--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.187292</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.183982</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.179004</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.176892</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.17022</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.163509</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.156318</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.146334</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.231139</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.228081</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225517</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222864</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.21893</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214659</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209928</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.20518</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.200207</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.195783</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.189275</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.181574</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.174132</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16528</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.243142</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.239615</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236139</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.232566</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.227385</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.222635</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.217695</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.212684</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.20734</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.20071</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194395</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.186684</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181061</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.169795</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.248879</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.244774</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.241026</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.236858</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.232237</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.227177</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22226</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216502</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2114</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204573</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198267</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.191099</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.183731</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172869</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.161871</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.247769</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.243592</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239389</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.234805</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230401</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.224628</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218949</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.213275</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.206692</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.200398</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.193096</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.185345</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177726</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167032</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.250983</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.246922</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.24234</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.237651</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232612</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.2275</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222083</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215699</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209667</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.202946</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196222</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.188555</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.179944</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.169766</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.251071</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.247217</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.243499</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.239247</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.233745</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.228775</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223145</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217208</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211176</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.20484</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.197888</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.190605</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.182097</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.1719</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.251299</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.248019</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.244127</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.239723</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23491</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.229923</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.224131</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.218559</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.212431</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206093</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.199207</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.192019</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.183749</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.174303</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.162838</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.249639</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.245731</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.241243</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.236498</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231101</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.225563</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219876</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.213794</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207545</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.200654</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.193435</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.185456</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.175966</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16491</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.251293</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.247604</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.243229</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.237169</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232007</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.226576</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.221042</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214901</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.208636</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.201996</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.195117</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.18742</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178418</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.167876</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.250586</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.247147</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.242923</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.238252</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2333</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.227843</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.206229</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.206842</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.206135</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.206722</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.206327</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.206321</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206192</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.205238</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.224944</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.224007</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.222663</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.221498</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.221017</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220245</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219581</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218457</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217573</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.217195</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.216497</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.215746</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.214832</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.21423</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.228939</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.227393</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.227107</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224972</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.224321</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.223063</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.221902</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.220735</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.219663</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.219014</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21802</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.217046</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.216342</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.215854</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.229763</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228245</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.226658</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225711</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224436</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223405</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.222302</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.22123</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.220403</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219849</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.218845</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.217926</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.217302</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.216228</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.215748</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.229059</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.227574</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.226449</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.22552</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224386</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223346</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.222174</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221052</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.220193</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.219293</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.218512</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.217698</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.216983</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.215886</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231128</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229816</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.228207</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226759</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.225621</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.224178</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.223074</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.221867</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.220973</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.22015</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.219205</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.218341</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.217394</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.216569</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.238485</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.233573</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.230278</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227726</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225567</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224477</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223515</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.222424</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.221344</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.220256</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.219415</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.218492</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.217706</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.216915</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.235879</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.232276</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229777</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227738</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226186</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224924</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223825</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222639</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.221594</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.220637</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.219782</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.218899</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.218093</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.217262</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.216542</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.233106</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.230117</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.227957</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.226393</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.224926</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.223667</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223096</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221964</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.221041</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.220161</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.219251</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.218443</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.217652</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.216747</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.233339</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.230313</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.228265</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.226554</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.225147</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.223895</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222836</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221859</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220818</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219893</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.219067</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.218239</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.217829</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.21699</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.234758</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231578</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229123</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.227302</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.225811</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.22452</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.209873</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.211012</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.210745</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.211549</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.212704</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.211818</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.212862</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227673</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.226193</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226517</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.225181</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.224215</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.224629</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.224124</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.22305</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.222995</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.221534</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.221762</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.221599</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.220998</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.21979</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.233436</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.232471</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.231226</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.230275</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229388</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.228411</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.227283</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.226614</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.225598</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.225321</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.224224</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.223667</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.222733</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.222081</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.235696</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.234257</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.233102</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.231628</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230805</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.229469</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.228368</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.227503</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.226573</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.225474</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.224613</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.223838</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.223185</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.222298</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.236836</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235449</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234269</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.232952</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.231637</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.230491</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.229579</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.22827</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.227342</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.226352</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.225524</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.22462</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.223724</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.222897</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.222256</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.236524</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.234957</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.23352</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.232314</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.231079</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230032</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.228745</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.227756</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.226814</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.225878</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.225063</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.224187</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.223308</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.222776</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.238898</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.236543</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.234982</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233183</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.231928</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.230557</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.229474</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.228263</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22724</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.226241</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.225489</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.224505</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.223735</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.222895</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.239711</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.237182</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235335</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.233933</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.231522</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.230428</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.228937</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227841</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.226936</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.226475</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22552</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22466</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.223865</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.239576</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.237213</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.235342</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.233703</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.232291</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.230896</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229691</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22859</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.227856</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.226983</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.226085</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.225282</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.224461</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.223722</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.223001</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.237285</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.235374</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.2337</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.232315</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.230895</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.229728</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228673</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.227668</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.226699</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.225807</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.224951</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.224143</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.223409</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.223041</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238591</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.236406</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.234698</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.233163</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.231711</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.230522</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.229318</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201079</v>
+        <v>0.1913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188628</v>
+        <v>0.201631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199427</v>
+        <v>0.200015</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195993</v>
+        <v>0.188063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188428</v>
+        <v>0.201884</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199426</v>
+        <v>0.200438</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193363</v>
+        <v>0.186637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187986</v>
+        <v>0.201766</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200017</v>
+        <v>0.200982</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.188912</v>
+        <v>0.183598</v>
       </c>
       <c r="C5" t="n">
-        <v>0.18855</v>
+        <v>0.202063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199176</v>
+        <v>0.20141</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.182899</v>
+        <v>0.17694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.18726</v>
+        <v>0.201455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199723</v>
+        <v>0.200746</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17621</v>
+        <v>0.170875</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187558</v>
+        <v>0.201486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198859</v>
+        <v>0.200292</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168641</v>
+        <v>0.162715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186215</v>
+        <v>0.201648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198731</v>
+        <v>0.200027</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.157894</v>
+        <v>0.154165</v>
       </c>
       <c r="C9" t="n">
-        <v>0.187129</v>
+        <v>0.217634</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216368</v>
+        <v>0.216895</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.239423</v>
+        <v>0.236438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.204603</v>
+        <v>0.216346</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214386</v>
+        <v>0.216119</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235096</v>
+        <v>0.231937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.205045</v>
+        <v>0.215024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213325</v>
+        <v>0.213918</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231475</v>
+        <v>0.227745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.201858</v>
+        <v>0.214</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212749</v>
+        <v>0.212542</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227384</v>
+        <v>0.224909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.200117</v>
+        <v>0.21279</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211697</v>
+        <v>0.212631</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221733</v>
+        <v>0.21942</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199418</v>
+        <v>0.211711</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210134</v>
+        <v>0.211154</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213949</v>
+        <v>0.213859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.199264</v>
+        <v>0.210366</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21012</v>
+        <v>0.211233</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210224</v>
+        <v>0.208854</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198449</v>
+        <v>0.209897</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208815</v>
+        <v>0.210245</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206307</v>
+        <v>0.204924</v>
       </c>
       <c r="C17" t="n">
-        <v>0.196417</v>
+        <v>0.20913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208118</v>
+        <v>0.20935</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200621</v>
+        <v>0.199689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.195606</v>
+        <v>0.208379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207572</v>
+        <v>0.208554</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195913</v>
+        <v>0.194301</v>
       </c>
       <c r="C19" t="n">
-        <v>0.194783</v>
+        <v>0.20772</v>
       </c>
       <c r="D19" t="n">
-        <v>0.205968</v>
+        <v>0.207784</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.190462</v>
+        <v>0.189367</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193893</v>
+        <v>0.206897</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205396</v>
+        <v>0.206959</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185502</v>
+        <v>0.183431</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193235</v>
+        <v>0.205711</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204786</v>
+        <v>0.206216</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.177534</v>
+        <v>0.175798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.192442</v>
+        <v>0.205207</v>
       </c>
       <c r="D22" t="n">
-        <v>0.204231</v>
+        <v>0.2054</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.170086</v>
+        <v>0.167603</v>
       </c>
       <c r="C23" t="n">
-        <v>0.191162</v>
+        <v>0.220976</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220288</v>
+        <v>0.220174</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242768</v>
+        <v>0.241516</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211388</v>
+        <v>0.219284</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218303</v>
+        <v>0.218373</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.240112</v>
+        <v>0.237602</v>
       </c>
       <c r="C25" t="n">
-        <v>0.207689</v>
+        <v>0.217847</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216742</v>
+        <v>0.216437</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233657</v>
+        <v>0.23242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204738</v>
+        <v>0.216013</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215617</v>
+        <v>0.215823</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229202</v>
+        <v>0.227163</v>
       </c>
       <c r="C27" t="n">
-        <v>0.203839</v>
+        <v>0.21512</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214293</v>
+        <v>0.214416</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.225731</v>
+        <v>0.223538</v>
       </c>
       <c r="C28" t="n">
-        <v>0.20239</v>
+        <v>0.213798</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212892</v>
+        <v>0.213633</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.220721</v>
+        <v>0.218265</v>
       </c>
       <c r="C29" t="n">
-        <v>0.201207</v>
+        <v>0.212605</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211602</v>
+        <v>0.212608</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212943</v>
+        <v>0.21306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.199835</v>
+        <v>0.211471</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211057</v>
+        <v>0.211906</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208496</v>
+        <v>0.208663</v>
       </c>
       <c r="C31" t="n">
-        <v>0.198577</v>
+        <v>0.210528</v>
       </c>
       <c r="D31" t="n">
-        <v>0.209774</v>
+        <v>0.210358</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202387</v>
+        <v>0.201961</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19749</v>
+        <v>0.209461</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208792</v>
+        <v>0.209594</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197918</v>
+        <v>0.196314</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196224</v>
+        <v>0.208461</v>
       </c>
       <c r="D33" t="n">
-        <v>0.207486</v>
+        <v>0.208401</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192234</v>
+        <v>0.191751</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195483</v>
+        <v>0.207648</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207099</v>
+        <v>0.20752</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186495</v>
+        <v>0.18559</v>
       </c>
       <c r="C35" t="n">
-        <v>0.194223</v>
+        <v>0.2066</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206001</v>
+        <v>0.206802</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180686</v>
+        <v>0.178694</v>
       </c>
       <c r="C36" t="n">
-        <v>0.194298</v>
+        <v>0.205731</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205548</v>
+        <v>0.206171</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172697</v>
+        <v>0.170508</v>
       </c>
       <c r="C37" t="n">
-        <v>0.193143</v>
+        <v>0.221541</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221208</v>
+        <v>0.22135</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244717</v>
+        <v>0.242264</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2088</v>
+        <v>0.219847</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219177</v>
+        <v>0.220101</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.241301</v>
+        <v>0.238775</v>
       </c>
       <c r="C39" t="n">
-        <v>0.206884</v>
+        <v>0.218304</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217381</v>
+        <v>0.218829</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235188</v>
+        <v>0.234678</v>
       </c>
       <c r="C40" t="n">
-        <v>0.20552</v>
+        <v>0.216657</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216004</v>
+        <v>0.216845</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230294</v>
+        <v>0.229852</v>
       </c>
       <c r="C41" t="n">
-        <v>0.203991</v>
+        <v>0.215224</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215047</v>
+        <v>0.215733</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225969</v>
+        <v>0.224958</v>
       </c>
       <c r="C42" t="n">
-        <v>0.202611</v>
+        <v>0.213967</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21358</v>
+        <v>0.214104</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221623</v>
+        <v>0.22008</v>
       </c>
       <c r="C43" t="n">
-        <v>0.201175</v>
+        <v>0.212625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.212264</v>
+        <v>0.213387</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215157</v>
+        <v>0.214526</v>
       </c>
       <c r="C44" t="n">
-        <v>0.20006</v>
+        <v>0.21154</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211112</v>
+        <v>0.212096</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209662</v>
+        <v>0.209049</v>
       </c>
       <c r="C45" t="n">
-        <v>0.198942</v>
+        <v>0.210532</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210402</v>
+        <v>0.211035</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20538</v>
+        <v>0.204795</v>
       </c>
       <c r="C46" t="n">
-        <v>0.19781</v>
+        <v>0.20958</v>
       </c>
       <c r="D46" t="n">
-        <v>0.209169</v>
+        <v>0.210231</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199885</v>
+        <v>0.199008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.197065</v>
+        <v>0.208501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.208024</v>
+        <v>0.209173</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193819</v>
+        <v>0.193887</v>
       </c>
       <c r="C48" t="n">
-        <v>0.195955</v>
+        <v>0.207479</v>
       </c>
       <c r="D48" t="n">
-        <v>0.207513</v>
+        <v>0.208015</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188166</v>
+        <v>0.187772</v>
       </c>
       <c r="C49" t="n">
-        <v>0.195016</v>
+        <v>0.206526</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20653</v>
+        <v>0.207072</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182183</v>
+        <v>0.181377</v>
       </c>
       <c r="C50" t="n">
-        <v>0.194212</v>
+        <v>0.205678</v>
       </c>
       <c r="D50" t="n">
-        <v>0.205592</v>
+        <v>0.206519</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175385</v>
+        <v>0.173668</v>
       </c>
       <c r="C51" t="n">
-        <v>0.192746</v>
+        <v>0.224215</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222297</v>
+        <v>0.223561</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.16786</v>
+        <v>0.1649</v>
       </c>
       <c r="C52" t="n">
-        <v>0.192079</v>
+        <v>0.221358</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220156</v>
+        <v>0.221732</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.242225</v>
+        <v>0.240342</v>
       </c>
       <c r="C53" t="n">
-        <v>0.207494</v>
+        <v>0.219464</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218371</v>
+        <v>0.219929</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.239383</v>
+        <v>0.236601</v>
       </c>
       <c r="C54" t="n">
-        <v>0.205982</v>
+        <v>0.218079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217</v>
+        <v>0.217911</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.234702</v>
+        <v>0.231858</v>
       </c>
       <c r="C55" t="n">
-        <v>0.204494</v>
+        <v>0.216279</v>
       </c>
       <c r="D55" t="n">
-        <v>0.215659</v>
+        <v>0.216558</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.229057</v>
+        <v>0.226903</v>
       </c>
       <c r="C56" t="n">
-        <v>0.202934</v>
+        <v>0.214851</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214293</v>
+        <v>0.215215</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222706</v>
+        <v>0.221538</v>
       </c>
       <c r="C57" t="n">
-        <v>0.20185</v>
+        <v>0.213615</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213061</v>
+        <v>0.213613</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.217388</v>
+        <v>0.213562</v>
       </c>
       <c r="C58" t="n">
-        <v>0.200353</v>
+        <v>0.212277</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212009</v>
+        <v>0.212648</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211515</v>
+        <v>0.208482</v>
       </c>
       <c r="C59" t="n">
-        <v>0.199397</v>
+        <v>0.211122</v>
       </c>
       <c r="D59" t="n">
-        <v>0.210817</v>
+        <v>0.211714</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205998</v>
+        <v>0.202836</v>
       </c>
       <c r="C60" t="n">
-        <v>0.198462</v>
+        <v>0.21</v>
       </c>
       <c r="D60" t="n">
-        <v>0.20978</v>
+        <v>0.210338</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.20096</v>
+        <v>0.19753</v>
       </c>
       <c r="C61" t="n">
-        <v>0.197225</v>
+        <v>0.208996</v>
       </c>
       <c r="D61" t="n">
-        <v>0.208727</v>
+        <v>0.209692</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195637</v>
+        <v>0.191792</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1963</v>
+        <v>0.208024</v>
       </c>
       <c r="D62" t="n">
-        <v>0.207786</v>
+        <v>0.208461</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190513</v>
+        <v>0.185274</v>
       </c>
       <c r="C63" t="n">
-        <v>0.195398</v>
+        <v>0.206971</v>
       </c>
       <c r="D63" t="n">
-        <v>0.206956</v>
+        <v>0.208005</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184003</v>
+        <v>0.183516</v>
       </c>
       <c r="C64" t="n">
-        <v>0.194451</v>
+        <v>0.206193</v>
       </c>
       <c r="D64" t="n">
-        <v>0.20598</v>
+        <v>0.20658</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177839</v>
+        <v>0.175915</v>
       </c>
       <c r="C65" t="n">
-        <v>0.193302</v>
+        <v>0.205288</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205172</v>
+        <v>0.205795</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169903</v>
+        <v>0.167466</v>
       </c>
       <c r="C66" t="n">
-        <v>0.192175</v>
+        <v>0.22157</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220597</v>
+        <v>0.221762</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.241142</v>
+        <v>0.242008</v>
       </c>
       <c r="C67" t="n">
-        <v>0.211548</v>
+        <v>0.219836</v>
       </c>
       <c r="D67" t="n">
-        <v>0.219132</v>
+        <v>0.219831</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.237315</v>
+        <v>0.237842</v>
       </c>
       <c r="C68" t="n">
-        <v>0.209423</v>
+        <v>0.218266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.21763</v>
+        <v>0.218342</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233082</v>
+        <v>0.233207</v>
       </c>
       <c r="C69" t="n">
-        <v>0.207223</v>
+        <v>0.216877</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216272</v>
+        <v>0.21717</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227825</v>
+        <v>0.228404</v>
       </c>
       <c r="C70" t="n">
-        <v>0.204929</v>
+        <v>0.215304</v>
       </c>
       <c r="D70" t="n">
-        <v>0.214939</v>
+        <v>0.215562</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223326</v>
+        <v>0.223322</v>
       </c>
       <c r="C71" t="n">
-        <v>0.203341</v>
+        <v>0.213908</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213668</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217032</v>
+        <v>0.217938</v>
       </c>
       <c r="C72" t="n">
-        <v>0.201486</v>
+        <v>0.212503</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212346</v>
+        <v>0.212984</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213494</v>
+        <v>0.212583</v>
       </c>
       <c r="C73" t="n">
-        <v>0.200146</v>
+        <v>0.211531</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21125</v>
+        <v>0.211887</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208753</v>
+        <v>0.207522</v>
       </c>
       <c r="C74" t="n">
-        <v>0.198862</v>
+        <v>0.210242</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210096</v>
+        <v>0.210677</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203381</v>
+        <v>0.202216</v>
       </c>
       <c r="C75" t="n">
-        <v>0.198009</v>
+        <v>0.209193</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209107</v>
+        <v>0.209791</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198085</v>
+        <v>0.197206</v>
       </c>
       <c r="C76" t="n">
-        <v>0.196827</v>
+        <v>0.208218</v>
       </c>
       <c r="D76" t="n">
-        <v>0.208119</v>
+        <v>0.209395</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.192249</v>
+        <v>0.191596</v>
       </c>
       <c r="C77" t="n">
-        <v>0.195635</v>
+        <v>0.20718</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207207</v>
+        <v>0.207992</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.186483</v>
+        <v>0.185338</v>
       </c>
       <c r="C78" t="n">
-        <v>0.194634</v>
+        <v>0.20646</v>
       </c>
       <c r="D78" t="n">
-        <v>0.206241</v>
+        <v>0.207224</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180415</v>
+        <v>0.178675</v>
       </c>
       <c r="C79" t="n">
-        <v>0.19349</v>
+        <v>0.205578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2055</v>
+        <v>0.206218</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.173167</v>
+        <v>0.17133</v>
       </c>
       <c r="C80" t="n">
-        <v>0.192652</v>
+        <v>0.223995</v>
       </c>
       <c r="D80" t="n">
-        <v>0.223349</v>
+        <v>0.226841</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243865</v>
+        <v>0.243371</v>
       </c>
       <c r="C81" t="n">
-        <v>0.21875</v>
+        <v>0.221319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.221288</v>
+        <v>0.223483</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.240338</v>
+        <v>0.239157</v>
       </c>
       <c r="C82" t="n">
-        <v>0.212614</v>
+        <v>0.219589</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219013</v>
+        <v>0.221247</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.236533</v>
+        <v>0.234819</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208182</v>
+        <v>0.217934</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21743</v>
+        <v>0.219424</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.231204</v>
+        <v>0.230259</v>
       </c>
       <c r="C84" t="n">
-        <v>0.205624</v>
+        <v>0.216274</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21602</v>
+        <v>0.217637</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.225278</v>
+        <v>0.222781</v>
       </c>
       <c r="C85" t="n">
-        <v>0.203461</v>
+        <v>0.214639</v>
       </c>
       <c r="D85" t="n">
-        <v>0.214503</v>
+        <v>0.215961</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.220003</v>
+        <v>0.217584</v>
       </c>
       <c r="C86" t="n">
-        <v>0.202067</v>
+        <v>0.213338</v>
       </c>
       <c r="D86" t="n">
-        <v>0.213261</v>
+        <v>0.214175</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.213922</v>
+        <v>0.211853</v>
       </c>
       <c r="C87" t="n">
-        <v>0.20072</v>
+        <v>0.211952</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212015</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206916</v>
+        <v>0.20603</v>
       </c>
       <c r="C88" t="n">
-        <v>0.199457</v>
+        <v>0.2108</v>
       </c>
       <c r="D88" t="n">
-        <v>0.210848</v>
+        <v>0.211244</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201179</v>
+        <v>0.200341</v>
       </c>
       <c r="C89" t="n">
-        <v>0.198321</v>
+        <v>0.20957</v>
       </c>
       <c r="D89" t="n">
-        <v>0.209697</v>
+        <v>0.210224</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195213</v>
+        <v>0.194585</v>
       </c>
       <c r="C90" t="n">
-        <v>0.197228</v>
+        <v>0.20856</v>
       </c>
       <c r="D90" t="n">
-        <v>0.208766</v>
+        <v>0.209276</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189375</v>
+        <v>0.188578</v>
       </c>
       <c r="C91" t="n">
-        <v>0.196212</v>
+        <v>0.207592</v>
       </c>
       <c r="D91" t="n">
-        <v>0.207747</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.183078</v>
+        <v>0.182217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.195207</v>
+        <v>0.206877</v>
       </c>
       <c r="D92" t="n">
-        <v>0.206904</v>
+        <v>0.207556</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.176276</v>
+        <v>0.17506</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194208</v>
+        <v>0.206015</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206139</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.167872</v>
+        <v>0.166544</v>
       </c>
       <c r="C94" t="n">
-        <v>0.193149</v>
+        <v>0.225308</v>
       </c>
       <c r="D94" t="n">
-        <v>0.224859</v>
+        <v>0.226361</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243902</v>
+        <v>0.242112</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215743</v>
+        <v>0.222169</v>
       </c>
       <c r="D95" t="n">
-        <v>0.222144</v>
+        <v>0.223859</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240924</v>
+        <v>0.238301</v>
       </c>
       <c r="C96" t="n">
-        <v>0.211621</v>
+        <v>0.220033</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219634</v>
+        <v>0.221265</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235822</v>
+        <v>0.234121</v>
       </c>
       <c r="C97" t="n">
-        <v>0.208699</v>
+        <v>0.218294</v>
       </c>
       <c r="D97" t="n">
-        <v>0.217948</v>
+        <v>0.220219</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230444</v>
+        <v>0.229271</v>
       </c>
       <c r="C98" t="n">
-        <v>0.206182</v>
+        <v>0.216559</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216352</v>
+        <v>0.217842</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225441</v>
+        <v>0.224151</v>
       </c>
       <c r="C99" t="n">
-        <v>0.204265</v>
+        <v>0.215114</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21557</v>
+        <v>0.216916</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219907</v>
+        <v>0.218638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.202741</v>
+        <v>0.213394</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214295</v>
+        <v>0.215067</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214094</v>
+        <v>0.213118</v>
       </c>
       <c r="C101" t="n">
-        <v>0.201248</v>
+        <v>0.212114</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212979</v>
+        <v>0.213375</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208086</v>
+        <v>0.20736</v>
       </c>
       <c r="C102" t="n">
-        <v>0.199712</v>
+        <v>0.210892</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211453</v>
+        <v>0.212413</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205617</v>
+        <v>0.204887</v>
       </c>
       <c r="C103" t="n">
-        <v>0.19861</v>
+        <v>0.209786</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21035</v>
+        <v>0.210842</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.200483</v>
+        <v>0.199695</v>
       </c>
       <c r="C104" t="n">
-        <v>0.197486</v>
+        <v>0.208717</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209387</v>
+        <v>0.20996</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.19464</v>
+        <v>0.194348</v>
       </c>
       <c r="C105" t="n">
-        <v>0.196526</v>
+        <v>0.207764</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208528</v>
+        <v>0.209404</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188789</v>
+        <v>0.188764</v>
       </c>
       <c r="C106" t="n">
-        <v>0.195501</v>
+        <v>0.206972</v>
       </c>
       <c r="D106" t="n">
-        <v>0.207807</v>
+        <v>0.208645</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.183067</v>
+        <v>0.182471</v>
       </c>
       <c r="C107" t="n">
-        <v>0.194584</v>
+        <v>0.206201</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207009</v>
+        <v>0.207594</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.176097</v>
+        <v>0.175105</v>
       </c>
       <c r="C108" t="n">
-        <v>0.193686</v>
+        <v>0.225984</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224668</v>
+        <v>0.225408</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.167791</v>
+        <v>0.165561</v>
       </c>
       <c r="C109" t="n">
-        <v>0.192806</v>
+        <v>0.222707</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221905</v>
+        <v>0.222476</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.243247</v>
+        <v>0.241183</v>
       </c>
       <c r="C110" t="n">
-        <v>0.212605</v>
+        <v>0.220294</v>
       </c>
       <c r="D110" t="n">
-        <v>0.219759</v>
+        <v>0.220385</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238649</v>
+        <v>0.237033</v>
       </c>
       <c r="C111" t="n">
-        <v>0.209101</v>
+        <v>0.218396</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21796</v>
+        <v>0.219008</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233819</v>
+        <v>0.232293</v>
       </c>
       <c r="C112" t="n">
-        <v>0.206411</v>
+        <v>0.216635</v>
       </c>
       <c r="D112" t="n">
-        <v>0.216336</v>
+        <v>0.217179</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22872</v>
+        <v>0.227224</v>
       </c>
       <c r="C113" t="n">
-        <v>0.20443</v>
+        <v>0.215145</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214857</v>
+        <v>0.215636</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223082</v>
+        <v>0.221928</v>
       </c>
       <c r="C114" t="n">
-        <v>0.20264</v>
+        <v>0.213779</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21327</v>
+        <v>0.214406</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.217399</v>
+        <v>0.216604</v>
       </c>
       <c r="C115" t="n">
-        <v>0.201207</v>
+        <v>0.212342</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212091</v>
+        <v>0.21289</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211675</v>
+        <v>0.211308</v>
       </c>
       <c r="C116" t="n">
-        <v>0.199956</v>
+        <v>0.211206</v>
       </c>
       <c r="D116" t="n">
-        <v>0.210934</v>
+        <v>0.211728</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.206013</v>
+        <v>0.2059</v>
       </c>
       <c r="C117" t="n">
-        <v>0.198665</v>
+        <v>0.210166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.209748</v>
+        <v>0.210704</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200906</v>
+        <v>0.200785</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197583</v>
+        <v>0.20899</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209209</v>
+        <v>0.210097</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19553</v>
+        <v>0.195262</v>
       </c>
       <c r="C119" t="n">
-        <v>0.197079</v>
+        <v>0.208125</v>
       </c>
       <c r="D119" t="n">
-        <v>0.208221</v>
+        <v>0.209082</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189876</v>
+        <v>0.189476</v>
       </c>
       <c r="C120" t="n">
-        <v>0.196008</v>
+        <v>0.207172</v>
       </c>
       <c r="D120" t="n">
-        <v>0.207259</v>
+        <v>0.208306</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183463</v>
+        <v>0.183106</v>
       </c>
       <c r="C121" t="n">
-        <v>0.19512</v>
+        <v>0.206349</v>
       </c>
       <c r="D121" t="n">
-        <v>0.206356</v>
+        <v>0.207603</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175965</v>
+        <v>0.175732</v>
       </c>
       <c r="C122" t="n">
-        <v>0.19408</v>
+        <v>0.205678</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205519</v>
+        <v>0.206567</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167377</v>
+        <v>0.166915</v>
       </c>
       <c r="C123" t="n">
-        <v>0.193187</v>
+        <v>0.223071</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222062</v>
+        <v>0.223317</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.243108</v>
+        <v>0.242289</v>
       </c>
       <c r="C124" t="n">
-        <v>0.212791</v>
+        <v>0.220832</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219954</v>
+        <v>0.220876</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.239063</v>
+        <v>0.238103</v>
       </c>
       <c r="C125" t="n">
-        <v>0.209355</v>
+        <v>0.218881</v>
       </c>
       <c r="D125" t="n">
-        <v>0.218028</v>
+        <v>0.219174</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.234378</v>
+        <v>0.233386</v>
       </c>
       <c r="C126" t="n">
-        <v>0.206657</v>
+        <v>0.217075</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216429</v>
+        <v>0.21771</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.229445</v>
+        <v>0.228242</v>
       </c>
       <c r="C127" t="n">
-        <v>0.204533</v>
+        <v>0.215674</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21495</v>
+        <v>0.216002</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.224734</v>
+        <v>0.223065</v>
       </c>
       <c r="C128" t="n">
-        <v>0.202946</v>
+        <v>0.214084</v>
       </c>
       <c r="D128" t="n">
-        <v>0.213684</v>
+        <v>0.214598</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217564</v>
+        <v>0.217088</v>
       </c>
       <c r="C129" t="n">
-        <v>0.201508</v>
+        <v>0.21275</v>
       </c>
       <c r="D129" t="n">
-        <v>0.212444</v>
+        <v>0.213383</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213563</v>
+        <v>0.212335</v>
       </c>
       <c r="C130" t="n">
-        <v>0.200156</v>
+        <v>0.211612</v>
       </c>
       <c r="D130" t="n">
-        <v>0.211325</v>
+        <v>0.212276</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204853</v>
+        <v>0.207005</v>
       </c>
       <c r="C131" t="n">
-        <v>0.198858</v>
+        <v>0.21044</v>
       </c>
       <c r="D131" t="n">
-        <v>0.209997</v>
+        <v>0.211096</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201025</v>
+        <v>0.201878</v>
       </c>
       <c r="C132" t="n">
-        <v>0.197749</v>
+        <v>0.209428</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209192</v>
+        <v>0.209829</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197298</v>
+        <v>0.196431</v>
       </c>
       <c r="C133" t="n">
-        <v>0.196757</v>
+        <v>0.208418</v>
       </c>
       <c r="D133" t="n">
-        <v>0.207937</v>
+        <v>0.208946</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186765</v>
+        <v>0.18641</v>
       </c>
       <c r="C134" t="n">
-        <v>0.195867</v>
+        <v>0.207308</v>
       </c>
       <c r="D134" t="n">
-        <v>0.207029</v>
+        <v>0.20813</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.180244</v>
+        <v>0.179993</v>
       </c>
       <c r="C135" t="n">
-        <v>0.194838</v>
+        <v>0.206453</v>
       </c>
       <c r="D135" t="n">
-        <v>0.206216</v>
+        <v>0.207215</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172575</v>
+        <v>0.172398</v>
       </c>
       <c r="C136" t="n">
-        <v>0.194008</v>
+        <v>0.205821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.205395</v>
+        <v>0.206417</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163692</v>
+        <v>0.16325</v>
       </c>
       <c r="C137" t="n">
-        <v>0.193057</v>
+        <v>0.223698</v>
       </c>
       <c r="D137" t="n">
-        <v>0.223159</v>
+        <v>0.22405</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.245706</v>
+        <v>0.242945</v>
       </c>
       <c r="C138" t="n">
-        <v>0.214577</v>
+        <v>0.22134</v>
       </c>
       <c r="D138" t="n">
-        <v>0.220855</v>
+        <v>0.221742</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.241697</v>
+        <v>0.238902</v>
       </c>
       <c r="C139" t="n">
-        <v>0.210722</v>
+        <v>0.219178</v>
       </c>
       <c r="D139" t="n">
-        <v>0.218829</v>
+        <v>0.219688</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.237096</v>
+        <v>0.234402</v>
       </c>
       <c r="C140" t="n">
-        <v>0.207868</v>
+        <v>0.217539</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217328</v>
+        <v>0.217987</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.232016</v>
+        <v>0.229486</v>
       </c>
       <c r="C141" t="n">
-        <v>0.205624</v>
+        <v>0.215798</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215806</v>
+        <v>0.216473</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.226677</v>
+        <v>0.224193</v>
       </c>
       <c r="C142" t="n">
-        <v>0.203786</v>
+        <v>0.21426</v>
       </c>
       <c r="D142" t="n">
-        <v>0.214395</v>
+        <v>0.215049</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.221011</v>
+        <v>0.218062</v>
       </c>
       <c r="C143" t="n">
-        <v>0.202211</v>
+        <v>0.21292</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213153</v>
+        <v>0.213715</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191098</v>
+        <v>0.192215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201425</v>
+        <v>0.201477</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199974</v>
+        <v>0.199847</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188613</v>
+        <v>0.188384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201849</v>
+        <v>0.201788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200333</v>
+        <v>0.200445</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187154</v>
+        <v>0.187269</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201893</v>
+        <v>0.202029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200316</v>
+        <v>0.200897</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183419</v>
+        <v>0.184078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202011</v>
+        <v>0.201987</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20146</v>
+        <v>0.201496</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176989</v>
+        <v>0.177277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201404</v>
+        <v>0.201446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200877</v>
+        <v>0.201292</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171286</v>
+        <v>0.171228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201529</v>
+        <v>0.201681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199887</v>
+        <v>0.200435</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162568</v>
+        <v>0.162374</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201537</v>
+        <v>0.201842</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199891</v>
+        <v>0.200379</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154049</v>
+        <v>0.154167</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2173</v>
+        <v>0.217458</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21694</v>
+        <v>0.217093</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236316</v>
+        <v>0.23674</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216407</v>
+        <v>0.216255</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216605</v>
+        <v>0.216722</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231246</v>
+        <v>0.232118</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215166</v>
+        <v>0.215021</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214548</v>
+        <v>0.214649</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226524</v>
+        <v>0.228761</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214118</v>
+        <v>0.21398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21272</v>
+        <v>0.212963</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223677</v>
+        <v>0.224882</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212913</v>
+        <v>0.212977</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21272</v>
+        <v>0.213284</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217433</v>
+        <v>0.219402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211984</v>
+        <v>0.212069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211317</v>
+        <v>0.211711</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212396</v>
+        <v>0.214159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210457</v>
+        <v>0.210585</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210763</v>
+        <v>0.210709</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208713</v>
+        <v>0.209017</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209865</v>
+        <v>0.209803</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210054</v>
+        <v>0.21001</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205429</v>
+        <v>0.205221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209087</v>
+        <v>0.209112</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209282</v>
+        <v>0.209319</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200056</v>
+        <v>0.200136</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208376</v>
+        <v>0.208241</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208869</v>
+        <v>0.208492</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19502</v>
+        <v>0.194663</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207766</v>
+        <v>0.207814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208021</v>
+        <v>0.207865</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189022</v>
+        <v>0.189324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206761</v>
+        <v>0.206787</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206761</v>
+        <v>0.207059</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183295</v>
+        <v>0.18348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205774</v>
+        <v>0.205761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206309</v>
+        <v>0.206208</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175758</v>
+        <v>0.176449</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205196</v>
+        <v>0.205176</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205479</v>
+        <v>0.205335</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16839</v>
+        <v>0.167552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.221044</v>
+        <v>0.221803</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220511</v>
+        <v>0.220048</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241097</v>
+        <v>0.241108</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219307</v>
+        <v>0.219199</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21873</v>
+        <v>0.218274</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237526</v>
+        <v>0.237219</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217719</v>
+        <v>0.21787</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217374</v>
+        <v>0.21674</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232297</v>
+        <v>0.232142</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216241</v>
+        <v>0.216425</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215978</v>
+        <v>0.216134</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227062</v>
+        <v>0.226994</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214956</v>
+        <v>0.214858</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214576</v>
+        <v>0.214673</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2231</v>
+        <v>0.222619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213581</v>
+        <v>0.213598</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213365</v>
+        <v>0.213873</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218145</v>
+        <v>0.217866</v>
       </c>
       <c r="C29" t="n">
-        <v>0.21247</v>
+        <v>0.212534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212552</v>
+        <v>0.212441</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212771</v>
+        <v>0.21247</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211378</v>
+        <v>0.211481</v>
       </c>
       <c r="D30" t="n">
-        <v>0.212158</v>
+        <v>0.2116</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208284</v>
+        <v>0.207923</v>
       </c>
       <c r="C31" t="n">
-        <v>0.210567</v>
+        <v>0.21045</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210811</v>
+        <v>0.210233</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201441</v>
+        <v>0.201761</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209305</v>
+        <v>0.209302</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210141</v>
+        <v>0.209678</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196517</v>
+        <v>0.196488</v>
       </c>
       <c r="C33" t="n">
-        <v>0.208446</v>
+        <v>0.208443</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20922</v>
+        <v>0.208323</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191792</v>
+        <v>0.191314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207324</v>
+        <v>0.207504</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207721</v>
+        <v>0.207595</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185785</v>
+        <v>0.185642</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206307</v>
+        <v>0.206494</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206989</v>
+        <v>0.207531</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179133</v>
+        <v>0.17897</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205557</v>
+        <v>0.205712</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206484</v>
+        <v>0.206259</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170423</v>
+        <v>0.170501</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222471</v>
+        <v>0.222075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221653</v>
+        <v>0.22176</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242207</v>
+        <v>0.242489</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219783</v>
+        <v>0.219966</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2201</v>
+        <v>0.219894</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238455</v>
+        <v>0.2391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218309</v>
+        <v>0.218362</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218673</v>
+        <v>0.218768</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234329</v>
+        <v>0.234687</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216755</v>
+        <v>0.216873</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21725</v>
+        <v>0.217062</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229782</v>
+        <v>0.230404</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215383</v>
+        <v>0.215351</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215767</v>
+        <v>0.215714</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225004</v>
+        <v>0.225541</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214029</v>
+        <v>0.214028</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214478</v>
+        <v>0.214443</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219665</v>
+        <v>0.220163</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212742</v>
+        <v>0.212795</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213249</v>
+        <v>0.213607</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214672</v>
+        <v>0.214822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.211528</v>
+        <v>0.21153</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212142</v>
+        <v>0.211795</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209483</v>
+        <v>0.2099</v>
       </c>
       <c r="C45" t="n">
-        <v>0.210567</v>
+        <v>0.210566</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211171</v>
+        <v>0.211025</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20459</v>
+        <v>0.205119</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209488</v>
+        <v>0.209533</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210334</v>
+        <v>0.209921</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199494</v>
+        <v>0.199486</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208381</v>
+        <v>0.208495</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209049</v>
+        <v>0.208917</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193862</v>
+        <v>0.193733</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207541</v>
+        <v>0.207531</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208253</v>
+        <v>0.207996</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187654</v>
+        <v>0.187685</v>
       </c>
       <c r="C49" t="n">
-        <v>0.20656</v>
+        <v>0.206583</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20763</v>
+        <v>0.207041</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181374</v>
+        <v>0.181482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205665</v>
+        <v>0.205656</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206265</v>
+        <v>0.206291</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173595</v>
+        <v>0.17386</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222127</v>
+        <v>0.224388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222785</v>
+        <v>0.224136</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165454</v>
+        <v>0.165089</v>
       </c>
       <c r="C52" t="n">
-        <v>0.220438</v>
+        <v>0.221575</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220639</v>
+        <v>0.221815</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240823</v>
+        <v>0.240621</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219034</v>
+        <v>0.219743</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219118</v>
+        <v>0.219745</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237188</v>
+        <v>0.236832</v>
       </c>
       <c r="C54" t="n">
-        <v>0.217734</v>
+        <v>0.218271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21749</v>
+        <v>0.218241</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232263</v>
+        <v>0.23172</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216016</v>
+        <v>0.216411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216469</v>
+        <v>0.217125</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226955</v>
+        <v>0.226546</v>
       </c>
       <c r="C56" t="n">
-        <v>0.214635</v>
+        <v>0.21505</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215043</v>
+        <v>0.215627</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221288</v>
+        <v>0.221197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.213506</v>
+        <v>0.213676</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213692</v>
+        <v>0.213991</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215921</v>
+        <v>0.215592</v>
       </c>
       <c r="C58" t="n">
-        <v>0.212151</v>
+        <v>0.212292</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212377</v>
+        <v>0.212714</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211224</v>
+        <v>0.211105</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211096</v>
+        <v>0.211106</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211264</v>
+        <v>0.211578</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205652</v>
+        <v>0.205331</v>
       </c>
       <c r="C60" t="n">
-        <v>0.209981</v>
+        <v>0.210021</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210242</v>
+        <v>0.21037</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200906</v>
+        <v>0.200628</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208981</v>
+        <v>0.209015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209504</v>
+        <v>0.209522</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195531</v>
+        <v>0.195449</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208033</v>
+        <v>0.208069</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208387</v>
+        <v>0.208491</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189806</v>
+        <v>0.189835</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207199</v>
+        <v>0.207125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207376</v>
+        <v>0.207489</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18369</v>
+        <v>0.183877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206219</v>
+        <v>0.206264</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206673</v>
+        <v>0.206609</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176105</v>
+        <v>0.176246</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205332</v>
+        <v>0.205333</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205749</v>
+        <v>0.205868</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167503</v>
+        <v>0.167677</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221926</v>
+        <v>0.221574</v>
       </c>
       <c r="D66" t="n">
-        <v>0.226248</v>
+        <v>0.221519</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242224</v>
+        <v>0.242064</v>
       </c>
       <c r="C67" t="n">
-        <v>0.22018</v>
+        <v>0.219713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223716</v>
+        <v>0.219826</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238188</v>
+        <v>0.238003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218566</v>
+        <v>0.21827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221605</v>
+        <v>0.218193</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233607</v>
+        <v>0.23357</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217076</v>
+        <v>0.216875</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219657</v>
+        <v>0.216815</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22857</v>
+        <v>0.22845</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215414</v>
+        <v>0.215325</v>
       </c>
       <c r="D70" t="n">
-        <v>0.217967</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223657</v>
+        <v>0.223452</v>
       </c>
       <c r="C71" t="n">
-        <v>0.213952</v>
+        <v>0.213902</v>
       </c>
       <c r="D71" t="n">
-        <v>0.216109</v>
+        <v>0.214231</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.218338</v>
+        <v>0.217971</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212664</v>
+        <v>0.212555</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21417</v>
+        <v>0.213075</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212785</v>
+        <v>0.212662</v>
       </c>
       <c r="C73" t="n">
-        <v>0.211625</v>
+        <v>0.211449</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212172</v>
+        <v>0.21189</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207733</v>
+        <v>0.207457</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210344</v>
+        <v>0.210238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210794</v>
+        <v>0.210752</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202409</v>
+        <v>0.202185</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209235</v>
+        <v>0.209197</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209737</v>
+        <v>0.209884</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197615</v>
+        <v>0.197529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208246</v>
+        <v>0.208156</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20882</v>
+        <v>0.20883</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191924</v>
+        <v>0.191819</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207345</v>
+        <v>0.207213</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207864</v>
+        <v>0.207996</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185763</v>
+        <v>0.185565</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206441</v>
+        <v>0.206297</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20733</v>
+        <v>0.207198</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178954</v>
+        <v>0.178758</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205713</v>
+        <v>0.205519</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206171</v>
+        <v>0.206544</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171428</v>
+        <v>0.171275</v>
       </c>
       <c r="C80" t="n">
-        <v>0.223935</v>
+        <v>0.223775</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226454</v>
+        <v>0.226163</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24333</v>
+        <v>0.243546</v>
       </c>
       <c r="C81" t="n">
-        <v>0.221604</v>
+        <v>0.22151</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223301</v>
+        <v>0.223356</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239216</v>
+        <v>0.239178</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21958</v>
+        <v>0.21942</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221673</v>
+        <v>0.221181</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234911</v>
+        <v>0.234939</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217978</v>
+        <v>0.217962</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219346</v>
+        <v>0.219123</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230192</v>
+        <v>0.230519</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216289</v>
+        <v>0.216152</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21765</v>
+        <v>0.217643</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224727</v>
+        <v>0.224911</v>
       </c>
       <c r="C85" t="n">
-        <v>0.214678</v>
+        <v>0.214588</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216025</v>
+        <v>0.215987</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219389</v>
+        <v>0.21949</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213349</v>
+        <v>0.213355</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214338</v>
+        <v>0.214452</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214236</v>
+        <v>0.214358</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211967</v>
+        <v>0.211877</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212746</v>
+        <v>0.212794</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.208819</v>
+        <v>0.20885</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210735</v>
+        <v>0.210702</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211392</v>
+        <v>0.211547</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203425</v>
+        <v>0.203665</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209629</v>
+        <v>0.209607</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210443</v>
+        <v>0.210382</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198243</v>
+        <v>0.198377</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208549</v>
+        <v>0.208524</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209405</v>
+        <v>0.209564</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192835</v>
+        <v>0.192972</v>
       </c>
       <c r="C91" t="n">
-        <v>0.207629</v>
+        <v>0.207615</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208396</v>
+        <v>0.208346</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187032</v>
+        <v>0.187174</v>
       </c>
       <c r="C92" t="n">
-        <v>0.206878</v>
+        <v>0.20696</v>
       </c>
       <c r="D92" t="n">
-        <v>0.20753</v>
+        <v>0.207553</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180334</v>
+        <v>0.180615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205997</v>
+        <v>0.206103</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206863</v>
+        <v>0.206652</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172282</v>
+        <v>0.172544</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225253</v>
+        <v>0.225543</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225911</v>
+        <v>0.22555</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244072</v>
+        <v>0.24425</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222309</v>
+        <v>0.222262</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223217</v>
+        <v>0.22277</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240172</v>
+        <v>0.24039</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220084</v>
+        <v>0.22032</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221184</v>
+        <v>0.221267</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235822</v>
+        <v>0.235933</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218237</v>
+        <v>0.21838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220147</v>
+        <v>0.219628</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230969</v>
+        <v>0.231134</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216692</v>
+        <v>0.216821</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217668</v>
+        <v>0.218183</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225969</v>
+        <v>0.226097</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215018</v>
+        <v>0.21521</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216415</v>
+        <v>0.216474</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220669</v>
+        <v>0.220477</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213405</v>
+        <v>0.213546</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215065</v>
+        <v>0.21508</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215418</v>
+        <v>0.215554</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212235</v>
+        <v>0.212401</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21384</v>
+        <v>0.213333</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.209973</v>
+        <v>0.210227</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210961</v>
+        <v>0.211126</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212428</v>
+        <v>0.212309</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204889</v>
+        <v>0.205058</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209774</v>
+        <v>0.209905</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211021</v>
+        <v>0.211453</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199572</v>
+        <v>0.199857</v>
       </c>
       <c r="C104" t="n">
-        <v>0.208779</v>
+        <v>0.208875</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210229</v>
+        <v>0.210322</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194214</v>
+        <v>0.194405</v>
       </c>
       <c r="C105" t="n">
-        <v>0.207869</v>
+        <v>0.207925</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209364</v>
+        <v>0.209731</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188629</v>
+        <v>0.188915</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207059</v>
+        <v>0.207168</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208568</v>
+        <v>0.208617</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182364</v>
+        <v>0.182897</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206291</v>
+        <v>0.206339</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207703</v>
+        <v>0.207885</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174799</v>
+        <v>0.175255</v>
       </c>
       <c r="C108" t="n">
-        <v>0.225885</v>
+        <v>0.226016</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225648</v>
+        <v>0.225592</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165632</v>
+        <v>0.165267</v>
       </c>
       <c r="C109" t="n">
-        <v>0.222695</v>
+        <v>0.222818</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222733</v>
+        <v>0.222745</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241327</v>
+        <v>0.241256</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220375</v>
+        <v>0.220342</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220514</v>
+        <v>0.220645</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237139</v>
+        <v>0.237023</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218588</v>
+        <v>0.218616</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219219</v>
+        <v>0.219077</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232347</v>
+        <v>0.232281</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216774</v>
+        <v>0.216893</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217319</v>
+        <v>0.217285</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227213</v>
+        <v>0.227126</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215244</v>
+        <v>0.215396</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21555</v>
+        <v>0.215797</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221799</v>
+        <v>0.221704</v>
       </c>
       <c r="C114" t="n">
-        <v>0.213913</v>
+        <v>0.21403</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214319</v>
+        <v>0.214388</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216419</v>
+        <v>0.216454</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212506</v>
+        <v>0.212595</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213258</v>
+        <v>0.213197</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211157</v>
+        <v>0.211095</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211307</v>
+        <v>0.211393</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212224</v>
+        <v>0.212051</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205878</v>
+        <v>0.205951</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210328</v>
+        <v>0.210269</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210966</v>
+        <v>0.211109</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200631</v>
+        <v>0.200573</v>
       </c>
       <c r="C118" t="n">
-        <v>0.209158</v>
+        <v>0.209188</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210519</v>
+        <v>0.210305</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19517</v>
+        <v>0.19513</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208247</v>
+        <v>0.2082</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209593</v>
+        <v>0.209355</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189463</v>
+        <v>0.189408</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207283</v>
+        <v>0.207294</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208652</v>
+        <v>0.20852</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.18304</v>
+        <v>0.183011</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206383</v>
+        <v>0.206381</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207319</v>
+        <v>0.207777</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175734</v>
+        <v>0.175702</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205654</v>
+        <v>0.205702</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207133</v>
+        <v>0.207155</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166993</v>
+        <v>0.16679</v>
       </c>
       <c r="C123" t="n">
-        <v>0.223108</v>
+        <v>0.223182</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223326</v>
+        <v>0.22342</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242235</v>
+        <v>0.240332</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220938</v>
+        <v>0.22084</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22113</v>
+        <v>0.221064</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23811</v>
+        <v>0.237778</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218948</v>
+        <v>0.218886</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219493</v>
+        <v>0.21925</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231694</v>
+        <v>0.231629</v>
       </c>
       <c r="C126" t="n">
-        <v>0.21721</v>
+        <v>0.217108</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217783</v>
+        <v>0.21758</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226578</v>
+        <v>0.226567</v>
       </c>
       <c r="C127" t="n">
-        <v>0.215734</v>
+        <v>0.215644</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216252</v>
+        <v>0.216205</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222126</v>
+        <v>0.221103</v>
       </c>
       <c r="C128" t="n">
-        <v>0.214182</v>
+        <v>0.214085</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214852</v>
+        <v>0.214722</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215654</v>
+        <v>0.21548</v>
       </c>
       <c r="C129" t="n">
-        <v>0.212889</v>
+        <v>0.212801</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21345</v>
+        <v>0.213475</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210369</v>
+        <v>0.211918</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211727</v>
+        <v>0.211703</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212474</v>
+        <v>0.212452</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20409</v>
+        <v>0.204319</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210593</v>
+        <v>0.210451</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211116</v>
+        <v>0.210881</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198397</v>
+        <v>0.198506</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209457</v>
+        <v>0.209373</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210339</v>
+        <v>0.209759</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19613</v>
+        <v>0.195937</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208511</v>
+        <v>0.208387</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209316</v>
+        <v>0.208818</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187734</v>
+        <v>0.190794</v>
       </c>
       <c r="C134" t="n">
-        <v>0.207416</v>
+        <v>0.207332</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208175</v>
+        <v>0.208388</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.184708</v>
+        <v>0.179796</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206491</v>
+        <v>0.206473</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207551</v>
+        <v>0.207182</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.177803</v>
+        <v>0.175784</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205881</v>
+        <v>0.205866</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206867</v>
+        <v>0.206787</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169438</v>
+        <v>0.163175</v>
       </c>
       <c r="C137" t="n">
-        <v>0.223699</v>
+        <v>0.22373</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224194</v>
+        <v>0.224092</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.243147</v>
+        <v>0.242906</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221309</v>
+        <v>0.221432</v>
       </c>
       <c r="D138" t="n">
-        <v>0.221873</v>
+        <v>0.221877</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.239056</v>
+        <v>0.23891</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219248</v>
+        <v>0.219303</v>
       </c>
       <c r="D139" t="n">
-        <v>0.219787</v>
+        <v>0.219735</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.234518</v>
+        <v>0.23435</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217624</v>
+        <v>0.217601</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218129</v>
+        <v>0.217989</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229543</v>
+        <v>0.229401</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215874</v>
+        <v>0.215895</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216566</v>
+        <v>0.216498</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.224108</v>
+        <v>0.224179</v>
       </c>
       <c r="C142" t="n">
-        <v>0.214354</v>
+        <v>0.214407</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21519</v>
+        <v>0.215127</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218773</v>
+        <v>0.218746</v>
       </c>
       <c r="C143" t="n">
-        <v>0.213033</v>
+        <v>0.213015</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213995</v>
+        <v>0.213797</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192215</v>
+        <v>0.20155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201477</v>
+        <v>0.200868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199847</v>
+        <v>0.304842</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188384</v>
+        <v>0.196396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201788</v>
+        <v>0.200718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200445</v>
+        <v>0.302705</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187269</v>
+        <v>0.190977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.202029</v>
+        <v>0.200173</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200897</v>
+        <v>0.307759</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.184078</v>
+        <v>0.185271</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201987</v>
+        <v>0.200071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201496</v>
+        <v>0.308229</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177277</v>
+        <v>0.178436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201446</v>
+        <v>0.199823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201292</v>
+        <v>0.310846</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171228</v>
+        <v>0.176366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201681</v>
+        <v>0.199486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200435</v>
+        <v>0.304079</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162374</v>
+        <v>0.163981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201842</v>
+        <v>0.198098</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200379</v>
+        <v>0.302125</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154167</v>
+        <v>0.158479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217458</v>
+        <v>0.216144</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217093</v>
+        <v>0.303491</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23674</v>
+        <v>0.241218</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216255</v>
+        <v>0.214904</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216722</v>
+        <v>0.305243</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232118</v>
+        <v>0.235841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215021</v>
+        <v>0.213555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214649</v>
+        <v>0.305173</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228761</v>
+        <v>0.232546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21398</v>
+        <v>0.212386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212963</v>
+        <v>0.306682</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224882</v>
+        <v>0.226613</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212977</v>
+        <v>0.210874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213284</v>
+        <v>0.30778</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219402</v>
+        <v>0.220379</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212069</v>
+        <v>0.210326</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211711</v>
+        <v>0.309159</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214159</v>
+        <v>0.214405</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210585</v>
+        <v>0.208785</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210709</v>
+        <v>0.309509</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209017</v>
+        <v>0.210231</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209803</v>
+        <v>0.207612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21001</v>
+        <v>0.310008</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205221</v>
+        <v>0.203866</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209112</v>
+        <v>0.206473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209319</v>
+        <v>0.310876</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200136</v>
+        <v>0.197864</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208241</v>
+        <v>0.205244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208492</v>
+        <v>0.311957</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194663</v>
+        <v>0.191784</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207814</v>
+        <v>0.204386</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207865</v>
+        <v>0.314312</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189324</v>
+        <v>0.185496</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206787</v>
+        <v>0.203056</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207059</v>
+        <v>0.314721</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18348</v>
+        <v>0.17834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205761</v>
+        <v>0.201611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206208</v>
+        <v>0.310859</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176449</v>
+        <v>0.170618</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205176</v>
+        <v>0.200655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205335</v>
+        <v>0.308207</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167552</v>
+        <v>0.160957</v>
       </c>
       <c r="C23" t="n">
-        <v>0.221803</v>
+        <v>0.219183</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220048</v>
+        <v>0.309397</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241108</v>
+        <v>0.240805</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219199</v>
+        <v>0.217498</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218274</v>
+        <v>0.307684</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237219</v>
+        <v>0.236757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21787</v>
+        <v>0.216133</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21674</v>
+        <v>0.30961</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232142</v>
+        <v>0.233885</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216425</v>
+        <v>0.214443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216134</v>
+        <v>0.30964</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226994</v>
+        <v>0.226945</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214858</v>
+        <v>0.213219</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214673</v>
+        <v>0.309832</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222619</v>
+        <v>0.222039</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213598</v>
+        <v>0.211893</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213873</v>
+        <v>0.309854</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217866</v>
+        <v>0.21609</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212534</v>
+        <v>0.210614</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212441</v>
+        <v>0.310899</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21247</v>
+        <v>0.21119</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211481</v>
+        <v>0.209476</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2116</v>
+        <v>0.311294</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207923</v>
+        <v>0.206073</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21045</v>
+        <v>0.208284</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210233</v>
+        <v>0.312927</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201761</v>
+        <v>0.202318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209302</v>
+        <v>0.207696</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209678</v>
+        <v>0.313404</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196488</v>
+        <v>0.196881</v>
       </c>
       <c r="C33" t="n">
-        <v>0.208443</v>
+        <v>0.206288</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208323</v>
+        <v>0.315387</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191314</v>
+        <v>0.188732</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207504</v>
+        <v>0.205159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207595</v>
+        <v>0.317291</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185642</v>
+        <v>0.182413</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206494</v>
+        <v>0.203835</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207531</v>
+        <v>0.312022</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17897</v>
+        <v>0.181118</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205712</v>
+        <v>0.202019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206259</v>
+        <v>0.312813</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170501</v>
+        <v>0.167258</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222075</v>
+        <v>0.221608</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22176</v>
+        <v>0.312316</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242489</v>
+        <v>0.244328</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219966</v>
+        <v>0.218269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219894</v>
+        <v>0.311933</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2391</v>
+        <v>0.240804</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218362</v>
+        <v>0.216655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218768</v>
+        <v>0.312508</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234687</v>
+        <v>0.235871</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216873</v>
+        <v>0.215394</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217062</v>
+        <v>0.311902</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230404</v>
+        <v>0.230037</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215351</v>
+        <v>0.214107</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215714</v>
+        <v>0.311717</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225541</v>
+        <v>0.224183</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214028</v>
+        <v>0.21275</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214443</v>
+        <v>0.313282</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220163</v>
+        <v>0.219414</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212795</v>
+        <v>0.211516</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213607</v>
+        <v>0.313413</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214822</v>
+        <v>0.211983</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21153</v>
+        <v>0.210259</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211795</v>
+        <v>0.315198</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2099</v>
+        <v>0.208855</v>
       </c>
       <c r="C45" t="n">
-        <v>0.210566</v>
+        <v>0.20909</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211025</v>
+        <v>0.317211</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205119</v>
+        <v>0.2017</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209533</v>
+        <v>0.20805</v>
       </c>
       <c r="D46" t="n">
-        <v>0.209921</v>
+        <v>0.317674</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199486</v>
+        <v>0.196212</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208495</v>
+        <v>0.206792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.208917</v>
+        <v>0.318874</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193733</v>
+        <v>0.193996</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207531</v>
+        <v>0.205589</v>
       </c>
       <c r="D48" t="n">
-        <v>0.207996</v>
+        <v>0.319201</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187685</v>
+        <v>0.184652</v>
       </c>
       <c r="C49" t="n">
-        <v>0.206583</v>
+        <v>0.20407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207041</v>
+        <v>0.322121</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181482</v>
+        <v>0.182572</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205656</v>
+        <v>0.20239</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206291</v>
+        <v>0.318319</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17386</v>
+        <v>0.172603</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224388</v>
+        <v>0.222671</v>
       </c>
       <c r="D51" t="n">
-        <v>0.224136</v>
+        <v>0.316359</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165089</v>
+        <v>0.159612</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221575</v>
+        <v>0.220442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221815</v>
+        <v>0.316465</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240621</v>
+        <v>0.240127</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219743</v>
+        <v>0.218514</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219745</v>
+        <v>0.316648</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236832</v>
+        <v>0.238469</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218271</v>
+        <v>0.216672</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218241</v>
+        <v>0.318071</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23172</v>
+        <v>0.232335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216411</v>
+        <v>0.215284</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217125</v>
+        <v>0.319033</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226546</v>
+        <v>0.226736</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21505</v>
+        <v>0.213787</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215627</v>
+        <v>0.319402</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221197</v>
+        <v>0.22214</v>
       </c>
       <c r="C57" t="n">
-        <v>0.213676</v>
+        <v>0.212075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213991</v>
+        <v>0.319632</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215592</v>
+        <v>0.215115</v>
       </c>
       <c r="C58" t="n">
-        <v>0.212292</v>
+        <v>0.210779</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212714</v>
+        <v>0.320974</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211105</v>
+        <v>0.212469</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211106</v>
+        <v>0.209631</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211578</v>
+        <v>0.323392</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205331</v>
+        <v>0.204079</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210021</v>
+        <v>0.208401</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21037</v>
+        <v>0.324921</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200628</v>
+        <v>0.198987</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209015</v>
+        <v>0.207163</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209522</v>
+        <v>0.327859</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195449</v>
+        <v>0.195123</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208069</v>
+        <v>0.205832</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208491</v>
+        <v>0.330948</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189835</v>
+        <v>0.189722</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207125</v>
+        <v>0.204188</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207489</v>
+        <v>0.333622</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183877</v>
+        <v>0.184094</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206264</v>
+        <v>0.202913</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206609</v>
+        <v>0.370232</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176246</v>
+        <v>0.177386</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205333</v>
+        <v>0.200888</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205868</v>
+        <v>0.377436</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167677</v>
+        <v>0.162887</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221574</v>
+        <v>0.220178</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221519</v>
+        <v>0.367521</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242064</v>
+        <v>0.242245</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219713</v>
+        <v>0.218229</v>
       </c>
       <c r="D67" t="n">
-        <v>0.219826</v>
+        <v>0.377453</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238003</v>
+        <v>0.236919</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21827</v>
+        <v>0.21683</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218193</v>
+        <v>0.375045</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23357</v>
+        <v>0.231522</v>
       </c>
       <c r="C69" t="n">
-        <v>0.216875</v>
+        <v>0.21527</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216815</v>
+        <v>0.371173</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22845</v>
+        <v>0.226613</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215325</v>
+        <v>0.213811</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21552</v>
+        <v>0.374955</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223452</v>
+        <v>0.222883</v>
       </c>
       <c r="C71" t="n">
-        <v>0.213902</v>
+        <v>0.212419</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214231</v>
+        <v>0.376385</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217971</v>
+        <v>0.217407</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212555</v>
+        <v>0.211234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213075</v>
+        <v>0.371797</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212662</v>
+        <v>0.213791</v>
       </c>
       <c r="C73" t="n">
-        <v>0.211449</v>
+        <v>0.210072</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21189</v>
+        <v>0.375755</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207457</v>
+        <v>0.207606</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210238</v>
+        <v>0.208829</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210752</v>
+        <v>0.375162</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202185</v>
+        <v>0.203429</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209197</v>
+        <v>0.207535</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209884</v>
+        <v>0.372203</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197529</v>
+        <v>0.198524</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208156</v>
+        <v>0.206202</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20883</v>
+        <v>0.370089</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191819</v>
+        <v>0.193324</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207213</v>
+        <v>0.204621</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207996</v>
+        <v>0.372807</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185565</v>
+        <v>0.182686</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206297</v>
+        <v>0.202976</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207198</v>
+        <v>0.427246</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178758</v>
+        <v>0.180532</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205519</v>
+        <v>0.201383</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206544</v>
+        <v>0.424093</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171275</v>
+        <v>0.172011</v>
       </c>
       <c r="C80" t="n">
-        <v>0.223775</v>
+        <v>0.222133</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226163</v>
+        <v>0.420409</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243546</v>
+        <v>0.241545</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22151</v>
+        <v>0.219996</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223356</v>
+        <v>0.414561</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239178</v>
+        <v>0.237521</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21942</v>
+        <v>0.217975</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221181</v>
+        <v>0.416706</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234939</v>
+        <v>0.233263</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217962</v>
+        <v>0.216317</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219123</v>
+        <v>0.413519</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230519</v>
+        <v>0.22793</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216152</v>
+        <v>0.214476</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217643</v>
+        <v>0.412796</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224911</v>
+        <v>0.223011</v>
       </c>
       <c r="C85" t="n">
-        <v>0.214588</v>
+        <v>0.213042</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215987</v>
+        <v>0.402812</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.21949</v>
+        <v>0.217089</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213355</v>
+        <v>0.21177</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214452</v>
+        <v>0.401326</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214358</v>
+        <v>0.211741</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211877</v>
+        <v>0.210477</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212794</v>
+        <v>0.39864</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20885</v>
+        <v>0.208621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210702</v>
+        <v>0.209228</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211547</v>
+        <v>0.395868</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203665</v>
+        <v>0.203613</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209607</v>
+        <v>0.207794</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210382</v>
+        <v>0.391916</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198377</v>
+        <v>0.198462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208524</v>
+        <v>0.206345</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209564</v>
+        <v>0.394978</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192972</v>
+        <v>0.193562</v>
       </c>
       <c r="C91" t="n">
-        <v>0.207615</v>
+        <v>0.205</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208346</v>
+        <v>0.39412</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187174</v>
+        <v>0.187998</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20696</v>
+        <v>0.203388</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207553</v>
+        <v>0.440393</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180615</v>
+        <v>0.181535</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206103</v>
+        <v>0.201891</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206652</v>
+        <v>0.441446</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172544</v>
+        <v>0.173603</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225543</v>
+        <v>0.223436</v>
       </c>
       <c r="D94" t="n">
-        <v>0.22555</v>
+        <v>0.442586</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24425</v>
+        <v>0.24384</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222262</v>
+        <v>0.220526</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22277</v>
+        <v>0.434558</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24039</v>
+        <v>0.239943</v>
       </c>
       <c r="C96" t="n">
-        <v>0.22032</v>
+        <v>0.218448</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221267</v>
+        <v>0.430517</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235933</v>
+        <v>0.236432</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21838</v>
+        <v>0.216499</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219628</v>
+        <v>0.417994</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231134</v>
+        <v>0.230313</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216821</v>
+        <v>0.214888</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218183</v>
+        <v>0.412185</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226097</v>
+        <v>0.225025</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21521</v>
+        <v>0.213276</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216474</v>
+        <v>0.411303</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220477</v>
+        <v>0.219502</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213546</v>
+        <v>0.211931</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21508</v>
+        <v>0.404816</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215554</v>
+        <v>0.213691</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212401</v>
+        <v>0.210654</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213333</v>
+        <v>0.402413</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210227</v>
+        <v>0.20857</v>
       </c>
       <c r="C102" t="n">
-        <v>0.211126</v>
+        <v>0.209372</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212309</v>
+        <v>0.398693</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205058</v>
+        <v>0.202884</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209905</v>
+        <v>0.208127</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211453</v>
+        <v>0.394792</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199857</v>
+        <v>0.197047</v>
       </c>
       <c r="C104" t="n">
-        <v>0.208875</v>
+        <v>0.206712</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210322</v>
+        <v>0.388916</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194405</v>
+        <v>0.191064</v>
       </c>
       <c r="C105" t="n">
-        <v>0.207925</v>
+        <v>0.205256</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209731</v>
+        <v>0.388097</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188915</v>
+        <v>0.184548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207168</v>
+        <v>0.203636</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208617</v>
+        <v>0.385045</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182897</v>
+        <v>0.177554</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206339</v>
+        <v>0.202123</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207885</v>
+        <v>0.421022</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175255</v>
+        <v>0.169424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.226016</v>
+        <v>0.224175</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225592</v>
+        <v>0.415044</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165267</v>
+        <v>0.166421</v>
       </c>
       <c r="C109" t="n">
-        <v>0.222818</v>
+        <v>0.221118</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222745</v>
+        <v>0.397835</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241256</v>
+        <v>0.242424</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220342</v>
+        <v>0.218816</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220645</v>
+        <v>0.392207</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237023</v>
+        <v>0.238376</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218616</v>
+        <v>0.216802</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219077</v>
+        <v>0.400984</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232281</v>
+        <v>0.233412</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216893</v>
+        <v>0.215148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217285</v>
+        <v>0.396122</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227126</v>
+        <v>0.227914</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215396</v>
+        <v>0.213662</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215797</v>
+        <v>0.393095</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221704</v>
+        <v>0.221007</v>
       </c>
       <c r="C114" t="n">
-        <v>0.21403</v>
+        <v>0.212275</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214388</v>
+        <v>0.389036</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216454</v>
+        <v>0.216861</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212595</v>
+        <v>0.211028</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213197</v>
+        <v>0.392636</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211095</v>
+        <v>0.212411</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211393</v>
+        <v>0.209775</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212051</v>
+        <v>0.381903</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205951</v>
+        <v>0.206301</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210269</v>
+        <v>0.208471</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211109</v>
+        <v>0.388508</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200573</v>
+        <v>0.198837</v>
       </c>
       <c r="C118" t="n">
-        <v>0.209188</v>
+        <v>0.207136</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210305</v>
+        <v>0.383431</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19513</v>
+        <v>0.192244</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2082</v>
+        <v>0.205787</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209355</v>
+        <v>0.379559</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189408</v>
+        <v>0.186024</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207294</v>
+        <v>0.204138</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20852</v>
+        <v>0.367162</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183011</v>
+        <v>0.184141</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206381</v>
+        <v>0.202445</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207777</v>
+        <v>0.446468</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175702</v>
+        <v>0.171453</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205702</v>
+        <v>0.200882</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207155</v>
+        <v>0.426974</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16679</v>
+        <v>0.168393</v>
       </c>
       <c r="C123" t="n">
-        <v>0.223182</v>
+        <v>0.22156</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22342</v>
+        <v>0.417038</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240332</v>
+        <v>0.241843</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22084</v>
+        <v>0.219365</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221064</v>
+        <v>0.413099</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237778</v>
+        <v>0.238604</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218886</v>
+        <v>0.217333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.21925</v>
+        <v>0.419342</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231629</v>
+        <v>0.233348</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217108</v>
+        <v>0.215635</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21758</v>
+        <v>0.409791</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226567</v>
+        <v>0.228829</v>
       </c>
       <c r="C127" t="n">
-        <v>0.215644</v>
+        <v>0.214029</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216205</v>
+        <v>0.405098</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221103</v>
+        <v>0.222804</v>
       </c>
       <c r="C128" t="n">
-        <v>0.214085</v>
+        <v>0.212671</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214722</v>
+        <v>0.400591</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21548</v>
+        <v>0.218037</v>
       </c>
       <c r="C129" t="n">
-        <v>0.212801</v>
+        <v>0.211332</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213475</v>
+        <v>0.397272</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211918</v>
+        <v>0.211844</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211703</v>
+        <v>0.210112</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212452</v>
+        <v>0.391486</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204319</v>
+        <v>0.207939</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210451</v>
+        <v>0.208597</v>
       </c>
       <c r="D131" t="n">
-        <v>0.210881</v>
+        <v>0.392251</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198506</v>
+        <v>0.201992</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209373</v>
+        <v>0.207199</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209759</v>
+        <v>0.388798</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.195937</v>
+        <v>0.197198</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208387</v>
+        <v>0.205804</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208818</v>
+        <v>0.391824</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190794</v>
+        <v>0.191805</v>
       </c>
       <c r="C134" t="n">
-        <v>0.207332</v>
+        <v>0.204384</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208388</v>
+        <v>0.381321</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179796</v>
+        <v>0.185501</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206473</v>
+        <v>0.202832</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207182</v>
+        <v>0.437864</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.175784</v>
+        <v>0.178863</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205866</v>
+        <v>0.201091</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206787</v>
+        <v>0.438023</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163175</v>
+        <v>0.170525</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22373</v>
+        <v>0.22232</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224092</v>
+        <v>0.446569</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242906</v>
+        <v>0.243639</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221432</v>
+        <v>0.219842</v>
       </c>
       <c r="D138" t="n">
-        <v>0.221877</v>
+        <v>0.438033</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.23891</v>
+        <v>0.240477</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219303</v>
+        <v>0.217773</v>
       </c>
       <c r="D139" t="n">
-        <v>0.219735</v>
+        <v>0.426743</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23435</v>
+        <v>0.236751</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217601</v>
+        <v>0.216014</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217989</v>
+        <v>0.421124</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229401</v>
+        <v>0.232135</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215895</v>
+        <v>0.21434</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216498</v>
+        <v>0.420582</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.224179</v>
+        <v>0.224638</v>
       </c>
       <c r="C142" t="n">
-        <v>0.214407</v>
+        <v>0.212904</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215127</v>
+        <v>0.412618</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218746</v>
+        <v>0.218697</v>
       </c>
       <c r="C143" t="n">
-        <v>0.213015</v>
+        <v>0.211567</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213797</v>
+        <v>0.410356</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192215</v>
+        <v>0.191354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.201477</v>
+        <v>0.20135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199847</v>
+        <v>0.201409</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188384</v>
+        <v>0.187462</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201788</v>
+        <v>0.201851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200445</v>
+        <v>0.200693</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187269</v>
+        <v>0.187632</v>
       </c>
       <c r="C4" t="n">
-        <v>0.202029</v>
+        <v>0.201745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200897</v>
+        <v>0.20173</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.184078</v>
+        <v>0.182909</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201987</v>
+        <v>0.202303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201496</v>
+        <v>0.200917</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177277</v>
+        <v>0.176434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201446</v>
+        <v>0.201511</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201292</v>
+        <v>0.200462</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171228</v>
+        <v>0.171124</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201681</v>
+        <v>0.202045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200435</v>
+        <v>0.201861</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162374</v>
+        <v>0.162893</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201842</v>
+        <v>0.20175</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200379</v>
+        <v>0.200316</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154167</v>
+        <v>0.153203</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217458</v>
+        <v>0.217589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217093</v>
+        <v>0.216706</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23674</v>
+        <v>0.234701</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216255</v>
+        <v>0.216378</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216722</v>
+        <v>0.215587</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.232118</v>
+        <v>0.230971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215021</v>
+        <v>0.215003</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214649</v>
+        <v>0.214765</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228761</v>
+        <v>0.227133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21398</v>
+        <v>0.214002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212963</v>
+        <v>0.21405</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224882</v>
+        <v>0.224093</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212977</v>
+        <v>0.21291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213284</v>
+        <v>0.213223</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219402</v>
+        <v>0.217466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212069</v>
+        <v>0.211844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211711</v>
+        <v>0.21203</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.214159</v>
+        <v>0.211955</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210585</v>
+        <v>0.210443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210709</v>
+        <v>0.210668</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209017</v>
+        <v>0.21034</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209803</v>
+        <v>0.209886</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21001</v>
+        <v>0.209665</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205221</v>
+        <v>0.205442</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209112</v>
+        <v>0.209163</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209319</v>
+        <v>0.20933</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200136</v>
+        <v>0.199909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208241</v>
+        <v>0.208373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208492</v>
+        <v>0.208793</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194663</v>
+        <v>0.194421</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207814</v>
+        <v>0.20785</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207865</v>
+        <v>0.208045</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189324</v>
+        <v>0.188568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206787</v>
+        <v>0.206812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207059</v>
+        <v>0.207516</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18348</v>
+        <v>0.183629</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205761</v>
+        <v>0.205763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206208</v>
+        <v>0.206622</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176449</v>
+        <v>0.175655</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205176</v>
+        <v>0.205174</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205335</v>
+        <v>0.205391</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167552</v>
+        <v>0.1675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.221803</v>
+        <v>0.220643</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220048</v>
+        <v>0.220523</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241108</v>
+        <v>0.241348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219199</v>
+        <v>0.219155</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218274</v>
+        <v>0.219115</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237219</v>
+        <v>0.237064</v>
       </c>
       <c r="C25" t="n">
-        <v>0.21787</v>
+        <v>0.217878</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21674</v>
+        <v>0.217588</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232142</v>
+        <v>0.231839</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216425</v>
+        <v>0.216503</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216134</v>
+        <v>0.216345</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226994</v>
+        <v>0.226619</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214858</v>
+        <v>0.215208</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214673</v>
+        <v>0.21514</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222619</v>
+        <v>0.222786</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213598</v>
+        <v>0.213569</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213873</v>
+        <v>0.214016</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217866</v>
+        <v>0.218004</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212534</v>
+        <v>0.212699</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212441</v>
+        <v>0.212877</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21247</v>
+        <v>0.212205</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211481</v>
+        <v>0.211466</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2116</v>
+        <v>0.211354</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207923</v>
+        <v>0.208005</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21045</v>
+        <v>0.210513</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210233</v>
+        <v>0.210661</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201761</v>
+        <v>0.201982</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209302</v>
+        <v>0.209403</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209678</v>
+        <v>0.209755</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196488</v>
+        <v>0.197087</v>
       </c>
       <c r="C33" t="n">
-        <v>0.208443</v>
+        <v>0.208345</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208323</v>
+        <v>0.209003</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191314</v>
+        <v>0.191915</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207504</v>
+        <v>0.2075</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207595</v>
+        <v>0.20813</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185642</v>
+        <v>0.186119</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206494</v>
+        <v>0.206518</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207531</v>
+        <v>0.207597</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17897</v>
+        <v>0.179129</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205712</v>
+        <v>0.205629</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206259</v>
+        <v>0.206649</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170501</v>
+        <v>0.170795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222075</v>
+        <v>0.221606</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22176</v>
+        <v>0.221689</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242489</v>
+        <v>0.242039</v>
       </c>
       <c r="C38" t="n">
-        <v>0.219966</v>
+        <v>0.220025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219894</v>
+        <v>0.220059</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2391</v>
+        <v>0.238589</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218362</v>
+        <v>0.218545</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218768</v>
+        <v>0.218302</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234687</v>
+        <v>0.234</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216873</v>
+        <v>0.21703</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217062</v>
+        <v>0.216837</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230404</v>
+        <v>0.229868</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215351</v>
+        <v>0.215505</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215714</v>
+        <v>0.215939</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225541</v>
+        <v>0.225378</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214028</v>
+        <v>0.214045</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214443</v>
+        <v>0.215103</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220163</v>
+        <v>0.220056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212795</v>
+        <v>0.21272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213607</v>
+        <v>0.213736</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214822</v>
+        <v>0.214694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21153</v>
+        <v>0.211532</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211795</v>
+        <v>0.212718</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2099</v>
+        <v>0.209384</v>
       </c>
       <c r="C45" t="n">
-        <v>0.210566</v>
+        <v>0.210567</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211025</v>
+        <v>0.211146</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.205119</v>
+        <v>0.204675</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209533</v>
+        <v>0.209521</v>
       </c>
       <c r="D46" t="n">
-        <v>0.209921</v>
+        <v>0.210342</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199486</v>
+        <v>0.19944</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208495</v>
+        <v>0.208487</v>
       </c>
       <c r="D47" t="n">
-        <v>0.208917</v>
+        <v>0.209772</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193733</v>
+        <v>0.19346</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207531</v>
+        <v>0.207641</v>
       </c>
       <c r="D48" t="n">
-        <v>0.207996</v>
+        <v>0.208613</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187685</v>
+        <v>0.187727</v>
       </c>
       <c r="C49" t="n">
-        <v>0.206583</v>
+        <v>0.206643</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207041</v>
+        <v>0.207758</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181482</v>
+        <v>0.181314</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205656</v>
+        <v>0.205763</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206291</v>
+        <v>0.206455</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.17386</v>
+        <v>0.173411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.224388</v>
+        <v>0.222239</v>
       </c>
       <c r="D51" t="n">
-        <v>0.224136</v>
+        <v>0.222493</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165089</v>
+        <v>0.165377</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221575</v>
+        <v>0.220428</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221815</v>
+        <v>0.220605</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240621</v>
+        <v>0.238818</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219743</v>
+        <v>0.219033</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219745</v>
+        <v>0.219193</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236832</v>
+        <v>0.234946</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218271</v>
+        <v>0.21779</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218241</v>
+        <v>0.217711</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23172</v>
+        <v>0.23026</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216411</v>
+        <v>0.216069</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217125</v>
+        <v>0.216171</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226546</v>
+        <v>0.224928</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21505</v>
+        <v>0.214619</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215627</v>
+        <v>0.214885</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221197</v>
+        <v>0.21932</v>
       </c>
       <c r="C57" t="n">
-        <v>0.213676</v>
+        <v>0.213334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213991</v>
+        <v>0.214156</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215592</v>
+        <v>0.213514</v>
       </c>
       <c r="C58" t="n">
-        <v>0.212292</v>
+        <v>0.212288</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212714</v>
+        <v>0.212431</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211105</v>
+        <v>0.208731</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211106</v>
+        <v>0.211119</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211578</v>
+        <v>0.211382</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205331</v>
+        <v>0.203179</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210021</v>
+        <v>0.210024</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21037</v>
+        <v>0.210444</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200628</v>
+        <v>0.197713</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209015</v>
+        <v>0.209096</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209522</v>
+        <v>0.209334</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195449</v>
+        <v>0.191801</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208069</v>
+        <v>0.208185</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208491</v>
+        <v>0.208335</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189835</v>
+        <v>0.185582</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207125</v>
+        <v>0.207137</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207489</v>
+        <v>0.207487</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183877</v>
+        <v>0.18358</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206264</v>
+        <v>0.20633</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206609</v>
+        <v>0.206598</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176246</v>
+        <v>0.176492</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205333</v>
+        <v>0.205382</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205868</v>
+        <v>0.205961</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167677</v>
+        <v>0.16778</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221574</v>
+        <v>0.221781</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221519</v>
+        <v>0.22174</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242064</v>
+        <v>0.240146</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219713</v>
+        <v>0.219802</v>
       </c>
       <c r="D67" t="n">
-        <v>0.219826</v>
+        <v>0.220147</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238003</v>
+        <v>0.236121</v>
       </c>
       <c r="C68" t="n">
-        <v>0.21827</v>
+        <v>0.218337</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218193</v>
+        <v>0.218659</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.23357</v>
+        <v>0.231446</v>
       </c>
       <c r="C69" t="n">
-        <v>0.216875</v>
+        <v>0.216792</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216815</v>
+        <v>0.217159</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22845</v>
+        <v>0.226396</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215325</v>
+        <v>0.215341</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21552</v>
+        <v>0.215779</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.223452</v>
+        <v>0.221272</v>
       </c>
       <c r="C71" t="n">
-        <v>0.213902</v>
+        <v>0.214014</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214231</v>
+        <v>0.214388</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217971</v>
+        <v>0.215765</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212555</v>
+        <v>0.212701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213075</v>
+        <v>0.213057</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212662</v>
+        <v>0.210046</v>
       </c>
       <c r="C73" t="n">
-        <v>0.211449</v>
+        <v>0.211555</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21189</v>
+        <v>0.212108</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207457</v>
+        <v>0.207059</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210238</v>
+        <v>0.210351</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210752</v>
+        <v>0.210941</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202185</v>
+        <v>0.202343</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209197</v>
+        <v>0.209208</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209884</v>
+        <v>0.209942</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197529</v>
+        <v>0.193677</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208156</v>
+        <v>0.208209</v>
       </c>
       <c r="D76" t="n">
-        <v>0.20883</v>
+        <v>0.208947</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.191819</v>
+        <v>0.187273</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207213</v>
+        <v>0.207225</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207996</v>
+        <v>0.207943</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.185565</v>
+        <v>0.180952</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206297</v>
+        <v>0.20633</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207198</v>
+        <v>0.206981</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.178758</v>
+        <v>0.173366</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205519</v>
+        <v>0.205507</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206544</v>
+        <v>0.206112</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171275</v>
+        <v>0.171207</v>
       </c>
       <c r="C80" t="n">
-        <v>0.223775</v>
+        <v>0.223857</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226163</v>
+        <v>0.226388</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243546</v>
+        <v>0.241105</v>
       </c>
       <c r="C81" t="n">
-        <v>0.22151</v>
+        <v>0.221296</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223356</v>
+        <v>0.223646</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239178</v>
+        <v>0.237155</v>
       </c>
       <c r="C82" t="n">
-        <v>0.21942</v>
+        <v>0.219464</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221181</v>
+        <v>0.221752</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.234939</v>
+        <v>0.232871</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217962</v>
+        <v>0.217723</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219123</v>
+        <v>0.219262</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.230519</v>
+        <v>0.228103</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216152</v>
+        <v>0.216131</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217643</v>
+        <v>0.217834</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224911</v>
+        <v>0.222695</v>
       </c>
       <c r="C85" t="n">
-        <v>0.214588</v>
+        <v>0.214511</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215987</v>
+        <v>0.215864</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.21949</v>
+        <v>0.217381</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213355</v>
+        <v>0.213156</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214452</v>
+        <v>0.214839</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.214358</v>
+        <v>0.211906</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211877</v>
+        <v>0.211959</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212794</v>
+        <v>0.212575</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20885</v>
+        <v>0.205985</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210702</v>
+        <v>0.210703</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211547</v>
+        <v>0.211492</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203665</v>
+        <v>0.200445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209607</v>
+        <v>0.209545</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210382</v>
+        <v>0.210286</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198377</v>
+        <v>0.194831</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208524</v>
+        <v>0.208482</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209564</v>
+        <v>0.209473</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.192972</v>
+        <v>0.188579</v>
       </c>
       <c r="C91" t="n">
-        <v>0.207615</v>
+        <v>0.20766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208346</v>
+        <v>0.209042</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187174</v>
+        <v>0.182244</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20696</v>
+        <v>0.206938</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207553</v>
+        <v>0.207559</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180615</v>
+        <v>0.17491</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206103</v>
+        <v>0.205884</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206652</v>
+        <v>0.207356</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172544</v>
+        <v>0.166151</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225543</v>
+        <v>0.225319</v>
       </c>
       <c r="D94" t="n">
-        <v>0.22555</v>
+        <v>0.226047</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.24425</v>
+        <v>0.242164</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222262</v>
+        <v>0.222067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22277</v>
+        <v>0.223188</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24039</v>
+        <v>0.238286</v>
       </c>
       <c r="C96" t="n">
-        <v>0.22032</v>
+        <v>0.219998</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221267</v>
+        <v>0.221305</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235933</v>
+        <v>0.234097</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21838</v>
+        <v>0.218175</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219628</v>
+        <v>0.219716</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.231134</v>
+        <v>0.229011</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216821</v>
+        <v>0.216646</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218183</v>
+        <v>0.218024</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.226097</v>
+        <v>0.224007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.21521</v>
+        <v>0.215051</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216474</v>
+        <v>0.216289</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220477</v>
+        <v>0.218499</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213546</v>
+        <v>0.213397</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21508</v>
+        <v>0.214851</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215554</v>
+        <v>0.212973</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212401</v>
+        <v>0.212039</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213333</v>
+        <v>0.213059</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.210227</v>
+        <v>0.207351</v>
       </c>
       <c r="C102" t="n">
-        <v>0.211126</v>
+        <v>0.210947</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212309</v>
+        <v>0.21169</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205058</v>
+        <v>0.204826</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209905</v>
+        <v>0.209716</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211453</v>
+        <v>0.211214</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199857</v>
+        <v>0.199621</v>
       </c>
       <c r="C104" t="n">
-        <v>0.208875</v>
+        <v>0.208745</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210322</v>
+        <v>0.209877</v>
       </c>
     </row>
     <row r="105">
@@ -4692,10 +4692,10 @@
         <v>0.194405</v>
       </c>
       <c r="C105" t="n">
-        <v>0.207925</v>
+        <v>0.207778</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209731</v>
+        <v>0.209336</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188915</v>
+        <v>0.188859</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207168</v>
+        <v>0.207046</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208617</v>
+        <v>0.208363</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182897</v>
+        <v>0.182364</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206339</v>
+        <v>0.206237</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207885</v>
+        <v>0.207401</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175255</v>
+        <v>0.175103</v>
       </c>
       <c r="C108" t="n">
-        <v>0.226016</v>
+        <v>0.225826</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225592</v>
+        <v>0.225653</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165267</v>
+        <v>0.165492</v>
       </c>
       <c r="C109" t="n">
-        <v>0.222818</v>
+        <v>0.222621</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222745</v>
+        <v>0.222888</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241256</v>
+        <v>0.241162</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220342</v>
+        <v>0.220254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220645</v>
+        <v>0.220518</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237023</v>
+        <v>0.23693</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218616</v>
+        <v>0.218385</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219077</v>
+        <v>0.218779</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232281</v>
+        <v>0.232169</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216893</v>
+        <v>0.216751</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217285</v>
+        <v>0.217223</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227126</v>
+        <v>0.227047</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215396</v>
+        <v>0.215135</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215797</v>
+        <v>0.215736</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221704</v>
+        <v>0.221699</v>
       </c>
       <c r="C114" t="n">
-        <v>0.21403</v>
+        <v>0.213838</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214388</v>
+        <v>0.214518</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216454</v>
+        <v>0.216394</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212595</v>
+        <v>0.212364</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213197</v>
+        <v>0.213217</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211095</v>
+        <v>0.211096</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211393</v>
+        <v>0.211227</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212051</v>
+        <v>0.212063</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205951</v>
+        <v>0.205808</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210269</v>
+        <v>0.210225</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211109</v>
+        <v>0.211039</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200573</v>
+        <v>0.200539</v>
       </c>
       <c r="C118" t="n">
-        <v>0.209188</v>
+        <v>0.208972</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210305</v>
+        <v>0.210392</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19513</v>
+        <v>0.195145</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2082</v>
+        <v>0.208149</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209355</v>
+        <v>0.209276</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189408</v>
+        <v>0.189369</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207294</v>
+        <v>0.207172</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20852</v>
+        <v>0.208604</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183011</v>
+        <v>0.182943</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206381</v>
+        <v>0.206351</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207777</v>
+        <v>0.207877</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175702</v>
+        <v>0.175578</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205702</v>
+        <v>0.205576</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207155</v>
+        <v>0.207027</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16679</v>
+        <v>0.166687</v>
       </c>
       <c r="C123" t="n">
-        <v>0.223182</v>
+        <v>0.223108</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22342</v>
+        <v>0.223059</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.240332</v>
+        <v>0.242151</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22084</v>
+        <v>0.220803</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221064</v>
+        <v>0.220872</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237778</v>
+        <v>0.237976</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218886</v>
+        <v>0.218824</v>
       </c>
       <c r="D125" t="n">
-        <v>0.21925</v>
+        <v>0.218924</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231629</v>
+        <v>0.231589</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217108</v>
+        <v>0.217128</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21758</v>
+        <v>0.217297</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226567</v>
+        <v>0.226492</v>
       </c>
       <c r="C127" t="n">
-        <v>0.215644</v>
+        <v>0.215612</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216205</v>
+        <v>0.21588</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221103</v>
+        <v>0.221073</v>
       </c>
       <c r="C128" t="n">
-        <v>0.214085</v>
+        <v>0.214063</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214722</v>
+        <v>0.214538</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21548</v>
+        <v>0.215487</v>
       </c>
       <c r="C129" t="n">
-        <v>0.212801</v>
+        <v>0.212751</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213475</v>
+        <v>0.213349</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211918</v>
+        <v>0.209715</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211703</v>
+        <v>0.211658</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212452</v>
+        <v>0.212107</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204319</v>
+        <v>0.204143</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210451</v>
+        <v>0.210404</v>
       </c>
       <c r="D131" t="n">
-        <v>0.210881</v>
+        <v>0.211169</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198506</v>
+        <v>0.198462</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209373</v>
+        <v>0.209279</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209759</v>
+        <v>0.210038</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.195937</v>
+        <v>0.193068</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208387</v>
+        <v>0.208381</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208818</v>
+        <v>0.209056</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190794</v>
+        <v>0.186473</v>
       </c>
       <c r="C134" t="n">
-        <v>0.207332</v>
+        <v>0.207277</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208388</v>
+        <v>0.208032</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179796</v>
+        <v>0.179786</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206473</v>
+        <v>0.206375</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207182</v>
+        <v>0.207125</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.175784</v>
+        <v>0.172138</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205866</v>
+        <v>0.205806</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206787</v>
+        <v>0.206735</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163175</v>
+        <v>0.163225</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22373</v>
+        <v>0.22361</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224092</v>
+        <v>0.224097</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242906</v>
+        <v>0.242421</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221432</v>
+        <v>0.221259</v>
       </c>
       <c r="D138" t="n">
-        <v>0.221877</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.23891</v>
+        <v>0.238404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219303</v>
+        <v>0.219206</v>
       </c>
       <c r="D139" t="n">
-        <v>0.219735</v>
+        <v>0.220052</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23435</v>
+        <v>0.233502</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217601</v>
+        <v>0.217505</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217989</v>
+        <v>0.218093</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229401</v>
+        <v>0.228639</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215895</v>
+        <v>0.215772</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216498</v>
+        <v>0.216444</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.224179</v>
+        <v>0.223221</v>
       </c>
       <c r="C142" t="n">
-        <v>0.214407</v>
+        <v>0.214271</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215127</v>
+        <v>0.21503</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218746</v>
+        <v>0.217577</v>
       </c>
       <c r="C143" t="n">
-        <v>0.213015</v>
+        <v>0.212966</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213797</v>
+        <v>0.213638</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191354</v>
+        <v>0.192115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.20135</v>
+        <v>0.202202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201409</v>
+        <v>0.20173</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187462</v>
+        <v>0.188401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201851</v>
+        <v>0.202616</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200693</v>
+        <v>0.200994</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187632</v>
+        <v>0.187481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201745</v>
+        <v>0.202092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20173</v>
+        <v>0.202056</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182909</v>
+        <v>0.183723</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202303</v>
+        <v>0.202908</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200917</v>
+        <v>0.20128</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176434</v>
+        <v>0.177213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201511</v>
+        <v>0.201702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200462</v>
+        <v>0.200014</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171124</v>
+        <v>0.171342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202045</v>
+        <v>0.202052</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201861</v>
+        <v>0.200912</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162893</v>
+        <v>0.162812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20175</v>
+        <v>0.202208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200316</v>
+        <v>0.200592</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.153203</v>
+        <v>0.154225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217589</v>
+        <v>0.218826</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216706</v>
+        <v>0.21693</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234701</v>
+        <v>0.234877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.216378</v>
+        <v>0.21683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215587</v>
+        <v>0.215711</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230971</v>
+        <v>0.230894</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215003</v>
+        <v>0.21514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214765</v>
+        <v>0.215189</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227133</v>
+        <v>0.226342</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214002</v>
+        <v>0.214243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21405</v>
+        <v>0.213806</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.224093</v>
+        <v>0.223742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21291</v>
+        <v>0.212912</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213223</v>
+        <v>0.212778</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217466</v>
+        <v>0.217712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211844</v>
+        <v>0.212116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21203</v>
+        <v>0.212133</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211955</v>
+        <v>0.212249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210443</v>
+        <v>0.210719</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210668</v>
+        <v>0.210805</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21034</v>
+        <v>0.209899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209886</v>
+        <v>0.210002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209665</v>
+        <v>0.209743</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205442</v>
+        <v>0.206739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209163</v>
+        <v>0.209309</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20933</v>
+        <v>0.209386</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199909</v>
+        <v>0.199899</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208373</v>
+        <v>0.208476</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208793</v>
+        <v>0.208585</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194421</v>
+        <v>0.194514</v>
       </c>
       <c r="C19" t="n">
-        <v>0.20785</v>
+        <v>0.208013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208045</v>
+        <v>0.207775</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188568</v>
+        <v>0.189071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206812</v>
+        <v>0.206954</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207516</v>
+        <v>0.207076</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183629</v>
+        <v>0.183221</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205763</v>
+        <v>0.205802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206622</v>
+        <v>0.206446</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175655</v>
+        <v>0.176045</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205174</v>
+        <v>0.205218</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205391</v>
+        <v>0.205326</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1675</v>
+        <v>0.167419</v>
       </c>
       <c r="C23" t="n">
-        <v>0.220643</v>
+        <v>0.220972</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220523</v>
+        <v>0.220772</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241348</v>
+        <v>0.240814</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219155</v>
+        <v>0.219415</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219115</v>
+        <v>0.218929</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237064</v>
+        <v>0.238028</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217878</v>
+        <v>0.218097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217588</v>
+        <v>0.21723</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231839</v>
+        <v>0.231956</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216503</v>
+        <v>0.216234</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216345</v>
+        <v>0.21577</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226619</v>
+        <v>0.227178</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215208</v>
+        <v>0.215255</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21514</v>
+        <v>0.215239</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222786</v>
+        <v>0.223259</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213569</v>
+        <v>0.213698</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214016</v>
+        <v>0.213524</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218004</v>
+        <v>0.217981</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212699</v>
+        <v>0.212669</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212877</v>
+        <v>0.212585</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212205</v>
+        <v>0.212441</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211466</v>
+        <v>0.211535</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211354</v>
+        <v>0.211227</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208005</v>
+        <v>0.208301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.210513</v>
+        <v>0.21049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210661</v>
+        <v>0.210054</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201982</v>
+        <v>0.201934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209403</v>
+        <v>0.209467</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209755</v>
+        <v>0.20974</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197087</v>
+        <v>0.196707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.208345</v>
+        <v>0.208471</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209003</v>
+        <v>0.208856</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191915</v>
+        <v>0.19156</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2075</v>
+        <v>0.207534</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20813</v>
+        <v>0.208141</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186119</v>
+        <v>0.18554</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206518</v>
+        <v>0.206584</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207597</v>
+        <v>0.206934</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179129</v>
+        <v>0.178966</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205629</v>
+        <v>0.20572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206649</v>
+        <v>0.205944</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170795</v>
+        <v>0.170756</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221606</v>
+        <v>0.221619</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221689</v>
+        <v>0.222137</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242039</v>
+        <v>0.242417</v>
       </c>
       <c r="C38" t="n">
-        <v>0.220025</v>
+        <v>0.21986</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220059</v>
+        <v>0.220038</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238589</v>
+        <v>0.238626</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218545</v>
+        <v>0.218147</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218302</v>
+        <v>0.218297</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234</v>
+        <v>0.234322</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21703</v>
+        <v>0.216805</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216837</v>
+        <v>0.217242</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229868</v>
+        <v>0.229702</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215505</v>
+        <v>0.215344</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215939</v>
+        <v>0.216302</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225378</v>
+        <v>0.225074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214045</v>
+        <v>0.214111</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215103</v>
+        <v>0.214404</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.220056</v>
+        <v>0.219768</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21272</v>
+        <v>0.212774</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213736</v>
+        <v>0.213203</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214694</v>
+        <v>0.214634</v>
       </c>
       <c r="C44" t="n">
-        <v>0.211532</v>
+        <v>0.211561</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212718</v>
+        <v>0.212235</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209384</v>
+        <v>0.209493</v>
       </c>
       <c r="C45" t="n">
-        <v>0.210567</v>
+        <v>0.210568</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211146</v>
+        <v>0.211144</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204675</v>
+        <v>0.204789</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209521</v>
+        <v>0.209408</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210342</v>
+        <v>0.210057</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.19944</v>
+        <v>0.199509</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208487</v>
+        <v>0.208376</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209772</v>
+        <v>0.209053</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19346</v>
+        <v>0.193705</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207641</v>
+        <v>0.207393</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208613</v>
+        <v>0.208327</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187727</v>
+        <v>0.187366</v>
       </c>
       <c r="C49" t="n">
         <v>0.206643</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207758</v>
+        <v>0.207232</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181314</v>
+        <v>0.181176</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205763</v>
+        <v>0.205758</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206455</v>
+        <v>0.206378</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173411</v>
+        <v>0.173965</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222239</v>
+        <v>0.222157</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222493</v>
+        <v>0.222883</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165377</v>
+        <v>0.165488</v>
       </c>
       <c r="C52" t="n">
-        <v>0.220428</v>
+        <v>0.220403</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220605</v>
+        <v>0.220511</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.238818</v>
+        <v>0.24015</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219033</v>
+        <v>0.219007</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219193</v>
+        <v>0.218766</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234946</v>
+        <v>0.236517</v>
       </c>
       <c r="C54" t="n">
-        <v>0.21779</v>
+        <v>0.2176</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217711</v>
+        <v>0.217336</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23026</v>
+        <v>0.23139</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216069</v>
+        <v>0.216007</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216171</v>
+        <v>0.216044</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.224928</v>
+        <v>0.226502</v>
       </c>
       <c r="C56" t="n">
-        <v>0.214619</v>
+        <v>0.214612</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214885</v>
+        <v>0.214732</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.21932</v>
+        <v>0.21933</v>
       </c>
       <c r="C57" t="n">
-        <v>0.213334</v>
+        <v>0.213452</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214156</v>
+        <v>0.213518</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213514</v>
+        <v>0.213371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.212288</v>
+        <v>0.212154</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212431</v>
+        <v>0.212453</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208731</v>
+        <v>0.208496</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211119</v>
+        <v>0.211016</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211382</v>
+        <v>0.211394</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203179</v>
+        <v>0.2028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210024</v>
+        <v>0.210004</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210444</v>
+        <v>0.210521</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197713</v>
+        <v>0.197079</v>
       </c>
       <c r="C61" t="n">
-        <v>0.209096</v>
+        <v>0.208992</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209334</v>
+        <v>0.209215</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.191801</v>
+        <v>0.191175</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208185</v>
+        <v>0.208033</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208335</v>
+        <v>0.208432</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185582</v>
+        <v>0.184827</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207137</v>
+        <v>0.207094</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207487</v>
+        <v>0.207369</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.18358</v>
+        <v>0.183009</v>
       </c>
       <c r="C64" t="n">
-        <v>0.20633</v>
+        <v>0.206216</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206598</v>
+        <v>0.206513</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176492</v>
+        <v>0.176051</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205382</v>
+        <v>0.205313</v>
       </c>
       <c r="D65" t="n">
-        <v>0.205961</v>
+        <v>0.2057</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16778</v>
+        <v>0.167425</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221781</v>
+        <v>0.221527</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22174</v>
+        <v>0.22938</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240146</v>
+        <v>0.242017</v>
       </c>
       <c r="C67" t="n">
-        <v>0.219802</v>
+        <v>0.21988</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220147</v>
+        <v>0.226549</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236121</v>
+        <v>0.236073</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218337</v>
+        <v>0.218246</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218659</v>
+        <v>0.224369</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231446</v>
+        <v>0.231509</v>
       </c>
       <c r="C69" t="n">
-        <v>0.216792</v>
+        <v>0.21687</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217159</v>
+        <v>0.222423</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226396</v>
+        <v>0.2269</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215341</v>
+        <v>0.215311</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215779</v>
+        <v>0.220145</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221272</v>
+        <v>0.221678</v>
       </c>
       <c r="C71" t="n">
-        <v>0.214014</v>
+        <v>0.21385</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214388</v>
+        <v>0.21762</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.215765</v>
+        <v>0.216328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212701</v>
+        <v>0.212515</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213057</v>
+        <v>0.215305</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210046</v>
+        <v>0.210577</v>
       </c>
       <c r="C73" t="n">
-        <v>0.211555</v>
+        <v>0.211436</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212108</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207059</v>
+        <v>0.207464</v>
       </c>
       <c r="C74" t="n">
-        <v>0.210351</v>
+        <v>0.21025</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210941</v>
+        <v>0.211112</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202343</v>
+        <v>0.202272</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209208</v>
+        <v>0.209183</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209942</v>
+        <v>0.209889</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193677</v>
+        <v>0.197332</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208209</v>
+        <v>0.208081</v>
       </c>
       <c r="D76" t="n">
-        <v>0.208947</v>
+        <v>0.209024</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187273</v>
+        <v>0.187321</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207225</v>
+        <v>0.207222</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207943</v>
+        <v>0.207876</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180952</v>
+        <v>0.180446</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20633</v>
+        <v>0.206303</v>
       </c>
       <c r="D78" t="n">
-        <v>0.206981</v>
+        <v>0.207152</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173366</v>
+        <v>0.173079</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205507</v>
+        <v>0.205501</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206112</v>
+        <v>0.206284</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171207</v>
+        <v>0.170074</v>
       </c>
       <c r="C80" t="n">
-        <v>0.223857</v>
+        <v>0.224297</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226388</v>
+        <v>0.227248</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241105</v>
+        <v>0.243436</v>
       </c>
       <c r="C81" t="n">
-        <v>0.221296</v>
+        <v>0.221617</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223646</v>
+        <v>0.224311</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237155</v>
+        <v>0.237307</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219464</v>
+        <v>0.219531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221752</v>
+        <v>0.222258</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232871</v>
+        <v>0.232989</v>
       </c>
       <c r="C83" t="n">
-        <v>0.217723</v>
+        <v>0.218019</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219262</v>
+        <v>0.220163</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228103</v>
+        <v>0.22835</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216131</v>
+        <v>0.216166</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217834</v>
+        <v>0.218171</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222695</v>
+        <v>0.222985</v>
       </c>
       <c r="C85" t="n">
-        <v>0.214511</v>
+        <v>0.21451</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215864</v>
+        <v>0.216506</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217381</v>
+        <v>0.21746</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213156</v>
+        <v>0.213181</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214839</v>
+        <v>0.21438</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211906</v>
+        <v>0.211908</v>
       </c>
       <c r="C87" t="n">
-        <v>0.211959</v>
+        <v>0.212046</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212575</v>
+        <v>0.212635</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.205985</v>
+        <v>0.20623</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210703</v>
+        <v>0.210663</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211492</v>
+        <v>0.211527</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200445</v>
+        <v>0.200596</v>
       </c>
       <c r="C89" t="n">
-        <v>0.209545</v>
+        <v>0.20955</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210286</v>
+        <v>0.210408</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194831</v>
+        <v>0.194616</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208482</v>
+        <v>0.208578</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209473</v>
+        <v>0.20946</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188579</v>
+        <v>0.188481</v>
       </c>
       <c r="C91" t="n">
-        <v>0.20766</v>
+        <v>0.207588</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209042</v>
+        <v>0.208473</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182244</v>
+        <v>0.182237</v>
       </c>
       <c r="C92" t="n">
-        <v>0.206938</v>
+        <v>0.206945</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207559</v>
+        <v>0.207452</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.17491</v>
+        <v>0.175105</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205884</v>
+        <v>0.205977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.207356</v>
+        <v>0.206797</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166151</v>
+        <v>0.166255</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225319</v>
+        <v>0.225782</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226047</v>
+        <v>0.226595</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242164</v>
+        <v>0.242411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222067</v>
+        <v>0.222625</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223188</v>
+        <v>0.223823</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238286</v>
+        <v>0.238501</v>
       </c>
       <c r="C96" t="n">
-        <v>0.219998</v>
+        <v>0.220376</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221305</v>
+        <v>0.22168</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234097</v>
+        <v>0.234259</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218175</v>
+        <v>0.21838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219716</v>
+        <v>0.220155</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229011</v>
+        <v>0.22927</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216646</v>
+        <v>0.216804</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218024</v>
+        <v>0.21871</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224007</v>
+        <v>0.224386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215051</v>
+        <v>0.215191</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216289</v>
+        <v>0.21657</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218499</v>
+        <v>0.218756</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213397</v>
+        <v>0.213444</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214851</v>
+        <v>0.214877</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212973</v>
+        <v>0.213278</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212039</v>
+        <v>0.212331</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213059</v>
+        <v>0.213089</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207351</v>
+        <v>0.207694</v>
       </c>
       <c r="C102" t="n">
-        <v>0.210947</v>
+        <v>0.211146</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21169</v>
+        <v>0.212615</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204826</v>
+        <v>0.205083</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209716</v>
+        <v>0.209933</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211214</v>
+        <v>0.210987</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199621</v>
+        <v>0.199806</v>
       </c>
       <c r="C104" t="n">
-        <v>0.208745</v>
+        <v>0.208916</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209877</v>
+        <v>0.210104</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194405</v>
+        <v>0.194364</v>
       </c>
       <c r="C105" t="n">
-        <v>0.207778</v>
+        <v>0.207939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209336</v>
+        <v>0.209391</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188859</v>
+        <v>0.188699</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207046</v>
+        <v>0.207187</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208363</v>
+        <v>0.208404</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182364</v>
+        <v>0.182378</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206237</v>
+        <v>0.206342</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207401</v>
+        <v>0.207514</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.175103</v>
+        <v>0.174971</v>
       </c>
       <c r="C108" t="n">
-        <v>0.225826</v>
+        <v>0.226555</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225653</v>
+        <v>0.225988</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165492</v>
+        <v>0.1657</v>
       </c>
       <c r="C109" t="n">
-        <v>0.222621</v>
+        <v>0.223272</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222888</v>
+        <v>0.223327</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241162</v>
+        <v>0.241332</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220254</v>
+        <v>0.220752</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220518</v>
+        <v>0.220858</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23693</v>
+        <v>0.237213</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218385</v>
+        <v>0.218798</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218779</v>
+        <v>0.21917</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232169</v>
+        <v>0.232416</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216751</v>
+        <v>0.216983</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217223</v>
+        <v>0.217536</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227047</v>
+        <v>0.227212</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215135</v>
+        <v>0.215368</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215736</v>
+        <v>0.215946</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221699</v>
+        <v>0.221902</v>
       </c>
       <c r="C114" t="n">
-        <v>0.213838</v>
+        <v>0.214121</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214518</v>
+        <v>0.214528</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216394</v>
+        <v>0.216565</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212364</v>
+        <v>0.212679</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213217</v>
+        <v>0.213292</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211096</v>
+        <v>0.211235</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211227</v>
+        <v>0.211428</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212063</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205808</v>
+        <v>0.205975</v>
       </c>
       <c r="C117" t="n">
-        <v>0.210225</v>
+        <v>0.21037</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211039</v>
+        <v>0.21121</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200539</v>
+        <v>0.20074</v>
       </c>
       <c r="C118" t="n">
-        <v>0.208972</v>
+        <v>0.209206</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210392</v>
+        <v>0.21055</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195145</v>
+        <v>0.195333</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208149</v>
+        <v>0.208273</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209276</v>
+        <v>0.209367</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189369</v>
+        <v>0.18952</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207172</v>
+        <v>0.207338</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208604</v>
+        <v>0.208659</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182943</v>
+        <v>0.183224</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206351</v>
+        <v>0.206441</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207877</v>
+        <v>0.20794</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175578</v>
+        <v>0.175819</v>
       </c>
       <c r="C122" t="n">
-        <v>0.205576</v>
+        <v>0.20575</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207027</v>
+        <v>0.207049</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166687</v>
+        <v>0.166979</v>
       </c>
       <c r="C123" t="n">
-        <v>0.223108</v>
+        <v>0.223547</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223059</v>
+        <v>0.223515</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242151</v>
+        <v>0.242341</v>
       </c>
       <c r="C124" t="n">
-        <v>0.220803</v>
+        <v>0.221173</v>
       </c>
       <c r="D124" t="n">
-        <v>0.220872</v>
+        <v>0.221224</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237976</v>
+        <v>0.236425</v>
       </c>
       <c r="C125" t="n">
-        <v>0.218824</v>
+        <v>0.219219</v>
       </c>
       <c r="D125" t="n">
-        <v>0.218924</v>
+        <v>0.219261</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231589</v>
+        <v>0.231836</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217128</v>
+        <v>0.217396</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217297</v>
+        <v>0.217604</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226492</v>
+        <v>0.227288</v>
       </c>
       <c r="C127" t="n">
-        <v>0.215612</v>
+        <v>0.215836</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21588</v>
+        <v>0.216058</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221073</v>
+        <v>0.221324</v>
       </c>
       <c r="C128" t="n">
-        <v>0.214063</v>
+        <v>0.214268</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214538</v>
+        <v>0.214741</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215487</v>
+        <v>0.21579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.212751</v>
+        <v>0.212944</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213349</v>
+        <v>0.213435</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.209715</v>
+        <v>0.21211</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211658</v>
+        <v>0.211781</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212107</v>
+        <v>0.212194</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204143</v>
+        <v>0.204312</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210404</v>
+        <v>0.21056</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211169</v>
+        <v>0.210952</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198462</v>
+        <v>0.198561</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209279</v>
+        <v>0.20947</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210038</v>
+        <v>0.209954</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.193068</v>
+        <v>0.196195</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208381</v>
+        <v>0.208586</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209056</v>
+        <v>0.208989</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.186473</v>
+        <v>0.190926</v>
       </c>
       <c r="C134" t="n">
-        <v>0.207277</v>
+        <v>0.2074</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208032</v>
+        <v>0.208195</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179786</v>
+        <v>0.179857</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206375</v>
+        <v>0.206534</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207125</v>
+        <v>0.207271</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.172138</v>
+        <v>0.175409</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205806</v>
+        <v>0.205979</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206735</v>
+        <v>0.206567</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163225</v>
+        <v>0.163357</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22361</v>
+        <v>0.224068</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224097</v>
+        <v>0.224725</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242421</v>
+        <v>0.2431</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221259</v>
+        <v>0.221678</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22189</v>
+        <v>0.222146</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238404</v>
+        <v>0.238881</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219206</v>
+        <v>0.219446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220052</v>
+        <v>0.220047</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.233502</v>
+        <v>0.234534</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217505</v>
+        <v>0.217723</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218093</v>
+        <v>0.218307</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.228639</v>
+        <v>0.229497</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215772</v>
+        <v>0.215903</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216444</v>
+        <v>0.216604</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223221</v>
+        <v>0.224185</v>
       </c>
       <c r="C142" t="n">
-        <v>0.214271</v>
+        <v>0.214424</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21503</v>
+        <v>0.21536</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.217577</v>
+        <v>0.218792</v>
       </c>
       <c r="C143" t="n">
-        <v>0.212966</v>
+        <v>0.213104</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213638</v>
+        <v>0.21399</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.192115</v>
+        <v>0.191454</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202202</v>
+        <v>0.201265</v>
       </c>
       <c r="D2" t="n">
-        <v>0.20173</v>
+        <v>0.201282</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188401</v>
+        <v>0.187748</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202616</v>
+        <v>0.202206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200994</v>
+        <v>0.201279</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187481</v>
+        <v>0.187039</v>
       </c>
       <c r="C4" t="n">
-        <v>0.202092</v>
+        <v>0.20211</v>
       </c>
       <c r="D4" t="n">
-        <v>0.202056</v>
+        <v>0.201279</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.183723</v>
+        <v>0.183428</v>
       </c>
       <c r="C5" t="n">
-        <v>0.202908</v>
+        <v>0.202331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20128</v>
+        <v>0.200423</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177213</v>
+        <v>0.176695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.201702</v>
+        <v>0.201668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200014</v>
+        <v>0.201087</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171342</v>
+        <v>0.170791</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202052</v>
+        <v>0.20184</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200912</v>
+        <v>0.200601</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.162812</v>
+        <v>0.162696</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202208</v>
+        <v>0.201749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200592</v>
+        <v>0.200294</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.154225</v>
+        <v>0.153524</v>
       </c>
       <c r="C9" t="n">
-        <v>0.218826</v>
+        <v>0.21785</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21693</v>
+        <v>0.216222</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234877</v>
+        <v>0.235048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21683</v>
+        <v>0.216441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215711</v>
+        <v>0.215234</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230894</v>
+        <v>0.230787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.21514</v>
+        <v>0.215161</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215189</v>
+        <v>0.214557</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226342</v>
+        <v>0.226326</v>
       </c>
       <c r="C12" t="n">
-        <v>0.214243</v>
+        <v>0.21418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213806</v>
+        <v>0.213705</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.223742</v>
+        <v>0.223354</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212912</v>
+        <v>0.213196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212778</v>
+        <v>0.213135</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217712</v>
+        <v>0.217944</v>
       </c>
       <c r="C14" t="n">
         <v>0.212116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212133</v>
+        <v>0.212287</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212249</v>
+        <v>0.212352</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210719</v>
+        <v>0.210762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210805</v>
+        <v>0.210914</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209899</v>
+        <v>0.209665</v>
       </c>
       <c r="C16" t="n">
-        <v>0.210002</v>
+        <v>0.20996</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209743</v>
+        <v>0.209252</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.206739</v>
+        <v>0.205504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209309</v>
+        <v>0.209315</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209386</v>
+        <v>0.20898</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199899</v>
+        <v>0.20014</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208476</v>
+        <v>0.208523</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208585</v>
+        <v>0.208639</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194514</v>
+        <v>0.194736</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208013</v>
+        <v>0.207809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207775</v>
+        <v>0.207793</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189071</v>
+        <v>0.189321</v>
       </c>
       <c r="C20" t="n">
-        <v>0.206954</v>
+        <v>0.207024</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207076</v>
+        <v>0.206836</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183221</v>
+        <v>0.184032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205802</v>
+        <v>0.205847</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206446</v>
+        <v>0.205807</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.176045</v>
+        <v>0.176279</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205218</v>
+        <v>0.205313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205326</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167419</v>
+        <v>0.167872</v>
       </c>
       <c r="C23" t="n">
-        <v>0.220972</v>
+        <v>0.22108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220772</v>
+        <v>0.220164</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240814</v>
+        <v>0.241042</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219415</v>
+        <v>0.219097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218929</v>
+        <v>0.219181</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.238028</v>
+        <v>0.23763</v>
       </c>
       <c r="C25" t="n">
-        <v>0.218097</v>
+        <v>0.217918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.21723</v>
+        <v>0.217183</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231956</v>
+        <v>0.232368</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216234</v>
+        <v>0.216207</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21577</v>
+        <v>0.216389</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227178</v>
+        <v>0.227809</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215255</v>
+        <v>0.215329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215239</v>
+        <v>0.215395</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223259</v>
+        <v>0.223211</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213698</v>
+        <v>0.21369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213524</v>
+        <v>0.21418</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217981</v>
+        <v>0.218311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.212669</v>
+        <v>0.212564</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212585</v>
+        <v>0.212983</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.212441</v>
+        <v>0.213318</v>
       </c>
       <c r="C30" t="n">
-        <v>0.211535</v>
+        <v>0.211472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211227</v>
+        <v>0.211525</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.208301</v>
+        <v>0.208728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21049</v>
+        <v>0.210588</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210054</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201934</v>
+        <v>0.202083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.209467</v>
+        <v>0.209435</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20974</v>
+        <v>0.209587</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196707</v>
+        <v>0.197644</v>
       </c>
       <c r="C33" t="n">
-        <v>0.208471</v>
+        <v>0.208561</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208856</v>
+        <v>0.208694</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.19156</v>
+        <v>0.192409</v>
       </c>
       <c r="C34" t="n">
-        <v>0.207534</v>
+        <v>0.207572</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208141</v>
+        <v>0.207949</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.18554</v>
+        <v>0.185618</v>
       </c>
       <c r="C35" t="n">
-        <v>0.206584</v>
+        <v>0.206613</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206934</v>
+        <v>0.207123</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178966</v>
+        <v>0.179127</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20572</v>
+        <v>0.205832</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205944</v>
+        <v>0.206301</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170756</v>
+        <v>0.171021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221619</v>
+        <v>0.222962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222137</v>
+        <v>0.221296</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242417</v>
+        <v>0.242679</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21986</v>
+        <v>0.220036</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220038</v>
+        <v>0.219884</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238626</v>
+        <v>0.238884</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218147</v>
+        <v>0.21865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218297</v>
+        <v>0.218886</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234322</v>
+        <v>0.234238</v>
       </c>
       <c r="C40" t="n">
-        <v>0.216805</v>
+        <v>0.216898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217242</v>
+        <v>0.21765</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.229702</v>
+        <v>0.230106</v>
       </c>
       <c r="C41" t="n">
-        <v>0.215344</v>
+        <v>0.215558</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216302</v>
+        <v>0.216131</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225074</v>
+        <v>0.225305</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214111</v>
+        <v>0.214193</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214404</v>
+        <v>0.214548</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.219768</v>
+        <v>0.219826</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212774</v>
+        <v>0.212862</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213203</v>
+        <v>0.213169</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214634</v>
+        <v>0.214718</v>
       </c>
       <c r="C44" t="n">
-        <v>0.211561</v>
+        <v>0.211694</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212235</v>
+        <v>0.212376</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209493</v>
+        <v>0.209839</v>
       </c>
       <c r="C45" t="n">
-        <v>0.210568</v>
+        <v>0.210598</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211144</v>
+        <v>0.211472</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204789</v>
+        <v>0.204707</v>
       </c>
       <c r="C46" t="n">
-        <v>0.209408</v>
+        <v>0.209591</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210057</v>
+        <v>0.210064</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199509</v>
+        <v>0.199345</v>
       </c>
       <c r="C47" t="n">
-        <v>0.208376</v>
+        <v>0.208553</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209053</v>
+        <v>0.20903</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.193705</v>
+        <v>0.193487</v>
       </c>
       <c r="C48" t="n">
-        <v>0.207393</v>
+        <v>0.207679</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208327</v>
+        <v>0.208381</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187366</v>
+        <v>0.188021</v>
       </c>
       <c r="C49" t="n">
-        <v>0.206643</v>
+        <v>0.20673</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207232</v>
+        <v>0.207349</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.181176</v>
+        <v>0.181189</v>
       </c>
       <c r="C50" t="n">
-        <v>0.205758</v>
+        <v>0.205808</v>
       </c>
       <c r="D50" t="n">
-        <v>0.206378</v>
+        <v>0.206431</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173965</v>
+        <v>0.173971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.222157</v>
+        <v>0.222414</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222883</v>
+        <v>0.222094</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165488</v>
+        <v>0.165082</v>
       </c>
       <c r="C52" t="n">
-        <v>0.220403</v>
+        <v>0.220506</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220511</v>
+        <v>0.220562</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.24015</v>
+        <v>0.240414</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219007</v>
+        <v>0.219047</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218766</v>
+        <v>0.219018</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236517</v>
+        <v>0.235027</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2176</v>
+        <v>0.217806</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217336</v>
+        <v>0.217616</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.23139</v>
+        <v>0.229795</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216007</v>
+        <v>0.215924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216044</v>
+        <v>0.216099</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226502</v>
+        <v>0.225184</v>
       </c>
       <c r="C56" t="n">
-        <v>0.214612</v>
+        <v>0.214654</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214732</v>
+        <v>0.21477</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.21933</v>
+        <v>0.219475</v>
       </c>
       <c r="C57" t="n">
-        <v>0.213452</v>
+        <v>0.213435</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213518</v>
+        <v>0.213785</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213371</v>
+        <v>0.213454</v>
       </c>
       <c r="C58" t="n">
-        <v>0.212154</v>
+        <v>0.212245</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212453</v>
+        <v>0.21258</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208496</v>
+        <v>0.208611</v>
       </c>
       <c r="C59" t="n">
-        <v>0.211016</v>
+        <v>0.211202</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211394</v>
+        <v>0.211485</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2028</v>
+        <v>0.202599</v>
       </c>
       <c r="C60" t="n">
-        <v>0.210004</v>
+        <v>0.209971</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210521</v>
+        <v>0.210537</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.197079</v>
+        <v>0.197338</v>
       </c>
       <c r="C61" t="n">
-        <v>0.208992</v>
+        <v>0.209007</v>
       </c>
       <c r="D61" t="n">
-        <v>0.209215</v>
+        <v>0.209559</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.191175</v>
+        <v>0.191536</v>
       </c>
       <c r="C62" t="n">
-        <v>0.208033</v>
+        <v>0.208054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.208432</v>
+        <v>0.208499</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.184827</v>
+        <v>0.185264</v>
       </c>
       <c r="C63" t="n">
-        <v>0.207094</v>
+        <v>0.207018</v>
       </c>
       <c r="D63" t="n">
-        <v>0.207369</v>
+        <v>0.207771</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.183009</v>
+        <v>0.18352</v>
       </c>
       <c r="C64" t="n">
-        <v>0.206216</v>
+        <v>0.206227</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206513</v>
+        <v>0.206833</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.176051</v>
+        <v>0.176011</v>
       </c>
       <c r="C65" t="n">
-        <v>0.205313</v>
+        <v>0.205248</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2057</v>
+        <v>0.205914</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167425</v>
+        <v>0.167323</v>
       </c>
       <c r="C66" t="n">
-        <v>0.221527</v>
+        <v>0.221666</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22938</v>
+        <v>0.222244</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242017</v>
+        <v>0.241993</v>
       </c>
       <c r="C67" t="n">
-        <v>0.21988</v>
+        <v>0.219861</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226549</v>
+        <v>0.220215</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236073</v>
+        <v>0.236115</v>
       </c>
       <c r="C68" t="n">
-        <v>0.218246</v>
+        <v>0.218214</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224369</v>
+        <v>0.21867</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231509</v>
+        <v>0.231461</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21687</v>
+        <v>0.216894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.222423</v>
+        <v>0.217021</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2269</v>
+        <v>0.226622</v>
       </c>
       <c r="C70" t="n">
-        <v>0.215311</v>
+        <v>0.215281</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220145</v>
+        <v>0.215732</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221678</v>
+        <v>0.221433</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21385</v>
+        <v>0.213755</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21762</v>
+        <v>0.214372</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216328</v>
+        <v>0.215997</v>
       </c>
       <c r="C72" t="n">
-        <v>0.212515</v>
+        <v>0.212506</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215305</v>
+        <v>0.213182</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210577</v>
+        <v>0.210308</v>
       </c>
       <c r="C73" t="n">
-        <v>0.211436</v>
+        <v>0.211512</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213</v>
+        <v>0.212263</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207464</v>
+        <v>0.20506</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21025</v>
+        <v>0.210188</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211112</v>
+        <v>0.211142</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202272</v>
+        <v>0.199187</v>
       </c>
       <c r="C75" t="n">
-        <v>0.209183</v>
+        <v>0.209056</v>
       </c>
       <c r="D75" t="n">
-        <v>0.209889</v>
+        <v>0.210153</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197332</v>
+        <v>0.193699</v>
       </c>
       <c r="C76" t="n">
-        <v>0.208081</v>
+        <v>0.208058</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209024</v>
+        <v>0.208923</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187321</v>
+        <v>0.187379</v>
       </c>
       <c r="C77" t="n">
-        <v>0.207222</v>
+        <v>0.20711</v>
       </c>
       <c r="D77" t="n">
-        <v>0.207876</v>
+        <v>0.207733</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180446</v>
+        <v>0.180732</v>
       </c>
       <c r="C78" t="n">
-        <v>0.206303</v>
+        <v>0.206222</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207152</v>
+        <v>0.206978</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173079</v>
+        <v>0.172999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.205501</v>
+        <v>0.205441</v>
       </c>
       <c r="D79" t="n">
-        <v>0.206284</v>
+        <v>0.206106</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.170074</v>
+        <v>0.171201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.224297</v>
+        <v>0.223558</v>
       </c>
       <c r="D80" t="n">
-        <v>0.227248</v>
+        <v>0.226153</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.243436</v>
+        <v>0.241307</v>
       </c>
       <c r="C81" t="n">
-        <v>0.221617</v>
+        <v>0.221311</v>
       </c>
       <c r="D81" t="n">
-        <v>0.224311</v>
+        <v>0.223725</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237307</v>
+        <v>0.237107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.219531</v>
+        <v>0.219254</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222258</v>
+        <v>0.221316</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232989</v>
+        <v>0.232887</v>
       </c>
       <c r="C83" t="n">
-        <v>0.218019</v>
+        <v>0.217745</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220163</v>
+        <v>0.219473</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.22835</v>
+        <v>0.228443</v>
       </c>
       <c r="C84" t="n">
-        <v>0.216166</v>
+        <v>0.216145</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218171</v>
+        <v>0.217777</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222985</v>
+        <v>0.222929</v>
       </c>
       <c r="C85" t="n">
-        <v>0.21451</v>
+        <v>0.214463</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216506</v>
+        <v>0.216166</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.21746</v>
+        <v>0.217301</v>
       </c>
       <c r="C86" t="n">
-        <v>0.213181</v>
+        <v>0.213211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21438</v>
+        <v>0.214141</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211908</v>
+        <v>0.212073</v>
       </c>
       <c r="C87" t="n">
-        <v>0.212046</v>
+        <v>0.211862</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212635</v>
+        <v>0.212656</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20623</v>
+        <v>0.206241</v>
       </c>
       <c r="C88" t="n">
-        <v>0.210663</v>
+        <v>0.210544</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211527</v>
+        <v>0.211467</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.200596</v>
+        <v>0.200682</v>
       </c>
       <c r="C89" t="n">
-        <v>0.20955</v>
+        <v>0.20953</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210408</v>
+        <v>0.210244</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194616</v>
+        <v>0.194484</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208578</v>
+        <v>0.208509</v>
       </c>
       <c r="D90" t="n">
-        <v>0.20946</v>
+        <v>0.209246</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188481</v>
+        <v>0.188697</v>
       </c>
       <c r="C91" t="n">
-        <v>0.207588</v>
+        <v>0.207559</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208473</v>
+        <v>0.208418</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182237</v>
+        <v>0.182289</v>
       </c>
       <c r="C92" t="n">
-        <v>0.206945</v>
+        <v>0.206866</v>
       </c>
       <c r="D92" t="n">
-        <v>0.207452</v>
+        <v>0.207526</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.175105</v>
+        <v>0.175149</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205977</v>
+        <v>0.205877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.206797</v>
+        <v>0.206771</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166255</v>
+        <v>0.166515</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225782</v>
+        <v>0.225254</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226595</v>
+        <v>0.22612</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242411</v>
+        <v>0.242158</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222625</v>
+        <v>0.222022</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223823</v>
+        <v>0.223414</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238501</v>
+        <v>0.238286</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220376</v>
+        <v>0.220015</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22168</v>
+        <v>0.22089</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234259</v>
+        <v>0.233981</v>
       </c>
       <c r="C97" t="n">
-        <v>0.21838</v>
+        <v>0.218214</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220155</v>
+        <v>0.219853</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.22927</v>
+        <v>0.229288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.216804</v>
+        <v>0.216596</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21871</v>
+        <v>0.217841</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224386</v>
+        <v>0.223985</v>
       </c>
       <c r="C99" t="n">
-        <v>0.215191</v>
+        <v>0.214947</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21657</v>
+        <v>0.216466</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218756</v>
+        <v>0.218667</v>
       </c>
       <c r="C100" t="n">
-        <v>0.213444</v>
+        <v>0.213366</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214877</v>
+        <v>0.214998</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213278</v>
+        <v>0.213138</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212331</v>
+        <v>0.212192</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213089</v>
+        <v>0.213147</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207694</v>
+        <v>0.20741</v>
       </c>
       <c r="C102" t="n">
-        <v>0.211146</v>
+        <v>0.210948</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212615</v>
+        <v>0.211924</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205083</v>
+        <v>0.204955</v>
       </c>
       <c r="C103" t="n">
-        <v>0.209933</v>
+        <v>0.209748</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210987</v>
+        <v>0.210851</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199806</v>
+        <v>0.199638</v>
       </c>
       <c r="C104" t="n">
-        <v>0.208916</v>
+        <v>0.208748</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210104</v>
+        <v>0.210229</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194364</v>
+        <v>0.194361</v>
       </c>
       <c r="C105" t="n">
-        <v>0.207939</v>
+        <v>0.207799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209391</v>
+        <v>0.209357</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188699</v>
+        <v>0.188632</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207187</v>
+        <v>0.207021</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208404</v>
+        <v>0.208389</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.182378</v>
+        <v>0.182571</v>
       </c>
       <c r="C107" t="n">
-        <v>0.206342</v>
+        <v>0.206213</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207514</v>
+        <v>0.207462</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.174971</v>
+        <v>0.175114</v>
       </c>
       <c r="C108" t="n">
-        <v>0.226555</v>
+        <v>0.225726</v>
       </c>
       <c r="D108" t="n">
-        <v>0.225988</v>
+        <v>0.225611</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1657</v>
+        <v>0.165438</v>
       </c>
       <c r="C109" t="n">
-        <v>0.223272</v>
+        <v>0.222559</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223327</v>
+        <v>0.222777</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.241332</v>
+        <v>0.241258</v>
       </c>
       <c r="C110" t="n">
-        <v>0.220752</v>
+        <v>0.220191</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220858</v>
+        <v>0.220501</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237213</v>
+        <v>0.236964</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218798</v>
+        <v>0.218447</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21917</v>
+        <v>0.218783</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232416</v>
+        <v>0.23226</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216983</v>
+        <v>0.216658</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217536</v>
+        <v>0.21717</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227212</v>
+        <v>0.227127</v>
       </c>
       <c r="C113" t="n">
-        <v>0.215368</v>
+        <v>0.215235</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215946</v>
+        <v>0.215582</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221902</v>
+        <v>0.221751</v>
       </c>
       <c r="C114" t="n">
-        <v>0.214121</v>
+        <v>0.213861</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214528</v>
+        <v>0.214352</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216565</v>
+        <v>0.216379</v>
       </c>
       <c r="C115" t="n">
-        <v>0.212679</v>
+        <v>0.212381</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213292</v>
+        <v>0.213104</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211235</v>
+        <v>0.211067</v>
       </c>
       <c r="C116" t="n">
-        <v>0.211428</v>
+        <v>0.211227</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2122</v>
+        <v>0.212007</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205975</v>
+        <v>0.205816</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21037</v>
+        <v>0.210175</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21121</v>
+        <v>0.210967</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.20074</v>
+        <v>0.200535</v>
       </c>
       <c r="C118" t="n">
-        <v>0.209206</v>
+        <v>0.208977</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21055</v>
+        <v>0.210117</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195333</v>
+        <v>0.195169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208273</v>
+        <v>0.208137</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209367</v>
+        <v>0.209541</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.18952</v>
+        <v>0.189263</v>
       </c>
       <c r="C120" t="n">
-        <v>0.207338</v>
+        <v>0.207164</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208659</v>
+        <v>0.208598</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183224</v>
+        <v>0.183005</v>
       </c>
       <c r="C121" t="n">
-        <v>0.206441</v>
+        <v>0.206329</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20794</v>
+        <v>0.207806</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.175819</v>
+        <v>0.175568</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20575</v>
+        <v>0.205588</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207049</v>
+        <v>0.206993</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166979</v>
+        <v>0.16677</v>
       </c>
       <c r="C123" t="n">
-        <v>0.223547</v>
+        <v>0.223026</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223515</v>
+        <v>0.223025</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242341</v>
+        <v>0.240268</v>
       </c>
       <c r="C124" t="n">
-        <v>0.221173</v>
+        <v>0.220724</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221224</v>
+        <v>0.220961</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.236425</v>
+        <v>0.236274</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219219</v>
+        <v>0.218782</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219261</v>
+        <v>0.219016</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231836</v>
+        <v>0.231662</v>
       </c>
       <c r="C126" t="n">
-        <v>0.217396</v>
+        <v>0.217109</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217604</v>
+        <v>0.21738</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.227288</v>
+        <v>0.226539</v>
       </c>
       <c r="C127" t="n">
-        <v>0.215836</v>
+        <v>0.215597</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216058</v>
+        <v>0.21586</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221324</v>
+        <v>0.222034</v>
       </c>
       <c r="C128" t="n">
-        <v>0.214268</v>
+        <v>0.214047</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214741</v>
+        <v>0.214595</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21579</v>
+        <v>0.21762</v>
       </c>
       <c r="C129" t="n">
-        <v>0.212944</v>
+        <v>0.212797</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213435</v>
+        <v>0.213384</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21211</v>
+        <v>0.212216</v>
       </c>
       <c r="C130" t="n">
-        <v>0.211781</v>
+        <v>0.211686</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212194</v>
+        <v>0.212187</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204312</v>
+        <v>0.206981</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21056</v>
+        <v>0.210411</v>
       </c>
       <c r="D131" t="n">
-        <v>0.210952</v>
+        <v>0.211034</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.198561</v>
+        <v>0.201709</v>
       </c>
       <c r="C132" t="n">
-        <v>0.20947</v>
+        <v>0.209362</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209954</v>
+        <v>0.209962</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196195</v>
+        <v>0.195971</v>
       </c>
       <c r="C133" t="n">
-        <v>0.208586</v>
+        <v>0.20836</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208989</v>
+        <v>0.208916</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190926</v>
+        <v>0.186547</v>
       </c>
       <c r="C134" t="n">
-        <v>0.2074</v>
+        <v>0.207355</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208195</v>
+        <v>0.207976</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.179857</v>
+        <v>0.179917</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206534</v>
+        <v>0.206506</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207271</v>
+        <v>0.207149</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.175409</v>
+        <v>0.174397</v>
       </c>
       <c r="C136" t="n">
-        <v>0.205979</v>
+        <v>0.205712</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206567</v>
+        <v>0.206492</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163357</v>
+        <v>0.169291</v>
       </c>
       <c r="C137" t="n">
-        <v>0.224068</v>
+        <v>0.223599</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224725</v>
+        <v>0.224173</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.2431</v>
+        <v>0.242886</v>
       </c>
       <c r="C138" t="n">
-        <v>0.221678</v>
+        <v>0.221281</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222146</v>
+        <v>0.221794</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238881</v>
+        <v>0.238876</v>
       </c>
       <c r="C139" t="n">
-        <v>0.219446</v>
+        <v>0.219095</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220047</v>
+        <v>0.219743</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.234534</v>
+        <v>0.234374</v>
       </c>
       <c r="C140" t="n">
-        <v>0.217723</v>
+        <v>0.217471</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218307</v>
+        <v>0.218073</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.229497</v>
+        <v>0.229349</v>
       </c>
       <c r="C141" t="n">
-        <v>0.215903</v>
+        <v>0.21576</v>
       </c>
       <c r="D141" t="n">
-        <v>0.216604</v>
+        <v>0.216519</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.224185</v>
+        <v>0.224049</v>
       </c>
       <c r="C142" t="n">
-        <v>0.214424</v>
+        <v>0.21427</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21536</v>
+        <v>0.215072</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218792</v>
+        <v>0.218641</v>
       </c>
       <c r="C143" t="n">
-        <v>0.213104</v>
+        <v>0.212976</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21399</v>
+        <v>0.213649</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201769</v>
+        <v>0.202289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200687</v>
+        <v>0.202472</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312763</v>
+        <v>0.3074</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196953</v>
+        <v>0.196328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200988</v>
+        <v>0.202579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311058</v>
+        <v>0.304933</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193012</v>
+        <v>0.190595</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200718</v>
+        <v>0.201749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.314562</v>
+        <v>0.308008</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185173</v>
+        <v>0.185561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200217</v>
+        <v>0.201958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315552</v>
+        <v>0.309993</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183511</v>
+        <v>0.179199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200097</v>
+        <v>0.202592</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31609</v>
+        <v>0.310591</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17153</v>
+        <v>0.176465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199543</v>
+        <v>0.201763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309372</v>
+        <v>0.304106</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163758</v>
+        <v>0.16303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198718</v>
+        <v>0.202433</v>
       </c>
       <c r="D8" t="n">
-        <v>0.307906</v>
+        <v>0.302112</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155072</v>
+        <v>0.158826</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216407</v>
+        <v>0.21793</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308851</v>
+        <v>0.304533</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240184</v>
+        <v>0.238434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214856</v>
+        <v>0.216569</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309309</v>
+        <v>0.305578</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23474</v>
+        <v>0.235533</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213727</v>
+        <v>0.21545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311025</v>
+        <v>0.306994</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232386</v>
+        <v>0.230809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212631</v>
+        <v>0.214443</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31245</v>
+        <v>0.307363</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22651</v>
+        <v>0.225013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210754</v>
+        <v>0.212675</v>
       </c>
       <c r="D13" t="n">
-        <v>0.31363</v>
+        <v>0.309768</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220831</v>
+        <v>0.218983</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210166</v>
+        <v>0.211834</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314705</v>
+        <v>0.310315</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215687</v>
+        <v>0.215094</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208694</v>
+        <v>0.210834</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316002</v>
+        <v>0.309585</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211214</v>
+        <v>0.208601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20752</v>
+        <v>0.210229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315324</v>
+        <v>0.310612</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204382</v>
+        <v>0.204702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.206767</v>
+        <v>0.209035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.315722</v>
+        <v>0.310975</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197762</v>
+        <v>0.198468</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205371</v>
+        <v>0.208662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318022</v>
+        <v>0.312758</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191674</v>
+        <v>0.192825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204431</v>
+        <v>0.207444</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320776</v>
+        <v>0.31419</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186197</v>
+        <v>0.185421</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203104</v>
+        <v>0.206572</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322185</v>
+        <v>0.31421</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179162</v>
+        <v>0.17821</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201639</v>
+        <v>0.205879</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314364</v>
+        <v>0.308089</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.170855</v>
+        <v>0.170559</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200721</v>
+        <v>0.205227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.313023</v>
+        <v>0.307663</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161288</v>
+        <v>0.160875</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219881</v>
+        <v>0.220501</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313334</v>
+        <v>0.307702</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241117</v>
+        <v>0.241064</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217368</v>
+        <v>0.218636</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314773</v>
+        <v>0.310566</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239136</v>
+        <v>0.23702</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215805</v>
+        <v>0.217457</v>
       </c>
       <c r="D25" t="n">
-        <v>0.315857</v>
+        <v>0.311416</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233934</v>
+        <v>0.234379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214413</v>
+        <v>0.216141</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316085</v>
+        <v>0.310167</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227861</v>
+        <v>0.229062</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213233</v>
+        <v>0.214734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.315748</v>
+        <v>0.310794</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22167</v>
+        <v>0.223788</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211841</v>
+        <v>0.213684</v>
       </c>
       <c r="D28" t="n">
-        <v>0.316832</v>
+        <v>0.311226</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217298</v>
+        <v>0.217661</v>
       </c>
       <c r="C29" t="n">
-        <v>0.210792</v>
+        <v>0.212494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317139</v>
+        <v>0.312753</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213348</v>
+        <v>0.212968</v>
       </c>
       <c r="C30" t="n">
-        <v>0.209468</v>
+        <v>0.21143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318942</v>
+        <v>0.313072</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207437</v>
+        <v>0.207622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20849</v>
+        <v>0.210193</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319516</v>
+        <v>0.313818</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201843</v>
+        <v>0.202333</v>
       </c>
       <c r="C32" t="n">
-        <v>0.207694</v>
+        <v>0.209276</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320173</v>
+        <v>0.313742</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195581</v>
+        <v>0.197746</v>
       </c>
       <c r="C33" t="n">
-        <v>0.206403</v>
+        <v>0.208385</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32142</v>
+        <v>0.317093</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18952</v>
+        <v>0.192601</v>
       </c>
       <c r="C34" t="n">
-        <v>0.205264</v>
+        <v>0.207375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.322079</v>
+        <v>0.317245</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.183778</v>
+        <v>0.186275</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203927</v>
+        <v>0.206444</v>
       </c>
       <c r="D35" t="n">
-        <v>0.316875</v>
+        <v>0.311479</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.176005</v>
+        <v>0.180481</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201895</v>
+        <v>0.205607</v>
       </c>
       <c r="D36" t="n">
-        <v>0.316864</v>
+        <v>0.313249</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173629</v>
+        <v>0.167108</v>
       </c>
       <c r="C37" t="n">
-        <v>0.220132</v>
+        <v>0.222043</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316234</v>
+        <v>0.311662</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244584</v>
+        <v>0.244166</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218351</v>
+        <v>0.219689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318056</v>
+        <v>0.311862</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239242</v>
+        <v>0.24037</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216921</v>
+        <v>0.21816</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319651</v>
+        <v>0.312489</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234443</v>
+        <v>0.235268</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215548</v>
+        <v>0.216548</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319193</v>
+        <v>0.312565</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231166</v>
+        <v>0.231163</v>
       </c>
       <c r="C41" t="n">
-        <v>0.214075</v>
+        <v>0.21524</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318536</v>
+        <v>0.312997</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226458</v>
+        <v>0.224725</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212756</v>
+        <v>0.214121</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319457</v>
+        <v>0.314497</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218752</v>
+        <v>0.220686</v>
       </c>
       <c r="C43" t="n">
-        <v>0.211277</v>
+        <v>0.212899</v>
       </c>
       <c r="D43" t="n">
-        <v>0.320224</v>
+        <v>0.315055</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213472</v>
+        <v>0.213036</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210248</v>
+        <v>0.211708</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321535</v>
+        <v>0.315724</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208297</v>
+        <v>0.206819</v>
       </c>
       <c r="C45" t="n">
-        <v>0.209104</v>
+        <v>0.210571</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32068</v>
+        <v>0.316832</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203992</v>
+        <v>0.202712</v>
       </c>
       <c r="C46" t="n">
-        <v>0.208154</v>
+        <v>0.20958</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322203</v>
+        <v>0.317012</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198223</v>
+        <v>0.195704</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206813</v>
+        <v>0.2084</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323483</v>
+        <v>0.318365</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192235</v>
+        <v>0.190715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205616</v>
+        <v>0.20743</v>
       </c>
       <c r="D48" t="n">
-        <v>0.324706</v>
+        <v>0.318475</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190054</v>
+        <v>0.18495</v>
       </c>
       <c r="C49" t="n">
-        <v>0.204139</v>
+        <v>0.206501</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325891</v>
+        <v>0.320889</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183262</v>
+        <v>0.182806</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202534</v>
+        <v>0.205745</v>
       </c>
       <c r="D50" t="n">
-        <v>0.321601</v>
+        <v>0.313808</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173974</v>
+        <v>0.170163</v>
       </c>
       <c r="C51" t="n">
-        <v>0.220707</v>
+        <v>0.222166</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319809</v>
+        <v>0.31426</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159865</v>
+        <v>0.159791</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219229</v>
+        <v>0.220631</v>
       </c>
       <c r="D52" t="n">
-        <v>0.320427</v>
+        <v>0.315432</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239056</v>
+        <v>0.239583</v>
       </c>
       <c r="C53" t="n">
-        <v>0.217583</v>
+        <v>0.218926</v>
       </c>
       <c r="D53" t="n">
-        <v>0.320353</v>
+        <v>0.316255</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236124</v>
+        <v>0.234835</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216184</v>
+        <v>0.217376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322247</v>
+        <v>0.316401</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231645</v>
+        <v>0.231709</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214579</v>
+        <v>0.215967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323845</v>
+        <v>0.318079</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226965</v>
+        <v>0.226815</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21325</v>
+        <v>0.21467</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325721</v>
+        <v>0.319409</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221341</v>
+        <v>0.22197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.212028</v>
+        <v>0.213364</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325609</v>
+        <v>0.320334</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215013</v>
+        <v>0.217808</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210885</v>
+        <v>0.212127</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327731</v>
+        <v>0.321855</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212185</v>
+        <v>0.210804</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209796</v>
+        <v>0.210977</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329285</v>
+        <v>0.324361</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206254</v>
+        <v>0.205571</v>
       </c>
       <c r="C60" t="n">
-        <v>0.208541</v>
+        <v>0.209914</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331431</v>
+        <v>0.325667</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202348</v>
+        <v>0.198111</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20747</v>
+        <v>0.208958</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333416</v>
+        <v>0.328182</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196959</v>
+        <v>0.192468</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206005</v>
+        <v>0.207867</v>
       </c>
       <c r="D62" t="n">
-        <v>0.337701</v>
+        <v>0.331214</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187144</v>
+        <v>0.186537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.204399</v>
+        <v>0.206851</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337796</v>
+        <v>0.334452</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180157</v>
+        <v>0.179561</v>
       </c>
       <c r="C64" t="n">
-        <v>0.202602</v>
+        <v>0.205987</v>
       </c>
       <c r="D64" t="n">
-        <v>0.375892</v>
+        <v>0.369596</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177781</v>
+        <v>0.177492</v>
       </c>
       <c r="C65" t="n">
-        <v>0.201049</v>
+        <v>0.205191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.373062</v>
+        <v>0.373701</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169412</v>
+        <v>0.168913</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220223</v>
+        <v>0.221118</v>
       </c>
       <c r="D66" t="n">
-        <v>0.375802</v>
+        <v>0.375407</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242683</v>
+        <v>0.244126</v>
       </c>
       <c r="C67" t="n">
-        <v>0.218341</v>
+        <v>0.219384</v>
       </c>
       <c r="D67" t="n">
-        <v>0.383262</v>
+        <v>0.379561</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236326</v>
+        <v>0.238454</v>
       </c>
       <c r="C68" t="n">
-        <v>0.216754</v>
+        <v>0.217903</v>
       </c>
       <c r="D68" t="n">
-        <v>0.380053</v>
+        <v>0.373433</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232276</v>
+        <v>0.233639</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215334</v>
+        <v>0.216484</v>
       </c>
       <c r="D69" t="n">
-        <v>0.378864</v>
+        <v>0.376156</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227618</v>
+        <v>0.228524</v>
       </c>
       <c r="C70" t="n">
-        <v>0.213892</v>
+        <v>0.215054</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379518</v>
+        <v>0.37588</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221522</v>
+        <v>0.222725</v>
       </c>
       <c r="C71" t="n">
-        <v>0.212661</v>
+        <v>0.213644</v>
       </c>
       <c r="D71" t="n">
-        <v>0.382834</v>
+        <v>0.377551</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216507</v>
+        <v>0.21905</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211365</v>
+        <v>0.212447</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383308</v>
+        <v>0.377092</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211905</v>
+        <v>0.212377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210238</v>
+        <v>0.211368</v>
       </c>
       <c r="D73" t="n">
-        <v>0.381759</v>
+        <v>0.376915</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206689</v>
+        <v>0.206748</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208957</v>
+        <v>0.210175</v>
       </c>
       <c r="D74" t="n">
-        <v>0.382299</v>
+        <v>0.375479</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200313</v>
+        <v>0.20182</v>
       </c>
       <c r="C75" t="n">
-        <v>0.207655</v>
+        <v>0.209171</v>
       </c>
       <c r="D75" t="n">
-        <v>0.381148</v>
+        <v>0.374755</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198295</v>
+        <v>0.197105</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206263</v>
+        <v>0.208247</v>
       </c>
       <c r="D76" t="n">
-        <v>0.381343</v>
+        <v>0.371908</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1932</v>
+        <v>0.192365</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204731</v>
+        <v>0.207241</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380481</v>
+        <v>0.375853</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182867</v>
+        <v>0.186295</v>
       </c>
       <c r="C78" t="n">
-        <v>0.203074</v>
+        <v>0.20644</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436752</v>
+        <v>0.425102</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174347</v>
+        <v>0.17992</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201393</v>
+        <v>0.205422</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4272</v>
+        <v>0.421449</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171374</v>
+        <v>0.17159</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222586</v>
+        <v>0.223655</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424349</v>
+        <v>0.419222</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241693</v>
+        <v>0.241582</v>
       </c>
       <c r="C81" t="n">
-        <v>0.219956</v>
+        <v>0.221511</v>
       </c>
       <c r="D81" t="n">
-        <v>0.420377</v>
+        <v>0.414331</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237676</v>
+        <v>0.23784</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218125</v>
+        <v>0.21944</v>
       </c>
       <c r="D82" t="n">
-        <v>0.421658</v>
+        <v>0.416015</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23318</v>
+        <v>0.232846</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21634</v>
+        <v>0.217775</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418506</v>
+        <v>0.41327</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228149</v>
+        <v>0.227768</v>
       </c>
       <c r="C84" t="n">
-        <v>0.214579</v>
+        <v>0.216076</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418107</v>
+        <v>0.413133</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223297</v>
+        <v>0.222701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.213165</v>
+        <v>0.214503</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409642</v>
+        <v>0.402961</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217836</v>
+        <v>0.218841</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211835</v>
+        <v>0.213154</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407601</v>
+        <v>0.40162</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212821</v>
+        <v>0.212439</v>
       </c>
       <c r="C87" t="n">
-        <v>0.210625</v>
+        <v>0.211876</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405687</v>
+        <v>0.399268</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209925</v>
+        <v>0.209563</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20931</v>
+        <v>0.210755</v>
       </c>
       <c r="D88" t="n">
-        <v>0.402672</v>
+        <v>0.396545</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203839</v>
+        <v>0.203265</v>
       </c>
       <c r="C89" t="n">
-        <v>0.208036</v>
+        <v>0.209708</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398514</v>
+        <v>0.392295</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1998</v>
+        <v>0.198467</v>
       </c>
       <c r="C90" t="n">
-        <v>0.206481</v>
+        <v>0.208495</v>
       </c>
       <c r="D90" t="n">
-        <v>0.402101</v>
+        <v>0.395782</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193893</v>
+        <v>0.193699</v>
       </c>
       <c r="C91" t="n">
-        <v>0.205078</v>
+        <v>0.207473</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400223</v>
+        <v>0.394271</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188025</v>
+        <v>0.187993</v>
       </c>
       <c r="C92" t="n">
-        <v>0.203394</v>
+        <v>0.206713</v>
       </c>
       <c r="D92" t="n">
-        <v>0.445738</v>
+        <v>0.439297</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182083</v>
+        <v>0.181575</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201947</v>
+        <v>0.206152</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44741</v>
+        <v>0.440348</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17388</v>
+        <v>0.173518</v>
       </c>
       <c r="C94" t="n">
-        <v>0.223466</v>
+        <v>0.224722</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448631</v>
+        <v>0.441215</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244163</v>
+        <v>0.24289</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22058</v>
+        <v>0.221963</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440674</v>
+        <v>0.433285</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240713</v>
+        <v>0.24102</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218466</v>
+        <v>0.219888</v>
       </c>
       <c r="D96" t="n">
-        <v>0.436249</v>
+        <v>0.430121</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236455</v>
+        <v>0.236537</v>
       </c>
       <c r="C97" t="n">
-        <v>0.216497</v>
+        <v>0.217949</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424075</v>
+        <v>0.418286</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23159</v>
+        <v>0.231124</v>
       </c>
       <c r="C98" t="n">
-        <v>0.214957</v>
+        <v>0.216344</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41825</v>
+        <v>0.412066</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22593</v>
+        <v>0.225024</v>
       </c>
       <c r="C99" t="n">
-        <v>0.213368</v>
+        <v>0.214831</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417112</v>
+        <v>0.410799</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220522</v>
+        <v>0.219556</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212027</v>
+        <v>0.213463</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411226</v>
+        <v>0.404662</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215005</v>
+        <v>0.214046</v>
       </c>
       <c r="C101" t="n">
-        <v>0.21078</v>
+        <v>0.212056</v>
       </c>
       <c r="D101" t="n">
-        <v>0.408732</v>
+        <v>0.402548</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208718</v>
+        <v>0.208756</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209494</v>
+        <v>0.210961</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405165</v>
+        <v>0.398633</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203686</v>
+        <v>0.203907</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208275</v>
+        <v>0.209829</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401494</v>
+        <v>0.394757</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197222</v>
+        <v>0.196659</v>
       </c>
       <c r="C104" t="n">
-        <v>0.206802</v>
+        <v>0.208769</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395879</v>
+        <v>0.388789</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190841</v>
+        <v>0.190863</v>
       </c>
       <c r="C105" t="n">
-        <v>0.205469</v>
+        <v>0.207856</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394934</v>
+        <v>0.388689</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18439</v>
+        <v>0.184529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203771</v>
+        <v>0.207012</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391761</v>
+        <v>0.3853</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177571</v>
+        <v>0.177536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.202311</v>
+        <v>0.206314</v>
       </c>
       <c r="D107" t="n">
-        <v>0.425468</v>
+        <v>0.419498</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169453</v>
+        <v>0.169525</v>
       </c>
       <c r="C108" t="n">
-        <v>0.224082</v>
+        <v>0.225279</v>
       </c>
       <c r="D108" t="n">
-        <v>0.419608</v>
+        <v>0.413937</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166387</v>
+        <v>0.166468</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22118</v>
+        <v>0.222526</v>
       </c>
       <c r="D109" t="n">
-        <v>0.402789</v>
+        <v>0.397132</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242051</v>
+        <v>0.242528</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218771</v>
+        <v>0.220143</v>
       </c>
       <c r="D110" t="n">
-        <v>0.396545</v>
+        <v>0.3919</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237916</v>
+        <v>0.238358</v>
       </c>
       <c r="C111" t="n">
-        <v>0.216807</v>
+        <v>0.218395</v>
       </c>
       <c r="D111" t="n">
-        <v>0.404743</v>
+        <v>0.398872</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233095</v>
+        <v>0.233239</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215208</v>
+        <v>0.216619</v>
       </c>
       <c r="D112" t="n">
-        <v>0.400755</v>
+        <v>0.39467</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227759</v>
+        <v>0.227972</v>
       </c>
       <c r="C113" t="n">
-        <v>0.213719</v>
+        <v>0.215071</v>
       </c>
       <c r="D113" t="n">
-        <v>0.403572</v>
+        <v>0.392093</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223468</v>
+        <v>0.221973</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212237</v>
+        <v>0.213661</v>
       </c>
       <c r="D114" t="n">
-        <v>0.393107</v>
+        <v>0.388077</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216865</v>
+        <v>0.215867</v>
       </c>
       <c r="C115" t="n">
-        <v>0.211153</v>
+        <v>0.212325</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400065</v>
+        <v>0.390898</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211696</v>
+        <v>0.212852</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209845</v>
+        <v>0.211156</v>
       </c>
       <c r="D116" t="n">
-        <v>0.395607</v>
+        <v>0.380634</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203595</v>
+        <v>0.204986</v>
       </c>
       <c r="C117" t="n">
-        <v>0.208671</v>
+        <v>0.210041</v>
       </c>
       <c r="D117" t="n">
-        <v>0.392372</v>
+        <v>0.387136</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198471</v>
+        <v>0.198018</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206983</v>
+        <v>0.209034</v>
       </c>
       <c r="D118" t="n">
-        <v>0.37876</v>
+        <v>0.383275</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.192388</v>
+        <v>0.192439</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205556</v>
+        <v>0.208128</v>
       </c>
       <c r="D119" t="n">
-        <v>0.376271</v>
+        <v>0.379219</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.186321</v>
+        <v>0.186128</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204093</v>
+        <v>0.2073</v>
       </c>
       <c r="D120" t="n">
-        <v>0.374564</v>
+        <v>0.366924</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184115</v>
+        <v>0.184162</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202475</v>
+        <v>0.206524</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451566</v>
+        <v>0.445325</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171349</v>
+        <v>0.17143</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20081</v>
+        <v>0.205631</v>
       </c>
       <c r="D122" t="n">
-        <v>0.431232</v>
+        <v>0.425044</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168459</v>
+        <v>0.168439</v>
       </c>
       <c r="C123" t="n">
-        <v>0.221577</v>
+        <v>0.223099</v>
       </c>
       <c r="D123" t="n">
-        <v>0.421867</v>
+        <v>0.415271</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241754</v>
+        <v>0.242531</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219289</v>
+        <v>0.220759</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417534</v>
+        <v>0.411396</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23834</v>
+        <v>0.237516</v>
       </c>
       <c r="C125" t="n">
-        <v>0.217295</v>
+        <v>0.218778</v>
       </c>
       <c r="D125" t="n">
-        <v>0.423532</v>
+        <v>0.417624</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233975</v>
+        <v>0.233782</v>
       </c>
       <c r="C126" t="n">
-        <v>0.215605</v>
+        <v>0.216955</v>
       </c>
       <c r="D126" t="n">
-        <v>0.414427</v>
+        <v>0.408522</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.227586</v>
+        <v>0.227681</v>
       </c>
       <c r="C127" t="n">
-        <v>0.214023</v>
+        <v>0.215376</v>
       </c>
       <c r="D127" t="n">
-        <v>0.409973</v>
+        <v>0.404276</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222061</v>
+        <v>0.221837</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212635</v>
+        <v>0.213979</v>
       </c>
       <c r="D128" t="n">
-        <v>0.405694</v>
+        <v>0.39998</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217266</v>
+        <v>0.216607</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211292</v>
+        <v>0.212658</v>
       </c>
       <c r="D129" t="n">
-        <v>0.402482</v>
+        <v>0.397051</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211507</v>
+        <v>0.21099</v>
       </c>
       <c r="C130" t="n">
-        <v>0.210017</v>
+        <v>0.211434</v>
       </c>
       <c r="D130" t="n">
-        <v>0.397691</v>
+        <v>0.390662</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206659</v>
+        <v>0.20675</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208579</v>
+        <v>0.210321</v>
       </c>
       <c r="D131" t="n">
-        <v>0.399191</v>
+        <v>0.391561</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201919</v>
+        <v>0.201898</v>
       </c>
       <c r="C132" t="n">
-        <v>0.207158</v>
+        <v>0.209253</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395936</v>
+        <v>0.38796</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19655</v>
+        <v>0.197494</v>
       </c>
       <c r="C133" t="n">
-        <v>0.205761</v>
+        <v>0.208251</v>
       </c>
       <c r="D133" t="n">
-        <v>0.398218</v>
+        <v>0.391628</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191766</v>
+        <v>0.191484</v>
       </c>
       <c r="C134" t="n">
-        <v>0.204447</v>
+        <v>0.207401</v>
       </c>
       <c r="D134" t="n">
-        <v>0.388014</v>
+        <v>0.380985</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185697</v>
+        <v>0.185583</v>
       </c>
       <c r="C135" t="n">
-        <v>0.202818</v>
+        <v>0.206494</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442896</v>
+        <v>0.436568</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178974</v>
+        <v>0.178939</v>
       </c>
       <c r="C136" t="n">
-        <v>0.201169</v>
+        <v>0.205937</v>
       </c>
       <c r="D136" t="n">
-        <v>0.443859</v>
+        <v>0.435488</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170555</v>
+        <v>0.170575</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22243</v>
+        <v>0.223495</v>
       </c>
       <c r="D137" t="n">
-        <v>0.451456</v>
+        <v>0.445364</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242332</v>
+        <v>0.242359</v>
       </c>
       <c r="C138" t="n">
-        <v>0.219848</v>
+        <v>0.22111</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4433</v>
+        <v>0.437451</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238721</v>
+        <v>0.240074</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217745</v>
+        <v>0.21907</v>
       </c>
       <c r="D139" t="n">
-        <v>0.432095</v>
+        <v>0.426378</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235384</v>
+        <v>0.234414</v>
       </c>
       <c r="C140" t="n">
-        <v>0.216008</v>
+        <v>0.217258</v>
       </c>
       <c r="D140" t="n">
-        <v>0.42678</v>
+        <v>0.420883</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230212</v>
+        <v>0.230466</v>
       </c>
       <c r="C141" t="n">
-        <v>0.214417</v>
+        <v>0.215826</v>
       </c>
       <c r="D141" t="n">
-        <v>0.42623</v>
+        <v>0.420329</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223324</v>
+        <v>0.223288</v>
       </c>
       <c r="C142" t="n">
-        <v>0.212917</v>
+        <v>0.214326</v>
       </c>
       <c r="D142" t="n">
-        <v>0.418548</v>
+        <v>0.412572</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219552</v>
+        <v>0.217857</v>
       </c>
       <c r="C143" t="n">
-        <v>0.211571</v>
+        <v>0.213061</v>
       </c>
       <c r="D143" t="n">
-        <v>0.416449</v>
+        <v>0.410523</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201769</v>
+        <v>0.203516</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200687</v>
+        <v>0.202418</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312763</v>
+        <v>0.315117</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196953</v>
+        <v>0.196072</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200988</v>
+        <v>0.202743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311058</v>
+        <v>0.313063</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193012</v>
+        <v>0.190915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200718</v>
+        <v>0.202676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.314562</v>
+        <v>0.31698</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185173</v>
+        <v>0.185228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200217</v>
+        <v>0.202725</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315552</v>
+        <v>0.318936</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183511</v>
+        <v>0.180897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200097</v>
+        <v>0.202749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31609</v>
+        <v>0.319765</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17153</v>
+        <v>0.171689</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199543</v>
+        <v>0.202308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309372</v>
+        <v>0.307532</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163758</v>
+        <v>0.167847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198718</v>
+        <v>0.202106</v>
       </c>
       <c r="D8" t="n">
-        <v>0.307906</v>
+        <v>0.309107</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155072</v>
+        <v>0.157813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216407</v>
+        <v>0.218007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308851</v>
+        <v>0.310985</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240184</v>
+        <v>0.239346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214856</v>
+        <v>0.217077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309309</v>
+        <v>0.31156</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23474</v>
+        <v>0.236881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213727</v>
+        <v>0.215792</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311025</v>
+        <v>0.310647</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232386</v>
+        <v>0.230391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212631</v>
+        <v>0.214549</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31245</v>
+        <v>0.313199</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22651</v>
+        <v>0.224375</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210754</v>
+        <v>0.213483</v>
       </c>
       <c r="D13" t="n">
-        <v>0.31363</v>
+        <v>0.314476</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220831</v>
+        <v>0.219719</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210166</v>
+        <v>0.212713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314705</v>
+        <v>0.314665</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215687</v>
+        <v>0.214212</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208694</v>
+        <v>0.211477</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316002</v>
+        <v>0.315685</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211214</v>
+        <v>0.210516</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20752</v>
+        <v>0.210977</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315324</v>
+        <v>0.319431</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204382</v>
+        <v>0.203602</v>
       </c>
       <c r="C17" t="n">
-        <v>0.206767</v>
+        <v>0.209768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.315722</v>
+        <v>0.316803</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197762</v>
+        <v>0.198633</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205371</v>
+        <v>0.208211</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318022</v>
+        <v>0.315763</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191674</v>
+        <v>0.192493</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204431</v>
+        <v>0.20751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320776</v>
+        <v>0.319307</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186197</v>
+        <v>0.186027</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203104</v>
+        <v>0.206847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322185</v>
+        <v>0.320456</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179162</v>
+        <v>0.178448</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201639</v>
+        <v>0.206136</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314364</v>
+        <v>0.312154</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.170855</v>
+        <v>0.170959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200721</v>
+        <v>0.205141</v>
       </c>
       <c r="D22" t="n">
-        <v>0.313023</v>
+        <v>0.311845</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161288</v>
+        <v>0.161415</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219881</v>
+        <v>0.220815</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313334</v>
+        <v>0.312143</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241117</v>
+        <v>0.241367</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217368</v>
+        <v>0.219123</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314773</v>
+        <v>0.31535</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239136</v>
+        <v>0.23848</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215805</v>
+        <v>0.217494</v>
       </c>
       <c r="D25" t="n">
-        <v>0.315857</v>
+        <v>0.314617</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233934</v>
+        <v>0.234171</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214413</v>
+        <v>0.216439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316085</v>
+        <v>0.313731</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227861</v>
+        <v>0.227631</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213233</v>
+        <v>0.214849</v>
       </c>
       <c r="D27" t="n">
-        <v>0.315748</v>
+        <v>0.314877</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22167</v>
+        <v>0.223165</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211841</v>
+        <v>0.213819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.316832</v>
+        <v>0.314003</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217298</v>
+        <v>0.219275</v>
       </c>
       <c r="C29" t="n">
-        <v>0.210792</v>
+        <v>0.212436</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317139</v>
+        <v>0.31667</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213348</v>
+        <v>0.212605</v>
       </c>
       <c r="C30" t="n">
-        <v>0.209468</v>
+        <v>0.211482</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318942</v>
+        <v>0.318887</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207437</v>
+        <v>0.207699</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20849</v>
+        <v>0.210418</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319516</v>
+        <v>0.319885</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201843</v>
+        <v>0.202281</v>
       </c>
       <c r="C32" t="n">
-        <v>0.207694</v>
+        <v>0.209206</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320173</v>
+        <v>0.320326</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195581</v>
+        <v>0.197995</v>
       </c>
       <c r="C33" t="n">
-        <v>0.206403</v>
+        <v>0.208282</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32142</v>
+        <v>0.322606</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18952</v>
+        <v>0.18895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.205264</v>
+        <v>0.20743</v>
       </c>
       <c r="D34" t="n">
-        <v>0.322079</v>
+        <v>0.324453</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.183778</v>
+        <v>0.182153</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203927</v>
+        <v>0.206285</v>
       </c>
       <c r="D35" t="n">
-        <v>0.316875</v>
+        <v>0.316398</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.176005</v>
+        <v>0.175641</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201895</v>
+        <v>0.205392</v>
       </c>
       <c r="D36" t="n">
-        <v>0.316864</v>
+        <v>0.317235</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173629</v>
+        <v>0.166691</v>
       </c>
       <c r="C37" t="n">
-        <v>0.220132</v>
+        <v>0.221782</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316234</v>
+        <v>0.31553</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244584</v>
+        <v>0.244297</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218351</v>
+        <v>0.219693</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318056</v>
+        <v>0.317109</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239242</v>
+        <v>0.238317</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216921</v>
+        <v>0.218282</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319651</v>
+        <v>0.315861</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234443</v>
+        <v>0.235861</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215548</v>
+        <v>0.216806</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319193</v>
+        <v>0.317639</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231166</v>
+        <v>0.229956</v>
       </c>
       <c r="C41" t="n">
-        <v>0.214075</v>
+        <v>0.215603</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318536</v>
+        <v>0.31871</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226458</v>
+        <v>0.226056</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212756</v>
+        <v>0.214233</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319457</v>
+        <v>0.319754</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218752</v>
+        <v>0.218397</v>
       </c>
       <c r="C43" t="n">
-        <v>0.211277</v>
+        <v>0.2128</v>
       </c>
       <c r="D43" t="n">
-        <v>0.320224</v>
+        <v>0.3194</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213472</v>
+        <v>0.212816</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210248</v>
+        <v>0.211593</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321535</v>
+        <v>0.320777</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208297</v>
+        <v>0.207462</v>
       </c>
       <c r="C45" t="n">
-        <v>0.209104</v>
+        <v>0.210615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32068</v>
+        <v>0.32097</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203992</v>
+        <v>0.202041</v>
       </c>
       <c r="C46" t="n">
-        <v>0.208154</v>
+        <v>0.209611</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322203</v>
+        <v>0.321386</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198223</v>
+        <v>0.196198</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206813</v>
+        <v>0.208321</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323483</v>
+        <v>0.321856</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192235</v>
+        <v>0.190959</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205616</v>
+        <v>0.207436</v>
       </c>
       <c r="D48" t="n">
-        <v>0.324706</v>
+        <v>0.322901</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190054</v>
+        <v>0.185159</v>
       </c>
       <c r="C49" t="n">
-        <v>0.204139</v>
+        <v>0.206519</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325891</v>
+        <v>0.327106</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183262</v>
+        <v>0.183026</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202534</v>
+        <v>0.205811</v>
       </c>
       <c r="D50" t="n">
-        <v>0.321601</v>
+        <v>0.319033</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173974</v>
+        <v>0.169673</v>
       </c>
       <c r="C51" t="n">
-        <v>0.220707</v>
+        <v>0.222219</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319809</v>
+        <v>0.318593</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159865</v>
+        <v>0.159957</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219229</v>
+        <v>0.220325</v>
       </c>
       <c r="D52" t="n">
-        <v>0.320427</v>
+        <v>0.318783</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239056</v>
+        <v>0.239351</v>
       </c>
       <c r="C53" t="n">
-        <v>0.217583</v>
+        <v>0.218974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.320353</v>
+        <v>0.319246</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236124</v>
+        <v>0.236119</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216184</v>
+        <v>0.217349</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322247</v>
+        <v>0.321934</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231645</v>
+        <v>0.230106</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214579</v>
+        <v>0.216104</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323845</v>
+        <v>0.325137</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226965</v>
+        <v>0.226058</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21325</v>
+        <v>0.21476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325721</v>
+        <v>0.325785</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221341</v>
+        <v>0.220385</v>
       </c>
       <c r="C57" t="n">
-        <v>0.212028</v>
+        <v>0.213273</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325609</v>
+        <v>0.327243</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215013</v>
+        <v>0.216344</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210885</v>
+        <v>0.212156</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327731</v>
+        <v>0.328582</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212185</v>
+        <v>0.210795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209796</v>
+        <v>0.21113</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329285</v>
+        <v>0.330453</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206254</v>
+        <v>0.206699</v>
       </c>
       <c r="C60" t="n">
-        <v>0.208541</v>
+        <v>0.210126</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331431</v>
+        <v>0.332899</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202348</v>
+        <v>0.20051</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20747</v>
+        <v>0.208873</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333416</v>
+        <v>0.335815</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196959</v>
+        <v>0.19535</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206005</v>
+        <v>0.208041</v>
       </c>
       <c r="D62" t="n">
-        <v>0.337701</v>
+        <v>0.338625</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187144</v>
+        <v>0.189496</v>
       </c>
       <c r="C63" t="n">
-        <v>0.204399</v>
+        <v>0.207001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337796</v>
+        <v>0.340691</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180157</v>
+        <v>0.184221</v>
       </c>
       <c r="C64" t="n">
-        <v>0.202602</v>
+        <v>0.206205</v>
       </c>
       <c r="D64" t="n">
-        <v>0.375892</v>
+        <v>0.37243</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177781</v>
+        <v>0.17129</v>
       </c>
       <c r="C65" t="n">
-        <v>0.201049</v>
+        <v>0.205188</v>
       </c>
       <c r="D65" t="n">
-        <v>0.373062</v>
+        <v>0.37437</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169412</v>
+        <v>0.169732</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220223</v>
+        <v>0.221716</v>
       </c>
       <c r="D66" t="n">
-        <v>0.375802</v>
+        <v>0.375219</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242683</v>
+        <v>0.242752</v>
       </c>
       <c r="C67" t="n">
-        <v>0.218341</v>
+        <v>0.219909</v>
       </c>
       <c r="D67" t="n">
-        <v>0.383262</v>
+        <v>0.382336</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236326</v>
+        <v>0.236212</v>
       </c>
       <c r="C68" t="n">
-        <v>0.216754</v>
+        <v>0.218226</v>
       </c>
       <c r="D68" t="n">
-        <v>0.380053</v>
+        <v>0.379684</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232276</v>
+        <v>0.231655</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215334</v>
+        <v>0.216711</v>
       </c>
       <c r="D69" t="n">
-        <v>0.378864</v>
+        <v>0.379809</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227618</v>
+        <v>0.228396</v>
       </c>
       <c r="C70" t="n">
-        <v>0.213892</v>
+        <v>0.215229</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379518</v>
+        <v>0.379555</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221522</v>
+        <v>0.221594</v>
       </c>
       <c r="C71" t="n">
-        <v>0.212661</v>
+        <v>0.213912</v>
       </c>
       <c r="D71" t="n">
-        <v>0.382834</v>
+        <v>0.384498</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216507</v>
+        <v>0.216189</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211365</v>
+        <v>0.212633</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383308</v>
+        <v>0.38546</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211905</v>
+        <v>0.21091</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210238</v>
+        <v>0.21165</v>
       </c>
       <c r="D73" t="n">
-        <v>0.381759</v>
+        <v>0.384893</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206689</v>
+        <v>0.206623</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208957</v>
+        <v>0.210235</v>
       </c>
       <c r="D74" t="n">
-        <v>0.382299</v>
+        <v>0.384916</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200313</v>
+        <v>0.20108</v>
       </c>
       <c r="C75" t="n">
-        <v>0.207655</v>
+        <v>0.209251</v>
       </c>
       <c r="D75" t="n">
-        <v>0.381148</v>
+        <v>0.384488</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198295</v>
+        <v>0.197779</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206263</v>
+        <v>0.208339</v>
       </c>
       <c r="D76" t="n">
-        <v>0.381343</v>
+        <v>0.384386</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1932</v>
+        <v>0.193305</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204731</v>
+        <v>0.207372</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380481</v>
+        <v>0.383511</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182867</v>
+        <v>0.18282</v>
       </c>
       <c r="C78" t="n">
-        <v>0.203074</v>
+        <v>0.206408</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436752</v>
+        <v>0.440245</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174347</v>
+        <v>0.174568</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201393</v>
+        <v>0.205376</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4272</v>
+        <v>0.430714</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171374</v>
+        <v>0.172128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222586</v>
+        <v>0.22405</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424349</v>
+        <v>0.428274</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241693</v>
+        <v>0.241634</v>
       </c>
       <c r="C81" t="n">
-        <v>0.219956</v>
+        <v>0.22155</v>
       </c>
       <c r="D81" t="n">
-        <v>0.420377</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237676</v>
+        <v>0.2379</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218125</v>
+        <v>0.21982</v>
       </c>
       <c r="D82" t="n">
-        <v>0.421658</v>
+        <v>0.424296</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23318</v>
+        <v>0.233226</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21634</v>
+        <v>0.217863</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418506</v>
+        <v>0.421266</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228149</v>
+        <v>0.227955</v>
       </c>
       <c r="C84" t="n">
-        <v>0.214579</v>
+        <v>0.216164</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418107</v>
+        <v>0.420958</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223297</v>
+        <v>0.222798</v>
       </c>
       <c r="C85" t="n">
-        <v>0.213165</v>
+        <v>0.214607</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409642</v>
+        <v>0.411588</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217836</v>
+        <v>0.217188</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211835</v>
+        <v>0.213326</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407601</v>
+        <v>0.40981</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212821</v>
+        <v>0.211994</v>
       </c>
       <c r="C87" t="n">
-        <v>0.210625</v>
+        <v>0.211867</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405687</v>
+        <v>0.408132</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209925</v>
+        <v>0.20887</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20931</v>
+        <v>0.210813</v>
       </c>
       <c r="D88" t="n">
-        <v>0.402672</v>
+        <v>0.40522</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203839</v>
+        <v>0.203617</v>
       </c>
       <c r="C89" t="n">
-        <v>0.208036</v>
+        <v>0.209814</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398514</v>
+        <v>0.400167</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1998</v>
+        <v>0.198468</v>
       </c>
       <c r="C90" t="n">
-        <v>0.206481</v>
+        <v>0.208523</v>
       </c>
       <c r="D90" t="n">
-        <v>0.402101</v>
+        <v>0.40362</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193893</v>
+        <v>0.193642</v>
       </c>
       <c r="C91" t="n">
-        <v>0.205078</v>
+        <v>0.207683</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400223</v>
+        <v>0.402444</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188025</v>
+        <v>0.187969</v>
       </c>
       <c r="C92" t="n">
-        <v>0.203394</v>
+        <v>0.206782</v>
       </c>
       <c r="D92" t="n">
-        <v>0.445738</v>
+        <v>0.448905</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182083</v>
+        <v>0.181556</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201947</v>
+        <v>0.206183</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44741</v>
+        <v>0.45037</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17388</v>
+        <v>0.173798</v>
       </c>
       <c r="C94" t="n">
-        <v>0.223466</v>
+        <v>0.225052</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448631</v>
+        <v>0.450533</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244163</v>
+        <v>0.24411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22058</v>
+        <v>0.22225</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440674</v>
+        <v>0.442122</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240713</v>
+        <v>0.240202</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218466</v>
+        <v>0.220079</v>
       </c>
       <c r="D96" t="n">
-        <v>0.436249</v>
+        <v>0.438402</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236455</v>
+        <v>0.236263</v>
       </c>
       <c r="C97" t="n">
-        <v>0.216497</v>
+        <v>0.218232</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424075</v>
+        <v>0.426299</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23159</v>
+        <v>0.230801</v>
       </c>
       <c r="C98" t="n">
-        <v>0.214957</v>
+        <v>0.216478</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41825</v>
+        <v>0.420373</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22593</v>
+        <v>0.22518</v>
       </c>
       <c r="C99" t="n">
-        <v>0.213368</v>
+        <v>0.214872</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417112</v>
+        <v>0.41881</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220522</v>
+        <v>0.22019</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212027</v>
+        <v>0.213472</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411226</v>
+        <v>0.413004</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215005</v>
+        <v>0.214469</v>
       </c>
       <c r="C101" t="n">
-        <v>0.21078</v>
+        <v>0.212262</v>
       </c>
       <c r="D101" t="n">
-        <v>0.408732</v>
+        <v>0.410791</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208718</v>
+        <v>0.209005</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209494</v>
+        <v>0.211039</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405165</v>
+        <v>0.406899</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203686</v>
+        <v>0.203269</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208275</v>
+        <v>0.209911</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401494</v>
+        <v>0.403524</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197222</v>
+        <v>0.196664</v>
       </c>
       <c r="C104" t="n">
-        <v>0.206802</v>
+        <v>0.208823</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395879</v>
+        <v>0.397646</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190841</v>
+        <v>0.190817</v>
       </c>
       <c r="C105" t="n">
-        <v>0.205469</v>
+        <v>0.207935</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394934</v>
+        <v>0.397171</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18439</v>
+        <v>0.184376</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203771</v>
+        <v>0.206963</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391761</v>
+        <v>0.394544</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177571</v>
+        <v>0.177698</v>
       </c>
       <c r="C107" t="n">
-        <v>0.202311</v>
+        <v>0.206178</v>
       </c>
       <c r="D107" t="n">
-        <v>0.425468</v>
+        <v>0.429099</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169453</v>
+        <v>0.169564</v>
       </c>
       <c r="C108" t="n">
-        <v>0.224082</v>
+        <v>0.225621</v>
       </c>
       <c r="D108" t="n">
-        <v>0.419608</v>
+        <v>0.422734</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166387</v>
+        <v>0.166471</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22118</v>
+        <v>0.222917</v>
       </c>
       <c r="D109" t="n">
-        <v>0.402789</v>
+        <v>0.406374</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242051</v>
+        <v>0.242722</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218771</v>
+        <v>0.220509</v>
       </c>
       <c r="D110" t="n">
-        <v>0.396545</v>
+        <v>0.400095</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237916</v>
+        <v>0.237953</v>
       </c>
       <c r="C111" t="n">
-        <v>0.216807</v>
+        <v>0.21848</v>
       </c>
       <c r="D111" t="n">
-        <v>0.404743</v>
+        <v>0.408016</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233095</v>
+        <v>0.233463</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215208</v>
+        <v>0.216802</v>
       </c>
       <c r="D112" t="n">
-        <v>0.400755</v>
+        <v>0.40411</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227759</v>
+        <v>0.228441</v>
       </c>
       <c r="C113" t="n">
-        <v>0.213719</v>
+        <v>0.215315</v>
       </c>
       <c r="D113" t="n">
-        <v>0.403572</v>
+        <v>0.406643</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223468</v>
+        <v>0.221239</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212237</v>
+        <v>0.213799</v>
       </c>
       <c r="D114" t="n">
-        <v>0.393107</v>
+        <v>0.395563</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216865</v>
+        <v>0.214895</v>
       </c>
       <c r="C115" t="n">
-        <v>0.211153</v>
+        <v>0.212567</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400065</v>
+        <v>0.402623</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211696</v>
+        <v>0.210297</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209845</v>
+        <v>0.211373</v>
       </c>
       <c r="D116" t="n">
-        <v>0.395607</v>
+        <v>0.396467</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203595</v>
+        <v>0.203994</v>
       </c>
       <c r="C117" t="n">
-        <v>0.208671</v>
+        <v>0.210224</v>
       </c>
       <c r="D117" t="n">
-        <v>0.392372</v>
+        <v>0.394164</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198471</v>
+        <v>0.198154</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206983</v>
+        <v>0.209016</v>
       </c>
       <c r="D118" t="n">
-        <v>0.37876</v>
+        <v>0.380546</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.192388</v>
+        <v>0.191879</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205556</v>
+        <v>0.2081</v>
       </c>
       <c r="D119" t="n">
-        <v>0.376271</v>
+        <v>0.378194</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.186321</v>
+        <v>0.185979</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204093</v>
+        <v>0.207191</v>
       </c>
       <c r="D120" t="n">
-        <v>0.374564</v>
+        <v>0.376662</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184115</v>
+        <v>0.18414</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202475</v>
+        <v>0.206373</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451566</v>
+        <v>0.45666</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171349</v>
+        <v>0.171402</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20081</v>
+        <v>0.206277</v>
       </c>
       <c r="D122" t="n">
-        <v>0.431232</v>
+        <v>0.423955</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168459</v>
+        <v>0.168318</v>
       </c>
       <c r="C123" t="n">
-        <v>0.221577</v>
+        <v>0.223022</v>
       </c>
       <c r="D123" t="n">
-        <v>0.421867</v>
+        <v>0.415144</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241754</v>
+        <v>0.240877</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219289</v>
+        <v>0.220592</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417534</v>
+        <v>0.411375</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23834</v>
+        <v>0.236691</v>
       </c>
       <c r="C125" t="n">
-        <v>0.217295</v>
+        <v>0.218641</v>
       </c>
       <c r="D125" t="n">
-        <v>0.423532</v>
+        <v>0.417318</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233975</v>
+        <v>0.232571</v>
       </c>
       <c r="C126" t="n">
-        <v>0.215605</v>
+        <v>0.216899</v>
       </c>
       <c r="D126" t="n">
-        <v>0.414427</v>
+        <v>0.407794</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.227586</v>
+        <v>0.226472</v>
       </c>
       <c r="C127" t="n">
-        <v>0.214023</v>
+        <v>0.215276</v>
       </c>
       <c r="D127" t="n">
-        <v>0.409973</v>
+        <v>0.404107</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222061</v>
+        <v>0.221615</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212635</v>
+        <v>0.214208</v>
       </c>
       <c r="D128" t="n">
-        <v>0.405694</v>
+        <v>0.399639</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217266</v>
+        <v>0.216809</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211292</v>
+        <v>0.212841</v>
       </c>
       <c r="D129" t="n">
-        <v>0.402482</v>
+        <v>0.396928</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211507</v>
+        <v>0.211031</v>
       </c>
       <c r="C130" t="n">
-        <v>0.210017</v>
+        <v>0.211638</v>
       </c>
       <c r="D130" t="n">
-        <v>0.397691</v>
+        <v>0.392419</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206659</v>
+        <v>0.207525</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208579</v>
+        <v>0.210434</v>
       </c>
       <c r="D131" t="n">
-        <v>0.399191</v>
+        <v>0.39335</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201919</v>
+        <v>0.202636</v>
       </c>
       <c r="C132" t="n">
-        <v>0.207158</v>
+        <v>0.209329</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395936</v>
+        <v>0.390525</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19655</v>
+        <v>0.197525</v>
       </c>
       <c r="C133" t="n">
-        <v>0.205761</v>
+        <v>0.20833</v>
       </c>
       <c r="D133" t="n">
-        <v>0.398218</v>
+        <v>0.393885</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191766</v>
+        <v>0.191385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.204447</v>
+        <v>0.207465</v>
       </c>
       <c r="D134" t="n">
-        <v>0.388014</v>
+        <v>0.384898</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185697</v>
+        <v>0.185581</v>
       </c>
       <c r="C135" t="n">
-        <v>0.202818</v>
+        <v>0.206588</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442896</v>
+        <v>0.43553</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178974</v>
+        <v>0.178835</v>
       </c>
       <c r="C136" t="n">
-        <v>0.201169</v>
+        <v>0.205805</v>
       </c>
       <c r="D136" t="n">
-        <v>0.443859</v>
+        <v>0.436286</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170555</v>
+        <v>0.170513</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22243</v>
+        <v>0.223808</v>
       </c>
       <c r="D137" t="n">
-        <v>0.451456</v>
+        <v>0.445101</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242332</v>
+        <v>0.242365</v>
       </c>
       <c r="C138" t="n">
-        <v>0.219848</v>
+        <v>0.221404</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4433</v>
+        <v>0.438293</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238721</v>
+        <v>0.2404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217745</v>
+        <v>0.219307</v>
       </c>
       <c r="D139" t="n">
-        <v>0.432095</v>
+        <v>0.428208</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235384</v>
+        <v>0.234504</v>
       </c>
       <c r="C140" t="n">
-        <v>0.216008</v>
+        <v>0.217601</v>
       </c>
       <c r="D140" t="n">
-        <v>0.42678</v>
+        <v>0.423768</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230212</v>
+        <v>0.230541</v>
       </c>
       <c r="C141" t="n">
-        <v>0.214417</v>
+        <v>0.215952</v>
       </c>
       <c r="D141" t="n">
-        <v>0.42623</v>
+        <v>0.423452</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223324</v>
+        <v>0.222837</v>
       </c>
       <c r="C142" t="n">
-        <v>0.212917</v>
+        <v>0.214369</v>
       </c>
       <c r="D142" t="n">
-        <v>0.418548</v>
+        <v>0.416576</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219552</v>
+        <v>0.217704</v>
       </c>
       <c r="C143" t="n">
-        <v>0.211571</v>
+        <v>0.213026</v>
       </c>
       <c r="D143" t="n">
-        <v>0.416449</v>
+        <v>0.414852</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201769</v>
+        <v>0.203078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.200687</v>
+        <v>0.194956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312763</v>
+        <v>0.309197</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.196953</v>
+        <v>0.197583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.200988</v>
+        <v>0.19631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311058</v>
+        <v>0.310764</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193012</v>
+        <v>0.192873</v>
       </c>
       <c r="C4" t="n">
-        <v>0.200718</v>
+        <v>0.197882</v>
       </c>
       <c r="D4" t="n">
-        <v>0.314562</v>
+        <v>0.313512</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185173</v>
+        <v>0.189029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.200217</v>
+        <v>0.197369</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315552</v>
+        <v>0.313643</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.183511</v>
+        <v>0.178878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.200097</v>
+        <v>0.198439</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31609</v>
+        <v>0.315329</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17153</v>
+        <v>0.176592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199543</v>
+        <v>0.199039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309372</v>
+        <v>0.304192</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163758</v>
+        <v>0.168115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198718</v>
+        <v>0.198822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.307906</v>
+        <v>0.303866</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.155072</v>
+        <v>0.158403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216407</v>
+        <v>0.21564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308851</v>
+        <v>0.305303</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240184</v>
+        <v>0.242719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214856</v>
+        <v>0.21435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.309309</v>
+        <v>0.305859</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23474</v>
+        <v>0.237196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213727</v>
+        <v>0.214019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311025</v>
+        <v>0.307887</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.232386</v>
+        <v>0.23292</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212631</v>
+        <v>0.21309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.31245</v>
+        <v>0.309507</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22651</v>
+        <v>0.225482</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210754</v>
+        <v>0.212525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.31363</v>
+        <v>0.311073</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.220831</v>
+        <v>0.219447</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210166</v>
+        <v>0.211395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.314705</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215687</v>
+        <v>0.215694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208694</v>
+        <v>0.210414</v>
       </c>
       <c r="D15" t="n">
-        <v>0.316002</v>
+        <v>0.312881</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211214</v>
+        <v>0.210045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20752</v>
+        <v>0.209538</v>
       </c>
       <c r="D16" t="n">
-        <v>0.315324</v>
+        <v>0.313068</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204382</v>
+        <v>0.203135</v>
       </c>
       <c r="C17" t="n">
-        <v>0.206767</v>
+        <v>0.208899</v>
       </c>
       <c r="D17" t="n">
-        <v>0.315722</v>
+        <v>0.313697</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.197762</v>
+        <v>0.198144</v>
       </c>
       <c r="C18" t="n">
-        <v>0.205371</v>
+        <v>0.208792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.318022</v>
+        <v>0.316993</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191674</v>
+        <v>0.192015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.204431</v>
+        <v>0.208239</v>
       </c>
       <c r="D19" t="n">
-        <v>0.320776</v>
+        <v>0.317678</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186197</v>
+        <v>0.186003</v>
       </c>
       <c r="C20" t="n">
-        <v>0.203104</v>
+        <v>0.207239</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322185</v>
+        <v>0.317707</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179162</v>
+        <v>0.178392</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201639</v>
+        <v>0.206309</v>
       </c>
       <c r="D21" t="n">
-        <v>0.314364</v>
+        <v>0.310724</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.170855</v>
+        <v>0.170894</v>
       </c>
       <c r="C22" t="n">
-        <v>0.200721</v>
+        <v>0.205738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.313023</v>
+        <v>0.308999</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161288</v>
+        <v>0.161578</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219881</v>
+        <v>0.22219</v>
       </c>
       <c r="D23" t="n">
-        <v>0.313334</v>
+        <v>0.309583</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241117</v>
+        <v>0.241505</v>
       </c>
       <c r="C24" t="n">
-        <v>0.217368</v>
+        <v>0.219713</v>
       </c>
       <c r="D24" t="n">
-        <v>0.314773</v>
+        <v>0.312962</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.239136</v>
+        <v>0.237883</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215805</v>
+        <v>0.218542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.315857</v>
+        <v>0.313144</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233934</v>
+        <v>0.233285</v>
       </c>
       <c r="C26" t="n">
-        <v>0.214413</v>
+        <v>0.217136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316085</v>
+        <v>0.313769</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227861</v>
+        <v>0.22984</v>
       </c>
       <c r="C27" t="n">
-        <v>0.213233</v>
+        <v>0.215826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.315748</v>
+        <v>0.314691</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.22167</v>
+        <v>0.223707</v>
       </c>
       <c r="C28" t="n">
-        <v>0.211841</v>
+        <v>0.214481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.316832</v>
+        <v>0.315262</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.217298</v>
+        <v>0.216281</v>
       </c>
       <c r="C29" t="n">
-        <v>0.210792</v>
+        <v>0.213148</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317139</v>
+        <v>0.316849</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213348</v>
+        <v>0.211482</v>
       </c>
       <c r="C30" t="n">
-        <v>0.209468</v>
+        <v>0.212409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318942</v>
+        <v>0.317842</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207437</v>
+        <v>0.206459</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20849</v>
+        <v>0.21125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319516</v>
+        <v>0.318409</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.201843</v>
+        <v>0.200443</v>
       </c>
       <c r="C32" t="n">
-        <v>0.207694</v>
+        <v>0.210217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.320173</v>
+        <v>0.317108</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195581</v>
+        <v>0.197833</v>
       </c>
       <c r="C33" t="n">
-        <v>0.206403</v>
+        <v>0.209498</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32142</v>
+        <v>0.319278</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18952</v>
+        <v>0.192377</v>
       </c>
       <c r="C34" t="n">
-        <v>0.205264</v>
+        <v>0.208479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.322079</v>
+        <v>0.320311</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.183778</v>
+        <v>0.185795</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203927</v>
+        <v>0.207645</v>
       </c>
       <c r="D35" t="n">
-        <v>0.316875</v>
+        <v>0.313433</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.176005</v>
+        <v>0.179627</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201895</v>
+        <v>0.206918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.316864</v>
+        <v>0.314723</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.173629</v>
+        <v>0.166463</v>
       </c>
       <c r="C37" t="n">
-        <v>0.220132</v>
+        <v>0.222399</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316234</v>
+        <v>0.314001</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244584</v>
+        <v>0.244352</v>
       </c>
       <c r="C38" t="n">
-        <v>0.218351</v>
+        <v>0.220801</v>
       </c>
       <c r="D38" t="n">
-        <v>0.318056</v>
+        <v>0.313017</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.239242</v>
+        <v>0.238734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216921</v>
+        <v>0.219359</v>
       </c>
       <c r="D39" t="n">
-        <v>0.319651</v>
+        <v>0.317251</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234443</v>
+        <v>0.235059</v>
       </c>
       <c r="C40" t="n">
-        <v>0.215548</v>
+        <v>0.218015</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319193</v>
+        <v>0.316208</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231166</v>
+        <v>0.230232</v>
       </c>
       <c r="C41" t="n">
-        <v>0.214075</v>
+        <v>0.216623</v>
       </c>
       <c r="D41" t="n">
-        <v>0.318536</v>
+        <v>0.315275</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226458</v>
+        <v>0.224853</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212756</v>
+        <v>0.215452</v>
       </c>
       <c r="D42" t="n">
-        <v>0.319457</v>
+        <v>0.317317</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218752</v>
+        <v>0.221109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.211277</v>
+        <v>0.21414</v>
       </c>
       <c r="D43" t="n">
-        <v>0.320224</v>
+        <v>0.319079</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213472</v>
+        <v>0.215376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210248</v>
+        <v>0.212943</v>
       </c>
       <c r="D44" t="n">
-        <v>0.321535</v>
+        <v>0.31755</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208297</v>
+        <v>0.209066</v>
       </c>
       <c r="C45" t="n">
-        <v>0.209104</v>
+        <v>0.211939</v>
       </c>
       <c r="D45" t="n">
-        <v>0.32068</v>
+        <v>0.320175</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203992</v>
+        <v>0.206091</v>
       </c>
       <c r="C46" t="n">
-        <v>0.208154</v>
+        <v>0.210826</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322203</v>
+        <v>0.318557</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.198223</v>
+        <v>0.201552</v>
       </c>
       <c r="C47" t="n">
-        <v>0.206813</v>
+        <v>0.209847</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323483</v>
+        <v>0.320542</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192235</v>
+        <v>0.196337</v>
       </c>
       <c r="C48" t="n">
-        <v>0.205616</v>
+        <v>0.208953</v>
       </c>
       <c r="D48" t="n">
-        <v>0.324706</v>
+        <v>0.3211</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190054</v>
+        <v>0.189904</v>
       </c>
       <c r="C49" t="n">
-        <v>0.204139</v>
+        <v>0.208032</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325891</v>
+        <v>0.323241</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183262</v>
+        <v>0.183849</v>
       </c>
       <c r="C50" t="n">
-        <v>0.202534</v>
+        <v>0.207118</v>
       </c>
       <c r="D50" t="n">
-        <v>0.321601</v>
+        <v>0.315846</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173974</v>
+        <v>0.175736</v>
       </c>
       <c r="C51" t="n">
-        <v>0.220707</v>
+        <v>0.223078</v>
       </c>
       <c r="D51" t="n">
-        <v>0.319809</v>
+        <v>0.317012</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159865</v>
+        <v>0.160458</v>
       </c>
       <c r="C52" t="n">
-        <v>0.219229</v>
+        <v>0.221353</v>
       </c>
       <c r="D52" t="n">
-        <v>0.320427</v>
+        <v>0.318183</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239056</v>
+        <v>0.239838</v>
       </c>
       <c r="C53" t="n">
-        <v>0.217583</v>
+        <v>0.21969</v>
       </c>
       <c r="D53" t="n">
-        <v>0.320353</v>
+        <v>0.31819</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236124</v>
+        <v>0.237101</v>
       </c>
       <c r="C54" t="n">
-        <v>0.216184</v>
+        <v>0.218245</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322247</v>
+        <v>0.319816</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231645</v>
+        <v>0.232169</v>
       </c>
       <c r="C55" t="n">
-        <v>0.214579</v>
+        <v>0.216891</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323845</v>
+        <v>0.320848</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226965</v>
+        <v>0.227221</v>
       </c>
       <c r="C56" t="n">
-        <v>0.21325</v>
+        <v>0.215615</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325721</v>
+        <v>0.322153</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221341</v>
+        <v>0.221764</v>
       </c>
       <c r="C57" t="n">
-        <v>0.212028</v>
+        <v>0.214505</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325609</v>
+        <v>0.323361</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215013</v>
+        <v>0.216375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.210885</v>
+        <v>0.213313</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327731</v>
+        <v>0.325959</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212185</v>
+        <v>0.212821</v>
       </c>
       <c r="C59" t="n">
-        <v>0.209796</v>
+        <v>0.212142</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329285</v>
+        <v>0.32636</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206254</v>
+        <v>0.207509</v>
       </c>
       <c r="C60" t="n">
-        <v>0.208541</v>
+        <v>0.211062</v>
       </c>
       <c r="D60" t="n">
-        <v>0.331431</v>
+        <v>0.32835</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.202348</v>
+        <v>0.201969</v>
       </c>
       <c r="C61" t="n">
-        <v>0.20747</v>
+        <v>0.210096</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333416</v>
+        <v>0.33182</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196959</v>
+        <v>0.196904</v>
       </c>
       <c r="C62" t="n">
-        <v>0.206005</v>
+        <v>0.209119</v>
       </c>
       <c r="D62" t="n">
-        <v>0.337701</v>
+        <v>0.336306</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187144</v>
+        <v>0.191545</v>
       </c>
       <c r="C63" t="n">
-        <v>0.204399</v>
+        <v>0.208217</v>
       </c>
       <c r="D63" t="n">
-        <v>0.337796</v>
+        <v>0.336126</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180157</v>
+        <v>0.184598</v>
       </c>
       <c r="C64" t="n">
-        <v>0.202602</v>
+        <v>0.207308</v>
       </c>
       <c r="D64" t="n">
-        <v>0.375892</v>
+        <v>0.37134</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.177781</v>
+        <v>0.178388</v>
       </c>
       <c r="C65" t="n">
-        <v>0.201049</v>
+        <v>0.206496</v>
       </c>
       <c r="D65" t="n">
-        <v>0.373062</v>
+        <v>0.375352</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169412</v>
+        <v>0.169734</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220223</v>
+        <v>0.222531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.375802</v>
+        <v>0.37599</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242683</v>
+        <v>0.242651</v>
       </c>
       <c r="C67" t="n">
-        <v>0.218341</v>
+        <v>0.220919</v>
       </c>
       <c r="D67" t="n">
-        <v>0.383262</v>
+        <v>0.379453</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236326</v>
+        <v>0.238129</v>
       </c>
       <c r="C68" t="n">
-        <v>0.216754</v>
+        <v>0.219182</v>
       </c>
       <c r="D68" t="n">
-        <v>0.380053</v>
+        <v>0.373935</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232276</v>
+        <v>0.232943</v>
       </c>
       <c r="C69" t="n">
-        <v>0.215334</v>
+        <v>0.217704</v>
       </c>
       <c r="D69" t="n">
-        <v>0.378864</v>
+        <v>0.374259</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227618</v>
+        <v>0.228189</v>
       </c>
       <c r="C70" t="n">
-        <v>0.213892</v>
+        <v>0.216487</v>
       </c>
       <c r="D70" t="n">
-        <v>0.379518</v>
+        <v>0.378436</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221522</v>
+        <v>0.222292</v>
       </c>
       <c r="C71" t="n">
-        <v>0.212661</v>
+        <v>0.215125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.382834</v>
+        <v>0.377134</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216507</v>
+        <v>0.21818</v>
       </c>
       <c r="C72" t="n">
-        <v>0.211365</v>
+        <v>0.213946</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383308</v>
+        <v>0.377706</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.211905</v>
+        <v>0.21291</v>
       </c>
       <c r="C73" t="n">
-        <v>0.210238</v>
+        <v>0.212697</v>
       </c>
       <c r="D73" t="n">
-        <v>0.381759</v>
+        <v>0.37649</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206689</v>
+        <v>0.207535</v>
       </c>
       <c r="C74" t="n">
-        <v>0.208957</v>
+        <v>0.21158</v>
       </c>
       <c r="D74" t="n">
-        <v>0.382299</v>
+        <v>0.377526</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200313</v>
+        <v>0.202695</v>
       </c>
       <c r="C75" t="n">
-        <v>0.207655</v>
+        <v>0.21047</v>
       </c>
       <c r="D75" t="n">
-        <v>0.381148</v>
+        <v>0.375246</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198295</v>
+        <v>0.197486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.206263</v>
+        <v>0.209533</v>
       </c>
       <c r="D76" t="n">
-        <v>0.381343</v>
+        <v>0.377362</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1932</v>
+        <v>0.193185</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204731</v>
+        <v>0.208547</v>
       </c>
       <c r="D77" t="n">
-        <v>0.380481</v>
+        <v>0.371643</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.182867</v>
+        <v>0.187257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.203074</v>
+        <v>0.207733</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436752</v>
+        <v>0.425819</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.174347</v>
+        <v>0.180655</v>
       </c>
       <c r="C79" t="n">
-        <v>0.201393</v>
+        <v>0.206821</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4272</v>
+        <v>0.420939</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171374</v>
+        <v>0.172068</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222586</v>
+        <v>0.224748</v>
       </c>
       <c r="D80" t="n">
-        <v>0.424349</v>
+        <v>0.416744</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241693</v>
+        <v>0.24352</v>
       </c>
       <c r="C81" t="n">
-        <v>0.219956</v>
+        <v>0.222565</v>
       </c>
       <c r="D81" t="n">
-        <v>0.420377</v>
+        <v>0.412272</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237676</v>
+        <v>0.237376</v>
       </c>
       <c r="C82" t="n">
-        <v>0.218125</v>
+        <v>0.220795</v>
       </c>
       <c r="D82" t="n">
-        <v>0.421658</v>
+        <v>0.41334</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23318</v>
+        <v>0.232923</v>
       </c>
       <c r="C83" t="n">
-        <v>0.21634</v>
+        <v>0.219481</v>
       </c>
       <c r="D83" t="n">
-        <v>0.418506</v>
+        <v>0.410786</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228149</v>
+        <v>0.227708</v>
       </c>
       <c r="C84" t="n">
-        <v>0.214579</v>
+        <v>0.217397</v>
       </c>
       <c r="D84" t="n">
-        <v>0.418107</v>
+        <v>0.410911</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223297</v>
+        <v>0.222361</v>
       </c>
       <c r="C85" t="n">
-        <v>0.213165</v>
+        <v>0.216067</v>
       </c>
       <c r="D85" t="n">
-        <v>0.409642</v>
+        <v>0.401768</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217836</v>
+        <v>0.217079</v>
       </c>
       <c r="C86" t="n">
-        <v>0.211835</v>
+        <v>0.214991</v>
       </c>
       <c r="D86" t="n">
-        <v>0.407601</v>
+        <v>0.400367</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212821</v>
+        <v>0.212137</v>
       </c>
       <c r="C87" t="n">
-        <v>0.210625</v>
+        <v>0.213389</v>
       </c>
       <c r="D87" t="n">
-        <v>0.405687</v>
+        <v>0.397839</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209925</v>
+        <v>0.209907</v>
       </c>
       <c r="C88" t="n">
-        <v>0.20931</v>
+        <v>0.212076</v>
       </c>
       <c r="D88" t="n">
-        <v>0.402672</v>
+        <v>0.39533</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203839</v>
+        <v>0.203484</v>
       </c>
       <c r="C89" t="n">
-        <v>0.208036</v>
+        <v>0.210958</v>
       </c>
       <c r="D89" t="n">
-        <v>0.398514</v>
+        <v>0.391675</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1998</v>
+        <v>0.198466</v>
       </c>
       <c r="C90" t="n">
-        <v>0.206481</v>
+        <v>0.20988</v>
       </c>
       <c r="D90" t="n">
-        <v>0.402101</v>
+        <v>0.397398</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193893</v>
+        <v>0.194609</v>
       </c>
       <c r="C91" t="n">
-        <v>0.205078</v>
+        <v>0.208987</v>
       </c>
       <c r="D91" t="n">
-        <v>0.400223</v>
+        <v>0.395987</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188025</v>
+        <v>0.189111</v>
       </c>
       <c r="C92" t="n">
-        <v>0.203394</v>
+        <v>0.208143</v>
       </c>
       <c r="D92" t="n">
-        <v>0.445738</v>
+        <v>0.432867</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182083</v>
+        <v>0.182054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201947</v>
+        <v>0.207362</v>
       </c>
       <c r="D93" t="n">
-        <v>0.44741</v>
+        <v>0.434091</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17388</v>
+        <v>0.173499</v>
       </c>
       <c r="C94" t="n">
-        <v>0.223466</v>
+        <v>0.225626</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448631</v>
+        <v>0.435197</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244163</v>
+        <v>0.247267</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22058</v>
+        <v>0.222652</v>
       </c>
       <c r="D95" t="n">
-        <v>0.440674</v>
+        <v>0.427742</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240713</v>
+        <v>0.24018</v>
       </c>
       <c r="C96" t="n">
-        <v>0.218466</v>
+        <v>0.220687</v>
       </c>
       <c r="D96" t="n">
-        <v>0.436249</v>
+        <v>0.423801</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.236455</v>
+        <v>0.235836</v>
       </c>
       <c r="C97" t="n">
-        <v>0.216497</v>
+        <v>0.219582</v>
       </c>
       <c r="D97" t="n">
-        <v>0.424075</v>
+        <v>0.412008</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.23159</v>
+        <v>0.230878</v>
       </c>
       <c r="C98" t="n">
-        <v>0.214957</v>
+        <v>0.218279</v>
       </c>
       <c r="D98" t="n">
-        <v>0.41825</v>
+        <v>0.406919</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22593</v>
+        <v>0.225298</v>
       </c>
       <c r="C99" t="n">
-        <v>0.213368</v>
+        <v>0.216658</v>
       </c>
       <c r="D99" t="n">
-        <v>0.417112</v>
+        <v>0.405648</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.220522</v>
+        <v>0.219696</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212027</v>
+        <v>0.215409</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411226</v>
+        <v>0.400342</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.215005</v>
+        <v>0.214217</v>
       </c>
       <c r="C101" t="n">
-        <v>0.21078</v>
+        <v>0.214003</v>
       </c>
       <c r="D101" t="n">
-        <v>0.408732</v>
+        <v>0.398416</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208718</v>
+        <v>0.208875</v>
       </c>
       <c r="C102" t="n">
-        <v>0.209494</v>
+        <v>0.212825</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405165</v>
+        <v>0.395087</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203686</v>
+        <v>0.203411</v>
       </c>
       <c r="C103" t="n">
-        <v>0.208275</v>
+        <v>0.211352</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401494</v>
+        <v>0.391694</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197222</v>
+        <v>0.197018</v>
       </c>
       <c r="C104" t="n">
-        <v>0.206802</v>
+        <v>0.210346</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395879</v>
+        <v>0.386294</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190841</v>
+        <v>0.190752</v>
       </c>
       <c r="C105" t="n">
-        <v>0.205469</v>
+        <v>0.209517</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394934</v>
+        <v>0.385289</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18439</v>
+        <v>0.184533</v>
       </c>
       <c r="C106" t="n">
-        <v>0.203771</v>
+        <v>0.20834</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391761</v>
+        <v>0.383357</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177571</v>
+        <v>0.177501</v>
       </c>
       <c r="C107" t="n">
-        <v>0.202311</v>
+        <v>0.207879</v>
       </c>
       <c r="D107" t="n">
-        <v>0.425468</v>
+        <v>0.413548</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169453</v>
+        <v>0.169583</v>
       </c>
       <c r="C108" t="n">
-        <v>0.224082</v>
+        <v>0.226389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.419608</v>
+        <v>0.407847</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166387</v>
+        <v>0.166446</v>
       </c>
       <c r="C109" t="n">
-        <v>0.22118</v>
+        <v>0.223821</v>
       </c>
       <c r="D109" t="n">
-        <v>0.402789</v>
+        <v>0.392106</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242051</v>
+        <v>0.242246</v>
       </c>
       <c r="C110" t="n">
-        <v>0.218771</v>
+        <v>0.221692</v>
       </c>
       <c r="D110" t="n">
-        <v>0.396545</v>
+        <v>0.386604</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237916</v>
+        <v>0.238479</v>
       </c>
       <c r="C111" t="n">
-        <v>0.216807</v>
+        <v>0.219762</v>
       </c>
       <c r="D111" t="n">
-        <v>0.404743</v>
+        <v>0.394369</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233095</v>
+        <v>0.233126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.215208</v>
+        <v>0.218182</v>
       </c>
       <c r="D112" t="n">
-        <v>0.400755</v>
+        <v>0.390393</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227759</v>
+        <v>0.227775</v>
       </c>
       <c r="C113" t="n">
-        <v>0.213719</v>
+        <v>0.216547</v>
       </c>
       <c r="D113" t="n">
-        <v>0.403572</v>
+        <v>0.393123</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.223468</v>
+        <v>0.221762</v>
       </c>
       <c r="C114" t="n">
-        <v>0.212237</v>
+        <v>0.215178</v>
       </c>
       <c r="D114" t="n">
-        <v>0.393107</v>
+        <v>0.38291</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216865</v>
+        <v>0.216137</v>
       </c>
       <c r="C115" t="n">
-        <v>0.211153</v>
+        <v>0.213927</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400065</v>
+        <v>0.389708</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211696</v>
+        <v>0.211037</v>
       </c>
       <c r="C116" t="n">
-        <v>0.209845</v>
+        <v>0.212658</v>
       </c>
       <c r="D116" t="n">
-        <v>0.395607</v>
+        <v>0.386826</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.203595</v>
+        <v>0.20402</v>
       </c>
       <c r="C117" t="n">
-        <v>0.208671</v>
+        <v>0.211413</v>
       </c>
       <c r="D117" t="n">
-        <v>0.392372</v>
+        <v>0.384328</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198471</v>
+        <v>0.197529</v>
       </c>
       <c r="C118" t="n">
-        <v>0.206983</v>
+        <v>0.210548</v>
       </c>
       <c r="D118" t="n">
-        <v>0.37876</v>
+        <v>0.371432</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.192388</v>
+        <v>0.191791</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205556</v>
+        <v>0.209582</v>
       </c>
       <c r="D119" t="n">
-        <v>0.376271</v>
+        <v>0.369315</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.186321</v>
+        <v>0.185961</v>
       </c>
       <c r="C120" t="n">
-        <v>0.204093</v>
+        <v>0.208589</v>
       </c>
       <c r="D120" t="n">
-        <v>0.374564</v>
+        <v>0.367943</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184115</v>
+        <v>0.183955</v>
       </c>
       <c r="C121" t="n">
-        <v>0.202475</v>
+        <v>0.207717</v>
       </c>
       <c r="D121" t="n">
-        <v>0.451566</v>
+        <v>0.440456</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171349</v>
+        <v>0.171394</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20081</v>
+        <v>0.207082</v>
       </c>
       <c r="D122" t="n">
-        <v>0.431232</v>
+        <v>0.420709</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168459</v>
+        <v>0.168334</v>
       </c>
       <c r="C123" t="n">
-        <v>0.221577</v>
+        <v>0.224072</v>
       </c>
       <c r="D123" t="n">
-        <v>0.421867</v>
+        <v>0.411937</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241754</v>
+        <v>0.242227</v>
       </c>
       <c r="C124" t="n">
-        <v>0.219289</v>
+        <v>0.22186</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417534</v>
+        <v>0.408078</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23834</v>
+        <v>0.238161</v>
       </c>
       <c r="C125" t="n">
-        <v>0.217295</v>
+        <v>0.22</v>
       </c>
       <c r="D125" t="n">
-        <v>0.423532</v>
+        <v>0.414716</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233975</v>
+        <v>0.232862</v>
       </c>
       <c r="C126" t="n">
-        <v>0.215605</v>
+        <v>0.218265</v>
       </c>
       <c r="D126" t="n">
-        <v>0.414427</v>
+        <v>0.405279</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.227586</v>
+        <v>0.228622</v>
       </c>
       <c r="C127" t="n">
-        <v>0.214023</v>
+        <v>0.216752</v>
       </c>
       <c r="D127" t="n">
-        <v>0.409973</v>
+        <v>0.401589</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222061</v>
+        <v>0.222081</v>
       </c>
       <c r="C128" t="n">
-        <v>0.212635</v>
+        <v>0.215336</v>
       </c>
       <c r="D128" t="n">
-        <v>0.405694</v>
+        <v>0.397303</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217266</v>
+        <v>0.216811</v>
       </c>
       <c r="C129" t="n">
-        <v>0.211292</v>
+        <v>0.214056</v>
       </c>
       <c r="D129" t="n">
-        <v>0.402482</v>
+        <v>0.39501</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211507</v>
+        <v>0.212864</v>
       </c>
       <c r="C130" t="n">
-        <v>0.210017</v>
+        <v>0.212859</v>
       </c>
       <c r="D130" t="n">
-        <v>0.397691</v>
+        <v>0.389849</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206659</v>
+        <v>0.206959</v>
       </c>
       <c r="C131" t="n">
-        <v>0.208579</v>
+        <v>0.21168</v>
       </c>
       <c r="D131" t="n">
-        <v>0.399191</v>
+        <v>0.391166</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201919</v>
+        <v>0.201695</v>
       </c>
       <c r="C132" t="n">
-        <v>0.207158</v>
+        <v>0.210666</v>
       </c>
       <c r="D132" t="n">
-        <v>0.395936</v>
+        <v>0.388313</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19655</v>
+        <v>0.19712</v>
       </c>
       <c r="C133" t="n">
-        <v>0.205761</v>
+        <v>0.209672</v>
       </c>
       <c r="D133" t="n">
-        <v>0.398218</v>
+        <v>0.391444</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191766</v>
+        <v>0.191304</v>
       </c>
       <c r="C134" t="n">
-        <v>0.204447</v>
+        <v>0.20874</v>
       </c>
       <c r="D134" t="n">
-        <v>0.388014</v>
+        <v>0.38141</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185697</v>
+        <v>0.18547</v>
       </c>
       <c r="C135" t="n">
-        <v>0.202818</v>
+        <v>0.207965</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442896</v>
+        <v>0.431773</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178974</v>
+        <v>0.178753</v>
       </c>
       <c r="C136" t="n">
-        <v>0.201169</v>
+        <v>0.20712</v>
       </c>
       <c r="D136" t="n">
-        <v>0.443859</v>
+        <v>0.43219</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170555</v>
+        <v>0.170457</v>
       </c>
       <c r="C137" t="n">
-        <v>0.22243</v>
+        <v>0.224631</v>
       </c>
       <c r="D137" t="n">
-        <v>0.451456</v>
+        <v>0.441129</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242332</v>
+        <v>0.242976</v>
       </c>
       <c r="C138" t="n">
-        <v>0.219848</v>
+        <v>0.222344</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4433</v>
+        <v>0.43344</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238721</v>
+        <v>0.239549</v>
       </c>
       <c r="C139" t="n">
-        <v>0.217745</v>
+        <v>0.220311</v>
       </c>
       <c r="D139" t="n">
-        <v>0.432095</v>
+        <v>0.422735</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235384</v>
+        <v>0.235074</v>
       </c>
       <c r="C140" t="n">
-        <v>0.216008</v>
+        <v>0.21858</v>
       </c>
       <c r="D140" t="n">
-        <v>0.42678</v>
+        <v>0.417872</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230212</v>
+        <v>0.230194</v>
       </c>
       <c r="C141" t="n">
-        <v>0.214417</v>
+        <v>0.217007</v>
       </c>
       <c r="D141" t="n">
-        <v>0.42623</v>
+        <v>0.417323</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223324</v>
+        <v>0.223377</v>
       </c>
       <c r="C142" t="n">
-        <v>0.212917</v>
+        <v>0.215579</v>
       </c>
       <c r="D142" t="n">
-        <v>0.418548</v>
+        <v>0.41018</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.219552</v>
+        <v>0.218063</v>
       </c>
       <c r="C143" t="n">
-        <v>0.211571</v>
+        <v>0.214395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.416449</v>
+        <v>0.407911</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.203078</v>
+        <v>0.201336</v>
       </c>
       <c r="C2" t="n">
-        <v>0.194956</v>
+        <v>0.1949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309197</v>
+        <v>0.309445</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.197583</v>
+        <v>0.198845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.19631</v>
+        <v>0.196193</v>
       </c>
       <c r="D3" t="n">
-        <v>0.310764</v>
+        <v>0.31103</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192873</v>
+        <v>0.192769</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197882</v>
+        <v>0.19724</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313512</v>
+        <v>0.314035</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.189029</v>
+        <v>0.185509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197369</v>
+        <v>0.197729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.313643</v>
+        <v>0.315232</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178878</v>
+        <v>0.17913</v>
       </c>
       <c r="C6" t="n">
-        <v>0.198439</v>
+        <v>0.197132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.315329</v>
+        <v>0.31653</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.176592</v>
+        <v>0.171505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199039</v>
+        <v>0.197618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304192</v>
+        <v>0.303517</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168115</v>
+        <v>0.163248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198822</v>
+        <v>0.198283</v>
       </c>
       <c r="D8" t="n">
-        <v>0.303866</v>
+        <v>0.304313</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158403</v>
+        <v>0.158327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21564</v>
+        <v>0.214616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.305303</v>
+        <v>0.30563</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242719</v>
+        <v>0.240948</v>
       </c>
       <c r="C10" t="n">
-        <v>0.21435</v>
+        <v>0.214152</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305859</v>
+        <v>0.307143</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.237196</v>
+        <v>0.235614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214019</v>
+        <v>0.213734</v>
       </c>
       <c r="D11" t="n">
-        <v>0.307887</v>
+        <v>0.308312</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.23292</v>
+        <v>0.231479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21309</v>
+        <v>0.213016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.309507</v>
+        <v>0.30896</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225482</v>
+        <v>0.228618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212525</v>
+        <v>0.212088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311073</v>
+        <v>0.309536</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219447</v>
+        <v>0.221644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211395</v>
+        <v>0.211237</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3115</v>
+        <v>0.311557</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215694</v>
+        <v>0.215315</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210414</v>
+        <v>0.210428</v>
       </c>
       <c r="D15" t="n">
-        <v>0.312881</v>
+        <v>0.312321</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.210045</v>
+        <v>0.211261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209538</v>
+        <v>0.209558</v>
       </c>
       <c r="D16" t="n">
-        <v>0.313068</v>
+        <v>0.313155</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203135</v>
+        <v>0.204414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208899</v>
+        <v>0.209268</v>
       </c>
       <c r="D17" t="n">
-        <v>0.313697</v>
+        <v>0.313706</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.198144</v>
+        <v>0.199107</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208792</v>
+        <v>0.208627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.316993</v>
+        <v>0.315914</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192015</v>
+        <v>0.192857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.208239</v>
+        <v>0.207882</v>
       </c>
       <c r="D19" t="n">
-        <v>0.317678</v>
+        <v>0.318354</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186003</v>
+        <v>0.186172</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207239</v>
+        <v>0.207358</v>
       </c>
       <c r="D20" t="n">
-        <v>0.317707</v>
+        <v>0.31848</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.178392</v>
+        <v>0.179303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.206309</v>
+        <v>0.20634</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310724</v>
+        <v>0.310581</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.170894</v>
+        <v>0.170628</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205738</v>
+        <v>0.205663</v>
       </c>
       <c r="D22" t="n">
-        <v>0.308999</v>
+        <v>0.310267</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161578</v>
+        <v>0.161967</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22219</v>
+        <v>0.222533</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309583</v>
+        <v>0.309669</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241505</v>
+        <v>0.242335</v>
       </c>
       <c r="C24" t="n">
-        <v>0.219713</v>
+        <v>0.220582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.312962</v>
+        <v>0.313218</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.237883</v>
+        <v>0.236925</v>
       </c>
       <c r="C25" t="n">
-        <v>0.218542</v>
+        <v>0.219753</v>
       </c>
       <c r="D25" t="n">
-        <v>0.313144</v>
+        <v>0.313533</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.233285</v>
+        <v>0.232965</v>
       </c>
       <c r="C26" t="n">
-        <v>0.217136</v>
+        <v>0.217947</v>
       </c>
       <c r="D26" t="n">
-        <v>0.313769</v>
+        <v>0.313757</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.22984</v>
+        <v>0.229009</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215826</v>
+        <v>0.215825</v>
       </c>
       <c r="D27" t="n">
-        <v>0.314691</v>
+        <v>0.314793</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223707</v>
+        <v>0.222802</v>
       </c>
       <c r="C28" t="n">
-        <v>0.214481</v>
+        <v>0.2144</v>
       </c>
       <c r="D28" t="n">
-        <v>0.315262</v>
+        <v>0.31506</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.216281</v>
+        <v>0.218065</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213148</v>
+        <v>0.213577</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316849</v>
+        <v>0.316091</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211482</v>
+        <v>0.213044</v>
       </c>
       <c r="C30" t="n">
         <v>0.212409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317842</v>
+        <v>0.317706</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206459</v>
+        <v>0.207619</v>
       </c>
       <c r="C31" t="n">
-        <v>0.21125</v>
+        <v>0.211207</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318409</v>
+        <v>0.318467</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200443</v>
+        <v>0.202585</v>
       </c>
       <c r="C32" t="n">
-        <v>0.210217</v>
+        <v>0.210221</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317108</v>
+        <v>0.317334</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.197833</v>
+        <v>0.195788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209498</v>
+        <v>0.209463</v>
       </c>
       <c r="D33" t="n">
-        <v>0.319278</v>
+        <v>0.319184</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.192377</v>
+        <v>0.191185</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208479</v>
+        <v>0.208569</v>
       </c>
       <c r="D34" t="n">
-        <v>0.320311</v>
+        <v>0.319911</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185795</v>
+        <v>0.183172</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207645</v>
+        <v>0.207801</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313433</v>
+        <v>0.312829</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179627</v>
+        <v>0.181994</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206918</v>
+        <v>0.206995</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314723</v>
+        <v>0.314349</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166463</v>
+        <v>0.174234</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222399</v>
+        <v>0.222834</v>
       </c>
       <c r="D37" t="n">
-        <v>0.314001</v>
+        <v>0.313283</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.244352</v>
+        <v>0.246256</v>
       </c>
       <c r="C38" t="n">
-        <v>0.220801</v>
+        <v>0.220854</v>
       </c>
       <c r="D38" t="n">
-        <v>0.313017</v>
+        <v>0.314591</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238734</v>
+        <v>0.242717</v>
       </c>
       <c r="C39" t="n">
-        <v>0.219359</v>
+        <v>0.219354</v>
       </c>
       <c r="D39" t="n">
-        <v>0.317251</v>
+        <v>0.316211</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235059</v>
+        <v>0.236506</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218015</v>
+        <v>0.218095</v>
       </c>
       <c r="D40" t="n">
-        <v>0.316208</v>
+        <v>0.315654</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230232</v>
+        <v>0.230685</v>
       </c>
       <c r="C41" t="n">
-        <v>0.216623</v>
+        <v>0.2165</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315275</v>
+        <v>0.315833</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224853</v>
+        <v>0.226812</v>
       </c>
       <c r="C42" t="n">
-        <v>0.215452</v>
+        <v>0.21545</v>
       </c>
       <c r="D42" t="n">
-        <v>0.317317</v>
+        <v>0.317313</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.221109</v>
+        <v>0.21955</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21414</v>
+        <v>0.214183</v>
       </c>
       <c r="D43" t="n">
-        <v>0.319079</v>
+        <v>0.318956</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215376</v>
+        <v>0.215209</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212943</v>
+        <v>0.213159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31755</v>
+        <v>0.31822</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209066</v>
+        <v>0.209735</v>
       </c>
       <c r="C45" t="n">
-        <v>0.211939</v>
+        <v>0.211887</v>
       </c>
       <c r="D45" t="n">
-        <v>0.320175</v>
+        <v>0.320493</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.206091</v>
+        <v>0.203974</v>
       </c>
       <c r="C46" t="n">
-        <v>0.210826</v>
+        <v>0.21092</v>
       </c>
       <c r="D46" t="n">
-        <v>0.318557</v>
+        <v>0.319879</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.201552</v>
+        <v>0.197913</v>
       </c>
       <c r="C47" t="n">
-        <v>0.209847</v>
+        <v>0.209915</v>
       </c>
       <c r="D47" t="n">
-        <v>0.320542</v>
+        <v>0.321167</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.196337</v>
+        <v>0.192698</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208953</v>
+        <v>0.208879</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3211</v>
+        <v>0.321384</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189904</v>
+        <v>0.186046</v>
       </c>
       <c r="C49" t="n">
-        <v>0.208032</v>
+        <v>0.207942</v>
       </c>
       <c r="D49" t="n">
-        <v>0.323241</v>
+        <v>0.323652</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183849</v>
+        <v>0.17917</v>
       </c>
       <c r="C50" t="n">
-        <v>0.207118</v>
+        <v>0.207183</v>
       </c>
       <c r="D50" t="n">
-        <v>0.315846</v>
+        <v>0.316106</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.175736</v>
+        <v>0.170185</v>
       </c>
       <c r="C51" t="n">
-        <v>0.223078</v>
+        <v>0.223035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317012</v>
+        <v>0.317432</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.160458</v>
+        <v>0.160408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221353</v>
+        <v>0.221412</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318183</v>
+        <v>0.318225</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239838</v>
+        <v>0.239994</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21969</v>
+        <v>0.21992</v>
       </c>
       <c r="D53" t="n">
-        <v>0.31819</v>
+        <v>0.318213</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237101</v>
+        <v>0.237398</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218245</v>
+        <v>0.218297</v>
       </c>
       <c r="D54" t="n">
-        <v>0.319816</v>
+        <v>0.320709</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232169</v>
+        <v>0.231094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.216891</v>
+        <v>0.2168</v>
       </c>
       <c r="D55" t="n">
-        <v>0.320848</v>
+        <v>0.321959</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227221</v>
+        <v>0.226262</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215615</v>
+        <v>0.215637</v>
       </c>
       <c r="D56" t="n">
-        <v>0.322153</v>
+        <v>0.323327</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221764</v>
+        <v>0.222335</v>
       </c>
       <c r="C57" t="n">
-        <v>0.214505</v>
+        <v>0.214453</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323361</v>
+        <v>0.324265</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216375</v>
+        <v>0.215983</v>
       </c>
       <c r="C58" t="n">
-        <v>0.213313</v>
+        <v>0.213314</v>
       </c>
       <c r="D58" t="n">
-        <v>0.325959</v>
+        <v>0.327781</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.212821</v>
+        <v>0.211483</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212142</v>
+        <v>0.212088</v>
       </c>
       <c r="D59" t="n">
-        <v>0.32636</v>
+        <v>0.329743</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.207509</v>
+        <v>0.204721</v>
       </c>
       <c r="C60" t="n">
-        <v>0.211062</v>
+        <v>0.211111</v>
       </c>
       <c r="D60" t="n">
-        <v>0.32835</v>
+        <v>0.330524</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201969</v>
+        <v>0.199373</v>
       </c>
       <c r="C61" t="n">
-        <v>0.210096</v>
+        <v>0.210116</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33182</v>
+        <v>0.332837</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.196904</v>
+        <v>0.193867</v>
       </c>
       <c r="C62" t="n">
-        <v>0.209119</v>
+        <v>0.209117</v>
       </c>
       <c r="D62" t="n">
-        <v>0.336306</v>
+        <v>0.335162</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191545</v>
+        <v>0.187828</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208217</v>
+        <v>0.208229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.336126</v>
+        <v>0.338265</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184598</v>
+        <v>0.180381</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207308</v>
+        <v>0.207227</v>
       </c>
       <c r="D64" t="n">
-        <v>0.37134</v>
+        <v>0.367785</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178388</v>
+        <v>0.178725</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206496</v>
+        <v>0.206525</v>
       </c>
       <c r="D65" t="n">
-        <v>0.375352</v>
+        <v>0.375324</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169734</v>
+        <v>0.169801</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222531</v>
+        <v>0.222611</v>
       </c>
       <c r="D66" t="n">
-        <v>0.37599</v>
+        <v>0.376242</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.242651</v>
+        <v>0.244029</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220919</v>
+        <v>0.220825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.379453</v>
+        <v>0.379134</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.238129</v>
+        <v>0.239256</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219182</v>
+        <v>0.219123</v>
       </c>
       <c r="D68" t="n">
-        <v>0.373935</v>
+        <v>0.374798</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.232943</v>
+        <v>0.235721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.217704</v>
+        <v>0.21768</v>
       </c>
       <c r="D69" t="n">
-        <v>0.374259</v>
+        <v>0.377901</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228189</v>
+        <v>0.228399</v>
       </c>
       <c r="C70" t="n">
-        <v>0.216487</v>
+        <v>0.216301</v>
       </c>
       <c r="D70" t="n">
-        <v>0.378436</v>
+        <v>0.376556</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.222292</v>
+        <v>0.224186</v>
       </c>
       <c r="C71" t="n">
-        <v>0.215125</v>
+        <v>0.215094</v>
       </c>
       <c r="D71" t="n">
-        <v>0.377134</v>
+        <v>0.377424</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21818</v>
+        <v>0.219557</v>
       </c>
       <c r="C72" t="n">
-        <v>0.213946</v>
+        <v>0.213804</v>
       </c>
       <c r="D72" t="n">
-        <v>0.377706</v>
+        <v>0.376289</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21291</v>
+        <v>0.213619</v>
       </c>
       <c r="C73" t="n">
-        <v>0.212697</v>
+        <v>0.212688</v>
       </c>
       <c r="D73" t="n">
-        <v>0.37649</v>
+        <v>0.376341</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.207535</v>
+        <v>0.208482</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21158</v>
+        <v>0.21163</v>
       </c>
       <c r="D74" t="n">
-        <v>0.377526</v>
+        <v>0.37543</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202695</v>
+        <v>0.203212</v>
       </c>
       <c r="C75" t="n">
-        <v>0.21047</v>
+        <v>0.210566</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375246</v>
+        <v>0.374336</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.197486</v>
+        <v>0.198483</v>
       </c>
       <c r="C76" t="n">
-        <v>0.209533</v>
+        <v>0.209586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.377362</v>
+        <v>0.371869</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193185</v>
+        <v>0.193113</v>
       </c>
       <c r="C77" t="n">
-        <v>0.208547</v>
+        <v>0.208642</v>
       </c>
       <c r="D77" t="n">
-        <v>0.371643</v>
+        <v>0.376019</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187257</v>
+        <v>0.187371</v>
       </c>
       <c r="C78" t="n">
-        <v>0.207733</v>
+        <v>0.20778</v>
       </c>
       <c r="D78" t="n">
-        <v>0.425819</v>
+        <v>0.422678</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180655</v>
+        <v>0.180922</v>
       </c>
       <c r="C79" t="n">
-        <v>0.206821</v>
+        <v>0.206938</v>
       </c>
       <c r="D79" t="n">
-        <v>0.420939</v>
+        <v>0.419836</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.172068</v>
+        <v>0.171909</v>
       </c>
       <c r="C80" t="n">
-        <v>0.224748</v>
+        <v>0.224725</v>
       </c>
       <c r="D80" t="n">
-        <v>0.416744</v>
+        <v>0.416161</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.24352</v>
+        <v>0.242112</v>
       </c>
       <c r="C81" t="n">
-        <v>0.222565</v>
+        <v>0.222499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.412272</v>
+        <v>0.412043</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237376</v>
+        <v>0.239119</v>
       </c>
       <c r="C82" t="n">
-        <v>0.220795</v>
+        <v>0.220874</v>
       </c>
       <c r="D82" t="n">
-        <v>0.41334</v>
+        <v>0.413084</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232923</v>
+        <v>0.23456</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219481</v>
+        <v>0.219166</v>
       </c>
       <c r="D83" t="n">
-        <v>0.410786</v>
+        <v>0.411021</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227708</v>
+        <v>0.229441</v>
       </c>
       <c r="C84" t="n">
-        <v>0.217397</v>
+        <v>0.218126</v>
       </c>
       <c r="D84" t="n">
-        <v>0.410911</v>
+        <v>0.410243</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222361</v>
+        <v>0.223792</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216067</v>
+        <v>0.216142</v>
       </c>
       <c r="D85" t="n">
-        <v>0.401768</v>
+        <v>0.40392</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217079</v>
+        <v>0.219047</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214991</v>
+        <v>0.214692</v>
       </c>
       <c r="D86" t="n">
-        <v>0.400367</v>
+        <v>0.402602</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212137</v>
+        <v>0.21389</v>
       </c>
       <c r="C87" t="n">
-        <v>0.213389</v>
+        <v>0.213428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.397839</v>
+        <v>0.398846</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.209907</v>
+        <v>0.207307</v>
       </c>
       <c r="C88" t="n">
-        <v>0.212076</v>
+        <v>0.212021</v>
       </c>
       <c r="D88" t="n">
-        <v>0.39533</v>
+        <v>0.394144</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203484</v>
+        <v>0.201797</v>
       </c>
       <c r="C89" t="n">
-        <v>0.210958</v>
+        <v>0.210973</v>
       </c>
       <c r="D89" t="n">
-        <v>0.391675</v>
+        <v>0.393528</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198466</v>
+        <v>0.196073</v>
       </c>
       <c r="C90" t="n">
-        <v>0.20988</v>
+        <v>0.209945</v>
       </c>
       <c r="D90" t="n">
-        <v>0.397398</v>
+        <v>0.392273</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.194609</v>
+        <v>0.190095</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208987</v>
+        <v>0.208979</v>
       </c>
       <c r="D91" t="n">
-        <v>0.395987</v>
+        <v>0.392112</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.189111</v>
+        <v>0.188099</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208143</v>
+        <v>0.208123</v>
       </c>
       <c r="D92" t="n">
-        <v>0.432867</v>
+        <v>0.44278</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.182054</v>
+        <v>0.18176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207362</v>
+        <v>0.20735</v>
       </c>
       <c r="D93" t="n">
-        <v>0.434091</v>
+        <v>0.438471</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173499</v>
+        <v>0.173743</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225626</v>
+        <v>0.225349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.435197</v>
+        <v>0.43431</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.247267</v>
+        <v>0.243792</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222652</v>
+        <v>0.222783</v>
       </c>
       <c r="D95" t="n">
-        <v>0.427742</v>
+        <v>0.428444</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.24018</v>
+        <v>0.240004</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220687</v>
+        <v>0.220867</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423801</v>
+        <v>0.425825</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235836</v>
+        <v>0.235739</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219582</v>
+        <v>0.219333</v>
       </c>
       <c r="D97" t="n">
-        <v>0.412008</v>
+        <v>0.414012</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230878</v>
+        <v>0.230816</v>
       </c>
       <c r="C98" t="n">
-        <v>0.218279</v>
+        <v>0.217965</v>
       </c>
       <c r="D98" t="n">
-        <v>0.406919</v>
+        <v>0.411487</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225298</v>
+        <v>0.225271</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216658</v>
+        <v>0.216713</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405648</v>
+        <v>0.407938</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219696</v>
+        <v>0.219651</v>
       </c>
       <c r="C100" t="n">
-        <v>0.215409</v>
+        <v>0.214951</v>
       </c>
       <c r="D100" t="n">
-        <v>0.400342</v>
+        <v>0.402689</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214217</v>
+        <v>0.214233</v>
       </c>
       <c r="C101" t="n">
-        <v>0.214003</v>
+        <v>0.213923</v>
       </c>
       <c r="D101" t="n">
-        <v>0.398416</v>
+        <v>0.400736</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208875</v>
+        <v>0.208806</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212825</v>
+        <v>0.212546</v>
       </c>
       <c r="D102" t="n">
-        <v>0.395087</v>
+        <v>0.399514</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203411</v>
+        <v>0.202185</v>
       </c>
       <c r="C103" t="n">
-        <v>0.211352</v>
+        <v>0.21154</v>
       </c>
       <c r="D103" t="n">
-        <v>0.391694</v>
+        <v>0.390896</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197018</v>
+        <v>0.196402</v>
       </c>
       <c r="C104" t="n">
-        <v>0.210346</v>
+        <v>0.210398</v>
       </c>
       <c r="D104" t="n">
-        <v>0.386294</v>
+        <v>0.388589</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190752</v>
+        <v>0.190905</v>
       </c>
       <c r="C105" t="n">
-        <v>0.209517</v>
+        <v>0.209428</v>
       </c>
       <c r="D105" t="n">
-        <v>0.385289</v>
+        <v>0.38116</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.184533</v>
+        <v>0.188723</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20834</v>
+        <v>0.208401</v>
       </c>
       <c r="D106" t="n">
-        <v>0.383357</v>
+        <v>0.38586</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177501</v>
+        <v>0.177538</v>
       </c>
       <c r="C107" t="n">
-        <v>0.207879</v>
+        <v>0.207748</v>
       </c>
       <c r="D107" t="n">
-        <v>0.413548</v>
+        <v>0.419714</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169583</v>
+        <v>0.169515</v>
       </c>
       <c r="C108" t="n">
-        <v>0.226389</v>
+        <v>0.226318</v>
       </c>
       <c r="D108" t="n">
-        <v>0.407847</v>
+        <v>0.414847</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166446</v>
+        <v>0.166509</v>
       </c>
       <c r="C109" t="n">
-        <v>0.223821</v>
+        <v>0.223757</v>
       </c>
       <c r="D109" t="n">
-        <v>0.392106</v>
+        <v>0.393483</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242246</v>
+        <v>0.242058</v>
       </c>
       <c r="C110" t="n">
-        <v>0.221692</v>
+        <v>0.221518</v>
       </c>
       <c r="D110" t="n">
-        <v>0.386604</v>
+        <v>0.388725</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.238479</v>
+        <v>0.237875</v>
       </c>
       <c r="C111" t="n">
-        <v>0.219762</v>
+        <v>0.21975</v>
       </c>
       <c r="D111" t="n">
-        <v>0.394369</v>
+        <v>0.396398</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.233126</v>
+        <v>0.232957</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218182</v>
+        <v>0.218064</v>
       </c>
       <c r="D112" t="n">
-        <v>0.390393</v>
+        <v>0.392558</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227775</v>
+        <v>0.227896</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216547</v>
+        <v>0.216525</v>
       </c>
       <c r="D113" t="n">
-        <v>0.393123</v>
+        <v>0.39564</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.221762</v>
+        <v>0.220939</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215178</v>
+        <v>0.215229</v>
       </c>
       <c r="D114" t="n">
-        <v>0.38291</v>
+        <v>0.385232</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216137</v>
+        <v>0.215624</v>
       </c>
       <c r="C115" t="n">
-        <v>0.213927</v>
+        <v>0.2139</v>
       </c>
       <c r="D115" t="n">
-        <v>0.389708</v>
+        <v>0.390146</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211037</v>
+        <v>0.211248</v>
       </c>
       <c r="C116" t="n">
-        <v>0.212658</v>
+        <v>0.212736</v>
       </c>
       <c r="D116" t="n">
-        <v>0.386826</v>
+        <v>0.386473</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.20402</v>
+        <v>0.204902</v>
       </c>
       <c r="C117" t="n">
-        <v>0.211413</v>
+        <v>0.211504</v>
       </c>
       <c r="D117" t="n">
-        <v>0.384328</v>
+        <v>0.384258</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197529</v>
+        <v>0.197389</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210548</v>
+        <v>0.210499</v>
       </c>
       <c r="D118" t="n">
-        <v>0.371432</v>
+        <v>0.371233</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191791</v>
+        <v>0.191806</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209582</v>
+        <v>0.209551</v>
       </c>
       <c r="D119" t="n">
-        <v>0.369315</v>
+        <v>0.369273</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185961</v>
+        <v>0.185974</v>
       </c>
       <c r="C120" t="n">
-        <v>0.208589</v>
+        <v>0.20864</v>
       </c>
       <c r="D120" t="n">
-        <v>0.367943</v>
+        <v>0.367739</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183955</v>
+        <v>0.184334</v>
       </c>
       <c r="C121" t="n">
-        <v>0.207717</v>
+        <v>0.207881</v>
       </c>
       <c r="D121" t="n">
-        <v>0.440456</v>
+        <v>0.440433</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171394</v>
+        <v>0.171467</v>
       </c>
       <c r="C122" t="n">
-        <v>0.207082</v>
+        <v>0.207063</v>
       </c>
       <c r="D122" t="n">
-        <v>0.420709</v>
+        <v>0.420758</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168334</v>
+        <v>0.168502</v>
       </c>
       <c r="C123" t="n">
-        <v>0.224072</v>
+        <v>0.224093</v>
       </c>
       <c r="D123" t="n">
-        <v>0.411937</v>
+        <v>0.411893</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.242227</v>
+        <v>0.24205</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22186</v>
+        <v>0.221892</v>
       </c>
       <c r="D124" t="n">
-        <v>0.408078</v>
+        <v>0.407781</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.238161</v>
+        <v>0.237594</v>
       </c>
       <c r="C125" t="n">
-        <v>0.22</v>
+        <v>0.219974</v>
       </c>
       <c r="D125" t="n">
-        <v>0.414716</v>
+        <v>0.414608</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.232862</v>
+        <v>0.233446</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218265</v>
+        <v>0.218319</v>
       </c>
       <c r="D126" t="n">
-        <v>0.405279</v>
+        <v>0.405022</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228622</v>
+        <v>0.228621</v>
       </c>
       <c r="C127" t="n">
-        <v>0.216752</v>
+        <v>0.216827</v>
       </c>
       <c r="D127" t="n">
-        <v>0.401589</v>
+        <v>0.401464</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222081</v>
+        <v>0.223726</v>
       </c>
       <c r="C128" t="n">
-        <v>0.215336</v>
+        <v>0.215451</v>
       </c>
       <c r="D128" t="n">
-        <v>0.397303</v>
+        <v>0.397248</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.216811</v>
+        <v>0.218175</v>
       </c>
       <c r="C129" t="n">
-        <v>0.214056</v>
+        <v>0.214137</v>
       </c>
       <c r="D129" t="n">
-        <v>0.39501</v>
+        <v>0.394764</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.212864</v>
+        <v>0.213859</v>
       </c>
       <c r="C130" t="n">
-        <v>0.212859</v>
+        <v>0.21292</v>
       </c>
       <c r="D130" t="n">
-        <v>0.389849</v>
+        <v>0.389526</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206959</v>
+        <v>0.206596</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21168</v>
+        <v>0.21178</v>
       </c>
       <c r="D131" t="n">
-        <v>0.391166</v>
+        <v>0.390827</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201695</v>
+        <v>0.201696</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210666</v>
+        <v>0.210768</v>
       </c>
       <c r="D132" t="n">
-        <v>0.388313</v>
+        <v>0.387876</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19712</v>
+        <v>0.197205</v>
       </c>
       <c r="C133" t="n">
-        <v>0.209672</v>
+        <v>0.209747</v>
       </c>
       <c r="D133" t="n">
-        <v>0.391444</v>
+        <v>0.391059</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191304</v>
+        <v>0.191347</v>
       </c>
       <c r="C134" t="n">
-        <v>0.20874</v>
+        <v>0.208845</v>
       </c>
       <c r="D134" t="n">
-        <v>0.38141</v>
+        <v>0.38122</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18547</v>
+        <v>0.1854</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207965</v>
+        <v>0.207972</v>
       </c>
       <c r="D135" t="n">
-        <v>0.431773</v>
+        <v>0.431637</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178753</v>
+        <v>0.178726</v>
       </c>
       <c r="C136" t="n">
-        <v>0.20712</v>
+        <v>0.207204</v>
       </c>
       <c r="D136" t="n">
-        <v>0.43219</v>
+        <v>0.432019</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.170457</v>
+        <v>0.17046</v>
       </c>
       <c r="C137" t="n">
-        <v>0.224631</v>
+        <v>0.224555</v>
       </c>
       <c r="D137" t="n">
-        <v>0.441129</v>
+        <v>0.440939</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242976</v>
+        <v>0.242516</v>
       </c>
       <c r="C138" t="n">
-        <v>0.222344</v>
+        <v>0.222329</v>
       </c>
       <c r="D138" t="n">
-        <v>0.43344</v>
+        <v>0.43321</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.239549</v>
+        <v>0.240016</v>
       </c>
       <c r="C139" t="n">
-        <v>0.220311</v>
+        <v>0.220255</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422735</v>
+        <v>0.422512</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235074</v>
+        <v>0.235463</v>
       </c>
       <c r="C140" t="n">
-        <v>0.21858</v>
+        <v>0.218576</v>
       </c>
       <c r="D140" t="n">
-        <v>0.417872</v>
+        <v>0.417357</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.230194</v>
+        <v>0.231611</v>
       </c>
       <c r="C141" t="n">
-        <v>0.217007</v>
+        <v>0.217065</v>
       </c>
       <c r="D141" t="n">
-        <v>0.417323</v>
+        <v>0.41704</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223377</v>
+        <v>0.223252</v>
       </c>
       <c r="C142" t="n">
-        <v>0.215579</v>
+        <v>0.215654</v>
       </c>
       <c r="D142" t="n">
-        <v>0.41018</v>
+        <v>0.409922</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.218063</v>
+        <v>0.217323</v>
       </c>
       <c r="C143" t="n">
-        <v>0.214395</v>
+        <v>0.21434</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407911</v>
+        <v>0.407754</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201336</v>
+        <v>0.191617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1949</v>
+        <v>0.303312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309445</v>
+        <v>0.196461</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.314101</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198845</v>
+        <v>0.189349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196193</v>
+        <v>0.302881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.31103</v>
+        <v>0.196969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.315269</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.192769</v>
+        <v>0.18425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.19724</v>
+        <v>0.3041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.314035</v>
+        <v>0.198074</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.313685</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185509</v>
+        <v>0.179923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.197729</v>
+        <v>0.305302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315232</v>
+        <v>0.196939</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.312585</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17913</v>
+        <v>0.18078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197132</v>
+        <v>0.308393</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31653</v>
+        <v>0.198937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.312411</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171505</v>
+        <v>0.173258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.197618</v>
+        <v>0.299253</v>
       </c>
       <c r="D7" t="n">
-        <v>0.303517</v>
+        <v>0.198855</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.312138</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.163248</v>
+        <v>0.166493</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198283</v>
+        <v>0.299152</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304313</v>
+        <v>0.198279</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.311465</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158327</v>
+        <v>0.158753</v>
       </c>
       <c r="C9" t="n">
-        <v>0.214616</v>
+        <v>0.302675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.30563</v>
+        <v>0.215509</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.327063</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.240948</v>
+        <v>0.238572</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214152</v>
+        <v>0.303043</v>
       </c>
       <c r="D10" t="n">
-        <v>0.307143</v>
+        <v>0.214506</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.32593</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235614</v>
+        <v>0.231907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213734</v>
+        <v>0.303313</v>
       </c>
       <c r="D11" t="n">
-        <v>0.308312</v>
+        <v>0.213967</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.326402</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.231479</v>
+        <v>0.229313</v>
       </c>
       <c r="C12" t="n">
-        <v>0.213016</v>
+        <v>0.30512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30896</v>
+        <v>0.212853</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.324376</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.228618</v>
+        <v>0.22636</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212088</v>
+        <v>0.303512</v>
       </c>
       <c r="D13" t="n">
-        <v>0.309536</v>
+        <v>0.212111</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.324074</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221644</v>
+        <v>0.221243</v>
       </c>
       <c r="C14" t="n">
-        <v>0.211237</v>
+        <v>0.306409</v>
       </c>
       <c r="D14" t="n">
-        <v>0.311557</v>
+        <v>0.211552</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.322079</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215315</v>
+        <v>0.215728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.210428</v>
+        <v>0.306279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.312321</v>
+        <v>0.211143</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.321097</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.211261</v>
+        <v>0.207937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.209558</v>
+        <v>0.308271</v>
       </c>
       <c r="D16" t="n">
-        <v>0.313155</v>
+        <v>0.209579</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.319647</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204414</v>
+        <v>0.205353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.209268</v>
+        <v>0.306775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.313706</v>
+        <v>0.209087</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.320161</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199107</v>
+        <v>0.200606</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208627</v>
+        <v>0.308382</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315914</v>
+        <v>0.208525</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.318331</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.192857</v>
+        <v>0.194927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.207882</v>
+        <v>0.310954</v>
       </c>
       <c r="D19" t="n">
-        <v>0.318354</v>
+        <v>0.207664</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.317347</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186172</v>
+        <v>0.189766</v>
       </c>
       <c r="C20" t="n">
-        <v>0.207358</v>
+        <v>0.310386</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31848</v>
+        <v>0.206913</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.317496</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.179303</v>
+        <v>0.183253</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20634</v>
+        <v>0.303976</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310581</v>
+        <v>0.206271</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.316566</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.170628</v>
+        <v>0.175793</v>
       </c>
       <c r="C22" t="n">
-        <v>0.205663</v>
+        <v>0.304591</v>
       </c>
       <c r="D22" t="n">
-        <v>0.310267</v>
+        <v>0.205674</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.316011</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161967</v>
+        <v>0.167421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.222533</v>
+        <v>0.303846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309669</v>
+        <v>0.223007</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.329433</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242335</v>
+        <v>0.242697</v>
       </c>
       <c r="C24" t="n">
-        <v>0.220582</v>
+        <v>0.304766</v>
       </c>
       <c r="D24" t="n">
-        <v>0.313218</v>
+        <v>0.219779</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.327683</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236925</v>
+        <v>0.23745</v>
       </c>
       <c r="C25" t="n">
-        <v>0.219753</v>
+        <v>0.306542</v>
       </c>
       <c r="D25" t="n">
-        <v>0.313533</v>
+        <v>0.218995</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.327012</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232965</v>
+        <v>0.232227</v>
       </c>
       <c r="C26" t="n">
-        <v>0.217947</v>
+        <v>0.308284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.313757</v>
+        <v>0.217434</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.326203</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.229009</v>
+        <v>0.227459</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215825</v>
+        <v>0.308106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.314793</v>
+        <v>0.216091</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.32488</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.222802</v>
+        <v>0.223855</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2144</v>
+        <v>0.307448</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31506</v>
+        <v>0.215166</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.323478</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218065</v>
+        <v>0.218384</v>
       </c>
       <c r="C29" t="n">
-        <v>0.213577</v>
+        <v>0.308446</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316091</v>
+        <v>0.21398</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.322639</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.213044</v>
+        <v>0.214555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.212409</v>
+        <v>0.308736</v>
       </c>
       <c r="D30" t="n">
-        <v>0.317706</v>
+        <v>0.212729</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.322063</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207619</v>
+        <v>0.205503</v>
       </c>
       <c r="C31" t="n">
-        <v>0.211207</v>
+        <v>0.310798</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318467</v>
+        <v>0.21154</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.320575</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202585</v>
+        <v>0.199499</v>
       </c>
       <c r="C32" t="n">
-        <v>0.210221</v>
+        <v>0.311777</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317334</v>
+        <v>0.2104</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.319546</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195788</v>
+        <v>0.193832</v>
       </c>
       <c r="C33" t="n">
-        <v>0.209463</v>
+        <v>0.312629</v>
       </c>
       <c r="D33" t="n">
-        <v>0.319184</v>
+        <v>0.209695</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.319204</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191185</v>
+        <v>0.191895</v>
       </c>
       <c r="C34" t="n">
-        <v>0.208569</v>
+        <v>0.31337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.319911</v>
+        <v>0.208654</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.318536</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.183172</v>
+        <v>0.181526</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207801</v>
+        <v>0.308344</v>
       </c>
       <c r="D35" t="n">
-        <v>0.312829</v>
+        <v>0.207722</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.316693</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.181994</v>
+        <v>0.179764</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206995</v>
+        <v>0.308359</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314349</v>
+        <v>0.206834</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.316397</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.174234</v>
+        <v>0.166107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.222834</v>
+        <v>0.309286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.313283</v>
+        <v>0.224133</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.332378</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246256</v>
+        <v>0.241245</v>
       </c>
       <c r="C38" t="n">
-        <v>0.220854</v>
+        <v>0.309185</v>
       </c>
       <c r="D38" t="n">
-        <v>0.314591</v>
+        <v>0.221595</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.331101</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.242717</v>
+        <v>0.237738</v>
       </c>
       <c r="C39" t="n">
-        <v>0.219354</v>
+        <v>0.31021</v>
       </c>
       <c r="D39" t="n">
-        <v>0.316211</v>
+        <v>0.219927</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.32967</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.236506</v>
+        <v>0.232831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218095</v>
+        <v>0.307561</v>
       </c>
       <c r="D40" t="n">
-        <v>0.315654</v>
+        <v>0.217936</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.328073</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230685</v>
+        <v>0.230886</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2165</v>
+        <v>0.307596</v>
       </c>
       <c r="D41" t="n">
-        <v>0.315833</v>
+        <v>0.216705</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.327061</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.226812</v>
+        <v>0.225365</v>
       </c>
       <c r="C42" t="n">
-        <v>0.21545</v>
+        <v>0.309683</v>
       </c>
       <c r="D42" t="n">
-        <v>0.317313</v>
+        <v>0.215375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.326133</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.21955</v>
+        <v>0.218868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214183</v>
+        <v>0.309349</v>
       </c>
       <c r="D43" t="n">
-        <v>0.318956</v>
+        <v>0.214133</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.324544</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.215209</v>
+        <v>0.21412</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213159</v>
+        <v>0.31202</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31822</v>
+        <v>0.213177</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.32407</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209735</v>
+        <v>0.209147</v>
       </c>
       <c r="C45" t="n">
-        <v>0.211887</v>
+        <v>0.313316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.320493</v>
+        <v>0.211905</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.32328</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.203974</v>
+        <v>0.204714</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21092</v>
+        <v>0.31412</v>
       </c>
       <c r="D46" t="n">
-        <v>0.319879</v>
+        <v>0.210941</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.322203</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197913</v>
+        <v>0.199261</v>
       </c>
       <c r="C47" t="n">
-        <v>0.209915</v>
+        <v>0.313468</v>
       </c>
       <c r="D47" t="n">
-        <v>0.321167</v>
+        <v>0.210018</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.321516</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192698</v>
+        <v>0.194121</v>
       </c>
       <c r="C48" t="n">
-        <v>0.208879</v>
+        <v>0.319359</v>
       </c>
       <c r="D48" t="n">
-        <v>0.321384</v>
+        <v>0.208986</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.320385</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186046</v>
+        <v>0.187837</v>
       </c>
       <c r="C49" t="n">
-        <v>0.207942</v>
+        <v>0.31985</v>
       </c>
       <c r="D49" t="n">
-        <v>0.323652</v>
+        <v>0.208152</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.319848</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17917</v>
+        <v>0.182357</v>
       </c>
       <c r="C50" t="n">
-        <v>0.207183</v>
+        <v>0.31324</v>
       </c>
       <c r="D50" t="n">
-        <v>0.316106</v>
+        <v>0.207295</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.318735</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.170185</v>
+        <v>0.174486</v>
       </c>
       <c r="C51" t="n">
-        <v>0.223035</v>
+        <v>0.313888</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317432</v>
+        <v>0.223685</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.333263</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.160408</v>
+        <v>0.165318</v>
       </c>
       <c r="C52" t="n">
-        <v>0.221412</v>
+        <v>0.313473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.318225</v>
+        <v>0.221604</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.331212</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.239994</v>
+        <v>0.240473</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21992</v>
+        <v>0.314453</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318213</v>
+        <v>0.220055</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.329516</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.237398</v>
+        <v>0.236477</v>
       </c>
       <c r="C54" t="n">
-        <v>0.218297</v>
+        <v>0.317504</v>
       </c>
       <c r="D54" t="n">
-        <v>0.320709</v>
+        <v>0.218278</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.32889</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231094</v>
+        <v>0.232023</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2168</v>
+        <v>0.318745</v>
       </c>
       <c r="D55" t="n">
-        <v>0.321959</v>
+        <v>0.216985</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.326946</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226262</v>
+        <v>0.227041</v>
       </c>
       <c r="C56" t="n">
-        <v>0.215637</v>
+        <v>0.319787</v>
       </c>
       <c r="D56" t="n">
-        <v>0.323327</v>
+        <v>0.215633</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.325772</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.222335</v>
+        <v>0.221433</v>
       </c>
       <c r="C57" t="n">
-        <v>0.214453</v>
+        <v>0.320325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.324265</v>
+        <v>0.214444</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.324636</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215983</v>
+        <v>0.216342</v>
       </c>
       <c r="C58" t="n">
-        <v>0.213314</v>
+        <v>0.319916</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327781</v>
+        <v>0.213456</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.323317</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211483</v>
+        <v>0.211045</v>
       </c>
       <c r="C59" t="n">
-        <v>0.212088</v>
+        <v>0.322188</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329743</v>
+        <v>0.212312</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.322282</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204721</v>
+        <v>0.205738</v>
       </c>
       <c r="C60" t="n">
-        <v>0.211111</v>
+        <v>0.324247</v>
       </c>
       <c r="D60" t="n">
-        <v>0.330524</v>
+        <v>0.211243</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.321097</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199373</v>
+        <v>0.200918</v>
       </c>
       <c r="C61" t="n">
-        <v>0.210116</v>
+        <v>0.326149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.332837</v>
+        <v>0.210256</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.320514</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193867</v>
+        <v>0.195323</v>
       </c>
       <c r="C62" t="n">
-        <v>0.209117</v>
+        <v>0.328457</v>
       </c>
       <c r="D62" t="n">
-        <v>0.335162</v>
+        <v>0.209191</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.319378</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187828</v>
+        <v>0.190266</v>
       </c>
       <c r="C63" t="n">
-        <v>0.208229</v>
+        <v>0.333374</v>
       </c>
       <c r="D63" t="n">
-        <v>0.338265</v>
+        <v>0.208277</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.318498</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.180381</v>
+        <v>0.184555</v>
       </c>
       <c r="C64" t="n">
-        <v>0.207227</v>
+        <v>0.377358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.367785</v>
+        <v>0.207303</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.317603</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.178725</v>
+        <v>0.17667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.206525</v>
+        <v>0.379746</v>
       </c>
       <c r="D65" t="n">
-        <v>0.375324</v>
+        <v>0.206568</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.316871</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.169801</v>
+        <v>0.168021</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222611</v>
+        <v>0.38349</v>
       </c>
       <c r="D66" t="n">
-        <v>0.376242</v>
+        <v>0.232251</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.33277</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.244029</v>
+        <v>0.240413</v>
       </c>
       <c r="C67" t="n">
-        <v>0.220825</v>
+        <v>0.384628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.379134</v>
+        <v>0.227323</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.331501</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.239256</v>
+        <v>0.236533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.219123</v>
+        <v>0.375965</v>
       </c>
       <c r="D68" t="n">
-        <v>0.374798</v>
+        <v>0.22683</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.32985</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.235721</v>
+        <v>0.233638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.21768</v>
+        <v>0.386957</v>
       </c>
       <c r="D69" t="n">
-        <v>0.377901</v>
+        <v>0.224384</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.32864</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.228399</v>
+        <v>0.226938</v>
       </c>
       <c r="C70" t="n">
-        <v>0.216301</v>
+        <v>0.374939</v>
       </c>
       <c r="D70" t="n">
-        <v>0.376556</v>
+        <v>0.220822</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.327171</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.224186</v>
+        <v>0.221179</v>
       </c>
       <c r="C71" t="n">
-        <v>0.215094</v>
+        <v>0.375722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.377424</v>
+        <v>0.217914</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.325992</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.219557</v>
+        <v>0.217881</v>
       </c>
       <c r="C72" t="n">
-        <v>0.213804</v>
+        <v>0.387819</v>
       </c>
       <c r="D72" t="n">
-        <v>0.376289</v>
+        <v>0.214494</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.325153</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.213619</v>
+        <v>0.212765</v>
       </c>
       <c r="C73" t="n">
-        <v>0.212688</v>
+        <v>0.385232</v>
       </c>
       <c r="D73" t="n">
-        <v>0.376341</v>
+        <v>0.213071</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.324095</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.208482</v>
+        <v>0.204523</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21163</v>
+        <v>0.385476</v>
       </c>
       <c r="D74" t="n">
-        <v>0.37543</v>
+        <v>0.21181</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.323239</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.203212</v>
+        <v>0.201529</v>
       </c>
       <c r="C75" t="n">
-        <v>0.210566</v>
+        <v>0.384739</v>
       </c>
       <c r="D75" t="n">
-        <v>0.374336</v>
+        <v>0.210688</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.322242</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.198483</v>
+        <v>0.192972</v>
       </c>
       <c r="C76" t="n">
-        <v>0.209586</v>
+        <v>0.386363</v>
       </c>
       <c r="D76" t="n">
-        <v>0.371869</v>
+        <v>0.209742</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.321395</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193113</v>
+        <v>0.186938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.208642</v>
+        <v>0.385511</v>
       </c>
       <c r="D77" t="n">
-        <v>0.376019</v>
+        <v>0.208692</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.320448</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.187371</v>
+        <v>0.180518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.20778</v>
+        <v>0.449581</v>
       </c>
       <c r="D78" t="n">
-        <v>0.422678</v>
+        <v>0.207776</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.319672</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.180922</v>
+        <v>0.17367</v>
       </c>
       <c r="C79" t="n">
-        <v>0.206938</v>
+        <v>0.444362</v>
       </c>
       <c r="D79" t="n">
-        <v>0.419836</v>
+        <v>0.207137</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.318756</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.171909</v>
+        <v>0.164814</v>
       </c>
       <c r="C80" t="n">
-        <v>0.224725</v>
+        <v>0.430123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.416161</v>
+        <v>0.228094</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.3327</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242112</v>
+        <v>0.241257</v>
       </c>
       <c r="C81" t="n">
-        <v>0.222499</v>
+        <v>0.431731</v>
       </c>
       <c r="D81" t="n">
-        <v>0.412043</v>
+        <v>0.224881</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.331154</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.239119</v>
+        <v>0.237661</v>
       </c>
       <c r="C82" t="n">
-        <v>0.220874</v>
+        <v>0.442151</v>
       </c>
       <c r="D82" t="n">
-        <v>0.413084</v>
+        <v>0.222606</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.330035</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23456</v>
+        <v>0.233302</v>
       </c>
       <c r="C83" t="n">
-        <v>0.219166</v>
+        <v>0.433787</v>
       </c>
       <c r="D83" t="n">
-        <v>0.411021</v>
+        <v>0.221695</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.328291</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.229441</v>
+        <v>0.228543</v>
       </c>
       <c r="C84" t="n">
-        <v>0.218126</v>
+        <v>0.429935</v>
       </c>
       <c r="D84" t="n">
-        <v>0.410243</v>
+        <v>0.219068</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.326932</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223792</v>
+        <v>0.224561</v>
       </c>
       <c r="C85" t="n">
-        <v>0.216142</v>
+        <v>0.425873</v>
       </c>
       <c r="D85" t="n">
-        <v>0.40392</v>
+        <v>0.217223</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.325712</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.219047</v>
+        <v>0.217283</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214692</v>
+        <v>0.422955</v>
       </c>
       <c r="D86" t="n">
-        <v>0.402602</v>
+        <v>0.215767</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.324492</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.21389</v>
+        <v>0.211469</v>
       </c>
       <c r="C87" t="n">
-        <v>0.213428</v>
+        <v>0.407602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.398846</v>
+        <v>0.213933</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.323196</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207307</v>
+        <v>0.206199</v>
       </c>
       <c r="C88" t="n">
-        <v>0.212021</v>
+        <v>0.403231</v>
       </c>
       <c r="D88" t="n">
-        <v>0.394144</v>
+        <v>0.212396</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.322076</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201797</v>
+        <v>0.203587</v>
       </c>
       <c r="C89" t="n">
-        <v>0.210973</v>
+        <v>0.398124</v>
       </c>
       <c r="D89" t="n">
-        <v>0.393528</v>
+        <v>0.211177</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.321094</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196073</v>
+        <v>0.194692</v>
       </c>
       <c r="C90" t="n">
-        <v>0.209945</v>
+        <v>0.398977</v>
       </c>
       <c r="D90" t="n">
-        <v>0.392273</v>
+        <v>0.210207</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.320125</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190095</v>
+        <v>0.18852</v>
       </c>
       <c r="C91" t="n">
-        <v>0.208979</v>
+        <v>0.394111</v>
       </c>
       <c r="D91" t="n">
-        <v>0.392112</v>
+        <v>0.20919</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.319238</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188099</v>
+        <v>0.187083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.208123</v>
+        <v>0.451859</v>
       </c>
       <c r="D92" t="n">
-        <v>0.44278</v>
+        <v>0.208319</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.318311</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.18176</v>
+        <v>0.180206</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20735</v>
+        <v>0.448299</v>
       </c>
       <c r="D93" t="n">
-        <v>0.438471</v>
+        <v>0.207441</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.317618</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.173743</v>
+        <v>0.172693</v>
       </c>
       <c r="C94" t="n">
-        <v>0.225349</v>
+        <v>0.452736</v>
       </c>
       <c r="D94" t="n">
-        <v>0.43431</v>
+        <v>0.227898</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.335893</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243792</v>
+        <v>0.243907</v>
       </c>
       <c r="C95" t="n">
-        <v>0.222783</v>
+        <v>0.452444</v>
       </c>
       <c r="D95" t="n">
-        <v>0.428444</v>
+        <v>0.225114</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.332175</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.240004</v>
+        <v>0.239804</v>
       </c>
       <c r="C96" t="n">
-        <v>0.220867</v>
+        <v>0.446868</v>
       </c>
       <c r="D96" t="n">
-        <v>0.425825</v>
+        <v>0.222838</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.330436</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235739</v>
+        <v>0.234846</v>
       </c>
       <c r="C97" t="n">
-        <v>0.219333</v>
+        <v>0.416666</v>
       </c>
       <c r="D97" t="n">
-        <v>0.414012</v>
+        <v>0.2208</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.329072</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230816</v>
+        <v>0.230011</v>
       </c>
       <c r="C98" t="n">
-        <v>0.217965</v>
+        <v>0.409414</v>
       </c>
       <c r="D98" t="n">
-        <v>0.411487</v>
+        <v>0.219145</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.327639</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.225271</v>
+        <v>0.224858</v>
       </c>
       <c r="C99" t="n">
-        <v>0.216713</v>
+        <v>0.411466</v>
       </c>
       <c r="D99" t="n">
-        <v>0.407938</v>
+        <v>0.217445</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.326595</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219651</v>
+        <v>0.219081</v>
       </c>
       <c r="C100" t="n">
-        <v>0.214951</v>
+        <v>0.40744</v>
       </c>
       <c r="D100" t="n">
-        <v>0.402689</v>
+        <v>0.214716</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.32534</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.214233</v>
+        <v>0.213485</v>
       </c>
       <c r="C101" t="n">
-        <v>0.213923</v>
+        <v>0.414147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.400736</v>
+        <v>0.213839</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.324523</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208806</v>
+        <v>0.21006</v>
       </c>
       <c r="C102" t="n">
-        <v>0.212546</v>
+        <v>0.412668</v>
       </c>
       <c r="D102" t="n">
-        <v>0.399514</v>
+        <v>0.212796</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.323607</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202185</v>
+        <v>0.204857</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21154</v>
+        <v>0.408768</v>
       </c>
       <c r="D103" t="n">
-        <v>0.390896</v>
+        <v>0.211459</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.322525</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.196402</v>
+        <v>0.199616</v>
       </c>
       <c r="C104" t="n">
-        <v>0.210398</v>
+        <v>0.405839</v>
       </c>
       <c r="D104" t="n">
-        <v>0.388589</v>
+        <v>0.210606</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.321566</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.190905</v>
+        <v>0.194221</v>
       </c>
       <c r="C105" t="n">
-        <v>0.209428</v>
+        <v>0.402283</v>
       </c>
       <c r="D105" t="n">
-        <v>0.38116</v>
+        <v>0.209401</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.320845</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188723</v>
+        <v>0.188461</v>
       </c>
       <c r="C106" t="n">
-        <v>0.208401</v>
+        <v>0.39704</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38586</v>
+        <v>0.208452</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.320008</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177538</v>
+        <v>0.177488</v>
       </c>
       <c r="C107" t="n">
-        <v>0.207748</v>
+        <v>0.421715</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419714</v>
+        <v>0.207826</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.318886</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.169515</v>
+        <v>0.168984</v>
       </c>
       <c r="C108" t="n">
-        <v>0.226318</v>
+        <v>0.424682</v>
       </c>
       <c r="D108" t="n">
-        <v>0.414847</v>
+        <v>0.227485</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.333602</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.166509</v>
+        <v>0.165552</v>
       </c>
       <c r="C109" t="n">
-        <v>0.223757</v>
+        <v>0.405273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.393483</v>
+        <v>0.224683</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.331421</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.242058</v>
+        <v>0.239552</v>
       </c>
       <c r="C110" t="n">
-        <v>0.221518</v>
+        <v>0.400649</v>
       </c>
       <c r="D110" t="n">
-        <v>0.388725</v>
+        <v>0.222339</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.329949</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.237875</v>
+        <v>0.235444</v>
       </c>
       <c r="C111" t="n">
-        <v>0.21975</v>
+        <v>0.420195</v>
       </c>
       <c r="D111" t="n">
-        <v>0.396398</v>
+        <v>0.220368</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.328935</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.232957</v>
+        <v>0.23071</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218064</v>
+        <v>0.41547</v>
       </c>
       <c r="D112" t="n">
-        <v>0.392558</v>
+        <v>0.218666</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.327575</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.227896</v>
+        <v>0.225543</v>
       </c>
       <c r="C113" t="n">
-        <v>0.216525</v>
+        <v>0.411476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.39564</v>
+        <v>0.216881</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.326186</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220939</v>
+        <v>0.220048</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215229</v>
+        <v>0.406771</v>
       </c>
       <c r="D114" t="n">
-        <v>0.385232</v>
+        <v>0.215234</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.325083</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.215624</v>
+        <v>0.21648</v>
       </c>
       <c r="C115" t="n">
-        <v>0.2139</v>
+        <v>0.385934</v>
       </c>
       <c r="D115" t="n">
-        <v>0.390146</v>
+        <v>0.214082</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.32345</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211248</v>
+        <v>0.211138</v>
       </c>
       <c r="C116" t="n">
-        <v>0.212736</v>
+        <v>0.381748</v>
       </c>
       <c r="D116" t="n">
-        <v>0.386473</v>
+        <v>0.212847</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.322476</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204902</v>
+        <v>0.205923</v>
       </c>
       <c r="C117" t="n">
-        <v>0.211504</v>
+        <v>0.378606</v>
       </c>
       <c r="D117" t="n">
-        <v>0.384258</v>
+        <v>0.211777</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.321483</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.197389</v>
+        <v>0.200671</v>
       </c>
       <c r="C118" t="n">
-        <v>0.210499</v>
+        <v>0.375736</v>
       </c>
       <c r="D118" t="n">
-        <v>0.371233</v>
+        <v>0.210741</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.320519</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.191806</v>
+        <v>0.195305</v>
       </c>
       <c r="C119" t="n">
-        <v>0.209551</v>
+        <v>0.373352</v>
       </c>
       <c r="D119" t="n">
-        <v>0.369273</v>
+        <v>0.209765</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.319563</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.185974</v>
+        <v>0.189387</v>
       </c>
       <c r="C120" t="n">
-        <v>0.20864</v>
+        <v>0.371283</v>
       </c>
       <c r="D120" t="n">
-        <v>0.367739</v>
+        <v>0.208798</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.318661</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.184334</v>
+        <v>0.183763</v>
       </c>
       <c r="C121" t="n">
-        <v>0.207881</v>
+        <v>0.443203</v>
       </c>
       <c r="D121" t="n">
-        <v>0.440433</v>
+        <v>0.208003</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.317882</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171467</v>
+        <v>0.17641</v>
       </c>
       <c r="C122" t="n">
-        <v>0.207063</v>
+        <v>0.437252</v>
       </c>
       <c r="D122" t="n">
-        <v>0.420758</v>
+        <v>0.207153</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.317104</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.168502</v>
+        <v>0.167351</v>
       </c>
       <c r="C123" t="n">
-        <v>0.224093</v>
+        <v>0.429907</v>
       </c>
       <c r="D123" t="n">
-        <v>0.411893</v>
+        <v>0.22465</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.332041</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24205</v>
+        <v>0.241302</v>
       </c>
       <c r="C124" t="n">
-        <v>0.221892</v>
+        <v>0.425306</v>
       </c>
       <c r="D124" t="n">
-        <v>0.407781</v>
+        <v>0.222317</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.33022</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237594</v>
+        <v>0.23772</v>
       </c>
       <c r="C125" t="n">
-        <v>0.219974</v>
+        <v>0.433682</v>
       </c>
       <c r="D125" t="n">
-        <v>0.414608</v>
+        <v>0.220222</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.329718</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.233446</v>
+        <v>0.231785</v>
       </c>
       <c r="C126" t="n">
-        <v>0.218319</v>
+        <v>0.43766</v>
       </c>
       <c r="D126" t="n">
-        <v>0.405022</v>
+        <v>0.218507</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.32847</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.228621</v>
+        <v>0.226695</v>
       </c>
       <c r="C127" t="n">
-        <v>0.216827</v>
+        <v>0.408295</v>
       </c>
       <c r="D127" t="n">
-        <v>0.401464</v>
+        <v>0.217023</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.326507</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.223726</v>
+        <v>0.221287</v>
       </c>
       <c r="C128" t="n">
-        <v>0.215451</v>
+        <v>0.405186</v>
       </c>
       <c r="D128" t="n">
-        <v>0.397248</v>
+        <v>0.21561</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.325454</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218175</v>
+        <v>0.217382</v>
       </c>
       <c r="C129" t="n">
-        <v>0.214137</v>
+        <v>0.421451</v>
       </c>
       <c r="D129" t="n">
-        <v>0.394764</v>
+        <v>0.214215</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.325044</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.213859</v>
+        <v>0.211816</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21292</v>
+        <v>0.415037</v>
       </c>
       <c r="D130" t="n">
-        <v>0.389526</v>
+        <v>0.213062</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.324044</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206596</v>
+        <v>0.20678</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21178</v>
+        <v>0.411884</v>
       </c>
       <c r="D131" t="n">
-        <v>0.390827</v>
+        <v>0.211918</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.323</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201696</v>
+        <v>0.201538</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210768</v>
+        <v>0.407912</v>
       </c>
       <c r="D132" t="n">
-        <v>0.387876</v>
+        <v>0.210931</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.321996</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.197205</v>
+        <v>0.196264</v>
       </c>
       <c r="C133" t="n">
-        <v>0.209747</v>
+        <v>0.403905</v>
       </c>
       <c r="D133" t="n">
-        <v>0.391059</v>
+        <v>0.209902</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.321169</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.191347</v>
+        <v>0.190512</v>
       </c>
       <c r="C134" t="n">
-        <v>0.208845</v>
+        <v>0.401013</v>
       </c>
       <c r="D134" t="n">
-        <v>0.38122</v>
+        <v>0.208873</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.320284</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1854</v>
+        <v>0.185028</v>
       </c>
       <c r="C135" t="n">
-        <v>0.207972</v>
+        <v>0.472153</v>
       </c>
       <c r="D135" t="n">
-        <v>0.431637</v>
+        <v>0.208065</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.319522</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.178726</v>
+        <v>0.177952</v>
       </c>
       <c r="C136" t="n">
-        <v>0.207204</v>
+        <v>0.466609</v>
       </c>
       <c r="D136" t="n">
-        <v>0.432019</v>
+        <v>0.207258</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.318652</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.17046</v>
+        <v>0.169411</v>
       </c>
       <c r="C137" t="n">
-        <v>0.224555</v>
+        <v>0.436788</v>
       </c>
       <c r="D137" t="n">
-        <v>0.440939</v>
+        <v>0.225127</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.332223</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.242516</v>
+        <v>0.24115</v>
       </c>
       <c r="C138" t="n">
-        <v>0.222329</v>
+        <v>0.455853</v>
       </c>
       <c r="D138" t="n">
-        <v>0.43321</v>
+        <v>0.222634</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.331503</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.240016</v>
+        <v>0.238731</v>
       </c>
       <c r="C139" t="n">
-        <v>0.220255</v>
+        <v>0.436906</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422512</v>
+        <v>0.220608</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.329345</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.235463</v>
+        <v>0.232702</v>
       </c>
       <c r="C140" t="n">
-        <v>0.218576</v>
+        <v>0.442605</v>
       </c>
       <c r="D140" t="n">
-        <v>0.417357</v>
+        <v>0.218864</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.328597</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.231611</v>
+        <v>0.227773</v>
       </c>
       <c r="C141" t="n">
-        <v>0.217065</v>
+        <v>0.43707</v>
       </c>
       <c r="D141" t="n">
-        <v>0.41704</v>
+        <v>0.217245</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.327197</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.223252</v>
+        <v>0.222419</v>
       </c>
       <c r="C142" t="n">
-        <v>0.215654</v>
+        <v>0.431264</v>
       </c>
       <c r="D142" t="n">
-        <v>0.409922</v>
+        <v>0.215786</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.325849</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.217323</v>
+        <v>0.216886</v>
       </c>
       <c r="C143" t="n">
-        <v>0.21434</v>
+        <v>0.425228</v>
       </c>
       <c r="D143" t="n">
-        <v>0.407754</v>
+        <v>0.214479</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.324691</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.20155</v>
+                  <v>0.0785698</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.196396</v>
+                  <v>0.07801</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.190977</v>
+                  <v>0.076334</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.185271</v>
+                  <v>0.07526380000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.178436</v>
+                  <v>0.075381</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.176366</v>
+                  <v>0.0733709</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.163981</v>
+                  <v>0.07293719999999999</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.158479</v>
+                  <v>0.0715915</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.241218</v>
+                  <v>0.126204</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.235841</v>
+                  <v>0.121989</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.232546</v>
+                  <v>0.121594</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.226613</v>
+                  <v>0.117472</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220379</v>
+                  <v>0.117571</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214405</v>
+                  <v>0.115645</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.210231</v>
+                  <v>0.112146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.203866</v>
+                  <v>0.109733</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.197864</v>
+                  <v>0.106337</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.191784</v>
+                  <v>0.103632</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.185496</v>
+                  <v>0.0991889</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.17834</v>
+                  <v>0.0962592</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.170618</v>
+                  <v>0.09309190000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.160957</v>
+                  <v>0.0899575</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.240805</v>
+                  <v>0.150258</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.236757</v>
+                  <v>0.147224</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.233885</v>
+                  <v>0.14444</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.226945</v>
+                  <v>0.140705</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.222039</v>
+                  <v>0.137402</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.21609</v>
+                  <v>0.133721</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.21119</v>
+                  <v>0.128955</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.206073</v>
+                  <v>0.12512</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.202318</v>
+                  <v>0.120441</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.196881</v>
+                  <v>0.114693</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.188732</v>
+                  <v>0.109617</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.182413</v>
+                  <v>0.104777</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.181118</v>
+                  <v>0.100498</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.167258</v>
+                  <v>0.095885</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.244328</v>
+                  <v>0.159284</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.240804</v>
+                  <v>0.156717</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.235871</v>
+                  <v>0.153778</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.230037</v>
+                  <v>0.149985</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224183</v>
+                  <v>0.146067</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.219414</v>
+                  <v>0.14153</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.211983</v>
+                  <v>0.136851</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.208855</v>
+                  <v>0.131807</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2017</v>
+                  <v>0.126538</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.196212</v>
+                  <v>0.121426</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.193996</v>
+                  <v>0.115851</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.184652</v>
+                  <v>0.110881</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.182572</v>
+                  <v>0.105341</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.172603</v>
+                  <v>0.100086</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.159612</v>
+                  <v>0.09492250000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.240127</v>
+                  <v>0.161765</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.238469</v>
+                  <v>0.157751</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.232335</v>
+                  <v>0.153367</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.226736</v>
+                  <v>0.149046</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.22214</v>
+                  <v>0.144183</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.215115</v>
+                  <v>0.139449</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.212469</v>
+                  <v>0.134172</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.204079</v>
+                  <v>0.129251</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.198987</v>
+                  <v>0.124021</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.195123</v>
+                  <v>0.118888</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.189722</v>
+                  <v>0.113656</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.184094</v>
+                  <v>0.10868</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.177386</v>
+                  <v>0.103293</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.162887</v>
+                  <v>0.09785820000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.242245</v>
+                  <v>0.163938</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236919</v>
+                  <v>0.16019</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.231522</v>
+                  <v>0.156112</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226613</v>
+                  <v>0.151234</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.222883</v>
+                  <v>0.1467</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.217407</v>
+                  <v>0.141537</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.213791</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.207606</v>
+                  <v>0.131385</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.203429</v>
+                  <v>0.125975</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.198524</v>
+                  <v>0.120806</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.193324</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.182686</v>
+                  <v>0.110491</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.180532</v>
+                  <v>0.105539</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.172011</v>
+                  <v>0.100332</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.241545</v>
+                  <v>0.164231</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.237521</v>
+                  <v>0.160433</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.233263</v>
+                  <v>0.156282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.22793</v>
+                  <v>0.151513</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.223011</v>
+                  <v>0.146903</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217089</v>
+                  <v>0.141991</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.211741</v>
+                  <v>0.136909</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.208621</v>
+                  <v>0.131753</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.203613</v>
+                  <v>0.126506</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.198462</v>
+                  <v>0.121357</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.193562</v>
+                  <v>0.116213</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.187998</v>
+                  <v>0.111081</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.181535</v>
+                  <v>0.106023</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.173603</v>
+                  <v>0.100876</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.24384</v>
+                  <v>0.165616</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.239943</v>
+                  <v>0.161892</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.236432</v>
+                  <v>0.157627</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.230313</v>
+                  <v>0.153045</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.225025</v>
+                  <v>0.148124</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.219502</v>
+                  <v>0.143096</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.213691</v>
+                  <v>0.137765</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.20857</v>
+                  <v>0.132801</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.202884</v>
+                  <v>0.127657</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.197047</v>
+                  <v>0.12242</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.191064</v>
+                  <v>0.11725</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.184548</v>
+                  <v>0.112112</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.177554</v>
+                  <v>0.10702</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.169424</v>
+                  <v>0.101872</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.166421</v>
+                  <v>0.0966104</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.242424</v>
+                  <v>0.163181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.238376</v>
+                  <v>0.159031</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.233412</v>
+                  <v>0.154378</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.227914</v>
+                  <v>0.149186</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.221007</v>
+                  <v>0.144248</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.216861</v>
+                  <v>0.138994</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.212411</v>
+                  <v>0.13388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.206301</v>
+                  <v>0.128563</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.198837</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.192244</v>
+                  <v>0.118464</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.186024</v>
+                  <v>0.113129</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.184141</v>
+                  <v>0.108013</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.171453</v>
+                  <v>0.102901</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.168393</v>
+                  <v>0.0977628</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.241843</v>
+                  <v>0.173028</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.238604</v>
+                  <v>0.168888</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.233348</v>
+                  <v>0.163702</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.228829</v>
+                  <v>0.158768</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.222804</v>
+                  <v>0.152967</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.218037</v>
+                  <v>0.147432</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.211844</v>
+                  <v>0.141975</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.207939</v>
+                  <v>0.13661</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.201992</v>
+                  <v>0.131002</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.197198</v>
+                  <v>0.125727</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.191805</v>
+                  <v>0.120213</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.185501</v>
+                  <v>0.114864</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.178863</v>
+                  <v>0.10935</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.170525</v>
+                  <v>0.103983</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.243639</v>
+                  <v>0.174103</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.240477</v>
+                  <v>0.16957</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.236751</v>
+                  <v>0.164907</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.232135</v>
+                  <v>0.159763</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.224638</v>
+                  <v>0.154327</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.218697</v>
+                  <v>0.148619</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.200868</v>
+                  <v>0.278661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.200718</v>
+                  <v>0.281787</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.200173</v>
+                  <v>0.284602</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.200071</v>
+                  <v>0.285648</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.199823</v>
+                  <v>0.287433</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.199486</v>
+                  <v>0.274449</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198098</v>
+                  <v>0.276621</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.216144</v>
+                  <v>0.278775</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.214904</v>
+                  <v>0.281341</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.213555</v>
+                  <v>0.282871</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.212386</v>
+                  <v>0.286431</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210874</v>
+                  <v>0.286907</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210326</v>
+                  <v>0.288799</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.208785</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.207612</v>
+                  <v>0.290309</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.206473</v>
+                  <v>0.291906</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.205244</v>
+                  <v>0.292277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.204386</v>
+                  <v>0.293213</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.203056</v>
+                  <v>0.294434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.201611</v>
+                  <v>0.283856</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.200655</v>
+                  <v>0.284349</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219183</v>
+                  <v>0.284879</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.217498</v>
+                  <v>0.286239</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.216133</v>
+                  <v>0.287601</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.214443</v>
+                  <v>0.2876</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.213219</v>
+                  <v>0.288997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211893</v>
+                  <v>0.290481</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.210614</v>
+                  <v>0.291662</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.209476</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.208284</v>
+                  <v>0.294138</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.207696</v>
+                  <v>0.293505</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.206288</v>
+                  <v>0.296216</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.205159</v>
+                  <v>0.297426</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.203835</v>
+                  <v>0.285782</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.202019</v>
+                  <v>0.286008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.221608</v>
+                  <v>0.287226</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.218269</v>
+                  <v>0.28761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.216655</v>
+                  <v>0.289069</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215394</v>
+                  <v>0.291258</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.214107</v>
+                  <v>0.292044</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.21275</v>
+                  <v>0.292541</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.211516</v>
+                  <v>0.294038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.210259</v>
+                  <v>0.29517</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.20909</v>
+                  <v>0.295882</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.20805</v>
+                  <v>0.29714</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.206792</v>
+                  <v>0.297698</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.205589</v>
+                  <v>0.298015</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.20407</v>
+                  <v>0.2997</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.20239</v>
+                  <v>0.288124</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.222671</v>
+                  <v>0.28907</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.220442</v>
+                  <v>0.290364</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.218514</v>
+                  <v>0.29106</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.216672</v>
+                  <v>0.292367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.215284</v>
+                  <v>0.292745</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.213787</v>
+                  <v>0.294376</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.212075</v>
+                  <v>0.295477</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.210779</v>
+                  <v>0.297108</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.209631</v>
+                  <v>0.298193</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.208401</v>
+                  <v>0.299347</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.207163</v>
+                  <v>0.300971</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.205832</v>
+                  <v>0.301872</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.204188</v>
+                  <v>0.302877</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.202913</v>
+                  <v>0.295352</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.200888</v>
+                  <v>0.297121</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.220178</v>
+                  <v>0.29808</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.218229</v>
+                  <v>0.300501</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.21683</v>
+                  <v>0.301419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21527</v>
+                  <v>0.304017</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.213811</v>
+                  <v>0.306256</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.212419</v>
+                  <v>0.30713</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.211234</v>
+                  <v>0.309409</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.210072</v>
+                  <v>0.312199</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.208829</v>
+                  <v>0.306165</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.207535</v>
+                  <v>0.309771</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.206202</v>
+                  <v>0.312349</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.204621</v>
+                  <v>0.315075</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.202976</v>
+                  <v>0.308787</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.201383</v>
+                  <v>0.31033</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.222133</v>
+                  <v>0.311713</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.219996</v>
+                  <v>0.31323</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.217975</v>
+                  <v>0.314737</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.216317</v>
+                  <v>0.31414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.214476</v>
+                  <v>0.315762</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.213042</v>
+                  <v>0.318579</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.21177</v>
+                  <v>0.321262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.210477</v>
+                  <v>0.323652</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.209228</v>
+                  <v>0.325257</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.207794</v>
+                  <v>0.315909</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.206345</v>
+                  <v>0.318185</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.205</v>
+                  <v>0.320763</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.203388</v>
+                  <v>0.295097</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.201891</v>
+                  <v>0.295977</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.223436</v>
+                  <v>0.297469</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.220526</v>
+                  <v>0.299469</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.218448</v>
+                  <v>0.301571</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.216499</v>
+                  <v>0.296998</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.214888</v>
+                  <v>0.299261</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.213276</v>
+                  <v>0.302162</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.211931</v>
+                  <v>0.303709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.210654</v>
+                  <v>0.306448</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.209372</v>
+                  <v>0.310136</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.208127</v>
+                  <v>0.306796</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.206712</v>
+                  <v>0.30934</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.205256</v>
+                  <v>0.311905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.203636</v>
+                  <v>0.313813</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.202123</v>
+                  <v>0.290918</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.224175</v>
+                  <v>0.292794</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.221118</v>
+                  <v>0.294234</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.218816</v>
+                  <v>0.295679</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.216802</v>
+                  <v>0.295282</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.215148</v>
+                  <v>0.296912</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.213662</v>
+                  <v>0.299968</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.212275</v>
+                  <v>0.299754</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.211028</v>
+                  <v>0.301842</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.209775</v>
+                  <v>0.304744</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.208471</v>
+                  <v>0.305408</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.207136</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.205787</v>
+                  <v>0.307962</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.204138</v>
+                  <v>0.310472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.202445</v>
+                  <v>0.29361</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.200882</v>
+                  <v>0.293955</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.22156</v>
+                  <v>0.295548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.219365</v>
+                  <v>0.29582</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.217333</v>
+                  <v>0.297457</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.215635</v>
+                  <v>0.298432</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.214029</v>
+                  <v>0.299124</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.212671</v>
+                  <v>0.30075</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.211332</v>
+                  <v>0.303137</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.210112</v>
+                  <v>0.304833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.208597</v>
+                  <v>0.306146</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.207199</v>
+                  <v>0.307038</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.205804</v>
+                  <v>0.308538</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.204384</v>
+                  <v>0.311238</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.202832</v>
+                  <v>0.29305</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.201091</v>
+                  <v>0.293936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.22232</v>
+                  <v>0.295193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.219842</v>
+                  <v>0.295602</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.217773</v>
+                  <v>0.296406</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.216014</v>
+                  <v>0.297767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21434</v>
+                  <v>0.298622</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.212904</v>
+                  <v>0.300831</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.211567</v>
+                  <v>0.302162</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.304842</v>
+                  <v>0.161377</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.302705</v>
+                  <v>0.161805</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.307759</v>
+                  <v>0.16165</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.308229</v>
+                  <v>0.161383</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.310846</v>
+                  <v>0.161432</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.304079</v>
+                  <v>0.160883</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.302125</v>
+                  <v>0.160682</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.303491</v>
+                  <v>0.168008</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.305243</v>
+                  <v>0.167609</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.305173</v>
+                  <v>0.167601</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.306682</v>
+                  <v>0.167266</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.30778</v>
+                  <v>0.166521</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.309159</v>
+                  <v>0.167893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.309509</v>
+                  <v>0.16697</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.310008</v>
+                  <v>0.166146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.310876</v>
+                  <v>0.165718</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.311957</v>
+                  <v>0.164994</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.314312</v>
+                  <v>0.164471</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.314721</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.310859</v>
+                  <v>0.163875</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.308207</v>
+                  <v>0.163013</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.309397</v>
+                  <v>0.173693</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.307684</v>
+                  <v>0.173392</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.30961</v>
+                  <v>0.171978</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.30964</v>
+                  <v>0.172057</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.309832</v>
+                  <v>0.172897</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.309854</v>
+                  <v>0.17029</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.310899</v>
+                  <v>0.171219</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.311294</v>
+                  <v>0.169221</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.312927</v>
+                  <v>0.168358</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.313404</v>
+                  <v>0.168837</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.315387</v>
+                  <v>0.16865</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.317291</v>
+                  <v>0.166213</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.312022</v>
+                  <v>0.165749</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.312813</v>
+                  <v>0.165377</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.312316</v>
+                  <v>0.181607</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.311933</v>
+                  <v>0.179581</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.312508</v>
+                  <v>0.179549</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.311902</v>
+                  <v>0.177059</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.311717</v>
+                  <v>0.176741</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.313282</v>
+                  <v>0.175916</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.313413</v>
+                  <v>0.174191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.315198</v>
+                  <v>0.173126</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.317211</v>
+                  <v>0.17289</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.317674</v>
+                  <v>0.171398</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.318874</v>
+                  <v>0.170656</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.319201</v>
+                  <v>0.169676</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.322121</v>
+                  <v>0.168742</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.318319</v>
+                  <v>0.167746</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.316359</v>
+                  <v>0.184643</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.316465</v>
+                  <v>0.18327</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.316648</v>
+                  <v>0.181852</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.318071</v>
+                  <v>0.180821</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.319033</v>
+                  <v>0.179281</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.319402</v>
+                  <v>0.178364</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.319632</v>
+                  <v>0.177349</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.320974</v>
+                  <v>0.176061</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.323392</v>
+                  <v>0.174862</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.324921</v>
+                  <v>0.17382</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.327859</v>
+                  <v>0.172776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.330948</v>
+                  <v>0.171758</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.333622</v>
+                  <v>0.170447</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.370232</v>
+                  <v>0.169347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.377436</v>
+                  <v>0.168119</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.367521</v>
+                  <v>0.185031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.377453</v>
+                  <v>0.183681</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.375045</v>
+                  <v>0.182192</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.371173</v>
+                  <v>0.181223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.374955</v>
+                  <v>0.1797</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.376385</v>
+                  <v>0.178455</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.371797</v>
+                  <v>0.177282</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.375755</v>
+                  <v>0.176083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.375162</v>
+                  <v>0.174918</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.372203</v>
+                  <v>0.173816</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.370089</v>
+                  <v>0.172569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.372807</v>
+                  <v>0.171501</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.427246</v>
+                  <v>0.170134</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.424093</v>
+                  <v>0.168946</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.420409</v>
+                  <v>0.18571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.414561</v>
+                  <v>0.184182</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.416706</v>
+                  <v>0.182808</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.413519</v>
+                  <v>0.181466</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.412796</v>
+                  <v>0.180095</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.402812</v>
+                  <v>0.178727</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.401326</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39864</v>
+                  <v>0.176367</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.395868</v>
+                  <v>0.175199</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.391916</v>
+                  <v>0.174092</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.394978</v>
+                  <v>0.17285</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.39412</v>
+                  <v>0.171697</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.440393</v>
+                  <v>0.170479</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.441446</v>
+                  <v>0.169232</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.442586</v>
+                  <v>0.186238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.434558</v>
+                  <v>0.184776</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.430517</v>
+                  <v>0.183353</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.417994</v>
+                  <v>0.182029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.412185</v>
+                  <v>0.180636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.411303</v>
+                  <v>0.179256</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.404816</v>
+                  <v>0.178057</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.402413</v>
+                  <v>0.176775</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.398693</v>
+                  <v>0.175665</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.394792</v>
+                  <v>0.174317</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.388916</v>
+                  <v>0.173185</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.388097</v>
+                  <v>0.171964</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.385045</v>
+                  <v>0.170756</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.421022</v>
+                  <v>0.169512</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.415044</v>
+                  <v>0.186733</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.397835</v>
+                  <v>0.18519</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.392207</v>
+                  <v>0.183764</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.400984</v>
+                  <v>0.182269</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.396122</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.393095</v>
+                  <v>0.179595</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.389036</v>
+                  <v>0.178396</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.392636</v>
+                  <v>0.177056</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.381903</v>
+                  <v>0.175815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.388508</v>
+                  <v>0.174734</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.383431</v>
+                  <v>0.173443</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.379559</v>
+                  <v>0.172265</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.367162</v>
+                  <v>0.171018</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.446468</v>
+                  <v>0.169873</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.426974</v>
+                  <v>0.16868</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.417038</v>
+                  <v>0.185604</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.413099</v>
+                  <v>0.18407</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.419342</v>
+                  <v>0.182541</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.409791</v>
+                  <v>0.181177</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.405098</v>
+                  <v>0.179915</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.400591</v>
+                  <v>0.178443</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.397272</v>
+                  <v>0.177278</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.391486</v>
+                  <v>0.176076</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.392251</v>
+                  <v>0.174889</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.388798</v>
+                  <v>0.173751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.391824</v>
+                  <v>0.172529</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.381321</v>
+                  <v>0.17138</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.437864</v>
+                  <v>0.170068</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.438023</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.446569</v>
+                  <v>0.196116</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.438033</v>
+                  <v>0.193136</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.426743</v>
+                  <v>0.191085</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.421124</v>
+                  <v>0.189452</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.420582</v>
+                  <v>0.187873</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.412618</v>
+                  <v>0.186202</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.410356</v>
+                  <v>0.184527</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.27075</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.271662</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.271133</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.274026</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.270847</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.274797</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.271653</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.280982</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.283694</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.281135</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.283407</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.278207</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.278501</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.277398</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.276845</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.27666</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.275895</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.273221</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.275609</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.272189</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.272107</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.285413</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.284843</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.284983</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.280853</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.281688</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.279487</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.280677</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.280292</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.280893</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.278407</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.279064</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.276623</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.275242</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.273643</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.28665</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.288314</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.283276</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.283897</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.282851</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.282467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.280855</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.281927</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.278974</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.278439</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.280525</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.275232</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.274341</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.276063</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.291693</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.289798</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.287898</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.28715</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.28391</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.284432</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.28238</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.282797</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.277033</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.276516</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.276848</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.279088</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.276751</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.276998</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.28964</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.286487</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.28763</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.286477</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.285516</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.28524</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.283961</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.284223</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.280482</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.27945</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.279581</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.279018</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.274384</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.276461</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.292322</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.289118</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.288247</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.288563</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.287533</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.286304</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.283101</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.280356</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.280392</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.281045</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.276278</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.277672</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.276009</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.276803</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.294846</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.289587</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.288815</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.285001</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.285394</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.283591</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.285928</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.28276</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.281078</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.280155</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.279521</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.279457</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.278278</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.275865</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.292885</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.29214</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.289121</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.285812</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.289304</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.281765</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.28236</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.283506</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.282489</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.27951</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.277523</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.279182</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.276473</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.276892</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.275816</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.289797</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.29229</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.288339</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.286976</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.284306</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.282697</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.281267</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.279271</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.277611</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.27983</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.276196</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.275866</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.275209</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.297215</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.294804</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.292807</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.292284</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.286689</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.286559</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.287475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2824,7 +3750,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.6000000000000001"/>
+          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -2866,8 +3792,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3216,8 +4142,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3233,12 +4159,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191617</v>
+        <v>0.201311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.303312</v>
+        <v>0.317078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196461</v>
+        <v>0.19628</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314101</v>
+        <v>0.320668</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189349</v>
+        <v>0.19697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302881</v>
+        <v>0.312455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196969</v>
+        <v>0.197402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315269</v>
+        <v>0.318673</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18425</v>
+        <v>0.191874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3041</v>
+        <v>0.307847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198074</v>
+        <v>0.197252</v>
       </c>
       <c r="E4" t="n">
-        <v>0.313685</v>
+        <v>0.319358</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179923</v>
+        <v>0.18645</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305302</v>
+        <v>0.305521</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196939</v>
+        <v>0.196909</v>
       </c>
       <c r="E5" t="n">
-        <v>0.312585</v>
+        <v>0.317039</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18078</v>
+        <v>0.181794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308393</v>
+        <v>0.297091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198937</v>
+        <v>0.19737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.312411</v>
+        <v>0.315229</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.173258</v>
+        <v>0.180003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.299253</v>
+        <v>0.289278</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198855</v>
+        <v>0.197527</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312138</v>
+        <v>0.319103</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166493</v>
+        <v>0.17043</v>
       </c>
       <c r="C8" t="n">
-        <v>0.299152</v>
+        <v>0.284618</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198279</v>
+        <v>0.197935</v>
       </c>
       <c r="E8" t="n">
-        <v>0.311465</v>
+        <v>0.318969</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158753</v>
+        <v>0.158993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.302675</v>
+        <v>0.274079</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215509</v>
+        <v>0.213559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.327063</v>
+        <v>0.330485</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238572</v>
+        <v>0.239862</v>
       </c>
       <c r="C10" t="n">
-        <v>0.303043</v>
+        <v>0.344935</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214506</v>
+        <v>0.213854</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32593</v>
+        <v>0.331389</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231907</v>
+        <v>0.239433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.303313</v>
+        <v>0.347245</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213967</v>
+        <v>0.212627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.326402</v>
+        <v>0.329663</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229313</v>
+        <v>0.233521</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30512</v>
+        <v>0.34485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212853</v>
+        <v>0.212311</v>
       </c>
       <c r="E12" t="n">
-        <v>0.324376</v>
+        <v>0.329049</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22636</v>
+        <v>0.22834</v>
       </c>
       <c r="C13" t="n">
-        <v>0.303512</v>
+        <v>0.338404</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212111</v>
+        <v>0.210959</v>
       </c>
       <c r="E13" t="n">
-        <v>0.324074</v>
+        <v>0.328662</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221243</v>
+        <v>0.221895</v>
       </c>
       <c r="C14" t="n">
-        <v>0.306409</v>
+        <v>0.337724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211552</v>
+        <v>0.210517</v>
       </c>
       <c r="E14" t="n">
-        <v>0.322079</v>
+        <v>0.325341</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215728</v>
+        <v>0.215757</v>
       </c>
       <c r="C15" t="n">
-        <v>0.306279</v>
+        <v>0.32521</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211143</v>
+        <v>0.20979</v>
       </c>
       <c r="E15" t="n">
-        <v>0.321097</v>
+        <v>0.324354</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207937</v>
+        <v>0.212571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.308271</v>
+        <v>0.317035</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209579</v>
+        <v>0.208831</v>
       </c>
       <c r="E16" t="n">
-        <v>0.319647</v>
+        <v>0.324047</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205353</v>
+        <v>0.203709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.306775</v>
+        <v>0.319228</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209087</v>
+        <v>0.207644</v>
       </c>
       <c r="E17" t="n">
-        <v>0.320161</v>
+        <v>0.322413</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200606</v>
+        <v>0.201496</v>
       </c>
       <c r="C18" t="n">
-        <v>0.308382</v>
+        <v>0.31381</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208525</v>
+        <v>0.206976</v>
       </c>
       <c r="E18" t="n">
-        <v>0.318331</v>
+        <v>0.322012</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194927</v>
+        <v>0.195228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.310954</v>
+        <v>0.310795</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207664</v>
+        <v>0.206176</v>
       </c>
       <c r="E19" t="n">
-        <v>0.317347</v>
+        <v>0.321999</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189766</v>
+        <v>0.190632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.310386</v>
+        <v>0.302635</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206913</v>
+        <v>0.205702</v>
       </c>
       <c r="E20" t="n">
-        <v>0.317496</v>
+        <v>0.322497</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183253</v>
+        <v>0.184108</v>
       </c>
       <c r="C21" t="n">
-        <v>0.303976</v>
+        <v>0.28844</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206271</v>
+        <v>0.205019</v>
       </c>
       <c r="E21" t="n">
-        <v>0.316566</v>
+        <v>0.320864</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175793</v>
+        <v>0.178167</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304591</v>
+        <v>0.281227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205674</v>
+        <v>0.204376</v>
       </c>
       <c r="E22" t="n">
-        <v>0.316011</v>
+        <v>0.31944</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167421</v>
+        <v>0.168764</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303846</v>
+        <v>0.279253</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223007</v>
+        <v>0.220858</v>
       </c>
       <c r="E23" t="n">
-        <v>0.329433</v>
+        <v>0.334792</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242697</v>
+        <v>0.242465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.304766</v>
+        <v>0.348354</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219779</v>
+        <v>0.218745</v>
       </c>
       <c r="E24" t="n">
-        <v>0.327683</v>
+        <v>0.333213</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23745</v>
+        <v>0.239026</v>
       </c>
       <c r="C25" t="n">
-        <v>0.306542</v>
+        <v>0.348916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218995</v>
+        <v>0.217355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.327012</v>
+        <v>0.332123</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232227</v>
+        <v>0.233237</v>
       </c>
       <c r="C26" t="n">
-        <v>0.308284</v>
+        <v>0.348953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217434</v>
+        <v>0.216056</v>
       </c>
       <c r="E26" t="n">
-        <v>0.326203</v>
+        <v>0.332077</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227459</v>
+        <v>0.231336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.308106</v>
+        <v>0.342295</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216091</v>
+        <v>0.214669</v>
       </c>
       <c r="E27" t="n">
-        <v>0.32488</v>
+        <v>0.330297</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223855</v>
+        <v>0.22333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.307448</v>
+        <v>0.337807</v>
       </c>
       <c r="D28" t="n">
-        <v>0.215166</v>
+        <v>0.213875</v>
       </c>
       <c r="E28" t="n">
-        <v>0.323478</v>
+        <v>0.328492</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218384</v>
+        <v>0.219097</v>
       </c>
       <c r="C29" t="n">
-        <v>0.308446</v>
+        <v>0.333284</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21398</v>
+        <v>0.212427</v>
       </c>
       <c r="E29" t="n">
-        <v>0.322639</v>
+        <v>0.327384</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214555</v>
+        <v>0.213352</v>
       </c>
       <c r="C30" t="n">
-        <v>0.308736</v>
+        <v>0.322639</v>
       </c>
       <c r="D30" t="n">
-        <v>0.212729</v>
+        <v>0.211237</v>
       </c>
       <c r="E30" t="n">
-        <v>0.322063</v>
+        <v>0.327634</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205503</v>
+        <v>0.208211</v>
       </c>
       <c r="C31" t="n">
-        <v>0.310798</v>
+        <v>0.317347</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21154</v>
+        <v>0.209929</v>
       </c>
       <c r="E31" t="n">
-        <v>0.320575</v>
+        <v>0.327775</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199499</v>
+        <v>0.202427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311777</v>
+        <v>0.320324</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2104</v>
+        <v>0.208948</v>
       </c>
       <c r="E32" t="n">
-        <v>0.319546</v>
+        <v>0.324718</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193832</v>
+        <v>0.197376</v>
       </c>
       <c r="C33" t="n">
-        <v>0.312629</v>
+        <v>0.301676</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209695</v>
+        <v>0.208018</v>
       </c>
       <c r="E33" t="n">
-        <v>0.319204</v>
+        <v>0.324906</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191895</v>
+        <v>0.19223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.31337</v>
+        <v>0.302914</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208654</v>
+        <v>0.206942</v>
       </c>
       <c r="E34" t="n">
-        <v>0.318536</v>
+        <v>0.324225</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181526</v>
+        <v>0.186066</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308344</v>
+        <v>0.298715</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207722</v>
+        <v>0.206166</v>
       </c>
       <c r="E35" t="n">
-        <v>0.316693</v>
+        <v>0.322539</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179764</v>
+        <v>0.180723</v>
       </c>
       <c r="C36" t="n">
-        <v>0.308359</v>
+        <v>0.284669</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206834</v>
+        <v>0.205429</v>
       </c>
       <c r="E36" t="n">
-        <v>0.316397</v>
+        <v>0.323579</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166107</v>
+        <v>0.173447</v>
       </c>
       <c r="C37" t="n">
-        <v>0.309286</v>
+        <v>0.275397</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224133</v>
+        <v>0.221723</v>
       </c>
       <c r="E37" t="n">
-        <v>0.332378</v>
+        <v>0.33644</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241245</v>
+        <v>0.244249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.309185</v>
+        <v>0.345426</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221595</v>
+        <v>0.219759</v>
       </c>
       <c r="E38" t="n">
-        <v>0.331101</v>
+        <v>0.336323</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237738</v>
+        <v>0.240425</v>
       </c>
       <c r="C39" t="n">
-        <v>0.31021</v>
+        <v>0.346184</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219927</v>
+        <v>0.218274</v>
       </c>
       <c r="E39" t="n">
-        <v>0.32967</v>
+        <v>0.334826</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232831</v>
+        <v>0.234597</v>
       </c>
       <c r="C40" t="n">
-        <v>0.307561</v>
+        <v>0.342524</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217936</v>
+        <v>0.216818</v>
       </c>
       <c r="E40" t="n">
-        <v>0.328073</v>
+        <v>0.332652</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230886</v>
+        <v>0.230226</v>
       </c>
       <c r="C41" t="n">
-        <v>0.307596</v>
+        <v>0.338896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216705</v>
+        <v>0.215223</v>
       </c>
       <c r="E41" t="n">
-        <v>0.327061</v>
+        <v>0.332477</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225365</v>
+        <v>0.224589</v>
       </c>
       <c r="C42" t="n">
-        <v>0.309683</v>
+        <v>0.335093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215375</v>
+        <v>0.214055</v>
       </c>
       <c r="E42" t="n">
-        <v>0.326133</v>
+        <v>0.33149</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218868</v>
+        <v>0.219964</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309349</v>
+        <v>0.330763</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214133</v>
+        <v>0.212837</v>
       </c>
       <c r="E43" t="n">
-        <v>0.324544</v>
+        <v>0.330274</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21412</v>
+        <v>0.216802</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31202</v>
+        <v>0.322847</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213177</v>
+        <v>0.211738</v>
       </c>
       <c r="E44" t="n">
-        <v>0.32407</v>
+        <v>0.329151</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209147</v>
+        <v>0.209375</v>
       </c>
       <c r="C45" t="n">
-        <v>0.313316</v>
+        <v>0.326248</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211905</v>
+        <v>0.210613</v>
       </c>
       <c r="E45" t="n">
-        <v>0.32328</v>
+        <v>0.327352</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204714</v>
+        <v>0.204509</v>
       </c>
       <c r="C46" t="n">
-        <v>0.31412</v>
+        <v>0.319403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210941</v>
+        <v>0.209477</v>
       </c>
       <c r="E46" t="n">
-        <v>0.322203</v>
+        <v>0.327272</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +4943,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199261</v>
+        <v>0.200269</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313468</v>
+        <v>0.308483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210018</v>
+        <v>0.208548</v>
       </c>
       <c r="E47" t="n">
-        <v>0.321516</v>
+        <v>0.32583</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194121</v>
+        <v>0.194202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319359</v>
+        <v>0.304184</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208986</v>
+        <v>0.207572</v>
       </c>
       <c r="E48" t="n">
-        <v>0.320385</v>
+        <v>0.325291</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187837</v>
+        <v>0.188171</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31985</v>
+        <v>0.30082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208152</v>
+        <v>0.206665</v>
       </c>
       <c r="E49" t="n">
-        <v>0.319848</v>
+        <v>0.323827</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182357</v>
+        <v>0.182108</v>
       </c>
       <c r="C50" t="n">
-        <v>0.31324</v>
+        <v>0.295056</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207295</v>
+        <v>0.205736</v>
       </c>
       <c r="E50" t="n">
-        <v>0.318735</v>
+        <v>0.324004</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174486</v>
+        <v>0.175671</v>
       </c>
       <c r="C51" t="n">
-        <v>0.313888</v>
+        <v>0.28563</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223685</v>
+        <v>0.221879</v>
       </c>
       <c r="E51" t="n">
-        <v>0.333263</v>
+        <v>0.338097</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165318</v>
+        <v>0.167908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313473</v>
+        <v>0.277966</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221604</v>
+        <v>0.220244</v>
       </c>
       <c r="E52" t="n">
-        <v>0.331212</v>
+        <v>0.33647</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240473</v>
+        <v>0.242483</v>
       </c>
       <c r="C53" t="n">
-        <v>0.314453</v>
+        <v>0.367248</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220055</v>
+        <v>0.218773</v>
       </c>
       <c r="E53" t="n">
-        <v>0.329516</v>
+        <v>0.335356</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236477</v>
+        <v>0.238029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.317504</v>
+        <v>0.348026</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218278</v>
+        <v>0.217177</v>
       </c>
       <c r="E54" t="n">
-        <v>0.32889</v>
+        <v>0.334527</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232023</v>
+        <v>0.232192</v>
       </c>
       <c r="C55" t="n">
-        <v>0.318745</v>
+        <v>0.344901</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216985</v>
+        <v>0.215639</v>
       </c>
       <c r="E55" t="n">
-        <v>0.326946</v>
+        <v>0.332703</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227041</v>
+        <v>0.228375</v>
       </c>
       <c r="C56" t="n">
-        <v>0.319787</v>
+        <v>0.341232</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215633</v>
+        <v>0.214388</v>
       </c>
       <c r="E56" t="n">
-        <v>0.325772</v>
+        <v>0.330716</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221433</v>
+        <v>0.2237</v>
       </c>
       <c r="C57" t="n">
-        <v>0.320325</v>
+        <v>0.337314</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214444</v>
+        <v>0.213095</v>
       </c>
       <c r="E57" t="n">
-        <v>0.324636</v>
+        <v>0.330841</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216342</v>
+        <v>0.219918</v>
       </c>
       <c r="C58" t="n">
-        <v>0.319916</v>
+        <v>0.327351</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213456</v>
+        <v>0.211905</v>
       </c>
       <c r="E58" t="n">
-        <v>0.323317</v>
+        <v>0.328603</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211045</v>
+        <v>0.211193</v>
       </c>
       <c r="C59" t="n">
-        <v>0.322188</v>
+        <v>0.339982</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212312</v>
+        <v>0.210797</v>
       </c>
       <c r="E59" t="n">
-        <v>0.322282</v>
+        <v>0.328276</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205738</v>
+        <v>0.206524</v>
       </c>
       <c r="C60" t="n">
-        <v>0.324247</v>
+        <v>0.362765</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211243</v>
+        <v>0.209648</v>
       </c>
       <c r="E60" t="n">
-        <v>0.321097</v>
+        <v>0.326483</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200918</v>
+        <v>0.200141</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326149</v>
+        <v>0.353916</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210256</v>
+        <v>0.208766</v>
       </c>
       <c r="E61" t="n">
-        <v>0.320514</v>
+        <v>0.325835</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195323</v>
+        <v>0.195265</v>
       </c>
       <c r="C62" t="n">
-        <v>0.328457</v>
+        <v>0.326904</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209191</v>
+        <v>0.20772</v>
       </c>
       <c r="E62" t="n">
-        <v>0.319378</v>
+        <v>0.325553</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190266</v>
+        <v>0.190341</v>
       </c>
       <c r="C63" t="n">
-        <v>0.333374</v>
+        <v>0.323299</v>
       </c>
       <c r="D63" t="n">
-        <v>0.208277</v>
+        <v>0.206823</v>
       </c>
       <c r="E63" t="n">
-        <v>0.318498</v>
+        <v>0.324083</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184555</v>
+        <v>0.184786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.377358</v>
+        <v>0.31506</v>
       </c>
       <c r="D64" t="n">
-        <v>0.207303</v>
+        <v>0.205828</v>
       </c>
       <c r="E64" t="n">
-        <v>0.317603</v>
+        <v>0.323578</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17667</v>
+        <v>0.178588</v>
       </c>
       <c r="C65" t="n">
-        <v>0.379746</v>
+        <v>0.319477</v>
       </c>
       <c r="D65" t="n">
-        <v>0.206568</v>
+        <v>0.205058</v>
       </c>
       <c r="E65" t="n">
-        <v>0.316871</v>
+        <v>0.323812</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168021</v>
+        <v>0.170145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.38349</v>
+        <v>0.315912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232251</v>
+        <v>0.221278</v>
       </c>
       <c r="E66" t="n">
-        <v>0.33277</v>
+        <v>0.33745</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240413</v>
+        <v>0.243381</v>
       </c>
       <c r="C67" t="n">
-        <v>0.384628</v>
+        <v>0.38384</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227323</v>
+        <v>0.219524</v>
       </c>
       <c r="E67" t="n">
-        <v>0.331501</v>
+        <v>0.336491</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236533</v>
+        <v>0.239149</v>
       </c>
       <c r="C68" t="n">
-        <v>0.375965</v>
+        <v>0.378079</v>
       </c>
       <c r="D68" t="n">
-        <v>0.22683</v>
+        <v>0.217988</v>
       </c>
       <c r="E68" t="n">
-        <v>0.32985</v>
+        <v>0.334969</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233638</v>
+        <v>0.233685</v>
       </c>
       <c r="C69" t="n">
-        <v>0.386957</v>
+        <v>0.374498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.224384</v>
+        <v>0.2165</v>
       </c>
       <c r="E69" t="n">
-        <v>0.32864</v>
+        <v>0.333627</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226938</v>
+        <v>0.229112</v>
       </c>
       <c r="C70" t="n">
-        <v>0.374939</v>
+        <v>0.368325</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220822</v>
+        <v>0.215126</v>
       </c>
       <c r="E70" t="n">
-        <v>0.327171</v>
+        <v>0.33233</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221179</v>
+        <v>0.223701</v>
       </c>
       <c r="C71" t="n">
-        <v>0.375722</v>
+        <v>0.364179</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217914</v>
+        <v>0.213812</v>
       </c>
       <c r="E71" t="n">
-        <v>0.325992</v>
+        <v>0.330359</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217881</v>
+        <v>0.218197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.387819</v>
+        <v>0.350734</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214494</v>
+        <v>0.212645</v>
       </c>
       <c r="E72" t="n">
-        <v>0.325153</v>
+        <v>0.330031</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212765</v>
+        <v>0.212926</v>
       </c>
       <c r="C73" t="n">
-        <v>0.385232</v>
+        <v>0.408267</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213071</v>
+        <v>0.211379</v>
       </c>
       <c r="E73" t="n">
-        <v>0.324095</v>
+        <v>0.328079</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204523</v>
+        <v>0.206936</v>
       </c>
       <c r="C74" t="n">
-        <v>0.385476</v>
+        <v>0.400891</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21181</v>
+        <v>0.210391</v>
       </c>
       <c r="E74" t="n">
-        <v>0.323239</v>
+        <v>0.327907</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.201529</v>
+        <v>0.202163</v>
       </c>
       <c r="C75" t="n">
-        <v>0.384739</v>
+        <v>0.450753</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210688</v>
+        <v>0.209235</v>
       </c>
       <c r="E75" t="n">
-        <v>0.322242</v>
+        <v>0.325755</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.192972</v>
+        <v>0.197271</v>
       </c>
       <c r="C76" t="n">
-        <v>0.386363</v>
+        <v>0.442823</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209742</v>
+        <v>0.208247</v>
       </c>
       <c r="E76" t="n">
-        <v>0.321395</v>
+        <v>0.326344</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.186938</v>
+        <v>0.191311</v>
       </c>
       <c r="C77" t="n">
-        <v>0.385511</v>
+        <v>0.406742</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208692</v>
+        <v>0.207167</v>
       </c>
       <c r="E77" t="n">
-        <v>0.320448</v>
+        <v>0.324463</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180518</v>
+        <v>0.185617</v>
       </c>
       <c r="C78" t="n">
-        <v>0.449581</v>
+        <v>0.393226</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207776</v>
+        <v>0.206293</v>
       </c>
       <c r="E78" t="n">
-        <v>0.319672</v>
+        <v>0.324506</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17367</v>
+        <v>0.179648</v>
       </c>
       <c r="C79" t="n">
-        <v>0.444362</v>
+        <v>0.458226</v>
       </c>
       <c r="D79" t="n">
-        <v>0.207137</v>
+        <v>0.205584</v>
       </c>
       <c r="E79" t="n">
-        <v>0.318756</v>
+        <v>0.323605</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164814</v>
+        <v>0.173126</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430123</v>
+        <v>0.355611</v>
       </c>
       <c r="D80" t="n">
-        <v>0.228094</v>
+        <v>0.223942</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3327</v>
+        <v>0.337613</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241257</v>
+        <v>0.243821</v>
       </c>
       <c r="C81" t="n">
-        <v>0.431731</v>
+        <v>0.373623</v>
       </c>
       <c r="D81" t="n">
-        <v>0.224881</v>
+        <v>0.221686</v>
       </c>
       <c r="E81" t="n">
-        <v>0.331154</v>
+        <v>0.334229</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237661</v>
+        <v>0.240521</v>
       </c>
       <c r="C82" t="n">
-        <v>0.442151</v>
+        <v>0.366866</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222606</v>
+        <v>0.219688</v>
       </c>
       <c r="E82" t="n">
-        <v>0.330035</v>
+        <v>0.333084</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233302</v>
+        <v>0.234447</v>
       </c>
       <c r="C83" t="n">
-        <v>0.433787</v>
+        <v>0.363014</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221695</v>
+        <v>0.217974</v>
       </c>
       <c r="E83" t="n">
-        <v>0.328291</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228543</v>
+        <v>0.227182</v>
       </c>
       <c r="C84" t="n">
-        <v>0.429935</v>
+        <v>0.357782</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219068</v>
+        <v>0.216354</v>
       </c>
       <c r="E84" t="n">
-        <v>0.326932</v>
+        <v>0.329631</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224561</v>
+        <v>0.224899</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425873</v>
+        <v>0.351186</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217223</v>
+        <v>0.214783</v>
       </c>
       <c r="E85" t="n">
-        <v>0.325712</v>
+        <v>0.328611</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217283</v>
+        <v>0.219036</v>
       </c>
       <c r="C86" t="n">
-        <v>0.422955</v>
+        <v>0.346265</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215767</v>
+        <v>0.213877</v>
       </c>
       <c r="E86" t="n">
-        <v>0.324492</v>
+        <v>0.327518</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211469</v>
+        <v>0.210302</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407602</v>
+        <v>0.424099</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213933</v>
+        <v>0.212617</v>
       </c>
       <c r="E87" t="n">
-        <v>0.323196</v>
+        <v>0.326504</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206199</v>
+        <v>0.207671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.403231</v>
+        <v>0.43882</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212396</v>
+        <v>0.21076</v>
       </c>
       <c r="E88" t="n">
-        <v>0.322076</v>
+        <v>0.326242</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203587</v>
+        <v>0.202327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.398124</v>
+        <v>0.437279</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211177</v>
+        <v>0.209671</v>
       </c>
       <c r="E89" t="n">
-        <v>0.321094</v>
+        <v>0.324475</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194692</v>
+        <v>0.197776</v>
       </c>
       <c r="C90" t="n">
-        <v>0.398977</v>
+        <v>0.431536</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210207</v>
+        <v>0.208694</v>
       </c>
       <c r="E90" t="n">
-        <v>0.320125</v>
+        <v>0.323572</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18852</v>
+        <v>0.19221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.394111</v>
+        <v>0.446092</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20919</v>
+        <v>0.207659</v>
       </c>
       <c r="E91" t="n">
-        <v>0.319238</v>
+        <v>0.322703</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187083</v>
+        <v>0.186595</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451859</v>
+        <v>0.422416</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208319</v>
+        <v>0.206761</v>
       </c>
       <c r="E92" t="n">
-        <v>0.318311</v>
+        <v>0.322018</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180206</v>
+        <v>0.18127</v>
       </c>
       <c r="C93" t="n">
-        <v>0.448299</v>
+        <v>0.376223</v>
       </c>
       <c r="D93" t="n">
-        <v>0.207441</v>
+        <v>0.205836</v>
       </c>
       <c r="E93" t="n">
-        <v>0.317618</v>
+        <v>0.322031</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172693</v>
+        <v>0.174293</v>
       </c>
       <c r="C94" t="n">
-        <v>0.452736</v>
+        <v>0.410776</v>
       </c>
       <c r="D94" t="n">
-        <v>0.227898</v>
+        <v>0.224593</v>
       </c>
       <c r="E94" t="n">
-        <v>0.335893</v>
+        <v>0.336875</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243907</v>
+        <v>0.242466</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452444</v>
+        <v>0.469842</v>
       </c>
       <c r="D95" t="n">
-        <v>0.225114</v>
+        <v>0.22195</v>
       </c>
       <c r="E95" t="n">
-        <v>0.332175</v>
+        <v>0.337203</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239804</v>
+        <v>0.238354</v>
       </c>
       <c r="C96" t="n">
-        <v>0.446868</v>
+        <v>0.355129</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222838</v>
+        <v>0.219868</v>
       </c>
       <c r="E96" t="n">
-        <v>0.330436</v>
+        <v>0.334857</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234846</v>
+        <v>0.233789</v>
       </c>
       <c r="C97" t="n">
-        <v>0.416666</v>
+        <v>0.35091</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2208</v>
+        <v>0.217898</v>
       </c>
       <c r="E97" t="n">
-        <v>0.329072</v>
+        <v>0.3315</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230011</v>
+        <v>0.228549</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409414</v>
+        <v>0.346534</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219145</v>
+        <v>0.216602</v>
       </c>
       <c r="E98" t="n">
-        <v>0.327639</v>
+        <v>0.330871</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224858</v>
+        <v>0.223625</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411466</v>
+        <v>0.341256</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217445</v>
+        <v>0.215281</v>
       </c>
       <c r="E99" t="n">
-        <v>0.326595</v>
+        <v>0.329767</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219081</v>
+        <v>0.218299</v>
       </c>
       <c r="C100" t="n">
-        <v>0.40744</v>
+        <v>0.335595</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214716</v>
+        <v>0.21398</v>
       </c>
       <c r="E100" t="n">
-        <v>0.32534</v>
+        <v>0.327574</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213485</v>
+        <v>0.212338</v>
       </c>
       <c r="C101" t="n">
-        <v>0.414147</v>
+        <v>0.425882</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213839</v>
+        <v>0.212084</v>
       </c>
       <c r="E101" t="n">
-        <v>0.324523</v>
+        <v>0.327751</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21006</v>
+        <v>0.206476</v>
       </c>
       <c r="C102" t="n">
-        <v>0.412668</v>
+        <v>0.450913</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212796</v>
+        <v>0.211489</v>
       </c>
       <c r="E102" t="n">
-        <v>0.323607</v>
+        <v>0.325581</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204857</v>
+        <v>0.20094</v>
       </c>
       <c r="C103" t="n">
-        <v>0.408768</v>
+        <v>0.432468</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211459</v>
+        <v>0.210013</v>
       </c>
       <c r="E103" t="n">
-        <v>0.322525</v>
+        <v>0.324657</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199616</v>
+        <v>0.195391</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405839</v>
+        <v>0.367632</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210606</v>
+        <v>0.208808</v>
       </c>
       <c r="E104" t="n">
-        <v>0.321566</v>
+        <v>0.324526</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194221</v>
+        <v>0.189619</v>
       </c>
       <c r="C105" t="n">
-        <v>0.402283</v>
+        <v>0.359937</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209401</v>
+        <v>0.207882</v>
       </c>
       <c r="E105" t="n">
-        <v>0.320845</v>
+        <v>0.323602</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188461</v>
+        <v>0.182947</v>
       </c>
       <c r="C106" t="n">
-        <v>0.39704</v>
+        <v>0.420597</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208452</v>
+        <v>0.206876</v>
       </c>
       <c r="E106" t="n">
-        <v>0.320008</v>
+        <v>0.323028</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177488</v>
+        <v>0.177039</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421715</v>
+        <v>0.400996</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207826</v>
+        <v>0.206151</v>
       </c>
       <c r="E107" t="n">
-        <v>0.318886</v>
+        <v>0.322124</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.168984</v>
+        <v>0.169672</v>
       </c>
       <c r="C108" t="n">
-        <v>0.424682</v>
+        <v>0.390453</v>
       </c>
       <c r="D108" t="n">
-        <v>0.227485</v>
+        <v>0.225422</v>
       </c>
       <c r="E108" t="n">
-        <v>0.333602</v>
+        <v>0.335827</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165552</v>
+        <v>0.16006</v>
       </c>
       <c r="C109" t="n">
-        <v>0.405273</v>
+        <v>0.347797</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224683</v>
+        <v>0.222797</v>
       </c>
       <c r="E109" t="n">
-        <v>0.331421</v>
+        <v>0.334515</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239552</v>
+        <v>0.241471</v>
       </c>
       <c r="C110" t="n">
-        <v>0.400649</v>
+        <v>0.501463</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222339</v>
+        <v>0.220284</v>
       </c>
       <c r="E110" t="n">
-        <v>0.329949</v>
+        <v>0.332841</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235444</v>
+        <v>0.23663</v>
       </c>
       <c r="C111" t="n">
-        <v>0.420195</v>
+        <v>0.502178</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220368</v>
+        <v>0.218476</v>
       </c>
       <c r="E111" t="n">
-        <v>0.328935</v>
+        <v>0.331552</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23071</v>
+        <v>0.229953</v>
       </c>
       <c r="C112" t="n">
-        <v>0.41547</v>
+        <v>0.472462</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218666</v>
+        <v>0.216771</v>
       </c>
       <c r="E112" t="n">
-        <v>0.327575</v>
+        <v>0.330665</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225543</v>
+        <v>0.226247</v>
       </c>
       <c r="C113" t="n">
-        <v>0.411476</v>
+        <v>0.500175</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216881</v>
+        <v>0.215208</v>
       </c>
       <c r="E113" t="n">
-        <v>0.326186</v>
+        <v>0.329294</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220048</v>
+        <v>0.220763</v>
       </c>
       <c r="C114" t="n">
-        <v>0.406771</v>
+        <v>0.497269</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215234</v>
+        <v>0.213878</v>
       </c>
       <c r="E114" t="n">
-        <v>0.325083</v>
+        <v>0.328089</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21648</v>
+        <v>0.215268</v>
       </c>
       <c r="C115" t="n">
-        <v>0.385934</v>
+        <v>0.45213</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214082</v>
+        <v>0.212631</v>
       </c>
       <c r="E115" t="n">
-        <v>0.32345</v>
+        <v>0.327855</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211138</v>
+        <v>0.207545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.381748</v>
+        <v>0.454796</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212847</v>
+        <v>0.211286</v>
       </c>
       <c r="E116" t="n">
-        <v>0.322476</v>
+        <v>0.326749</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205923</v>
+        <v>0.204946</v>
       </c>
       <c r="C117" t="n">
-        <v>0.378606</v>
+        <v>0.410896</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211777</v>
+        <v>0.209973</v>
       </c>
       <c r="E117" t="n">
-        <v>0.321483</v>
+        <v>0.325662</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200671</v>
+        <v>0.196223</v>
       </c>
       <c r="C118" t="n">
-        <v>0.375736</v>
+        <v>0.443831</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210741</v>
+        <v>0.208969</v>
       </c>
       <c r="E118" t="n">
-        <v>0.320519</v>
+        <v>0.324731</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195305</v>
+        <v>0.194682</v>
       </c>
       <c r="C119" t="n">
-        <v>0.373352</v>
+        <v>0.435648</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209765</v>
+        <v>0.207958</v>
       </c>
       <c r="E119" t="n">
-        <v>0.319563</v>
+        <v>0.323886</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189387</v>
+        <v>0.186592</v>
       </c>
       <c r="C120" t="n">
-        <v>0.371283</v>
+        <v>0.426855</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208798</v>
+        <v>0.207276</v>
       </c>
       <c r="E120" t="n">
-        <v>0.318661</v>
+        <v>0.323179</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183763</v>
+        <v>0.178474</v>
       </c>
       <c r="C121" t="n">
-        <v>0.443203</v>
+        <v>0.384653</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208003</v>
+        <v>0.206413</v>
       </c>
       <c r="E121" t="n">
-        <v>0.317882</v>
+        <v>0.321554</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17641</v>
+        <v>0.176524</v>
       </c>
       <c r="C122" t="n">
-        <v>0.437252</v>
+        <v>0.309042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207153</v>
+        <v>0.205645</v>
       </c>
       <c r="E122" t="n">
-        <v>0.317104</v>
+        <v>0.320798</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167351</v>
+        <v>0.162663</v>
       </c>
       <c r="C123" t="n">
-        <v>0.429907</v>
+        <v>0.32533</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22465</v>
+        <v>0.223144</v>
       </c>
       <c r="E123" t="n">
-        <v>0.332041</v>
+        <v>0.335267</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241302</v>
+        <v>0.240958</v>
       </c>
       <c r="C124" t="n">
-        <v>0.425306</v>
+        <v>0.48617</v>
       </c>
       <c r="D124" t="n">
-        <v>0.222317</v>
+        <v>0.22063</v>
       </c>
       <c r="E124" t="n">
-        <v>0.33022</v>
+        <v>0.33349</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23772</v>
+        <v>0.235955</v>
       </c>
       <c r="C125" t="n">
-        <v>0.433682</v>
+        <v>0.46894</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220222</v>
+        <v>0.218725</v>
       </c>
       <c r="E125" t="n">
-        <v>0.329718</v>
+        <v>0.331862</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231785</v>
+        <v>0.230861</v>
       </c>
       <c r="C126" t="n">
-        <v>0.43766</v>
+        <v>0.4822</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218507</v>
+        <v>0.217092</v>
       </c>
       <c r="E126" t="n">
-        <v>0.32847</v>
+        <v>0.331067</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226695</v>
+        <v>0.225829</v>
       </c>
       <c r="C127" t="n">
-        <v>0.408295</v>
+        <v>0.406952</v>
       </c>
       <c r="D127" t="n">
-        <v>0.217023</v>
+        <v>0.215571</v>
       </c>
       <c r="E127" t="n">
-        <v>0.326507</v>
+        <v>0.329613</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221287</v>
+        <v>0.220173</v>
       </c>
       <c r="C128" t="n">
-        <v>0.405186</v>
+        <v>0.425724</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21561</v>
+        <v>0.214112</v>
       </c>
       <c r="E128" t="n">
-        <v>0.325454</v>
+        <v>0.328755</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217382</v>
+        <v>0.214687</v>
       </c>
       <c r="C129" t="n">
-        <v>0.421451</v>
+        <v>0.436401</v>
       </c>
       <c r="D129" t="n">
-        <v>0.214215</v>
+        <v>0.212788</v>
       </c>
       <c r="E129" t="n">
-        <v>0.325044</v>
+        <v>0.327478</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211816</v>
+        <v>0.208763</v>
       </c>
       <c r="C130" t="n">
-        <v>0.415037</v>
+        <v>0.426883</v>
       </c>
       <c r="D130" t="n">
-        <v>0.213062</v>
+        <v>0.211503</v>
       </c>
       <c r="E130" t="n">
-        <v>0.324044</v>
+        <v>0.326664</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20678</v>
+        <v>0.206003</v>
       </c>
       <c r="C131" t="n">
-        <v>0.411884</v>
+        <v>0.335206</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211918</v>
+        <v>0.210331</v>
       </c>
       <c r="E131" t="n">
-        <v>0.323</v>
+        <v>0.32497</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201538</v>
+        <v>0.197545</v>
       </c>
       <c r="C132" t="n">
-        <v>0.407912</v>
+        <v>0.436734</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210931</v>
+        <v>0.209401</v>
       </c>
       <c r="E132" t="n">
-        <v>0.321996</v>
+        <v>0.324715</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196264</v>
+        <v>0.195701</v>
       </c>
       <c r="C133" t="n">
-        <v>0.403905</v>
+        <v>0.405901</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209902</v>
+        <v>0.20824</v>
       </c>
       <c r="E133" t="n">
-        <v>0.321169</v>
+        <v>0.323105</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190512</v>
+        <v>0.185902</v>
       </c>
       <c r="C134" t="n">
-        <v>0.401013</v>
+        <v>0.41458</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208873</v>
+        <v>0.207191</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320284</v>
+        <v>0.322864</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185028</v>
+        <v>0.185044</v>
       </c>
       <c r="C135" t="n">
-        <v>0.472153</v>
+        <v>0.401782</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208065</v>
+        <v>0.206374</v>
       </c>
       <c r="E135" t="n">
-        <v>0.319522</v>
+        <v>0.32201</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.177952</v>
+        <v>0.178748</v>
       </c>
       <c r="C136" t="n">
-        <v>0.466609</v>
+        <v>0.382114</v>
       </c>
       <c r="D136" t="n">
-        <v>0.207258</v>
+        <v>0.205598</v>
       </c>
       <c r="E136" t="n">
-        <v>0.318652</v>
+        <v>0.320659</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169411</v>
+        <v>0.164229</v>
       </c>
       <c r="C137" t="n">
-        <v>0.436788</v>
+        <v>0.377226</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225127</v>
+        <v>0.223075</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332223</v>
+        <v>0.335276</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24115</v>
+        <v>0.241152</v>
       </c>
       <c r="C138" t="n">
-        <v>0.455853</v>
+        <v>0.397229</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222634</v>
+        <v>0.221161</v>
       </c>
       <c r="E138" t="n">
-        <v>0.331503</v>
+        <v>0.33365</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238731</v>
+        <v>0.237071</v>
       </c>
       <c r="C139" t="n">
-        <v>0.436906</v>
+        <v>0.467706</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220608</v>
+        <v>0.219172</v>
       </c>
       <c r="E139" t="n">
-        <v>0.329345</v>
+        <v>0.332378</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232702</v>
+        <v>0.232453</v>
       </c>
       <c r="C140" t="n">
-        <v>0.442605</v>
+        <v>0.409678</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218864</v>
+        <v>0.217391</v>
       </c>
       <c r="E140" t="n">
-        <v>0.328597</v>
+        <v>0.33149</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227773</v>
+        <v>0.227635</v>
       </c>
       <c r="C141" t="n">
-        <v>0.43707</v>
+        <v>0.44709</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217245</v>
+        <v>0.215803</v>
       </c>
       <c r="E141" t="n">
-        <v>0.327197</v>
+        <v>0.329904</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222419</v>
+        <v>0.222062</v>
       </c>
       <c r="C142" t="n">
-        <v>0.431264</v>
+        <v>0.414479</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215786</v>
+        <v>0.214346</v>
       </c>
       <c r="E142" t="n">
-        <v>0.325849</v>
+        <v>0.329189</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216886</v>
+        <v>0.21617</v>
       </c>
       <c r="C143" t="n">
-        <v>0.425228</v>
+        <v>0.395074</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214479</v>
+        <v>0.213019</v>
       </c>
       <c r="E143" t="n">
-        <v>0.324691</v>
+        <v>0.328111</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.191617</v>
+        <v>0.190916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.303312</v>
+        <v>0.30603</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196461</v>
+        <v>0.195742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.314101</v>
+        <v>0.315412</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.189349</v>
+        <v>0.188889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302881</v>
+        <v>0.308278</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196969</v>
+        <v>0.196614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315269</v>
+        <v>0.316888</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18425</v>
+        <v>0.186762</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3041</v>
+        <v>0.306649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198074</v>
+        <v>0.198054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.313685</v>
+        <v>0.315218</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179923</v>
+        <v>0.179041</v>
       </c>
       <c r="C5" t="n">
-        <v>0.305302</v>
+        <v>0.307453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196939</v>
+        <v>0.197057</v>
       </c>
       <c r="E5" t="n">
-        <v>0.312585</v>
+        <v>0.313785</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18078</v>
+        <v>0.181598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308393</v>
+        <v>0.311017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198937</v>
+        <v>0.198506</v>
       </c>
       <c r="E6" t="n">
-        <v>0.312411</v>
+        <v>0.313958</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.173258</v>
+        <v>0.175393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.299253</v>
+        <v>0.304153</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198855</v>
+        <v>0.198768</v>
       </c>
       <c r="E7" t="n">
-        <v>0.312138</v>
+        <v>0.313375</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166493</v>
+        <v>0.166517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.299152</v>
+        <v>0.30339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198279</v>
+        <v>0.198214</v>
       </c>
       <c r="E8" t="n">
-        <v>0.311465</v>
+        <v>0.312678</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158753</v>
+        <v>0.159324</v>
       </c>
       <c r="C9" t="n">
-        <v>0.302675</v>
+        <v>0.304378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215509</v>
+        <v>0.215404</v>
       </c>
       <c r="E9" t="n">
-        <v>0.327063</v>
+        <v>0.328836</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238572</v>
+        <v>0.238074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.303043</v>
+        <v>0.305409</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214506</v>
+        <v>0.214724</v>
       </c>
       <c r="E10" t="n">
-        <v>0.32593</v>
+        <v>0.327248</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.231907</v>
+        <v>0.235257</v>
       </c>
       <c r="C11" t="n">
-        <v>0.303313</v>
+        <v>0.306395</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213967</v>
+        <v>0.213707</v>
       </c>
       <c r="E11" t="n">
-        <v>0.326402</v>
+        <v>0.326562</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229313</v>
+        <v>0.229093</v>
       </c>
       <c r="C12" t="n">
-        <v>0.30512</v>
+        <v>0.307082</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212853</v>
+        <v>0.212894</v>
       </c>
       <c r="E12" t="n">
-        <v>0.324376</v>
+        <v>0.32625</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22636</v>
+        <v>0.225376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.303512</v>
+        <v>0.307159</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212111</v>
+        <v>0.212034</v>
       </c>
       <c r="E13" t="n">
-        <v>0.324074</v>
+        <v>0.325442</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.221243</v>
+        <v>0.22062</v>
       </c>
       <c r="C14" t="n">
-        <v>0.306409</v>
+        <v>0.308177</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211552</v>
+        <v>0.211366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.322079</v>
+        <v>0.323847</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215728</v>
+        <v>0.215931</v>
       </c>
       <c r="C15" t="n">
-        <v>0.306279</v>
+        <v>0.309839</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211143</v>
+        <v>0.211301</v>
       </c>
       <c r="E15" t="n">
-        <v>0.321097</v>
+        <v>0.323035</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.207937</v>
+        <v>0.208354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.308271</v>
+        <v>0.311307</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209579</v>
+        <v>0.20915</v>
       </c>
       <c r="E16" t="n">
-        <v>0.319647</v>
+        <v>0.321236</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.205353</v>
+        <v>0.20548</v>
       </c>
       <c r="C17" t="n">
-        <v>0.306775</v>
+        <v>0.309538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209087</v>
+        <v>0.208946</v>
       </c>
       <c r="E17" t="n">
-        <v>0.320161</v>
+        <v>0.321968</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200606</v>
+        <v>0.200624</v>
       </c>
       <c r="C18" t="n">
-        <v>0.308382</v>
+        <v>0.310439</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208525</v>
+        <v>0.208467</v>
       </c>
       <c r="E18" t="n">
-        <v>0.318331</v>
+        <v>0.320212</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194927</v>
+        <v>0.195125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.310954</v>
+        <v>0.312323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207664</v>
+        <v>0.207697</v>
       </c>
       <c r="E19" t="n">
-        <v>0.317347</v>
+        <v>0.319068</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189766</v>
+        <v>0.189525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.310386</v>
+        <v>0.312722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206913</v>
+        <v>0.206828</v>
       </c>
       <c r="E20" t="n">
-        <v>0.317496</v>
+        <v>0.319184</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183253</v>
+        <v>0.183348</v>
       </c>
       <c r="C21" t="n">
-        <v>0.303976</v>
+        <v>0.307318</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206271</v>
+        <v>0.206267</v>
       </c>
       <c r="E21" t="n">
-        <v>0.316566</v>
+        <v>0.318274</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175793</v>
+        <v>0.175912</v>
       </c>
       <c r="C22" t="n">
-        <v>0.304591</v>
+        <v>0.306938</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205674</v>
+        <v>0.205802</v>
       </c>
       <c r="E22" t="n">
-        <v>0.316011</v>
+        <v>0.31748</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167421</v>
+        <v>0.167304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.303846</v>
+        <v>0.306326</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223007</v>
+        <v>0.223023</v>
       </c>
       <c r="E23" t="n">
-        <v>0.329433</v>
+        <v>0.330995</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.242697</v>
+        <v>0.241458</v>
       </c>
       <c r="C24" t="n">
-        <v>0.304766</v>
+        <v>0.307545</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219779</v>
+        <v>0.220162</v>
       </c>
       <c r="E24" t="n">
-        <v>0.327683</v>
+        <v>0.329317</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.23745</v>
+        <v>0.236253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.306542</v>
+        <v>0.310724</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218995</v>
+        <v>0.218568</v>
       </c>
       <c r="E25" t="n">
-        <v>0.327012</v>
+        <v>0.328355</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.232227</v>
+        <v>0.231925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.308284</v>
+        <v>0.311121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217434</v>
+        <v>0.217278</v>
       </c>
       <c r="E26" t="n">
-        <v>0.326203</v>
+        <v>0.327788</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227459</v>
+        <v>0.227415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.308106</v>
+        <v>0.311362</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216091</v>
+        <v>0.216118</v>
       </c>
       <c r="E27" t="n">
-        <v>0.32488</v>
+        <v>0.326659</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223855</v>
+        <v>0.223985</v>
       </c>
       <c r="C28" t="n">
-        <v>0.307448</v>
+        <v>0.308965</v>
       </c>
       <c r="D28" t="n">
-        <v>0.215166</v>
+        <v>0.214763</v>
       </c>
       <c r="E28" t="n">
-        <v>0.323478</v>
+        <v>0.324963</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218384</v>
+        <v>0.218989</v>
       </c>
       <c r="C29" t="n">
-        <v>0.308446</v>
+        <v>0.310173</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21398</v>
+        <v>0.213712</v>
       </c>
       <c r="E29" t="n">
-        <v>0.322639</v>
+        <v>0.324045</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214555</v>
+        <v>0.214378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.308736</v>
+        <v>0.311699</v>
       </c>
       <c r="D30" t="n">
-        <v>0.212729</v>
+        <v>0.212518</v>
       </c>
       <c r="E30" t="n">
-        <v>0.322063</v>
+        <v>0.323504</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205503</v>
+        <v>0.207503</v>
       </c>
       <c r="C31" t="n">
-        <v>0.310798</v>
+        <v>0.311862</v>
       </c>
       <c r="D31" t="n">
-        <v>0.21154</v>
+        <v>0.211319</v>
       </c>
       <c r="E31" t="n">
-        <v>0.320575</v>
+        <v>0.322352</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199499</v>
+        <v>0.19953</v>
       </c>
       <c r="C32" t="n">
-        <v>0.311777</v>
+        <v>0.312815</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2104</v>
+        <v>0.210327</v>
       </c>
       <c r="E32" t="n">
-        <v>0.319546</v>
+        <v>0.321182</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.193832</v>
+        <v>0.194086</v>
       </c>
       <c r="C33" t="n">
-        <v>0.312629</v>
+        <v>0.314708</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209695</v>
+        <v>0.209665</v>
       </c>
       <c r="E33" t="n">
-        <v>0.319204</v>
+        <v>0.320807</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191895</v>
+        <v>0.191718</v>
       </c>
       <c r="C34" t="n">
-        <v>0.31337</v>
+        <v>0.315698</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208654</v>
+        <v>0.208584</v>
       </c>
       <c r="E34" t="n">
-        <v>0.318536</v>
+        <v>0.320386</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.181526</v>
+        <v>0.186065</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308344</v>
+        <v>0.311707</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207722</v>
+        <v>0.207718</v>
       </c>
       <c r="E35" t="n">
-        <v>0.316693</v>
+        <v>0.318617</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.179764</v>
+        <v>0.180172</v>
       </c>
       <c r="C36" t="n">
-        <v>0.308359</v>
+        <v>0.311115</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206834</v>
+        <v>0.206923</v>
       </c>
       <c r="E36" t="n">
-        <v>0.316397</v>
+        <v>0.318208</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.166107</v>
+        <v>0.172078</v>
       </c>
       <c r="C37" t="n">
-        <v>0.309286</v>
+        <v>0.311853</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224133</v>
+        <v>0.223321</v>
       </c>
       <c r="E37" t="n">
-        <v>0.332378</v>
+        <v>0.334167</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241245</v>
+        <v>0.243776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.309185</v>
+        <v>0.311846</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221595</v>
+        <v>0.221142</v>
       </c>
       <c r="E38" t="n">
-        <v>0.331101</v>
+        <v>0.332586</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237738</v>
+        <v>0.237983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.31021</v>
+        <v>0.313389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219927</v>
+        <v>0.21936</v>
       </c>
       <c r="E39" t="n">
-        <v>0.32967</v>
+        <v>0.330995</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232831</v>
+        <v>0.23497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.307561</v>
+        <v>0.310314</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217936</v>
+        <v>0.217841</v>
       </c>
       <c r="E40" t="n">
-        <v>0.328073</v>
+        <v>0.329846</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230886</v>
+        <v>0.230322</v>
       </c>
       <c r="C41" t="n">
-        <v>0.307596</v>
+        <v>0.310752</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216705</v>
+        <v>0.216559</v>
       </c>
       <c r="E41" t="n">
-        <v>0.327061</v>
+        <v>0.328375</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225365</v>
+        <v>0.225755</v>
       </c>
       <c r="C42" t="n">
-        <v>0.309683</v>
+        <v>0.311694</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215375</v>
+        <v>0.215294</v>
       </c>
       <c r="E42" t="n">
-        <v>0.326133</v>
+        <v>0.328155</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218868</v>
+        <v>0.218669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.309349</v>
+        <v>0.311747</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214133</v>
+        <v>0.214267</v>
       </c>
       <c r="E43" t="n">
-        <v>0.324544</v>
+        <v>0.326093</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21412</v>
+        <v>0.213726</v>
       </c>
       <c r="C44" t="n">
-        <v>0.31202</v>
+        <v>0.314888</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213177</v>
+        <v>0.213046</v>
       </c>
       <c r="E44" t="n">
-        <v>0.32407</v>
+        <v>0.32544</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209147</v>
+        <v>0.209545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.313316</v>
+        <v>0.315362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211905</v>
+        <v>0.21201</v>
       </c>
       <c r="E45" t="n">
-        <v>0.32328</v>
+        <v>0.324574</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.204714</v>
+        <v>0.202016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.31412</v>
+        <v>0.316436</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210941</v>
+        <v>0.211016</v>
       </c>
       <c r="E46" t="n">
-        <v>0.322203</v>
+        <v>0.323673</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +4943,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.199261</v>
+        <v>0.1963</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313468</v>
+        <v>0.31718</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210018</v>
+        <v>0.210047</v>
       </c>
       <c r="E47" t="n">
-        <v>0.321516</v>
+        <v>0.322817</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194121</v>
+        <v>0.194573</v>
       </c>
       <c r="C48" t="n">
-        <v>0.319359</v>
+        <v>0.31942</v>
       </c>
       <c r="D48" t="n">
-        <v>0.208986</v>
+        <v>0.209115</v>
       </c>
       <c r="E48" t="n">
-        <v>0.320385</v>
+        <v>0.321857</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187837</v>
+        <v>0.183635</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31985</v>
+        <v>0.320899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208152</v>
+        <v>0.208156</v>
       </c>
       <c r="E49" t="n">
-        <v>0.319848</v>
+        <v>0.321055</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.182357</v>
+        <v>0.183159</v>
       </c>
       <c r="C50" t="n">
-        <v>0.31324</v>
+        <v>0.315278</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207295</v>
+        <v>0.207243</v>
       </c>
       <c r="E50" t="n">
-        <v>0.318735</v>
+        <v>0.320304</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174486</v>
+        <v>0.174935</v>
       </c>
       <c r="C51" t="n">
-        <v>0.313888</v>
+        <v>0.314854</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223685</v>
+        <v>0.222947</v>
       </c>
       <c r="E51" t="n">
-        <v>0.333263</v>
+        <v>0.334787</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165318</v>
+        <v>0.165541</v>
       </c>
       <c r="C52" t="n">
-        <v>0.313473</v>
+        <v>0.314702</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221604</v>
+        <v>0.221323</v>
       </c>
       <c r="E52" t="n">
-        <v>0.331212</v>
+        <v>0.332993</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240473</v>
+        <v>0.240821</v>
       </c>
       <c r="C53" t="n">
-        <v>0.314453</v>
+        <v>0.31503</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220055</v>
+        <v>0.219905</v>
       </c>
       <c r="E53" t="n">
-        <v>0.329516</v>
+        <v>0.331453</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236477</v>
+        <v>0.236666</v>
       </c>
       <c r="C54" t="n">
-        <v>0.317504</v>
+        <v>0.319146</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218278</v>
+        <v>0.218274</v>
       </c>
       <c r="E54" t="n">
-        <v>0.32889</v>
+        <v>0.330505</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232023</v>
+        <v>0.232128</v>
       </c>
       <c r="C55" t="n">
-        <v>0.318745</v>
+        <v>0.319661</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216985</v>
+        <v>0.216896</v>
       </c>
       <c r="E55" t="n">
-        <v>0.326946</v>
+        <v>0.328438</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.227041</v>
+        <v>0.226792</v>
       </c>
       <c r="C56" t="n">
-        <v>0.319787</v>
+        <v>0.320844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215633</v>
+        <v>0.215628</v>
       </c>
       <c r="E56" t="n">
-        <v>0.325772</v>
+        <v>0.327317</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.221433</v>
+        <v>0.22166</v>
       </c>
       <c r="C57" t="n">
-        <v>0.320325</v>
+        <v>0.321964</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214444</v>
+        <v>0.214463</v>
       </c>
       <c r="E57" t="n">
-        <v>0.324636</v>
+        <v>0.32619</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216342</v>
+        <v>0.216651</v>
       </c>
       <c r="C58" t="n">
-        <v>0.319916</v>
+        <v>0.320685</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213456</v>
+        <v>0.213326</v>
       </c>
       <c r="E58" t="n">
-        <v>0.323317</v>
+        <v>0.32506</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.211045</v>
+        <v>0.208443</v>
       </c>
       <c r="C59" t="n">
-        <v>0.322188</v>
+        <v>0.322273</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212312</v>
+        <v>0.212261</v>
       </c>
       <c r="E59" t="n">
-        <v>0.322282</v>
+        <v>0.323842</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.205738</v>
+        <v>0.206149</v>
       </c>
       <c r="C60" t="n">
-        <v>0.324247</v>
+        <v>0.324435</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211243</v>
+        <v>0.211242</v>
       </c>
       <c r="E60" t="n">
-        <v>0.321097</v>
+        <v>0.322901</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.200918</v>
+        <v>0.199886</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326149</v>
+        <v>0.326478</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210256</v>
+        <v>0.210232</v>
       </c>
       <c r="E61" t="n">
-        <v>0.320514</v>
+        <v>0.322157</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.195323</v>
+        <v>0.19552</v>
       </c>
       <c r="C62" t="n">
-        <v>0.328457</v>
+        <v>0.329632</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209191</v>
+        <v>0.209263</v>
       </c>
       <c r="E62" t="n">
-        <v>0.319378</v>
+        <v>0.321127</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.190266</v>
+        <v>0.18582</v>
       </c>
       <c r="C63" t="n">
-        <v>0.333374</v>
+        <v>0.33287</v>
       </c>
       <c r="D63" t="n">
-        <v>0.208277</v>
+        <v>0.208293</v>
       </c>
       <c r="E63" t="n">
-        <v>0.318498</v>
+        <v>0.32028</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.184555</v>
+        <v>0.179734</v>
       </c>
       <c r="C64" t="n">
-        <v>0.377358</v>
+        <v>0.366733</v>
       </c>
       <c r="D64" t="n">
-        <v>0.207303</v>
+        <v>0.207295</v>
       </c>
       <c r="E64" t="n">
-        <v>0.317603</v>
+        <v>0.319576</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17667</v>
+        <v>0.17661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.379746</v>
+        <v>0.36818</v>
       </c>
       <c r="D65" t="n">
-        <v>0.206568</v>
+        <v>0.206618</v>
       </c>
       <c r="E65" t="n">
-        <v>0.316871</v>
+        <v>0.318856</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168021</v>
+        <v>0.168253</v>
       </c>
       <c r="C66" t="n">
-        <v>0.38349</v>
+        <v>0.373131</v>
       </c>
       <c r="D66" t="n">
-        <v>0.232251</v>
+        <v>0.22439</v>
       </c>
       <c r="E66" t="n">
-        <v>0.33277</v>
+        <v>0.334136</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240413</v>
+        <v>0.240789</v>
       </c>
       <c r="C67" t="n">
-        <v>0.384628</v>
+        <v>0.37799</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227323</v>
+        <v>0.220835</v>
       </c>
       <c r="E67" t="n">
-        <v>0.331501</v>
+        <v>0.332748</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236533</v>
+        <v>0.236769</v>
       </c>
       <c r="C68" t="n">
-        <v>0.375965</v>
+        <v>0.367379</v>
       </c>
       <c r="D68" t="n">
-        <v>0.22683</v>
+        <v>0.219667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.32985</v>
+        <v>0.331562</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233638</v>
+        <v>0.233733</v>
       </c>
       <c r="C69" t="n">
-        <v>0.386957</v>
+        <v>0.377347</v>
       </c>
       <c r="D69" t="n">
-        <v>0.224384</v>
+        <v>0.217706</v>
       </c>
       <c r="E69" t="n">
-        <v>0.32864</v>
+        <v>0.330033</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226938</v>
+        <v>0.227088</v>
       </c>
       <c r="C70" t="n">
-        <v>0.374939</v>
+        <v>0.368672</v>
       </c>
       <c r="D70" t="n">
-        <v>0.220822</v>
+        <v>0.216345</v>
       </c>
       <c r="E70" t="n">
-        <v>0.327171</v>
+        <v>0.328336</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221179</v>
+        <v>0.221299</v>
       </c>
       <c r="C71" t="n">
-        <v>0.375722</v>
+        <v>0.367163</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217914</v>
+        <v>0.21513</v>
       </c>
       <c r="E71" t="n">
-        <v>0.325992</v>
+        <v>0.327363</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217881</v>
+        <v>0.217692</v>
       </c>
       <c r="C72" t="n">
-        <v>0.387819</v>
+        <v>0.37708</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214494</v>
+        <v>0.213894</v>
       </c>
       <c r="E72" t="n">
-        <v>0.325153</v>
+        <v>0.326503</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212765</v>
+        <v>0.212783</v>
       </c>
       <c r="C73" t="n">
-        <v>0.385232</v>
+        <v>0.37685</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213071</v>
+        <v>0.212707</v>
       </c>
       <c r="E73" t="n">
-        <v>0.324095</v>
+        <v>0.325456</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204523</v>
+        <v>0.204371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.385476</v>
+        <v>0.376839</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21181</v>
+        <v>0.211657</v>
       </c>
       <c r="E74" t="n">
-        <v>0.323239</v>
+        <v>0.324557</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.201529</v>
+        <v>0.202086</v>
       </c>
       <c r="C75" t="n">
-        <v>0.384739</v>
+        <v>0.376803</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210688</v>
+        <v>0.210746</v>
       </c>
       <c r="E75" t="n">
-        <v>0.322242</v>
+        <v>0.323741</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.192972</v>
+        <v>0.193184</v>
       </c>
       <c r="C76" t="n">
-        <v>0.386363</v>
+        <v>0.379543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209742</v>
+        <v>0.209735</v>
       </c>
       <c r="E76" t="n">
-        <v>0.321395</v>
+        <v>0.322791</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.186938</v>
+        <v>0.187017</v>
       </c>
       <c r="C77" t="n">
-        <v>0.385511</v>
+        <v>0.377689</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208692</v>
+        <v>0.208676</v>
       </c>
       <c r="E77" t="n">
-        <v>0.320448</v>
+        <v>0.32193</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180518</v>
+        <v>0.180623</v>
       </c>
       <c r="C78" t="n">
-        <v>0.449581</v>
+        <v>0.432984</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207776</v>
+        <v>0.207751</v>
       </c>
       <c r="E78" t="n">
-        <v>0.319672</v>
+        <v>0.321015</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.17367</v>
+        <v>0.173167</v>
       </c>
       <c r="C79" t="n">
-        <v>0.444362</v>
+        <v>0.423639</v>
       </c>
       <c r="D79" t="n">
-        <v>0.207137</v>
+        <v>0.207114</v>
       </c>
       <c r="E79" t="n">
-        <v>0.318756</v>
+        <v>0.320211</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164814</v>
+        <v>0.164896</v>
       </c>
       <c r="C80" t="n">
-        <v>0.430123</v>
+        <v>0.412971</v>
       </c>
       <c r="D80" t="n">
-        <v>0.228094</v>
+        <v>0.226761</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3327</v>
+        <v>0.334356</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241257</v>
+        <v>0.241232</v>
       </c>
       <c r="C81" t="n">
-        <v>0.431731</v>
+        <v>0.412779</v>
       </c>
       <c r="D81" t="n">
-        <v>0.224881</v>
+        <v>0.223298</v>
       </c>
       <c r="E81" t="n">
-        <v>0.331154</v>
+        <v>0.332578</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237661</v>
+        <v>0.237562</v>
       </c>
       <c r="C82" t="n">
-        <v>0.442151</v>
+        <v>0.423938</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222606</v>
+        <v>0.220639</v>
       </c>
       <c r="E82" t="n">
-        <v>0.330035</v>
+        <v>0.331469</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233302</v>
+        <v>0.233264</v>
       </c>
       <c r="C83" t="n">
-        <v>0.433787</v>
+        <v>0.416875</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221695</v>
+        <v>0.219857</v>
       </c>
       <c r="E83" t="n">
-        <v>0.328291</v>
+        <v>0.329944</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228543</v>
+        <v>0.228489</v>
       </c>
       <c r="C84" t="n">
-        <v>0.429935</v>
+        <v>0.41415</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219068</v>
+        <v>0.217522</v>
       </c>
       <c r="E84" t="n">
-        <v>0.326932</v>
+        <v>0.328522</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224561</v>
+        <v>0.224651</v>
       </c>
       <c r="C85" t="n">
-        <v>0.425873</v>
+        <v>0.409852</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217223</v>
+        <v>0.216246</v>
       </c>
       <c r="E85" t="n">
-        <v>0.325712</v>
+        <v>0.327092</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217283</v>
+        <v>0.217458</v>
       </c>
       <c r="C86" t="n">
-        <v>0.422955</v>
+        <v>0.408747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215767</v>
+        <v>0.214988</v>
       </c>
       <c r="E86" t="n">
-        <v>0.324492</v>
+        <v>0.326176</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211469</v>
+        <v>0.211589</v>
       </c>
       <c r="C87" t="n">
-        <v>0.407602</v>
+        <v>0.394615</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213933</v>
+        <v>0.213459</v>
       </c>
       <c r="E87" t="n">
-        <v>0.323196</v>
+        <v>0.324699</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206199</v>
+        <v>0.206183</v>
       </c>
       <c r="C88" t="n">
-        <v>0.403231</v>
+        <v>0.390908</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212396</v>
+        <v>0.212204</v>
       </c>
       <c r="E88" t="n">
-        <v>0.322076</v>
+        <v>0.323802</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203587</v>
+        <v>0.203346</v>
       </c>
       <c r="C89" t="n">
-        <v>0.398124</v>
+        <v>0.387511</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211177</v>
+        <v>0.211041</v>
       </c>
       <c r="E89" t="n">
-        <v>0.321094</v>
+        <v>0.322807</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194692</v>
+        <v>0.194608</v>
       </c>
       <c r="C90" t="n">
-        <v>0.398977</v>
+        <v>0.387678</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210207</v>
+        <v>0.210153</v>
       </c>
       <c r="E90" t="n">
-        <v>0.320125</v>
+        <v>0.321895</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18852</v>
+        <v>0.188818</v>
       </c>
       <c r="C91" t="n">
-        <v>0.394111</v>
+        <v>0.385289</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20919</v>
+        <v>0.209188</v>
       </c>
       <c r="E91" t="n">
-        <v>0.319238</v>
+        <v>0.320935</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187083</v>
+        <v>0.187217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.451859</v>
+        <v>0.432414</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208319</v>
+        <v>0.208262</v>
       </c>
       <c r="E92" t="n">
-        <v>0.318311</v>
+        <v>0.320007</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180206</v>
+        <v>0.180054</v>
       </c>
       <c r="C93" t="n">
-        <v>0.448299</v>
+        <v>0.429723</v>
       </c>
       <c r="D93" t="n">
-        <v>0.207441</v>
+        <v>0.207419</v>
       </c>
       <c r="E93" t="n">
-        <v>0.317618</v>
+        <v>0.319298</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172693</v>
+        <v>0.172801</v>
       </c>
       <c r="C94" t="n">
-        <v>0.452736</v>
+        <v>0.433002</v>
       </c>
       <c r="D94" t="n">
-        <v>0.227898</v>
+        <v>0.226132</v>
       </c>
       <c r="E94" t="n">
-        <v>0.335893</v>
+        <v>0.337056</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.243907</v>
+        <v>0.244098</v>
       </c>
       <c r="C95" t="n">
-        <v>0.452444</v>
+        <v>0.435032</v>
       </c>
       <c r="D95" t="n">
-        <v>0.225114</v>
+        <v>0.22398</v>
       </c>
       <c r="E95" t="n">
-        <v>0.332175</v>
+        <v>0.335873</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239804</v>
+        <v>0.239656</v>
       </c>
       <c r="C96" t="n">
-        <v>0.446868</v>
+        <v>0.428052</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222838</v>
+        <v>0.221496</v>
       </c>
       <c r="E96" t="n">
-        <v>0.330436</v>
+        <v>0.332979</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234846</v>
+        <v>0.235755</v>
       </c>
       <c r="C97" t="n">
-        <v>0.416666</v>
+        <v>0.402244</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2208</v>
+        <v>0.219201</v>
       </c>
       <c r="E97" t="n">
-        <v>0.329072</v>
+        <v>0.330399</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.230011</v>
+        <v>0.22991</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409414</v>
+        <v>0.395809</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219145</v>
+        <v>0.217848</v>
       </c>
       <c r="E98" t="n">
-        <v>0.327639</v>
+        <v>0.329176</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224858</v>
+        <v>0.224421</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411466</v>
+        <v>0.394418</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217445</v>
+        <v>0.216377</v>
       </c>
       <c r="E99" t="n">
-        <v>0.326595</v>
+        <v>0.326592</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219081</v>
+        <v>0.219496</v>
       </c>
       <c r="C100" t="n">
-        <v>0.40744</v>
+        <v>0.390644</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214716</v>
+        <v>0.214718</v>
       </c>
       <c r="E100" t="n">
-        <v>0.32534</v>
+        <v>0.3254</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213485</v>
+        <v>0.213311</v>
       </c>
       <c r="C101" t="n">
-        <v>0.414147</v>
+        <v>0.398754</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213839</v>
+        <v>0.213266</v>
       </c>
       <c r="E101" t="n">
-        <v>0.324523</v>
+        <v>0.324628</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.21006</v>
+        <v>0.209756</v>
       </c>
       <c r="C102" t="n">
-        <v>0.412668</v>
+        <v>0.396472</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212796</v>
+        <v>0.212704</v>
       </c>
       <c r="E102" t="n">
-        <v>0.323607</v>
+        <v>0.323666</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204857</v>
+        <v>0.204582</v>
       </c>
       <c r="C103" t="n">
-        <v>0.408768</v>
+        <v>0.393029</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211459</v>
+        <v>0.211373</v>
       </c>
       <c r="E103" t="n">
-        <v>0.322525</v>
+        <v>0.322662</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199616</v>
+        <v>0.199289</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405839</v>
+        <v>0.390853</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210606</v>
+        <v>0.210551</v>
       </c>
       <c r="E104" t="n">
-        <v>0.321566</v>
+        <v>0.321922</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194221</v>
+        <v>0.194026</v>
       </c>
       <c r="C105" t="n">
-        <v>0.402283</v>
+        <v>0.387876</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209401</v>
+        <v>0.20933</v>
       </c>
       <c r="E105" t="n">
-        <v>0.320845</v>
+        <v>0.321164</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.188461</v>
+        <v>0.18823</v>
       </c>
       <c r="C106" t="n">
-        <v>0.39704</v>
+        <v>0.383552</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208452</v>
+        <v>0.20841</v>
       </c>
       <c r="E106" t="n">
-        <v>0.320008</v>
+        <v>0.320191</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.177488</v>
+        <v>0.18161</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421715</v>
+        <v>0.401152</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207826</v>
+        <v>0.207813</v>
       </c>
       <c r="E107" t="n">
-        <v>0.318886</v>
+        <v>0.319137</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.168984</v>
+        <v>0.168736</v>
       </c>
       <c r="C108" t="n">
-        <v>0.424682</v>
+        <v>0.405231</v>
       </c>
       <c r="D108" t="n">
-        <v>0.227485</v>
+        <v>0.226426</v>
       </c>
       <c r="E108" t="n">
-        <v>0.333602</v>
+        <v>0.333564</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165552</v>
+        <v>0.165218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.405273</v>
+        <v>0.389114</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224683</v>
+        <v>0.224001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.331421</v>
+        <v>0.331343</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239552</v>
+        <v>0.239599</v>
       </c>
       <c r="C110" t="n">
-        <v>0.400649</v>
+        <v>0.384258</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222339</v>
+        <v>0.221525</v>
       </c>
       <c r="E110" t="n">
-        <v>0.329949</v>
+        <v>0.329988</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235444</v>
+        <v>0.235398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.420195</v>
+        <v>0.404345</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220368</v>
+        <v>0.219886</v>
       </c>
       <c r="E111" t="n">
-        <v>0.328935</v>
+        <v>0.32874</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23071</v>
+        <v>0.230715</v>
       </c>
       <c r="C112" t="n">
-        <v>0.41547</v>
+        <v>0.39766</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218666</v>
+        <v>0.21821</v>
       </c>
       <c r="E112" t="n">
-        <v>0.327575</v>
+        <v>0.327576</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225543</v>
+        <v>0.225381</v>
       </c>
       <c r="C113" t="n">
-        <v>0.411476</v>
+        <v>0.396137</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216881</v>
+        <v>0.216632</v>
       </c>
       <c r="E113" t="n">
-        <v>0.326186</v>
+        <v>0.326125</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220048</v>
+        <v>0.219969</v>
       </c>
       <c r="C114" t="n">
-        <v>0.406771</v>
+        <v>0.390292</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215234</v>
+        <v>0.214981</v>
       </c>
       <c r="E114" t="n">
-        <v>0.325083</v>
+        <v>0.325017</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21648</v>
+        <v>0.216277</v>
       </c>
       <c r="C115" t="n">
-        <v>0.385934</v>
+        <v>0.373058</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214082</v>
+        <v>0.213982</v>
       </c>
       <c r="E115" t="n">
-        <v>0.32345</v>
+        <v>0.323536</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211138</v>
+        <v>0.210806</v>
       </c>
       <c r="C116" t="n">
-        <v>0.381748</v>
+        <v>0.36893</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212847</v>
+        <v>0.212755</v>
       </c>
       <c r="E116" t="n">
-        <v>0.322476</v>
+        <v>0.32251</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205923</v>
+        <v>0.205612</v>
       </c>
       <c r="C117" t="n">
-        <v>0.378606</v>
+        <v>0.367071</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211777</v>
+        <v>0.211667</v>
       </c>
       <c r="E117" t="n">
-        <v>0.321483</v>
+        <v>0.321495</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200671</v>
+        <v>0.200229</v>
       </c>
       <c r="C118" t="n">
-        <v>0.375736</v>
+        <v>0.364054</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210741</v>
+        <v>0.210615</v>
       </c>
       <c r="E118" t="n">
-        <v>0.320519</v>
+        <v>0.320618</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.195305</v>
+        <v>0.19486</v>
       </c>
       <c r="C119" t="n">
-        <v>0.373352</v>
+        <v>0.363096</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209765</v>
+        <v>0.209702</v>
       </c>
       <c r="E119" t="n">
-        <v>0.319563</v>
+        <v>0.319617</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189387</v>
+        <v>0.189466</v>
       </c>
       <c r="C120" t="n">
-        <v>0.371283</v>
+        <v>0.360341</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208798</v>
+        <v>0.208781</v>
       </c>
       <c r="E120" t="n">
-        <v>0.318661</v>
+        <v>0.3189</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183763</v>
+        <v>0.183279</v>
       </c>
       <c r="C121" t="n">
-        <v>0.443203</v>
+        <v>0.421841</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208003</v>
+        <v>0.207935</v>
       </c>
       <c r="E121" t="n">
-        <v>0.317882</v>
+        <v>0.318062</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.17641</v>
+        <v>0.176061</v>
       </c>
       <c r="C122" t="n">
-        <v>0.437252</v>
+        <v>0.41674</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207153</v>
+        <v>0.207112</v>
       </c>
       <c r="E122" t="n">
-        <v>0.317104</v>
+        <v>0.317345</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167351</v>
+        <v>0.167489</v>
       </c>
       <c r="C123" t="n">
-        <v>0.429907</v>
+        <v>0.410544</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22465</v>
+        <v>0.224137</v>
       </c>
       <c r="E123" t="n">
-        <v>0.332041</v>
+        <v>0.331926</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.241302</v>
+        <v>0.24048</v>
       </c>
       <c r="C124" t="n">
-        <v>0.425306</v>
+        <v>0.406287</v>
       </c>
       <c r="D124" t="n">
-        <v>0.222317</v>
+        <v>0.221864</v>
       </c>
       <c r="E124" t="n">
-        <v>0.33022</v>
+        <v>0.330277</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23772</v>
+        <v>0.237764</v>
       </c>
       <c r="C125" t="n">
-        <v>0.433682</v>
+        <v>0.413734</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220222</v>
+        <v>0.220014</v>
       </c>
       <c r="E125" t="n">
-        <v>0.329718</v>
+        <v>0.3299</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231785</v>
+        <v>0.231731</v>
       </c>
       <c r="C126" t="n">
-        <v>0.43766</v>
+        <v>0.418197</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218507</v>
+        <v>0.218357</v>
       </c>
       <c r="E126" t="n">
-        <v>0.32847</v>
+        <v>0.328581</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226695</v>
+        <v>0.226579</v>
       </c>
       <c r="C127" t="n">
-        <v>0.408295</v>
+        <v>0.391652</v>
       </c>
       <c r="D127" t="n">
-        <v>0.217023</v>
+        <v>0.216866</v>
       </c>
       <c r="E127" t="n">
-        <v>0.326507</v>
+        <v>0.326631</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221287</v>
+        <v>0.221156</v>
       </c>
       <c r="C128" t="n">
-        <v>0.405186</v>
+        <v>0.388814</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21561</v>
+        <v>0.215529</v>
       </c>
       <c r="E128" t="n">
-        <v>0.325454</v>
+        <v>0.325594</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217382</v>
+        <v>0.217289</v>
       </c>
       <c r="C129" t="n">
-        <v>0.421451</v>
+        <v>0.403343</v>
       </c>
       <c r="D129" t="n">
-        <v>0.214215</v>
+        <v>0.214261</v>
       </c>
       <c r="E129" t="n">
-        <v>0.325044</v>
+        <v>0.325319</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.211816</v>
+        <v>0.21188</v>
       </c>
       <c r="C130" t="n">
-        <v>0.415037</v>
+        <v>0.397869</v>
       </c>
       <c r="D130" t="n">
-        <v>0.213062</v>
+        <v>0.212996</v>
       </c>
       <c r="E130" t="n">
-        <v>0.324044</v>
+        <v>0.324172</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20678</v>
+        <v>0.206682</v>
       </c>
       <c r="C131" t="n">
-        <v>0.411884</v>
+        <v>0.397018</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211918</v>
+        <v>0.211903</v>
       </c>
       <c r="E131" t="n">
-        <v>0.323</v>
+        <v>0.323088</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.201538</v>
+        <v>0.20103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.407912</v>
+        <v>0.392092</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210931</v>
+        <v>0.210828</v>
       </c>
       <c r="E132" t="n">
-        <v>0.321996</v>
+        <v>0.322291</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196264</v>
+        <v>0.196028</v>
       </c>
       <c r="C133" t="n">
-        <v>0.403905</v>
+        <v>0.389973</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209902</v>
+        <v>0.209901</v>
       </c>
       <c r="E133" t="n">
-        <v>0.321169</v>
+        <v>0.321354</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190512</v>
+        <v>0.190626</v>
       </c>
       <c r="C134" t="n">
-        <v>0.401013</v>
+        <v>0.386408</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208873</v>
+        <v>0.208877</v>
       </c>
       <c r="E134" t="n">
-        <v>0.320284</v>
+        <v>0.32055</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.185028</v>
+        <v>0.184635</v>
       </c>
       <c r="C135" t="n">
-        <v>0.472153</v>
+        <v>0.447226</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208065</v>
+        <v>0.208006</v>
       </c>
       <c r="E135" t="n">
-        <v>0.319522</v>
+        <v>0.319696</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.177952</v>
+        <v>0.17787</v>
       </c>
       <c r="C136" t="n">
-        <v>0.466609</v>
+        <v>0.442338</v>
       </c>
       <c r="D136" t="n">
-        <v>0.207258</v>
+        <v>0.20725</v>
       </c>
       <c r="E136" t="n">
-        <v>0.318652</v>
+        <v>0.318914</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169411</v>
+        <v>0.169443</v>
       </c>
       <c r="C137" t="n">
-        <v>0.436788</v>
+        <v>0.416281</v>
       </c>
       <c r="D137" t="n">
-        <v>0.225127</v>
+        <v>0.224607</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332223</v>
+        <v>0.332103</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.24115</v>
+        <v>0.241065</v>
       </c>
       <c r="C138" t="n">
-        <v>0.455853</v>
+        <v>0.432476</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222634</v>
+        <v>0.222289</v>
       </c>
       <c r="E138" t="n">
-        <v>0.331503</v>
+        <v>0.331662</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238731</v>
+        <v>0.238841</v>
       </c>
       <c r="C139" t="n">
-        <v>0.436906</v>
+        <v>0.416248</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220608</v>
+        <v>0.220391</v>
       </c>
       <c r="E139" t="n">
-        <v>0.329345</v>
+        <v>0.3293</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232702</v>
+        <v>0.232631</v>
       </c>
       <c r="C140" t="n">
-        <v>0.442605</v>
+        <v>0.422661</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218864</v>
+        <v>0.218672</v>
       </c>
       <c r="E140" t="n">
-        <v>0.328597</v>
+        <v>0.32857</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227773</v>
+        <v>0.227645</v>
       </c>
       <c r="C141" t="n">
-        <v>0.43707</v>
+        <v>0.417893</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217245</v>
+        <v>0.217126</v>
       </c>
       <c r="E141" t="n">
-        <v>0.327197</v>
+        <v>0.327182</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222419</v>
+        <v>0.222315</v>
       </c>
       <c r="C142" t="n">
-        <v>0.431264</v>
+        <v>0.412365</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215786</v>
+        <v>0.215706</v>
       </c>
       <c r="E142" t="n">
-        <v>0.325849</v>
+        <v>0.325942</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216886</v>
+        <v>0.216664</v>
       </c>
       <c r="C143" t="n">
-        <v>0.425228</v>
+        <v>0.407645</v>
       </c>
       <c r="D143" t="n">
-        <v>0.214479</v>
+        <v>0.21438</v>
       </c>
       <c r="E143" t="n">
-        <v>0.324691</v>
+        <v>0.324676</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -4140,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4178,16 +4178,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.190916</v>
+        <v>0.198323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30603</v>
+        <v>0.316734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195742</v>
+        <v>0.309436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.315412</v>
+        <v>0.19598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.316528</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4198,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.188889</v>
+        <v>0.19418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.308278</v>
+        <v>0.316219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196614</v>
+        <v>0.312864</v>
       </c>
       <c r="E3" t="n">
-        <v>0.316888</v>
+        <v>0.196602</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.317642</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4218,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186762</v>
+        <v>0.188429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.306649</v>
+        <v>0.312874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198054</v>
+        <v>0.320307</v>
       </c>
       <c r="E4" t="n">
-        <v>0.315218</v>
+        <v>0.197004</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.316625</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4238,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.179041</v>
+        <v>0.182579</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307453</v>
+        <v>0.302618</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197057</v>
+        <v>0.321661</v>
       </c>
       <c r="E5" t="n">
-        <v>0.313785</v>
+        <v>0.196655</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.316102</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4258,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181598</v>
+        <v>0.181467</v>
       </c>
       <c r="C6" t="n">
-        <v>0.311017</v>
+        <v>0.302084</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198506</v>
+        <v>0.317468</v>
       </c>
       <c r="E6" t="n">
-        <v>0.313958</v>
+        <v>0.197215</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.316448</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4278,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.175393</v>
+        <v>0.169072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.304153</v>
+        <v>0.295211</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198768</v>
+        <v>0.304719</v>
       </c>
       <c r="E7" t="n">
-        <v>0.313375</v>
+        <v>0.197584</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.31597</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4298,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166517</v>
+        <v>0.16614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.30339</v>
+        <v>0.2816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198214</v>
+        <v>0.305286</v>
       </c>
       <c r="E8" t="n">
-        <v>0.312678</v>
+        <v>0.197935</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.315692</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4318,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159324</v>
+        <v>0.158631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.304378</v>
+        <v>0.277772</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215404</v>
+        <v>0.306679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.328836</v>
+        <v>0.213978</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.329252</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4338,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.238074</v>
+        <v>0.235432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305409</v>
+        <v>0.351802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214724</v>
+        <v>0.305451</v>
       </c>
       <c r="E10" t="n">
-        <v>0.327248</v>
+        <v>0.213385</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.328118</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4358,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.235257</v>
+        <v>0.233275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.306395</v>
+        <v>0.347654</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213707</v>
+        <v>0.307042</v>
       </c>
       <c r="E11" t="n">
-        <v>0.326562</v>
+        <v>0.212535</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.326271</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4378,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.229093</v>
+        <v>0.226769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307082</v>
+        <v>0.343459</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212894</v>
+        <v>0.30845</v>
       </c>
       <c r="E12" t="n">
-        <v>0.32625</v>
+        <v>0.212172</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.326962</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4398,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225376</v>
+        <v>0.221222</v>
       </c>
       <c r="C13" t="n">
-        <v>0.307159</v>
+        <v>0.341777</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212034</v>
+        <v>0.3094</v>
       </c>
       <c r="E13" t="n">
-        <v>0.325442</v>
+        <v>0.210803</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.325812</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4418,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.22062</v>
+        <v>0.218369</v>
       </c>
       <c r="C14" t="n">
-        <v>0.308177</v>
+        <v>0.336934</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211366</v>
+        <v>0.310705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.323847</v>
+        <v>0.210392</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.323402</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4438,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.215931</v>
+        <v>0.210959</v>
       </c>
       <c r="C15" t="n">
-        <v>0.309839</v>
+        <v>0.320365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211301</v>
+        <v>0.311214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.323035</v>
+        <v>0.209764</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.322379</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4458,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208354</v>
+        <v>0.208449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.311307</v>
+        <v>0.32429</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20915</v>
+        <v>0.326516</v>
       </c>
       <c r="E16" t="n">
-        <v>0.321236</v>
+        <v>0.20847</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.32085</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4478,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.20548</v>
+        <v>0.203258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.309538</v>
+        <v>0.31378</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208946</v>
+        <v>0.328129</v>
       </c>
       <c r="E17" t="n">
-        <v>0.321968</v>
+        <v>0.207762</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.320563</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4498,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200624</v>
+        <v>0.199404</v>
       </c>
       <c r="C18" t="n">
-        <v>0.310439</v>
+        <v>0.314566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208467</v>
+        <v>0.331864</v>
       </c>
       <c r="E18" t="n">
-        <v>0.320212</v>
+        <v>0.206979</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.319908</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4518,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.195125</v>
+        <v>0.193329</v>
       </c>
       <c r="C19" t="n">
-        <v>0.312323</v>
+        <v>0.307247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207697</v>
+        <v>0.334197</v>
       </c>
       <c r="E19" t="n">
-        <v>0.319068</v>
+        <v>0.2064</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.31844</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4538,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189525</v>
+        <v>0.18785</v>
       </c>
       <c r="C20" t="n">
-        <v>0.312722</v>
+        <v>0.302964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206828</v>
+        <v>0.334987</v>
       </c>
       <c r="E20" t="n">
-        <v>0.319184</v>
+        <v>0.205656</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.318534</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4558,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.183348</v>
+        <v>0.181851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.307318</v>
+        <v>0.300173</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206267</v>
+        <v>0.3184</v>
       </c>
       <c r="E21" t="n">
-        <v>0.318274</v>
+        <v>0.205096</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.319309</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4578,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.175912</v>
+        <v>0.168831</v>
       </c>
       <c r="C22" t="n">
-        <v>0.306938</v>
+        <v>0.287881</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205802</v>
+        <v>0.319127</v>
       </c>
       <c r="E22" t="n">
-        <v>0.31748</v>
+        <v>0.204256</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.31614</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4598,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.167304</v>
+        <v>0.165451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.306326</v>
+        <v>0.277376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223023</v>
+        <v>0.319619</v>
       </c>
       <c r="E23" t="n">
-        <v>0.330995</v>
+        <v>0.220425</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.331021</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4618,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.241458</v>
+        <v>0.236531</v>
       </c>
       <c r="C24" t="n">
-        <v>0.307545</v>
+        <v>0.354768</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220162</v>
+        <v>0.32194</v>
       </c>
       <c r="E24" t="n">
-        <v>0.329317</v>
+        <v>0.218761</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.330563</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4638,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.236253</v>
+        <v>0.232603</v>
       </c>
       <c r="C25" t="n">
-        <v>0.310724</v>
+        <v>0.349105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218568</v>
+        <v>0.324495</v>
       </c>
       <c r="E25" t="n">
-        <v>0.328355</v>
+        <v>0.217332</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.329835</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4658,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231925</v>
+        <v>0.229333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.311121</v>
+        <v>0.345487</v>
       </c>
       <c r="D26" t="n">
-        <v>0.217278</v>
+        <v>0.323695</v>
       </c>
       <c r="E26" t="n">
-        <v>0.327788</v>
+        <v>0.216252</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.328318</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4678,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227415</v>
+        <v>0.226065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.311362</v>
+        <v>0.343509</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216118</v>
+        <v>0.324347</v>
       </c>
       <c r="E27" t="n">
-        <v>0.326659</v>
+        <v>0.215001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.327477</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4698,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.223985</v>
+        <v>0.220057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.308965</v>
+        <v>0.338593</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214763</v>
+        <v>0.326745</v>
       </c>
       <c r="E28" t="n">
-        <v>0.324963</v>
+        <v>0.213633</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3266</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4718,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.218989</v>
+        <v>0.214748</v>
       </c>
       <c r="C29" t="n">
-        <v>0.310173</v>
+        <v>0.333524</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213712</v>
+        <v>0.329428</v>
       </c>
       <c r="E29" t="n">
-        <v>0.324045</v>
+        <v>0.212418</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.325948</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4738,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.214378</v>
+        <v>0.210261</v>
       </c>
       <c r="C30" t="n">
-        <v>0.311699</v>
+        <v>0.328117</v>
       </c>
       <c r="D30" t="n">
-        <v>0.212518</v>
+        <v>0.330402</v>
       </c>
       <c r="E30" t="n">
-        <v>0.323504</v>
+        <v>0.211101</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.32557</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4758,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.207503</v>
+        <v>0.204665</v>
       </c>
       <c r="C31" t="n">
-        <v>0.311862</v>
+        <v>0.321361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.211319</v>
+        <v>0.332015</v>
       </c>
       <c r="E31" t="n">
-        <v>0.322352</v>
+        <v>0.210045</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.324771</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4778,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.19953</v>
+        <v>0.196591</v>
       </c>
       <c r="C32" t="n">
-        <v>0.312815</v>
+        <v>0.319409</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210327</v>
+        <v>0.333122</v>
       </c>
       <c r="E32" t="n">
-        <v>0.321182</v>
+        <v>0.208914</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.322808</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4798,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.194086</v>
+        <v>0.195575</v>
       </c>
       <c r="C33" t="n">
-        <v>0.314708</v>
+        <v>0.31071</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209665</v>
+        <v>0.336487</v>
       </c>
       <c r="E33" t="n">
-        <v>0.320807</v>
+        <v>0.208021</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.322213</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4818,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.191718</v>
+        <v>0.189416</v>
       </c>
       <c r="C34" t="n">
-        <v>0.315698</v>
+        <v>0.309795</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208584</v>
+        <v>0.33856</v>
       </c>
       <c r="E34" t="n">
-        <v>0.320386</v>
+        <v>0.207109</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.321747</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4838,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.186065</v>
+        <v>0.184848</v>
       </c>
       <c r="C35" t="n">
-        <v>0.311707</v>
+        <v>0.300101</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207718</v>
+        <v>0.322644</v>
       </c>
       <c r="E35" t="n">
-        <v>0.318617</v>
+        <v>0.206249</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.32148</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4858,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.180172</v>
+        <v>0.178163</v>
       </c>
       <c r="C36" t="n">
-        <v>0.311115</v>
+        <v>0.291627</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206923</v>
+        <v>0.323021</v>
       </c>
       <c r="E36" t="n">
-        <v>0.318208</v>
+        <v>0.205443</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.320347</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4878,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.172078</v>
+        <v>0.169892</v>
       </c>
       <c r="C37" t="n">
-        <v>0.311853</v>
+        <v>0.277217</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223321</v>
+        <v>0.322532</v>
       </c>
       <c r="E37" t="n">
-        <v>0.334167</v>
+        <v>0.222276</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.333292</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4898,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243776</v>
+        <v>0.241744</v>
       </c>
       <c r="C38" t="n">
-        <v>0.311846</v>
+        <v>0.352028</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221142</v>
+        <v>0.323164</v>
       </c>
       <c r="E38" t="n">
-        <v>0.332586</v>
+        <v>0.220138</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.332159</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4918,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.237983</v>
+        <v>0.235862</v>
       </c>
       <c r="C39" t="n">
-        <v>0.313389</v>
+        <v>0.34905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21936</v>
+        <v>0.326484</v>
       </c>
       <c r="E39" t="n">
-        <v>0.330995</v>
+        <v>0.218447</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.3309</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4938,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23497</v>
+        <v>0.232275</v>
       </c>
       <c r="C40" t="n">
-        <v>0.310314</v>
+        <v>0.345821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217841</v>
+        <v>0.326234</v>
       </c>
       <c r="E40" t="n">
-        <v>0.329846</v>
+        <v>0.217021</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.329835</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4958,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.230322</v>
+        <v>0.227768</v>
       </c>
       <c r="C41" t="n">
-        <v>0.310752</v>
+        <v>0.341849</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216559</v>
+        <v>0.32704</v>
       </c>
       <c r="E41" t="n">
-        <v>0.328375</v>
+        <v>0.215414</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.328082</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4978,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.225755</v>
+        <v>0.223065</v>
       </c>
       <c r="C42" t="n">
-        <v>0.311694</v>
+        <v>0.337045</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215294</v>
+        <v>0.328806</v>
       </c>
       <c r="E42" t="n">
-        <v>0.328155</v>
+        <v>0.214289</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.328158</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4998,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218669</v>
+        <v>0.216099</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311747</v>
+        <v>0.33228</v>
       </c>
       <c r="D43" t="n">
-        <v>0.214267</v>
+        <v>0.328637</v>
       </c>
       <c r="E43" t="n">
-        <v>0.326093</v>
+        <v>0.212914</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.326165</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +5018,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213726</v>
+        <v>0.213189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.314888</v>
+        <v>0.325477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213046</v>
+        <v>0.330099</v>
       </c>
       <c r="E44" t="n">
-        <v>0.32544</v>
+        <v>0.2118</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.325527</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +5038,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.209545</v>
+        <v>0.208007</v>
       </c>
       <c r="C45" t="n">
-        <v>0.315362</v>
+        <v>0.323234</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21201</v>
+        <v>0.33173</v>
       </c>
       <c r="E45" t="n">
-        <v>0.324574</v>
+        <v>0.210594</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.324101</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +5058,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202016</v>
+        <v>0.202049</v>
       </c>
       <c r="C46" t="n">
-        <v>0.316436</v>
+        <v>0.322175</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211016</v>
+        <v>0.332776</v>
       </c>
       <c r="E46" t="n">
-        <v>0.323673</v>
+        <v>0.209487</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.323712</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +5078,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1963</v>
+        <v>0.196536</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31718</v>
+        <v>0.314097</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210047</v>
+        <v>0.337238</v>
       </c>
       <c r="E47" t="n">
-        <v>0.322817</v>
+        <v>0.208536</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.322459</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +5098,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.194573</v>
+        <v>0.192242</v>
       </c>
       <c r="C48" t="n">
-        <v>0.31942</v>
+        <v>0.30666</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209115</v>
+        <v>0.336254</v>
       </c>
       <c r="E48" t="n">
-        <v>0.321857</v>
+        <v>0.207577</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.320763</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +5118,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183635</v>
+        <v>0.187202</v>
       </c>
       <c r="C49" t="n">
-        <v>0.320899</v>
+        <v>0.299284</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208156</v>
+        <v>0.340621</v>
       </c>
       <c r="E49" t="n">
-        <v>0.321055</v>
+        <v>0.206634</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.320412</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +5138,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.183159</v>
+        <v>0.18024</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315278</v>
+        <v>0.29751</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207243</v>
+        <v>0.325546</v>
       </c>
       <c r="E50" t="n">
-        <v>0.320304</v>
+        <v>0.205735</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.319713</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5158,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.174935</v>
+        <v>0.172479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.314854</v>
+        <v>0.283705</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222947</v>
+        <v>0.328329</v>
       </c>
       <c r="E51" t="n">
-        <v>0.334787</v>
+        <v>0.222309</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.335185</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5178,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165541</v>
+        <v>0.164451</v>
       </c>
       <c r="C52" t="n">
-        <v>0.314702</v>
+        <v>0.281473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221323</v>
+        <v>0.327658</v>
       </c>
       <c r="E52" t="n">
-        <v>0.332993</v>
+        <v>0.22046</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.333281</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5198,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240821</v>
+        <v>0.237241</v>
       </c>
       <c r="C53" t="n">
-        <v>0.31503</v>
+        <v>0.351541</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219905</v>
+        <v>0.330109</v>
       </c>
       <c r="E53" t="n">
-        <v>0.331453</v>
+        <v>0.219028</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.331722</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5218,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.236666</v>
+        <v>0.23336</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319146</v>
+        <v>0.348369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218274</v>
+        <v>0.328922</v>
       </c>
       <c r="E54" t="n">
-        <v>0.330505</v>
+        <v>0.217299</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.331281</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5238,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.232128</v>
+        <v>0.229094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.319661</v>
+        <v>0.345543</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216896</v>
+        <v>0.331074</v>
       </c>
       <c r="E55" t="n">
-        <v>0.328438</v>
+        <v>0.215561</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.329282</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5258,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.226792</v>
+        <v>0.223224</v>
       </c>
       <c r="C56" t="n">
-        <v>0.320844</v>
+        <v>0.342432</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215628</v>
+        <v>0.332453</v>
       </c>
       <c r="E56" t="n">
-        <v>0.327317</v>
+        <v>0.214353</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.328069</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5278,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22166</v>
+        <v>0.218971</v>
       </c>
       <c r="C57" t="n">
-        <v>0.321964</v>
+        <v>0.337312</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214463</v>
+        <v>0.336482</v>
       </c>
       <c r="E57" t="n">
-        <v>0.32619</v>
+        <v>0.213165</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.327149</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5298,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.216651</v>
+        <v>0.21392</v>
       </c>
       <c r="C58" t="n">
-        <v>0.320685</v>
+        <v>0.323432</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213326</v>
+        <v>0.340196</v>
       </c>
       <c r="E58" t="n">
-        <v>0.32506</v>
+        <v>0.211969</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.326306</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5318,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208443</v>
+        <v>0.206334</v>
       </c>
       <c r="C59" t="n">
-        <v>0.322273</v>
+        <v>0.328281</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212261</v>
+        <v>0.342714</v>
       </c>
       <c r="E59" t="n">
-        <v>0.323842</v>
+        <v>0.210798</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.325516</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5338,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.206149</v>
+        <v>0.20363</v>
       </c>
       <c r="C60" t="n">
-        <v>0.324435</v>
+        <v>0.323546</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211242</v>
+        <v>0.346512</v>
       </c>
       <c r="E60" t="n">
-        <v>0.322901</v>
+        <v>0.20967</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.324585</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5358,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199886</v>
+        <v>0.199189</v>
       </c>
       <c r="C61" t="n">
-        <v>0.326478</v>
+        <v>0.340304</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210232</v>
+        <v>0.349344</v>
       </c>
       <c r="E61" t="n">
-        <v>0.322157</v>
+        <v>0.208723</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.324022</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5378,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.19552</v>
+        <v>0.194101</v>
       </c>
       <c r="C62" t="n">
-        <v>0.329632</v>
+        <v>0.310338</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209263</v>
+        <v>0.352018</v>
       </c>
       <c r="E62" t="n">
-        <v>0.321127</v>
+        <v>0.207772</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.322924</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5398,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.18582</v>
+        <v>0.188907</v>
       </c>
       <c r="C63" t="n">
-        <v>0.33287</v>
+        <v>0.319455</v>
       </c>
       <c r="D63" t="n">
-        <v>0.208293</v>
+        <v>0.356663</v>
       </c>
       <c r="E63" t="n">
-        <v>0.32028</v>
+        <v>0.20687</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.32169</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5418,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.179734</v>
+        <v>0.177625</v>
       </c>
       <c r="C64" t="n">
-        <v>0.366733</v>
+        <v>0.315348</v>
       </c>
       <c r="D64" t="n">
-        <v>0.207295</v>
+        <v>0.381237</v>
       </c>
       <c r="E64" t="n">
-        <v>0.319576</v>
+        <v>0.205962</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.320917</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5438,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.17661</v>
+        <v>0.169652</v>
       </c>
       <c r="C65" t="n">
-        <v>0.36818</v>
+        <v>0.285832</v>
       </c>
       <c r="D65" t="n">
-        <v>0.206618</v>
+        <v>0.382555</v>
       </c>
       <c r="E65" t="n">
-        <v>0.318856</v>
+        <v>0.205219</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.32002</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5458,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.168253</v>
+        <v>0.161581</v>
       </c>
       <c r="C66" t="n">
-        <v>0.373131</v>
+        <v>0.307898</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22439</v>
+        <v>0.384723</v>
       </c>
       <c r="E66" t="n">
-        <v>0.334136</v>
+        <v>0.22189</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.334387</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5478,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.240789</v>
+        <v>0.238933</v>
       </c>
       <c r="C67" t="n">
-        <v>0.37799</v>
+        <v>0.383259</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220835</v>
+        <v>0.37826</v>
       </c>
       <c r="E67" t="n">
-        <v>0.332748</v>
+        <v>0.21968</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.332528</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5498,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.236769</v>
+        <v>0.235022</v>
       </c>
       <c r="C68" t="n">
-        <v>0.367379</v>
+        <v>0.381677</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219667</v>
+        <v>0.389464</v>
       </c>
       <c r="E68" t="n">
-        <v>0.331562</v>
+        <v>0.218071</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.331716</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5518,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.233733</v>
+        <v>0.229935</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377347</v>
+        <v>0.375582</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217706</v>
+        <v>0.391569</v>
       </c>
       <c r="E69" t="n">
-        <v>0.330033</v>
+        <v>0.216644</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.329667</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5538,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227088</v>
+        <v>0.226247</v>
       </c>
       <c r="C70" t="n">
-        <v>0.368672</v>
+        <v>0.372019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216345</v>
+        <v>0.394225</v>
       </c>
       <c r="E70" t="n">
-        <v>0.328336</v>
+        <v>0.215248</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.32884</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5558,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.221299</v>
+        <v>0.219198</v>
       </c>
       <c r="C71" t="n">
-        <v>0.367163</v>
+        <v>0.366527</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21513</v>
+        <v>0.384343</v>
       </c>
       <c r="E71" t="n">
-        <v>0.327363</v>
+        <v>0.214016</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.327285</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5578,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.217692</v>
+        <v>0.213253</v>
       </c>
       <c r="C72" t="n">
-        <v>0.37708</v>
+        <v>0.387222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213894</v>
+        <v>0.385256</v>
       </c>
       <c r="E72" t="n">
-        <v>0.326503</v>
+        <v>0.212884</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.325945</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5598,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.212783</v>
+        <v>0.210232</v>
       </c>
       <c r="C73" t="n">
-        <v>0.37685</v>
+        <v>0.436982</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212707</v>
+        <v>0.396706</v>
       </c>
       <c r="E73" t="n">
-        <v>0.325456</v>
+        <v>0.211633</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.326277</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5618,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.204371</v>
+        <v>0.20269</v>
       </c>
       <c r="C74" t="n">
-        <v>0.376839</v>
+        <v>0.507815</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211657</v>
+        <v>0.397464</v>
       </c>
       <c r="E74" t="n">
-        <v>0.324557</v>
+        <v>0.210337</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.325285</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5638,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.202086</v>
+        <v>0.200217</v>
       </c>
       <c r="C75" t="n">
-        <v>0.376803</v>
+        <v>0.42607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210746</v>
+        <v>0.394086</v>
       </c>
       <c r="E75" t="n">
-        <v>0.323741</v>
+        <v>0.209359</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.324189</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5658,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.193184</v>
+        <v>0.195153</v>
       </c>
       <c r="C76" t="n">
-        <v>0.379543</v>
+        <v>0.434402</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209735</v>
+        <v>0.385779</v>
       </c>
       <c r="E76" t="n">
-        <v>0.322791</v>
+        <v>0.208391</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.321856</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5678,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.187017</v>
+        <v>0.185537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.377689</v>
+        <v>0.417473</v>
       </c>
       <c r="D77" t="n">
-        <v>0.208676</v>
+        <v>0.399489</v>
       </c>
       <c r="E77" t="n">
-        <v>0.32193</v>
+        <v>0.207263</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.322186</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5698,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.180623</v>
+        <v>0.183407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.432984</v>
+        <v>0.40556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.207751</v>
+        <v>0.45155</v>
       </c>
       <c r="E78" t="n">
-        <v>0.321015</v>
+        <v>0.206629</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.319998</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5718,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.173167</v>
+        <v>0.175255</v>
       </c>
       <c r="C79" t="n">
-        <v>0.423639</v>
+        <v>0.316367</v>
       </c>
       <c r="D79" t="n">
-        <v>0.207114</v>
+        <v>0.447149</v>
       </c>
       <c r="E79" t="n">
-        <v>0.320211</v>
+        <v>0.205793</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.319159</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5738,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164896</v>
+        <v>0.168991</v>
       </c>
       <c r="C80" t="n">
-        <v>0.412971</v>
+        <v>0.391416</v>
       </c>
       <c r="D80" t="n">
-        <v>0.226761</v>
+        <v>0.443204</v>
       </c>
       <c r="E80" t="n">
-        <v>0.334356</v>
+        <v>0.224751</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.335049</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5758,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241232</v>
+        <v>0.239985</v>
       </c>
       <c r="C81" t="n">
-        <v>0.412779</v>
+        <v>0.374059</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223298</v>
+        <v>0.424011</v>
       </c>
       <c r="E81" t="n">
-        <v>0.332578</v>
+        <v>0.224261</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.332934</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5778,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237562</v>
+        <v>0.237985</v>
       </c>
       <c r="C82" t="n">
-        <v>0.423938</v>
+        <v>0.37053</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220639</v>
+        <v>0.43328</v>
       </c>
       <c r="E82" t="n">
-        <v>0.331469</v>
+        <v>0.221022</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.332178</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5798,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233264</v>
+        <v>0.233148</v>
       </c>
       <c r="C83" t="n">
-        <v>0.416875</v>
+        <v>0.36549</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219857</v>
+        <v>0.417515</v>
       </c>
       <c r="E83" t="n">
-        <v>0.329944</v>
+        <v>0.219173</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.330625</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5818,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228489</v>
+        <v>0.22768</v>
       </c>
       <c r="C84" t="n">
-        <v>0.41415</v>
+        <v>0.359961</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217522</v>
+        <v>0.415358</v>
       </c>
       <c r="E84" t="n">
-        <v>0.328522</v>
+        <v>0.217222</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.329073</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5838,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.224651</v>
+        <v>0.222928</v>
       </c>
       <c r="C85" t="n">
-        <v>0.409852</v>
+        <v>0.355076</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216246</v>
+        <v>0.412503</v>
       </c>
       <c r="E85" t="n">
-        <v>0.327092</v>
+        <v>0.216232</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.328181</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5858,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217458</v>
+        <v>0.215022</v>
       </c>
       <c r="C86" t="n">
-        <v>0.408747</v>
+        <v>0.34902</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214988</v>
+        <v>0.421781</v>
       </c>
       <c r="E86" t="n">
-        <v>0.326176</v>
+        <v>0.213991</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.327359</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5878,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211589</v>
+        <v>0.209217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.394615</v>
+        <v>0.354509</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213459</v>
+        <v>0.421362</v>
       </c>
       <c r="E87" t="n">
-        <v>0.324699</v>
+        <v>0.212561</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.326328</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5898,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206183</v>
+        <v>0.207414</v>
       </c>
       <c r="C88" t="n">
-        <v>0.390908</v>
+        <v>0.428192</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212204</v>
+        <v>0.419498</v>
       </c>
       <c r="E88" t="n">
-        <v>0.323802</v>
+        <v>0.211035</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.32527</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5918,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.203346</v>
+        <v>0.20119</v>
       </c>
       <c r="C89" t="n">
-        <v>0.387511</v>
+        <v>0.412213</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211041</v>
+        <v>0.417241</v>
       </c>
       <c r="E89" t="n">
-        <v>0.322807</v>
+        <v>0.209774</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.324442</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5938,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194608</v>
+        <v>0.193515</v>
       </c>
       <c r="C90" t="n">
-        <v>0.387678</v>
+        <v>0.395311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210153</v>
+        <v>0.417396</v>
       </c>
       <c r="E90" t="n">
-        <v>0.321895</v>
+        <v>0.208831</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.323412</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5958,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188818</v>
+        <v>0.187549</v>
       </c>
       <c r="C91" t="n">
-        <v>0.385289</v>
+        <v>0.413502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209188</v>
+        <v>0.414912</v>
       </c>
       <c r="E91" t="n">
-        <v>0.320935</v>
+        <v>0.207896</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.322518</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5978,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187217</v>
+        <v>0.18496</v>
       </c>
       <c r="C92" t="n">
-        <v>0.432414</v>
+        <v>0.443189</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208262</v>
+        <v>0.454224</v>
       </c>
       <c r="E92" t="n">
-        <v>0.320007</v>
+        <v>0.207102</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.321476</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5998,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.180054</v>
+        <v>0.173408</v>
       </c>
       <c r="C93" t="n">
-        <v>0.429723</v>
+        <v>0.410368</v>
       </c>
       <c r="D93" t="n">
-        <v>0.207419</v>
+        <v>0.449955</v>
       </c>
       <c r="E93" t="n">
-        <v>0.319298</v>
+        <v>0.206303</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.320681</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +6018,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.172801</v>
+        <v>0.16581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.433002</v>
+        <v>0.325785</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226132</v>
+        <v>0.442379</v>
       </c>
       <c r="E94" t="n">
-        <v>0.337056</v>
+        <v>0.224757</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.336199</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +6038,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.244098</v>
+        <v>0.241354</v>
       </c>
       <c r="C95" t="n">
-        <v>0.435032</v>
+        <v>0.480066</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22398</v>
+        <v>0.423995</v>
       </c>
       <c r="E95" t="n">
-        <v>0.335873</v>
+        <v>0.221974</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.334045</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +6058,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.239656</v>
+        <v>0.235819</v>
       </c>
       <c r="C96" t="n">
-        <v>0.428052</v>
+        <v>0.354414</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221496</v>
+        <v>0.425149</v>
       </c>
       <c r="E96" t="n">
-        <v>0.332979</v>
+        <v>0.219606</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.331002</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +6078,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.235755</v>
+        <v>0.232591</v>
       </c>
       <c r="C97" t="n">
-        <v>0.402244</v>
+        <v>0.350213</v>
       </c>
       <c r="D97" t="n">
-        <v>0.219201</v>
+        <v>0.406841</v>
       </c>
       <c r="E97" t="n">
-        <v>0.330399</v>
+        <v>0.217705</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.32868</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +6098,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.22991</v>
+        <v>0.229439</v>
       </c>
       <c r="C98" t="n">
-        <v>0.395809</v>
+        <v>0.345851</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217848</v>
+        <v>0.402611</v>
       </c>
       <c r="E98" t="n">
-        <v>0.329176</v>
+        <v>0.216472</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.327012</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +6118,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224421</v>
+        <v>0.224154</v>
       </c>
       <c r="C99" t="n">
-        <v>0.394418</v>
+        <v>0.340631</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216377</v>
+        <v>0.39909</v>
       </c>
       <c r="E99" t="n">
-        <v>0.326592</v>
+        <v>0.215318</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.325738</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +6138,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219496</v>
+        <v>0.218741</v>
       </c>
       <c r="C100" t="n">
-        <v>0.390644</v>
+        <v>0.335155</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214718</v>
+        <v>0.401457</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3254</v>
+        <v>0.213724</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.325075</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +6158,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213311</v>
+        <v>0.213112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.398754</v>
+        <v>0.394856</v>
       </c>
       <c r="D101" t="n">
-        <v>0.213266</v>
+        <v>0.386964</v>
       </c>
       <c r="E101" t="n">
-        <v>0.324628</v>
+        <v>0.212066</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.323434</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +6178,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.209756</v>
+        <v>0.207579</v>
       </c>
       <c r="C102" t="n">
-        <v>0.396472</v>
+        <v>0.366976</v>
       </c>
       <c r="D102" t="n">
-        <v>0.212704</v>
+        <v>0.384162</v>
       </c>
       <c r="E102" t="n">
-        <v>0.323666</v>
+        <v>0.211266</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.322451</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +6198,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204582</v>
+        <v>0.202268</v>
       </c>
       <c r="C103" t="n">
-        <v>0.393029</v>
+        <v>0.43249</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211373</v>
+        <v>0.382492</v>
       </c>
       <c r="E103" t="n">
-        <v>0.322662</v>
+        <v>0.210165</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.321352</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +6218,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.199289</v>
+        <v>0.197529</v>
       </c>
       <c r="C104" t="n">
-        <v>0.390853</v>
+        <v>0.389889</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210551</v>
+        <v>0.394466</v>
       </c>
       <c r="E104" t="n">
-        <v>0.321922</v>
+        <v>0.209054</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.320602</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +6238,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.194026</v>
+        <v>0.192596</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387876</v>
+        <v>0.388471</v>
       </c>
       <c r="D105" t="n">
-        <v>0.20933</v>
+        <v>0.39319</v>
       </c>
       <c r="E105" t="n">
-        <v>0.321164</v>
+        <v>0.208014</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.320942</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +6258,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18823</v>
+        <v>0.18711</v>
       </c>
       <c r="C106" t="n">
-        <v>0.383552</v>
+        <v>0.363885</v>
       </c>
       <c r="D106" t="n">
-        <v>0.20841</v>
+        <v>0.385724</v>
       </c>
       <c r="E106" t="n">
-        <v>0.320191</v>
+        <v>0.206837</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.318722</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +6278,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.18161</v>
+        <v>0.180618</v>
       </c>
       <c r="C107" t="n">
-        <v>0.401152</v>
+        <v>0.392099</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207813</v>
+        <v>0.416135</v>
       </c>
       <c r="E107" t="n">
-        <v>0.319137</v>
+        <v>0.206686</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.31809</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +6298,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.168736</v>
+        <v>0.173531</v>
       </c>
       <c r="C108" t="n">
-        <v>0.405231</v>
+        <v>0.368727</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226426</v>
+        <v>0.413098</v>
       </c>
       <c r="E108" t="n">
-        <v>0.333564</v>
+        <v>0.22546</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.333732</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +6318,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.165218</v>
+        <v>0.158218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.389114</v>
+        <v>0.329336</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224001</v>
+        <v>0.39965</v>
       </c>
       <c r="E109" t="n">
-        <v>0.331343</v>
+        <v>0.222752</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.331433</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6338,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.239599</v>
+        <v>0.238152</v>
       </c>
       <c r="C110" t="n">
-        <v>0.384258</v>
+        <v>0.495443</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221525</v>
+        <v>0.399589</v>
       </c>
       <c r="E110" t="n">
-        <v>0.329988</v>
+        <v>0.2204</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.329891</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6358,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235398</v>
+        <v>0.233594</v>
       </c>
       <c r="C111" t="n">
-        <v>0.404345</v>
+        <v>0.496272</v>
       </c>
       <c r="D111" t="n">
-        <v>0.219886</v>
+        <v>0.39612</v>
       </c>
       <c r="E111" t="n">
-        <v>0.32874</v>
+        <v>0.218626</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.329199</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6378,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.230715</v>
+        <v>0.22742</v>
       </c>
       <c r="C112" t="n">
-        <v>0.39766</v>
+        <v>0.495099</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21821</v>
+        <v>0.399149</v>
       </c>
       <c r="E112" t="n">
-        <v>0.327576</v>
+        <v>0.216922</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.328043</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6398,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225381</v>
+        <v>0.223643</v>
       </c>
       <c r="C113" t="n">
-        <v>0.396137</v>
+        <v>0.493376</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216632</v>
+        <v>0.38491</v>
       </c>
       <c r="E113" t="n">
-        <v>0.326125</v>
+        <v>0.215358</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.326317</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6418,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.219969</v>
+        <v>0.21776</v>
       </c>
       <c r="C114" t="n">
-        <v>0.390292</v>
+        <v>0.489873</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214981</v>
+        <v>0.394094</v>
       </c>
       <c r="E114" t="n">
-        <v>0.325017</v>
+        <v>0.213776</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.325617</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6438,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.216277</v>
+        <v>0.211798</v>
       </c>
       <c r="C115" t="n">
-        <v>0.373058</v>
+        <v>0.442812</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213982</v>
+        <v>0.384213</v>
       </c>
       <c r="E115" t="n">
-        <v>0.323536</v>
+        <v>0.212483</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.324467</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6458,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210806</v>
+        <v>0.206332</v>
       </c>
       <c r="C116" t="n">
-        <v>0.36893</v>
+        <v>0.446332</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212755</v>
+        <v>0.382359</v>
       </c>
       <c r="E116" t="n">
-        <v>0.32251</v>
+        <v>0.211586</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.323375</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6478,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.205612</v>
+        <v>0.200663</v>
       </c>
       <c r="C117" t="n">
-        <v>0.367071</v>
+        <v>0.312816</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211667</v>
+        <v>0.37566</v>
       </c>
       <c r="E117" t="n">
-        <v>0.321495</v>
+        <v>0.210298</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.322631</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6498,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.200229</v>
+        <v>0.198977</v>
       </c>
       <c r="C118" t="n">
-        <v>0.364054</v>
+        <v>0.449023</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210615</v>
+        <v>0.368458</v>
       </c>
       <c r="E118" t="n">
-        <v>0.320618</v>
+        <v>0.209218</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.32112</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6518,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.19486</v>
+        <v>0.193781</v>
       </c>
       <c r="C119" t="n">
-        <v>0.363096</v>
+        <v>0.429408</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209702</v>
+        <v>0.378914</v>
       </c>
       <c r="E119" t="n">
-        <v>0.319617</v>
+        <v>0.208041</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.320365</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6538,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.189466</v>
+        <v>0.188361</v>
       </c>
       <c r="C120" t="n">
-        <v>0.360341</v>
+        <v>0.448581</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208781</v>
+        <v>0.372432</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3189</v>
+        <v>0.207444</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.320174</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6558,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.183279</v>
+        <v>0.182216</v>
       </c>
       <c r="C121" t="n">
-        <v>0.421841</v>
+        <v>0.414161</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207935</v>
+        <v>0.460047</v>
       </c>
       <c r="E121" t="n">
-        <v>0.318062</v>
+        <v>0.206677</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.319059</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6578,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.176061</v>
+        <v>0.169801</v>
       </c>
       <c r="C122" t="n">
-        <v>0.41674</v>
+        <v>0.36864</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207112</v>
+        <v>0.45216</v>
       </c>
       <c r="E122" t="n">
-        <v>0.317345</v>
+        <v>0.205964</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.318192</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6598,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.167489</v>
+        <v>0.164463</v>
       </c>
       <c r="C123" t="n">
-        <v>0.410544</v>
+        <v>0.355751</v>
       </c>
       <c r="D123" t="n">
-        <v>0.224137</v>
+        <v>0.433465</v>
       </c>
       <c r="E123" t="n">
-        <v>0.331926</v>
+        <v>0.223203</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.332473</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6618,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.24048</v>
+        <v>0.238945</v>
       </c>
       <c r="C124" t="n">
-        <v>0.406287</v>
+        <v>0.430287</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221864</v>
+        <v>0.41867</v>
       </c>
       <c r="E124" t="n">
-        <v>0.330277</v>
+        <v>0.2209</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.330364</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6638,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.237764</v>
+        <v>0.234396</v>
       </c>
       <c r="C125" t="n">
-        <v>0.413734</v>
+        <v>0.471267</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220014</v>
+        <v>0.40337</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3299</v>
+        <v>0.218956</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.329145</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6658,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.231731</v>
+        <v>0.230091</v>
       </c>
       <c r="C126" t="n">
-        <v>0.418197</v>
+        <v>0.456952</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218357</v>
+        <v>0.419459</v>
       </c>
       <c r="E126" t="n">
-        <v>0.328581</v>
+        <v>0.217279</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.32729</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6678,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226579</v>
+        <v>0.224663</v>
       </c>
       <c r="C127" t="n">
-        <v>0.391652</v>
+        <v>0.430707</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216866</v>
+        <v>0.395981</v>
       </c>
       <c r="E127" t="n">
-        <v>0.326631</v>
+        <v>0.215694</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.32622</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6698,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221156</v>
+        <v>0.218897</v>
       </c>
       <c r="C128" t="n">
-        <v>0.388814</v>
+        <v>0.456737</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215529</v>
+        <v>0.400267</v>
       </c>
       <c r="E128" t="n">
-        <v>0.325594</v>
+        <v>0.214258</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.325044</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6718,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217289</v>
+        <v>0.215587</v>
       </c>
       <c r="C129" t="n">
-        <v>0.403343</v>
+        <v>0.375791</v>
       </c>
       <c r="D129" t="n">
-        <v>0.214261</v>
+        <v>0.418978</v>
       </c>
       <c r="E129" t="n">
-        <v>0.325319</v>
+        <v>0.213005</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.324626</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6738,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.21188</v>
+        <v>0.207954</v>
       </c>
       <c r="C130" t="n">
-        <v>0.397869</v>
+        <v>0.427533</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212996</v>
+        <v>0.412513</v>
       </c>
       <c r="E130" t="n">
-        <v>0.324172</v>
+        <v>0.211744</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.322733</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6758,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.206682</v>
+        <v>0.201656</v>
       </c>
       <c r="C131" t="n">
-        <v>0.397018</v>
+        <v>0.431133</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211903</v>
+        <v>0.413312</v>
       </c>
       <c r="E131" t="n">
-        <v>0.323088</v>
+        <v>0.210675</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.322636</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6778,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.20103</v>
+        <v>0.200067</v>
       </c>
       <c r="C132" t="n">
-        <v>0.392092</v>
+        <v>0.358536</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210828</v>
+        <v>0.403187</v>
       </c>
       <c r="E132" t="n">
-        <v>0.322291</v>
+        <v>0.209568</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.320408</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6798,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.196028</v>
+        <v>0.190988</v>
       </c>
       <c r="C133" t="n">
-        <v>0.389973</v>
+        <v>0.45726</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209901</v>
+        <v>0.389798</v>
       </c>
       <c r="E133" t="n">
-        <v>0.321354</v>
+        <v>0.208534</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.31965</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6818,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.190626</v>
+        <v>0.187098</v>
       </c>
       <c r="C134" t="n">
-        <v>0.386408</v>
+        <v>0.413608</v>
       </c>
       <c r="D134" t="n">
-        <v>0.208877</v>
+        <v>0.408459</v>
       </c>
       <c r="E134" t="n">
-        <v>0.32055</v>
+        <v>0.207232</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.319518</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6838,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.184635</v>
+        <v>0.183893</v>
       </c>
       <c r="C135" t="n">
-        <v>0.447226</v>
+        <v>0.433881</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208006</v>
+        <v>0.451659</v>
       </c>
       <c r="E135" t="n">
-        <v>0.319696</v>
+        <v>0.206689</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.317945</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6858,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17787</v>
+        <v>0.175001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.442338</v>
+        <v>0.394584</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20725</v>
+        <v>0.430291</v>
       </c>
       <c r="E136" t="n">
-        <v>0.318914</v>
+        <v>0.205878</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.317509</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6878,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.169443</v>
+        <v>0.162137</v>
       </c>
       <c r="C137" t="n">
-        <v>0.416281</v>
+        <v>0.388036</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224607</v>
+        <v>0.4185</v>
       </c>
       <c r="E137" t="n">
-        <v>0.332103</v>
+        <v>0.223581</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.332631</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6898,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.241065</v>
+        <v>0.240799</v>
       </c>
       <c r="C138" t="n">
-        <v>0.432476</v>
+        <v>0.461823</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222289</v>
+        <v>0.436583</v>
       </c>
       <c r="E138" t="n">
-        <v>0.331662</v>
+        <v>0.221257</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.330902</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6918,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.238841</v>
+        <v>0.236865</v>
       </c>
       <c r="C139" t="n">
-        <v>0.416248</v>
+        <v>0.475594</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220391</v>
+        <v>0.419549</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3293</v>
+        <v>0.219236</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.330129</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6938,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232631</v>
+        <v>0.23155</v>
       </c>
       <c r="C140" t="n">
-        <v>0.422661</v>
+        <v>0.464401</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218672</v>
+        <v>0.415786</v>
       </c>
       <c r="E140" t="n">
-        <v>0.32857</v>
+        <v>0.217624</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.328858</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6958,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.227645</v>
+        <v>0.22444</v>
       </c>
       <c r="C141" t="n">
-        <v>0.417893</v>
+        <v>0.446447</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217126</v>
+        <v>0.412502</v>
       </c>
       <c r="E141" t="n">
-        <v>0.327182</v>
+        <v>0.215995</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.327199</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6978,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.222315</v>
+        <v>0.221272</v>
       </c>
       <c r="C142" t="n">
-        <v>0.412365</v>
+        <v>0.38384</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215706</v>
+        <v>0.408</v>
       </c>
       <c r="E142" t="n">
-        <v>0.325942</v>
+        <v>0.214504</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.325575</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6998,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216664</v>
+        <v>0.215768</v>
       </c>
       <c r="C143" t="n">
-        <v>0.407645</v>
+        <v>0.48088</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21438</v>
+        <v>0.404532</v>
       </c>
       <c r="E143" t="n">
-        <v>0.324676</v>
+        <v>0.213179</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.324445</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0785698</v>
+                  <v>0.198323</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.07801</v>
+                  <v>0.19418</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.076334</v>
+                  <v>0.188429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07526380000000001</v>
+                  <v>0.182579</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.075381</v>
+                  <v>0.181467</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0733709</v>
+                  <v>0.169072</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.07293719999999999</v>
+                  <v>0.16614</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0715915</v>
+                  <v>0.158631</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.126204</v>
+                  <v>0.235432</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.121989</v>
+                  <v>0.233275</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.121594</v>
+                  <v>0.226769</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.117472</v>
+                  <v>0.221222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.117571</v>
+                  <v>0.218369</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.115645</v>
+                  <v>0.210959</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.112146</v>
+                  <v>0.208449</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.109733</v>
+                  <v>0.203258</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.106337</v>
+                  <v>0.199404</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.103632</v>
+                  <v>0.193329</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0991889</v>
+                  <v>0.18785</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0962592</v>
+                  <v>0.181851</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09309190000000001</v>
+                  <v>0.168831</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0899575</v>
+                  <v>0.165451</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.150258</v>
+                  <v>0.236531</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.147224</v>
+                  <v>0.232603</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.14444</v>
+                  <v>0.229333</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.140705</v>
+                  <v>0.226065</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.137402</v>
+                  <v>0.220057</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.133721</v>
+                  <v>0.214748</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.128955</v>
+                  <v>0.210261</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.12512</v>
+                  <v>0.204665</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.120441</v>
+                  <v>0.196591</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114693</v>
+                  <v>0.195575</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.109617</v>
+                  <v>0.189416</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.104777</v>
+                  <v>0.184848</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100498</v>
+                  <v>0.178163</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.095885</v>
+                  <v>0.169892</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.159284</v>
+                  <v>0.241744</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.156717</v>
+                  <v>0.235862</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.153778</v>
+                  <v>0.232275</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.149985</v>
+                  <v>0.227768</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.146067</v>
+                  <v>0.223065</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.14153</v>
+                  <v>0.216099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.136851</v>
+                  <v>0.213189</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.131807</v>
+                  <v>0.208007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.126538</v>
+                  <v>0.202049</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.121426</v>
+                  <v>0.196536</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.115851</v>
+                  <v>0.192242</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.110881</v>
+                  <v>0.187202</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.105341</v>
+                  <v>0.18024</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.100086</v>
+                  <v>0.172479</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09492250000000001</v>
+                  <v>0.164451</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.161765</v>
+                  <v>0.237241</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.157751</v>
+                  <v>0.23336</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.153367</v>
+                  <v>0.229094</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.149046</v>
+                  <v>0.223224</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.144183</v>
+                  <v>0.218971</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.139449</v>
+                  <v>0.21392</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.134172</v>
+                  <v>0.206334</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.129251</v>
+                  <v>0.20363</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.124021</v>
+                  <v>0.199189</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.118888</v>
+                  <v>0.194101</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.113656</v>
+                  <v>0.188907</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.10868</v>
+                  <v>0.177625</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.103293</v>
+                  <v>0.169652</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09785820000000001</v>
+                  <v>0.161581</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.163938</v>
+                  <v>0.238933</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.16019</v>
+                  <v>0.235022</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.156112</v>
+                  <v>0.229935</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.151234</v>
+                  <v>0.226247</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.1467</v>
+                  <v>0.219198</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.141537</v>
+                  <v>0.213253</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.136251</v>
+                  <v>0.210232</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.131385</v>
+                  <v>0.20269</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.125975</v>
+                  <v>0.200217</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.120806</v>
+                  <v>0.195153</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.115717</v>
+                  <v>0.185537</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.110491</v>
+                  <v>0.183407</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.105539</v>
+                  <v>0.175255</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.100332</v>
+                  <v>0.168991</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.164231</v>
+                  <v>0.239985</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.160433</v>
+                  <v>0.237985</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.156282</v>
+                  <v>0.233148</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.151513</v>
+                  <v>0.22768</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.146903</v>
+                  <v>0.222928</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.141991</v>
+                  <v>0.215022</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.136909</v>
+                  <v>0.209217</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.131753</v>
+                  <v>0.207414</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.126506</v>
+                  <v>0.20119</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.121357</v>
+                  <v>0.193515</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.116213</v>
+                  <v>0.187549</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.111081</v>
+                  <v>0.18496</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106023</v>
+                  <v>0.173408</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.100876</v>
+                  <v>0.16581</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.165616</v>
+                  <v>0.241354</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.161892</v>
+                  <v>0.235819</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.157627</v>
+                  <v>0.232591</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.153045</v>
+                  <v>0.229439</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.148124</v>
+                  <v>0.224154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.143096</v>
+                  <v>0.218741</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.137765</v>
+                  <v>0.213112</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.132801</v>
+                  <v>0.207579</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.127657</v>
+                  <v>0.202268</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.12242</v>
+                  <v>0.197529</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.11725</v>
+                  <v>0.192596</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.112112</v>
+                  <v>0.18711</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10702</v>
+                  <v>0.180618</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.101872</v>
+                  <v>0.173531</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0966104</v>
+                  <v>0.158218</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.163181</v>
+                  <v>0.238152</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.159031</v>
+                  <v>0.233594</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.154378</v>
+                  <v>0.22742</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.149186</v>
+                  <v>0.223643</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.144248</v>
+                  <v>0.21776</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.138994</v>
+                  <v>0.211798</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.13388</v>
+                  <v>0.206332</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.128563</v>
+                  <v>0.200663</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.123492</v>
+                  <v>0.198977</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.118464</v>
+                  <v>0.193781</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113129</v>
+                  <v>0.188361</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108013</v>
+                  <v>0.182216</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102901</v>
+                  <v>0.169801</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0977628</v>
+                  <v>0.164463</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.173028</v>
+                  <v>0.238945</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.168888</v>
+                  <v>0.234396</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.163702</v>
+                  <v>0.230091</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.158768</v>
+                  <v>0.224663</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.152967</v>
+                  <v>0.218897</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.147432</v>
+                  <v>0.215587</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.141975</v>
+                  <v>0.207954</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.13661</v>
+                  <v>0.201656</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.131002</v>
+                  <v>0.200067</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.125727</v>
+                  <v>0.190988</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.120213</v>
+                  <v>0.187098</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.114864</v>
+                  <v>0.183893</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.10935</v>
+                  <v>0.175001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.103983</v>
+                  <v>0.162137</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.174103</v>
+                  <v>0.240799</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.16957</v>
+                  <v>0.236865</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.164907</v>
+                  <v>0.23155</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.159763</v>
+                  <v>0.22444</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.154327</v>
+                  <v>0.221272</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.148619</v>
+                  <v>0.215768</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.278661</v>
+                  <v>0.316734</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.281787</v>
+                  <v>0.316219</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.284602</v>
+                  <v>0.312874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.285648</v>
+                  <v>0.302618</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.287433</v>
+                  <v>0.302084</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274449</v>
+                  <v>0.295211</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.276621</v>
+                  <v>0.2816</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.278775</v>
+                  <v>0.277772</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.281341</v>
+                  <v>0.351802</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.282871</v>
+                  <v>0.347654</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.286431</v>
+                  <v>0.343459</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.286907</v>
+                  <v>0.341777</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.288799</v>
+                  <v>0.336934</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.290491</v>
+                  <v>0.320365</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.290309</v>
+                  <v>0.32429</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.291906</v>
+                  <v>0.31378</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.292277</v>
+                  <v>0.314566</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.293213</v>
+                  <v>0.307247</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.294434</v>
+                  <v>0.302964</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.283856</v>
+                  <v>0.300173</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.284349</v>
+                  <v>0.287881</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.284879</v>
+                  <v>0.277376</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.286239</v>
+                  <v>0.354768</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.287601</v>
+                  <v>0.349105</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.2876</v>
+                  <v>0.345487</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.288997</v>
+                  <v>0.343509</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.290481</v>
+                  <v>0.338593</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.291662</v>
+                  <v>0.333524</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.29328</v>
+                  <v>0.328117</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294138</v>
+                  <v>0.321361</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.293505</v>
+                  <v>0.319409</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.296216</v>
+                  <v>0.31071</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.297426</v>
+                  <v>0.309795</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.285782</v>
+                  <v>0.300101</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.286008</v>
+                  <v>0.291627</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.287226</v>
+                  <v>0.277217</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.28761</v>
+                  <v>0.352028</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.289069</v>
+                  <v>0.34905</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.291258</v>
+                  <v>0.345821</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.292044</v>
+                  <v>0.341849</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.292541</v>
+                  <v>0.337045</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.294038</v>
+                  <v>0.33228</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.29517</v>
+                  <v>0.325477</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.295882</v>
+                  <v>0.323234</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.29714</v>
+                  <v>0.322175</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.297698</v>
+                  <v>0.314097</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.298015</v>
+                  <v>0.30666</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.2997</v>
+                  <v>0.299284</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.288124</v>
+                  <v>0.29751</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.28907</v>
+                  <v>0.283705</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.290364</v>
+                  <v>0.281473</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.29106</v>
+                  <v>0.351541</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.292367</v>
+                  <v>0.348369</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.292745</v>
+                  <v>0.345543</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.294376</v>
+                  <v>0.342432</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.295477</v>
+                  <v>0.337312</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.297108</v>
+                  <v>0.323432</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.298193</v>
+                  <v>0.328281</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.299347</v>
+                  <v>0.323546</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.300971</v>
+                  <v>0.340304</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.301872</v>
+                  <v>0.310338</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.302877</v>
+                  <v>0.319455</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.295352</v>
+                  <v>0.315348</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.297121</v>
+                  <v>0.285832</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.29808</v>
+                  <v>0.307898</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.300501</v>
+                  <v>0.383259</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.301419</v>
+                  <v>0.381677</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.304017</v>
+                  <v>0.375582</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.306256</v>
+                  <v>0.372019</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.30713</v>
+                  <v>0.366527</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.309409</v>
+                  <v>0.387222</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.312199</v>
+                  <v>0.436982</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.306165</v>
+                  <v>0.507815</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.309771</v>
+                  <v>0.42607</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.312349</v>
+                  <v>0.434402</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.315075</v>
+                  <v>0.417473</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.308787</v>
+                  <v>0.40556</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.31033</v>
+                  <v>0.316367</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.311713</v>
+                  <v>0.391416</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.31323</v>
+                  <v>0.374059</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.314737</v>
+                  <v>0.37053</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.31414</v>
+                  <v>0.36549</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.315762</v>
+                  <v>0.359961</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.318579</v>
+                  <v>0.355076</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.321262</v>
+                  <v>0.34902</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.323652</v>
+                  <v>0.354509</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325257</v>
+                  <v>0.428192</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.315909</v>
+                  <v>0.412213</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.318185</v>
+                  <v>0.395311</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.320763</v>
+                  <v>0.413502</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.295097</v>
+                  <v>0.443189</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.295977</v>
+                  <v>0.410368</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.297469</v>
+                  <v>0.325785</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.299469</v>
+                  <v>0.480066</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.301571</v>
+                  <v>0.354414</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.296998</v>
+                  <v>0.350213</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.299261</v>
+                  <v>0.345851</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.302162</v>
+                  <v>0.340631</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.303709</v>
+                  <v>0.335155</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.306448</v>
+                  <v>0.394856</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.310136</v>
+                  <v>0.366976</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.306796</v>
+                  <v>0.43249</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.30934</v>
+                  <v>0.389889</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.311905</v>
+                  <v>0.388471</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.313813</v>
+                  <v>0.363885</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.290918</v>
+                  <v>0.392099</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.292794</v>
+                  <v>0.368727</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.294234</v>
+                  <v>0.329336</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.295679</v>
+                  <v>0.495443</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.295282</v>
+                  <v>0.496272</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.296912</v>
+                  <v>0.495099</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.299968</v>
+                  <v>0.493376</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.299754</v>
+                  <v>0.489873</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.301842</v>
+                  <v>0.442812</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.304744</v>
+                  <v>0.446332</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.305408</v>
+                  <v>0.312816</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.307885</v>
+                  <v>0.449023</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.307962</v>
+                  <v>0.429408</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.310472</v>
+                  <v>0.448581</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.29361</v>
+                  <v>0.414161</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.293955</v>
+                  <v>0.36864</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.295548</v>
+                  <v>0.355751</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.29582</v>
+                  <v>0.430287</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.297457</v>
+                  <v>0.471267</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.298432</v>
+                  <v>0.456952</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.299124</v>
+                  <v>0.430707</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.30075</v>
+                  <v>0.456737</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.303137</v>
+                  <v>0.375791</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.304833</v>
+                  <v>0.427533</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.306146</v>
+                  <v>0.431133</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.307038</v>
+                  <v>0.358536</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.308538</v>
+                  <v>0.45726</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.311238</v>
+                  <v>0.413608</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.29305</v>
+                  <v>0.433881</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.293936</v>
+                  <v>0.394584</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.295193</v>
+                  <v>0.388036</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.295602</v>
+                  <v>0.461823</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.296406</v>
+                  <v>0.475594</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.297767</v>
+                  <v>0.464401</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.298622</v>
+                  <v>0.446447</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300831</v>
+                  <v>0.38384</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.302162</v>
+                  <v>0.48088</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.161377</v>
+                  <v>0.309436</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.161805</v>
+                  <v>0.312864</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16165</v>
+                  <v>0.320307</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.161383</v>
+                  <v>0.321661</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.161432</v>
+                  <v>0.317468</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160883</v>
+                  <v>0.304719</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160682</v>
+                  <v>0.305286</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.168008</v>
+                  <v>0.306679</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167609</v>
+                  <v>0.305451</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167601</v>
+                  <v>0.307042</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.167266</v>
+                  <v>0.30845</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.166521</v>
+                  <v>0.3094</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.167893</v>
+                  <v>0.310705</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.16697</v>
+                  <v>0.311214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166146</v>
+                  <v>0.326516</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165718</v>
+                  <v>0.328129</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164994</v>
+                  <v>0.331864</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164471</v>
+                  <v>0.334197</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.164271</v>
+                  <v>0.334987</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163875</v>
+                  <v>0.3184</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163013</v>
+                  <v>0.319127</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173693</v>
+                  <v>0.319619</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.173392</v>
+                  <v>0.32194</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.171978</v>
+                  <v>0.324495</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.172057</v>
+                  <v>0.323695</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.172897</v>
+                  <v>0.324347</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17029</v>
+                  <v>0.326745</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.171219</v>
+                  <v>0.329428</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.169221</v>
+                  <v>0.330402</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168358</v>
+                  <v>0.332015</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.168837</v>
+                  <v>0.333122</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.16865</v>
+                  <v>0.336487</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.166213</v>
+                  <v>0.33856</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.165749</v>
+                  <v>0.322644</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.165377</v>
+                  <v>0.323021</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.181607</v>
+                  <v>0.322532</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.179581</v>
+                  <v>0.323164</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.179549</v>
+                  <v>0.326484</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.177059</v>
+                  <v>0.326234</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.176741</v>
+                  <v>0.32704</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.175916</v>
+                  <v>0.328806</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.174191</v>
+                  <v>0.328637</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.173126</v>
+                  <v>0.330099</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17289</v>
+                  <v>0.33173</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.171398</v>
+                  <v>0.332776</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.170656</v>
+                  <v>0.337238</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.169676</v>
+                  <v>0.336254</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.168742</v>
+                  <v>0.340621</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.167746</v>
+                  <v>0.325546</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.184643</v>
+                  <v>0.328329</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.18327</v>
+                  <v>0.327658</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.181852</v>
+                  <v>0.330109</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.180821</v>
+                  <v>0.328922</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179281</v>
+                  <v>0.331074</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178364</v>
+                  <v>0.332453</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.177349</v>
+                  <v>0.336482</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176061</v>
+                  <v>0.340196</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.174862</v>
+                  <v>0.342714</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.17382</v>
+                  <v>0.346512</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.172776</v>
+                  <v>0.349344</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.171758</v>
+                  <v>0.352018</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170447</v>
+                  <v>0.356663</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169347</v>
+                  <v>0.381237</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168119</v>
+                  <v>0.382555</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.185031</v>
+                  <v>0.384723</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.183681</v>
+                  <v>0.37826</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.182192</v>
+                  <v>0.389464</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.181223</v>
+                  <v>0.391569</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.1797</v>
+                  <v>0.394225</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178455</v>
+                  <v>0.384343</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177282</v>
+                  <v>0.385256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176083</v>
+                  <v>0.396706</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174918</v>
+                  <v>0.397464</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173816</v>
+                  <v>0.394086</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172569</v>
+                  <v>0.385779</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171501</v>
+                  <v>0.399489</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170134</v>
+                  <v>0.45155</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.168946</v>
+                  <v>0.447149</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.18571</v>
+                  <v>0.443204</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.184182</v>
+                  <v>0.424011</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182808</v>
+                  <v>0.43328</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181466</v>
+                  <v>0.417515</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.180095</v>
+                  <v>0.415358</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178727</v>
+                  <v>0.412503</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177617</v>
+                  <v>0.421781</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.176367</v>
+                  <v>0.421362</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175199</v>
+                  <v>0.419498</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174092</v>
+                  <v>0.417241</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.17285</v>
+                  <v>0.417396</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171697</v>
+                  <v>0.414912</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.170479</v>
+                  <v>0.454224</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169232</v>
+                  <v>0.449955</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.186238</v>
+                  <v>0.442379</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184776</v>
+                  <v>0.423995</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183353</v>
+                  <v>0.425149</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.182029</v>
+                  <v>0.406841</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180636</v>
+                  <v>0.402611</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179256</v>
+                  <v>0.39909</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.178057</v>
+                  <v>0.401457</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176775</v>
+                  <v>0.386964</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175665</v>
+                  <v>0.384162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174317</v>
+                  <v>0.382492</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173185</v>
+                  <v>0.394466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.171964</v>
+                  <v>0.39319</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.170756</v>
+                  <v>0.385724</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.169512</v>
+                  <v>0.416135</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.186733</v>
+                  <v>0.413098</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18519</v>
+                  <v>0.39965</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183764</v>
+                  <v>0.399589</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.182269</v>
+                  <v>0.39612</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180909</v>
+                  <v>0.399149</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179595</v>
+                  <v>0.38491</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178396</v>
+                  <v>0.394094</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177056</v>
+                  <v>0.384213</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.175815</v>
+                  <v>0.382359</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.174734</v>
+                  <v>0.37566</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173443</v>
+                  <v>0.368458</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172265</v>
+                  <v>0.378914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171018</v>
+                  <v>0.372432</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.169873</v>
+                  <v>0.460047</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.16868</v>
+                  <v>0.45216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.185604</v>
+                  <v>0.433465</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.18407</v>
+                  <v>0.41867</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182541</v>
+                  <v>0.40337</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.181177</v>
+                  <v>0.419459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179915</v>
+                  <v>0.395981</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178443</v>
+                  <v>0.400267</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177278</v>
+                  <v>0.418978</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176076</v>
+                  <v>0.412513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.174889</v>
+                  <v>0.413312</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173751</v>
+                  <v>0.403187</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.172529</v>
+                  <v>0.389798</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17138</v>
+                  <v>0.408459</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170068</v>
+                  <v>0.451659</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.16884</v>
+                  <v>0.430291</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196116</v>
+                  <v>0.4185</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.193136</v>
+                  <v>0.436583</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.191085</v>
+                  <v>0.419549</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.189452</v>
+                  <v>0.415786</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.187873</v>
+                  <v>0.412502</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186202</v>
+                  <v>0.408</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.184527</v>
+                  <v>0.404532</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.27075</v>
+                  <v>0.19598</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.271662</v>
+                  <v>0.196602</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.271133</v>
+                  <v>0.197004</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.274026</v>
+                  <v>0.196655</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.270847</v>
+                  <v>0.197215</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274797</v>
+                  <v>0.197584</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.271653</v>
+                  <v>0.197935</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.280982</v>
+                  <v>0.213978</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.283694</v>
+                  <v>0.213385</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.281135</v>
+                  <v>0.212535</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.283407</v>
+                  <v>0.212172</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.278207</v>
+                  <v>0.210803</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.278501</v>
+                  <v>0.210392</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.277398</v>
+                  <v>0.209764</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.276845</v>
+                  <v>0.20847</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.27666</v>
+                  <v>0.207762</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.275895</v>
+                  <v>0.206979</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.273221</v>
+                  <v>0.2064</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.275609</v>
+                  <v>0.205656</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.272189</v>
+                  <v>0.205096</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.272107</v>
+                  <v>0.204256</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.285413</v>
+                  <v>0.220425</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.284843</v>
+                  <v>0.218761</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.284983</v>
+                  <v>0.217332</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.280853</v>
+                  <v>0.216252</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.281688</v>
+                  <v>0.215001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.279487</v>
+                  <v>0.213633</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.280677</v>
+                  <v>0.212418</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.280292</v>
+                  <v>0.211101</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.280893</v>
+                  <v>0.210045</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.278407</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.279064</v>
+                  <v>0.208021</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.276623</v>
+                  <v>0.207109</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.275242</v>
+                  <v>0.206249</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.273643</v>
+                  <v>0.205443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.28665</v>
+                  <v>0.222276</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.288314</v>
+                  <v>0.220138</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.283276</v>
+                  <v>0.218447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.283897</v>
+                  <v>0.217021</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.282851</v>
+                  <v>0.215414</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.282467</v>
+                  <v>0.214289</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.280855</v>
+                  <v>0.212914</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.281927</v>
+                  <v>0.2118</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.278974</v>
+                  <v>0.210594</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.278439</v>
+                  <v>0.209487</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.280525</v>
+                  <v>0.208536</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.275232</v>
+                  <v>0.207577</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.274341</v>
+                  <v>0.206634</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.276063</v>
+                  <v>0.205735</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.291693</v>
+                  <v>0.222309</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.289798</v>
+                  <v>0.22046</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.287898</v>
+                  <v>0.219028</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.28715</v>
+                  <v>0.217299</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.28391</v>
+                  <v>0.215561</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.284432</v>
+                  <v>0.214353</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.28238</v>
+                  <v>0.213165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.282797</v>
+                  <v>0.211969</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.281096</v>
+                  <v>0.210798</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.277033</v>
+                  <v>0.20967</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.276516</v>
+                  <v>0.208723</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.276848</v>
+                  <v>0.207772</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.279088</v>
+                  <v>0.20687</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.276751</v>
+                  <v>0.205962</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276998</v>
+                  <v>0.205219</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.28964</v>
+                  <v>0.22189</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.286487</v>
+                  <v>0.21968</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.28763</v>
+                  <v>0.218071</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.286477</v>
+                  <v>0.216644</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.285516</v>
+                  <v>0.215248</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.28524</v>
+                  <v>0.214016</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.283961</v>
+                  <v>0.212884</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.284223</v>
+                  <v>0.211633</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.280482</v>
+                  <v>0.210337</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.27945</v>
+                  <v>0.209359</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.279581</v>
+                  <v>0.208391</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.279018</v>
+                  <v>0.207263</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.274384</v>
+                  <v>0.206629</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.276461</v>
+                  <v>0.205793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.292322</v>
+                  <v>0.224751</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.289118</v>
+                  <v>0.224261</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.288247</v>
+                  <v>0.221022</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.288563</v>
+                  <v>0.219173</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.287533</v>
+                  <v>0.217222</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.286304</v>
+                  <v>0.216232</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.283101</v>
+                  <v>0.213991</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.280356</v>
+                  <v>0.212561</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.280392</v>
+                  <v>0.211035</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.281045</v>
+                  <v>0.209774</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.276278</v>
+                  <v>0.208831</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.277672</v>
+                  <v>0.207896</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.276009</v>
+                  <v>0.207102</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.276803</v>
+                  <v>0.206303</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.294846</v>
+                  <v>0.224757</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.289587</v>
+                  <v>0.221974</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.288815</v>
+                  <v>0.219606</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.285001</v>
+                  <v>0.217705</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.285394</v>
+                  <v>0.216472</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.283591</v>
+                  <v>0.215318</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.285928</v>
+                  <v>0.213724</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.28276</v>
+                  <v>0.212066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.281078</v>
+                  <v>0.211266</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.280155</v>
+                  <v>0.210165</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.279521</v>
+                  <v>0.209054</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.279457</v>
+                  <v>0.208014</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.278278</v>
+                  <v>0.206837</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.275865</v>
+                  <v>0.206686</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.292885</v>
+                  <v>0.22546</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.29214</v>
+                  <v>0.222752</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.289121</v>
+                  <v>0.2204</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.285812</v>
+                  <v>0.218626</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.289304</v>
+                  <v>0.216922</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.281765</v>
+                  <v>0.215358</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.28236</v>
+                  <v>0.213776</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.283506</v>
+                  <v>0.212483</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.282489</v>
+                  <v>0.211586</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.27951</v>
+                  <v>0.210298</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.277523</v>
+                  <v>0.209218</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.279182</v>
+                  <v>0.208041</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.276473</v>
+                  <v>0.207444</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.276892</v>
+                  <v>0.206677</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.275816</v>
+                  <v>0.205964</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.289797</v>
+                  <v>0.223203</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.29229</v>
+                  <v>0.2209</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.288339</v>
+                  <v>0.218956</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.286976</v>
+                  <v>0.217279</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.284306</v>
+                  <v>0.215694</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.282697</v>
+                  <v>0.214258</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.281096</v>
+                  <v>0.213005</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.281267</v>
+                  <v>0.211744</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.279271</v>
+                  <v>0.210675</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.277611</v>
+                  <v>0.209568</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.27983</v>
+                  <v>0.208534</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.276196</v>
+                  <v>0.207232</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.275866</v>
+                  <v>0.206689</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.275209</v>
+                  <v>0.205878</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.297215</v>
+                  <v>0.223581</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.294804</v>
+                  <v>0.221257</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.292807</v>
+                  <v>0.219236</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.292284</v>
+                  <v>0.217624</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.286689</v>
+                  <v>0.215995</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.286559</v>
+                  <v>0.214504</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.287475</v>
+                  <v>0.213179</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.316528</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.317642</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.316625</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.316102</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.316448</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.31597</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.315692</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.329252</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.328118</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.326271</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.326962</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.325812</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.323402</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.322379</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.32085</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.320563</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.319908</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.31844</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.318534</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.319309</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.31614</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.331021</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.330563</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.329835</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.328318</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.327477</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.3266</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.325948</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.32557</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.324771</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.322808</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.322213</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.321747</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.32148</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.320347</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.333292</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.332159</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.3309</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.329835</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.328082</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.328158</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.326165</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.325527</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.324101</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.323712</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.322459</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.320763</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.320412</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.319713</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.335185</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.333281</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.331722</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.331281</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.329282</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.328069</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.327149</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.326306</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.325516</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.324585</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.324022</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.322924</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.32169</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.320917</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.32002</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.334387</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.332528</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.331716</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.329667</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.32884</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.327285</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.325945</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.326277</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.325285</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.324189</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.321856</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.322186</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.319998</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.319159</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.335049</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.332934</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.332178</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.330625</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.329073</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.328181</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.327359</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.326328</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.32527</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.324442</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.323412</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.322518</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.321476</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.320681</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.336199</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.334045</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.331002</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.32868</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.327012</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.325738</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.325075</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.323434</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.322451</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.321352</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.320602</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.320942</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.318722</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.31809</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.333732</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.331433</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.329891</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.329199</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.328043</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.326317</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.325617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.324467</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.323375</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.322631</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.32112</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.320365</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.320174</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.319059</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.318192</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.332473</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.330364</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.329145</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.32729</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.32622</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.325044</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.324626</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.322733</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.322636</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.320408</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.31965</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.319518</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.317945</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.317509</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.332631</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.330902</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.330129</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.328858</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.327199</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.325575</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.324445</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3750,7 +4652,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
+          <max val="0.6000000000000001"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3793,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4143,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4159,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198323</v>
+        <v>0.198039</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316734</v>
+        <v>0.316419</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309436</v>
+        <v>0.309565</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19598</v>
+        <v>0.196182</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316528</v>
+        <v>0.316663</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19418</v>
+        <v>0.193762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316219</v>
+        <v>0.315423</v>
       </c>
       <c r="D3" t="n">
-        <v>0.312864</v>
+        <v>0.314294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196602</v>
+        <v>0.196841</v>
       </c>
       <c r="F3" t="n">
-        <v>0.317642</v>
+        <v>0.318276</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188429</v>
+        <v>0.188337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312874</v>
+        <v>0.312745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.320307</v>
+        <v>0.317344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197004</v>
+        <v>0.196898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316625</v>
+        <v>0.316417</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182579</v>
+        <v>0.182788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.302618</v>
+        <v>0.303331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.321661</v>
+        <v>0.332271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196655</v>
+        <v>0.196851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.316102</v>
+        <v>0.315708</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181467</v>
+        <v>0.181828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.302084</v>
+        <v>0.301634</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317468</v>
+        <v>0.333413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197215</v>
+        <v>0.197339</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316448</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169072</v>
+        <v>0.169635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.295211</v>
+        <v>0.293504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.304719</v>
+        <v>0.315713</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197584</v>
+        <v>0.197654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.31597</v>
+        <v>0.315572</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.16614</v>
+        <v>0.166119</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2816</v>
+        <v>0.281763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.305286</v>
+        <v>0.315335</v>
       </c>
       <c r="E8" t="n">
-        <v>0.197935</v>
+        <v>0.198048</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315692</v>
+        <v>0.315043</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158631</v>
+        <v>0.158341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277772</v>
+        <v>0.27807</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306679</v>
+        <v>0.317159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.213978</v>
+        <v>0.215092</v>
       </c>
       <c r="F9" t="n">
-        <v>0.329252</v>
+        <v>0.328643</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235432</v>
+        <v>0.237257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351802</v>
+        <v>0.351217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305451</v>
+        <v>0.316448</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213385</v>
+        <v>0.213228</v>
       </c>
       <c r="F10" t="n">
-        <v>0.328118</v>
+        <v>0.32841</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233275</v>
+        <v>0.23291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347654</v>
+        <v>0.347033</v>
       </c>
       <c r="D11" t="n">
-        <v>0.307042</v>
+        <v>0.317772</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212535</v>
+        <v>0.212467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326271</v>
+        <v>0.326143</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.226769</v>
+        <v>0.22683</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343459</v>
+        <v>0.342523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.30845</v>
+        <v>0.320455</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212172</v>
+        <v>0.212113</v>
       </c>
       <c r="F12" t="n">
-        <v>0.326962</v>
+        <v>0.325918</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221222</v>
+        <v>0.221872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341777</v>
+        <v>0.340801</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3094</v>
+        <v>0.322094</v>
       </c>
       <c r="E13" t="n">
-        <v>0.210803</v>
+        <v>0.211485</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325812</v>
+        <v>0.325397</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218369</v>
+        <v>0.218494</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336934</v>
+        <v>0.336581</v>
       </c>
       <c r="D14" t="n">
-        <v>0.310705</v>
+        <v>0.323662</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210392</v>
+        <v>0.210565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323402</v>
+        <v>0.323269</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.210959</v>
+        <v>0.213004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.320365</v>
+        <v>0.319841</v>
       </c>
       <c r="D15" t="n">
-        <v>0.311214</v>
+        <v>0.324178</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209764</v>
+        <v>0.209938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322379</v>
+        <v>0.322049</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208449</v>
+        <v>0.20851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32429</v>
+        <v>0.323498</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326516</v>
+        <v>0.326241</v>
       </c>
       <c r="E16" t="n">
-        <v>0.20847</v>
+        <v>0.208726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32085</v>
+        <v>0.320796</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203258</v>
+        <v>0.203756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31378</v>
+        <v>0.313249</v>
       </c>
       <c r="D17" t="n">
-        <v>0.328129</v>
+        <v>0.327901</v>
       </c>
       <c r="E17" t="n">
-        <v>0.207762</v>
+        <v>0.20794</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320563</v>
+        <v>0.320214</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199404</v>
+        <v>0.199901</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314566</v>
+        <v>0.314213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331864</v>
+        <v>0.331556</v>
       </c>
       <c r="E18" t="n">
-        <v>0.206979</v>
+        <v>0.207039</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319908</v>
+        <v>0.319789</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193329</v>
+        <v>0.193629</v>
       </c>
       <c r="C19" t="n">
-        <v>0.307247</v>
+        <v>0.308842</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334197</v>
+        <v>0.333714</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2064</v>
+        <v>0.20665</v>
       </c>
       <c r="F19" t="n">
-        <v>0.31844</v>
+        <v>0.318676</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18785</v>
+        <v>0.187185</v>
       </c>
       <c r="C20" t="n">
-        <v>0.302964</v>
+        <v>0.301654</v>
       </c>
       <c r="D20" t="n">
-        <v>0.334987</v>
+        <v>0.335579</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205656</v>
+        <v>0.205974</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318534</v>
+        <v>0.318552</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181851</v>
+        <v>0.181744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.300173</v>
+        <v>0.299518</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3184</v>
+        <v>0.318668</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205096</v>
+        <v>0.205177</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319309</v>
+        <v>0.319185</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.168831</v>
+        <v>0.169611</v>
       </c>
       <c r="C22" t="n">
-        <v>0.287881</v>
+        <v>0.288004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.319127</v>
+        <v>0.318504</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204256</v>
+        <v>0.204458</v>
       </c>
       <c r="F22" t="n">
-        <v>0.31614</v>
+        <v>0.316293</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165451</v>
+        <v>0.165369</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277376</v>
+        <v>0.277601</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319619</v>
+        <v>0.319039</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220425</v>
+        <v>0.220767</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331021</v>
+        <v>0.331025</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236531</v>
+        <v>0.236637</v>
       </c>
       <c r="C24" t="n">
-        <v>0.354768</v>
+        <v>0.35504</v>
       </c>
       <c r="D24" t="n">
-        <v>0.32194</v>
+        <v>0.322216</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218761</v>
+        <v>0.218939</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330563</v>
+        <v>0.330063</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232603</v>
+        <v>0.235156</v>
       </c>
       <c r="C25" t="n">
         <v>0.349105</v>
       </c>
       <c r="D25" t="n">
-        <v>0.324495</v>
+        <v>0.323625</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217332</v>
+        <v>0.217618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329835</v>
+        <v>0.329757</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229333</v>
+        <v>0.229281</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345487</v>
+        <v>0.344807</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323695</v>
+        <v>0.322615</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216252</v>
+        <v>0.216425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.328318</v>
+        <v>0.327824</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226065</v>
+        <v>0.225395</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343509</v>
+        <v>0.343028</v>
       </c>
       <c r="D27" t="n">
-        <v>0.324347</v>
+        <v>0.323999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215001</v>
+        <v>0.215003</v>
       </c>
       <c r="F27" t="n">
-        <v>0.327477</v>
+        <v>0.32727</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220057</v>
+        <v>0.220174</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338593</v>
+        <v>0.338369</v>
       </c>
       <c r="D28" t="n">
-        <v>0.326745</v>
+        <v>0.325367</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213633</v>
+        <v>0.213842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3266</v>
+        <v>0.326686</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.214748</v>
+        <v>0.215007</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333524</v>
+        <v>0.333117</v>
       </c>
       <c r="D29" t="n">
-        <v>0.329428</v>
+        <v>0.32906</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212418</v>
+        <v>0.212555</v>
       </c>
       <c r="F29" t="n">
-        <v>0.325948</v>
+        <v>0.327074</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210261</v>
+        <v>0.210651</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328117</v>
+        <v>0.330089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330402</v>
+        <v>0.330025</v>
       </c>
       <c r="E30" t="n">
-        <v>0.211101</v>
+        <v>0.21131</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32557</v>
+        <v>0.32554</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204665</v>
+        <v>0.205018</v>
       </c>
       <c r="C31" t="n">
-        <v>0.321361</v>
+        <v>0.322506</v>
       </c>
       <c r="D31" t="n">
-        <v>0.332015</v>
+        <v>0.331852</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210045</v>
+        <v>0.210128</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324771</v>
+        <v>0.32433</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196591</v>
+        <v>0.196874</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319409</v>
+        <v>0.319564</v>
       </c>
       <c r="D32" t="n">
-        <v>0.333122</v>
+        <v>0.332338</v>
       </c>
       <c r="E32" t="n">
-        <v>0.208914</v>
+        <v>0.209063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.322808</v>
+        <v>0.32262</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195575</v>
+        <v>0.196106</v>
       </c>
       <c r="C33" t="n">
-        <v>0.31071</v>
+        <v>0.309981</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336487</v>
+        <v>0.336587</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208021</v>
+        <v>0.208206</v>
       </c>
       <c r="F33" t="n">
-        <v>0.322213</v>
+        <v>0.32185</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189416</v>
+        <v>0.189556</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309795</v>
+        <v>0.309942</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33856</v>
+        <v>0.338697</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207109</v>
+        <v>0.207283</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321747</v>
+        <v>0.321654</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.184848</v>
+        <v>0.185612</v>
       </c>
       <c r="C35" t="n">
-        <v>0.300101</v>
+        <v>0.302861</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322644</v>
+        <v>0.322838</v>
       </c>
       <c r="E35" t="n">
-        <v>0.206249</v>
+        <v>0.2065</v>
       </c>
       <c r="F35" t="n">
-        <v>0.32148</v>
+        <v>0.320729</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178163</v>
+        <v>0.178782</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291627</v>
+        <v>0.290962</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323021</v>
+        <v>0.323149</v>
       </c>
       <c r="E36" t="n">
-        <v>0.205443</v>
+        <v>0.20579</v>
       </c>
       <c r="F36" t="n">
-        <v>0.320347</v>
+        <v>0.319726</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169892</v>
+        <v>0.16974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277217</v>
+        <v>0.276509</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322532</v>
+        <v>0.322484</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222276</v>
+        <v>0.222266</v>
       </c>
       <c r="F37" t="n">
-        <v>0.333292</v>
+        <v>0.334461</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241744</v>
+        <v>0.242459</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352028</v>
+        <v>0.352154</v>
       </c>
       <c r="D38" t="n">
-        <v>0.323164</v>
+        <v>0.324654</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220138</v>
+        <v>0.220484</v>
       </c>
       <c r="F38" t="n">
-        <v>0.332159</v>
+        <v>0.333141</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235862</v>
+        <v>0.235937</v>
       </c>
       <c r="C39" t="n">
-        <v>0.34905</v>
+        <v>0.348957</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326484</v>
+        <v>0.326529</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218447</v>
+        <v>0.218646</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3309</v>
+        <v>0.330717</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232275</v>
+        <v>0.232247</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345821</v>
+        <v>0.345654</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326234</v>
+        <v>0.326624</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217021</v>
+        <v>0.217024</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329835</v>
+        <v>0.329927</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227768</v>
+        <v>0.227155</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341849</v>
+        <v>0.34176</v>
       </c>
       <c r="D41" t="n">
-        <v>0.32704</v>
+        <v>0.327161</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215414</v>
+        <v>0.215607</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328082</v>
+        <v>0.328181</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223065</v>
+        <v>0.223449</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337045</v>
+        <v>0.336746</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328806</v>
+        <v>0.328339</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214289</v>
+        <v>0.214423</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328158</v>
+        <v>0.328124</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216099</v>
+        <v>0.215928</v>
       </c>
       <c r="C43" t="n">
-        <v>0.33228</v>
+        <v>0.332156</v>
       </c>
       <c r="D43" t="n">
-        <v>0.328637</v>
+        <v>0.32823</v>
       </c>
       <c r="E43" t="n">
-        <v>0.212914</v>
+        <v>0.213016</v>
       </c>
       <c r="F43" t="n">
-        <v>0.326165</v>
+        <v>0.325913</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213189</v>
+        <v>0.214382</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325477</v>
+        <v>0.328002</v>
       </c>
       <c r="D44" t="n">
-        <v>0.330099</v>
+        <v>0.329964</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2118</v>
+        <v>0.211863</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325527</v>
+        <v>0.325104</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208007</v>
+        <v>0.207838</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323234</v>
+        <v>0.324408</v>
       </c>
       <c r="D45" t="n">
-        <v>0.33173</v>
+        <v>0.331189</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210594</v>
+        <v>0.210727</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324101</v>
+        <v>0.324074</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202049</v>
+        <v>0.20195</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322175</v>
+        <v>0.32382</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332776</v>
+        <v>0.332638</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209487</v>
+        <v>0.209586</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323712</v>
+        <v>0.323702</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.196536</v>
+        <v>0.197266</v>
       </c>
       <c r="C47" t="n">
-        <v>0.314097</v>
+        <v>0.313051</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337238</v>
+        <v>0.337086</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208536</v>
+        <v>0.208629</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322459</v>
+        <v>0.322908</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192242</v>
+        <v>0.192275</v>
       </c>
       <c r="C48" t="n">
-        <v>0.30666</v>
+        <v>0.306904</v>
       </c>
       <c r="D48" t="n">
-        <v>0.336254</v>
+        <v>0.33761</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207577</v>
+        <v>0.207675</v>
       </c>
       <c r="F48" t="n">
-        <v>0.320763</v>
+        <v>0.321162</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.187202</v>
+        <v>0.182895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299284</v>
+        <v>0.300135</v>
       </c>
       <c r="D49" t="n">
-        <v>0.340621</v>
+        <v>0.341829</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206634</v>
+        <v>0.206862</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320412</v>
+        <v>0.320523</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.18024</v>
+        <v>0.175668</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29751</v>
+        <v>0.299076</v>
       </c>
       <c r="D50" t="n">
-        <v>0.325546</v>
+        <v>0.32396</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205735</v>
+        <v>0.205838</v>
       </c>
       <c r="F50" t="n">
-        <v>0.319713</v>
+        <v>0.320389</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172479</v>
+        <v>0.173333</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283705</v>
+        <v>0.283257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.328329</v>
+        <v>0.326193</v>
       </c>
       <c r="E51" t="n">
-        <v>0.222309</v>
+        <v>0.223613</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335185</v>
+        <v>0.335276</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164451</v>
+        <v>0.165105</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281473</v>
+        <v>0.280242</v>
       </c>
       <c r="D52" t="n">
-        <v>0.327658</v>
+        <v>0.326803</v>
       </c>
       <c r="E52" t="n">
-        <v>0.22046</v>
+        <v>0.220533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333281</v>
+        <v>0.333519</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237241</v>
+        <v>0.237109</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351541</v>
+        <v>0.351196</v>
       </c>
       <c r="D53" t="n">
-        <v>0.330109</v>
+        <v>0.328003</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219028</v>
+        <v>0.219129</v>
       </c>
       <c r="F53" t="n">
-        <v>0.331722</v>
+        <v>0.33189</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.23336</v>
+        <v>0.233327</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348369</v>
+        <v>0.348436</v>
       </c>
       <c r="D54" t="n">
-        <v>0.328922</v>
+        <v>0.327154</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217299</v>
+        <v>0.217434</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331281</v>
+        <v>0.331723</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229094</v>
+        <v>0.229418</v>
       </c>
       <c r="C55" t="n">
-        <v>0.345543</v>
+        <v>0.344551</v>
       </c>
       <c r="D55" t="n">
-        <v>0.331074</v>
+        <v>0.329754</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215561</v>
+        <v>0.215743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329282</v>
+        <v>0.329122</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223224</v>
+        <v>0.222924</v>
       </c>
       <c r="C56" t="n">
-        <v>0.342432</v>
+        <v>0.340935</v>
       </c>
       <c r="D56" t="n">
-        <v>0.332453</v>
+        <v>0.331337</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214353</v>
+        <v>0.214463</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328069</v>
+        <v>0.328198</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.218971</v>
+        <v>0.219082</v>
       </c>
       <c r="C57" t="n">
-        <v>0.337312</v>
+        <v>0.335479</v>
       </c>
       <c r="D57" t="n">
-        <v>0.336482</v>
+        <v>0.335005</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213165</v>
+        <v>0.213327</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327149</v>
+        <v>0.327301</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.21392</v>
+        <v>0.214071</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323432</v>
+        <v>0.323354</v>
       </c>
       <c r="D58" t="n">
-        <v>0.340196</v>
+        <v>0.338561</v>
       </c>
       <c r="E58" t="n">
-        <v>0.211969</v>
+        <v>0.212086</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326306</v>
+        <v>0.326308</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206334</v>
+        <v>0.205877</v>
       </c>
       <c r="C59" t="n">
-        <v>0.328281</v>
+        <v>0.327605</v>
       </c>
       <c r="D59" t="n">
-        <v>0.342714</v>
+        <v>0.341323</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210798</v>
+        <v>0.210918</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325516</v>
+        <v>0.325386</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.20363</v>
+        <v>0.203442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.323546</v>
+        <v>0.32311</v>
       </c>
       <c r="D60" t="n">
-        <v>0.346512</v>
+        <v>0.345857</v>
       </c>
       <c r="E60" t="n">
-        <v>0.20967</v>
+        <v>0.209806</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324585</v>
+        <v>0.324682</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199189</v>
+        <v>0.198804</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340304</v>
+        <v>0.338317</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349344</v>
+        <v>0.349254</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208723</v>
+        <v>0.208846</v>
       </c>
       <c r="F61" t="n">
-        <v>0.324022</v>
+        <v>0.323463</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.194101</v>
+        <v>0.190133</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310338</v>
+        <v>0.310381</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352018</v>
+        <v>0.352205</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207772</v>
+        <v>0.207847</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322924</v>
+        <v>0.322319</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188907</v>
+        <v>0.188503</v>
       </c>
       <c r="C63" t="n">
-        <v>0.319455</v>
+        <v>0.321623</v>
       </c>
       <c r="D63" t="n">
-        <v>0.356663</v>
+        <v>0.35729</v>
       </c>
       <c r="E63" t="n">
-        <v>0.20687</v>
+        <v>0.206913</v>
       </c>
       <c r="F63" t="n">
-        <v>0.32169</v>
+        <v>0.321296</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177625</v>
+        <v>0.182676</v>
       </c>
       <c r="C64" t="n">
-        <v>0.315348</v>
+        <v>0.316358</v>
       </c>
       <c r="D64" t="n">
-        <v>0.381237</v>
+        <v>0.380665</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205962</v>
+        <v>0.205993</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320917</v>
+        <v>0.320746</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.169652</v>
+        <v>0.175436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285832</v>
+        <v>0.285989</v>
       </c>
       <c r="D65" t="n">
-        <v>0.382555</v>
+        <v>0.384326</v>
       </c>
       <c r="E65" t="n">
-        <v>0.205219</v>
+        <v>0.2053</v>
       </c>
       <c r="F65" t="n">
-        <v>0.32002</v>
+        <v>0.319907</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161581</v>
+        <v>0.16151</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307898</v>
+        <v>0.307283</v>
       </c>
       <c r="D66" t="n">
-        <v>0.384723</v>
+        <v>0.38735</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22189</v>
+        <v>0.22174</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334387</v>
+        <v>0.334744</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.238933</v>
+        <v>0.239245</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383259</v>
+        <v>0.383015</v>
       </c>
       <c r="D67" t="n">
-        <v>0.37826</v>
+        <v>0.378608</v>
       </c>
       <c r="E67" t="n">
-        <v>0.21968</v>
+        <v>0.219736</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332528</v>
+        <v>0.332708</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235022</v>
+        <v>0.234984</v>
       </c>
       <c r="C68" t="n">
-        <v>0.381677</v>
+        <v>0.380777</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389464</v>
+        <v>0.389722</v>
       </c>
       <c r="E68" t="n">
-        <v>0.218071</v>
+        <v>0.21814</v>
       </c>
       <c r="F68" t="n">
-        <v>0.331716</v>
+        <v>0.33176</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.229935</v>
+        <v>0.230165</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375582</v>
+        <v>0.375024</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391569</v>
+        <v>0.391123</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216644</v>
+        <v>0.216714</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329667</v>
+        <v>0.329921</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226247</v>
+        <v>0.22637</v>
       </c>
       <c r="C70" t="n">
-        <v>0.372019</v>
+        <v>0.371186</v>
       </c>
       <c r="D70" t="n">
-        <v>0.394225</v>
+        <v>0.393549</v>
       </c>
       <c r="E70" t="n">
-        <v>0.215248</v>
+        <v>0.21532</v>
       </c>
       <c r="F70" t="n">
-        <v>0.32884</v>
+        <v>0.329055</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219198</v>
+        <v>0.219685</v>
       </c>
       <c r="C71" t="n">
-        <v>0.366527</v>
+        <v>0.365124</v>
       </c>
       <c r="D71" t="n">
-        <v>0.384343</v>
+        <v>0.383449</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214016</v>
+        <v>0.214075</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327285</v>
+        <v>0.327182</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213253</v>
+        <v>0.213435</v>
       </c>
       <c r="C72" t="n">
-        <v>0.387222</v>
+        <v>0.385198</v>
       </c>
       <c r="D72" t="n">
-        <v>0.385256</v>
+        <v>0.383347</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212884</v>
+        <v>0.212847</v>
       </c>
       <c r="F72" t="n">
-        <v>0.325945</v>
+        <v>0.326094</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210232</v>
+        <v>0.21052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.436982</v>
+        <v>0.434361</v>
       </c>
       <c r="D73" t="n">
-        <v>0.396706</v>
+        <v>0.395812</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211633</v>
+        <v>0.211554</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326277</v>
+        <v>0.326223</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.20269</v>
+        <v>0.202826</v>
       </c>
       <c r="C74" t="n">
-        <v>0.507815</v>
+        <v>0.50515</v>
       </c>
       <c r="D74" t="n">
-        <v>0.397464</v>
+        <v>0.396497</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210337</v>
+        <v>0.210331</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325285</v>
+        <v>0.325121</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200217</v>
+        <v>0.200433</v>
       </c>
       <c r="C75" t="n">
-        <v>0.42607</v>
+        <v>0.424146</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394086</v>
+        <v>0.394012</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209359</v>
+        <v>0.209315</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324189</v>
+        <v>0.324058</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195153</v>
+        <v>0.195052</v>
       </c>
       <c r="C76" t="n">
-        <v>0.434402</v>
+        <v>0.432666</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385779</v>
+        <v>0.385415</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208391</v>
+        <v>0.208313</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321856</v>
+        <v>0.321859</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.185537</v>
+        <v>0.18588</v>
       </c>
       <c r="C77" t="n">
-        <v>0.417473</v>
+        <v>0.413597</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399489</v>
+        <v>0.399165</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207263</v>
+        <v>0.207214</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322186</v>
+        <v>0.322049</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183407</v>
+        <v>0.183954</v>
       </c>
       <c r="C78" t="n">
-        <v>0.40556</v>
+        <v>0.404342</v>
       </c>
       <c r="D78" t="n">
-        <v>0.45155</v>
+        <v>0.450311</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206629</v>
+        <v>0.206537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319998</v>
+        <v>0.319915</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.175255</v>
+        <v>0.177332</v>
       </c>
       <c r="C79" t="n">
-        <v>0.316367</v>
+        <v>0.315879</v>
       </c>
       <c r="D79" t="n">
-        <v>0.447149</v>
+        <v>0.44593</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205793</v>
+        <v>0.205816</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319159</v>
+        <v>0.319103</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.168991</v>
+        <v>0.169589</v>
       </c>
       <c r="C80" t="n">
-        <v>0.391416</v>
+        <v>0.389973</v>
       </c>
       <c r="D80" t="n">
-        <v>0.443204</v>
+        <v>0.442258</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224751</v>
+        <v>0.224387</v>
       </c>
       <c r="F80" t="n">
-        <v>0.335049</v>
+        <v>0.334767</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.239985</v>
+        <v>0.242077</v>
       </c>
       <c r="C81" t="n">
-        <v>0.374059</v>
+        <v>0.373661</v>
       </c>
       <c r="D81" t="n">
-        <v>0.424011</v>
+        <v>0.422901</v>
       </c>
       <c r="E81" t="n">
-        <v>0.224261</v>
+        <v>0.221993</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332934</v>
+        <v>0.332937</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237985</v>
+        <v>0.238337</v>
       </c>
       <c r="C82" t="n">
-        <v>0.37053</v>
+        <v>0.370128</v>
       </c>
       <c r="D82" t="n">
-        <v>0.43328</v>
+        <v>0.431972</v>
       </c>
       <c r="E82" t="n">
-        <v>0.221022</v>
+        <v>0.219747</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332178</v>
+        <v>0.332091</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233148</v>
+        <v>0.233393</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36549</v>
+        <v>0.36513</v>
       </c>
       <c r="D83" t="n">
-        <v>0.417515</v>
+        <v>0.416602</v>
       </c>
       <c r="E83" t="n">
-        <v>0.219173</v>
+        <v>0.218249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330625</v>
+        <v>0.330379</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.22768</v>
+        <v>0.228169</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359961</v>
+        <v>0.359783</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415358</v>
+        <v>0.415232</v>
       </c>
       <c r="E84" t="n">
-        <v>0.217222</v>
+        <v>0.216523</v>
       </c>
       <c r="F84" t="n">
-        <v>0.329073</v>
+        <v>0.328979</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222928</v>
+        <v>0.223053</v>
       </c>
       <c r="C85" t="n">
-        <v>0.355076</v>
+        <v>0.354822</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412503</v>
+        <v>0.411634</v>
       </c>
       <c r="E85" t="n">
-        <v>0.216232</v>
+        <v>0.215208</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328181</v>
+        <v>0.328088</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215022</v>
+        <v>0.215091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.34902</v>
+        <v>0.3488</v>
       </c>
       <c r="D86" t="n">
-        <v>0.421781</v>
+        <v>0.420989</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213991</v>
+        <v>0.213791</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327359</v>
+        <v>0.327214</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.209217</v>
+        <v>0.20965</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354509</v>
+        <v>0.354432</v>
       </c>
       <c r="D87" t="n">
-        <v>0.421362</v>
+        <v>0.420751</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212561</v>
+        <v>0.212218</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326328</v>
+        <v>0.326101</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207414</v>
+        <v>0.206688</v>
       </c>
       <c r="C88" t="n">
-        <v>0.428192</v>
+        <v>0.427409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.419498</v>
+        <v>0.418385</v>
       </c>
       <c r="E88" t="n">
-        <v>0.211035</v>
+        <v>0.210796</v>
       </c>
       <c r="F88" t="n">
-        <v>0.32527</v>
+        <v>0.325197</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.20119</v>
+        <v>0.201045</v>
       </c>
       <c r="C89" t="n">
-        <v>0.412213</v>
+        <v>0.411439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.417241</v>
+        <v>0.416137</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209774</v>
+        <v>0.209645</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324442</v>
+        <v>0.324161</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193515</v>
+        <v>0.19653</v>
       </c>
       <c r="C90" t="n">
-        <v>0.395311</v>
+        <v>0.394311</v>
       </c>
       <c r="D90" t="n">
-        <v>0.417396</v>
+        <v>0.416668</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208831</v>
+        <v>0.208763</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323412</v>
+        <v>0.323356</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187549</v>
+        <v>0.191541</v>
       </c>
       <c r="C91" t="n">
-        <v>0.413502</v>
+        <v>0.412321</v>
       </c>
       <c r="D91" t="n">
-        <v>0.414912</v>
+        <v>0.41446</v>
       </c>
       <c r="E91" t="n">
-        <v>0.207896</v>
+        <v>0.20778</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322518</v>
+        <v>0.322384</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18496</v>
+        <v>0.185137</v>
       </c>
       <c r="C92" t="n">
-        <v>0.443189</v>
+        <v>0.441949</v>
       </c>
       <c r="D92" t="n">
-        <v>0.454224</v>
+        <v>0.452927</v>
       </c>
       <c r="E92" t="n">
-        <v>0.207102</v>
+        <v>0.206887</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321476</v>
+        <v>0.321361</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173408</v>
+        <v>0.173724</v>
       </c>
       <c r="C93" t="n">
-        <v>0.410368</v>
+        <v>0.409194</v>
       </c>
       <c r="D93" t="n">
-        <v>0.449955</v>
+        <v>0.448389</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206303</v>
+        <v>0.206105</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320681</v>
+        <v>0.320525</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.16581</v>
+        <v>0.171365</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325785</v>
+        <v>0.325018</v>
       </c>
       <c r="D94" t="n">
-        <v>0.442379</v>
+        <v>0.441247</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224757</v>
+        <v>0.224713</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336199</v>
+        <v>0.336322</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241354</v>
+        <v>0.241006</v>
       </c>
       <c r="C95" t="n">
-        <v>0.480066</v>
+        <v>0.478767</v>
       </c>
       <c r="D95" t="n">
-        <v>0.423995</v>
+        <v>0.422132</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221974</v>
+        <v>0.221477</v>
       </c>
       <c r="F95" t="n">
-        <v>0.334045</v>
+        <v>0.333852</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.235819</v>
+        <v>0.236891</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354414</v>
+        <v>0.354454</v>
       </c>
       <c r="D96" t="n">
-        <v>0.425149</v>
+        <v>0.423552</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219606</v>
+        <v>0.219726</v>
       </c>
       <c r="F96" t="n">
-        <v>0.331002</v>
+        <v>0.330728</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232591</v>
+        <v>0.232382</v>
       </c>
       <c r="C97" t="n">
-        <v>0.350213</v>
+        <v>0.349837</v>
       </c>
       <c r="D97" t="n">
-        <v>0.406841</v>
+        <v>0.405597</v>
       </c>
       <c r="E97" t="n">
-        <v>0.217705</v>
+        <v>0.218326</v>
       </c>
       <c r="F97" t="n">
-        <v>0.32868</v>
+        <v>0.328395</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229439</v>
+        <v>0.229574</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345851</v>
+        <v>0.345736</v>
       </c>
       <c r="D98" t="n">
-        <v>0.402611</v>
+        <v>0.401539</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216472</v>
+        <v>0.216936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.327012</v>
+        <v>0.326904</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224154</v>
+        <v>0.224339</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340631</v>
+        <v>0.340185</v>
       </c>
       <c r="D99" t="n">
-        <v>0.39909</v>
+        <v>0.397842</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215318</v>
+        <v>0.215503</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325738</v>
+        <v>0.325631</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218741</v>
+        <v>0.218044</v>
       </c>
       <c r="C100" t="n">
-        <v>0.335155</v>
+        <v>0.33502</v>
       </c>
       <c r="D100" t="n">
-        <v>0.401457</v>
+        <v>0.40025</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213724</v>
+        <v>0.213887</v>
       </c>
       <c r="F100" t="n">
-        <v>0.325075</v>
+        <v>0.324933</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213112</v>
+        <v>0.212853</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394856</v>
+        <v>0.394261</v>
       </c>
       <c r="D101" t="n">
-        <v>0.386964</v>
+        <v>0.385912</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212066</v>
+        <v>0.212073</v>
       </c>
       <c r="F101" t="n">
-        <v>0.323434</v>
+        <v>0.32338</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207579</v>
+        <v>0.20764</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366976</v>
+        <v>0.366303</v>
       </c>
       <c r="D102" t="n">
-        <v>0.384162</v>
+        <v>0.383046</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211266</v>
+        <v>0.211313</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322451</v>
+        <v>0.322356</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202268</v>
+        <v>0.202565</v>
       </c>
       <c r="C103" t="n">
-        <v>0.43249</v>
+        <v>0.431119</v>
       </c>
       <c r="D103" t="n">
-        <v>0.382492</v>
+        <v>0.38107</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210165</v>
+        <v>0.210208</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321352</v>
+        <v>0.321237</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197529</v>
+        <v>0.197309</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389889</v>
+        <v>0.389164</v>
       </c>
       <c r="D104" t="n">
-        <v>0.394466</v>
+        <v>0.393786</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209054</v>
+        <v>0.209123</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320602</v>
+        <v>0.320443</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192596</v>
+        <v>0.192703</v>
       </c>
       <c r="C105" t="n">
-        <v>0.388471</v>
+        <v>0.387519</v>
       </c>
       <c r="D105" t="n">
-        <v>0.39319</v>
+        <v>0.391946</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208014</v>
+        <v>0.208125</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320942</v>
+        <v>0.320842</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.18711</v>
+        <v>0.187166</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363885</v>
+        <v>0.363726</v>
       </c>
       <c r="D106" t="n">
-        <v>0.385724</v>
+        <v>0.38562</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206837</v>
+        <v>0.206923</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318722</v>
+        <v>0.318609</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180618</v>
+        <v>0.180898</v>
       </c>
       <c r="C107" t="n">
-        <v>0.392099</v>
+        <v>0.391249</v>
       </c>
       <c r="D107" t="n">
-        <v>0.416135</v>
+        <v>0.414839</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206686</v>
+        <v>0.206578</v>
       </c>
       <c r="F107" t="n">
-        <v>0.31809</v>
+        <v>0.318042</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173531</v>
+        <v>0.173592</v>
       </c>
       <c r="C108" t="n">
-        <v>0.368727</v>
+        <v>0.367711</v>
       </c>
       <c r="D108" t="n">
-        <v>0.413098</v>
+        <v>0.411002</v>
       </c>
       <c r="E108" t="n">
-        <v>0.22546</v>
+        <v>0.225377</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333732</v>
+        <v>0.333574</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.158218</v>
+        <v>0.157576</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329336</v>
+        <v>0.328899</v>
       </c>
       <c r="D109" t="n">
-        <v>0.39965</v>
+        <v>0.398261</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222752</v>
+        <v>0.222654</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331433</v>
+        <v>0.331271</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238152</v>
+        <v>0.238084</v>
       </c>
       <c r="C110" t="n">
-        <v>0.495443</v>
+        <v>0.493874</v>
       </c>
       <c r="D110" t="n">
-        <v>0.399589</v>
+        <v>0.398461</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2204</v>
+        <v>0.220439</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329891</v>
+        <v>0.329667</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233594</v>
+        <v>0.23378</v>
       </c>
       <c r="C111" t="n">
-        <v>0.496272</v>
+        <v>0.49468</v>
       </c>
       <c r="D111" t="n">
-        <v>0.39612</v>
+        <v>0.384808</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218626</v>
+        <v>0.218671</v>
       </c>
       <c r="F111" t="n">
-        <v>0.329199</v>
+        <v>0.328932</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.22742</v>
+        <v>0.228874</v>
       </c>
       <c r="C112" t="n">
-        <v>0.495099</v>
+        <v>0.493379</v>
       </c>
       <c r="D112" t="n">
-        <v>0.399149</v>
+        <v>0.398083</v>
       </c>
       <c r="E112" t="n">
-        <v>0.216922</v>
+        <v>0.21703</v>
       </c>
       <c r="F112" t="n">
-        <v>0.328043</v>
+        <v>0.327765</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223643</v>
+        <v>0.223411</v>
       </c>
       <c r="C113" t="n">
-        <v>0.493376</v>
+        <v>0.49166</v>
       </c>
       <c r="D113" t="n">
-        <v>0.38491</v>
+        <v>0.395514</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215358</v>
+        <v>0.215311</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326317</v>
+        <v>0.326127</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.21776</v>
+        <v>0.218023</v>
       </c>
       <c r="C114" t="n">
-        <v>0.489873</v>
+        <v>0.48826</v>
       </c>
       <c r="D114" t="n">
-        <v>0.394094</v>
+        <v>0.392894</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213776</v>
+        <v>0.213837</v>
       </c>
       <c r="F114" t="n">
-        <v>0.325617</v>
+        <v>0.32536</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211798</v>
+        <v>0.212687</v>
       </c>
       <c r="C115" t="n">
-        <v>0.442812</v>
+        <v>0.441477</v>
       </c>
       <c r="D115" t="n">
-        <v>0.384213</v>
+        <v>0.383092</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212483</v>
+        <v>0.212533</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324467</v>
+        <v>0.324163</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206332</v>
+        <v>0.20634</v>
       </c>
       <c r="C116" t="n">
-        <v>0.446332</v>
+        <v>0.445081</v>
       </c>
       <c r="D116" t="n">
-        <v>0.382359</v>
+        <v>0.367245</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211586</v>
+        <v>0.211504</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323375</v>
+        <v>0.323461</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200663</v>
+        <v>0.201157</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312816</v>
+        <v>0.312737</v>
       </c>
       <c r="D117" t="n">
-        <v>0.37566</v>
+        <v>0.374621</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210298</v>
+        <v>0.210245</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322631</v>
+        <v>0.322705</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198977</v>
+        <v>0.198963</v>
       </c>
       <c r="C118" t="n">
-        <v>0.449023</v>
+        <v>0.436189</v>
       </c>
       <c r="D118" t="n">
-        <v>0.368458</v>
+        <v>0.367856</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209218</v>
+        <v>0.209234</v>
       </c>
       <c r="F118" t="n">
-        <v>0.32112</v>
+        <v>0.321874</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193781</v>
+        <v>0.193526</v>
       </c>
       <c r="C119" t="n">
-        <v>0.429408</v>
+        <v>0.428167</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378914</v>
+        <v>0.378087</v>
       </c>
       <c r="E119" t="n">
-        <v>0.208041</v>
+        <v>0.207987</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320365</v>
+        <v>0.320122</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188361</v>
+        <v>0.188202</v>
       </c>
       <c r="C120" t="n">
-        <v>0.448581</v>
+        <v>0.447219</v>
       </c>
       <c r="D120" t="n">
-        <v>0.372432</v>
+        <v>0.371122</v>
       </c>
       <c r="E120" t="n">
-        <v>0.207444</v>
+        <v>0.20732</v>
       </c>
       <c r="F120" t="n">
-        <v>0.320174</v>
+        <v>0.319888</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182216</v>
+        <v>0.182012</v>
       </c>
       <c r="C121" t="n">
-        <v>0.414161</v>
+        <v>0.412973</v>
       </c>
       <c r="D121" t="n">
-        <v>0.460047</v>
+        <v>0.457049</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206677</v>
+        <v>0.206505</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319059</v>
+        <v>0.319026</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169801</v>
+        <v>0.169649</v>
       </c>
       <c r="C122" t="n">
-        <v>0.36864</v>
+        <v>0.367922</v>
       </c>
       <c r="D122" t="n">
-        <v>0.45216</v>
+        <v>0.449197</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205964</v>
+        <v>0.205755</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318192</v>
+        <v>0.318222</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.164463</v>
+        <v>0.16647</v>
       </c>
       <c r="C123" t="n">
-        <v>0.355751</v>
+        <v>0.35522</v>
       </c>
       <c r="D123" t="n">
-        <v>0.433465</v>
+        <v>0.431685</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223203</v>
+        <v>0.223069</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332473</v>
+        <v>0.332148</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238945</v>
+        <v>0.238661</v>
       </c>
       <c r="C124" t="n">
-        <v>0.430287</v>
+        <v>0.429524</v>
       </c>
       <c r="D124" t="n">
-        <v>0.41867</v>
+        <v>0.417153</v>
       </c>
       <c r="E124" t="n">
-        <v>0.2209</v>
+        <v>0.220802</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330364</v>
+        <v>0.330367</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234396</v>
+        <v>0.234681</v>
       </c>
       <c r="C125" t="n">
-        <v>0.471267</v>
+        <v>0.469972</v>
       </c>
       <c r="D125" t="n">
-        <v>0.40337</v>
+        <v>0.412764</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218956</v>
+        <v>0.218843</v>
       </c>
       <c r="F125" t="n">
-        <v>0.329145</v>
+        <v>0.328841</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.230091</v>
+        <v>0.229597</v>
       </c>
       <c r="C126" t="n">
-        <v>0.456952</v>
+        <v>0.455892</v>
       </c>
       <c r="D126" t="n">
-        <v>0.419459</v>
+        <v>0.40667</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217279</v>
+        <v>0.217116</v>
       </c>
       <c r="F126" t="n">
-        <v>0.32729</v>
+        <v>0.327443</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224663</v>
+        <v>0.224571</v>
       </c>
       <c r="C127" t="n">
-        <v>0.430707</v>
+        <v>0.429964</v>
       </c>
       <c r="D127" t="n">
-        <v>0.395981</v>
+        <v>0.394613</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215694</v>
+        <v>0.215593</v>
       </c>
       <c r="F127" t="n">
-        <v>0.32622</v>
+        <v>0.326121</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218897</v>
+        <v>0.218421</v>
       </c>
       <c r="C128" t="n">
-        <v>0.456737</v>
+        <v>0.454873</v>
       </c>
       <c r="D128" t="n">
-        <v>0.400267</v>
+        <v>0.398683</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214258</v>
+        <v>0.214216</v>
       </c>
       <c r="F128" t="n">
-        <v>0.325044</v>
+        <v>0.324968</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215587</v>
+        <v>0.21347</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375791</v>
+        <v>0.375299</v>
       </c>
       <c r="D129" t="n">
-        <v>0.418978</v>
+        <v>0.417697</v>
       </c>
       <c r="E129" t="n">
-        <v>0.213005</v>
+        <v>0.212873</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324626</v>
+        <v>0.324189</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207954</v>
+        <v>0.207751</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427533</v>
+        <v>0.427108</v>
       </c>
       <c r="D130" t="n">
-        <v>0.412513</v>
+        <v>0.411372</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211744</v>
+        <v>0.211602</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322733</v>
+        <v>0.322645</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.201656</v>
+        <v>0.204367</v>
       </c>
       <c r="C131" t="n">
-        <v>0.431133</v>
+        <v>0.430129</v>
       </c>
       <c r="D131" t="n">
-        <v>0.413312</v>
+        <v>0.412141</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210675</v>
+        <v>0.210411</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322636</v>
+        <v>0.322276</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200067</v>
+        <v>0.200025</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358536</v>
+        <v>0.358121</v>
       </c>
       <c r="D132" t="n">
-        <v>0.403187</v>
+        <v>0.401472</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209568</v>
+        <v>0.209437</v>
       </c>
       <c r="F132" t="n">
-        <v>0.320408</v>
+        <v>0.32046</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190988</v>
+        <v>0.190771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.45726</v>
+        <v>0.455985</v>
       </c>
       <c r="D133" t="n">
-        <v>0.389798</v>
+        <v>0.377124</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208534</v>
+        <v>0.208425</v>
       </c>
       <c r="F133" t="n">
-        <v>0.31965</v>
+        <v>0.319751</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.187098</v>
+        <v>0.184923</v>
       </c>
       <c r="C134" t="n">
-        <v>0.413608</v>
+        <v>0.412288</v>
       </c>
       <c r="D134" t="n">
-        <v>0.408459</v>
+        <v>0.407241</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207232</v>
+        <v>0.207227</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319518</v>
+        <v>0.319589</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.183893</v>
+        <v>0.18395</v>
       </c>
       <c r="C135" t="n">
-        <v>0.433881</v>
+        <v>0.432271</v>
       </c>
       <c r="D135" t="n">
-        <v>0.451659</v>
+        <v>0.44982</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206689</v>
+        <v>0.206585</v>
       </c>
       <c r="F135" t="n">
-        <v>0.317945</v>
+        <v>0.3177</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.175001</v>
+        <v>0.17138</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394584</v>
+        <v>0.394043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.430291</v>
+        <v>0.437821</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205878</v>
+        <v>0.205801</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317509</v>
+        <v>0.317149</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162137</v>
+        <v>0.162429</v>
       </c>
       <c r="C137" t="n">
-        <v>0.388036</v>
+        <v>0.387207</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4185</v>
+        <v>0.417013</v>
       </c>
       <c r="E137" t="n">
-        <v>0.223581</v>
+        <v>0.22352</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332631</v>
+        <v>0.332331</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240799</v>
+        <v>0.240913</v>
       </c>
       <c r="C138" t="n">
-        <v>0.461823</v>
+        <v>0.46183</v>
       </c>
       <c r="D138" t="n">
-        <v>0.436583</v>
+        <v>0.425602</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221257</v>
+        <v>0.221163</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330902</v>
+        <v>0.330729</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236865</v>
+        <v>0.236358</v>
       </c>
       <c r="C139" t="n">
-        <v>0.475594</v>
+        <v>0.474479</v>
       </c>
       <c r="D139" t="n">
-        <v>0.419549</v>
+        <v>0.429063</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219236</v>
+        <v>0.219193</v>
       </c>
       <c r="F139" t="n">
-        <v>0.330129</v>
+        <v>0.329914</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23155</v>
+        <v>0.231514</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464401</v>
+        <v>0.464012</v>
       </c>
       <c r="D140" t="n">
-        <v>0.415786</v>
+        <v>0.426355</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217624</v>
+        <v>0.217464</v>
       </c>
       <c r="F140" t="n">
-        <v>0.328858</v>
+        <v>0.32868</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22444</v>
+        <v>0.22447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446447</v>
+        <v>0.446345</v>
       </c>
       <c r="D141" t="n">
-        <v>0.412502</v>
+        <v>0.411172</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215995</v>
+        <v>0.215914</v>
       </c>
       <c r="F141" t="n">
-        <v>0.327199</v>
+        <v>0.326783</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.221272</v>
+        <v>0.22105</v>
       </c>
       <c r="C142" t="n">
-        <v>0.38384</v>
+        <v>0.383967</v>
       </c>
       <c r="D142" t="n">
-        <v>0.408</v>
+        <v>0.407645</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214504</v>
+        <v>0.214433</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325575</v>
+        <v>0.325394</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215768</v>
+        <v>0.215665</v>
       </c>
       <c r="C143" t="n">
-        <v>0.48088</v>
+        <v>0.480403</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404532</v>
+        <v>0.404022</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213179</v>
+        <v>0.213105</v>
       </c>
       <c r="F143" t="n">
-        <v>0.324445</v>
+        <v>0.32422</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198039</v>
+        <v>0.198218</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316419</v>
+        <v>0.316216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309565</v>
+        <v>0.310319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196182</v>
+        <v>0.19508</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316663</v>
+        <v>0.316574</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193762</v>
+        <v>0.194684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315423</v>
+        <v>0.315998</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314294</v>
+        <v>0.327059</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196841</v>
+        <v>0.196477</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318276</v>
+        <v>0.316683</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188337</v>
+        <v>0.189245</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312745</v>
+        <v>0.312453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.317344</v>
+        <v>0.331688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196898</v>
+        <v>0.197602</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316417</v>
+        <v>0.31586</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182788</v>
+        <v>0.18301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303331</v>
+        <v>0.302737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332271</v>
+        <v>0.33238</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196851</v>
+        <v>0.197016</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315708</v>
+        <v>0.315563</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181828</v>
+        <v>0.181478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301634</v>
+        <v>0.30163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333413</v>
+        <v>0.334374</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197339</v>
+        <v>0.197628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316</v>
+        <v>0.315997</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169635</v>
+        <v>0.169113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293504</v>
+        <v>0.293432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.315713</v>
+        <v>0.313519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197654</v>
+        <v>0.197603</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315572</v>
+        <v>0.315969</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166119</v>
+        <v>0.166146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281763</v>
+        <v>0.283079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315335</v>
+        <v>0.315022</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198048</v>
+        <v>0.197932</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315043</v>
+        <v>0.315379</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158341</v>
+        <v>0.158085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27807</v>
+        <v>0.27766</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317159</v>
+        <v>0.317067</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215092</v>
+        <v>0.213989</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328643</v>
+        <v>0.328807</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237257</v>
+        <v>0.236914</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351217</v>
+        <v>0.351311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316448</v>
+        <v>0.316045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213228</v>
+        <v>0.213377</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32841</v>
+        <v>0.327817</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23291</v>
+        <v>0.233425</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347033</v>
+        <v>0.347297</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317772</v>
+        <v>0.318622</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212467</v>
+        <v>0.212411</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326143</v>
+        <v>0.325839</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22683</v>
+        <v>0.22658</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342523</v>
+        <v>0.342757</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320455</v>
+        <v>0.321206</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212113</v>
+        <v>0.212915</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325918</v>
+        <v>0.325988</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221872</v>
+        <v>0.221913</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340801</v>
+        <v>0.340225</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322094</v>
+        <v>0.320907</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211485</v>
+        <v>0.21145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325397</v>
+        <v>0.324783</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218494</v>
+        <v>0.218255</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336581</v>
+        <v>0.335842</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323662</v>
+        <v>0.32327</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210565</v>
+        <v>0.210453</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323269</v>
+        <v>0.323209</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213004</v>
+        <v>0.212819</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319841</v>
+        <v>0.319743</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324178</v>
+        <v>0.324504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209938</v>
+        <v>0.209547</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322049</v>
+        <v>0.322058</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20851</v>
+        <v>0.209206</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323498</v>
+        <v>0.326145</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326241</v>
+        <v>0.325269</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208726</v>
+        <v>0.208618</v>
       </c>
       <c r="F16" t="n">
-        <v>0.320796</v>
+        <v>0.321048</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203756</v>
+        <v>0.203269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.313249</v>
+        <v>0.315486</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327901</v>
+        <v>0.328488</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20794</v>
+        <v>0.20775</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320214</v>
+        <v>0.320198</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199901</v>
+        <v>0.199564</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314213</v>
+        <v>0.314145</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331556</v>
+        <v>0.330861</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207039</v>
+        <v>0.206789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319789</v>
+        <v>0.319837</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.193781</v>
       </c>
       <c r="C19" t="n">
-        <v>0.308842</v>
+        <v>0.307384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333714</v>
+        <v>0.333979</v>
       </c>
       <c r="E19" t="n">
-        <v>0.20665</v>
+        <v>0.206401</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318676</v>
+        <v>0.318809</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187185</v>
+        <v>0.187317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301654</v>
+        <v>0.304065</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335579</v>
+        <v>0.335561</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205974</v>
+        <v>0.20572</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318552</v>
+        <v>0.318601</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181744</v>
+        <v>0.181834</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299518</v>
+        <v>0.299162</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318668</v>
+        <v>0.318277</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205177</v>
+        <v>0.205053</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319185</v>
+        <v>0.319488</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169611</v>
+        <v>0.174323</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288004</v>
+        <v>0.287855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318504</v>
+        <v>0.317789</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204458</v>
+        <v>0.204193</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316293</v>
+        <v>0.316385</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165369</v>
+        <v>0.165464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277601</v>
+        <v>0.277469</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319039</v>
+        <v>0.318583</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220767</v>
+        <v>0.220911</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331025</v>
+        <v>0.331164</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236637</v>
+        <v>0.238908</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35504</v>
+        <v>0.355611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322216</v>
+        <v>0.321557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218939</v>
+        <v>0.218841</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330063</v>
+        <v>0.330243</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235156</v>
+        <v>0.234529</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349105</v>
+        <v>0.348498</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323625</v>
+        <v>0.323316</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217618</v>
+        <v>0.217639</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329757</v>
+        <v>0.329561</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229281</v>
+        <v>0.23002</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344807</v>
+        <v>0.344421</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322615</v>
+        <v>0.323059</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216425</v>
+        <v>0.216157</v>
       </c>
       <c r="F26" t="n">
-        <v>0.327824</v>
+        <v>0.328353</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225395</v>
+        <v>0.225628</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343028</v>
+        <v>0.343188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323999</v>
+        <v>0.323386</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215003</v>
+        <v>0.214847</v>
       </c>
       <c r="F27" t="n">
-        <v>0.32727</v>
+        <v>0.327273</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220174</v>
+        <v>0.219659</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338369</v>
+        <v>0.338647</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325367</v>
+        <v>0.324963</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213842</v>
+        <v>0.213626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326686</v>
+        <v>0.326814</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215007</v>
+        <v>0.215255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333117</v>
+        <v>0.333917</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32906</v>
+        <v>0.328589</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212555</v>
+        <v>0.212498</v>
       </c>
       <c r="F29" t="n">
-        <v>0.327074</v>
+        <v>0.326171</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210651</v>
+        <v>0.210491</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330089</v>
+        <v>0.331029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330025</v>
+        <v>0.330512</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21131</v>
+        <v>0.211281</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32554</v>
+        <v>0.325617</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205018</v>
+        <v>0.204372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322506</v>
+        <v>0.320802</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331852</v>
+        <v>0.331294</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210128</v>
+        <v>0.210016</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32433</v>
+        <v>0.324343</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196874</v>
+        <v>0.199677</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319564</v>
+        <v>0.320249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332338</v>
+        <v>0.33268</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209063</v>
+        <v>0.209032</v>
       </c>
       <c r="F32" t="n">
-        <v>0.32262</v>
+        <v>0.322684</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196106</v>
+        <v>0.195874</v>
       </c>
       <c r="C33" t="n">
-        <v>0.309981</v>
+        <v>0.311462</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336587</v>
+        <v>0.336251</v>
       </c>
       <c r="E33" t="n">
         <v>0.208206</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32185</v>
+        <v>0.321976</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189556</v>
+        <v>0.189701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309942</v>
+        <v>0.309804</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338697</v>
+        <v>0.338714</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207283</v>
+        <v>0.207188</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321654</v>
+        <v>0.322124</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185612</v>
+        <v>0.185028</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302861</v>
+        <v>0.300046</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322838</v>
+        <v>0.322416</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.206392</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320729</v>
+        <v>0.32073</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178782</v>
+        <v>0.17866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290962</v>
+        <v>0.291084</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323149</v>
+        <v>0.323075</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20579</v>
+        <v>0.205575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319726</v>
+        <v>0.320229</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16974</v>
+        <v>0.169814</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276509</v>
+        <v>0.276533</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322484</v>
+        <v>0.32224</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222266</v>
+        <v>0.221776</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334461</v>
+        <v>0.334211</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242459</v>
+        <v>0.242675</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352154</v>
+        <v>0.351959</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324654</v>
+        <v>0.325396</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220484</v>
+        <v>0.220117</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333141</v>
+        <v>0.332971</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235937</v>
+        <v>0.236359</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348957</v>
+        <v>0.348946</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326529</v>
+        <v>0.325997</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218646</v>
+        <v>0.21847</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330717</v>
+        <v>0.330668</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232247</v>
+        <v>0.23254</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345654</v>
+        <v>0.345781</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326624</v>
+        <v>0.327021</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217024</v>
+        <v>0.216891</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329927</v>
+        <v>0.329525</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227155</v>
+        <v>0.227613</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34176</v>
+        <v>0.341857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327161</v>
+        <v>0.326887</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215607</v>
+        <v>0.215491</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328181</v>
+        <v>0.328239</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223449</v>
+        <v>0.224214</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336746</v>
+        <v>0.337073</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328339</v>
+        <v>0.327931</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214423</v>
+        <v>0.214205</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328124</v>
+        <v>0.327862</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215928</v>
+        <v>0.216747</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332156</v>
+        <v>0.332911</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32823</v>
+        <v>0.328147</v>
       </c>
       <c r="E43" t="n">
-        <v>0.213016</v>
+        <v>0.212954</v>
       </c>
       <c r="F43" t="n">
-        <v>0.325913</v>
+        <v>0.326092</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214382</v>
+        <v>0.213272</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328002</v>
+        <v>0.330001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329964</v>
+        <v>0.330152</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211863</v>
+        <v>0.211771</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325104</v>
+        <v>0.325159</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207838</v>
+        <v>0.207995</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324408</v>
+        <v>0.325903</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331189</v>
+        <v>0.33101</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210727</v>
+        <v>0.21059</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324074</v>
+        <v>0.323993</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20195</v>
+        <v>0.202204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32382</v>
+        <v>0.323964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332638</v>
+        <v>0.332191</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209586</v>
+        <v>0.209486</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323702</v>
+        <v>0.322977</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197266</v>
+        <v>0.196981</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313051</v>
+        <v>0.31235</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337086</v>
+        <v>0.336932</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208629</v>
+        <v>0.208439</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322908</v>
+        <v>0.322429</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192275</v>
+        <v>0.192875</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306904</v>
+        <v>0.306548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33761</v>
+        <v>0.33759</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207675</v>
+        <v>0.207441</v>
       </c>
       <c r="F48" t="n">
-        <v>0.321162</v>
+        <v>0.320912</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182895</v>
+        <v>0.182997</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300135</v>
+        <v>0.299673</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341829</v>
+        <v>0.341384</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206862</v>
+        <v>0.206638</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320523</v>
+        <v>0.320383</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175668</v>
+        <v>0.175384</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299076</v>
+        <v>0.298175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32396</v>
+        <v>0.325053</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205838</v>
+        <v>0.205721</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320389</v>
+        <v>0.320024</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173333</v>
+        <v>0.172913</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283257</v>
+        <v>0.28301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326193</v>
+        <v>0.327915</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223613</v>
+        <v>0.222468</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335276</v>
+        <v>0.335268</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165105</v>
+        <v>0.165145</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280242</v>
+        <v>0.281338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326803</v>
+        <v>0.3274</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220533</v>
+        <v>0.220454</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333519</v>
+        <v>0.333993</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237109</v>
+        <v>0.237271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351196</v>
+        <v>0.353346</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328003</v>
+        <v>0.329887</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219129</v>
+        <v>0.219027</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33189</v>
+        <v>0.331878</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233327</v>
+        <v>0.233544</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348436</v>
+        <v>0.3491</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327154</v>
+        <v>0.328676</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217434</v>
+        <v>0.217307</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331723</v>
+        <v>0.331465</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229418</v>
+        <v>0.229012</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344551</v>
+        <v>0.345675</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329754</v>
+        <v>0.330825</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215743</v>
+        <v>0.215685</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329122</v>
+        <v>0.328928</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222924</v>
+        <v>0.223078</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340935</v>
+        <v>0.341903</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331337</v>
+        <v>0.332695</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214463</v>
+        <v>0.214369</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328198</v>
+        <v>0.328123</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219082</v>
+        <v>0.219125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335479</v>
+        <v>0.336589</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335005</v>
+        <v>0.336662</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213327</v>
+        <v>0.213263</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327301</v>
+        <v>0.327291</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214071</v>
+        <v>0.214202</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323354</v>
+        <v>0.323612</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338561</v>
+        <v>0.339608</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212086</v>
+        <v>0.212032</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326308</v>
+        <v>0.326324</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205877</v>
+        <v>0.208841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327605</v>
+        <v>0.327918</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341323</v>
+        <v>0.343077</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210918</v>
+        <v>0.210854</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325386</v>
+        <v>0.325333</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203442</v>
+        <v>0.204019</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32311</v>
+        <v>0.32389</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345857</v>
+        <v>0.347188</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209806</v>
+        <v>0.209635</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324682</v>
+        <v>0.324574</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198804</v>
+        <v>0.199328</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338317</v>
+        <v>0.340279</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349254</v>
+        <v>0.350111</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208846</v>
+        <v>0.208698</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323463</v>
+        <v>0.323783</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190133</v>
+        <v>0.193849</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310381</v>
+        <v>0.311157</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352205</v>
+        <v>0.353063</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207847</v>
+        <v>0.207711</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322319</v>
+        <v>0.32245</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.188064</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321623</v>
+        <v>0.321656</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35729</v>
+        <v>0.356427</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206913</v>
+        <v>0.206962</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321296</v>
+        <v>0.321517</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182676</v>
+        <v>0.182546</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316358</v>
+        <v>0.316262</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380665</v>
+        <v>0.378596</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205993</v>
+        <v>0.205882</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320746</v>
+        <v>0.320982</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175436</v>
+        <v>0.175603</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285989</v>
+        <v>0.286374</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384326</v>
+        <v>0.379765</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2053</v>
+        <v>0.205232</v>
       </c>
       <c r="F65" t="n">
-        <v>0.319907</v>
+        <v>0.320011</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16151</v>
+        <v>0.161728</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307283</v>
+        <v>0.306745</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38735</v>
+        <v>0.385917</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22174</v>
+        <v>0.221465</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334744</v>
+        <v>0.334723</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239245</v>
+        <v>0.239654</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383015</v>
+        <v>0.382138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378608</v>
+        <v>0.377113</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219736</v>
+        <v>0.219689</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332708</v>
+        <v>0.332748</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234984</v>
+        <v>0.235324</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380777</v>
+        <v>0.380164</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389722</v>
+        <v>0.387808</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21814</v>
+        <v>0.218037</v>
       </c>
       <c r="F68" t="n">
-        <v>0.33176</v>
+        <v>0.331806</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230165</v>
+        <v>0.230156</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375024</v>
+        <v>0.375495</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391123</v>
+        <v>0.389643</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216714</v>
+        <v>0.216478</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329921</v>
+        <v>0.329787</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22637</v>
+        <v>0.226389</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371186</v>
+        <v>0.370829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.393549</v>
+        <v>0.392127</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21532</v>
+        <v>0.215115</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329055</v>
+        <v>0.329056</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219685</v>
+        <v>0.219585</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365124</v>
+        <v>0.365082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.383449</v>
+        <v>0.382817</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214075</v>
+        <v>0.213896</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327182</v>
+        <v>0.32715</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213435</v>
+        <v>0.213377</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385198</v>
+        <v>0.385901</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383347</v>
+        <v>0.383091</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212847</v>
+        <v>0.212681</v>
       </c>
       <c r="F72" t="n">
-        <v>0.326094</v>
+        <v>0.325985</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21052</v>
+        <v>0.210384</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434361</v>
+        <v>0.435378</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395812</v>
+        <v>0.395964</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211554</v>
+        <v>0.211529</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326223</v>
+        <v>0.325772</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202826</v>
+        <v>0.203122</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50515</v>
+        <v>0.504311</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396497</v>
+        <v>0.396788</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210331</v>
+        <v>0.210288</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325121</v>
+        <v>0.325386</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200433</v>
+        <v>0.200103</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424146</v>
+        <v>0.425352</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394012</v>
+        <v>0.394011</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209315</v>
+        <v>0.20925</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324058</v>
+        <v>0.324002</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195052</v>
+        <v>0.19493</v>
       </c>
       <c r="C76" t="n">
-        <v>0.432666</v>
+        <v>0.433484</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385415</v>
+        <v>0.385634</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208313</v>
+        <v>0.208213</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321859</v>
+        <v>0.321872</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18588</v>
+        <v>0.189827</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413597</v>
+        <v>0.414663</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399165</v>
+        <v>0.399033</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207214</v>
+        <v>0.207149</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322049</v>
+        <v>0.321983</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183954</v>
+        <v>0.183632</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404342</v>
+        <v>0.404575</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450311</v>
+        <v>0.450957</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206537</v>
+        <v>0.206361</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319915</v>
+        <v>0.319893</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177332</v>
+        <v>0.177112</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315879</v>
+        <v>0.315552</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44593</v>
+        <v>0.446388</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205816</v>
+        <v>0.205616</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319103</v>
+        <v>0.319058</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169589</v>
+        <v>0.169077</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389973</v>
+        <v>0.39013</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442258</v>
+        <v>0.442276</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224387</v>
+        <v>0.224019</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334767</v>
+        <v>0.334797</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242077</v>
+        <v>0.241966</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373661</v>
+        <v>0.373643</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422901</v>
+        <v>0.422747</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221993</v>
+        <v>0.222465</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332937</v>
+        <v>0.332793</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238337</v>
+        <v>0.238036</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370128</v>
+        <v>0.370015</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431972</v>
+        <v>0.432281</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219747</v>
+        <v>0.219694</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332091</v>
+        <v>0.332005</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233393</v>
+        <v>0.233184</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36513</v>
+        <v>0.365252</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416602</v>
+        <v>0.416199</v>
       </c>
       <c r="E83" t="n">
-        <v>0.218249</v>
+        <v>0.217767</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330379</v>
+        <v>0.330177</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228169</v>
+        <v>0.227743</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359783</v>
+        <v>0.359431</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415232</v>
+        <v>0.415075</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216523</v>
+        <v>0.216494</v>
       </c>
       <c r="F84" t="n">
-        <v>0.328979</v>
+        <v>0.329097</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223053</v>
+        <v>0.222894</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354822</v>
+        <v>0.354961</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411634</v>
+        <v>0.411188</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215208</v>
+        <v>0.214865</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328088</v>
+        <v>0.328128</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215091</v>
+        <v>0.217392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3488</v>
+        <v>0.348751</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420989</v>
+        <v>0.421173</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213791</v>
+        <v>0.213702</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327214</v>
+        <v>0.327191</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20965</v>
+        <v>0.209836</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354432</v>
+        <v>0.353448</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420751</v>
+        <v>0.420635</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212218</v>
+        <v>0.212397</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326101</v>
+        <v>0.32625</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206688</v>
+        <v>0.206514</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427409</v>
+        <v>0.427627</v>
       </c>
       <c r="D88" t="n">
-        <v>0.418385</v>
+        <v>0.41855</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210796</v>
+        <v>0.210805</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325197</v>
+        <v>0.325222</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201045</v>
+        <v>0.201064</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411439</v>
+        <v>0.411375</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416137</v>
+        <v>0.416116</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209645</v>
+        <v>0.209636</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324161</v>
+        <v>0.324207</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.196361</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394311</v>
+        <v>0.394854</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416668</v>
+        <v>0.41664</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208763</v>
+        <v>0.208789</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323356</v>
+        <v>0.323269</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191541</v>
+        <v>0.191276</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412321</v>
+        <v>0.412489</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41446</v>
+        <v>0.414233</v>
       </c>
       <c r="E91" t="n">
-        <v>0.20778</v>
+        <v>0.207783</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322384</v>
+        <v>0.322455</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185137</v>
+        <v>0.185002</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441949</v>
+        <v>0.442201</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452927</v>
+        <v>0.453375</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206887</v>
+        <v>0.206898</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321361</v>
+        <v>0.321582</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173724</v>
+        <v>0.174211</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409194</v>
+        <v>0.409496</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448389</v>
+        <v>0.448712</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206105</v>
+        <v>0.205992</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320525</v>
+        <v>0.320729</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171365</v>
+        <v>0.170108</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325018</v>
+        <v>0.324942</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441247</v>
+        <v>0.441062</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224713</v>
+        <v>0.224593</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336322</v>
+        <v>0.337986</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241006</v>
+        <v>0.240878</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478767</v>
+        <v>0.481236</v>
       </c>
       <c r="D95" t="n">
-        <v>0.422132</v>
+        <v>0.424811</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221477</v>
+        <v>0.221609</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333852</v>
+        <v>0.335667</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236891</v>
+        <v>0.236888</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354454</v>
+        <v>0.357119</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423552</v>
+        <v>0.425559</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219726</v>
+        <v>0.219664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.330728</v>
+        <v>0.332624</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232382</v>
+        <v>0.232339</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349837</v>
+        <v>0.352468</v>
       </c>
       <c r="D97" t="n">
-        <v>0.405597</v>
+        <v>0.408012</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218326</v>
+        <v>0.218002</v>
       </c>
       <c r="F97" t="n">
-        <v>0.328395</v>
+        <v>0.330166</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229574</v>
+        <v>0.229009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345736</v>
+        <v>0.348385</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401539</v>
+        <v>0.403973</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216936</v>
+        <v>0.216427</v>
       </c>
       <c r="F98" t="n">
-        <v>0.326904</v>
+        <v>0.328784</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224339</v>
+        <v>0.22431</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340185</v>
+        <v>0.343018</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397842</v>
+        <v>0.400556</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215503</v>
+        <v>0.215169</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325631</v>
+        <v>0.32737</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218044</v>
+        <v>0.218469</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33502</v>
+        <v>0.337722</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40025</v>
+        <v>0.402551</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213887</v>
+        <v>0.213997</v>
       </c>
       <c r="F100" t="n">
-        <v>0.324933</v>
+        <v>0.32669</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212853</v>
+        <v>0.213182</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394261</v>
+        <v>0.396626</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385912</v>
+        <v>0.388526</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212073</v>
+        <v>0.211999</v>
       </c>
       <c r="F101" t="n">
-        <v>0.32338</v>
+        <v>0.325057</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20764</v>
+        <v>0.207577</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366303</v>
+        <v>0.368664</v>
       </c>
       <c r="D102" t="n">
-        <v>0.383046</v>
+        <v>0.38547</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211313</v>
+        <v>0.211275</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322356</v>
+        <v>0.324012</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202565</v>
+        <v>0.202484</v>
       </c>
       <c r="C103" t="n">
-        <v>0.431119</v>
+        <v>0.432463</v>
       </c>
       <c r="D103" t="n">
-        <v>0.38107</v>
+        <v>0.381272</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210208</v>
+        <v>0.210177</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321237</v>
+        <v>0.321377</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197309</v>
+        <v>0.197324</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389164</v>
+        <v>0.389393</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393786</v>
+        <v>0.3936</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209123</v>
+        <v>0.209014</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320443</v>
+        <v>0.320401</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192703</v>
+        <v>0.192793</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387519</v>
+        <v>0.387687</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391946</v>
+        <v>0.391951</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208125</v>
+        <v>0.208006</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320842</v>
+        <v>0.320882</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187166</v>
+        <v>0.187087</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363726</v>
+        <v>0.363564</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38562</v>
+        <v>0.385817</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206923</v>
+        <v>0.206751</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318609</v>
+        <v>0.318714</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180898</v>
+        <v>0.180911</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391249</v>
+        <v>0.392377</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414839</v>
+        <v>0.415205</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206578</v>
+        <v>0.206574</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318042</v>
+        <v>0.31806</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173592</v>
+        <v>0.173461</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367711</v>
+        <v>0.367977</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411002</v>
+        <v>0.411457</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225377</v>
+        <v>0.225407</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333574</v>
+        <v>0.333629</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157576</v>
+        <v>0.157665</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328899</v>
+        <v>0.329175</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398261</v>
+        <v>0.398555</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222654</v>
+        <v>0.222653</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331271</v>
+        <v>0.331354</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238084</v>
+        <v>0.238292</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493874</v>
+        <v>0.494447</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398461</v>
+        <v>0.398732</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220439</v>
+        <v>0.220353</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329667</v>
+        <v>0.329703</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23378</v>
+        <v>0.233925</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49468</v>
+        <v>0.495153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.384808</v>
+        <v>0.395536</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218671</v>
+        <v>0.218576</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328932</v>
+        <v>0.329038</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228874</v>
+        <v>0.228994</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493379</v>
+        <v>0.494271</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398083</v>
+        <v>0.398368</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21703</v>
+        <v>0.216901</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327765</v>
+        <v>0.327939</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223411</v>
+        <v>0.22342</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49166</v>
+        <v>0.492375</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395514</v>
+        <v>0.395776</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215311</v>
+        <v>0.215241</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326127</v>
+        <v>0.326151</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218023</v>
+        <v>0.217917</v>
       </c>
       <c r="C114" t="n">
-        <v>0.48826</v>
+        <v>0.489001</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392894</v>
+        <v>0.393266</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213837</v>
+        <v>0.213718</v>
       </c>
       <c r="F114" t="n">
-        <v>0.32536</v>
+        <v>0.325482</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212687</v>
+        <v>0.212034</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441477</v>
+        <v>0.441873</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383092</v>
+        <v>0.383396</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212533</v>
+        <v>0.212367</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324163</v>
+        <v>0.324254</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20634</v>
+        <v>0.206174</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445081</v>
+        <v>0.445468</v>
       </c>
       <c r="D116" t="n">
-        <v>0.367245</v>
+        <v>0.381599</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211504</v>
+        <v>0.211438</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323461</v>
+        <v>0.32318</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.201157</v>
+        <v>0.200782</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312737</v>
+        <v>0.312787</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374621</v>
+        <v>0.374916</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210245</v>
+        <v>0.21026</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322705</v>
+        <v>0.322681</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198963</v>
+        <v>0.199226</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436189</v>
+        <v>0.436548</v>
       </c>
       <c r="D118" t="n">
-        <v>0.367856</v>
+        <v>0.368169</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209234</v>
+        <v>0.209215</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321874</v>
+        <v>0.321851</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193526</v>
+        <v>0.193626</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428167</v>
+        <v>0.428656</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378087</v>
+        <v>0.37873</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207987</v>
+        <v>0.207975</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320122</v>
+        <v>0.320138</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188202</v>
+        <v>0.188484</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447219</v>
+        <v>0.447744</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371122</v>
+        <v>0.371432</v>
       </c>
       <c r="E120" t="n">
-        <v>0.20732</v>
+        <v>0.207401</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319888</v>
+        <v>0.319935</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182012</v>
+        <v>0.181903</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412973</v>
+        <v>0.413421</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457049</v>
+        <v>0.457406</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206505</v>
+        <v>0.206499</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319026</v>
+        <v>0.318966</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169649</v>
+        <v>0.169603</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367922</v>
+        <v>0.368158</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449197</v>
+        <v>0.449514</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205755</v>
+        <v>0.205735</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318222</v>
+        <v>0.318281</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16647</v>
+        <v>0.16069</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35522</v>
+        <v>0.355553</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431685</v>
+        <v>0.432145</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223069</v>
+        <v>0.223063</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332148</v>
+        <v>0.332155</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238661</v>
+        <v>0.238909</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429524</v>
+        <v>0.429837</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417153</v>
+        <v>0.417386</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220802</v>
+        <v>0.22077</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330367</v>
+        <v>0.330273</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234681</v>
+        <v>0.234916</v>
       </c>
       <c r="C125" t="n">
-        <v>0.469972</v>
+        <v>0.470235</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412764</v>
+        <v>0.413117</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218843</v>
+        <v>0.218872</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328841</v>
+        <v>0.328815</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229597</v>
+        <v>0.230081</v>
       </c>
       <c r="C126" t="n">
-        <v>0.455892</v>
+        <v>0.456109</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40667</v>
+        <v>0.418374</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217116</v>
+        <v>0.217123</v>
       </c>
       <c r="F126" t="n">
-        <v>0.327443</v>
+        <v>0.32739</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224571</v>
+        <v>0.224721</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429964</v>
+        <v>0.429947</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394613</v>
+        <v>0.40716</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215593</v>
+        <v>0.215617</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326121</v>
+        <v>0.326028</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218421</v>
+        <v>0.219328</v>
       </c>
       <c r="C128" t="n">
-        <v>0.454873</v>
+        <v>0.455224</v>
       </c>
       <c r="D128" t="n">
-        <v>0.398683</v>
+        <v>0.411816</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214216</v>
+        <v>0.214263</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324968</v>
+        <v>0.324879</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21347</v>
+        <v>0.2131</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375299</v>
+        <v>0.375582</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417697</v>
+        <v>0.417819</v>
       </c>
       <c r="E129" t="n">
         <v>0.212873</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324189</v>
+        <v>0.324142</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207751</v>
+        <v>0.207977</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427108</v>
+        <v>0.427475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.411372</v>
+        <v>0.397832</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211602</v>
+        <v>0.211633</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322645</v>
+        <v>0.323034</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204367</v>
+        <v>0.201945</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430129</v>
+        <v>0.430424</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412141</v>
+        <v>0.412426</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210411</v>
+        <v>0.210423</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322276</v>
+        <v>0.322269</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200025</v>
+        <v>0.199479</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358121</v>
+        <v>0.358259</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401472</v>
+        <v>0.401563</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209437</v>
+        <v>0.209478</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32046</v>
+        <v>0.320236</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190771</v>
+        <v>0.190881</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455985</v>
+        <v>0.456321</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377124</v>
+        <v>0.377147</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208425</v>
+        <v>0.208411</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319751</v>
+        <v>0.319693</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184923</v>
+        <v>0.185025</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412288</v>
+        <v>0.412744</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407241</v>
+        <v>0.407342</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207227</v>
+        <v>0.207193</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319589</v>
+        <v>0.319445</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18395</v>
+        <v>0.18316</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432271</v>
+        <v>0.432872</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44982</v>
+        <v>0.449714</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206585</v>
+        <v>0.20662</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3177</v>
+        <v>0.318056</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17138</v>
+        <v>0.176249</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394043</v>
+        <v>0.394124</v>
       </c>
       <c r="D136" t="n">
-        <v>0.437821</v>
+        <v>0.429113</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205801</v>
+        <v>0.205816</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317149</v>
+        <v>0.317346</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162429</v>
+        <v>0.168178</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387207</v>
+        <v>0.387416</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417013</v>
+        <v>0.41749</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22352</v>
+        <v>0.223586</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332331</v>
+        <v>0.332353</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240913</v>
+        <v>0.240724</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46183</v>
+        <v>0.461402</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425602</v>
+        <v>0.425845</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221163</v>
+        <v>0.221203</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330729</v>
+        <v>0.330685</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236358</v>
+        <v>0.236386</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474479</v>
+        <v>0.475223</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429063</v>
+        <v>0.429241</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219193</v>
+        <v>0.219197</v>
       </c>
       <c r="F139" t="n">
-        <v>0.329914</v>
+        <v>0.330017</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231514</v>
+        <v>0.231798</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464012</v>
+        <v>0.464387</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426355</v>
+        <v>0.422906</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217464</v>
+        <v>0.217506</v>
       </c>
       <c r="F140" t="n">
-        <v>0.32868</v>
+        <v>0.328675</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22447</v>
+        <v>0.225455</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446345</v>
+        <v>0.446489</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411172</v>
+        <v>0.411434</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215914</v>
+        <v>0.21587</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326783</v>
+        <v>0.326759</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22105</v>
+        <v>0.220905</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383967</v>
+        <v>0.384185</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407645</v>
+        <v>0.407641</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214433</v>
+        <v>0.21446</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325394</v>
+        <v>0.325358</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215665</v>
+        <v>0.215655</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480403</v>
+        <v>0.480665</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404022</v>
+        <v>0.404475</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213105</v>
+        <v>0.213102</v>
       </c>
       <c r="F143" t="n">
-        <v>0.32422</v>
+        <v>0.324211</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198218</v>
+        <v>0.198848</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316216</v>
+        <v>0.314463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.310319</v>
+        <v>0.304622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19508</v>
+        <v>0.195728</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316574</v>
+        <v>0.314912</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194684</v>
+        <v>0.193699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315998</v>
+        <v>0.311039</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327059</v>
+        <v>0.307988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196477</v>
+        <v>0.196524</v>
       </c>
       <c r="F3" t="n">
-        <v>0.316683</v>
+        <v>0.316041</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189245</v>
+        <v>0.188413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312453</v>
+        <v>0.311193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.331688</v>
+        <v>0.313304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.197602</v>
+        <v>0.197082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.31586</v>
+        <v>0.314654</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18301</v>
+        <v>0.182308</v>
       </c>
       <c r="C5" t="n">
-        <v>0.302737</v>
+        <v>0.301131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33238</v>
+        <v>0.330527</v>
       </c>
       <c r="E5" t="n">
-        <v>0.197016</v>
+        <v>0.196637</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315563</v>
+        <v>0.31371</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181478</v>
+        <v>0.181244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.30163</v>
+        <v>0.298574</v>
       </c>
       <c r="D6" t="n">
-        <v>0.334374</v>
+        <v>0.331554</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197628</v>
+        <v>0.197589</v>
       </c>
       <c r="F6" t="n">
-        <v>0.315997</v>
+        <v>0.314378</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169113</v>
+        <v>0.169709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293432</v>
+        <v>0.29229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.313519</v>
+        <v>0.311223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197603</v>
+        <v>0.197586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315969</v>
+        <v>0.313812</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166146</v>
+        <v>0.165812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.283079</v>
+        <v>0.279748</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315022</v>
+        <v>0.311831</v>
       </c>
       <c r="E8" t="n">
-        <v>0.197932</v>
+        <v>0.198054</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315379</v>
+        <v>0.31371</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158085</v>
+        <v>0.158653</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27766</v>
+        <v>0.274949</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317067</v>
+        <v>0.31393</v>
       </c>
       <c r="E9" t="n">
-        <v>0.213989</v>
+        <v>0.215114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328807</v>
+        <v>0.327781</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.236914</v>
+        <v>0.237169</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351311</v>
+        <v>0.348656</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316045</v>
+        <v>0.313482</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213377</v>
+        <v>0.213503</v>
       </c>
       <c r="F10" t="n">
-        <v>0.327817</v>
+        <v>0.325812</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233425</v>
+        <v>0.234006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347297</v>
+        <v>0.344873</v>
       </c>
       <c r="D11" t="n">
-        <v>0.318622</v>
+        <v>0.314854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212411</v>
+        <v>0.212305</v>
       </c>
       <c r="F11" t="n">
-        <v>0.325839</v>
+        <v>0.324278</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22658</v>
+        <v>0.226808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342757</v>
+        <v>0.340354</v>
       </c>
       <c r="D12" t="n">
-        <v>0.321206</v>
+        <v>0.317222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212915</v>
+        <v>0.212379</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325988</v>
+        <v>0.324446</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221913</v>
+        <v>0.221624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340225</v>
+        <v>0.338805</v>
       </c>
       <c r="D13" t="n">
-        <v>0.320907</v>
+        <v>0.319841</v>
       </c>
       <c r="E13" t="n">
-        <v>0.21145</v>
+        <v>0.211011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324783</v>
+        <v>0.323888</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218255</v>
+        <v>0.220921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.335842</v>
+        <v>0.334083</v>
       </c>
       <c r="D14" t="n">
-        <v>0.32327</v>
+        <v>0.320642</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210453</v>
+        <v>0.210449</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323209</v>
+        <v>0.321506</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212819</v>
+        <v>0.211742</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319743</v>
+        <v>0.317962</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324504</v>
+        <v>0.32227</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209547</v>
+        <v>0.209653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322058</v>
+        <v>0.320057</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209206</v>
+        <v>0.208484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.326145</v>
+        <v>0.322336</v>
       </c>
       <c r="D16" t="n">
-        <v>0.325269</v>
+        <v>0.3231</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208618</v>
+        <v>0.208623</v>
       </c>
       <c r="F16" t="n">
-        <v>0.321048</v>
+        <v>0.318398</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203269</v>
+        <v>0.203124</v>
       </c>
       <c r="C17" t="n">
-        <v>0.315486</v>
+        <v>0.311514</v>
       </c>
       <c r="D17" t="n">
-        <v>0.328488</v>
+        <v>0.326624</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20775</v>
+        <v>0.207929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320198</v>
+        <v>0.318862</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199564</v>
+        <v>0.199607</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314145</v>
+        <v>0.312613</v>
       </c>
       <c r="D18" t="n">
-        <v>0.330861</v>
+        <v>0.329301</v>
       </c>
       <c r="E18" t="n">
-        <v>0.206789</v>
+        <v>0.206994</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319837</v>
+        <v>0.317795</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193781</v>
+        <v>0.194168</v>
       </c>
       <c r="C19" t="n">
-        <v>0.307384</v>
+        <v>0.306585</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333979</v>
+        <v>0.33215</v>
       </c>
       <c r="E19" t="n">
-        <v>0.206401</v>
+        <v>0.20645</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318809</v>
+        <v>0.317251</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187317</v>
+        <v>0.187558</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304065</v>
+        <v>0.299445</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335561</v>
+        <v>0.333475</v>
       </c>
       <c r="E20" t="n">
-        <v>0.20572</v>
+        <v>0.205988</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318601</v>
+        <v>0.316944</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181834</v>
+        <v>0.181269</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299162</v>
+        <v>0.295703</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318277</v>
+        <v>0.316277</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205053</v>
+        <v>0.205341</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319488</v>
+        <v>0.317366</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.174323</v>
+        <v>0.168989</v>
       </c>
       <c r="C22" t="n">
-        <v>0.287855</v>
+        <v>0.285576</v>
       </c>
       <c r="D22" t="n">
-        <v>0.317789</v>
+        <v>0.316188</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204193</v>
+        <v>0.204378</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316385</v>
+        <v>0.31445</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165464</v>
+        <v>0.165547</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277469</v>
+        <v>0.275365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.318583</v>
+        <v>0.31658</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220911</v>
+        <v>0.222058</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331164</v>
+        <v>0.329728</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238908</v>
+        <v>0.240454</v>
       </c>
       <c r="C24" t="n">
-        <v>0.355611</v>
+        <v>0.340442</v>
       </c>
       <c r="D24" t="n">
-        <v>0.321557</v>
+        <v>0.318036</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218841</v>
+        <v>0.219108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330243</v>
+        <v>0.328297</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234529</v>
+        <v>0.23459</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348498</v>
+        <v>0.347225</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323316</v>
+        <v>0.321908</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217639</v>
+        <v>0.217573</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329561</v>
+        <v>0.327753</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.23002</v>
+        <v>0.228848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344421</v>
+        <v>0.342464</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323059</v>
+        <v>0.321134</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216157</v>
+        <v>0.216243</v>
       </c>
       <c r="F26" t="n">
-        <v>0.328353</v>
+        <v>0.326833</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225628</v>
+        <v>0.225768</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343188</v>
+        <v>0.341332</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323386</v>
+        <v>0.322429</v>
       </c>
       <c r="E27" t="n">
-        <v>0.214847</v>
+        <v>0.214877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.327273</v>
+        <v>0.325586</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219659</v>
+        <v>0.219601</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338647</v>
+        <v>0.336343</v>
       </c>
       <c r="D28" t="n">
-        <v>0.324963</v>
+        <v>0.325417</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213626</v>
+        <v>0.21359</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326814</v>
+        <v>0.324913</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215255</v>
+        <v>0.213041</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333917</v>
+        <v>0.330421</v>
       </c>
       <c r="D29" t="n">
-        <v>0.328589</v>
+        <v>0.327258</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212498</v>
+        <v>0.212649</v>
       </c>
       <c r="F29" t="n">
-        <v>0.326171</v>
+        <v>0.325548</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210491</v>
+        <v>0.210969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.331029</v>
+        <v>0.328301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330512</v>
+        <v>0.329029</v>
       </c>
       <c r="E30" t="n">
-        <v>0.211281</v>
+        <v>0.211414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.325617</v>
+        <v>0.324187</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204372</v>
+        <v>0.205939</v>
       </c>
       <c r="C31" t="n">
-        <v>0.320802</v>
+        <v>0.320656</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331294</v>
+        <v>0.330766</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210016</v>
+        <v>0.210102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.324343</v>
+        <v>0.323313</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199677</v>
+        <v>0.196727</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320249</v>
+        <v>0.317275</v>
       </c>
       <c r="D32" t="n">
-        <v>0.33268</v>
+        <v>0.33026</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209032</v>
+        <v>0.209079</v>
       </c>
       <c r="F32" t="n">
-        <v>0.322684</v>
+        <v>0.321122</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195874</v>
+        <v>0.195164</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311462</v>
+        <v>0.308834</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336251</v>
+        <v>0.334535</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208206</v>
+        <v>0.20827</v>
       </c>
       <c r="F33" t="n">
-        <v>0.321976</v>
+        <v>0.320354</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189701</v>
+        <v>0.190039</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309804</v>
+        <v>0.307195</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338714</v>
+        <v>0.336393</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207188</v>
+        <v>0.207267</v>
       </c>
       <c r="F34" t="n">
-        <v>0.322124</v>
+        <v>0.319978</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185028</v>
+        <v>0.18506</v>
       </c>
       <c r="C35" t="n">
-        <v>0.300046</v>
+        <v>0.297462</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322416</v>
+        <v>0.319425</v>
       </c>
       <c r="E35" t="n">
-        <v>0.206392</v>
+        <v>0.206457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.32073</v>
+        <v>0.319119</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.17866</v>
+        <v>0.178468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291084</v>
+        <v>0.288862</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323075</v>
+        <v>0.320839</v>
       </c>
       <c r="E36" t="n">
-        <v>0.205575</v>
+        <v>0.205641</v>
       </c>
       <c r="F36" t="n">
-        <v>0.320229</v>
+        <v>0.318535</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169814</v>
+        <v>0.169902</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276533</v>
+        <v>0.273962</v>
       </c>
       <c r="D37" t="n">
-        <v>0.32224</v>
+        <v>0.320436</v>
       </c>
       <c r="E37" t="n">
-        <v>0.221776</v>
+        <v>0.221752</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334211</v>
+        <v>0.332886</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242675</v>
+        <v>0.241843</v>
       </c>
       <c r="C38" t="n">
-        <v>0.351959</v>
+        <v>0.3494</v>
       </c>
       <c r="D38" t="n">
-        <v>0.325396</v>
+        <v>0.321727</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220117</v>
+        <v>0.22002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.332971</v>
+        <v>0.331179</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236359</v>
+        <v>0.235869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348946</v>
+        <v>0.346235</v>
       </c>
       <c r="D39" t="n">
-        <v>0.325997</v>
+        <v>0.322967</v>
       </c>
       <c r="E39" t="n">
-        <v>0.21847</v>
+        <v>0.218411</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330668</v>
+        <v>0.32888</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23254</v>
+        <v>0.232207</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345781</v>
+        <v>0.343161</v>
       </c>
       <c r="D40" t="n">
-        <v>0.327021</v>
+        <v>0.323236</v>
       </c>
       <c r="E40" t="n">
-        <v>0.216891</v>
+        <v>0.216897</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329525</v>
+        <v>0.327965</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227613</v>
+        <v>0.22782</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341857</v>
+        <v>0.339368</v>
       </c>
       <c r="D41" t="n">
-        <v>0.326887</v>
+        <v>0.325033</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215491</v>
+        <v>0.215385</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328239</v>
+        <v>0.326434</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224214</v>
+        <v>0.2236</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337073</v>
+        <v>0.33465</v>
       </c>
       <c r="D42" t="n">
-        <v>0.327931</v>
+        <v>0.32594</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214205</v>
+        <v>0.214286</v>
       </c>
       <c r="F42" t="n">
-        <v>0.327862</v>
+        <v>0.325614</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216747</v>
+        <v>0.216685</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332911</v>
+        <v>0.329762</v>
       </c>
       <c r="D43" t="n">
-        <v>0.328147</v>
+        <v>0.325055</v>
       </c>
       <c r="E43" t="n">
-        <v>0.212954</v>
+        <v>0.212984</v>
       </c>
       <c r="F43" t="n">
-        <v>0.326092</v>
+        <v>0.324261</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213272</v>
+        <v>0.213092</v>
       </c>
       <c r="C44" t="n">
-        <v>0.330001</v>
+        <v>0.323057</v>
       </c>
       <c r="D44" t="n">
-        <v>0.330152</v>
+        <v>0.327855</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211771</v>
+        <v>0.211824</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325159</v>
+        <v>0.323337</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207995</v>
+        <v>0.207757</v>
       </c>
       <c r="C45" t="n">
-        <v>0.325903</v>
+        <v>0.321061</v>
       </c>
       <c r="D45" t="n">
-        <v>0.33101</v>
+        <v>0.328767</v>
       </c>
       <c r="E45" t="n">
-        <v>0.21059</v>
+        <v>0.210562</v>
       </c>
       <c r="F45" t="n">
-        <v>0.323993</v>
+        <v>0.32202</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202204</v>
+        <v>0.201976</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323964</v>
+        <v>0.320197</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332191</v>
+        <v>0.329925</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209486</v>
+        <v>0.209494</v>
       </c>
       <c r="F46" t="n">
-        <v>0.322977</v>
+        <v>0.321698</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.196981</v>
+        <v>0.196984</v>
       </c>
       <c r="C47" t="n">
-        <v>0.31235</v>
+        <v>0.308864</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336932</v>
+        <v>0.334718</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208439</v>
+        <v>0.208479</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322429</v>
+        <v>0.322094</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192875</v>
+        <v>0.18831</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306548</v>
+        <v>0.31018</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33759</v>
+        <v>0.336569</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207441</v>
+        <v>0.207639</v>
       </c>
       <c r="F48" t="n">
-        <v>0.320912</v>
+        <v>0.320682</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182997</v>
+        <v>0.183049</v>
       </c>
       <c r="C49" t="n">
-        <v>0.299673</v>
+        <v>0.299743</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341384</v>
+        <v>0.338266</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206638</v>
+        <v>0.206673</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320383</v>
+        <v>0.318555</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175384</v>
+        <v>0.175291</v>
       </c>
       <c r="C50" t="n">
-        <v>0.298175</v>
+        <v>0.294701</v>
       </c>
       <c r="D50" t="n">
-        <v>0.325053</v>
+        <v>0.321377</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205721</v>
+        <v>0.205785</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320024</v>
+        <v>0.318842</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172913</v>
+        <v>0.172954</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28301</v>
+        <v>0.28125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.327915</v>
+        <v>0.324342</v>
       </c>
       <c r="E51" t="n">
-        <v>0.222468</v>
+        <v>0.22281</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335268</v>
+        <v>0.333287</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165145</v>
+        <v>0.164951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.281338</v>
+        <v>0.278652</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3274</v>
+        <v>0.32489</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220454</v>
+        <v>0.220523</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333993</v>
+        <v>0.331515</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237271</v>
+        <v>0.237311</v>
       </c>
       <c r="C53" t="n">
-        <v>0.353346</v>
+        <v>0.349485</v>
       </c>
       <c r="D53" t="n">
-        <v>0.329887</v>
+        <v>0.327398</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219027</v>
+        <v>0.219029</v>
       </c>
       <c r="F53" t="n">
-        <v>0.331878</v>
+        <v>0.33028</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233544</v>
+        <v>0.233232</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3491</v>
+        <v>0.346179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.328676</v>
+        <v>0.327003</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217307</v>
+        <v>0.21751</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331465</v>
+        <v>0.329186</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229012</v>
+        <v>0.229269</v>
       </c>
       <c r="C55" t="n">
-        <v>0.345675</v>
+        <v>0.342719</v>
       </c>
       <c r="D55" t="n">
-        <v>0.330825</v>
+        <v>0.328259</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215685</v>
+        <v>0.215674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.328928</v>
+        <v>0.327203</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223078</v>
+        <v>0.222933</v>
       </c>
       <c r="C56" t="n">
-        <v>0.341903</v>
+        <v>0.340294</v>
       </c>
       <c r="D56" t="n">
-        <v>0.332695</v>
+        <v>0.330366</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214369</v>
+        <v>0.214445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328123</v>
+        <v>0.326667</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219125</v>
+        <v>0.219593</v>
       </c>
       <c r="C57" t="n">
-        <v>0.336589</v>
+        <v>0.334009</v>
       </c>
       <c r="D57" t="n">
-        <v>0.336662</v>
+        <v>0.335005</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213263</v>
+        <v>0.213254</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327291</v>
+        <v>0.325777</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214202</v>
+        <v>0.214275</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323612</v>
+        <v>0.321079</v>
       </c>
       <c r="D58" t="n">
-        <v>0.339608</v>
+        <v>0.337157</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212032</v>
+        <v>0.212065</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326324</v>
+        <v>0.324589</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.208841</v>
+        <v>0.206636</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327918</v>
+        <v>0.325904</v>
       </c>
       <c r="D59" t="n">
-        <v>0.343077</v>
+        <v>0.34051</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210854</v>
+        <v>0.210909</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325333</v>
+        <v>0.323869</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204019</v>
+        <v>0.204813</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32389</v>
+        <v>0.320277</v>
       </c>
       <c r="D60" t="n">
-        <v>0.347188</v>
+        <v>0.34566</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209635</v>
+        <v>0.209836</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324574</v>
+        <v>0.322944</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199328</v>
+        <v>0.198884</v>
       </c>
       <c r="C61" t="n">
-        <v>0.340279</v>
+        <v>0.33676</v>
       </c>
       <c r="D61" t="n">
-        <v>0.350111</v>
+        <v>0.349131</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208698</v>
+        <v>0.208789</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323783</v>
+        <v>0.322436</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.193849</v>
+        <v>0.190496</v>
       </c>
       <c r="C62" t="n">
-        <v>0.311157</v>
+        <v>0.307564</v>
       </c>
       <c r="D62" t="n">
-        <v>0.353063</v>
+        <v>0.351391</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207711</v>
+        <v>0.207874</v>
       </c>
       <c r="F62" t="n">
-        <v>0.32245</v>
+        <v>0.321111</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188064</v>
+        <v>0.188461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321656</v>
+        <v>0.318336</v>
       </c>
       <c r="D63" t="n">
-        <v>0.356427</v>
+        <v>0.355892</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206962</v>
+        <v>0.207056</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321517</v>
+        <v>0.319843</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182546</v>
+        <v>0.177695</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316262</v>
+        <v>0.313367</v>
       </c>
       <c r="D64" t="n">
-        <v>0.378596</v>
+        <v>0.381614</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205882</v>
+        <v>0.206041</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320982</v>
+        <v>0.319669</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175603</v>
+        <v>0.170097</v>
       </c>
       <c r="C65" t="n">
-        <v>0.286374</v>
+        <v>0.28357</v>
       </c>
       <c r="D65" t="n">
-        <v>0.379765</v>
+        <v>0.380005</v>
       </c>
       <c r="E65" t="n">
-        <v>0.205232</v>
+        <v>0.205321</v>
       </c>
       <c r="F65" t="n">
-        <v>0.320011</v>
+        <v>0.318457</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161728</v>
+        <v>0.161748</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306745</v>
+        <v>0.304998</v>
       </c>
       <c r="D66" t="n">
-        <v>0.385917</v>
+        <v>0.385259</v>
       </c>
       <c r="E66" t="n">
-        <v>0.221465</v>
+        <v>0.221799</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334723</v>
+        <v>0.332972</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239654</v>
+        <v>0.239121</v>
       </c>
       <c r="C67" t="n">
-        <v>0.382138</v>
+        <v>0.381238</v>
       </c>
       <c r="D67" t="n">
-        <v>0.377113</v>
+        <v>0.37584</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219689</v>
+        <v>0.219743</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332748</v>
+        <v>0.33083</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235324</v>
+        <v>0.235415</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380164</v>
+        <v>0.378762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.387808</v>
+        <v>0.386159</v>
       </c>
       <c r="E68" t="n">
-        <v>0.218037</v>
+        <v>0.218258</v>
       </c>
       <c r="F68" t="n">
-        <v>0.331806</v>
+        <v>0.330208</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230156</v>
+        <v>0.230275</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375495</v>
+        <v>0.373101</v>
       </c>
       <c r="D69" t="n">
-        <v>0.389643</v>
+        <v>0.38835</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216478</v>
+        <v>0.216625</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329787</v>
+        <v>0.328435</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226389</v>
+        <v>0.227241</v>
       </c>
       <c r="C70" t="n">
-        <v>0.370829</v>
+        <v>0.368603</v>
       </c>
       <c r="D70" t="n">
-        <v>0.392127</v>
+        <v>0.390878</v>
       </c>
       <c r="E70" t="n">
-        <v>0.215115</v>
+        <v>0.215286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329056</v>
+        <v>0.326995</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219585</v>
+        <v>0.219306</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365082</v>
+        <v>0.363421</v>
       </c>
       <c r="D71" t="n">
-        <v>0.382817</v>
+        <v>0.380646</v>
       </c>
       <c r="E71" t="n">
-        <v>0.213896</v>
+        <v>0.213996</v>
       </c>
       <c r="F71" t="n">
-        <v>0.32715</v>
+        <v>0.325776</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213377</v>
+        <v>0.213506</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385901</v>
+        <v>0.385313</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383091</v>
+        <v>0.383025</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212681</v>
+        <v>0.212929</v>
       </c>
       <c r="F72" t="n">
-        <v>0.325985</v>
+        <v>0.324268</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210384</v>
+        <v>0.210377</v>
       </c>
       <c r="C73" t="n">
-        <v>0.435378</v>
+        <v>0.435794</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395964</v>
+        <v>0.394876</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211529</v>
+        <v>0.211756</v>
       </c>
       <c r="F73" t="n">
-        <v>0.325772</v>
+        <v>0.324336</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.203122</v>
+        <v>0.203381</v>
       </c>
       <c r="C74" t="n">
-        <v>0.504311</v>
+        <v>0.506954</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396788</v>
+        <v>0.395502</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210288</v>
+        <v>0.210439</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325386</v>
+        <v>0.323181</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200103</v>
+        <v>0.200272</v>
       </c>
       <c r="C75" t="n">
-        <v>0.425352</v>
+        <v>0.424653</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394011</v>
+        <v>0.393109</v>
       </c>
       <c r="E75" t="n">
-        <v>0.20925</v>
+        <v>0.20945</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324002</v>
+        <v>0.322202</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.19493</v>
+        <v>0.19529</v>
       </c>
       <c r="C76" t="n">
-        <v>0.433484</v>
+        <v>0.433518</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385634</v>
+        <v>0.385589</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208213</v>
+        <v>0.208417</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321872</v>
+        <v>0.320201</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189827</v>
+        <v>0.185626</v>
       </c>
       <c r="C77" t="n">
-        <v>0.414663</v>
+        <v>0.415493</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399033</v>
+        <v>0.398207</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207149</v>
+        <v>0.207343</v>
       </c>
       <c r="F77" t="n">
-        <v>0.321983</v>
+        <v>0.320389</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183632</v>
+        <v>0.184034</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404575</v>
+        <v>0.403913</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450957</v>
+        <v>0.449882</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206361</v>
+        <v>0.206561</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319893</v>
+        <v>0.318319</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177112</v>
+        <v>0.173699</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315552</v>
+        <v>0.313807</v>
       </c>
       <c r="D79" t="n">
-        <v>0.446388</v>
+        <v>0.444669</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205616</v>
+        <v>0.205896</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319058</v>
+        <v>0.317487</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169077</v>
+        <v>0.169216</v>
       </c>
       <c r="C80" t="n">
-        <v>0.39013</v>
+        <v>0.389435</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442276</v>
+        <v>0.44044</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224019</v>
+        <v>0.224633</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334797</v>
+        <v>0.333284</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.241966</v>
+        <v>0.242249</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373643</v>
+        <v>0.371783</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422747</v>
+        <v>0.420827</v>
       </c>
       <c r="E81" t="n">
-        <v>0.222465</v>
+        <v>0.223083</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332793</v>
+        <v>0.331109</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238036</v>
+        <v>0.238204</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370015</v>
+        <v>0.367329</v>
       </c>
       <c r="D82" t="n">
-        <v>0.432281</v>
+        <v>0.430748</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219694</v>
+        <v>0.219955</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332005</v>
+        <v>0.330296</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233184</v>
+        <v>0.233282</v>
       </c>
       <c r="C83" t="n">
-        <v>0.365252</v>
+        <v>0.362825</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416199</v>
+        <v>0.414958</v>
       </c>
       <c r="E83" t="n">
-        <v>0.217767</v>
+        <v>0.219069</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330177</v>
+        <v>0.328666</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227743</v>
+        <v>0.227975</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359431</v>
+        <v>0.357229</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415075</v>
+        <v>0.414032</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216494</v>
+        <v>0.216623</v>
       </c>
       <c r="F84" t="n">
-        <v>0.329097</v>
+        <v>0.32736</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222894</v>
+        <v>0.223384</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354961</v>
+        <v>0.352294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411188</v>
+        <v>0.4096</v>
       </c>
       <c r="E85" t="n">
-        <v>0.214865</v>
+        <v>0.214781</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328128</v>
+        <v>0.326338</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217392</v>
+        <v>0.217697</v>
       </c>
       <c r="C86" t="n">
-        <v>0.348751</v>
+        <v>0.347046</v>
       </c>
       <c r="D86" t="n">
-        <v>0.421173</v>
+        <v>0.420043</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213702</v>
+        <v>0.213808</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327191</v>
+        <v>0.325471</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.209836</v>
+        <v>0.209621</v>
       </c>
       <c r="C87" t="n">
-        <v>0.353448</v>
+        <v>0.352177</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420635</v>
+        <v>0.418983</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212397</v>
+        <v>0.212392</v>
       </c>
       <c r="F87" t="n">
-        <v>0.32625</v>
+        <v>0.324586</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206514</v>
+        <v>0.206761</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427627</v>
+        <v>0.427068</v>
       </c>
       <c r="D88" t="n">
-        <v>0.41855</v>
+        <v>0.417044</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210805</v>
+        <v>0.210908</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325222</v>
+        <v>0.323452</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201064</v>
+        <v>0.201376</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411375</v>
+        <v>0.410915</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416116</v>
+        <v>0.415243</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209636</v>
+        <v>0.209746</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324207</v>
+        <v>0.322448</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196361</v>
+        <v>0.196358</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394854</v>
+        <v>0.394167</v>
       </c>
       <c r="D90" t="n">
-        <v>0.41664</v>
+        <v>0.416048</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208789</v>
+        <v>0.20883</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323269</v>
+        <v>0.321705</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191276</v>
+        <v>0.191591</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412489</v>
+        <v>0.412227</v>
       </c>
       <c r="D91" t="n">
-        <v>0.414233</v>
+        <v>0.413537</v>
       </c>
       <c r="E91" t="n">
-        <v>0.207783</v>
+        <v>0.207911</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322455</v>
+        <v>0.320759</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185002</v>
+        <v>0.185207</v>
       </c>
       <c r="C92" t="n">
-        <v>0.442201</v>
+        <v>0.442673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.453375</v>
+        <v>0.452889</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206898</v>
+        <v>0.207091</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321582</v>
+        <v>0.319858</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.174211</v>
+        <v>0.174229</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409496</v>
+        <v>0.409429</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448712</v>
+        <v>0.448412</v>
       </c>
       <c r="E93" t="n">
-        <v>0.205992</v>
+        <v>0.206182</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320729</v>
+        <v>0.319214</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.170108</v>
+        <v>0.171193</v>
       </c>
       <c r="C94" t="n">
-        <v>0.324942</v>
+        <v>0.324061</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441062</v>
+        <v>0.441081</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224593</v>
+        <v>0.224879</v>
       </c>
       <c r="F94" t="n">
-        <v>0.337986</v>
+        <v>0.335924</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.240878</v>
+        <v>0.241016</v>
       </c>
       <c r="C95" t="n">
-        <v>0.481236</v>
+        <v>0.48067</v>
       </c>
       <c r="D95" t="n">
-        <v>0.424811</v>
+        <v>0.42433</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221609</v>
+        <v>0.222097</v>
       </c>
       <c r="F95" t="n">
-        <v>0.335667</v>
+        <v>0.3338</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236888</v>
+        <v>0.236862</v>
       </c>
       <c r="C96" t="n">
-        <v>0.357119</v>
+        <v>0.354302</v>
       </c>
       <c r="D96" t="n">
-        <v>0.425559</v>
+        <v>0.425817</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219664</v>
+        <v>0.219619</v>
       </c>
       <c r="F96" t="n">
-        <v>0.332624</v>
+        <v>0.330955</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232339</v>
+        <v>0.232379</v>
       </c>
       <c r="C97" t="n">
-        <v>0.352468</v>
+        <v>0.349831</v>
       </c>
       <c r="D97" t="n">
-        <v>0.408012</v>
+        <v>0.407112</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218002</v>
+        <v>0.217911</v>
       </c>
       <c r="F97" t="n">
-        <v>0.330166</v>
+        <v>0.32863</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229009</v>
+        <v>0.227492</v>
       </c>
       <c r="C98" t="n">
-        <v>0.348385</v>
+        <v>0.345934</v>
       </c>
       <c r="D98" t="n">
-        <v>0.403973</v>
+        <v>0.402911</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216427</v>
+        <v>0.216378</v>
       </c>
       <c r="F98" t="n">
-        <v>0.328784</v>
+        <v>0.327017</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22431</v>
+        <v>0.223822</v>
       </c>
       <c r="C99" t="n">
-        <v>0.343018</v>
+        <v>0.340707</v>
       </c>
       <c r="D99" t="n">
-        <v>0.400556</v>
+        <v>0.399405</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215169</v>
+        <v>0.215228</v>
       </c>
       <c r="F99" t="n">
-        <v>0.32737</v>
+        <v>0.325587</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218469</v>
+        <v>0.218995</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337722</v>
+        <v>0.335098</v>
       </c>
       <c r="D100" t="n">
-        <v>0.402551</v>
+        <v>0.401614</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213997</v>
+        <v>0.213923</v>
       </c>
       <c r="F100" t="n">
-        <v>0.32669</v>
+        <v>0.325007</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213182</v>
+        <v>0.213301</v>
       </c>
       <c r="C101" t="n">
-        <v>0.396626</v>
+        <v>0.39475</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388526</v>
+        <v>0.387295</v>
       </c>
       <c r="E101" t="n">
-        <v>0.211999</v>
+        <v>0.212016</v>
       </c>
       <c r="F101" t="n">
-        <v>0.325057</v>
+        <v>0.323368</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207577</v>
+        <v>0.207605</v>
       </c>
       <c r="C102" t="n">
-        <v>0.368664</v>
+        <v>0.367127</v>
       </c>
       <c r="D102" t="n">
-        <v>0.38547</v>
+        <v>0.384136</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211275</v>
+        <v>0.211242</v>
       </c>
       <c r="F102" t="n">
-        <v>0.324012</v>
+        <v>0.322368</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202484</v>
+        <v>0.202499</v>
       </c>
       <c r="C103" t="n">
-        <v>0.432463</v>
+        <v>0.433334</v>
       </c>
       <c r="D103" t="n">
-        <v>0.381272</v>
+        <v>0.382339</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210177</v>
+        <v>0.210154</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321377</v>
+        <v>0.321249</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197324</v>
+        <v>0.197258</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389393</v>
+        <v>0.390371</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3936</v>
+        <v>0.394896</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209014</v>
+        <v>0.209076</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320401</v>
+        <v>0.320339</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192793</v>
+        <v>0.19269</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387687</v>
+        <v>0.389499</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391951</v>
+        <v>0.39351</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208006</v>
+        <v>0.207979</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320882</v>
+        <v>0.320848</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187087</v>
+        <v>0.186909</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363564</v>
+        <v>0.363872</v>
       </c>
       <c r="D106" t="n">
-        <v>0.385817</v>
+        <v>0.385647</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206751</v>
+        <v>0.206852</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318714</v>
+        <v>0.318972</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180911</v>
+        <v>0.180555</v>
       </c>
       <c r="C107" t="n">
-        <v>0.392377</v>
+        <v>0.392138</v>
       </c>
       <c r="D107" t="n">
-        <v>0.415205</v>
+        <v>0.414664</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206574</v>
+        <v>0.206548</v>
       </c>
       <c r="F107" t="n">
-        <v>0.31806</v>
+        <v>0.318182</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173461</v>
+        <v>0.173109</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367977</v>
+        <v>0.368109</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411457</v>
+        <v>0.411429</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225407</v>
+        <v>0.225277</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333629</v>
+        <v>0.333756</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157665</v>
+        <v>0.157839</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329175</v>
+        <v>0.328894</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398555</v>
+        <v>0.398713</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222653</v>
+        <v>0.222637</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331354</v>
+        <v>0.331379</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238292</v>
+        <v>0.23828</v>
       </c>
       <c r="C110" t="n">
-        <v>0.494447</v>
+        <v>0.49448</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398732</v>
+        <v>0.398772</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220353</v>
+        <v>0.220347</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329703</v>
+        <v>0.32982</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233925</v>
+        <v>0.233603</v>
       </c>
       <c r="C111" t="n">
-        <v>0.495153</v>
+        <v>0.495097</v>
       </c>
       <c r="D111" t="n">
-        <v>0.395536</v>
+        <v>0.39538</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218576</v>
+        <v>0.218599</v>
       </c>
       <c r="F111" t="n">
-        <v>0.329038</v>
+        <v>0.328989</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228994</v>
+        <v>0.22884</v>
       </c>
       <c r="C112" t="n">
-        <v>0.494271</v>
+        <v>0.493779</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398368</v>
+        <v>0.398234</v>
       </c>
       <c r="E112" t="n">
-        <v>0.216901</v>
+        <v>0.21687</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327939</v>
+        <v>0.327825</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22342</v>
+        <v>0.223619</v>
       </c>
       <c r="C113" t="n">
-        <v>0.492375</v>
+        <v>0.492212</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395776</v>
+        <v>0.383742</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215241</v>
+        <v>0.215242</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326151</v>
+        <v>0.326225</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.217917</v>
+        <v>0.217883</v>
       </c>
       <c r="C114" t="n">
-        <v>0.489001</v>
+        <v>0.488824</v>
       </c>
       <c r="D114" t="n">
-        <v>0.393266</v>
+        <v>0.380669</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213718</v>
+        <v>0.213782</v>
       </c>
       <c r="F114" t="n">
-        <v>0.325482</v>
+        <v>0.325702</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212034</v>
+        <v>0.211759</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441873</v>
+        <v>0.441695</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383396</v>
+        <v>0.383594</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212367</v>
+        <v>0.212374</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324254</v>
+        <v>0.32419</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206174</v>
+        <v>0.206574</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445468</v>
+        <v>0.44525</v>
       </c>
       <c r="D116" t="n">
-        <v>0.381599</v>
+        <v>0.381637</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211438</v>
+        <v>0.211483</v>
       </c>
       <c r="F116" t="n">
-        <v>0.32318</v>
+        <v>0.323324</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200782</v>
+        <v>0.201188</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312787</v>
+        <v>0.312845</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374916</v>
+        <v>0.37472</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21026</v>
+        <v>0.210237</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322681</v>
+        <v>0.322783</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.199226</v>
+        <v>0.199009</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436548</v>
+        <v>0.436394</v>
       </c>
       <c r="D118" t="n">
-        <v>0.368169</v>
+        <v>0.368092</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209215</v>
+        <v>0.209253</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321851</v>
+        <v>0.321992</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193626</v>
+        <v>0.193762</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428656</v>
+        <v>0.42838</v>
       </c>
       <c r="D119" t="n">
-        <v>0.37873</v>
+        <v>0.377116</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207975</v>
+        <v>0.207969</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320138</v>
+        <v>0.320163</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188484</v>
+        <v>0.188327</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447744</v>
+        <v>0.447548</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371432</v>
+        <v>0.371541</v>
       </c>
       <c r="E120" t="n">
-        <v>0.207401</v>
+        <v>0.207346</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319935</v>
+        <v>0.319968</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.181903</v>
+        <v>0.181966</v>
       </c>
       <c r="C121" t="n">
-        <v>0.413421</v>
+        <v>0.413219</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457406</v>
+        <v>0.457173</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206499</v>
+        <v>0.206595</v>
       </c>
       <c r="F121" t="n">
-        <v>0.318966</v>
+        <v>0.319114</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169603</v>
+        <v>0.169767</v>
       </c>
       <c r="C122" t="n">
-        <v>0.368158</v>
+        <v>0.367893</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449514</v>
+        <v>0.440128</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205735</v>
+        <v>0.205746</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318281</v>
+        <v>0.318767</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16069</v>
+        <v>0.160405</v>
       </c>
       <c r="C123" t="n">
-        <v>0.355553</v>
+        <v>0.355223</v>
       </c>
       <c r="D123" t="n">
-        <v>0.432145</v>
+        <v>0.432131</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223063</v>
+        <v>0.223072</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332155</v>
+        <v>0.332378</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238909</v>
+        <v>0.238643</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429837</v>
+        <v>0.429419</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417386</v>
+        <v>0.417215</v>
       </c>
       <c r="E124" t="n">
-        <v>0.22077</v>
+        <v>0.220745</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330273</v>
+        <v>0.330522</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234916</v>
+        <v>0.234709</v>
       </c>
       <c r="C125" t="n">
-        <v>0.470235</v>
+        <v>0.470121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.413117</v>
+        <v>0.412679</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218872</v>
+        <v>0.218795</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328815</v>
+        <v>0.328981</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.230081</v>
+        <v>0.229818</v>
       </c>
       <c r="C126" t="n">
-        <v>0.456109</v>
+        <v>0.455496</v>
       </c>
       <c r="D126" t="n">
-        <v>0.418374</v>
+        <v>0.406837</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217123</v>
+        <v>0.217087</v>
       </c>
       <c r="F126" t="n">
-        <v>0.32739</v>
+        <v>0.327527</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224721</v>
+        <v>0.224536</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429947</v>
+        <v>0.429424</v>
       </c>
       <c r="D127" t="n">
-        <v>0.40716</v>
+        <v>0.394726</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215617</v>
+        <v>0.215616</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326028</v>
+        <v>0.326135</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.219328</v>
+        <v>0.219006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.455224</v>
+        <v>0.454645</v>
       </c>
       <c r="D128" t="n">
-        <v>0.411816</v>
+        <v>0.398852</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214263</v>
+        <v>0.214189</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324879</v>
+        <v>0.324923</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.2131</v>
+        <v>0.213395</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375582</v>
+        <v>0.375273</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417819</v>
+        <v>0.417841</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212873</v>
+        <v>0.212886</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324142</v>
+        <v>0.324383</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207977</v>
+        <v>0.207825</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427475</v>
+        <v>0.426751</v>
       </c>
       <c r="D130" t="n">
-        <v>0.397832</v>
+        <v>0.397457</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211633</v>
+        <v>0.211591</v>
       </c>
       <c r="F130" t="n">
-        <v>0.323034</v>
+        <v>0.323008</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.201945</v>
+        <v>0.201641</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430424</v>
+        <v>0.429611</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412426</v>
+        <v>0.412202</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210423</v>
+        <v>0.210459</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322269</v>
+        <v>0.322385</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199479</v>
+        <v>0.199961</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358259</v>
+        <v>0.357733</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401563</v>
+        <v>0.401517</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209478</v>
+        <v>0.209472</v>
       </c>
       <c r="F132" t="n">
-        <v>0.320236</v>
+        <v>0.320558</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190881</v>
+        <v>0.194494</v>
       </c>
       <c r="C133" t="n">
-        <v>0.456321</v>
+        <v>0.45537</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377147</v>
+        <v>0.377009</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208411</v>
+        <v>0.208457</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319693</v>
+        <v>0.319831</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.185025</v>
+        <v>0.184928</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412744</v>
+        <v>0.412294</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407342</v>
+        <v>0.407635</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207193</v>
+        <v>0.207215</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319445</v>
+        <v>0.319205</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18316</v>
+        <v>0.183172</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432872</v>
+        <v>0.43219</v>
       </c>
       <c r="D135" t="n">
-        <v>0.449714</v>
+        <v>0.448913</v>
       </c>
       <c r="E135" t="n">
-        <v>0.20662</v>
+        <v>0.206595</v>
       </c>
       <c r="F135" t="n">
-        <v>0.318056</v>
+        <v>0.317968</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.176249</v>
+        <v>0.170644</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394124</v>
+        <v>0.39371</v>
       </c>
       <c r="D136" t="n">
-        <v>0.429113</v>
+        <v>0.437927</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205816</v>
+        <v>0.205813</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317346</v>
+        <v>0.317213</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168178</v>
+        <v>0.162438</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387416</v>
+        <v>0.386935</v>
       </c>
       <c r="D137" t="n">
-        <v>0.41749</v>
+        <v>0.417315</v>
       </c>
       <c r="E137" t="n">
-        <v>0.223586</v>
+        <v>0.223491</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332353</v>
+        <v>0.332462</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240724</v>
+        <v>0.240848</v>
       </c>
       <c r="C138" t="n">
-        <v>0.461402</v>
+        <v>0.461482</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425845</v>
+        <v>0.436141</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221203</v>
+        <v>0.221171</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330685</v>
+        <v>0.330854</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236386</v>
+        <v>0.236313</v>
       </c>
       <c r="C139" t="n">
-        <v>0.475223</v>
+        <v>0.475443</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429241</v>
+        <v>0.429484</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219197</v>
+        <v>0.219164</v>
       </c>
       <c r="F139" t="n">
-        <v>0.330017</v>
+        <v>0.330062</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231798</v>
+        <v>0.231374</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464387</v>
+        <v>0.464903</v>
       </c>
       <c r="D140" t="n">
-        <v>0.422906</v>
+        <v>0.426716</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217506</v>
+        <v>0.217497</v>
       </c>
       <c r="F140" t="n">
-        <v>0.328675</v>
+        <v>0.328792</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.225455</v>
+        <v>0.224369</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446489</v>
+        <v>0.446466</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411434</v>
+        <v>0.411631</v>
       </c>
       <c r="E141" t="n">
-        <v>0.21587</v>
+        <v>0.215887</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326759</v>
+        <v>0.326934</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.220905</v>
+        <v>0.220984</v>
       </c>
       <c r="C142" t="n">
-        <v>0.384185</v>
+        <v>0.384229</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407641</v>
+        <v>0.408157</v>
       </c>
       <c r="E142" t="n">
-        <v>0.21446</v>
+        <v>0.214475</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325358</v>
+        <v>0.325514</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215655</v>
+        <v>0.215717</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480665</v>
+        <v>0.481528</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404475</v>
+        <v>0.391659</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213102</v>
+        <v>0.21316</v>
       </c>
       <c r="F143" t="n">
-        <v>0.324211</v>
+        <v>0.324222</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198039</v>
+        <v>0.198535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316419</v>
+        <v>0.31621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309565</v>
+        <v>0.312911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196182</v>
+        <v>0.09159340000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316663</v>
+        <v>0.259997</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193762</v>
+        <v>0.194973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315423</v>
+        <v>0.313986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314294</v>
+        <v>0.317479</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196841</v>
+        <v>0.08801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318276</v>
+        <v>0.25702</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188337</v>
+        <v>0.189127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312745</v>
+        <v>0.313053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.317344</v>
+        <v>0.313189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196898</v>
+        <v>0.0863225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316417</v>
+        <v>0.256402</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182788</v>
+        <v>0.182226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303331</v>
+        <v>0.303812</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332271</v>
+        <v>0.314177</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196851</v>
+        <v>0.0870727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315708</v>
+        <v>0.253134</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181828</v>
+        <v>0.181521</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301634</v>
+        <v>0.30232</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333413</v>
+        <v>0.317126</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197339</v>
+        <v>0.0837992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316</v>
+        <v>0.25012</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169635</v>
+        <v>0.16987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293504</v>
+        <v>0.295559</v>
       </c>
       <c r="D7" t="n">
-        <v>0.315713</v>
+        <v>0.306351</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197654</v>
+        <v>0.0841659</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315572</v>
+        <v>0.24625</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166119</v>
+        <v>0.165981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281763</v>
+        <v>0.282047</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315335</v>
+        <v>0.30585</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198048</v>
+        <v>0.0834849</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315043</v>
+        <v>0.244471</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158341</v>
+        <v>0.159099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27807</v>
+        <v>0.27756</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317159</v>
+        <v>0.307936</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215092</v>
+        <v>0.156322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328643</v>
+        <v>0.291431</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237257</v>
+        <v>0.234983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351217</v>
+        <v>0.352557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316448</v>
+        <v>0.307424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213228</v>
+        <v>0.150628</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32841</v>
+        <v>0.288928</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23291</v>
+        <v>0.233903</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347033</v>
+        <v>0.34844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317772</v>
+        <v>0.309204</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212467</v>
+        <v>0.147923</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326143</v>
+        <v>0.285833</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22683</v>
+        <v>0.227291</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342523</v>
+        <v>0.343319</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320455</v>
+        <v>0.309606</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212113</v>
+        <v>0.144091</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325918</v>
+        <v>0.281822</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221872</v>
+        <v>0.222211</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340801</v>
+        <v>0.341949</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322094</v>
+        <v>0.310607</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211485</v>
+        <v>0.139819</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325397</v>
+        <v>0.281515</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218494</v>
+        <v>0.218834</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336581</v>
+        <v>0.336272</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323662</v>
+        <v>0.310474</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210565</v>
+        <v>0.136767</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323269</v>
+        <v>0.276091</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213004</v>
+        <v>0.2126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319841</v>
+        <v>0.320258</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324178</v>
+        <v>0.311266</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209938</v>
+        <v>0.13521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322049</v>
+        <v>0.273282</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20851</v>
+        <v>0.209891</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323498</v>
+        <v>0.324294</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326241</v>
+        <v>0.311399</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208726</v>
+        <v>0.132336</v>
       </c>
       <c r="F16" t="n">
-        <v>0.320796</v>
+        <v>0.270208</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203756</v>
+        <v>0.204355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.313249</v>
+        <v>0.31386</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327901</v>
+        <v>0.312088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20794</v>
+        <v>0.129348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320214</v>
+        <v>0.266557</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199901</v>
+        <v>0.200354</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314213</v>
+        <v>0.314618</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331556</v>
+        <v>0.313744</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207039</v>
+        <v>0.127203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319789</v>
+        <v>0.263848</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.194778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.308842</v>
+        <v>0.307525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333714</v>
+        <v>0.315235</v>
       </c>
       <c r="E19" t="n">
-        <v>0.20665</v>
+        <v>0.125766</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318676</v>
+        <v>0.261628</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187185</v>
+        <v>0.188324</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301654</v>
+        <v>0.303509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335579</v>
+        <v>0.316207</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205974</v>
+        <v>0.122466</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318552</v>
+        <v>0.258541</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181744</v>
+        <v>0.18235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299518</v>
+        <v>0.299283</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318668</v>
+        <v>0.310148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205177</v>
+        <v>0.119262</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319185</v>
+        <v>0.254891</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169611</v>
+        <v>0.169423</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288004</v>
+        <v>0.289698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318504</v>
+        <v>0.309403</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204458</v>
+        <v>0.115788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316293</v>
+        <v>0.251716</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165369</v>
+        <v>0.166327</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277601</v>
+        <v>0.277659</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319039</v>
+        <v>0.310045</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220767</v>
+        <v>0.16636</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331025</v>
+        <v>0.296264</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236637</v>
+        <v>0.238001</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35504</v>
+        <v>0.35464</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322216</v>
+        <v>0.312831</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218939</v>
+        <v>0.162769</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330063</v>
+        <v>0.29401</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235156</v>
+        <v>0.234488</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349105</v>
+        <v>0.349229</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323625</v>
+        <v>0.312653</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217618</v>
+        <v>0.159513</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329757</v>
+        <v>0.290472</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229281</v>
+        <v>0.230625</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344807</v>
+        <v>0.345379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322615</v>
+        <v>0.312112</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216425</v>
+        <v>0.155668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.327824</v>
+        <v>0.286435</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225395</v>
+        <v>0.226939</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343028</v>
+        <v>0.343933</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323999</v>
+        <v>0.316538</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215003</v>
+        <v>0.152318</v>
       </c>
       <c r="F27" t="n">
-        <v>0.32727</v>
+        <v>0.282832</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220174</v>
+        <v>0.221434</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338369</v>
+        <v>0.339347</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325367</v>
+        <v>0.318231</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213842</v>
+        <v>0.149776</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326686</v>
+        <v>0.281022</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215007</v>
+        <v>0.215679</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333117</v>
+        <v>0.333896</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32906</v>
+        <v>0.317925</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212555</v>
+        <v>0.146435</v>
       </c>
       <c r="F29" t="n">
-        <v>0.327074</v>
+        <v>0.278227</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210651</v>
+        <v>0.211276</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330089</v>
+        <v>0.328735</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330025</v>
+        <v>0.31905</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21131</v>
+        <v>0.143876</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32554</v>
+        <v>0.274924</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205018</v>
+        <v>0.205445</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322506</v>
+        <v>0.322306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331852</v>
+        <v>0.317802</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210128</v>
+        <v>0.140145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32433</v>
+        <v>0.272874</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196874</v>
+        <v>0.200436</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319564</v>
+        <v>0.319934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332338</v>
+        <v>0.315896</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209063</v>
+        <v>0.137625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.32262</v>
+        <v>0.269412</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196106</v>
+        <v>0.19581</v>
       </c>
       <c r="C33" t="n">
-        <v>0.309981</v>
+        <v>0.311431</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336587</v>
+        <v>0.318898</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208206</v>
+        <v>0.134318</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32185</v>
+        <v>0.265785</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189556</v>
+        <v>0.189863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309942</v>
+        <v>0.310329</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338697</v>
+        <v>0.319988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207283</v>
+        <v>0.131958</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321654</v>
+        <v>0.262839</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185612</v>
+        <v>0.185524</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302861</v>
+        <v>0.301439</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322838</v>
+        <v>0.315191</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.127786</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320729</v>
+        <v>0.258464</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178782</v>
+        <v>0.178716</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290962</v>
+        <v>0.2912</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323149</v>
+        <v>0.315783</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20579</v>
+        <v>0.123689</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319726</v>
+        <v>0.254873</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16974</v>
+        <v>0.17032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276509</v>
+        <v>0.276689</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322484</v>
+        <v>0.314419</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222266</v>
+        <v>0.169037</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334461</v>
+        <v>0.298444</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242459</v>
+        <v>0.243048</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352154</v>
+        <v>0.352027</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324654</v>
+        <v>0.312804</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220484</v>
+        <v>0.164207</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333141</v>
+        <v>0.295998</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235937</v>
+        <v>0.236113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348957</v>
+        <v>0.348942</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326529</v>
+        <v>0.315826</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218646</v>
+        <v>0.163375</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330717</v>
+        <v>0.293461</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232247</v>
+        <v>0.232503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345654</v>
+        <v>0.34564</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326624</v>
+        <v>0.316265</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217024</v>
+        <v>0.159847</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329927</v>
+        <v>0.288458</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227155</v>
+        <v>0.227711</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34176</v>
+        <v>0.341689</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327161</v>
+        <v>0.316161</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215607</v>
+        <v>0.156353</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328181</v>
+        <v>0.285248</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223449</v>
+        <v>0.224362</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336746</v>
+        <v>0.336902</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328339</v>
+        <v>0.316787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214423</v>
+        <v>0.15312</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328124</v>
+        <v>0.282965</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215928</v>
+        <v>0.216529</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332156</v>
+        <v>0.332678</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32823</v>
+        <v>0.315626</v>
       </c>
       <c r="E43" t="n">
-        <v>0.213016</v>
+        <v>0.150203</v>
       </c>
       <c r="F43" t="n">
-        <v>0.325913</v>
+        <v>0.280308</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214382</v>
+        <v>0.213517</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328002</v>
+        <v>0.325628</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329964</v>
+        <v>0.315733</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211863</v>
+        <v>0.147947</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325104</v>
+        <v>0.276893</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207838</v>
+        <v>0.207952</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324408</v>
+        <v>0.32333</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331189</v>
+        <v>0.315753</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210727</v>
+        <v>0.144956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324074</v>
+        <v>0.273712</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20195</v>
+        <v>0.202576</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32382</v>
+        <v>0.32252</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332638</v>
+        <v>0.317515</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209586</v>
+        <v>0.141641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323702</v>
+        <v>0.270272</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197266</v>
+        <v>0.197183</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313051</v>
+        <v>0.312316</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337086</v>
+        <v>0.320213</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208629</v>
+        <v>0.137297</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322908</v>
+        <v>0.267313</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192275</v>
+        <v>0.188579</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306904</v>
+        <v>0.311739</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33761</v>
+        <v>0.32167</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207675</v>
+        <v>0.134419</v>
       </c>
       <c r="F48" t="n">
-        <v>0.321162</v>
+        <v>0.264261</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182895</v>
+        <v>0.183097</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300135</v>
+        <v>0.30424</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341829</v>
+        <v>0.320367</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206862</v>
+        <v>0.131416</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320523</v>
+        <v>0.260581</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175668</v>
+        <v>0.175463</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299076</v>
+        <v>0.29739</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32396</v>
+        <v>0.315076</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205838</v>
+        <v>0.128417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320389</v>
+        <v>0.25726</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173333</v>
+        <v>0.173275</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283257</v>
+        <v>0.283144</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326193</v>
+        <v>0.318088</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223613</v>
+        <v>0.17135</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335276</v>
+        <v>0.299644</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165105</v>
+        <v>0.164933</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280242</v>
+        <v>0.279385</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326803</v>
+        <v>0.315618</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220533</v>
+        <v>0.170059</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333519</v>
+        <v>0.29717</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237109</v>
+        <v>0.237148</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351196</v>
+        <v>0.350628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328003</v>
+        <v>0.319204</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219129</v>
+        <v>0.166435</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33189</v>
+        <v>0.293435</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233327</v>
+        <v>0.233896</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348436</v>
+        <v>0.349243</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327154</v>
+        <v>0.318246</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217434</v>
+        <v>0.162425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331723</v>
+        <v>0.290901</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229418</v>
+        <v>0.229579</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344551</v>
+        <v>0.344906</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329754</v>
+        <v>0.319137</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215743</v>
+        <v>0.159423</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329122</v>
+        <v>0.287334</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222924</v>
+        <v>0.223457</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340935</v>
+        <v>0.341323</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331337</v>
+        <v>0.319476</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214463</v>
+        <v>0.156265</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328198</v>
+        <v>0.284396</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219082</v>
+        <v>0.219915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335479</v>
+        <v>0.336317</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335005</v>
+        <v>0.323824</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213327</v>
+        <v>0.153511</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327301</v>
+        <v>0.281283</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214071</v>
+        <v>0.215653</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323354</v>
+        <v>0.323427</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338561</v>
+        <v>0.325584</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212086</v>
+        <v>0.150678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326308</v>
+        <v>0.277551</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205877</v>
+        <v>0.206687</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327605</v>
+        <v>0.32855</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341323</v>
+        <v>0.328173</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210918</v>
+        <v>0.147742</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325386</v>
+        <v>0.274373</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203442</v>
+        <v>0.203741</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32311</v>
+        <v>0.322791</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345857</v>
+        <v>0.330889</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209806</v>
+        <v>0.1448</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324682</v>
+        <v>0.271034</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198804</v>
+        <v>0.198728</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338317</v>
+        <v>0.339063</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349254</v>
+        <v>0.333492</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208846</v>
+        <v>0.141988</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323463</v>
+        <v>0.268289</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190133</v>
+        <v>0.190433</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310381</v>
+        <v>0.310315</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352205</v>
+        <v>0.335288</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207847</v>
+        <v>0.139088</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322319</v>
+        <v>0.264904</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.188408</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321623</v>
+        <v>0.320917</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35729</v>
+        <v>0.338738</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206913</v>
+        <v>0.135952</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321296</v>
+        <v>0.262688</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182676</v>
+        <v>0.177839</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316358</v>
+        <v>0.316583</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380665</v>
+        <v>0.371576</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205993</v>
+        <v>0.132751</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320746</v>
+        <v>0.258638</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175436</v>
+        <v>0.169477</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285989</v>
+        <v>0.285799</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384326</v>
+        <v>0.372657</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2053</v>
+        <v>0.128422</v>
       </c>
       <c r="F65" t="n">
-        <v>0.319907</v>
+        <v>0.255694</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16151</v>
+        <v>0.161572</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307283</v>
+        <v>0.307172</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38735</v>
+        <v>0.37467</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22174</v>
+        <v>0.16949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334744</v>
+        <v>0.298528</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239245</v>
+        <v>0.239609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383015</v>
+        <v>0.382848</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378608</v>
+        <v>0.367564</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219736</v>
+        <v>0.167559</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332708</v>
+        <v>0.293971</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234984</v>
+        <v>0.235691</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380777</v>
+        <v>0.380783</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389722</v>
+        <v>0.378441</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21814</v>
+        <v>0.164717</v>
       </c>
       <c r="F68" t="n">
-        <v>0.33176</v>
+        <v>0.291768</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230165</v>
+        <v>0.230233</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375024</v>
+        <v>0.37536</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391123</v>
+        <v>0.380088</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216714</v>
+        <v>0.161247</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329921</v>
+        <v>0.287929</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22637</v>
+        <v>0.227337</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371186</v>
+        <v>0.371858</v>
       </c>
       <c r="D70" t="n">
-        <v>0.393549</v>
+        <v>0.382154</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21532</v>
+        <v>0.158204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329055</v>
+        <v>0.285071</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219685</v>
+        <v>0.219842</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365124</v>
+        <v>0.365726</v>
       </c>
       <c r="D71" t="n">
-        <v>0.383449</v>
+        <v>0.370631</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214075</v>
+        <v>0.155189</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327182</v>
+        <v>0.281479</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213435</v>
+        <v>0.214271</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385198</v>
+        <v>0.386248</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383347</v>
+        <v>0.369859</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212847</v>
+        <v>0.150328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.326094</v>
+        <v>0.278622</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21052</v>
+        <v>0.210883</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434361</v>
+        <v>0.43755</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395812</v>
+        <v>0.383325</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211554</v>
+        <v>0.14726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326223</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202826</v>
+        <v>0.206636</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50515</v>
+        <v>0.343721</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396497</v>
+        <v>0.369545</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210331</v>
+        <v>0.146588</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325121</v>
+        <v>0.272533</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200433</v>
+        <v>0.200954</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424146</v>
+        <v>0.382912</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394012</v>
+        <v>0.371896</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209315</v>
+        <v>0.143828</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324058</v>
+        <v>0.269157</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195052</v>
+        <v>0.195117</v>
       </c>
       <c r="C76" t="n">
-        <v>0.432666</v>
+        <v>0.411571</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385415</v>
+        <v>0.371608</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208313</v>
+        <v>0.141058</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321859</v>
+        <v>0.265944</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18588</v>
+        <v>0.185624</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413597</v>
+        <v>0.417783</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399165</v>
+        <v>0.38313</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207214</v>
+        <v>0.137924</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322049</v>
+        <v>0.262769</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183954</v>
+        <v>0.183793</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404342</v>
+        <v>0.41291</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450311</v>
+        <v>0.43526</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206537</v>
+        <v>0.134903</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319915</v>
+        <v>0.259359</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177332</v>
+        <v>0.177352</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315879</v>
+        <v>0.408878</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44593</v>
+        <v>0.422688</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205816</v>
+        <v>0.130565</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319103</v>
+        <v>0.256149</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169589</v>
+        <v>0.169482</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389973</v>
+        <v>0.390381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442258</v>
+        <v>0.433927</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224387</v>
+        <v>0.171911</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334767</v>
+        <v>0.297803</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242077</v>
+        <v>0.240041</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373661</v>
+        <v>0.3737</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422901</v>
+        <v>0.413611</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221993</v>
+        <v>0.168297</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332937</v>
+        <v>0.292354</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238337</v>
+        <v>0.238971</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370128</v>
+        <v>0.369788</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431972</v>
+        <v>0.42345</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219747</v>
+        <v>0.164285</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332091</v>
+        <v>0.290371</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233393</v>
+        <v>0.23395</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36513</v>
+        <v>0.365055</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416602</v>
+        <v>0.405554</v>
       </c>
       <c r="E83" t="n">
-        <v>0.218249</v>
+        <v>0.160778</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330379</v>
+        <v>0.288482</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228169</v>
+        <v>0.228403</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359783</v>
+        <v>0.359845</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415232</v>
+        <v>0.403467</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216523</v>
+        <v>0.157839</v>
       </c>
       <c r="F84" t="n">
-        <v>0.328979</v>
+        <v>0.283412</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223053</v>
+        <v>0.223381</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354822</v>
+        <v>0.35454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411634</v>
+        <v>0.400157</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215208</v>
+        <v>0.155041</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328088</v>
+        <v>0.280971</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215091</v>
+        <v>0.215406</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3488</v>
+        <v>0.348634</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420989</v>
+        <v>0.409268</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213791</v>
+        <v>0.151848</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327214</v>
+        <v>0.277911</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20965</v>
+        <v>0.20992</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354432</v>
+        <v>0.353996</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420751</v>
+        <v>0.408968</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212218</v>
+        <v>0.149171</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326101</v>
+        <v>0.275074</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206688</v>
+        <v>0.207346</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427409</v>
+        <v>0.427254</v>
       </c>
       <c r="D88" t="n">
-        <v>0.418385</v>
+        <v>0.405371</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210796</v>
+        <v>0.146066</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325197</v>
+        <v>0.271803</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201045</v>
+        <v>0.201445</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411439</v>
+        <v>0.411558</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416137</v>
+        <v>0.40202</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209645</v>
+        <v>0.143342</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324161</v>
+        <v>0.268906</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.196205</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394311</v>
+        <v>0.394558</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416668</v>
+        <v>0.40142</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208763</v>
+        <v>0.140984</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323356</v>
+        <v>0.266141</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191541</v>
+        <v>0.191439</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412321</v>
+        <v>0.412589</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41446</v>
+        <v>0.397769</v>
       </c>
       <c r="E91" t="n">
-        <v>0.20778</v>
+        <v>0.138155</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322384</v>
+        <v>0.263068</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185137</v>
+        <v>0.18516</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441949</v>
+        <v>0.441597</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452927</v>
+        <v>0.451808</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206887</v>
+        <v>0.135052</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321361</v>
+        <v>0.259908</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173724</v>
+        <v>0.178909</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409194</v>
+        <v>0.409817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448389</v>
+        <v>0.441355</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206105</v>
+        <v>0.132349</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320525</v>
+        <v>0.2571</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171365</v>
+        <v>0.168556</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325018</v>
+        <v>0.325567</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441247</v>
+        <v>0.43335</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224713</v>
+        <v>0.175548</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336322</v>
+        <v>0.296326</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241006</v>
+        <v>0.240902</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478767</v>
+        <v>0.481912</v>
       </c>
       <c r="D95" t="n">
-        <v>0.422132</v>
+        <v>0.432955</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221477</v>
+        <v>0.17372</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333852</v>
+        <v>0.291067</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236891</v>
+        <v>0.237123</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354454</v>
+        <v>0.356697</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423552</v>
+        <v>0.445613</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219726</v>
+        <v>0.16654</v>
       </c>
       <c r="F96" t="n">
-        <v>0.330728</v>
+        <v>0.288325</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232382</v>
+        <v>0.232135</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349837</v>
+        <v>0.35188</v>
       </c>
       <c r="D97" t="n">
-        <v>0.405597</v>
+        <v>0.425214</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218326</v>
+        <v>0.162878</v>
       </c>
       <c r="F97" t="n">
-        <v>0.328395</v>
+        <v>0.284849</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229574</v>
+        <v>0.228974</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345736</v>
+        <v>0.34746</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401539</v>
+        <v>0.419668</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216936</v>
+        <v>0.159471</v>
       </c>
       <c r="F98" t="n">
-        <v>0.326904</v>
+        <v>0.282046</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224339</v>
+        <v>0.224007</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340185</v>
+        <v>0.342346</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397842</v>
+        <v>0.415848</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215503</v>
+        <v>0.156432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325631</v>
+        <v>0.278438</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218044</v>
+        <v>0.219164</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33502</v>
+        <v>0.337153</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40025</v>
+        <v>0.41867</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213887</v>
+        <v>0.155464</v>
       </c>
       <c r="F100" t="n">
-        <v>0.324933</v>
+        <v>0.275923</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212853</v>
+        <v>0.213203</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394261</v>
+        <v>0.409205</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385912</v>
+        <v>0.402797</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212073</v>
+        <v>0.150245</v>
       </c>
       <c r="F101" t="n">
-        <v>0.32338</v>
+        <v>0.273203</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20764</v>
+        <v>0.208306</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366303</v>
+        <v>0.377392</v>
       </c>
       <c r="D102" t="n">
-        <v>0.383046</v>
+        <v>0.398746</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211313</v>
+        <v>0.147284</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322356</v>
+        <v>0.269197</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202565</v>
+        <v>0.203286</v>
       </c>
       <c r="C103" t="n">
-        <v>0.431119</v>
+        <v>0.454916</v>
       </c>
       <c r="D103" t="n">
-        <v>0.38107</v>
+        <v>0.395515</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210208</v>
+        <v>0.144318</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321237</v>
+        <v>0.267123</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197309</v>
+        <v>0.197849</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389164</v>
+        <v>0.406084</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393786</v>
+        <v>0.411572</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209123</v>
+        <v>0.141751</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320443</v>
+        <v>0.263735</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192703</v>
+        <v>0.188372</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387519</v>
+        <v>0.313344</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391946</v>
+        <v>0.3936</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208125</v>
+        <v>0.140876</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320842</v>
+        <v>0.261012</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187166</v>
+        <v>0.186524</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363726</v>
+        <v>0.447426</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38562</v>
+        <v>0.387047</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206923</v>
+        <v>0.136388</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318609</v>
+        <v>0.257661</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180898</v>
+        <v>0.180971</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391249</v>
+        <v>0.414021</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414839</v>
+        <v>0.441143</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206578</v>
+        <v>0.133398</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318042</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173592</v>
+        <v>0.173632</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367711</v>
+        <v>0.387363</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411002</v>
+        <v>0.436984</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225377</v>
+        <v>0.17446</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333574</v>
+        <v>0.294357</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157576</v>
+        <v>0.157956</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328899</v>
+        <v>0.341792</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398261</v>
+        <v>0.411073</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222654</v>
+        <v>0.170385</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331271</v>
+        <v>0.290883</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238084</v>
+        <v>0.238335</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493874</v>
+        <v>0.519837</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398461</v>
+        <v>0.410784</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220439</v>
+        <v>0.166632</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329667</v>
+        <v>0.28767</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23378</v>
+        <v>0.233111</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49468</v>
+        <v>0.522045</v>
       </c>
       <c r="D111" t="n">
-        <v>0.384808</v>
+        <v>0.405253</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218671</v>
+        <v>0.163111</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328932</v>
+        <v>0.284338</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228874</v>
+        <v>0.228252</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493379</v>
+        <v>0.5213950000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398083</v>
+        <v>0.40788</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21703</v>
+        <v>0.159938</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327765</v>
+        <v>0.281077</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223411</v>
+        <v>0.223017</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49166</v>
+        <v>0.520733</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395514</v>
+        <v>0.402836</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215311</v>
+        <v>0.156697</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326127</v>
+        <v>0.278585</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218023</v>
+        <v>0.217005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.48826</v>
+        <v>0.517347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392894</v>
+        <v>0.400873</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213837</v>
+        <v>0.153588</v>
       </c>
       <c r="F114" t="n">
-        <v>0.32536</v>
+        <v>0.276186</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212687</v>
+        <v>0.21256</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441477</v>
+        <v>0.46636</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383092</v>
+        <v>0.385377</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212533</v>
+        <v>0.150965</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324163</v>
+        <v>0.274216</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20634</v>
+        <v>0.206675</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445081</v>
+        <v>0.471768</v>
       </c>
       <c r="D116" t="n">
-        <v>0.367245</v>
+        <v>0.382929</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211504</v>
+        <v>0.147931</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323461</v>
+        <v>0.271213</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.201157</v>
+        <v>0.200961</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312737</v>
+        <v>0.313702</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374621</v>
+        <v>0.390042</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210245</v>
+        <v>0.145048</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322705</v>
+        <v>0.266715</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198963</v>
+        <v>0.198508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436189</v>
+        <v>0.469594</v>
       </c>
       <c r="D118" t="n">
-        <v>0.367856</v>
+        <v>0.381129</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209234</v>
+        <v>0.142359</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321874</v>
+        <v>0.263893</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193526</v>
+        <v>0.193714</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428167</v>
+        <v>0.455526</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378087</v>
+        <v>0.392865</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207987</v>
+        <v>0.141514</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320122</v>
+        <v>0.260831</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188202</v>
+        <v>0.188654</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447219</v>
+        <v>0.475231</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371122</v>
+        <v>0.384177</v>
       </c>
       <c r="E120" t="n">
-        <v>0.20732</v>
+        <v>0.1369</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319888</v>
+        <v>0.258027</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182012</v>
+        <v>0.182326</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412973</v>
+        <v>0.437093</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457049</v>
+        <v>0.461967</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206505</v>
+        <v>0.134059</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319026</v>
+        <v>0.255492</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169649</v>
+        <v>0.171825</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367922</v>
+        <v>0.386001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449197</v>
+        <v>0.471565</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205755</v>
+        <v>0.13149</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318222</v>
+        <v>0.252203</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16647</v>
+        <v>0.160611</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35522</v>
+        <v>0.371074</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431685</v>
+        <v>0.451494</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223069</v>
+        <v>0.171119</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332148</v>
+        <v>0.290936</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238661</v>
+        <v>0.239019</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429524</v>
+        <v>0.434586</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417153</v>
+        <v>0.429971</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220802</v>
+        <v>0.167198</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330367</v>
+        <v>0.287885</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234681</v>
+        <v>0.234131</v>
       </c>
       <c r="C125" t="n">
-        <v>0.469972</v>
+        <v>0.485489</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412764</v>
+        <v>0.423823</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218843</v>
+        <v>0.163845</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328841</v>
+        <v>0.284662</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229597</v>
+        <v>0.229168</v>
       </c>
       <c r="C126" t="n">
-        <v>0.455892</v>
+        <v>0.471109</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40667</v>
+        <v>0.429239</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217116</v>
+        <v>0.160341</v>
       </c>
       <c r="F126" t="n">
-        <v>0.327443</v>
+        <v>0.281583</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224571</v>
+        <v>0.223576</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429964</v>
+        <v>0.453825</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394613</v>
+        <v>0.412534</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215593</v>
+        <v>0.157264</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326121</v>
+        <v>0.278596</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218421</v>
+        <v>0.218269</v>
       </c>
       <c r="C128" t="n">
-        <v>0.454873</v>
+        <v>0.473192</v>
       </c>
       <c r="D128" t="n">
-        <v>0.398683</v>
+        <v>0.418792</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214216</v>
+        <v>0.154197</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324968</v>
+        <v>0.275578</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21347</v>
+        <v>0.215054</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375299</v>
+        <v>0.380306</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417697</v>
+        <v>0.42679</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212873</v>
+        <v>0.151424</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324189</v>
+        <v>0.273335</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207751</v>
+        <v>0.20778</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427108</v>
+        <v>0.449125</v>
       </c>
       <c r="D130" t="n">
-        <v>0.411372</v>
+        <v>0.416359</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211602</v>
+        <v>0.148546</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322645</v>
+        <v>0.270986</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204367</v>
+        <v>0.202477</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430129</v>
+        <v>0.453625</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412141</v>
+        <v>0.416453</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210411</v>
+        <v>0.145582</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322276</v>
+        <v>0.26724</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200025</v>
+        <v>0.199403</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358121</v>
+        <v>0.35745</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401472</v>
+        <v>0.401439</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209437</v>
+        <v>0.142934</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32046</v>
+        <v>0.264973</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190771</v>
+        <v>0.190915</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455985</v>
+        <v>0.483771</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377124</v>
+        <v>0.390564</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208425</v>
+        <v>0.140195</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319751</v>
+        <v>0.261156</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184923</v>
+        <v>0.188779</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412288</v>
+        <v>0.430122</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407241</v>
+        <v>0.406456</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207227</v>
+        <v>0.13744</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319589</v>
+        <v>0.258338</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18395</v>
+        <v>0.183669</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432271</v>
+        <v>0.460028</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44982</v>
+        <v>0.471846</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206585</v>
+        <v>0.13457</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3177</v>
+        <v>0.256164</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17138</v>
+        <v>0.176954</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394043</v>
+        <v>0.412166</v>
       </c>
       <c r="D136" t="n">
-        <v>0.437821</v>
+        <v>0.456746</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205801</v>
+        <v>0.131529</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317149</v>
+        <v>0.252175</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162429</v>
+        <v>0.168407</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387207</v>
+        <v>0.408367</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417013</v>
+        <v>0.44182</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22352</v>
+        <v>0.171842</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332331</v>
+        <v>0.291747</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240913</v>
+        <v>0.240967</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46183</v>
+        <v>0.47233</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425602</v>
+        <v>0.453108</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221163</v>
+        <v>0.167911</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330729</v>
+        <v>0.288488</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236358</v>
+        <v>0.236682</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474479</v>
+        <v>0.497782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429063</v>
+        <v>0.443552</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219193</v>
+        <v>0.164438</v>
       </c>
       <c r="F139" t="n">
-        <v>0.329914</v>
+        <v>0.28551</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231514</v>
+        <v>0.232269</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464012</v>
+        <v>0.47834</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426355</v>
+        <v>0.442528</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217464</v>
+        <v>0.161076</v>
       </c>
       <c r="F140" t="n">
-        <v>0.32868</v>
+        <v>0.282353</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22447</v>
+        <v>0.225144</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446345</v>
+        <v>0.470272</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411172</v>
+        <v>0.440678</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215914</v>
+        <v>0.15789</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326783</v>
+        <v>0.279367</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22105</v>
+        <v>0.22201</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383967</v>
+        <v>0.387403</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407645</v>
+        <v>0.430605</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214433</v>
+        <v>0.154894</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325394</v>
+        <v>0.276764</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215665</v>
+        <v>0.216259</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480403</v>
+        <v>0.502171</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404022</v>
+        <v>0.410278</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213105</v>
+        <v>0.151993</v>
       </c>
       <c r="F143" t="n">
-        <v>0.32422</v>
+        <v>0.27364</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198535</v>
+        <v>0.198909</v>
       </c>
       <c r="C2" t="n">
-        <v>0.31621</v>
+        <v>0.316054</v>
       </c>
       <c r="D2" t="n">
-        <v>0.312911</v>
+        <v>0.309646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09159340000000001</v>
+        <v>0.0946737</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259997</v>
+        <v>0.260135</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194973</v>
+        <v>0.193802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313986</v>
+        <v>0.316183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.317479</v>
+        <v>0.314942</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08801</v>
+        <v>0.0897786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.25702</v>
+        <v>0.257101</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189127</v>
+        <v>0.188612</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313053</v>
+        <v>0.312436</v>
       </c>
       <c r="D4" t="n">
-        <v>0.313189</v>
+        <v>0.311443</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0863225</v>
+        <v>0.0864492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.256402</v>
+        <v>0.255142</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182226</v>
+        <v>0.182011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303812</v>
+        <v>0.303137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.314177</v>
+        <v>0.313423</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0870727</v>
+        <v>0.0864732</v>
       </c>
       <c r="F5" t="n">
-        <v>0.253134</v>
+        <v>0.252532</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181521</v>
+        <v>0.182407</v>
       </c>
       <c r="C6" t="n">
-        <v>0.30232</v>
+        <v>0.301506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.317126</v>
+        <v>0.315037</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0837992</v>
+        <v>0.084983</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25012</v>
+        <v>0.248545</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.16987</v>
+        <v>0.170258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.295559</v>
+        <v>0.295086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.306351</v>
+        <v>0.30671</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0841659</v>
+        <v>0.0817957</v>
       </c>
       <c r="F7" t="n">
-        <v>0.24625</v>
+        <v>0.24509</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.165981</v>
+        <v>0.166042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.282047</v>
+        <v>0.281138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.30585</v>
+        <v>0.3081</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0834849</v>
+        <v>0.0782828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.244471</v>
+        <v>0.24484</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159099</v>
+        <v>0.159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27756</v>
+        <v>0.277192</v>
       </c>
       <c r="D9" t="n">
-        <v>0.307936</v>
+        <v>0.309354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.156322</v>
+        <v>0.156363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.291431</v>
+        <v>0.290881</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.234983</v>
+        <v>0.237633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.352557</v>
+        <v>0.351941</v>
       </c>
       <c r="D10" t="n">
-        <v>0.307424</v>
+        <v>0.306093</v>
       </c>
       <c r="E10" t="n">
-        <v>0.150628</v>
+        <v>0.150907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.288928</v>
+        <v>0.287294</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233903</v>
+        <v>0.234273</v>
       </c>
       <c r="C11" t="n">
-        <v>0.34844</v>
+        <v>0.347241</v>
       </c>
       <c r="D11" t="n">
-        <v>0.309204</v>
+        <v>0.308922</v>
       </c>
       <c r="E11" t="n">
-        <v>0.147923</v>
+        <v>0.148373</v>
       </c>
       <c r="F11" t="n">
-        <v>0.285833</v>
+        <v>0.285631</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227291</v>
+        <v>0.226872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343319</v>
+        <v>0.343514</v>
       </c>
       <c r="D12" t="n">
-        <v>0.309606</v>
+        <v>0.309261</v>
       </c>
       <c r="E12" t="n">
-        <v>0.144091</v>
+        <v>0.143214</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281822</v>
+        <v>0.281832</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222211</v>
+        <v>0.221608</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341949</v>
+        <v>0.341169</v>
       </c>
       <c r="D13" t="n">
-        <v>0.310607</v>
+        <v>0.310228</v>
       </c>
       <c r="E13" t="n">
-        <v>0.139819</v>
+        <v>0.141088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.281515</v>
+        <v>0.280998</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218834</v>
+        <v>0.218618</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336272</v>
+        <v>0.335999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.310474</v>
+        <v>0.309884</v>
       </c>
       <c r="E14" t="n">
-        <v>0.136767</v>
+        <v>0.137792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.276091</v>
+        <v>0.276018</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2126</v>
+        <v>0.21326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.320258</v>
+        <v>0.319822</v>
       </c>
       <c r="D15" t="n">
-        <v>0.311266</v>
+        <v>0.311107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.13521</v>
+        <v>0.133969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.273282</v>
+        <v>0.273998</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.209891</v>
+        <v>0.208317</v>
       </c>
       <c r="C16" t="n">
-        <v>0.324294</v>
+        <v>0.325083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.311399</v>
+        <v>0.310615</v>
       </c>
       <c r="E16" t="n">
-        <v>0.132336</v>
+        <v>0.132642</v>
       </c>
       <c r="F16" t="n">
-        <v>0.270208</v>
+        <v>0.270347</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204355</v>
+        <v>0.204038</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31386</v>
+        <v>0.31345</v>
       </c>
       <c r="D17" t="n">
-        <v>0.312088</v>
+        <v>0.31195</v>
       </c>
       <c r="E17" t="n">
-        <v>0.129348</v>
+        <v>0.129951</v>
       </c>
       <c r="F17" t="n">
-        <v>0.266557</v>
+        <v>0.26679</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200354</v>
+        <v>0.199368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314618</v>
+        <v>0.314207</v>
       </c>
       <c r="D18" t="n">
-        <v>0.313744</v>
+        <v>0.314465</v>
       </c>
       <c r="E18" t="n">
-        <v>0.127203</v>
+        <v>0.126147</v>
       </c>
       <c r="F18" t="n">
-        <v>0.263848</v>
+        <v>0.263896</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194778</v>
+        <v>0.194591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.307525</v>
+        <v>0.307314</v>
       </c>
       <c r="D19" t="n">
-        <v>0.315235</v>
+        <v>0.314732</v>
       </c>
       <c r="E19" t="n">
-        <v>0.125766</v>
+        <v>0.124668</v>
       </c>
       <c r="F19" t="n">
-        <v>0.261628</v>
+        <v>0.261686</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188324</v>
+        <v>0.187888</v>
       </c>
       <c r="C20" t="n">
-        <v>0.303509</v>
+        <v>0.303365</v>
       </c>
       <c r="D20" t="n">
-        <v>0.316207</v>
+        <v>0.315391</v>
       </c>
       <c r="E20" t="n">
-        <v>0.122466</v>
+        <v>0.122255</v>
       </c>
       <c r="F20" t="n">
-        <v>0.258541</v>
+        <v>0.259259</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.18235</v>
+        <v>0.181267</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299283</v>
+        <v>0.297665</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310148</v>
+        <v>0.310523</v>
       </c>
       <c r="E21" t="n">
-        <v>0.119262</v>
+        <v>0.118801</v>
       </c>
       <c r="F21" t="n">
-        <v>0.254891</v>
+        <v>0.255369</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169423</v>
+        <v>0.168981</v>
       </c>
       <c r="C22" t="n">
-        <v>0.289698</v>
+        <v>0.289718</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309403</v>
+        <v>0.309523</v>
       </c>
       <c r="E22" t="n">
-        <v>0.115788</v>
+        <v>0.116401</v>
       </c>
       <c r="F22" t="n">
-        <v>0.251716</v>
+        <v>0.252218</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166327</v>
+        <v>0.165865</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277659</v>
+        <v>0.27773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310045</v>
+        <v>0.310272</v>
       </c>
       <c r="E23" t="n">
-        <v>0.16636</v>
+        <v>0.166765</v>
       </c>
       <c r="F23" t="n">
-        <v>0.296264</v>
+        <v>0.297465</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238001</v>
+        <v>0.237118</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35464</v>
+        <v>0.355194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.312831</v>
+        <v>0.312092</v>
       </c>
       <c r="E24" t="n">
-        <v>0.162769</v>
+        <v>0.161974</v>
       </c>
       <c r="F24" t="n">
-        <v>0.29401</v>
+        <v>0.293099</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234488</v>
+        <v>0.233939</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349229</v>
+        <v>0.349146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.312653</v>
+        <v>0.312574</v>
       </c>
       <c r="E25" t="n">
-        <v>0.159513</v>
+        <v>0.158369</v>
       </c>
       <c r="F25" t="n">
-        <v>0.290472</v>
+        <v>0.290728</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.230625</v>
+        <v>0.229746</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345379</v>
+        <v>0.34549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.312112</v>
+        <v>0.310824</v>
       </c>
       <c r="E26" t="n">
-        <v>0.155668</v>
+        <v>0.155984</v>
       </c>
       <c r="F26" t="n">
-        <v>0.286435</v>
+        <v>0.286246</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226939</v>
+        <v>0.226854</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343933</v>
+        <v>0.343549</v>
       </c>
       <c r="D27" t="n">
-        <v>0.316538</v>
+        <v>0.316243</v>
       </c>
       <c r="E27" t="n">
-        <v>0.152318</v>
+        <v>0.152083</v>
       </c>
       <c r="F27" t="n">
-        <v>0.282832</v>
+        <v>0.282475</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.221434</v>
+        <v>0.22054</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339347</v>
+        <v>0.338819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.318231</v>
+        <v>0.317302</v>
       </c>
       <c r="E28" t="n">
-        <v>0.149776</v>
+        <v>0.149103</v>
       </c>
       <c r="F28" t="n">
-        <v>0.281022</v>
+        <v>0.280871</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215679</v>
+        <v>0.213824</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333896</v>
+        <v>0.333172</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317925</v>
+        <v>0.316034</v>
       </c>
       <c r="E29" t="n">
-        <v>0.146435</v>
+        <v>0.147157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.278227</v>
+        <v>0.279089</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.211276</v>
+        <v>0.210255</v>
       </c>
       <c r="C30" t="n">
-        <v>0.328735</v>
+        <v>0.330742</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31905</v>
+        <v>0.316326</v>
       </c>
       <c r="E30" t="n">
-        <v>0.143876</v>
+        <v>0.143508</v>
       </c>
       <c r="F30" t="n">
-        <v>0.274924</v>
+        <v>0.274826</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205445</v>
+        <v>0.205704</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322306</v>
+        <v>0.321581</v>
       </c>
       <c r="D31" t="n">
-        <v>0.317802</v>
+        <v>0.315948</v>
       </c>
       <c r="E31" t="n">
-        <v>0.140145</v>
+        <v>0.14129</v>
       </c>
       <c r="F31" t="n">
-        <v>0.272874</v>
+        <v>0.272475</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.200436</v>
+        <v>0.196438</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319934</v>
+        <v>0.319733</v>
       </c>
       <c r="D32" t="n">
-        <v>0.315896</v>
+        <v>0.316273</v>
       </c>
       <c r="E32" t="n">
-        <v>0.137625</v>
+        <v>0.138103</v>
       </c>
       <c r="F32" t="n">
-        <v>0.269412</v>
+        <v>0.270001</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.19581</v>
+        <v>0.195882</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311431</v>
+        <v>0.309631</v>
       </c>
       <c r="D33" t="n">
-        <v>0.318898</v>
+        <v>0.318959</v>
       </c>
       <c r="E33" t="n">
-        <v>0.134318</v>
+        <v>0.134991</v>
       </c>
       <c r="F33" t="n">
-        <v>0.265785</v>
+        <v>0.265839</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189863</v>
+        <v>0.185449</v>
       </c>
       <c r="C34" t="n">
-        <v>0.310329</v>
+        <v>0.309863</v>
       </c>
       <c r="D34" t="n">
-        <v>0.319988</v>
+        <v>0.319721</v>
       </c>
       <c r="E34" t="n">
-        <v>0.131958</v>
+        <v>0.132379</v>
       </c>
       <c r="F34" t="n">
-        <v>0.262839</v>
+        <v>0.262925</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185524</v>
+        <v>0.185351</v>
       </c>
       <c r="C35" t="n">
-        <v>0.301439</v>
+        <v>0.300817</v>
       </c>
       <c r="D35" t="n">
-        <v>0.315191</v>
+        <v>0.315714</v>
       </c>
       <c r="E35" t="n">
-        <v>0.127786</v>
+        <v>0.127792</v>
       </c>
       <c r="F35" t="n">
-        <v>0.258464</v>
+        <v>0.259087</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178716</v>
+        <v>0.178862</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2912</v>
+        <v>0.291334</v>
       </c>
       <c r="D36" t="n">
-        <v>0.315783</v>
+        <v>0.314857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.123689</v>
+        <v>0.124575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.254873</v>
+        <v>0.255487</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.17032</v>
+        <v>0.170073</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276689</v>
+        <v>0.276663</v>
       </c>
       <c r="D37" t="n">
-        <v>0.314419</v>
+        <v>0.315836</v>
       </c>
       <c r="E37" t="n">
-        <v>0.169037</v>
+        <v>0.168746</v>
       </c>
       <c r="F37" t="n">
-        <v>0.298444</v>
+        <v>0.298829</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243048</v>
+        <v>0.242828</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352027</v>
+        <v>0.35269</v>
       </c>
       <c r="D38" t="n">
-        <v>0.312804</v>
+        <v>0.314479</v>
       </c>
       <c r="E38" t="n">
-        <v>0.164207</v>
+        <v>0.164399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.295998</v>
+        <v>0.295077</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236113</v>
+        <v>0.236247</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348942</v>
+        <v>0.349263</v>
       </c>
       <c r="D39" t="n">
-        <v>0.315826</v>
+        <v>0.315341</v>
       </c>
       <c r="E39" t="n">
-        <v>0.163375</v>
+        <v>0.162889</v>
       </c>
       <c r="F39" t="n">
-        <v>0.293461</v>
+        <v>0.292926</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232503</v>
+        <v>0.233111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.34564</v>
+        <v>0.346153</v>
       </c>
       <c r="D40" t="n">
-        <v>0.316265</v>
+        <v>0.315744</v>
       </c>
       <c r="E40" t="n">
-        <v>0.159847</v>
+        <v>0.159721</v>
       </c>
       <c r="F40" t="n">
-        <v>0.288458</v>
+        <v>0.288128</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227711</v>
+        <v>0.227779</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341689</v>
+        <v>0.342048</v>
       </c>
       <c r="D41" t="n">
-        <v>0.316161</v>
+        <v>0.316571</v>
       </c>
       <c r="E41" t="n">
-        <v>0.156353</v>
+        <v>0.156312</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285248</v>
+        <v>0.285646</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224362</v>
+        <v>0.223614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336902</v>
+        <v>0.337033</v>
       </c>
       <c r="D42" t="n">
-        <v>0.316787</v>
+        <v>0.316886</v>
       </c>
       <c r="E42" t="n">
-        <v>0.15312</v>
+        <v>0.153021</v>
       </c>
       <c r="F42" t="n">
-        <v>0.282965</v>
+        <v>0.282699</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216529</v>
+        <v>0.21613</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332678</v>
+        <v>0.332687</v>
       </c>
       <c r="D43" t="n">
-        <v>0.315626</v>
+        <v>0.315098</v>
       </c>
       <c r="E43" t="n">
-        <v>0.150203</v>
+        <v>0.150511</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280308</v>
+        <v>0.280415</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213517</v>
+        <v>0.213507</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325628</v>
+        <v>0.325583</v>
       </c>
       <c r="D44" t="n">
-        <v>0.315733</v>
+        <v>0.315607</v>
       </c>
       <c r="E44" t="n">
-        <v>0.147947</v>
+        <v>0.147901</v>
       </c>
       <c r="F44" t="n">
-        <v>0.276893</v>
+        <v>0.277097</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207952</v>
+        <v>0.208045</v>
       </c>
       <c r="C45" t="n">
-        <v>0.32333</v>
+        <v>0.323164</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315753</v>
+        <v>0.316889</v>
       </c>
       <c r="E45" t="n">
-        <v>0.144956</v>
+        <v>0.145109</v>
       </c>
       <c r="F45" t="n">
-        <v>0.273712</v>
+        <v>0.27279</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202576</v>
+        <v>0.202199</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32252</v>
+        <v>0.32199</v>
       </c>
       <c r="D46" t="n">
-        <v>0.317515</v>
+        <v>0.317603</v>
       </c>
       <c r="E46" t="n">
-        <v>0.141641</v>
+        <v>0.142074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.270272</v>
+        <v>0.26989</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197183</v>
+        <v>0.19714</v>
       </c>
       <c r="C47" t="n">
-        <v>0.312316</v>
+        <v>0.312186</v>
       </c>
       <c r="D47" t="n">
-        <v>0.320213</v>
+        <v>0.319954</v>
       </c>
       <c r="E47" t="n">
-        <v>0.137297</v>
+        <v>0.139049</v>
       </c>
       <c r="F47" t="n">
-        <v>0.267313</v>
+        <v>0.266597</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.188579</v>
+        <v>0.188647</v>
       </c>
       <c r="C48" t="n">
-        <v>0.311739</v>
+        <v>0.312237</v>
       </c>
       <c r="D48" t="n">
-        <v>0.32167</v>
+        <v>0.321682</v>
       </c>
       <c r="E48" t="n">
-        <v>0.134419</v>
+        <v>0.134342</v>
       </c>
       <c r="F48" t="n">
-        <v>0.264261</v>
+        <v>0.263707</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183097</v>
+        <v>0.183411</v>
       </c>
       <c r="C49" t="n">
-        <v>0.30424</v>
+        <v>0.302596</v>
       </c>
       <c r="D49" t="n">
-        <v>0.320367</v>
+        <v>0.320898</v>
       </c>
       <c r="E49" t="n">
-        <v>0.131416</v>
+        <v>0.13142</v>
       </c>
       <c r="F49" t="n">
-        <v>0.260581</v>
+        <v>0.260189</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175463</v>
+        <v>0.175249</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29739</v>
+        <v>0.298155</v>
       </c>
       <c r="D50" t="n">
-        <v>0.315076</v>
+        <v>0.31756</v>
       </c>
       <c r="E50" t="n">
-        <v>0.128417</v>
+        <v>0.128532</v>
       </c>
       <c r="F50" t="n">
-        <v>0.25726</v>
+        <v>0.256764</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173275</v>
+        <v>0.172631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283144</v>
+        <v>0.283817</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318088</v>
+        <v>0.318787</v>
       </c>
       <c r="E51" t="n">
-        <v>0.17135</v>
+        <v>0.17452</v>
       </c>
       <c r="F51" t="n">
-        <v>0.299644</v>
+        <v>0.300957</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164933</v>
+        <v>0.164852</v>
       </c>
       <c r="C52" t="n">
-        <v>0.279385</v>
+        <v>0.282257</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315618</v>
+        <v>0.317576</v>
       </c>
       <c r="E52" t="n">
-        <v>0.170059</v>
+        <v>0.169743</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29717</v>
+        <v>0.297155</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237148</v>
+        <v>0.237796</v>
       </c>
       <c r="C53" t="n">
-        <v>0.350628</v>
+        <v>0.351972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.319204</v>
+        <v>0.321234</v>
       </c>
       <c r="E53" t="n">
-        <v>0.166435</v>
+        <v>0.166119</v>
       </c>
       <c r="F53" t="n">
-        <v>0.293435</v>
+        <v>0.294065</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233896</v>
+        <v>0.234548</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349243</v>
+        <v>0.34864</v>
       </c>
       <c r="D54" t="n">
-        <v>0.318246</v>
+        <v>0.318919</v>
       </c>
       <c r="E54" t="n">
-        <v>0.162425</v>
+        <v>0.16255</v>
       </c>
       <c r="F54" t="n">
-        <v>0.290901</v>
+        <v>0.290801</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229579</v>
+        <v>0.22976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344906</v>
+        <v>0.346387</v>
       </c>
       <c r="D55" t="n">
-        <v>0.319137</v>
+        <v>0.32019</v>
       </c>
       <c r="E55" t="n">
-        <v>0.159423</v>
+        <v>0.15964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.287334</v>
+        <v>0.287441</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.223457</v>
+        <v>0.224046</v>
       </c>
       <c r="C56" t="n">
-        <v>0.341323</v>
+        <v>0.342308</v>
       </c>
       <c r="D56" t="n">
-        <v>0.319476</v>
+        <v>0.320487</v>
       </c>
       <c r="E56" t="n">
-        <v>0.156265</v>
+        <v>0.156093</v>
       </c>
       <c r="F56" t="n">
-        <v>0.284396</v>
+        <v>0.284051</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219915</v>
+        <v>0.220329</v>
       </c>
       <c r="C57" t="n">
-        <v>0.336317</v>
+        <v>0.33724</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323824</v>
+        <v>0.325132</v>
       </c>
       <c r="E57" t="n">
-        <v>0.153511</v>
+        <v>0.15088</v>
       </c>
       <c r="F57" t="n">
-        <v>0.281283</v>
+        <v>0.281127</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.215653</v>
+        <v>0.215159</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323427</v>
+        <v>0.323646</v>
       </c>
       <c r="D58" t="n">
-        <v>0.325584</v>
+        <v>0.326843</v>
       </c>
       <c r="E58" t="n">
-        <v>0.150678</v>
+        <v>0.148338</v>
       </c>
       <c r="F58" t="n">
-        <v>0.277551</v>
+        <v>0.277691</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206687</v>
+        <v>0.207449</v>
       </c>
       <c r="C59" t="n">
-        <v>0.32855</v>
+        <v>0.328675</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328173</v>
+        <v>0.330471</v>
       </c>
       <c r="E59" t="n">
-        <v>0.147742</v>
+        <v>0.145461</v>
       </c>
       <c r="F59" t="n">
-        <v>0.274373</v>
+        <v>0.274291</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203741</v>
+        <v>0.2037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.322791</v>
+        <v>0.323035</v>
       </c>
       <c r="D60" t="n">
-        <v>0.330889</v>
+        <v>0.331711</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1448</v>
+        <v>0.142833</v>
       </c>
       <c r="F60" t="n">
-        <v>0.271034</v>
+        <v>0.270868</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198728</v>
+        <v>0.199629</v>
       </c>
       <c r="C61" t="n">
-        <v>0.339063</v>
+        <v>0.342089</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333492</v>
+        <v>0.333603</v>
       </c>
       <c r="E61" t="n">
-        <v>0.141988</v>
+        <v>0.141917</v>
       </c>
       <c r="F61" t="n">
-        <v>0.268289</v>
+        <v>0.268296</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190433</v>
+        <v>0.191135</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310315</v>
+        <v>0.308659</v>
       </c>
       <c r="D62" t="n">
-        <v>0.335288</v>
+        <v>0.335972</v>
       </c>
       <c r="E62" t="n">
-        <v>0.139088</v>
+        <v>0.138989</v>
       </c>
       <c r="F62" t="n">
-        <v>0.264904</v>
+        <v>0.265306</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188408</v>
+        <v>0.188038</v>
       </c>
       <c r="C63" t="n">
-        <v>0.320917</v>
+        <v>0.319912</v>
       </c>
       <c r="D63" t="n">
-        <v>0.338738</v>
+        <v>0.338815</v>
       </c>
       <c r="E63" t="n">
-        <v>0.135952</v>
+        <v>0.135394</v>
       </c>
       <c r="F63" t="n">
-        <v>0.262688</v>
+        <v>0.262627</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177839</v>
+        <v>0.177333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316583</v>
+        <v>0.316416</v>
       </c>
       <c r="D64" t="n">
-        <v>0.371576</v>
+        <v>0.371458</v>
       </c>
       <c r="E64" t="n">
-        <v>0.132751</v>
+        <v>0.132761</v>
       </c>
       <c r="F64" t="n">
-        <v>0.258638</v>
+        <v>0.25893</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.169477</v>
+        <v>0.169469</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285799</v>
+        <v>0.285722</v>
       </c>
       <c r="D65" t="n">
-        <v>0.372657</v>
+        <v>0.373572</v>
       </c>
       <c r="E65" t="n">
-        <v>0.128422</v>
+        <v>0.128341</v>
       </c>
       <c r="F65" t="n">
-        <v>0.255694</v>
+        <v>0.25519</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161572</v>
+        <v>0.161207</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307172</v>
+        <v>0.30679</v>
       </c>
       <c r="D66" t="n">
-        <v>0.37467</v>
+        <v>0.375471</v>
       </c>
       <c r="E66" t="n">
-        <v>0.16949</v>
+        <v>0.171752</v>
       </c>
       <c r="F66" t="n">
-        <v>0.298528</v>
+        <v>0.297591</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239609</v>
+        <v>0.239366</v>
       </c>
       <c r="C67" t="n">
-        <v>0.382848</v>
+        <v>0.383268</v>
       </c>
       <c r="D67" t="n">
-        <v>0.367564</v>
+        <v>0.367675</v>
       </c>
       <c r="E67" t="n">
-        <v>0.167559</v>
+        <v>0.167976</v>
       </c>
       <c r="F67" t="n">
-        <v>0.293971</v>
+        <v>0.294173</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.235691</v>
+        <v>0.235101</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380783</v>
+        <v>0.380444</v>
       </c>
       <c r="D68" t="n">
-        <v>0.378441</v>
+        <v>0.37802</v>
       </c>
       <c r="E68" t="n">
-        <v>0.164717</v>
+        <v>0.164716</v>
       </c>
       <c r="F68" t="n">
-        <v>0.291768</v>
+        <v>0.291709</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230233</v>
+        <v>0.230163</v>
       </c>
       <c r="C69" t="n">
-        <v>0.37536</v>
+        <v>0.375702</v>
       </c>
       <c r="D69" t="n">
-        <v>0.380088</v>
+        <v>0.379595</v>
       </c>
       <c r="E69" t="n">
-        <v>0.161247</v>
+        <v>0.161383</v>
       </c>
       <c r="F69" t="n">
-        <v>0.287929</v>
+        <v>0.288076</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.227337</v>
+        <v>0.226984</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371858</v>
+        <v>0.370321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.382154</v>
+        <v>0.381808</v>
       </c>
       <c r="E70" t="n">
-        <v>0.158204</v>
+        <v>0.158317</v>
       </c>
       <c r="F70" t="n">
-        <v>0.285071</v>
+        <v>0.28537</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219842</v>
+        <v>0.219134</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365726</v>
+        <v>0.365354</v>
       </c>
       <c r="D71" t="n">
-        <v>0.370631</v>
+        <v>0.370881</v>
       </c>
       <c r="E71" t="n">
-        <v>0.155189</v>
+        <v>0.155226</v>
       </c>
       <c r="F71" t="n">
-        <v>0.281479</v>
+        <v>0.28173</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.214271</v>
+        <v>0.214518</v>
       </c>
       <c r="C72" t="n">
-        <v>0.386248</v>
+        <v>0.38567</v>
       </c>
       <c r="D72" t="n">
-        <v>0.369859</v>
+        <v>0.369995</v>
       </c>
       <c r="E72" t="n">
-        <v>0.150328</v>
+        <v>0.150027</v>
       </c>
       <c r="F72" t="n">
-        <v>0.278622</v>
+        <v>0.277963</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210883</v>
+        <v>0.211118</v>
       </c>
       <c r="C73" t="n">
-        <v>0.43755</v>
+        <v>0.435359</v>
       </c>
       <c r="D73" t="n">
-        <v>0.383325</v>
+        <v>0.38301</v>
       </c>
       <c r="E73" t="n">
-        <v>0.14726</v>
+        <v>0.147397</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2747</v>
+        <v>0.275255</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.206636</v>
+        <v>0.206065</v>
       </c>
       <c r="C74" t="n">
-        <v>0.343721</v>
+        <v>0.343221</v>
       </c>
       <c r="D74" t="n">
-        <v>0.369545</v>
+        <v>0.369269</v>
       </c>
       <c r="E74" t="n">
-        <v>0.146588</v>
+        <v>0.146847</v>
       </c>
       <c r="F74" t="n">
-        <v>0.272533</v>
+        <v>0.272811</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200954</v>
+        <v>0.200561</v>
       </c>
       <c r="C75" t="n">
-        <v>0.382912</v>
+        <v>0.382657</v>
       </c>
       <c r="D75" t="n">
-        <v>0.371896</v>
+        <v>0.372043</v>
       </c>
       <c r="E75" t="n">
-        <v>0.143828</v>
+        <v>0.141818</v>
       </c>
       <c r="F75" t="n">
-        <v>0.269157</v>
+        <v>0.268476</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195117</v>
+        <v>0.195214</v>
       </c>
       <c r="C76" t="n">
-        <v>0.411571</v>
+        <v>0.411638</v>
       </c>
       <c r="D76" t="n">
-        <v>0.371608</v>
+        <v>0.368403</v>
       </c>
       <c r="E76" t="n">
-        <v>0.141058</v>
+        <v>0.139065</v>
       </c>
       <c r="F76" t="n">
-        <v>0.265944</v>
+        <v>0.266099</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.185624</v>
+        <v>0.185915</v>
       </c>
       <c r="C77" t="n">
-        <v>0.417783</v>
+        <v>0.417339</v>
       </c>
       <c r="D77" t="n">
-        <v>0.38313</v>
+        <v>0.382652</v>
       </c>
       <c r="E77" t="n">
-        <v>0.137924</v>
+        <v>0.137412</v>
       </c>
       <c r="F77" t="n">
-        <v>0.262769</v>
+        <v>0.262628</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183793</v>
+        <v>0.183821</v>
       </c>
       <c r="C78" t="n">
-        <v>0.41291</v>
+        <v>0.412759</v>
       </c>
       <c r="D78" t="n">
-        <v>0.43526</v>
+        <v>0.435184</v>
       </c>
       <c r="E78" t="n">
-        <v>0.134903</v>
+        <v>0.133579</v>
       </c>
       <c r="F78" t="n">
-        <v>0.259359</v>
+        <v>0.259618</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177352</v>
+        <v>0.177081</v>
       </c>
       <c r="C79" t="n">
-        <v>0.408878</v>
+        <v>0.407948</v>
       </c>
       <c r="D79" t="n">
-        <v>0.422688</v>
+        <v>0.422266</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130565</v>
+        <v>0.130647</v>
       </c>
       <c r="F79" t="n">
-        <v>0.256149</v>
+        <v>0.25603</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169482</v>
+        <v>0.169182</v>
       </c>
       <c r="C80" t="n">
-        <v>0.390381</v>
+        <v>0.390595</v>
       </c>
       <c r="D80" t="n">
-        <v>0.433927</v>
+        <v>0.434125</v>
       </c>
       <c r="E80" t="n">
-        <v>0.171911</v>
+        <v>0.172115</v>
       </c>
       <c r="F80" t="n">
-        <v>0.297803</v>
+        <v>0.296129</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.240041</v>
+        <v>0.242236</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3737</v>
+        <v>0.373754</v>
       </c>
       <c r="D81" t="n">
-        <v>0.413611</v>
+        <v>0.413443</v>
       </c>
       <c r="E81" t="n">
-        <v>0.168297</v>
+        <v>0.168203</v>
       </c>
       <c r="F81" t="n">
-        <v>0.292354</v>
+        <v>0.292699</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238971</v>
+        <v>0.238898</v>
       </c>
       <c r="C82" t="n">
-        <v>0.369788</v>
+        <v>0.369929</v>
       </c>
       <c r="D82" t="n">
-        <v>0.42345</v>
+        <v>0.423165</v>
       </c>
       <c r="E82" t="n">
-        <v>0.164285</v>
+        <v>0.166183</v>
       </c>
       <c r="F82" t="n">
-        <v>0.290371</v>
+        <v>0.291142</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.23395</v>
+        <v>0.234053</v>
       </c>
       <c r="C83" t="n">
-        <v>0.365055</v>
+        <v>0.365037</v>
       </c>
       <c r="D83" t="n">
-        <v>0.405554</v>
+        <v>0.405449</v>
       </c>
       <c r="E83" t="n">
-        <v>0.160778</v>
+        <v>0.160843</v>
       </c>
       <c r="F83" t="n">
-        <v>0.288482</v>
+        <v>0.288257</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228403</v>
+        <v>0.228119</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359845</v>
+        <v>0.361421</v>
       </c>
       <c r="D84" t="n">
-        <v>0.403467</v>
+        <v>0.419807</v>
       </c>
       <c r="E84" t="n">
-        <v>0.157839</v>
+        <v>0.159339</v>
       </c>
       <c r="F84" t="n">
-        <v>0.283412</v>
+        <v>0.280137</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223381</v>
+        <v>0.224317</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35454</v>
+        <v>0.356218</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400157</v>
+        <v>0.413992</v>
       </c>
       <c r="E85" t="n">
-        <v>0.155041</v>
+        <v>0.155354</v>
       </c>
       <c r="F85" t="n">
-        <v>0.280971</v>
+        <v>0.276967</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215406</v>
+        <v>0.215249</v>
       </c>
       <c r="C86" t="n">
-        <v>0.348634</v>
+        <v>0.350316</v>
       </c>
       <c r="D86" t="n">
-        <v>0.409268</v>
+        <v>0.424316</v>
       </c>
       <c r="E86" t="n">
-        <v>0.151848</v>
+        <v>0.152258</v>
       </c>
       <c r="F86" t="n">
-        <v>0.277911</v>
+        <v>0.274311</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20992</v>
+        <v>0.210454</v>
       </c>
       <c r="C87" t="n">
-        <v>0.353996</v>
+        <v>0.356923</v>
       </c>
       <c r="D87" t="n">
-        <v>0.408968</v>
+        <v>0.421639</v>
       </c>
       <c r="E87" t="n">
-        <v>0.149171</v>
+        <v>0.149638</v>
       </c>
       <c r="F87" t="n">
-        <v>0.275074</v>
+        <v>0.27142</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.207346</v>
+        <v>0.207411</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427254</v>
+        <v>0.446242</v>
       </c>
       <c r="D88" t="n">
-        <v>0.405371</v>
+        <v>0.417122</v>
       </c>
       <c r="E88" t="n">
-        <v>0.146066</v>
+        <v>0.146271</v>
       </c>
       <c r="F88" t="n">
-        <v>0.271803</v>
+        <v>0.268456</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201445</v>
+        <v>0.201501</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411558</v>
+        <v>0.428905</v>
       </c>
       <c r="D89" t="n">
-        <v>0.40202</v>
+        <v>0.414098</v>
       </c>
       <c r="E89" t="n">
-        <v>0.143342</v>
+        <v>0.143432</v>
       </c>
       <c r="F89" t="n">
-        <v>0.268906</v>
+        <v>0.265974</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196205</v>
+        <v>0.196299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394558</v>
+        <v>0.412648</v>
       </c>
       <c r="D90" t="n">
-        <v>0.40142</v>
+        <v>0.415027</v>
       </c>
       <c r="E90" t="n">
-        <v>0.140984</v>
+        <v>0.14099</v>
       </c>
       <c r="F90" t="n">
-        <v>0.266141</v>
+        <v>0.263283</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191439</v>
+        <v>0.191848</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412589</v>
+        <v>0.431515</v>
       </c>
       <c r="D91" t="n">
-        <v>0.397769</v>
+        <v>0.410373</v>
       </c>
       <c r="E91" t="n">
-        <v>0.138155</v>
+        <v>0.13806</v>
       </c>
       <c r="F91" t="n">
-        <v>0.263068</v>
+        <v>0.260226</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18516</v>
+        <v>0.185222</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441597</v>
+        <v>0.464073</v>
       </c>
       <c r="D92" t="n">
-        <v>0.451808</v>
+        <v>0.47398</v>
       </c>
       <c r="E92" t="n">
-        <v>0.135052</v>
+        <v>0.135036</v>
       </c>
       <c r="F92" t="n">
-        <v>0.259908</v>
+        <v>0.256986</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.178909</v>
+        <v>0.174034</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409817</v>
+        <v>0.428708</v>
       </c>
       <c r="D93" t="n">
-        <v>0.441355</v>
+        <v>0.462653</v>
       </c>
       <c r="E93" t="n">
-        <v>0.132349</v>
+        <v>0.132419</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2571</v>
+        <v>0.254192</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.168556</v>
+        <v>0.16586</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325567</v>
+        <v>0.332955</v>
       </c>
       <c r="D94" t="n">
-        <v>0.43335</v>
+        <v>0.453481</v>
       </c>
       <c r="E94" t="n">
-        <v>0.175548</v>
+        <v>0.175573</v>
       </c>
       <c r="F94" t="n">
-        <v>0.296326</v>
+        <v>0.294896</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.240902</v>
+        <v>0.241097</v>
       </c>
       <c r="C95" t="n">
-        <v>0.481912</v>
+        <v>0.504178</v>
       </c>
       <c r="D95" t="n">
-        <v>0.432955</v>
+        <v>0.432584</v>
       </c>
       <c r="E95" t="n">
-        <v>0.17372</v>
+        <v>0.169941</v>
       </c>
       <c r="F95" t="n">
-        <v>0.291067</v>
+        <v>0.291686</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.237123</v>
+        <v>0.236073</v>
       </c>
       <c r="C96" t="n">
-        <v>0.356697</v>
+        <v>0.356539</v>
       </c>
       <c r="D96" t="n">
-        <v>0.445613</v>
+        <v>0.445318</v>
       </c>
       <c r="E96" t="n">
-        <v>0.16654</v>
+        <v>0.167882</v>
       </c>
       <c r="F96" t="n">
-        <v>0.288325</v>
+        <v>0.288388</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232135</v>
+        <v>0.232207</v>
       </c>
       <c r="C97" t="n">
-        <v>0.35188</v>
+        <v>0.351898</v>
       </c>
       <c r="D97" t="n">
-        <v>0.425214</v>
+        <v>0.425297</v>
       </c>
       <c r="E97" t="n">
-        <v>0.162878</v>
+        <v>0.163378</v>
       </c>
       <c r="F97" t="n">
-        <v>0.284849</v>
+        <v>0.285271</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.228974</v>
+        <v>0.227187</v>
       </c>
       <c r="C98" t="n">
-        <v>0.34746</v>
+        <v>0.34772</v>
       </c>
       <c r="D98" t="n">
-        <v>0.419668</v>
+        <v>0.419721</v>
       </c>
       <c r="E98" t="n">
-        <v>0.159471</v>
+        <v>0.159369</v>
       </c>
       <c r="F98" t="n">
-        <v>0.282046</v>
+        <v>0.282016</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224007</v>
+        <v>0.224001</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342346</v>
+        <v>0.342552</v>
       </c>
       <c r="D99" t="n">
-        <v>0.415848</v>
+        <v>0.415836</v>
       </c>
       <c r="E99" t="n">
-        <v>0.156432</v>
+        <v>0.156173</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278438</v>
+        <v>0.278613</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.219164</v>
+        <v>0.218842</v>
       </c>
       <c r="C100" t="n">
-        <v>0.337153</v>
+        <v>0.3372</v>
       </c>
       <c r="D100" t="n">
-        <v>0.41867</v>
+        <v>0.419347</v>
       </c>
       <c r="E100" t="n">
-        <v>0.155464</v>
+        <v>0.152798</v>
       </c>
       <c r="F100" t="n">
-        <v>0.275923</v>
+        <v>0.275889</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.213203</v>
+        <v>0.212834</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409205</v>
+        <v>0.407473</v>
       </c>
       <c r="D101" t="n">
-        <v>0.402797</v>
+        <v>0.401343</v>
       </c>
       <c r="E101" t="n">
-        <v>0.150245</v>
+        <v>0.149785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.273203</v>
+        <v>0.27278</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.208306</v>
+        <v>0.20751</v>
       </c>
       <c r="C102" t="n">
-        <v>0.377392</v>
+        <v>0.376397</v>
       </c>
       <c r="D102" t="n">
-        <v>0.398746</v>
+        <v>0.397175</v>
       </c>
       <c r="E102" t="n">
-        <v>0.147284</v>
+        <v>0.146999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.269197</v>
+        <v>0.268763</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203286</v>
+        <v>0.202617</v>
       </c>
       <c r="C103" t="n">
-        <v>0.454916</v>
+        <v>0.453166</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395515</v>
+        <v>0.394364</v>
       </c>
       <c r="E103" t="n">
-        <v>0.144318</v>
+        <v>0.144226</v>
       </c>
       <c r="F103" t="n">
-        <v>0.267123</v>
+        <v>0.266775</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197849</v>
+        <v>0.197534</v>
       </c>
       <c r="C104" t="n">
-        <v>0.406084</v>
+        <v>0.4044</v>
       </c>
       <c r="D104" t="n">
-        <v>0.411572</v>
+        <v>0.408551</v>
       </c>
       <c r="E104" t="n">
-        <v>0.141751</v>
+        <v>0.141541</v>
       </c>
       <c r="F104" t="n">
-        <v>0.263735</v>
+        <v>0.263331</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188372</v>
+        <v>0.192122</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313344</v>
+        <v>0.31316</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3936</v>
+        <v>0.392799</v>
       </c>
       <c r="E105" t="n">
-        <v>0.140876</v>
+        <v>0.138862</v>
       </c>
       <c r="F105" t="n">
-        <v>0.261012</v>
+        <v>0.260781</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.186524</v>
+        <v>0.187161</v>
       </c>
       <c r="C106" t="n">
-        <v>0.447426</v>
+        <v>0.445602</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387047</v>
+        <v>0.385257</v>
       </c>
       <c r="E106" t="n">
-        <v>0.136388</v>
+        <v>0.136231</v>
       </c>
       <c r="F106" t="n">
-        <v>0.257661</v>
+        <v>0.257595</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180971</v>
+        <v>0.180805</v>
       </c>
       <c r="C107" t="n">
-        <v>0.414021</v>
+        <v>0.411683</v>
       </c>
       <c r="D107" t="n">
-        <v>0.441143</v>
+        <v>0.437692</v>
       </c>
       <c r="E107" t="n">
-        <v>0.133398</v>
+        <v>0.133287</v>
       </c>
       <c r="F107" t="n">
-        <v>0.254516</v>
+        <v>0.254312</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173632</v>
+        <v>0.173365</v>
       </c>
       <c r="C108" t="n">
-        <v>0.387363</v>
+        <v>0.386369</v>
       </c>
       <c r="D108" t="n">
-        <v>0.436984</v>
+        <v>0.434791</v>
       </c>
       <c r="E108" t="n">
-        <v>0.17446</v>
+        <v>0.174101</v>
       </c>
       <c r="F108" t="n">
-        <v>0.294357</v>
+        <v>0.294141</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157956</v>
+        <v>0.157873</v>
       </c>
       <c r="C109" t="n">
-        <v>0.341792</v>
+        <v>0.340414</v>
       </c>
       <c r="D109" t="n">
-        <v>0.411073</v>
+        <v>0.409651</v>
       </c>
       <c r="E109" t="n">
-        <v>0.170385</v>
+        <v>0.170252</v>
       </c>
       <c r="F109" t="n">
-        <v>0.290883</v>
+        <v>0.291446</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238335</v>
+        <v>0.238221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.519837</v>
+        <v>0.517431</v>
       </c>
       <c r="D110" t="n">
-        <v>0.410784</v>
+        <v>0.407388</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166632</v>
+        <v>0.166584</v>
       </c>
       <c r="F110" t="n">
-        <v>0.28767</v>
+        <v>0.287478</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233111</v>
+        <v>0.23382</v>
       </c>
       <c r="C111" t="n">
-        <v>0.522045</v>
+        <v>0.519611</v>
       </c>
       <c r="D111" t="n">
-        <v>0.405253</v>
+        <v>0.402842</v>
       </c>
       <c r="E111" t="n">
-        <v>0.163111</v>
+        <v>0.163129</v>
       </c>
       <c r="F111" t="n">
-        <v>0.284338</v>
+        <v>0.284241</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228252</v>
+        <v>0.227673</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5213950000000001</v>
+        <v>0.518745</v>
       </c>
       <c r="D112" t="n">
-        <v>0.40788</v>
+        <v>0.405401</v>
       </c>
       <c r="E112" t="n">
-        <v>0.159938</v>
+        <v>0.159875</v>
       </c>
       <c r="F112" t="n">
-        <v>0.281077</v>
+        <v>0.281195</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223017</v>
+        <v>0.222256</v>
       </c>
       <c r="C113" t="n">
-        <v>0.520733</v>
+        <v>0.518186</v>
       </c>
       <c r="D113" t="n">
-        <v>0.402836</v>
+        <v>0.400492</v>
       </c>
       <c r="E113" t="n">
-        <v>0.156697</v>
+        <v>0.15673</v>
       </c>
       <c r="F113" t="n">
-        <v>0.278585</v>
+        <v>0.27848</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.217005</v>
+        <v>0.217868</v>
       </c>
       <c r="C114" t="n">
-        <v>0.517347</v>
+        <v>0.514688</v>
       </c>
       <c r="D114" t="n">
-        <v>0.400873</v>
+        <v>0.397804</v>
       </c>
       <c r="E114" t="n">
-        <v>0.153588</v>
+        <v>0.153577</v>
       </c>
       <c r="F114" t="n">
-        <v>0.276186</v>
+        <v>0.276369</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.21256</v>
+        <v>0.212335</v>
       </c>
       <c r="C115" t="n">
-        <v>0.46636</v>
+        <v>0.464582</v>
       </c>
       <c r="D115" t="n">
-        <v>0.385377</v>
+        <v>0.383198</v>
       </c>
       <c r="E115" t="n">
-        <v>0.150965</v>
+        <v>0.150767</v>
       </c>
       <c r="F115" t="n">
-        <v>0.274216</v>
+        <v>0.273405</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206675</v>
+        <v>0.207031</v>
       </c>
       <c r="C116" t="n">
-        <v>0.471768</v>
+        <v>0.469708</v>
       </c>
       <c r="D116" t="n">
-        <v>0.382929</v>
+        <v>0.381132</v>
       </c>
       <c r="E116" t="n">
-        <v>0.147931</v>
+        <v>0.14992</v>
       </c>
       <c r="F116" t="n">
-        <v>0.271213</v>
+        <v>0.271063</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200961</v>
+        <v>0.201118</v>
       </c>
       <c r="C117" t="n">
-        <v>0.313702</v>
+        <v>0.313609</v>
       </c>
       <c r="D117" t="n">
-        <v>0.390042</v>
+        <v>0.387772</v>
       </c>
       <c r="E117" t="n">
-        <v>0.145048</v>
+        <v>0.146977</v>
       </c>
       <c r="F117" t="n">
-        <v>0.266715</v>
+        <v>0.266647</v>
       </c>
     </row>
     <row r="118">
@@ -7405,16 +7405,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198508</v>
+        <v>0.198757</v>
       </c>
       <c r="C118" t="n">
-        <v>0.469594</v>
+        <v>0.468693</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381129</v>
+        <v>0.379493</v>
       </c>
       <c r="E118" t="n">
-        <v>0.142359</v>
+        <v>0.142327</v>
       </c>
       <c r="F118" t="n">
         <v>0.263893</v>
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193714</v>
+        <v>0.193245</v>
       </c>
       <c r="C119" t="n">
-        <v>0.455526</v>
+        <v>0.454159</v>
       </c>
       <c r="D119" t="n">
-        <v>0.392865</v>
+        <v>0.39095</v>
       </c>
       <c r="E119" t="n">
-        <v>0.141514</v>
+        <v>0.139631</v>
       </c>
       <c r="F119" t="n">
-        <v>0.260831</v>
+        <v>0.260807</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188654</v>
+        <v>0.187914</v>
       </c>
       <c r="C120" t="n">
-        <v>0.475231</v>
+        <v>0.472545</v>
       </c>
       <c r="D120" t="n">
-        <v>0.384177</v>
+        <v>0.382773</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1369</v>
+        <v>0.136884</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258027</v>
+        <v>0.257796</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182326</v>
+        <v>0.181739</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437093</v>
+        <v>0.435748</v>
       </c>
       <c r="D121" t="n">
-        <v>0.461967</v>
+        <v>0.459266</v>
       </c>
       <c r="E121" t="n">
-        <v>0.134059</v>
+        <v>0.133969</v>
       </c>
       <c r="F121" t="n">
-        <v>0.255492</v>
+        <v>0.255393</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.171825</v>
+        <v>0.175322</v>
       </c>
       <c r="C122" t="n">
-        <v>0.386001</v>
+        <v>0.384879</v>
       </c>
       <c r="D122" t="n">
-        <v>0.471565</v>
+        <v>0.468791</v>
       </c>
       <c r="E122" t="n">
-        <v>0.13149</v>
+        <v>0.130891</v>
       </c>
       <c r="F122" t="n">
-        <v>0.252203</v>
+        <v>0.251485</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.160611</v>
+        <v>0.160892</v>
       </c>
       <c r="C123" t="n">
-        <v>0.371074</v>
+        <v>0.369894</v>
       </c>
       <c r="D123" t="n">
-        <v>0.451494</v>
+        <v>0.448355</v>
       </c>
       <c r="E123" t="n">
-        <v>0.171119</v>
+        <v>0.170987</v>
       </c>
       <c r="F123" t="n">
-        <v>0.290936</v>
+        <v>0.290825</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239019</v>
+        <v>0.238128</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434586</v>
+        <v>0.434504</v>
       </c>
       <c r="D124" t="n">
-        <v>0.429971</v>
+        <v>0.428169</v>
       </c>
       <c r="E124" t="n">
-        <v>0.167198</v>
+        <v>0.167226</v>
       </c>
       <c r="F124" t="n">
-        <v>0.287885</v>
+        <v>0.287664</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234131</v>
+        <v>0.233802</v>
       </c>
       <c r="C125" t="n">
-        <v>0.485489</v>
+        <v>0.485281</v>
       </c>
       <c r="D125" t="n">
-        <v>0.423823</v>
+        <v>0.421827</v>
       </c>
       <c r="E125" t="n">
-        <v>0.163845</v>
+        <v>0.163812</v>
       </c>
       <c r="F125" t="n">
-        <v>0.284662</v>
+        <v>0.284692</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229168</v>
+        <v>0.229188</v>
       </c>
       <c r="C126" t="n">
-        <v>0.471109</v>
+        <v>0.470849</v>
       </c>
       <c r="D126" t="n">
-        <v>0.429239</v>
+        <v>0.427893</v>
       </c>
       <c r="E126" t="n">
-        <v>0.160341</v>
+        <v>0.160385</v>
       </c>
       <c r="F126" t="n">
-        <v>0.281583</v>
+        <v>0.281709</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.223576</v>
+        <v>0.223846</v>
       </c>
       <c r="C127" t="n">
-        <v>0.453825</v>
+        <v>0.451898</v>
       </c>
       <c r="D127" t="n">
-        <v>0.412534</v>
+        <v>0.410474</v>
       </c>
       <c r="E127" t="n">
-        <v>0.157264</v>
+        <v>0.157186</v>
       </c>
       <c r="F127" t="n">
-        <v>0.278596</v>
+        <v>0.278735</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218269</v>
+        <v>0.217826</v>
       </c>
       <c r="C128" t="n">
-        <v>0.473192</v>
+        <v>0.472169</v>
       </c>
       <c r="D128" t="n">
-        <v>0.418792</v>
+        <v>0.41748</v>
       </c>
       <c r="E128" t="n">
         <v>0.154197</v>
       </c>
       <c r="F128" t="n">
-        <v>0.275578</v>
+        <v>0.275744</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215054</v>
+        <v>0.213158</v>
       </c>
       <c r="C129" t="n">
-        <v>0.380306</v>
+        <v>0.3807</v>
       </c>
       <c r="D129" t="n">
-        <v>0.42679</v>
+        <v>0.424592</v>
       </c>
       <c r="E129" t="n">
-        <v>0.151424</v>
+        <v>0.15132</v>
       </c>
       <c r="F129" t="n">
-        <v>0.273335</v>
+        <v>0.273607</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20778</v>
+        <v>0.209995</v>
       </c>
       <c r="C130" t="n">
-        <v>0.449125</v>
+        <v>0.44716</v>
       </c>
       <c r="D130" t="n">
-        <v>0.416359</v>
+        <v>0.414154</v>
       </c>
       <c r="E130" t="n">
-        <v>0.148546</v>
+        <v>0.148524</v>
       </c>
       <c r="F130" t="n">
-        <v>0.270986</v>
+        <v>0.270146</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.202477</v>
+        <v>0.20457</v>
       </c>
       <c r="C131" t="n">
-        <v>0.453625</v>
+        <v>0.450246</v>
       </c>
       <c r="D131" t="n">
-        <v>0.416453</v>
+        <v>0.415858</v>
       </c>
       <c r="E131" t="n">
-        <v>0.145582</v>
+        <v>0.145505</v>
       </c>
       <c r="F131" t="n">
-        <v>0.26724</v>
+        <v>0.26712</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199403</v>
+        <v>0.199563</v>
       </c>
       <c r="C132" t="n">
-        <v>0.35745</v>
+        <v>0.357598</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401439</v>
+        <v>0.402015</v>
       </c>
       <c r="E132" t="n">
         <v>0.142934</v>
       </c>
       <c r="F132" t="n">
-        <v>0.264973</v>
+        <v>0.265007</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190915</v>
+        <v>0.190911</v>
       </c>
       <c r="C133" t="n">
-        <v>0.483771</v>
+        <v>0.480517</v>
       </c>
       <c r="D133" t="n">
-        <v>0.390564</v>
+        <v>0.389048</v>
       </c>
       <c r="E133" t="n">
-        <v>0.140195</v>
+        <v>0.14015</v>
       </c>
       <c r="F133" t="n">
-        <v>0.261156</v>
+        <v>0.261199</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.188779</v>
+        <v>0.188385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.430122</v>
+        <v>0.428734</v>
       </c>
       <c r="D134" t="n">
-        <v>0.406456</v>
+        <v>0.406772</v>
       </c>
       <c r="E134" t="n">
-        <v>0.13744</v>
+        <v>0.137413</v>
       </c>
       <c r="F134" t="n">
-        <v>0.258338</v>
+        <v>0.258381</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.183669</v>
+        <v>0.183618</v>
       </c>
       <c r="C135" t="n">
-        <v>0.460028</v>
+        <v>0.456684</v>
       </c>
       <c r="D135" t="n">
-        <v>0.471846</v>
+        <v>0.468131</v>
       </c>
       <c r="E135" t="n">
-        <v>0.13457</v>
+        <v>0.134597</v>
       </c>
       <c r="F135" t="n">
-        <v>0.256164</v>
+        <v>0.255445</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.176954</v>
+        <v>0.175964</v>
       </c>
       <c r="C136" t="n">
-        <v>0.412166</v>
+        <v>0.410685</v>
       </c>
       <c r="D136" t="n">
-        <v>0.456746</v>
+        <v>0.453189</v>
       </c>
       <c r="E136" t="n">
-        <v>0.131529</v>
+        <v>0.13154</v>
       </c>
       <c r="F136" t="n">
-        <v>0.252175</v>
+        <v>0.2521</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168407</v>
+        <v>0.162463</v>
       </c>
       <c r="C137" t="n">
-        <v>0.408367</v>
+        <v>0.407119</v>
       </c>
       <c r="D137" t="n">
-        <v>0.44182</v>
+        <v>0.438803</v>
       </c>
       <c r="E137" t="n">
-        <v>0.171842</v>
+        <v>0.171823</v>
       </c>
       <c r="F137" t="n">
-        <v>0.291747</v>
+        <v>0.291823</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240967</v>
+        <v>0.24094</v>
       </c>
       <c r="C138" t="n">
-        <v>0.47233</v>
+        <v>0.47263</v>
       </c>
       <c r="D138" t="n">
-        <v>0.453108</v>
+        <v>0.449117</v>
       </c>
       <c r="E138" t="n">
-        <v>0.167911</v>
+        <v>0.167944</v>
       </c>
       <c r="F138" t="n">
-        <v>0.288488</v>
+        <v>0.288574</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236682</v>
+        <v>0.237014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.497782</v>
+        <v>0.496769</v>
       </c>
       <c r="D139" t="n">
-        <v>0.443552</v>
+        <v>0.440727</v>
       </c>
       <c r="E139" t="n">
-        <v>0.164438</v>
+        <v>0.164447</v>
       </c>
       <c r="F139" t="n">
-        <v>0.28551</v>
+        <v>0.285441</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.232269</v>
+        <v>0.23177</v>
       </c>
       <c r="C140" t="n">
-        <v>0.47834</v>
+        <v>0.477894</v>
       </c>
       <c r="D140" t="n">
-        <v>0.442528</v>
+        <v>0.438506</v>
       </c>
       <c r="E140" t="n">
-        <v>0.161076</v>
+        <v>0.161105</v>
       </c>
       <c r="F140" t="n">
-        <v>0.282353</v>
+        <v>0.282578</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.225144</v>
+        <v>0.224504</v>
       </c>
       <c r="C141" t="n">
-        <v>0.470272</v>
+        <v>0.468957</v>
       </c>
       <c r="D141" t="n">
-        <v>0.440678</v>
+        <v>0.438522</v>
       </c>
       <c r="E141" t="n">
-        <v>0.15789</v>
+        <v>0.157906</v>
       </c>
       <c r="F141" t="n">
-        <v>0.279367</v>
+        <v>0.279371</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22201</v>
+        <v>0.221319</v>
       </c>
       <c r="C142" t="n">
-        <v>0.387403</v>
+        <v>0.387675</v>
       </c>
       <c r="D142" t="n">
-        <v>0.430605</v>
+        <v>0.427576</v>
       </c>
       <c r="E142" t="n">
-        <v>0.154894</v>
+        <v>0.154917</v>
       </c>
       <c r="F142" t="n">
-        <v>0.276764</v>
+        <v>0.276346</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.216259</v>
+        <v>0.216849</v>
       </c>
       <c r="C143" t="n">
-        <v>0.502171</v>
+        <v>0.503014</v>
       </c>
       <c r="D143" t="n">
-        <v>0.410278</v>
+        <v>0.407145</v>
       </c>
       <c r="E143" t="n">
-        <v>0.151993</v>
+        <v>0.151959</v>
       </c>
       <c r="F143" t="n">
-        <v>0.27364</v>
+        <v>0.273536</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198039</v>
+        <v>0.206796</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316419</v>
+        <v>0.313678</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309565</v>
+        <v>0.310331</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196182</v>
+        <v>0.0912466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316663</v>
+        <v>0.2575</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193762</v>
+        <v>0.202862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315423</v>
+        <v>0.312331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314294</v>
+        <v>0.311339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196841</v>
+        <v>0.0824405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318276</v>
+        <v>0.253709</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188337</v>
+        <v>0.197844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312745</v>
+        <v>0.304082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.317344</v>
+        <v>0.312276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196898</v>
+        <v>0.0836655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316417</v>
+        <v>0.251169</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182788</v>
+        <v>0.191887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303331</v>
+        <v>0.303637</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332271</v>
+        <v>0.313552</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196851</v>
+        <v>0.08037569999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315708</v>
+        <v>0.250063</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181828</v>
+        <v>0.185694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301634</v>
+        <v>0.300163</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333413</v>
+        <v>0.314389</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197339</v>
+        <v>0.0802119</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316</v>
+        <v>0.245126</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169635</v>
+        <v>0.177572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293504</v>
+        <v>0.296656</v>
       </c>
       <c r="D7" t="n">
-        <v>0.315713</v>
+        <v>0.308246</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197654</v>
+        <v>0.174838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315572</v>
+        <v>0.289702</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166119</v>
+        <v>0.169746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281763</v>
+        <v>0.286236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315335</v>
+        <v>0.308239</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198048</v>
+        <v>0.168096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315043</v>
+        <v>0.288867</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158341</v>
+        <v>0.160021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27807</v>
+        <v>0.277599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317159</v>
+        <v>0.309784</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215092</v>
+        <v>0.163123</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328643</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237257</v>
+        <v>0.243757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351217</v>
+        <v>0.347531</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316448</v>
+        <v>0.306665</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213228</v>
+        <v>0.159162</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32841</v>
+        <v>0.283338</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23291</v>
+        <v>0.24036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347033</v>
+        <v>0.344877</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317772</v>
+        <v>0.310231</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212467</v>
+        <v>0.156544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326143</v>
+        <v>0.279636</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22683</v>
+        <v>0.234384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342523</v>
+        <v>0.340535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320455</v>
+        <v>0.3112</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212113</v>
+        <v>0.153004</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325918</v>
+        <v>0.277295</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221872</v>
+        <v>0.232831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340801</v>
+        <v>0.335614</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322094</v>
+        <v>0.312444</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211485</v>
+        <v>0.151176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325397</v>
+        <v>0.275807</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218494</v>
+        <v>0.226367</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336581</v>
+        <v>0.331779</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323662</v>
+        <v>0.312335</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210565</v>
+        <v>0.145529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323269</v>
+        <v>0.273663</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213004</v>
+        <v>0.220131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319841</v>
+        <v>0.318723</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324178</v>
+        <v>0.313858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209938</v>
+        <v>0.143787</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322049</v>
+        <v>0.272139</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20851</v>
+        <v>0.215409</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323498</v>
+        <v>0.315397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326241</v>
+        <v>0.314512</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208726</v>
+        <v>0.14121</v>
       </c>
       <c r="F16" t="n">
-        <v>0.320796</v>
+        <v>0.266094</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203756</v>
+        <v>0.209944</v>
       </c>
       <c r="C17" t="n">
-        <v>0.313249</v>
+        <v>0.317461</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327901</v>
+        <v>0.314818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20794</v>
+        <v>0.138149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320214</v>
+        <v>0.263697</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199901</v>
+        <v>0.204694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314213</v>
+        <v>0.312025</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331556</v>
+        <v>0.31848</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207039</v>
+        <v>0.135752</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319789</v>
+        <v>0.25984</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.199052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.308842</v>
+        <v>0.307858</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333714</v>
+        <v>0.31781</v>
       </c>
       <c r="E19" t="n">
-        <v>0.20665</v>
+        <v>0.135445</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318676</v>
+        <v>0.257101</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187185</v>
+        <v>0.19205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301654</v>
+        <v>0.303064</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335579</v>
+        <v>0.320182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205974</v>
+        <v>0.130763</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318552</v>
+        <v>0.252621</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181744</v>
+        <v>0.183942</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299518</v>
+        <v>0.29168</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318668</v>
+        <v>0.310736</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205177</v>
+        <v>0.191226</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319185</v>
+        <v>0.300145</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169611</v>
+        <v>0.177063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288004</v>
+        <v>0.283852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318504</v>
+        <v>0.310428</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204458</v>
+        <v>0.185723</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316293</v>
+        <v>0.29371</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165369</v>
+        <v>0.167407</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277601</v>
+        <v>0.279356</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319039</v>
+        <v>0.311712</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220767</v>
+        <v>0.18149</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331025</v>
+        <v>0.289444</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236637</v>
+        <v>0.245468</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35504</v>
+        <v>0.346917</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322216</v>
+        <v>0.312741</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218939</v>
+        <v>0.17514</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330063</v>
+        <v>0.290703</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235156</v>
+        <v>0.24098</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349105</v>
+        <v>0.342644</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323625</v>
+        <v>0.312709</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217618</v>
+        <v>0.171176</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329757</v>
+        <v>0.28633</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229281</v>
+        <v>0.238189</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344807</v>
+        <v>0.339896</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322615</v>
+        <v>0.311182</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216425</v>
+        <v>0.166552</v>
       </c>
       <c r="F26" t="n">
-        <v>0.327824</v>
+        <v>0.283366</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225395</v>
+        <v>0.232652</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343028</v>
+        <v>0.334385</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323999</v>
+        <v>0.312723</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215003</v>
+        <v>0.163794</v>
       </c>
       <c r="F27" t="n">
-        <v>0.32727</v>
+        <v>0.277969</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220174</v>
+        <v>0.228152</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338369</v>
+        <v>0.329266</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325367</v>
+        <v>0.316854</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213842</v>
+        <v>0.160974</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326686</v>
+        <v>0.276403</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215007</v>
+        <v>0.223269</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333117</v>
+        <v>0.32859</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32906</v>
+        <v>0.317179</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212555</v>
+        <v>0.157313</v>
       </c>
       <c r="F29" t="n">
-        <v>0.327074</v>
+        <v>0.274081</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210651</v>
+        <v>0.217571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330089</v>
+        <v>0.328017</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330025</v>
+        <v>0.318552</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21131</v>
+        <v>0.152931</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32554</v>
+        <v>0.27149</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205018</v>
+        <v>0.212301</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322506</v>
+        <v>0.311908</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331852</v>
+        <v>0.318029</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210128</v>
+        <v>0.149957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32433</v>
+        <v>0.269311</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196874</v>
+        <v>0.205891</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319564</v>
+        <v>0.311069</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332338</v>
+        <v>0.318739</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209063</v>
+        <v>0.146347</v>
       </c>
       <c r="F32" t="n">
-        <v>0.32262</v>
+        <v>0.264863</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196106</v>
+        <v>0.200279</v>
       </c>
       <c r="C33" t="n">
-        <v>0.309981</v>
+        <v>0.311754</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336587</v>
+        <v>0.320246</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208206</v>
+        <v>0.143511</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32185</v>
+        <v>0.260569</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189556</v>
+        <v>0.19434</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309942</v>
+        <v>0.301359</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338697</v>
+        <v>0.321958</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207283</v>
+        <v>0.139222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321654</v>
+        <v>0.257084</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185612</v>
+        <v>0.188015</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302861</v>
+        <v>0.296014</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322838</v>
+        <v>0.318</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.134292</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320729</v>
+        <v>0.25262</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178782</v>
+        <v>0.180999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290962</v>
+        <v>0.295075</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323149</v>
+        <v>0.31676</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20579</v>
+        <v>0.192012</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319726</v>
+        <v>0.295974</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16974</v>
+        <v>0.171966</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276509</v>
+        <v>0.281181</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322484</v>
+        <v>0.31412</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222266</v>
+        <v>0.186626</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334461</v>
+        <v>0.295783</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242459</v>
+        <v>0.248064</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352154</v>
+        <v>0.348054</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324654</v>
+        <v>0.315441</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220484</v>
+        <v>0.18139</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333141</v>
+        <v>0.291715</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235937</v>
+        <v>0.244184</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348957</v>
+        <v>0.344514</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326529</v>
+        <v>0.314691</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218646</v>
+        <v>0.17649</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330717</v>
+        <v>0.287029</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232247</v>
+        <v>0.240747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345654</v>
+        <v>0.341513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326624</v>
+        <v>0.318571</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217024</v>
+        <v>0.172692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329927</v>
+        <v>0.284405</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227155</v>
+        <v>0.236028</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34176</v>
+        <v>0.337284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327161</v>
+        <v>0.319845</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215607</v>
+        <v>0.169221</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328181</v>
+        <v>0.281529</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223449</v>
+        <v>0.230957</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336746</v>
+        <v>0.332813</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328339</v>
+        <v>0.318006</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214423</v>
+        <v>0.164478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328124</v>
+        <v>0.279174</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215928</v>
+        <v>0.225259</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332156</v>
+        <v>0.332929</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32823</v>
+        <v>0.317404</v>
       </c>
       <c r="E43" t="n">
-        <v>0.213016</v>
+        <v>0.161241</v>
       </c>
       <c r="F43" t="n">
-        <v>0.325913</v>
+        <v>0.275592</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214382</v>
+        <v>0.219926</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328002</v>
+        <v>0.322513</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329964</v>
+        <v>0.315391</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211863</v>
+        <v>0.157652</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325104</v>
+        <v>0.27313</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207838</v>
+        <v>0.214825</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324408</v>
+        <v>0.316171</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331189</v>
+        <v>0.319157</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210727</v>
+        <v>0.154053</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324074</v>
+        <v>0.268556</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20195</v>
+        <v>0.208626</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32382</v>
+        <v>0.315411</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332638</v>
+        <v>0.320446</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209586</v>
+        <v>0.15031</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323702</v>
+        <v>0.265936</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197266</v>
+        <v>0.20285</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313051</v>
+        <v>0.311504</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337086</v>
+        <v>0.318758</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208629</v>
+        <v>0.146864</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322908</v>
+        <v>0.262871</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192275</v>
+        <v>0.196205</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306904</v>
+        <v>0.309766</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33761</v>
+        <v>0.322145</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207675</v>
+        <v>0.142841</v>
       </c>
       <c r="F48" t="n">
-        <v>0.321162</v>
+        <v>0.258434</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182895</v>
+        <v>0.189844</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300135</v>
+        <v>0.304343</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341829</v>
+        <v>0.326416</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206862</v>
+        <v>0.138122</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320523</v>
+        <v>0.254434</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175668</v>
+        <v>0.183168</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299076</v>
+        <v>0.294329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32396</v>
+        <v>0.318653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205838</v>
+        <v>0.193048</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320389</v>
+        <v>0.300448</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173333</v>
+        <v>0.175104</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283257</v>
+        <v>0.29081</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326193</v>
+        <v>0.319982</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223613</v>
+        <v>0.188263</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335276</v>
+        <v>0.294362</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165105</v>
+        <v>0.164582</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280242</v>
+        <v>0.27745</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326803</v>
+        <v>0.320964</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220533</v>
+        <v>0.184486</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333519</v>
+        <v>0.293104</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237109</v>
+        <v>0.245281</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351196</v>
+        <v>0.350175</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328003</v>
+        <v>0.321632</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219129</v>
+        <v>0.180117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33189</v>
+        <v>0.290043</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233327</v>
+        <v>0.241207</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348436</v>
+        <v>0.348154</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327154</v>
+        <v>0.321021</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217434</v>
+        <v>0.17562</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331723</v>
+        <v>0.286304</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229418</v>
+        <v>0.237273</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344551</v>
+        <v>0.345035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329754</v>
+        <v>0.323299</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215743</v>
+        <v>0.171239</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329122</v>
+        <v>0.282435</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222924</v>
+        <v>0.231871</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340935</v>
+        <v>0.340447</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331337</v>
+        <v>0.324382</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214463</v>
+        <v>0.167589</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328198</v>
+        <v>0.280282</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219082</v>
+        <v>0.226735</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335479</v>
+        <v>0.35534</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335005</v>
+        <v>0.327525</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213327</v>
+        <v>0.163727</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327301</v>
+        <v>0.278032</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214071</v>
+        <v>0.220818</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323354</v>
+        <v>0.35214</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338561</v>
+        <v>0.332903</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212086</v>
+        <v>0.160199</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326308</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205877</v>
+        <v>0.215534</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327605</v>
+        <v>0.320473</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341323</v>
+        <v>0.334572</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210918</v>
+        <v>0.156825</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325386</v>
+        <v>0.270087</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203442</v>
+        <v>0.210159</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32311</v>
+        <v>0.334384</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345857</v>
+        <v>0.336014</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209806</v>
+        <v>0.153268</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324682</v>
+        <v>0.267712</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198804</v>
+        <v>0.204304</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338317</v>
+        <v>0.317586</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349254</v>
+        <v>0.339714</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208846</v>
+        <v>0.149925</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323463</v>
+        <v>0.263906</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190133</v>
+        <v>0.198596</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310381</v>
+        <v>0.339597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352205</v>
+        <v>0.342305</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207847</v>
+        <v>0.145576</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322319</v>
+        <v>0.26006</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.193172</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321623</v>
+        <v>0.310635</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35729</v>
+        <v>0.342657</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206913</v>
+        <v>0.141992</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321296</v>
+        <v>0.256765</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182676</v>
+        <v>0.184759</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316358</v>
+        <v>0.322302</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380665</v>
+        <v>0.387205</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205993</v>
+        <v>0.198725</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320746</v>
+        <v>0.298677</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175436</v>
+        <v>0.177413</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285989</v>
+        <v>0.342905</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384326</v>
+        <v>0.377904</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2053</v>
+        <v>0.195124</v>
       </c>
       <c r="F65" t="n">
-        <v>0.319907</v>
+        <v>0.297111</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16151</v>
+        <v>0.168103</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307283</v>
+        <v>0.315836</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38735</v>
+        <v>0.385369</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22174</v>
+        <v>0.1868</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334744</v>
+        <v>0.293929</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239245</v>
+        <v>0.246583</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383015</v>
+        <v>0.38964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378608</v>
+        <v>0.397103</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219736</v>
+        <v>0.183006</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332708</v>
+        <v>0.289372</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234984</v>
+        <v>0.242972</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380777</v>
+        <v>0.384911</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389722</v>
+        <v>0.394692</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21814</v>
+        <v>0.178873</v>
       </c>
       <c r="F68" t="n">
-        <v>0.33176</v>
+        <v>0.286543</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230165</v>
+        <v>0.238387</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375024</v>
+        <v>0.379091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391123</v>
+        <v>0.396857</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216714</v>
+        <v>0.174264</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329921</v>
+        <v>0.283918</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22637</v>
+        <v>0.23378</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371186</v>
+        <v>0.374819</v>
       </c>
       <c r="D70" t="n">
-        <v>0.393549</v>
+        <v>0.394159</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21532</v>
+        <v>0.16999</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329055</v>
+        <v>0.281081</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219685</v>
+        <v>0.228417</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365124</v>
+        <v>0.400603</v>
       </c>
       <c r="D71" t="n">
-        <v>0.383449</v>
+        <v>0.393011</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214075</v>
+        <v>0.166109</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327182</v>
+        <v>0.27669</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213435</v>
+        <v>0.222971</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385198</v>
+        <v>0.405874</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383347</v>
+        <v>0.385836</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212847</v>
+        <v>0.162618</v>
       </c>
       <c r="F72" t="n">
-        <v>0.326094</v>
+        <v>0.275006</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21052</v>
+        <v>0.2177</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434361</v>
+        <v>0.38499</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395812</v>
+        <v>0.382575</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211554</v>
+        <v>0.159063</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326223</v>
+        <v>0.271345</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202826</v>
+        <v>0.212107</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50515</v>
+        <v>0.436869</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396497</v>
+        <v>0.394105</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210331</v>
+        <v>0.155548</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325121</v>
+        <v>0.268147</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200433</v>
+        <v>0.206198</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424146</v>
+        <v>0.325744</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394012</v>
+        <v>0.392627</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209315</v>
+        <v>0.152097</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324058</v>
+        <v>0.264407</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195052</v>
+        <v>0.200024</v>
       </c>
       <c r="C76" t="n">
-        <v>0.432666</v>
+        <v>0.490686</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385415</v>
+        <v>0.381192</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208313</v>
+        <v>0.148335</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321859</v>
+        <v>0.26132</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18588</v>
+        <v>0.19344</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413597</v>
+        <v>0.422206</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399165</v>
+        <v>0.393798</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207214</v>
+        <v>0.144653</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322049</v>
+        <v>0.257503</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183954</v>
+        <v>0.186961</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404342</v>
+        <v>0.431159</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450311</v>
+        <v>0.467159</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206537</v>
+        <v>0.140153</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319915</v>
+        <v>0.254233</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177332</v>
+        <v>0.179544</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315879</v>
+        <v>0.340976</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44593</v>
+        <v>0.463814</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205816</v>
+        <v>0.19499</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319103</v>
+        <v>0.297374</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169589</v>
+        <v>0.170665</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389973</v>
+        <v>0.419821</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442258</v>
+        <v>0.441973</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224387</v>
+        <v>0.189657</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334767</v>
+        <v>0.29287</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242077</v>
+        <v>0.24771</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373661</v>
+        <v>0.377814</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422901</v>
+        <v>0.454943</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221993</v>
+        <v>0.186412</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332937</v>
+        <v>0.289421</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238337</v>
+        <v>0.244205</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370128</v>
+        <v>0.370811</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431972</v>
+        <v>0.434151</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219747</v>
+        <v>0.17987</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332091</v>
+        <v>0.287038</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233393</v>
+        <v>0.239941</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36513</v>
+        <v>0.36634</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416602</v>
+        <v>0.430406</v>
       </c>
       <c r="E83" t="n">
-        <v>0.218249</v>
+        <v>0.175291</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330379</v>
+        <v>0.283314</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228169</v>
+        <v>0.235098</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359783</v>
+        <v>0.361597</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415232</v>
+        <v>0.423705</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216523</v>
+        <v>0.172026</v>
       </c>
       <c r="F84" t="n">
-        <v>0.328979</v>
+        <v>0.28067</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223053</v>
+        <v>0.22942</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354822</v>
+        <v>0.406905</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411634</v>
+        <v>0.42118</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215208</v>
+        <v>0.168285</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328088</v>
+        <v>0.277327</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215091</v>
+        <v>0.224454</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3488</v>
+        <v>0.491343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420989</v>
+        <v>0.421086</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213791</v>
+        <v>0.164398</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327214</v>
+        <v>0.274482</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20965</v>
+        <v>0.218449</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354432</v>
+        <v>0.522798</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420751</v>
+        <v>0.426736</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212218</v>
+        <v>0.160792</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326101</v>
+        <v>0.271938</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206688</v>
+        <v>0.212876</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427409</v>
+        <v>0.39612</v>
       </c>
       <c r="D88" t="n">
-        <v>0.418385</v>
+        <v>0.424097</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210796</v>
+        <v>0.157067</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325197</v>
+        <v>0.267781</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201045</v>
+        <v>0.207358</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411439</v>
+        <v>0.445952</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416137</v>
+        <v>0.419437</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209645</v>
+        <v>0.154113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324161</v>
+        <v>0.264513</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.201033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394311</v>
+        <v>0.449336</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416668</v>
+        <v>0.41681</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208763</v>
+        <v>0.150444</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323356</v>
+        <v>0.261209</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191541</v>
+        <v>0.195346</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412321</v>
+        <v>0.391979</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41446</v>
+        <v>0.414759</v>
       </c>
       <c r="E91" t="n">
-        <v>0.20778</v>
+        <v>0.146437</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322384</v>
+        <v>0.257816</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185137</v>
+        <v>0.188085</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441949</v>
+        <v>0.345409</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452927</v>
+        <v>0.471118</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206887</v>
+        <v>0.141873</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321361</v>
+        <v>0.254462</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173724</v>
+        <v>0.180806</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409194</v>
+        <v>0.362529</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448389</v>
+        <v>0.469213</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206105</v>
+        <v>0.194995</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320525</v>
+        <v>0.29664</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171365</v>
+        <v>0.172841</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325018</v>
+        <v>0.369811</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441247</v>
+        <v>0.463176</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224713</v>
+        <v>0.190861</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336322</v>
+        <v>0.296828</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241006</v>
+        <v>0.248152</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478767</v>
+        <v>0.359706</v>
       </c>
       <c r="D95" t="n">
-        <v>0.422132</v>
+        <v>0.432121</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221477</v>
+        <v>0.184687</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333852</v>
+        <v>0.289887</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236891</v>
+        <v>0.244376</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354454</v>
+        <v>0.355567</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423552</v>
+        <v>0.427406</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219726</v>
+        <v>0.180337</v>
       </c>
       <c r="F96" t="n">
-        <v>0.330728</v>
+        <v>0.28761</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232382</v>
+        <v>0.240328</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349837</v>
+        <v>0.351139</v>
       </c>
       <c r="D97" t="n">
-        <v>0.405597</v>
+        <v>0.448016</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218326</v>
+        <v>0.177229</v>
       </c>
       <c r="F97" t="n">
-        <v>0.328395</v>
+        <v>0.283527</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229574</v>
+        <v>0.235763</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345736</v>
+        <v>0.347144</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401539</v>
+        <v>0.441427</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216936</v>
+        <v>0.172544</v>
       </c>
       <c r="F98" t="n">
-        <v>0.326904</v>
+        <v>0.280318</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224339</v>
+        <v>0.230817</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340185</v>
+        <v>0.341293</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397842</v>
+        <v>0.418888</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215503</v>
+        <v>0.168563</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325631</v>
+        <v>0.277608</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218044</v>
+        <v>0.225467</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33502</v>
+        <v>0.339413</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40025</v>
+        <v>0.41342</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213887</v>
+        <v>0.164953</v>
       </c>
       <c r="F100" t="n">
-        <v>0.324933</v>
+        <v>0.274721</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212853</v>
+        <v>0.219516</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394261</v>
+        <v>0.471058</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385912</v>
+        <v>0.427384</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212073</v>
+        <v>0.16161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.32338</v>
+        <v>0.271145</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20764</v>
+        <v>0.21422</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366303</v>
+        <v>0.430207</v>
       </c>
       <c r="D102" t="n">
-        <v>0.383046</v>
+        <v>0.417492</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211313</v>
+        <v>0.158467</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322356</v>
+        <v>0.26813</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202565</v>
+        <v>0.208231</v>
       </c>
       <c r="C103" t="n">
-        <v>0.431119</v>
+        <v>0.44393</v>
       </c>
       <c r="D103" t="n">
-        <v>0.38107</v>
+        <v>0.401003</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210208</v>
+        <v>0.154547</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321237</v>
+        <v>0.265813</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197309</v>
+        <v>0.202441</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389164</v>
+        <v>0.394593</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393786</v>
+        <v>0.396753</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209123</v>
+        <v>0.150975</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320443</v>
+        <v>0.261871</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192703</v>
+        <v>0.196523</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387519</v>
+        <v>0.386907</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391946</v>
+        <v>0.395103</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208125</v>
+        <v>0.147396</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320842</v>
+        <v>0.258765</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187166</v>
+        <v>0.189647</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363726</v>
+        <v>0.414765</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38562</v>
+        <v>0.391562</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206923</v>
+        <v>0.143549</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318609</v>
+        <v>0.255384</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180898</v>
+        <v>0.182767</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391249</v>
+        <v>0.392045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414839</v>
+        <v>0.446764</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206578</v>
+        <v>0.194505</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318042</v>
+        <v>0.296869</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173592</v>
+        <v>0.174209</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367711</v>
+        <v>0.452286</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411002</v>
+        <v>0.418944</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225377</v>
+        <v>0.190298</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333574</v>
+        <v>0.293298</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157576</v>
+        <v>0.164813</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328899</v>
+        <v>0.343153</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398261</v>
+        <v>0.415171</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222654</v>
+        <v>0.185961</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331271</v>
+        <v>0.290106</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238084</v>
+        <v>0.245347</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493874</v>
+        <v>0.505152</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398461</v>
+        <v>0.413818</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220439</v>
+        <v>0.181539</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329667</v>
+        <v>0.287082</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23378</v>
+        <v>0.241174</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49468</v>
+        <v>0.47686</v>
       </c>
       <c r="D111" t="n">
-        <v>0.384808</v>
+        <v>0.413589</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218671</v>
+        <v>0.178203</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328932</v>
+        <v>0.283874</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228874</v>
+        <v>0.236708</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493379</v>
+        <v>0.343021</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398083</v>
+        <v>0.426142</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21703</v>
+        <v>0.17397</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327765</v>
+        <v>0.280742</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223411</v>
+        <v>0.231857</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49166</v>
+        <v>0.499639</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395514</v>
+        <v>0.407504</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215311</v>
+        <v>0.169456</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326127</v>
+        <v>0.277601</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218023</v>
+        <v>0.226478</v>
       </c>
       <c r="C114" t="n">
-        <v>0.48826</v>
+        <v>0.460798</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392894</v>
+        <v>0.400266</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213837</v>
+        <v>0.165761</v>
       </c>
       <c r="F114" t="n">
-        <v>0.32536</v>
+        <v>0.274642</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212687</v>
+        <v>0.220928</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441477</v>
+        <v>0.348397</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383092</v>
+        <v>0.395609</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212533</v>
+        <v>0.162214</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324163</v>
+        <v>0.272318</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20634</v>
+        <v>0.21565</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445081</v>
+        <v>0.447218</v>
       </c>
       <c r="D116" t="n">
-        <v>0.367245</v>
+        <v>0.392428</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211504</v>
+        <v>0.15862</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323461</v>
+        <v>0.269003</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.201157</v>
+        <v>0.209707</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312737</v>
+        <v>0.440498</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374621</v>
+        <v>0.388846</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210245</v>
+        <v>0.155504</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322705</v>
+        <v>0.265865</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198963</v>
+        <v>0.204128</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436189</v>
+        <v>0.432888</v>
       </c>
       <c r="D118" t="n">
-        <v>0.367856</v>
+        <v>0.399735</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209234</v>
+        <v>0.151986</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321874</v>
+        <v>0.260466</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193526</v>
+        <v>0.197729</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428167</v>
+        <v>0.47147</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378087</v>
+        <v>0.374898</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207987</v>
+        <v>0.148327</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320122</v>
+        <v>0.257074</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188202</v>
+        <v>0.191834</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447219</v>
+        <v>0.415105</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371122</v>
+        <v>0.374803</v>
       </c>
       <c r="E120" t="n">
-        <v>0.20732</v>
+        <v>0.144403</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319888</v>
+        <v>0.25327</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182012</v>
+        <v>0.184746</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412973</v>
+        <v>0.41131</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457049</v>
+        <v>0.478254</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206505</v>
+        <v>0.195135</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319026</v>
+        <v>0.295388</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169649</v>
+        <v>0.176295</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367922</v>
+        <v>0.384663</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449197</v>
+        <v>0.443812</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205755</v>
+        <v>0.190463</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318222</v>
+        <v>0.291655</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16647</v>
+        <v>0.167159</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35522</v>
+        <v>0.372767</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431685</v>
+        <v>0.457613</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223069</v>
+        <v>0.18701</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332148</v>
+        <v>0.287618</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238661</v>
+        <v>0.24633</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429524</v>
+        <v>0.423909</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417153</v>
+        <v>0.459769</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220802</v>
+        <v>0.183004</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330367</v>
+        <v>0.285561</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234681</v>
+        <v>0.242201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.469972</v>
+        <v>0.479707</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412764</v>
+        <v>0.426017</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218843</v>
+        <v>0.179021</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328841</v>
+        <v>0.281793</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229597</v>
+        <v>0.237888</v>
       </c>
       <c r="C126" t="n">
-        <v>0.455892</v>
+        <v>0.466108</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40667</v>
+        <v>0.431052</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217116</v>
+        <v>0.174886</v>
       </c>
       <c r="F126" t="n">
-        <v>0.327443</v>
+        <v>0.278624</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224571</v>
+        <v>0.232871</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429964</v>
+        <v>0.436568</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394613</v>
+        <v>0.42568</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215593</v>
+        <v>0.170951</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326121</v>
+        <v>0.275985</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218421</v>
+        <v>0.227481</v>
       </c>
       <c r="C128" t="n">
-        <v>0.454873</v>
+        <v>0.483425</v>
       </c>
       <c r="D128" t="n">
-        <v>0.398683</v>
+        <v>0.411559</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214216</v>
+        <v>0.166957</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324968</v>
+        <v>0.273216</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21347</v>
+        <v>0.222124</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375299</v>
+        <v>0.480815</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417697</v>
+        <v>0.409931</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212873</v>
+        <v>0.163451</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324189</v>
+        <v>0.270116</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207751</v>
+        <v>0.216607</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427108</v>
+        <v>0.468248</v>
       </c>
       <c r="D130" t="n">
-        <v>0.411372</v>
+        <v>0.404137</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211602</v>
+        <v>0.159677</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322645</v>
+        <v>0.266909</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204367</v>
+        <v>0.210905</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430129</v>
+        <v>0.439426</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412141</v>
+        <v>0.414228</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210411</v>
+        <v>0.156293</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322276</v>
+        <v>0.263921</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200025</v>
+        <v>0.205482</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358121</v>
+        <v>0.545078</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401472</v>
+        <v>0.404204</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209437</v>
+        <v>0.152992</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32046</v>
+        <v>0.260845</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190771</v>
+        <v>0.199234</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455985</v>
+        <v>0.473534</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377124</v>
+        <v>0.394568</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208425</v>
+        <v>0.149221</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319751</v>
+        <v>0.257391</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184923</v>
+        <v>0.193374</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412288</v>
+        <v>0.415828</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407241</v>
+        <v>0.403321</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207227</v>
+        <v>0.145233</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319589</v>
+        <v>0.254124</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18395</v>
+        <v>0.186355</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432271</v>
+        <v>0.458792</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44982</v>
+        <v>0.471911</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206585</v>
+        <v>0.195584</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3177</v>
+        <v>0.294881</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17138</v>
+        <v>0.178174</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394043</v>
+        <v>0.384362</v>
       </c>
       <c r="D136" t="n">
-        <v>0.437821</v>
+        <v>0.46036</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205801</v>
+        <v>0.191202</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317149</v>
+        <v>0.29189</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162429</v>
+        <v>0.169185</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387207</v>
+        <v>0.372868</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417013</v>
+        <v>0.4444</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22352</v>
+        <v>0.187465</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332331</v>
+        <v>0.288102</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240913</v>
+        <v>0.246838</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46183</v>
+        <v>0.485527</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425602</v>
+        <v>0.453231</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221163</v>
+        <v>0.183208</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330729</v>
+        <v>0.285284</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236358</v>
+        <v>0.243364</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474479</v>
+        <v>0.439887</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429063</v>
+        <v>0.443327</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219193</v>
+        <v>0.179196</v>
       </c>
       <c r="F139" t="n">
-        <v>0.329914</v>
+        <v>0.282085</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231514</v>
+        <v>0.238797</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464012</v>
+        <v>0.477776</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426355</v>
+        <v>0.441138</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217464</v>
+        <v>0.175676</v>
       </c>
       <c r="F140" t="n">
-        <v>0.32868</v>
+        <v>0.279137</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22447</v>
+        <v>0.23393</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446345</v>
+        <v>0.450104</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411172</v>
+        <v>0.443145</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215914</v>
+        <v>0.171495</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326783</v>
+        <v>0.276362</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22105</v>
+        <v>0.228965</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383967</v>
+        <v>0.423482</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407645</v>
+        <v>0.430031</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214433</v>
+        <v>0.167657</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325394</v>
+        <v>0.273539</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215665</v>
+        <v>0.223456</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480403</v>
+        <v>0.387347</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404022</v>
+        <v>0.421066</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213105</v>
+        <v>0.164023</v>
       </c>
       <c r="F143" t="n">
-        <v>0.32422</v>
+        <v>0.270404</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198039</v>
+        <v>0.198065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316419</v>
+        <v>0.316101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309565</v>
+        <v>0.314809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196182</v>
+        <v>0.105697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316663</v>
+        <v>0.267703</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193762</v>
+        <v>0.194408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315423</v>
+        <v>0.31552</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314294</v>
+        <v>0.314121</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196841</v>
+        <v>0.10069</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318276</v>
+        <v>0.266318</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188337</v>
+        <v>0.187982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312745</v>
+        <v>0.312547</v>
       </c>
       <c r="D4" t="n">
-        <v>0.317344</v>
+        <v>0.319216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196898</v>
+        <v>0.0963985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316417</v>
+        <v>0.264263</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182788</v>
+        <v>0.182536</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303331</v>
+        <v>0.303338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332271</v>
+        <v>0.315687</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196851</v>
+        <v>0.100082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315708</v>
+        <v>0.261479</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181828</v>
+        <v>0.181238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301634</v>
+        <v>0.301511</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333413</v>
+        <v>0.319075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197339</v>
+        <v>0.0952055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316</v>
+        <v>0.257989</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169635</v>
+        <v>0.170372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293504</v>
+        <v>0.294384</v>
       </c>
       <c r="D7" t="n">
-        <v>0.315713</v>
+        <v>0.309751</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197654</v>
+        <v>0.09357020000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315572</v>
+        <v>0.255588</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166119</v>
+        <v>0.166191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281763</v>
+        <v>0.281242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315335</v>
+        <v>0.309992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198048</v>
+        <v>0.0896047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315043</v>
+        <v>0.251904</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158341</v>
+        <v>0.158987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27807</v>
+        <v>0.278001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317159</v>
+        <v>0.31067</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215092</v>
+        <v>0.171924</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328643</v>
+        <v>0.300387</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237257</v>
+        <v>0.237945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351217</v>
+        <v>0.353846</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316448</v>
+        <v>0.30947</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213228</v>
+        <v>0.166048</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32841</v>
+        <v>0.296438</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23291</v>
+        <v>0.233927</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347033</v>
+        <v>0.349072</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317772</v>
+        <v>0.31148</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212467</v>
+        <v>0.162019</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326143</v>
+        <v>0.29358</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22683</v>
+        <v>0.227606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342523</v>
+        <v>0.344987</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320455</v>
+        <v>0.315283</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212113</v>
+        <v>0.157484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325918</v>
+        <v>0.289304</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221872</v>
+        <v>0.222298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340801</v>
+        <v>0.342338</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322094</v>
+        <v>0.314369</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211485</v>
+        <v>0.153495</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325397</v>
+        <v>0.289162</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218494</v>
+        <v>0.219538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336581</v>
+        <v>0.339588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323662</v>
+        <v>0.316413</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210565</v>
+        <v>0.152214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323269</v>
+        <v>0.284988</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213004</v>
+        <v>0.213881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319841</v>
+        <v>0.320359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324178</v>
+        <v>0.317322</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209938</v>
+        <v>0.148187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322049</v>
+        <v>0.283304</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20851</v>
+        <v>0.208544</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323498</v>
+        <v>0.325757</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326241</v>
+        <v>0.314295</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208726</v>
+        <v>0.144552</v>
       </c>
       <c r="F16" t="n">
-        <v>0.320796</v>
+        <v>0.280694</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203756</v>
+        <v>0.204075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.313249</v>
+        <v>0.316152</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327901</v>
+        <v>0.31816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20794</v>
+        <v>0.140442</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320214</v>
+        <v>0.275813</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199901</v>
+        <v>0.199226</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314213</v>
+        <v>0.3159</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331556</v>
+        <v>0.322574</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207039</v>
+        <v>0.136674</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319789</v>
+        <v>0.273739</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.194481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.308842</v>
+        <v>0.30928</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333714</v>
+        <v>0.32157</v>
       </c>
       <c r="E19" t="n">
-        <v>0.20665</v>
+        <v>0.134923</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318676</v>
+        <v>0.269843</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187185</v>
+        <v>0.188042</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301654</v>
+        <v>0.304357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335579</v>
+        <v>0.325699</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205974</v>
+        <v>0.129981</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318552</v>
+        <v>0.267392</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181744</v>
+        <v>0.181436</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299518</v>
+        <v>0.300759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318668</v>
+        <v>0.312763</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205177</v>
+        <v>0.12733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319185</v>
+        <v>0.262872</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169611</v>
+        <v>0.169673</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288004</v>
+        <v>0.290153</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318504</v>
+        <v>0.313383</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204458</v>
+        <v>0.124111</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316293</v>
+        <v>0.25948</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165369</v>
+        <v>0.16607</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277601</v>
+        <v>0.277526</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319039</v>
+        <v>0.314978</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220767</v>
+        <v>0.183195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331025</v>
+        <v>0.304623</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236637</v>
+        <v>0.240599</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35504</v>
+        <v>0.343002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322216</v>
+        <v>0.315062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218939</v>
+        <v>0.17629</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330063</v>
+        <v>0.300553</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235156</v>
+        <v>0.232973</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349105</v>
+        <v>0.348475</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323625</v>
+        <v>0.319088</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217618</v>
+        <v>0.17135</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329757</v>
+        <v>0.298517</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229281</v>
+        <v>0.231396</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344807</v>
+        <v>0.345136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322615</v>
+        <v>0.31632</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216425</v>
+        <v>0.168102</v>
       </c>
       <c r="F26" t="n">
-        <v>0.327824</v>
+        <v>0.294847</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225395</v>
+        <v>0.226807</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343028</v>
+        <v>0.343722</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323999</v>
+        <v>0.315997</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215003</v>
+        <v>0.163591</v>
       </c>
       <c r="F27" t="n">
-        <v>0.32727</v>
+        <v>0.293203</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220174</v>
+        <v>0.220505</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338369</v>
+        <v>0.340089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325367</v>
+        <v>0.31607</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213842</v>
+        <v>0.160395</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326686</v>
+        <v>0.289487</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215007</v>
+        <v>0.215935</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333117</v>
+        <v>0.33461</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32906</v>
+        <v>0.317532</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212555</v>
+        <v>0.157885</v>
       </c>
       <c r="F29" t="n">
-        <v>0.327074</v>
+        <v>0.285829</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210651</v>
+        <v>0.21116</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330089</v>
+        <v>0.3318</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330025</v>
+        <v>0.320507</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21131</v>
+        <v>0.153696</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32554</v>
+        <v>0.283759</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205018</v>
+        <v>0.205292</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322506</v>
+        <v>0.323398</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331852</v>
+        <v>0.322629</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210128</v>
+        <v>0.149424</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32433</v>
+        <v>0.280862</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196874</v>
+        <v>0.196954</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319564</v>
+        <v>0.32276</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332338</v>
+        <v>0.324346</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209063</v>
+        <v>0.145796</v>
       </c>
       <c r="F32" t="n">
-        <v>0.32262</v>
+        <v>0.27729</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196106</v>
+        <v>0.195894</v>
       </c>
       <c r="C33" t="n">
-        <v>0.309981</v>
+        <v>0.311892</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336587</v>
+        <v>0.323328</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208206</v>
+        <v>0.141768</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32185</v>
+        <v>0.273975</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189556</v>
+        <v>0.190358</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309942</v>
+        <v>0.309114</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338697</v>
+        <v>0.327102</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207283</v>
+        <v>0.140093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321654</v>
+        <v>0.270336</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185612</v>
+        <v>0.185069</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302861</v>
+        <v>0.302888</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322838</v>
+        <v>0.31764</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.135118</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320729</v>
+        <v>0.26644</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178782</v>
+        <v>0.178316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290962</v>
+        <v>0.291833</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323149</v>
+        <v>0.316961</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20579</v>
+        <v>0.130804</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319726</v>
+        <v>0.262853</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16974</v>
+        <v>0.169474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276509</v>
+        <v>0.277652</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322484</v>
+        <v>0.316603</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222266</v>
+        <v>0.184558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334461</v>
+        <v>0.309914</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242459</v>
+        <v>0.239422</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352154</v>
+        <v>0.352062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324654</v>
+        <v>0.315429</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220484</v>
+        <v>0.179585</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333141</v>
+        <v>0.305824</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235937</v>
+        <v>0.23581</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348957</v>
+        <v>0.34901</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326529</v>
+        <v>0.318815</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218646</v>
+        <v>0.177006</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330717</v>
+        <v>0.301825</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232247</v>
+        <v>0.232391</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345654</v>
+        <v>0.345523</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326624</v>
+        <v>0.319323</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217024</v>
+        <v>0.172221</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329927</v>
+        <v>0.298017</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227155</v>
+        <v>0.228245</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34176</v>
+        <v>0.34172</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327161</v>
+        <v>0.319639</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215607</v>
+        <v>0.168231</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328181</v>
+        <v>0.294309</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223449</v>
+        <v>0.224171</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336746</v>
+        <v>0.337078</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328339</v>
+        <v>0.320128</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214423</v>
+        <v>0.163951</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328124</v>
+        <v>0.292194</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215928</v>
+        <v>0.216736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332156</v>
+        <v>0.332493</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32823</v>
+        <v>0.317973</v>
       </c>
       <c r="E43" t="n">
-        <v>0.213016</v>
+        <v>0.160322</v>
       </c>
       <c r="F43" t="n">
-        <v>0.325913</v>
+        <v>0.289783</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214382</v>
+        <v>0.21393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328002</v>
+        <v>0.325924</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329964</v>
+        <v>0.322805</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211863</v>
+        <v>0.156647</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325104</v>
+        <v>0.28651</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207838</v>
+        <v>0.208633</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324408</v>
+        <v>0.323936</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331189</v>
+        <v>0.321619</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210727</v>
+        <v>0.15286</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324074</v>
+        <v>0.282819</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20195</v>
+        <v>0.202322</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32382</v>
+        <v>0.322934</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332638</v>
+        <v>0.32068</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209586</v>
+        <v>0.149407</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323702</v>
+        <v>0.278244</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197266</v>
+        <v>0.197453</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313051</v>
+        <v>0.3136</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337086</v>
+        <v>0.323765</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208629</v>
+        <v>0.147446</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322908</v>
+        <v>0.27531</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192275</v>
+        <v>0.192256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306904</v>
+        <v>0.307101</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33761</v>
+        <v>0.324344</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207675</v>
+        <v>0.143852</v>
       </c>
       <c r="F48" t="n">
-        <v>0.321162</v>
+        <v>0.27271</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182895</v>
+        <v>0.1829</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300135</v>
+        <v>0.302474</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341829</v>
+        <v>0.327501</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206862</v>
+        <v>0.140086</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320523</v>
+        <v>0.269566</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175668</v>
+        <v>0.175325</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299076</v>
+        <v>0.298622</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32396</v>
+        <v>0.320366</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205838</v>
+        <v>0.135858</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320389</v>
+        <v>0.264872</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173333</v>
+        <v>0.172904</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283257</v>
+        <v>0.284526</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326193</v>
+        <v>0.321717</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223613</v>
+        <v>0.187951</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335276</v>
+        <v>0.31033</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165105</v>
+        <v>0.164582</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280242</v>
+        <v>0.282485</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326803</v>
+        <v>0.321608</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220533</v>
+        <v>0.183442</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333519</v>
+        <v>0.305959</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237109</v>
+        <v>0.237366</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351196</v>
+        <v>0.353448</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328003</v>
+        <v>0.324277</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219129</v>
+        <v>0.179386</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33189</v>
+        <v>0.303037</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233327</v>
+        <v>0.234003</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348436</v>
+        <v>0.35053</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327154</v>
+        <v>0.323755</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217434</v>
+        <v>0.175049</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331723</v>
+        <v>0.300442</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229418</v>
+        <v>0.228379</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344551</v>
+        <v>0.348011</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329754</v>
+        <v>0.324289</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215743</v>
+        <v>0.171286</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329122</v>
+        <v>0.296333</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222924</v>
+        <v>0.222981</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340935</v>
+        <v>0.34361</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331337</v>
+        <v>0.325456</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214463</v>
+        <v>0.168094</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328198</v>
+        <v>0.292622</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219082</v>
+        <v>0.219273</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335479</v>
+        <v>0.338084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335005</v>
+        <v>0.329167</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213327</v>
+        <v>0.163519</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327301</v>
+        <v>0.28982</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214071</v>
+        <v>0.213371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323354</v>
+        <v>0.32404</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338561</v>
+        <v>0.329939</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212086</v>
+        <v>0.159355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326308</v>
+        <v>0.286233</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205877</v>
+        <v>0.206207</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327605</v>
+        <v>0.329017</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341323</v>
+        <v>0.332226</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210918</v>
+        <v>0.155765</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325386</v>
+        <v>0.283475</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203442</v>
+        <v>0.204174</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32311</v>
+        <v>0.32324</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345857</v>
+        <v>0.33713</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209806</v>
+        <v>0.152107</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324682</v>
+        <v>0.280267</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198804</v>
+        <v>0.198769</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338317</v>
+        <v>0.339443</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349254</v>
+        <v>0.33929</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208846</v>
+        <v>0.148666</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323463</v>
+        <v>0.276862</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190133</v>
+        <v>0.190025</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310381</v>
+        <v>0.310048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352205</v>
+        <v>0.341046</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207847</v>
+        <v>0.145697</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322319</v>
+        <v>0.273871</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.188347</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321623</v>
+        <v>0.321299</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35729</v>
+        <v>0.345102</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206913</v>
+        <v>0.141952</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321296</v>
+        <v>0.270746</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182676</v>
+        <v>0.177693</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316358</v>
+        <v>0.317325</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380665</v>
+        <v>0.376114</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205993</v>
+        <v>0.13787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320746</v>
+        <v>0.266822</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175436</v>
+        <v>0.169641</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285989</v>
+        <v>0.286103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384326</v>
+        <v>0.376836</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2053</v>
+        <v>0.135144</v>
       </c>
       <c r="F65" t="n">
-        <v>0.319907</v>
+        <v>0.263301</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16151</v>
+        <v>0.161683</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307283</v>
+        <v>0.307113</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38735</v>
+        <v>0.381154</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22174</v>
+        <v>0.185775</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334744</v>
+        <v>0.307381</v>
       </c>
     </row>
     <row r="67">
@@ -6388,16 +6388,16 @@
         <v>0.239245</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383015</v>
+        <v>0.382015</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378608</v>
+        <v>0.371344</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219736</v>
+        <v>0.183283</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332708</v>
+        <v>0.303716</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234984</v>
+        <v>0.234822</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380777</v>
+        <v>0.380782</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389722</v>
+        <v>0.382011</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21814</v>
+        <v>0.17735</v>
       </c>
       <c r="F68" t="n">
-        <v>0.33176</v>
+        <v>0.301242</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230165</v>
+        <v>0.230087</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375024</v>
+        <v>0.375415</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391123</v>
+        <v>0.383297</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216714</v>
+        <v>0.17357</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329921</v>
+        <v>0.297942</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22637</v>
+        <v>0.226846</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371186</v>
+        <v>0.370832</v>
       </c>
       <c r="D70" t="n">
-        <v>0.393549</v>
+        <v>0.385063</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21532</v>
+        <v>0.170282</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329055</v>
+        <v>0.294499</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219685</v>
+        <v>0.218822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365124</v>
+        <v>0.365284</v>
       </c>
       <c r="D71" t="n">
-        <v>0.383449</v>
+        <v>0.373488</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214075</v>
+        <v>0.166275</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327182</v>
+        <v>0.290238</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213435</v>
+        <v>0.21449</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385198</v>
+        <v>0.390091</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383347</v>
+        <v>0.375792</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212847</v>
+        <v>0.162222</v>
       </c>
       <c r="F72" t="n">
-        <v>0.326094</v>
+        <v>0.288246</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21052</v>
+        <v>0.210204</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434361</v>
+        <v>0.440691</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395812</v>
+        <v>0.387171</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211554</v>
+        <v>0.158494</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326223</v>
+        <v>0.283928</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202826</v>
+        <v>0.202605</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50515</v>
+        <v>0.50785</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396497</v>
+        <v>0.386016</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210331</v>
+        <v>0.155266</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325121</v>
+        <v>0.281004</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200433</v>
+        <v>0.196992</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424146</v>
+        <v>0.38326</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394012</v>
+        <v>0.376096</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209315</v>
+        <v>0.15177</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324058</v>
+        <v>0.277643</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195052</v>
+        <v>0.195107</v>
       </c>
       <c r="C76" t="n">
-        <v>0.432666</v>
+        <v>0.413785</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385415</v>
+        <v>0.377115</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208313</v>
+        <v>0.147526</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321859</v>
+        <v>0.274591</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18588</v>
+        <v>0.189388</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413597</v>
+        <v>0.419216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399165</v>
+        <v>0.386667</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207214</v>
+        <v>0.144146</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322049</v>
+        <v>0.271008</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183954</v>
+        <v>0.183353</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404342</v>
+        <v>0.415706</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450311</v>
+        <v>0.438276</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206537</v>
+        <v>0.14111</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319915</v>
+        <v>0.267827</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177332</v>
+        <v>0.177147</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315879</v>
+        <v>0.411401</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44593</v>
+        <v>0.423522</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205816</v>
+        <v>0.137191</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319103</v>
+        <v>0.264296</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169589</v>
+        <v>0.169123</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389973</v>
+        <v>0.392479</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442258</v>
+        <v>0.436011</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224387</v>
+        <v>0.187908</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334767</v>
+        <v>0.30766</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242077</v>
+        <v>0.239857</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373661</v>
+        <v>0.373532</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422901</v>
+        <v>0.415414</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221993</v>
+        <v>0.1847</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332937</v>
+        <v>0.305186</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238337</v>
+        <v>0.237982</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370128</v>
+        <v>0.370214</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431972</v>
+        <v>0.425945</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219747</v>
+        <v>0.179779</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332091</v>
+        <v>0.300632</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233393</v>
+        <v>0.233041</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36513</v>
+        <v>0.365456</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416602</v>
+        <v>0.40927</v>
       </c>
       <c r="E83" t="n">
-        <v>0.218249</v>
+        <v>0.176391</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330379</v>
+        <v>0.297229</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228169</v>
+        <v>0.227237</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359783</v>
+        <v>0.359805</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415232</v>
+        <v>0.407378</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216523</v>
+        <v>0.171959</v>
       </c>
       <c r="F84" t="n">
-        <v>0.328979</v>
+        <v>0.294072</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223053</v>
+        <v>0.223085</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354822</v>
+        <v>0.354941</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411634</v>
+        <v>0.403138</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215208</v>
+        <v>0.168213</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328088</v>
+        <v>0.290519</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215091</v>
+        <v>0.215442</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3488</v>
+        <v>0.349052</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420989</v>
+        <v>0.413189</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213791</v>
+        <v>0.164279</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327214</v>
+        <v>0.287851</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20965</v>
+        <v>0.209282</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354432</v>
+        <v>0.35431</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420751</v>
+        <v>0.41133</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212218</v>
+        <v>0.160484</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326101</v>
+        <v>0.284651</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206688</v>
+        <v>0.206718</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427409</v>
+        <v>0.429615</v>
       </c>
       <c r="D88" t="n">
-        <v>0.418385</v>
+        <v>0.408127</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210796</v>
+        <v>0.156924</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325197</v>
+        <v>0.281417</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201045</v>
+        <v>0.201213</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411439</v>
+        <v>0.413287</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416137</v>
+        <v>0.405386</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209645</v>
+        <v>0.153659</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324161</v>
+        <v>0.278062</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.196258</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394311</v>
+        <v>0.396032</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416668</v>
+        <v>0.405691</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208763</v>
+        <v>0.14994</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323356</v>
+        <v>0.275097</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191541</v>
+        <v>0.191427</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412321</v>
+        <v>0.414182</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41446</v>
+        <v>0.401857</v>
       </c>
       <c r="E91" t="n">
-        <v>0.20778</v>
+        <v>0.146489</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322384</v>
+        <v>0.271799</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185137</v>
+        <v>0.185176</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441949</v>
+        <v>0.444909</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452927</v>
+        <v>0.448739</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206887</v>
+        <v>0.142831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321361</v>
+        <v>0.268537</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173724</v>
+        <v>0.178572</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409194</v>
+        <v>0.41145</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448389</v>
+        <v>0.443596</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206105</v>
+        <v>0.13878</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320525</v>
+        <v>0.265213</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171365</v>
+        <v>0.165614</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325018</v>
+        <v>0.326229</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441247</v>
+        <v>0.43574</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224713</v>
+        <v>0.189508</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336322</v>
+        <v>0.308057</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241006</v>
+        <v>0.240439</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478767</v>
+        <v>0.480933</v>
       </c>
       <c r="D95" t="n">
-        <v>0.422132</v>
+        <v>0.414398</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221477</v>
+        <v>0.185087</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333852</v>
+        <v>0.303356</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236891</v>
+        <v>0.235973</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354454</v>
+        <v>0.354611</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423552</v>
+        <v>0.426234</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219726</v>
+        <v>0.180978</v>
       </c>
       <c r="F96" t="n">
-        <v>0.330728</v>
+        <v>0.297341</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232382</v>
+        <v>0.232044</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349837</v>
+        <v>0.350531</v>
       </c>
       <c r="D97" t="n">
-        <v>0.405597</v>
+        <v>0.408305</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218326</v>
+        <v>0.177125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.328395</v>
+        <v>0.294199</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229574</v>
+        <v>0.229042</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345736</v>
+        <v>0.345844</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401539</v>
+        <v>0.404159</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216936</v>
+        <v>0.174465</v>
       </c>
       <c r="F98" t="n">
-        <v>0.326904</v>
+        <v>0.290582</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224339</v>
+        <v>0.22369</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340185</v>
+        <v>0.3412</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397842</v>
+        <v>0.400327</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215503</v>
+        <v>0.169246</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325631</v>
+        <v>0.287504</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218044</v>
+        <v>0.218426</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33502</v>
+        <v>0.335473</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40025</v>
+        <v>0.404002</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213887</v>
+        <v>0.165327</v>
       </c>
       <c r="F100" t="n">
-        <v>0.324933</v>
+        <v>0.284203</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212853</v>
+        <v>0.212686</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394261</v>
+        <v>0.394637</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385912</v>
+        <v>0.388672</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212073</v>
+        <v>0.161417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.32338</v>
+        <v>0.281036</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20764</v>
+        <v>0.207783</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366303</v>
+        <v>0.367268</v>
       </c>
       <c r="D102" t="n">
-        <v>0.383046</v>
+        <v>0.386463</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211313</v>
+        <v>0.158031</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322356</v>
+        <v>0.278053</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202565</v>
+        <v>0.202381</v>
       </c>
       <c r="C103" t="n">
-        <v>0.431119</v>
+        <v>0.433391</v>
       </c>
       <c r="D103" t="n">
-        <v>0.38107</v>
+        <v>0.384701</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210208</v>
+        <v>0.153718</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321237</v>
+        <v>0.275099</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197309</v>
+        <v>0.197344</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389164</v>
+        <v>0.39085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393786</v>
+        <v>0.396768</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209123</v>
+        <v>0.150563</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320443</v>
+        <v>0.271433</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192703</v>
+        <v>0.192262</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387519</v>
+        <v>0.38899</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391946</v>
+        <v>0.394631</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208125</v>
+        <v>0.146935</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320842</v>
+        <v>0.268226</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187166</v>
+        <v>0.186676</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363726</v>
+        <v>0.36361</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38562</v>
+        <v>0.387775</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206923</v>
+        <v>0.143485</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318609</v>
+        <v>0.265083</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180898</v>
+        <v>0.180901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391249</v>
+        <v>0.39386</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414839</v>
+        <v>0.41739</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206578</v>
+        <v>0.139697</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318042</v>
+        <v>0.261956</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173592</v>
+        <v>0.173494</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367711</v>
+        <v>0.369201</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411002</v>
+        <v>0.413461</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225377</v>
+        <v>0.191145</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333574</v>
+        <v>0.304756</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157576</v>
+        <v>0.157787</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328899</v>
+        <v>0.329445</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398261</v>
+        <v>0.392245</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222654</v>
+        <v>0.186072</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331271</v>
+        <v>0.301423</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238084</v>
+        <v>0.237122</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493874</v>
+        <v>0.495923</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398461</v>
+        <v>0.39199</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220439</v>
+        <v>0.182058</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329667</v>
+        <v>0.297224</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23378</v>
+        <v>0.232524</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49468</v>
+        <v>0.497021</v>
       </c>
       <c r="D111" t="n">
-        <v>0.384808</v>
+        <v>0.387783</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218671</v>
+        <v>0.177856</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328932</v>
+        <v>0.293927</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228874</v>
+        <v>0.22761</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493379</v>
+        <v>0.496053</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398083</v>
+        <v>0.390843</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21703</v>
+        <v>0.174149</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327765</v>
+        <v>0.291134</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223411</v>
+        <v>0.222389</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49166</v>
+        <v>0.494921</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395514</v>
+        <v>0.387682</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215311</v>
+        <v>0.170437</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326127</v>
+        <v>0.287784</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218023</v>
+        <v>0.216664</v>
       </c>
       <c r="C114" t="n">
-        <v>0.48826</v>
+        <v>0.491648</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392894</v>
+        <v>0.384876</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213837</v>
+        <v>0.166222</v>
       </c>
       <c r="F114" t="n">
-        <v>0.32536</v>
+        <v>0.285442</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212687</v>
+        <v>0.211594</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441477</v>
+        <v>0.443472</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383092</v>
+        <v>0.373654</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212533</v>
+        <v>0.162278</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324163</v>
+        <v>0.282363</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20634</v>
+        <v>0.206099</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445081</v>
+        <v>0.447472</v>
       </c>
       <c r="D116" t="n">
-        <v>0.367245</v>
+        <v>0.369986</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211504</v>
+        <v>0.158334</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323461</v>
+        <v>0.278454</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.201157</v>
+        <v>0.200771</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312737</v>
+        <v>0.312909</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374621</v>
+        <v>0.378177</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210245</v>
+        <v>0.154865</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322705</v>
+        <v>0.275174</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198963</v>
+        <v>0.198218</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436189</v>
+        <v>0.448962</v>
       </c>
       <c r="D118" t="n">
-        <v>0.367856</v>
+        <v>0.382948</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209234</v>
+        <v>0.15172</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321874</v>
+        <v>0.272538</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193526</v>
+        <v>0.193863</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428167</v>
+        <v>0.455915</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378087</v>
+        <v>0.395862</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207987</v>
+        <v>0.148038</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320122</v>
+        <v>0.269175</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188202</v>
+        <v>0.187961</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447219</v>
+        <v>0.475529</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371122</v>
+        <v>0.387024</v>
       </c>
       <c r="E120" t="n">
-        <v>0.20732</v>
+        <v>0.144409</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319888</v>
+        <v>0.265961</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182012</v>
+        <v>0.182058</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412973</v>
+        <v>0.437264</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457049</v>
+        <v>0.462605</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206505</v>
+        <v>0.141119</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319026</v>
+        <v>0.263355</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169649</v>
+        <v>0.169655</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367922</v>
+        <v>0.386122</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449197</v>
+        <v>0.472007</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205755</v>
+        <v>0.137334</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318222</v>
+        <v>0.259292</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16647</v>
+        <v>0.166279</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35522</v>
+        <v>0.371206</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431685</v>
+        <v>0.45127</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223069</v>
+        <v>0.187298</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332148</v>
+        <v>0.301087</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238661</v>
+        <v>0.238358</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429524</v>
+        <v>0.434301</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417153</v>
+        <v>0.430503</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220802</v>
+        <v>0.18278</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330367</v>
+        <v>0.298273</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234681</v>
+        <v>0.233708</v>
       </c>
       <c r="C125" t="n">
-        <v>0.469972</v>
+        <v>0.484459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412764</v>
+        <v>0.425369</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218843</v>
+        <v>0.178712</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328841</v>
+        <v>0.295201</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229597</v>
+        <v>0.228669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.455892</v>
+        <v>0.471363</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40667</v>
+        <v>0.430263</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217116</v>
+        <v>0.174972</v>
       </c>
       <c r="F126" t="n">
-        <v>0.327443</v>
+        <v>0.291772</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224571</v>
+        <v>0.223007</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429964</v>
+        <v>0.454298</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394613</v>
+        <v>0.413606</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215593</v>
+        <v>0.171248</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326121</v>
+        <v>0.288346</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218421</v>
+        <v>0.218225</v>
       </c>
       <c r="C128" t="n">
-        <v>0.454873</v>
+        <v>0.472971</v>
       </c>
       <c r="D128" t="n">
-        <v>0.398683</v>
+        <v>0.420652</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214216</v>
+        <v>0.167204</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324968</v>
+        <v>0.285362</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21347</v>
+        <v>0.214063</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375299</v>
+        <v>0.38053</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417697</v>
+        <v>0.429021</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212873</v>
+        <v>0.163338</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324189</v>
+        <v>0.282438</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207751</v>
+        <v>0.207827</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427108</v>
+        <v>0.427516</v>
       </c>
       <c r="D130" t="n">
-        <v>0.411372</v>
+        <v>0.401416</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211602</v>
+        <v>0.160614</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322645</v>
+        <v>0.280097</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204367</v>
+        <v>0.204334</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430129</v>
+        <v>0.43063</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412141</v>
+        <v>0.401833</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210411</v>
+        <v>0.156308</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322276</v>
+        <v>0.276085</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200025</v>
+        <v>0.200086</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358121</v>
+        <v>0.358013</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401472</v>
+        <v>0.38981</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209437</v>
+        <v>0.152617</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32046</v>
+        <v>0.274035</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190771</v>
+        <v>0.194356</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455985</v>
+        <v>0.45637</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377124</v>
+        <v>0.380124</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208425</v>
+        <v>0.149083</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319751</v>
+        <v>0.270025</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184923</v>
+        <v>0.189209</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412288</v>
+        <v>0.41289</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407241</v>
+        <v>0.394232</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207227</v>
+        <v>0.145047</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319589</v>
+        <v>0.266362</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18395</v>
+        <v>0.183529</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432271</v>
+        <v>0.432767</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44982</v>
+        <v>0.442689</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206585</v>
+        <v>0.141474</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3177</v>
+        <v>0.263451</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17138</v>
+        <v>0.174679</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394043</v>
+        <v>0.39429</v>
       </c>
       <c r="D136" t="n">
-        <v>0.437821</v>
+        <v>0.431233</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205801</v>
+        <v>0.137787</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317149</v>
+        <v>0.260541</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162429</v>
+        <v>0.162479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387207</v>
+        <v>0.387337</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417013</v>
+        <v>0.418617</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22352</v>
+        <v>0.188296</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332331</v>
+        <v>0.302448</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240913</v>
+        <v>0.240984</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46183</v>
+        <v>0.462147</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425602</v>
+        <v>0.427745</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221163</v>
+        <v>0.184035</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330729</v>
+        <v>0.298665</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236358</v>
+        <v>0.236568</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474479</v>
+        <v>0.47529</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429063</v>
+        <v>0.420884</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219193</v>
+        <v>0.179742</v>
       </c>
       <c r="F139" t="n">
-        <v>0.329914</v>
+        <v>0.295185</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231514</v>
+        <v>0.231768</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464012</v>
+        <v>0.46454</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426355</v>
+        <v>0.417653</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217464</v>
+        <v>0.175384</v>
       </c>
       <c r="F140" t="n">
-        <v>0.32868</v>
+        <v>0.292434</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22447</v>
+        <v>0.224865</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446345</v>
+        <v>0.447041</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411172</v>
+        <v>0.41362</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215914</v>
+        <v>0.171618</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326783</v>
+        <v>0.288848</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22105</v>
+        <v>0.221189</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383967</v>
+        <v>0.384339</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407645</v>
+        <v>0.410492</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214433</v>
+        <v>0.167653</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325394</v>
+        <v>0.28578</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215665</v>
+        <v>0.215773</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480403</v>
+        <v>0.481156</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404022</v>
+        <v>0.39444</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213105</v>
+        <v>0.163884</v>
       </c>
       <c r="F143" t="n">
-        <v>0.32422</v>
+        <v>0.282684</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198065</v>
+        <v>0.201016</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316101</v>
+        <v>0.315987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.314809</v>
+        <v>0.304413</v>
       </c>
       <c r="E2" t="n">
-        <v>0.105697</v>
+        <v>0.09518069999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.267703</v>
+        <v>0.259636</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194408</v>
+        <v>0.194673</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31552</v>
+        <v>0.313586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314121</v>
+        <v>0.307862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.10069</v>
+        <v>0.08801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.266318</v>
+        <v>0.257131</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187982</v>
+        <v>0.187173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312547</v>
+        <v>0.309179</v>
       </c>
       <c r="D4" t="n">
-        <v>0.319216</v>
+        <v>0.311705</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0963985</v>
+        <v>0.0870385</v>
       </c>
       <c r="F4" t="n">
-        <v>0.264263</v>
+        <v>0.256299</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182536</v>
+        <v>0.185131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303338</v>
+        <v>0.307171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315687</v>
+        <v>0.311446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.100082</v>
+        <v>0.0994239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.261479</v>
+        <v>0.252257</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181238</v>
+        <v>0.179433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301511</v>
+        <v>0.299603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.319075</v>
+        <v>0.313633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0952055</v>
+        <v>0.0961506</v>
       </c>
       <c r="F6" t="n">
-        <v>0.257989</v>
+        <v>0.248468</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.170372</v>
+        <v>0.171302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.294384</v>
+        <v>0.29596</v>
       </c>
       <c r="D7" t="n">
-        <v>0.309751</v>
+        <v>0.305011</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09357020000000001</v>
+        <v>0.0957378</v>
       </c>
       <c r="F7" t="n">
-        <v>0.255588</v>
+        <v>0.245443</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166191</v>
+        <v>0.168484</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281242</v>
+        <v>0.283165</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309992</v>
+        <v>0.304089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0896047</v>
+        <v>0.09222859999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.251904</v>
+        <v>0.241738</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158987</v>
+        <v>0.159578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278001</v>
+        <v>0.276524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.31067</v>
+        <v>0.309035</v>
       </c>
       <c r="E9" t="n">
-        <v>0.171924</v>
+        <v>0.168131</v>
       </c>
       <c r="F9" t="n">
-        <v>0.300387</v>
+        <v>0.288979</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237945</v>
+        <v>0.237005</v>
       </c>
       <c r="C10" t="n">
-        <v>0.353846</v>
+        <v>0.351155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30947</v>
+        <v>0.304527</v>
       </c>
       <c r="E10" t="n">
-        <v>0.166048</v>
+        <v>0.161611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.296438</v>
+        <v>0.286254</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233927</v>
+        <v>0.233856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.349072</v>
+        <v>0.347592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31148</v>
+        <v>0.306645</v>
       </c>
       <c r="E11" t="n">
-        <v>0.162019</v>
+        <v>0.158137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.29358</v>
+        <v>0.284513</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.227606</v>
+        <v>0.228834</v>
       </c>
       <c r="C12" t="n">
-        <v>0.344987</v>
+        <v>0.343641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.315283</v>
+        <v>0.308323</v>
       </c>
       <c r="E12" t="n">
-        <v>0.157484</v>
+        <v>0.15371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.289304</v>
+        <v>0.280944</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222298</v>
+        <v>0.221939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342338</v>
+        <v>0.339486</v>
       </c>
       <c r="D13" t="n">
-        <v>0.314369</v>
+        <v>0.310416</v>
       </c>
       <c r="E13" t="n">
-        <v>0.153495</v>
+        <v>0.150384</v>
       </c>
       <c r="F13" t="n">
-        <v>0.289162</v>
+        <v>0.279088</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.219538</v>
+        <v>0.218466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.339588</v>
+        <v>0.335867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.316413</v>
+        <v>0.310529</v>
       </c>
       <c r="E14" t="n">
-        <v>0.152214</v>
+        <v>0.145181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.284988</v>
+        <v>0.275644</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213881</v>
+        <v>0.212735</v>
       </c>
       <c r="C15" t="n">
-        <v>0.320359</v>
+        <v>0.329488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.317322</v>
+        <v>0.310366</v>
       </c>
       <c r="E15" t="n">
-        <v>0.148187</v>
+        <v>0.141214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.283304</v>
+        <v>0.272432</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208544</v>
+        <v>0.206481</v>
       </c>
       <c r="C16" t="n">
-        <v>0.325757</v>
+        <v>0.324027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.314295</v>
+        <v>0.310612</v>
       </c>
       <c r="E16" t="n">
-        <v>0.144552</v>
+        <v>0.138641</v>
       </c>
       <c r="F16" t="n">
-        <v>0.280694</v>
+        <v>0.268666</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.204075</v>
+        <v>0.200141</v>
       </c>
       <c r="C17" t="n">
-        <v>0.316152</v>
+        <v>0.317533</v>
       </c>
       <c r="D17" t="n">
-        <v>0.31816</v>
+        <v>0.314305</v>
       </c>
       <c r="E17" t="n">
-        <v>0.140442</v>
+        <v>0.135314</v>
       </c>
       <c r="F17" t="n">
-        <v>0.275813</v>
+        <v>0.26572</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199226</v>
+        <v>0.19418</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3159</v>
+        <v>0.317691</v>
       </c>
       <c r="D18" t="n">
-        <v>0.322574</v>
+        <v>0.314188</v>
       </c>
       <c r="E18" t="n">
-        <v>0.136674</v>
+        <v>0.132059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.273739</v>
+        <v>0.263095</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194481</v>
+        <v>0.194035</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30928</v>
+        <v>0.30634</v>
       </c>
       <c r="D19" t="n">
-        <v>0.32157</v>
+        <v>0.314224</v>
       </c>
       <c r="E19" t="n">
-        <v>0.134923</v>
+        <v>0.134676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.269843</v>
+        <v>0.259069</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188042</v>
+        <v>0.186981</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304357</v>
+        <v>0.301407</v>
       </c>
       <c r="D20" t="n">
-        <v>0.325699</v>
+        <v>0.315614</v>
       </c>
       <c r="E20" t="n">
-        <v>0.129981</v>
+        <v>0.13167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.267392</v>
+        <v>0.257403</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181436</v>
+        <v>0.182872</v>
       </c>
       <c r="C21" t="n">
-        <v>0.300759</v>
+        <v>0.30014</v>
       </c>
       <c r="D21" t="n">
-        <v>0.312763</v>
+        <v>0.310981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.12733</v>
+        <v>0.128305</v>
       </c>
       <c r="F21" t="n">
-        <v>0.262872</v>
+        <v>0.253353</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169673</v>
+        <v>0.172469</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290153</v>
+        <v>0.288618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.313383</v>
+        <v>0.311278</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124111</v>
+        <v>0.124788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.25948</v>
+        <v>0.249583</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16607</v>
+        <v>0.16621</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277526</v>
+        <v>0.277274</v>
       </c>
       <c r="D23" t="n">
-        <v>0.314978</v>
+        <v>0.309179</v>
       </c>
       <c r="E23" t="n">
-        <v>0.183195</v>
+        <v>0.181023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.304623</v>
+        <v>0.295686</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240599</v>
+        <v>0.239539</v>
       </c>
       <c r="C24" t="n">
-        <v>0.343002</v>
+        <v>0.349884</v>
       </c>
       <c r="D24" t="n">
-        <v>0.315062</v>
+        <v>0.310839</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17629</v>
+        <v>0.173375</v>
       </c>
       <c r="F24" t="n">
-        <v>0.300553</v>
+        <v>0.291446</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.232973</v>
+        <v>0.235251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.348475</v>
+        <v>0.346216</v>
       </c>
       <c r="D25" t="n">
-        <v>0.319088</v>
+        <v>0.310189</v>
       </c>
       <c r="E25" t="n">
-        <v>0.17135</v>
+        <v>0.168285</v>
       </c>
       <c r="F25" t="n">
-        <v>0.298517</v>
+        <v>0.289252</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231396</v>
+        <v>0.231606</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345136</v>
+        <v>0.343407</v>
       </c>
       <c r="D26" t="n">
-        <v>0.31632</v>
+        <v>0.310648</v>
       </c>
       <c r="E26" t="n">
-        <v>0.168102</v>
+        <v>0.164422</v>
       </c>
       <c r="F26" t="n">
-        <v>0.294847</v>
+        <v>0.285917</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.226807</v>
+        <v>0.224561</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343722</v>
+        <v>0.338713</v>
       </c>
       <c r="D27" t="n">
-        <v>0.315997</v>
+        <v>0.310894</v>
       </c>
       <c r="E27" t="n">
-        <v>0.163591</v>
+        <v>0.164285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.293203</v>
+        <v>0.281585</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220505</v>
+        <v>0.219058</v>
       </c>
       <c r="C28" t="n">
-        <v>0.340089</v>
+        <v>0.333656</v>
       </c>
       <c r="D28" t="n">
-        <v>0.31607</v>
+        <v>0.314184</v>
       </c>
       <c r="E28" t="n">
-        <v>0.160395</v>
+        <v>0.160562</v>
       </c>
       <c r="F28" t="n">
-        <v>0.289487</v>
+        <v>0.278833</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215935</v>
+        <v>0.215799</v>
       </c>
       <c r="C29" t="n">
-        <v>0.33461</v>
+        <v>0.329191</v>
       </c>
       <c r="D29" t="n">
-        <v>0.317532</v>
+        <v>0.31488</v>
       </c>
       <c r="E29" t="n">
-        <v>0.157885</v>
+        <v>0.157703</v>
       </c>
       <c r="F29" t="n">
-        <v>0.285829</v>
+        <v>0.277113</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.21116</v>
+        <v>0.208209</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3318</v>
+        <v>0.319852</v>
       </c>
       <c r="D30" t="n">
-        <v>0.320507</v>
+        <v>0.315539</v>
       </c>
       <c r="E30" t="n">
-        <v>0.153696</v>
+        <v>0.153285</v>
       </c>
       <c r="F30" t="n">
-        <v>0.283759</v>
+        <v>0.273374</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205292</v>
+        <v>0.203</v>
       </c>
       <c r="C31" t="n">
-        <v>0.323398</v>
+        <v>0.322078</v>
       </c>
       <c r="D31" t="n">
-        <v>0.322629</v>
+        <v>0.316486</v>
       </c>
       <c r="E31" t="n">
-        <v>0.149424</v>
+        <v>0.149474</v>
       </c>
       <c r="F31" t="n">
-        <v>0.280862</v>
+        <v>0.27087</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196954</v>
+        <v>0.199789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.32276</v>
+        <v>0.320511</v>
       </c>
       <c r="D32" t="n">
-        <v>0.324346</v>
+        <v>0.316706</v>
       </c>
       <c r="E32" t="n">
-        <v>0.145796</v>
+        <v>0.147019</v>
       </c>
       <c r="F32" t="n">
-        <v>0.27729</v>
+        <v>0.266573</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195894</v>
+        <v>0.195769</v>
       </c>
       <c r="C33" t="n">
-        <v>0.311892</v>
+        <v>0.308069</v>
       </c>
       <c r="D33" t="n">
-        <v>0.323328</v>
+        <v>0.317946</v>
       </c>
       <c r="E33" t="n">
-        <v>0.141768</v>
+        <v>0.143072</v>
       </c>
       <c r="F33" t="n">
-        <v>0.273975</v>
+        <v>0.263078</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.190358</v>
+        <v>0.190305</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309114</v>
+        <v>0.305221</v>
       </c>
       <c r="D34" t="n">
-        <v>0.327102</v>
+        <v>0.321187</v>
       </c>
       <c r="E34" t="n">
-        <v>0.140093</v>
+        <v>0.139954</v>
       </c>
       <c r="F34" t="n">
-        <v>0.270336</v>
+        <v>0.259476</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185069</v>
+        <v>0.179705</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302888</v>
+        <v>0.300188</v>
       </c>
       <c r="D35" t="n">
-        <v>0.31764</v>
+        <v>0.316481</v>
       </c>
       <c r="E35" t="n">
-        <v>0.135118</v>
+        <v>0.136086</v>
       </c>
       <c r="F35" t="n">
-        <v>0.26644</v>
+        <v>0.256542</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178316</v>
+        <v>0.177367</v>
       </c>
       <c r="C36" t="n">
-        <v>0.291833</v>
+        <v>0.294214</v>
       </c>
       <c r="D36" t="n">
-        <v>0.316961</v>
+        <v>0.315903</v>
       </c>
       <c r="E36" t="n">
-        <v>0.130804</v>
+        <v>0.131956</v>
       </c>
       <c r="F36" t="n">
-        <v>0.262853</v>
+        <v>0.252481</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.169474</v>
+        <v>0.170029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.277652</v>
+        <v>0.279783</v>
       </c>
       <c r="D37" t="n">
-        <v>0.316603</v>
+        <v>0.315322</v>
       </c>
       <c r="E37" t="n">
-        <v>0.184558</v>
+        <v>0.185545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.309914</v>
+        <v>0.298936</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.239422</v>
+        <v>0.241451</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352062</v>
+        <v>0.352577</v>
       </c>
       <c r="D38" t="n">
-        <v>0.315429</v>
+        <v>0.314908</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179585</v>
+        <v>0.180471</v>
       </c>
       <c r="F38" t="n">
-        <v>0.305824</v>
+        <v>0.295412</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23581</v>
+        <v>0.238986</v>
       </c>
       <c r="C39" t="n">
-        <v>0.34901</v>
+        <v>0.349361</v>
       </c>
       <c r="D39" t="n">
-        <v>0.318815</v>
+        <v>0.311981</v>
       </c>
       <c r="E39" t="n">
-        <v>0.177006</v>
+        <v>0.17356</v>
       </c>
       <c r="F39" t="n">
-        <v>0.301825</v>
+        <v>0.292199</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232391</v>
+        <v>0.231717</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345523</v>
+        <v>0.345148</v>
       </c>
       <c r="D40" t="n">
-        <v>0.319323</v>
+        <v>0.312279</v>
       </c>
       <c r="E40" t="n">
-        <v>0.172221</v>
+        <v>0.16872</v>
       </c>
       <c r="F40" t="n">
-        <v>0.298017</v>
+        <v>0.288215</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228245</v>
+        <v>0.228531</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34172</v>
+        <v>0.341382</v>
       </c>
       <c r="D41" t="n">
-        <v>0.319639</v>
+        <v>0.313267</v>
       </c>
       <c r="E41" t="n">
-        <v>0.168231</v>
+        <v>0.164795</v>
       </c>
       <c r="F41" t="n">
-        <v>0.294309</v>
+        <v>0.285054</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224171</v>
+        <v>0.223007</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337078</v>
+        <v>0.336653</v>
       </c>
       <c r="D42" t="n">
-        <v>0.320128</v>
+        <v>0.314521</v>
       </c>
       <c r="E42" t="n">
-        <v>0.163951</v>
+        <v>0.160526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.292194</v>
+        <v>0.281299</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216736</v>
+        <v>0.215666</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332493</v>
+        <v>0.331145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.317973</v>
+        <v>0.314077</v>
       </c>
       <c r="E43" t="n">
-        <v>0.160322</v>
+        <v>0.156996</v>
       </c>
       <c r="F43" t="n">
-        <v>0.289783</v>
+        <v>0.278661</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.21393</v>
+        <v>0.210828</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325924</v>
+        <v>0.324704</v>
       </c>
       <c r="D44" t="n">
-        <v>0.322805</v>
+        <v>0.31487</v>
       </c>
       <c r="E44" t="n">
-        <v>0.156647</v>
+        <v>0.153972</v>
       </c>
       <c r="F44" t="n">
-        <v>0.28651</v>
+        <v>0.275461</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.208633</v>
+        <v>0.204811</v>
       </c>
       <c r="C45" t="n">
-        <v>0.323936</v>
+        <v>0.33538</v>
       </c>
       <c r="D45" t="n">
-        <v>0.321619</v>
+        <v>0.316349</v>
       </c>
       <c r="E45" t="n">
-        <v>0.15286</v>
+        <v>0.14973</v>
       </c>
       <c r="F45" t="n">
-        <v>0.282819</v>
+        <v>0.272128</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202322</v>
+        <v>0.199574</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322934</v>
+        <v>0.322838</v>
       </c>
       <c r="D46" t="n">
-        <v>0.32068</v>
+        <v>0.316194</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149407</v>
+        <v>0.146508</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278244</v>
+        <v>0.268115</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197453</v>
+        <v>0.197387</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3136</v>
+        <v>0.325216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323765</v>
+        <v>0.321014</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147446</v>
+        <v>0.147635</v>
       </c>
       <c r="F47" t="n">
-        <v>0.27531</v>
+        <v>0.265679</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192256</v>
+        <v>0.19283</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307101</v>
+        <v>0.307083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.324344</v>
+        <v>0.321981</v>
       </c>
       <c r="E48" t="n">
-        <v>0.143852</v>
+        <v>0.144065</v>
       </c>
       <c r="F48" t="n">
-        <v>0.27271</v>
+        <v>0.261397</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1829</v>
+        <v>0.186895</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302474</v>
+        <v>0.307326</v>
       </c>
       <c r="D49" t="n">
-        <v>0.327501</v>
+        <v>0.323691</v>
       </c>
       <c r="E49" t="n">
-        <v>0.140086</v>
+        <v>0.140153</v>
       </c>
       <c r="F49" t="n">
-        <v>0.269566</v>
+        <v>0.257932</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175325</v>
+        <v>0.180687</v>
       </c>
       <c r="C50" t="n">
-        <v>0.298622</v>
+        <v>0.299166</v>
       </c>
       <c r="D50" t="n">
-        <v>0.320366</v>
+        <v>0.32074</v>
       </c>
       <c r="E50" t="n">
-        <v>0.135858</v>
+        <v>0.136427</v>
       </c>
       <c r="F50" t="n">
-        <v>0.264872</v>
+        <v>0.254373</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.172904</v>
+        <v>0.168514</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284526</v>
+        <v>0.291608</v>
       </c>
       <c r="D51" t="n">
-        <v>0.321717</v>
+        <v>0.318647</v>
       </c>
       <c r="E51" t="n">
-        <v>0.187951</v>
+        <v>0.190104</v>
       </c>
       <c r="F51" t="n">
-        <v>0.31033</v>
+        <v>0.301453</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.164582</v>
+        <v>0.165012</v>
       </c>
       <c r="C52" t="n">
-        <v>0.282485</v>
+        <v>0.280117</v>
       </c>
       <c r="D52" t="n">
-        <v>0.321608</v>
+        <v>0.321093</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183442</v>
+        <v>0.180491</v>
       </c>
       <c r="F52" t="n">
-        <v>0.305959</v>
+        <v>0.29634</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237366</v>
+        <v>0.240226</v>
       </c>
       <c r="C53" t="n">
-        <v>0.353448</v>
+        <v>0.353075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.324277</v>
+        <v>0.320247</v>
       </c>
       <c r="E53" t="n">
-        <v>0.179386</v>
+        <v>0.176019</v>
       </c>
       <c r="F53" t="n">
-        <v>0.303037</v>
+        <v>0.293477</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.234003</v>
+        <v>0.233646</v>
       </c>
       <c r="C54" t="n">
-        <v>0.35053</v>
+        <v>0.349945</v>
       </c>
       <c r="D54" t="n">
-        <v>0.323755</v>
+        <v>0.322547</v>
       </c>
       <c r="E54" t="n">
-        <v>0.175049</v>
+        <v>0.172317</v>
       </c>
       <c r="F54" t="n">
-        <v>0.300442</v>
+        <v>0.289936</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.228379</v>
+        <v>0.231009</v>
       </c>
       <c r="C55" t="n">
-        <v>0.348011</v>
+        <v>0.347317</v>
       </c>
       <c r="D55" t="n">
-        <v>0.324289</v>
+        <v>0.323376</v>
       </c>
       <c r="E55" t="n">
-        <v>0.171286</v>
+        <v>0.168409</v>
       </c>
       <c r="F55" t="n">
-        <v>0.296333</v>
+        <v>0.286969</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222981</v>
+        <v>0.222754</v>
       </c>
       <c r="C56" t="n">
-        <v>0.34361</v>
+        <v>0.343451</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325456</v>
+        <v>0.325487</v>
       </c>
       <c r="E56" t="n">
-        <v>0.168094</v>
+        <v>0.16408</v>
       </c>
       <c r="F56" t="n">
-        <v>0.292622</v>
+        <v>0.283326</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219273</v>
+        <v>0.217737</v>
       </c>
       <c r="C57" t="n">
-        <v>0.338084</v>
+        <v>0.339826</v>
       </c>
       <c r="D57" t="n">
-        <v>0.329167</v>
+        <v>0.323735</v>
       </c>
       <c r="E57" t="n">
-        <v>0.163519</v>
+        <v>0.160691</v>
       </c>
       <c r="F57" t="n">
-        <v>0.28982</v>
+        <v>0.28016</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.213371</v>
+        <v>0.212559</v>
       </c>
       <c r="C58" t="n">
-        <v>0.32404</v>
+        <v>0.359321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.329939</v>
+        <v>0.328885</v>
       </c>
       <c r="E58" t="n">
-        <v>0.159355</v>
+        <v>0.156916</v>
       </c>
       <c r="F58" t="n">
-        <v>0.286233</v>
+        <v>0.276721</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206207</v>
+        <v>0.206688</v>
       </c>
       <c r="C59" t="n">
-        <v>0.329017</v>
+        <v>0.328549</v>
       </c>
       <c r="D59" t="n">
-        <v>0.332226</v>
+        <v>0.330008</v>
       </c>
       <c r="E59" t="n">
-        <v>0.155765</v>
+        <v>0.153423</v>
       </c>
       <c r="F59" t="n">
-        <v>0.283475</v>
+        <v>0.273318</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.204174</v>
+        <v>0.201166</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32324</v>
+        <v>0.328923</v>
       </c>
       <c r="D60" t="n">
-        <v>0.33713</v>
+        <v>0.334391</v>
       </c>
       <c r="E60" t="n">
-        <v>0.152107</v>
+        <v>0.149829</v>
       </c>
       <c r="F60" t="n">
-        <v>0.280267</v>
+        <v>0.269657</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198769</v>
+        <v>0.195329</v>
       </c>
       <c r="C61" t="n">
-        <v>0.339443</v>
+        <v>0.344731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33929</v>
+        <v>0.333776</v>
       </c>
       <c r="E61" t="n">
-        <v>0.148666</v>
+        <v>0.146555</v>
       </c>
       <c r="F61" t="n">
-        <v>0.276862</v>
+        <v>0.266691</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190025</v>
+        <v>0.189487</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310048</v>
+        <v>0.314251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.341046</v>
+        <v>0.336582</v>
       </c>
       <c r="E62" t="n">
-        <v>0.145697</v>
+        <v>0.143145</v>
       </c>
       <c r="F62" t="n">
-        <v>0.273871</v>
+        <v>0.263368</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188347</v>
+        <v>0.187702</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321299</v>
+        <v>0.344043</v>
       </c>
       <c r="D63" t="n">
-        <v>0.345102</v>
+        <v>0.340132</v>
       </c>
       <c r="E63" t="n">
-        <v>0.141952</v>
+        <v>0.139258</v>
       </c>
       <c r="F63" t="n">
-        <v>0.270746</v>
+        <v>0.260231</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177693</v>
+        <v>0.182203</v>
       </c>
       <c r="C64" t="n">
-        <v>0.317325</v>
+        <v>0.317257</v>
       </c>
       <c r="D64" t="n">
-        <v>0.376114</v>
+        <v>0.38586</v>
       </c>
       <c r="E64" t="n">
-        <v>0.13787</v>
+        <v>0.135385</v>
       </c>
       <c r="F64" t="n">
-        <v>0.266822</v>
+        <v>0.256327</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.169641</v>
+        <v>0.175288</v>
       </c>
       <c r="C65" t="n">
-        <v>0.286103</v>
+        <v>0.326511</v>
       </c>
       <c r="D65" t="n">
-        <v>0.376836</v>
+        <v>0.387302</v>
       </c>
       <c r="E65" t="n">
-        <v>0.135144</v>
+        <v>0.135932</v>
       </c>
       <c r="F65" t="n">
-        <v>0.263301</v>
+        <v>0.252673</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161683</v>
+        <v>0.167283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307113</v>
+        <v>0.306028</v>
       </c>
       <c r="D66" t="n">
-        <v>0.381154</v>
+        <v>0.389833</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185775</v>
+        <v>0.188917</v>
       </c>
       <c r="F66" t="n">
-        <v>0.307381</v>
+        <v>0.298344</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239245</v>
+        <v>0.238936</v>
       </c>
       <c r="C67" t="n">
-        <v>0.382015</v>
+        <v>0.389377</v>
       </c>
       <c r="D67" t="n">
-        <v>0.371344</v>
+        <v>0.394344</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183283</v>
+        <v>0.183733</v>
       </c>
       <c r="F67" t="n">
-        <v>0.303716</v>
+        <v>0.294512</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234822</v>
+        <v>0.234221</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380782</v>
+        <v>0.353067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.382011</v>
+        <v>0.389843</v>
       </c>
       <c r="E68" t="n">
-        <v>0.17735</v>
+        <v>0.1785</v>
       </c>
       <c r="F68" t="n">
-        <v>0.301242</v>
+        <v>0.290626</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230087</v>
+        <v>0.231563</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375415</v>
+        <v>0.38066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.383297</v>
+        <v>0.390372</v>
       </c>
       <c r="E69" t="n">
-        <v>0.17357</v>
+        <v>0.170269</v>
       </c>
       <c r="F69" t="n">
-        <v>0.297942</v>
+        <v>0.286784</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226846</v>
+        <v>0.226599</v>
       </c>
       <c r="C70" t="n">
-        <v>0.370832</v>
+        <v>0.377028</v>
       </c>
       <c r="D70" t="n">
-        <v>0.385063</v>
+        <v>0.390836</v>
       </c>
       <c r="E70" t="n">
-        <v>0.170282</v>
+        <v>0.166512</v>
       </c>
       <c r="F70" t="n">
-        <v>0.294499</v>
+        <v>0.283505</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.218822</v>
+        <v>0.219548</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365284</v>
+        <v>0.37274</v>
       </c>
       <c r="D71" t="n">
-        <v>0.373488</v>
+        <v>0.385902</v>
       </c>
       <c r="E71" t="n">
-        <v>0.166275</v>
+        <v>0.166212</v>
       </c>
       <c r="F71" t="n">
-        <v>0.290238</v>
+        <v>0.280181</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.21449</v>
+        <v>0.216197</v>
       </c>
       <c r="C72" t="n">
-        <v>0.390091</v>
+        <v>0.358227</v>
       </c>
       <c r="D72" t="n">
-        <v>0.375792</v>
+        <v>0.395407</v>
       </c>
       <c r="E72" t="n">
-        <v>0.162222</v>
+        <v>0.162732</v>
       </c>
       <c r="F72" t="n">
-        <v>0.288246</v>
+        <v>0.277161</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210204</v>
+        <v>0.208309</v>
       </c>
       <c r="C73" t="n">
-        <v>0.440691</v>
+        <v>0.436778</v>
       </c>
       <c r="D73" t="n">
-        <v>0.387171</v>
+        <v>0.389546</v>
       </c>
       <c r="E73" t="n">
-        <v>0.158494</v>
+        <v>0.15871</v>
       </c>
       <c r="F73" t="n">
-        <v>0.283928</v>
+        <v>0.273883</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202605</v>
+        <v>0.2025</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50785</v>
+        <v>0.442504</v>
       </c>
       <c r="D74" t="n">
-        <v>0.386016</v>
+        <v>0.394444</v>
       </c>
       <c r="E74" t="n">
-        <v>0.155266</v>
+        <v>0.155712</v>
       </c>
       <c r="F74" t="n">
-        <v>0.281004</v>
+        <v>0.269815</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.196992</v>
+        <v>0.199797</v>
       </c>
       <c r="C75" t="n">
-        <v>0.38326</v>
+        <v>0.451184</v>
       </c>
       <c r="D75" t="n">
-        <v>0.376096</v>
+        <v>0.386697</v>
       </c>
       <c r="E75" t="n">
-        <v>0.15177</v>
+        <v>0.152251</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277643</v>
+        <v>0.266901</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195107</v>
+        <v>0.191179</v>
       </c>
       <c r="C76" t="n">
-        <v>0.413785</v>
+        <v>0.484866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.377115</v>
+        <v>0.378629</v>
       </c>
       <c r="E76" t="n">
-        <v>0.147526</v>
+        <v>0.145406</v>
       </c>
       <c r="F76" t="n">
-        <v>0.274591</v>
+        <v>0.263127</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189388</v>
+        <v>0.189686</v>
       </c>
       <c r="C77" t="n">
-        <v>0.419216</v>
+        <v>0.471254</v>
       </c>
       <c r="D77" t="n">
-        <v>0.386667</v>
+        <v>0.392081</v>
       </c>
       <c r="E77" t="n">
-        <v>0.144146</v>
+        <v>0.141871</v>
       </c>
       <c r="F77" t="n">
-        <v>0.271008</v>
+        <v>0.259594</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183353</v>
+        <v>0.179476</v>
       </c>
       <c r="C78" t="n">
-        <v>0.415706</v>
+        <v>0.376272</v>
       </c>
       <c r="D78" t="n">
-        <v>0.438276</v>
+        <v>0.451137</v>
       </c>
       <c r="E78" t="n">
-        <v>0.14111</v>
+        <v>0.138212</v>
       </c>
       <c r="F78" t="n">
-        <v>0.267827</v>
+        <v>0.256523</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177147</v>
+        <v>0.171839</v>
       </c>
       <c r="C79" t="n">
-        <v>0.411401</v>
+        <v>0.351142</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423522</v>
+        <v>0.441101</v>
       </c>
       <c r="E79" t="n">
-        <v>0.137191</v>
+        <v>0.138255</v>
       </c>
       <c r="F79" t="n">
-        <v>0.264296</v>
+        <v>0.253156</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169123</v>
+        <v>0.163267</v>
       </c>
       <c r="C80" t="n">
-        <v>0.392479</v>
+        <v>0.448283</v>
       </c>
       <c r="D80" t="n">
-        <v>0.436011</v>
+        <v>0.45161</v>
       </c>
       <c r="E80" t="n">
-        <v>0.187908</v>
+        <v>0.189632</v>
       </c>
       <c r="F80" t="n">
-        <v>0.30766</v>
+        <v>0.297716</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.239857</v>
+        <v>0.240246</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373532</v>
+        <v>0.37538</v>
       </c>
       <c r="D81" t="n">
-        <v>0.415414</v>
+        <v>0.434026</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1847</v>
+        <v>0.186841</v>
       </c>
       <c r="F81" t="n">
-        <v>0.305186</v>
+        <v>0.294287</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237982</v>
+        <v>0.237883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370214</v>
+        <v>0.373157</v>
       </c>
       <c r="D82" t="n">
-        <v>0.425945</v>
+        <v>0.428858</v>
       </c>
       <c r="E82" t="n">
-        <v>0.179779</v>
+        <v>0.178045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.300632</v>
+        <v>0.290653</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233041</v>
+        <v>0.233804</v>
       </c>
       <c r="C83" t="n">
-        <v>0.365456</v>
+        <v>0.368843</v>
       </c>
       <c r="D83" t="n">
-        <v>0.40927</v>
+        <v>0.441329</v>
       </c>
       <c r="E83" t="n">
-        <v>0.176391</v>
+        <v>0.172741</v>
       </c>
       <c r="F83" t="n">
-        <v>0.297229</v>
+        <v>0.287452</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227237</v>
+        <v>0.228079</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359805</v>
+        <v>0.363006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.407378</v>
+        <v>0.439401</v>
       </c>
       <c r="E84" t="n">
-        <v>0.171959</v>
+        <v>0.172393</v>
       </c>
       <c r="F84" t="n">
-        <v>0.294072</v>
+        <v>0.284278</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223085</v>
+        <v>0.223133</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354941</v>
+        <v>0.357132</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403138</v>
+        <v>0.43275</v>
       </c>
       <c r="E85" t="n">
-        <v>0.168213</v>
+        <v>0.168007</v>
       </c>
       <c r="F85" t="n">
-        <v>0.290519</v>
+        <v>0.281004</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215442</v>
+        <v>0.217545</v>
       </c>
       <c r="C86" t="n">
-        <v>0.349052</v>
+        <v>0.351165</v>
       </c>
       <c r="D86" t="n">
-        <v>0.413189</v>
+        <v>0.415622</v>
       </c>
       <c r="E86" t="n">
-        <v>0.164279</v>
+        <v>0.164381</v>
       </c>
       <c r="F86" t="n">
-        <v>0.287851</v>
+        <v>0.277592</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.209282</v>
+        <v>0.211987</v>
       </c>
       <c r="C87" t="n">
-        <v>0.35431</v>
+        <v>0.433753</v>
       </c>
       <c r="D87" t="n">
-        <v>0.41133</v>
+        <v>0.424619</v>
       </c>
       <c r="E87" t="n">
-        <v>0.160484</v>
+        <v>0.160975</v>
       </c>
       <c r="F87" t="n">
-        <v>0.284651</v>
+        <v>0.274848</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206718</v>
+        <v>0.206523</v>
       </c>
       <c r="C88" t="n">
-        <v>0.429615</v>
+        <v>0.384655</v>
       </c>
       <c r="D88" t="n">
-        <v>0.408127</v>
+        <v>0.42118</v>
       </c>
       <c r="E88" t="n">
-        <v>0.156924</v>
+        <v>0.157383</v>
       </c>
       <c r="F88" t="n">
-        <v>0.281417</v>
+        <v>0.271198</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201213</v>
+        <v>0.201676</v>
       </c>
       <c r="C89" t="n">
-        <v>0.413287</v>
+        <v>0.446435</v>
       </c>
       <c r="D89" t="n">
-        <v>0.405386</v>
+        <v>0.419392</v>
       </c>
       <c r="E89" t="n">
-        <v>0.153659</v>
+        <v>0.154081</v>
       </c>
       <c r="F89" t="n">
-        <v>0.278062</v>
+        <v>0.268014</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196258</v>
+        <v>0.196199</v>
       </c>
       <c r="C90" t="n">
-        <v>0.396032</v>
+        <v>0.421739</v>
       </c>
       <c r="D90" t="n">
-        <v>0.405691</v>
+        <v>0.415566</v>
       </c>
       <c r="E90" t="n">
-        <v>0.14994</v>
+        <v>0.150853</v>
       </c>
       <c r="F90" t="n">
-        <v>0.275097</v>
+        <v>0.264541</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191427</v>
+        <v>0.190973</v>
       </c>
       <c r="C91" t="n">
-        <v>0.414182</v>
+        <v>0.418964</v>
       </c>
       <c r="D91" t="n">
-        <v>0.401857</v>
+        <v>0.412905</v>
       </c>
       <c r="E91" t="n">
-        <v>0.146489</v>
+        <v>0.147367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.271799</v>
+        <v>0.261134</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185176</v>
+        <v>0.185625</v>
       </c>
       <c r="C92" t="n">
-        <v>0.444909</v>
+        <v>0.346739</v>
       </c>
       <c r="D92" t="n">
-        <v>0.448739</v>
+        <v>0.476869</v>
       </c>
       <c r="E92" t="n">
-        <v>0.142831</v>
+        <v>0.143737</v>
       </c>
       <c r="F92" t="n">
-        <v>0.268537</v>
+        <v>0.257926</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.178572</v>
+        <v>0.173235</v>
       </c>
       <c r="C93" t="n">
-        <v>0.41145</v>
+        <v>0.413468</v>
       </c>
       <c r="D93" t="n">
-        <v>0.443596</v>
+        <v>0.471825</v>
       </c>
       <c r="E93" t="n">
-        <v>0.13878</v>
+        <v>0.139852</v>
       </c>
       <c r="F93" t="n">
-        <v>0.265213</v>
+        <v>0.254213</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165614</v>
+        <v>0.165831</v>
       </c>
       <c r="C94" t="n">
-        <v>0.326229</v>
+        <v>0.359946</v>
       </c>
       <c r="D94" t="n">
-        <v>0.43574</v>
+        <v>0.466892</v>
       </c>
       <c r="E94" t="n">
-        <v>0.189508</v>
+        <v>0.190993</v>
       </c>
       <c r="F94" t="n">
-        <v>0.308057</v>
+        <v>0.299148</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.240439</v>
+        <v>0.242903</v>
       </c>
       <c r="C95" t="n">
-        <v>0.480933</v>
+        <v>0.518908</v>
       </c>
       <c r="D95" t="n">
-        <v>0.414398</v>
+        <v>0.445876</v>
       </c>
       <c r="E95" t="n">
-        <v>0.185087</v>
+        <v>0.182776</v>
       </c>
       <c r="F95" t="n">
-        <v>0.303356</v>
+        <v>0.291513</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.235973</v>
+        <v>0.238445</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354611</v>
+        <v>0.357464</v>
       </c>
       <c r="D96" t="n">
-        <v>0.426234</v>
+        <v>0.424425</v>
       </c>
       <c r="E96" t="n">
-        <v>0.180978</v>
+        <v>0.178243</v>
       </c>
       <c r="F96" t="n">
-        <v>0.297341</v>
+        <v>0.288331</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232044</v>
+        <v>0.234249</v>
       </c>
       <c r="C97" t="n">
-        <v>0.350531</v>
+        <v>0.353424</v>
       </c>
       <c r="D97" t="n">
-        <v>0.408305</v>
+        <v>0.420924</v>
       </c>
       <c r="E97" t="n">
-        <v>0.177125</v>
+        <v>0.173972</v>
       </c>
       <c r="F97" t="n">
-        <v>0.294199</v>
+        <v>0.284737</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229042</v>
+        <v>0.228893</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345844</v>
+        <v>0.348976</v>
       </c>
       <c r="D98" t="n">
-        <v>0.404159</v>
+        <v>0.414741</v>
       </c>
       <c r="E98" t="n">
-        <v>0.174465</v>
+        <v>0.169865</v>
       </c>
       <c r="F98" t="n">
-        <v>0.290582</v>
+        <v>0.281359</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.22369</v>
+        <v>0.223588</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3412</v>
+        <v>0.344034</v>
       </c>
       <c r="D99" t="n">
-        <v>0.400327</v>
+        <v>0.41517</v>
       </c>
       <c r="E99" t="n">
-        <v>0.169246</v>
+        <v>0.16575</v>
       </c>
       <c r="F99" t="n">
-        <v>0.287504</v>
+        <v>0.278226</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218426</v>
+        <v>0.218651</v>
       </c>
       <c r="C100" t="n">
-        <v>0.335473</v>
+        <v>0.338836</v>
       </c>
       <c r="D100" t="n">
-        <v>0.404002</v>
+        <v>0.425163</v>
       </c>
       <c r="E100" t="n">
-        <v>0.165327</v>
+        <v>0.162031</v>
       </c>
       <c r="F100" t="n">
-        <v>0.284203</v>
+        <v>0.274972</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212686</v>
+        <v>0.210725</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394637</v>
+        <v>0.475061</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388672</v>
+        <v>0.403655</v>
       </c>
       <c r="E101" t="n">
-        <v>0.161417</v>
+        <v>0.158362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281036</v>
+        <v>0.272255</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207783</v>
+        <v>0.205258</v>
       </c>
       <c r="C102" t="n">
-        <v>0.367268</v>
+        <v>0.48245</v>
       </c>
       <c r="D102" t="n">
-        <v>0.386463</v>
+        <v>0.397811</v>
       </c>
       <c r="E102" t="n">
-        <v>0.158031</v>
+        <v>0.158289</v>
       </c>
       <c r="F102" t="n">
-        <v>0.278053</v>
+        <v>0.268653</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202381</v>
+        <v>0.199706</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433391</v>
+        <v>0.430071</v>
       </c>
       <c r="D103" t="n">
-        <v>0.384701</v>
+        <v>0.394602</v>
       </c>
       <c r="E103" t="n">
-        <v>0.153718</v>
+        <v>0.151053</v>
       </c>
       <c r="F103" t="n">
-        <v>0.275099</v>
+        <v>0.265112</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197344</v>
+        <v>0.194106</v>
       </c>
       <c r="C104" t="n">
-        <v>0.39085</v>
+        <v>0.415995</v>
       </c>
       <c r="D104" t="n">
-        <v>0.396768</v>
+        <v>0.408851</v>
       </c>
       <c r="E104" t="n">
-        <v>0.150563</v>
+        <v>0.148069</v>
       </c>
       <c r="F104" t="n">
-        <v>0.271433</v>
+        <v>0.261598</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192262</v>
+        <v>0.188859</v>
       </c>
       <c r="C105" t="n">
-        <v>0.38899</v>
+        <v>0.306582</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394631</v>
+        <v>0.401669</v>
       </c>
       <c r="E105" t="n">
-        <v>0.146935</v>
+        <v>0.144654</v>
       </c>
       <c r="F105" t="n">
-        <v>0.268226</v>
+        <v>0.258556</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.186676</v>
+        <v>0.182578</v>
       </c>
       <c r="C106" t="n">
-        <v>0.36361</v>
+        <v>0.406099</v>
       </c>
       <c r="D106" t="n">
-        <v>0.387775</v>
+        <v>0.400412</v>
       </c>
       <c r="E106" t="n">
-        <v>0.143485</v>
+        <v>0.14112</v>
       </c>
       <c r="F106" t="n">
-        <v>0.265083</v>
+        <v>0.255176</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180901</v>
+        <v>0.175414</v>
       </c>
       <c r="C107" t="n">
-        <v>0.39386</v>
+        <v>0.401143</v>
       </c>
       <c r="D107" t="n">
-        <v>0.41739</v>
+        <v>0.426894</v>
       </c>
       <c r="E107" t="n">
-        <v>0.139697</v>
+        <v>0.137306</v>
       </c>
       <c r="F107" t="n">
-        <v>0.261956</v>
+        <v>0.252359</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173494</v>
+        <v>0.172695</v>
       </c>
       <c r="C108" t="n">
-        <v>0.369201</v>
+        <v>0.444569</v>
       </c>
       <c r="D108" t="n">
-        <v>0.413461</v>
+        <v>0.417617</v>
       </c>
       <c r="E108" t="n">
-        <v>0.191145</v>
+        <v>0.188375</v>
       </c>
       <c r="F108" t="n">
-        <v>0.304756</v>
+        <v>0.295823</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157787</v>
+        <v>0.157337</v>
       </c>
       <c r="C109" t="n">
-        <v>0.329445</v>
+        <v>0.337557</v>
       </c>
       <c r="D109" t="n">
-        <v>0.392245</v>
+        <v>0.421009</v>
       </c>
       <c r="E109" t="n">
-        <v>0.186072</v>
+        <v>0.18305</v>
       </c>
       <c r="F109" t="n">
-        <v>0.301423</v>
+        <v>0.292443</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.237122</v>
+        <v>0.240031</v>
       </c>
       <c r="C110" t="n">
-        <v>0.495923</v>
+        <v>0.475126</v>
       </c>
       <c r="D110" t="n">
-        <v>0.39199</v>
+        <v>0.428321</v>
       </c>
       <c r="E110" t="n">
-        <v>0.182058</v>
+        <v>0.179044</v>
       </c>
       <c r="F110" t="n">
-        <v>0.297224</v>
+        <v>0.288764</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.232524</v>
+        <v>0.235602</v>
       </c>
       <c r="C111" t="n">
-        <v>0.497021</v>
+        <v>0.471757</v>
       </c>
       <c r="D111" t="n">
-        <v>0.387783</v>
+        <v>0.423848</v>
       </c>
       <c r="E111" t="n">
-        <v>0.177856</v>
+        <v>0.178371</v>
       </c>
       <c r="F111" t="n">
-        <v>0.293927</v>
+        <v>0.285536</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.22761</v>
+        <v>0.23006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.496053</v>
+        <v>0.467213</v>
       </c>
       <c r="D112" t="n">
-        <v>0.390843</v>
+        <v>0.412016</v>
       </c>
       <c r="E112" t="n">
-        <v>0.174149</v>
+        <v>0.174097</v>
       </c>
       <c r="F112" t="n">
-        <v>0.291134</v>
+        <v>0.282395</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.222389</v>
+        <v>0.225017</v>
       </c>
       <c r="C113" t="n">
-        <v>0.494921</v>
+        <v>0.462609</v>
       </c>
       <c r="D113" t="n">
-        <v>0.387682</v>
+        <v>0.405635</v>
       </c>
       <c r="E113" t="n">
-        <v>0.170437</v>
+        <v>0.166739</v>
       </c>
       <c r="F113" t="n">
-        <v>0.287784</v>
+        <v>0.279336</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.216664</v>
+        <v>0.220202</v>
       </c>
       <c r="C114" t="n">
-        <v>0.491648</v>
+        <v>0.45712</v>
       </c>
       <c r="D114" t="n">
-        <v>0.384876</v>
+        <v>0.406423</v>
       </c>
       <c r="E114" t="n">
-        <v>0.166222</v>
+        <v>0.162894</v>
       </c>
       <c r="F114" t="n">
-        <v>0.285442</v>
+        <v>0.275978</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211594</v>
+        <v>0.214292</v>
       </c>
       <c r="C115" t="n">
-        <v>0.443472</v>
+        <v>0.479645</v>
       </c>
       <c r="D115" t="n">
-        <v>0.373654</v>
+        <v>0.400825</v>
       </c>
       <c r="E115" t="n">
-        <v>0.162278</v>
+        <v>0.159352</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282363</v>
+        <v>0.272643</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206099</v>
+        <v>0.206733</v>
       </c>
       <c r="C116" t="n">
-        <v>0.447472</v>
+        <v>0.488803</v>
       </c>
       <c r="D116" t="n">
-        <v>0.369986</v>
+        <v>0.396031</v>
       </c>
       <c r="E116" t="n">
-        <v>0.158334</v>
+        <v>0.155749</v>
       </c>
       <c r="F116" t="n">
-        <v>0.278454</v>
+        <v>0.270113</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200771</v>
+        <v>0.204038</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312909</v>
+        <v>0.326329</v>
       </c>
       <c r="D117" t="n">
-        <v>0.378177</v>
+        <v>0.389256</v>
       </c>
       <c r="E117" t="n">
-        <v>0.154865</v>
+        <v>0.152317</v>
       </c>
       <c r="F117" t="n">
-        <v>0.275174</v>
+        <v>0.26705</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198218</v>
+        <v>0.195498</v>
       </c>
       <c r="C118" t="n">
-        <v>0.448962</v>
+        <v>0.460449</v>
       </c>
       <c r="D118" t="n">
-        <v>0.382948</v>
+        <v>0.396246</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15172</v>
+        <v>0.148769</v>
       </c>
       <c r="F118" t="n">
-        <v>0.272538</v>
+        <v>0.263476</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193863</v>
+        <v>0.193328</v>
       </c>
       <c r="C119" t="n">
-        <v>0.455915</v>
+        <v>0.460035</v>
       </c>
       <c r="D119" t="n">
-        <v>0.395862</v>
+        <v>0.385563</v>
       </c>
       <c r="E119" t="n">
-        <v>0.148038</v>
+        <v>0.1453</v>
       </c>
       <c r="F119" t="n">
-        <v>0.269175</v>
+        <v>0.258995</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.187961</v>
+        <v>0.187982</v>
       </c>
       <c r="C120" t="n">
-        <v>0.475529</v>
+        <v>0.451269</v>
       </c>
       <c r="D120" t="n">
-        <v>0.387024</v>
+        <v>0.383006</v>
       </c>
       <c r="E120" t="n">
-        <v>0.144409</v>
+        <v>0.141792</v>
       </c>
       <c r="F120" t="n">
-        <v>0.265961</v>
+        <v>0.255604</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182058</v>
+        <v>0.182092</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437264</v>
+        <v>0.391754</v>
       </c>
       <c r="D121" t="n">
-        <v>0.462605</v>
+        <v>0.477485</v>
       </c>
       <c r="E121" t="n">
-        <v>0.141119</v>
+        <v>0.138195</v>
       </c>
       <c r="F121" t="n">
-        <v>0.263355</v>
+        <v>0.252384</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169655</v>
+        <v>0.168999</v>
       </c>
       <c r="C122" t="n">
-        <v>0.386122</v>
+        <v>0.395172</v>
       </c>
       <c r="D122" t="n">
-        <v>0.472007</v>
+        <v>0.457863</v>
       </c>
       <c r="E122" t="n">
-        <v>0.137334</v>
+        <v>0.134277</v>
       </c>
       <c r="F122" t="n">
-        <v>0.259292</v>
+        <v>0.248927</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166279</v>
+        <v>0.166609</v>
       </c>
       <c r="C123" t="n">
-        <v>0.371206</v>
+        <v>0.373178</v>
       </c>
       <c r="D123" t="n">
-        <v>0.45127</v>
+        <v>0.435298</v>
       </c>
       <c r="E123" t="n">
-        <v>0.187298</v>
+        <v>0.187324</v>
       </c>
       <c r="F123" t="n">
-        <v>0.301087</v>
+        <v>0.293264</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238358</v>
+        <v>0.239023</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434301</v>
+        <v>0.414056</v>
       </c>
       <c r="D124" t="n">
-        <v>0.430503</v>
+        <v>0.44491</v>
       </c>
       <c r="E124" t="n">
-        <v>0.18278</v>
+        <v>0.183054</v>
       </c>
       <c r="F124" t="n">
-        <v>0.298273</v>
+        <v>0.289743</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.233708</v>
+        <v>0.23435</v>
       </c>
       <c r="C125" t="n">
-        <v>0.484459</v>
+        <v>0.472195</v>
       </c>
       <c r="D125" t="n">
-        <v>0.425369</v>
+        <v>0.438011</v>
       </c>
       <c r="E125" t="n">
-        <v>0.178712</v>
+        <v>0.17854</v>
       </c>
       <c r="F125" t="n">
-        <v>0.295201</v>
+        <v>0.286372</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.228669</v>
+        <v>0.229612</v>
       </c>
       <c r="C126" t="n">
-        <v>0.471363</v>
+        <v>0.449881</v>
       </c>
       <c r="D126" t="n">
-        <v>0.430263</v>
+        <v>0.445349</v>
       </c>
       <c r="E126" t="n">
-        <v>0.174972</v>
+        <v>0.174648</v>
       </c>
       <c r="F126" t="n">
-        <v>0.291772</v>
+        <v>0.282961</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.223007</v>
+        <v>0.226273</v>
       </c>
       <c r="C127" t="n">
-        <v>0.454298</v>
+        <v>0.450762</v>
       </c>
       <c r="D127" t="n">
-        <v>0.413606</v>
+        <v>0.427733</v>
       </c>
       <c r="E127" t="n">
-        <v>0.171248</v>
+        <v>0.170833</v>
       </c>
       <c r="F127" t="n">
-        <v>0.288346</v>
+        <v>0.279323</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218225</v>
+        <v>0.220947</v>
       </c>
       <c r="C128" t="n">
-        <v>0.472971</v>
+        <v>0.469738</v>
       </c>
       <c r="D128" t="n">
-        <v>0.420652</v>
+        <v>0.419213</v>
       </c>
       <c r="E128" t="n">
-        <v>0.167204</v>
+        <v>0.167081</v>
       </c>
       <c r="F128" t="n">
-        <v>0.285362</v>
+        <v>0.276402</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.214063</v>
+        <v>0.213457</v>
       </c>
       <c r="C129" t="n">
-        <v>0.38053</v>
+        <v>0.422651</v>
       </c>
       <c r="D129" t="n">
-        <v>0.429021</v>
+        <v>0.422992</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163338</v>
+        <v>0.163485</v>
       </c>
       <c r="F129" t="n">
-        <v>0.282438</v>
+        <v>0.273288</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207827</v>
+        <v>0.210118</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427516</v>
+        <v>0.457547</v>
       </c>
       <c r="D130" t="n">
-        <v>0.401416</v>
+        <v>0.398173</v>
       </c>
       <c r="E130" t="n">
-        <v>0.160614</v>
+        <v>0.159906</v>
       </c>
       <c r="F130" t="n">
-        <v>0.280097</v>
+        <v>0.26991</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204334</v>
+        <v>0.205164</v>
       </c>
       <c r="C131" t="n">
-        <v>0.43063</v>
+        <v>0.449147</v>
       </c>
       <c r="D131" t="n">
-        <v>0.401833</v>
+        <v>0.397671</v>
       </c>
       <c r="E131" t="n">
-        <v>0.156308</v>
+        <v>0.156517</v>
       </c>
       <c r="F131" t="n">
-        <v>0.276085</v>
+        <v>0.267445</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200086</v>
+        <v>0.196765</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358013</v>
+        <v>0.445011</v>
       </c>
       <c r="D132" t="n">
-        <v>0.38981</v>
+        <v>0.40044</v>
       </c>
       <c r="E132" t="n">
-        <v>0.152617</v>
+        <v>0.153252</v>
       </c>
       <c r="F132" t="n">
-        <v>0.274035</v>
+        <v>0.26349</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.194356</v>
+        <v>0.190823</v>
       </c>
       <c r="C133" t="n">
-        <v>0.45637</v>
+        <v>0.443265</v>
       </c>
       <c r="D133" t="n">
-        <v>0.380124</v>
+        <v>0.403179</v>
       </c>
       <c r="E133" t="n">
-        <v>0.149083</v>
+        <v>0.149793</v>
       </c>
       <c r="F133" t="n">
-        <v>0.270025</v>
+        <v>0.26085</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.189209</v>
+        <v>0.18488</v>
       </c>
       <c r="C134" t="n">
-        <v>0.41289</v>
+        <v>0.467146</v>
       </c>
       <c r="D134" t="n">
-        <v>0.394232</v>
+        <v>0.386189</v>
       </c>
       <c r="E134" t="n">
-        <v>0.145047</v>
+        <v>0.142549</v>
       </c>
       <c r="F134" t="n">
-        <v>0.266362</v>
+        <v>0.257397</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.183529</v>
+        <v>0.17826</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432767</v>
+        <v>0.441715</v>
       </c>
       <c r="D135" t="n">
-        <v>0.442689</v>
+        <v>0.472795</v>
       </c>
       <c r="E135" t="n">
-        <v>0.141474</v>
+        <v>0.138962</v>
       </c>
       <c r="F135" t="n">
-        <v>0.263451</v>
+        <v>0.253431</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.174679</v>
+        <v>0.17093</v>
       </c>
       <c r="C136" t="n">
-        <v>0.39429</v>
+        <v>0.353281</v>
       </c>
       <c r="D136" t="n">
-        <v>0.431233</v>
+        <v>0.45795</v>
       </c>
       <c r="E136" t="n">
-        <v>0.137787</v>
+        <v>0.135098</v>
       </c>
       <c r="F136" t="n">
-        <v>0.260541</v>
+        <v>0.250562</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162479</v>
+        <v>0.168184</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387337</v>
+        <v>0.363215</v>
       </c>
       <c r="D137" t="n">
-        <v>0.418617</v>
+        <v>0.468593</v>
       </c>
       <c r="E137" t="n">
-        <v>0.188296</v>
+        <v>0.185174</v>
       </c>
       <c r="F137" t="n">
-        <v>0.302448</v>
+        <v>0.29354</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240984</v>
+        <v>0.238873</v>
       </c>
       <c r="C138" t="n">
-        <v>0.462147</v>
+        <v>0.5497379999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.427745</v>
+        <v>0.445655</v>
       </c>
       <c r="E138" t="n">
-        <v>0.184035</v>
+        <v>0.180732</v>
       </c>
       <c r="F138" t="n">
-        <v>0.298665</v>
+        <v>0.290222</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236568</v>
+        <v>0.234636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47529</v>
+        <v>0.508186</v>
       </c>
       <c r="D139" t="n">
-        <v>0.420884</v>
+        <v>0.438292</v>
       </c>
       <c r="E139" t="n">
-        <v>0.179742</v>
+        <v>0.176206</v>
       </c>
       <c r="F139" t="n">
-        <v>0.295185</v>
+        <v>0.287655</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231768</v>
+        <v>0.229663</v>
       </c>
       <c r="C140" t="n">
-        <v>0.46454</v>
+        <v>0.5195959999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.417653</v>
+        <v>0.434034</v>
       </c>
       <c r="E140" t="n">
-        <v>0.175384</v>
+        <v>0.175687</v>
       </c>
       <c r="F140" t="n">
-        <v>0.292434</v>
+        <v>0.284136</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.224865</v>
+        <v>0.224379</v>
       </c>
       <c r="C141" t="n">
-        <v>0.447041</v>
+        <v>0.438008</v>
       </c>
       <c r="D141" t="n">
-        <v>0.41362</v>
+        <v>0.419849</v>
       </c>
       <c r="E141" t="n">
-        <v>0.171618</v>
+        <v>0.171547</v>
       </c>
       <c r="F141" t="n">
-        <v>0.288848</v>
+        <v>0.280673</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.221189</v>
+        <v>0.2208</v>
       </c>
       <c r="C142" t="n">
-        <v>0.384339</v>
+        <v>0.5256150000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.410492</v>
+        <v>0.421915</v>
       </c>
       <c r="E142" t="n">
-        <v>0.167653</v>
+        <v>0.167801</v>
       </c>
       <c r="F142" t="n">
-        <v>0.28578</v>
+        <v>0.277388</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215773</v>
+        <v>0.215692</v>
       </c>
       <c r="C143" t="n">
-        <v>0.481156</v>
+        <v>0.499261</v>
       </c>
       <c r="D143" t="n">
-        <v>0.39444</v>
+        <v>0.416957</v>
       </c>
       <c r="E143" t="n">
-        <v>0.163884</v>
+        <v>0.164209</v>
       </c>
       <c r="F143" t="n">
-        <v>0.282684</v>
+        <v>0.274251</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.201016</v>
+        <v>0.198089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.315987</v>
+        <v>0.316615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.304413</v>
+        <v>0.310598</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09518069999999999</v>
+        <v>0.101777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259636</v>
+        <v>0.259576</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194673</v>
+        <v>0.194104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313586</v>
+        <v>0.315525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.307862</v>
+        <v>0.313933</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08801</v>
+        <v>0.093082</v>
       </c>
       <c r="F3" t="n">
-        <v>0.257131</v>
+        <v>0.259467</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187173</v>
+        <v>0.189385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.309179</v>
+        <v>0.312231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.311705</v>
+        <v>0.312601</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0870385</v>
+        <v>0.09057419999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.256299</v>
+        <v>0.256783</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.185131</v>
+        <v>0.18291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.307171</v>
+        <v>0.303781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.311446</v>
+        <v>0.315144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0994239</v>
+        <v>0.0974136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.252257</v>
+        <v>0.255471</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179433</v>
+        <v>0.181489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.299603</v>
+        <v>0.301343</v>
       </c>
       <c r="D6" t="n">
-        <v>0.313633</v>
+        <v>0.318521</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0961506</v>
+        <v>0.095438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.248468</v>
+        <v>0.250487</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.171302</v>
+        <v>0.169829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.29596</v>
+        <v>0.293302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.305011</v>
+        <v>0.307626</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0957378</v>
+        <v>0.094293</v>
       </c>
       <c r="F7" t="n">
-        <v>0.245443</v>
+        <v>0.249261</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.168484</v>
+        <v>0.166869</v>
       </c>
       <c r="C8" t="n">
-        <v>0.283165</v>
+        <v>0.280966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.304089</v>
+        <v>0.309107</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09222859999999999</v>
+        <v>0.091742</v>
       </c>
       <c r="F8" t="n">
-        <v>0.241738</v>
+        <v>0.246865</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.159578</v>
+        <v>0.15909</v>
       </c>
       <c r="C9" t="n">
-        <v>0.276524</v>
+        <v>0.277491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309035</v>
+        <v>0.310006</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168131</v>
+        <v>0.16994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.288979</v>
+        <v>0.288874</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237005</v>
+        <v>0.235542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351155</v>
+        <v>0.351814</v>
       </c>
       <c r="D10" t="n">
-        <v>0.304527</v>
+        <v>0.306224</v>
       </c>
       <c r="E10" t="n">
-        <v>0.161611</v>
+        <v>0.164542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.286254</v>
+        <v>0.286199</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233856</v>
+        <v>0.234125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347592</v>
+        <v>0.347708</v>
       </c>
       <c r="D11" t="n">
-        <v>0.306645</v>
+        <v>0.310255</v>
       </c>
       <c r="E11" t="n">
-        <v>0.158137</v>
+        <v>0.161047</v>
       </c>
       <c r="F11" t="n">
-        <v>0.284513</v>
+        <v>0.28409</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.228834</v>
+        <v>0.225977</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343641</v>
+        <v>0.343516</v>
       </c>
       <c r="D12" t="n">
-        <v>0.308323</v>
+        <v>0.311368</v>
       </c>
       <c r="E12" t="n">
-        <v>0.15371</v>
+        <v>0.155988</v>
       </c>
       <c r="F12" t="n">
-        <v>0.280944</v>
+        <v>0.28032</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221939</v>
+        <v>0.221382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.339486</v>
+        <v>0.341127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.310416</v>
+        <v>0.311041</v>
       </c>
       <c r="E13" t="n">
-        <v>0.150384</v>
+        <v>0.152391</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279088</v>
+        <v>0.279461</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218466</v>
+        <v>0.217742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.335867</v>
+        <v>0.336383</v>
       </c>
       <c r="D14" t="n">
-        <v>0.310529</v>
+        <v>0.312058</v>
       </c>
       <c r="E14" t="n">
-        <v>0.145181</v>
+        <v>0.149203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.275644</v>
+        <v>0.276573</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.212735</v>
+        <v>0.211087</v>
       </c>
       <c r="C15" t="n">
-        <v>0.329488</v>
+        <v>0.320453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.310366</v>
+        <v>0.311879</v>
       </c>
       <c r="E15" t="n">
-        <v>0.141214</v>
+        <v>0.145722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.272432</v>
+        <v>0.27409</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.206481</v>
+        <v>0.208708</v>
       </c>
       <c r="C16" t="n">
-        <v>0.324027</v>
+        <v>0.326131</v>
       </c>
       <c r="D16" t="n">
-        <v>0.310612</v>
+        <v>0.311899</v>
       </c>
       <c r="E16" t="n">
-        <v>0.138641</v>
+        <v>0.1436</v>
       </c>
       <c r="F16" t="n">
-        <v>0.268666</v>
+        <v>0.270243</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.200141</v>
+        <v>0.203577</v>
       </c>
       <c r="C17" t="n">
-        <v>0.317533</v>
+        <v>0.31409</v>
       </c>
       <c r="D17" t="n">
-        <v>0.314305</v>
+        <v>0.314684</v>
       </c>
       <c r="E17" t="n">
-        <v>0.135314</v>
+        <v>0.140721</v>
       </c>
       <c r="F17" t="n">
-        <v>0.26572</v>
+        <v>0.267694</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.19418</v>
+        <v>0.200114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.317691</v>
+        <v>0.317274</v>
       </c>
       <c r="D18" t="n">
-        <v>0.314188</v>
+        <v>0.315634</v>
       </c>
       <c r="E18" t="n">
-        <v>0.132059</v>
+        <v>0.136419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.263095</v>
+        <v>0.264664</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.194035</v>
+        <v>0.19412</v>
       </c>
       <c r="C19" t="n">
-        <v>0.30634</v>
+        <v>0.307781</v>
       </c>
       <c r="D19" t="n">
-        <v>0.314224</v>
+        <v>0.3184</v>
       </c>
       <c r="E19" t="n">
-        <v>0.134676</v>
+        <v>0.133352</v>
       </c>
       <c r="F19" t="n">
-        <v>0.259069</v>
+        <v>0.260866</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186981</v>
+        <v>0.188394</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301407</v>
+        <v>0.304253</v>
       </c>
       <c r="D20" t="n">
-        <v>0.315614</v>
+        <v>0.31958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13167</v>
+        <v>0.130373</v>
       </c>
       <c r="F20" t="n">
-        <v>0.257403</v>
+        <v>0.258888</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182872</v>
+        <v>0.182195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.30014</v>
+        <v>0.301341</v>
       </c>
       <c r="D21" t="n">
-        <v>0.310981</v>
+        <v>0.309329</v>
       </c>
       <c r="E21" t="n">
-        <v>0.128305</v>
+        <v>0.127186</v>
       </c>
       <c r="F21" t="n">
-        <v>0.253353</v>
+        <v>0.25542</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.172469</v>
+        <v>0.169605</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288618</v>
+        <v>0.290034</v>
       </c>
       <c r="D22" t="n">
-        <v>0.311278</v>
+        <v>0.309064</v>
       </c>
       <c r="E22" t="n">
-        <v>0.124788</v>
+        <v>0.123881</v>
       </c>
       <c r="F22" t="n">
-        <v>0.249583</v>
+        <v>0.251841</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.16621</v>
+        <v>0.166006</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277274</v>
+        <v>0.277491</v>
       </c>
       <c r="D23" t="n">
-        <v>0.309179</v>
+        <v>0.310758</v>
       </c>
       <c r="E23" t="n">
-        <v>0.181023</v>
+        <v>0.180404</v>
       </c>
       <c r="F23" t="n">
-        <v>0.295686</v>
+        <v>0.295465</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.239539</v>
+        <v>0.237271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.349884</v>
+        <v>0.356694</v>
       </c>
       <c r="D24" t="n">
-        <v>0.310839</v>
+        <v>0.312071</v>
       </c>
       <c r="E24" t="n">
-        <v>0.173375</v>
+        <v>0.175728</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291446</v>
+        <v>0.291069</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235251</v>
+        <v>0.234738</v>
       </c>
       <c r="C25" t="n">
-        <v>0.346216</v>
+        <v>0.350089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.310189</v>
+        <v>0.313333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.168285</v>
+        <v>0.170665</v>
       </c>
       <c r="F25" t="n">
-        <v>0.289252</v>
+        <v>0.288591</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.231606</v>
+        <v>0.229354</v>
       </c>
       <c r="C26" t="n">
-        <v>0.343407</v>
+        <v>0.345816</v>
       </c>
       <c r="D26" t="n">
-        <v>0.310648</v>
+        <v>0.311383</v>
       </c>
       <c r="E26" t="n">
-        <v>0.164422</v>
+        <v>0.1665</v>
       </c>
       <c r="F26" t="n">
-        <v>0.285917</v>
+        <v>0.286171</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224561</v>
+        <v>0.224834</v>
       </c>
       <c r="C27" t="n">
-        <v>0.338713</v>
+        <v>0.344043</v>
       </c>
       <c r="D27" t="n">
-        <v>0.310894</v>
+        <v>0.310811</v>
       </c>
       <c r="E27" t="n">
-        <v>0.164285</v>
+        <v>0.162714</v>
       </c>
       <c r="F27" t="n">
-        <v>0.281585</v>
+        <v>0.281729</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.219058</v>
+        <v>0.220248</v>
       </c>
       <c r="C28" t="n">
-        <v>0.333656</v>
+        <v>0.339718</v>
       </c>
       <c r="D28" t="n">
-        <v>0.314184</v>
+        <v>0.312885</v>
       </c>
       <c r="E28" t="n">
-        <v>0.160562</v>
+        <v>0.158694</v>
       </c>
       <c r="F28" t="n">
-        <v>0.278833</v>
+        <v>0.280122</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215799</v>
+        <v>0.21545</v>
       </c>
       <c r="C29" t="n">
-        <v>0.329191</v>
+        <v>0.334835</v>
       </c>
       <c r="D29" t="n">
-        <v>0.31488</v>
+        <v>0.316998</v>
       </c>
       <c r="E29" t="n">
-        <v>0.157703</v>
+        <v>0.155843</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277113</v>
+        <v>0.277211</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.208209</v>
+        <v>0.210901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.319852</v>
+        <v>0.330709</v>
       </c>
       <c r="D30" t="n">
-        <v>0.315539</v>
+        <v>0.318441</v>
       </c>
       <c r="E30" t="n">
-        <v>0.153285</v>
+        <v>0.15225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.273374</v>
+        <v>0.274972</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203</v>
+        <v>0.202854</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322078</v>
+        <v>0.325196</v>
       </c>
       <c r="D31" t="n">
-        <v>0.316486</v>
+        <v>0.318874</v>
       </c>
       <c r="E31" t="n">
-        <v>0.149474</v>
+        <v>0.14908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.27087</v>
+        <v>0.272613</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.199789</v>
+        <v>0.196975</v>
       </c>
       <c r="C32" t="n">
-        <v>0.320511</v>
+        <v>0.323584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.316706</v>
+        <v>0.319484</v>
       </c>
       <c r="E32" t="n">
-        <v>0.147019</v>
+        <v>0.145783</v>
       </c>
       <c r="F32" t="n">
-        <v>0.266573</v>
+        <v>0.268539</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195769</v>
+        <v>0.195849</v>
       </c>
       <c r="C33" t="n">
-        <v>0.308069</v>
+        <v>0.310895</v>
       </c>
       <c r="D33" t="n">
-        <v>0.317946</v>
+        <v>0.320876</v>
       </c>
       <c r="E33" t="n">
-        <v>0.143072</v>
+        <v>0.142414</v>
       </c>
       <c r="F33" t="n">
-        <v>0.263078</v>
+        <v>0.265469</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.190305</v>
+        <v>0.190076</v>
       </c>
       <c r="C34" t="n">
-        <v>0.305221</v>
+        <v>0.309306</v>
       </c>
       <c r="D34" t="n">
-        <v>0.321187</v>
+        <v>0.322637</v>
       </c>
       <c r="E34" t="n">
-        <v>0.139954</v>
+        <v>0.139195</v>
       </c>
       <c r="F34" t="n">
-        <v>0.259476</v>
+        <v>0.263428</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.179705</v>
+        <v>0.185657</v>
       </c>
       <c r="C35" t="n">
-        <v>0.300188</v>
+        <v>0.300052</v>
       </c>
       <c r="D35" t="n">
-        <v>0.316481</v>
+        <v>0.314349</v>
       </c>
       <c r="E35" t="n">
-        <v>0.136086</v>
+        <v>0.13304</v>
       </c>
       <c r="F35" t="n">
-        <v>0.256542</v>
+        <v>0.259237</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.177367</v>
+        <v>0.178311</v>
       </c>
       <c r="C36" t="n">
-        <v>0.294214</v>
+        <v>0.292171</v>
       </c>
       <c r="D36" t="n">
-        <v>0.315903</v>
+        <v>0.314613</v>
       </c>
       <c r="E36" t="n">
-        <v>0.131956</v>
+        <v>0.128384</v>
       </c>
       <c r="F36" t="n">
-        <v>0.252481</v>
+        <v>0.255794</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170029</v>
+        <v>0.170318</v>
       </c>
       <c r="C37" t="n">
-        <v>0.279783</v>
+        <v>0.276615</v>
       </c>
       <c r="D37" t="n">
-        <v>0.315322</v>
+        <v>0.315803</v>
       </c>
       <c r="E37" t="n">
-        <v>0.185545</v>
+        <v>0.18424</v>
       </c>
       <c r="F37" t="n">
-        <v>0.298936</v>
+        <v>0.297181</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.241451</v>
+        <v>0.242424</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352577</v>
+        <v>0.352424</v>
       </c>
       <c r="D38" t="n">
-        <v>0.314908</v>
+        <v>0.317327</v>
       </c>
       <c r="E38" t="n">
-        <v>0.180471</v>
+        <v>0.179439</v>
       </c>
       <c r="F38" t="n">
-        <v>0.295412</v>
+        <v>0.293422</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238986</v>
+        <v>0.236839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.349361</v>
+        <v>0.349214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.311981</v>
+        <v>0.317469</v>
       </c>
       <c r="E39" t="n">
-        <v>0.17356</v>
+        <v>0.175645</v>
       </c>
       <c r="F39" t="n">
-        <v>0.292199</v>
+        <v>0.291645</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231717</v>
+        <v>0.231875</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345148</v>
+        <v>0.345933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.312279</v>
+        <v>0.316158</v>
       </c>
       <c r="E40" t="n">
-        <v>0.16872</v>
+        <v>0.171693</v>
       </c>
       <c r="F40" t="n">
-        <v>0.288215</v>
+        <v>0.287904</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.228531</v>
+        <v>0.227221</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341382</v>
+        <v>0.341846</v>
       </c>
       <c r="D41" t="n">
-        <v>0.313267</v>
+        <v>0.317281</v>
       </c>
       <c r="E41" t="n">
-        <v>0.164795</v>
+        <v>0.166969</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285054</v>
+        <v>0.285234</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223007</v>
+        <v>0.224312</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336653</v>
+        <v>0.337174</v>
       </c>
       <c r="D42" t="n">
-        <v>0.314521</v>
+        <v>0.317857</v>
       </c>
       <c r="E42" t="n">
-        <v>0.160526</v>
+        <v>0.163077</v>
       </c>
       <c r="F42" t="n">
-        <v>0.281299</v>
+        <v>0.282862</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215666</v>
+        <v>0.216362</v>
       </c>
       <c r="C43" t="n">
-        <v>0.331145</v>
+        <v>0.332504</v>
       </c>
       <c r="D43" t="n">
-        <v>0.314077</v>
+        <v>0.316019</v>
       </c>
       <c r="E43" t="n">
-        <v>0.156996</v>
+        <v>0.15958</v>
       </c>
       <c r="F43" t="n">
-        <v>0.278661</v>
+        <v>0.279813</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.210828</v>
+        <v>0.213468</v>
       </c>
       <c r="C44" t="n">
-        <v>0.324704</v>
+        <v>0.325579</v>
       </c>
       <c r="D44" t="n">
-        <v>0.31487</v>
+        <v>0.318753</v>
       </c>
       <c r="E44" t="n">
-        <v>0.153972</v>
+        <v>0.156445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.275461</v>
+        <v>0.277194</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.204811</v>
+        <v>0.207843</v>
       </c>
       <c r="C45" t="n">
-        <v>0.33538</v>
+        <v>0.324486</v>
       </c>
       <c r="D45" t="n">
-        <v>0.316349</v>
+        <v>0.318634</v>
       </c>
       <c r="E45" t="n">
-        <v>0.14973</v>
+        <v>0.153119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.272128</v>
+        <v>0.27431</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.199574</v>
+        <v>0.202098</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322838</v>
+        <v>0.322461</v>
       </c>
       <c r="D46" t="n">
-        <v>0.316194</v>
+        <v>0.319676</v>
       </c>
       <c r="E46" t="n">
-        <v>0.146508</v>
+        <v>0.149617</v>
       </c>
       <c r="F46" t="n">
-        <v>0.268115</v>
+        <v>0.270291</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197387</v>
+        <v>0.197084</v>
       </c>
       <c r="C47" t="n">
-        <v>0.325216</v>
+        <v>0.313913</v>
       </c>
       <c r="D47" t="n">
-        <v>0.321014</v>
+        <v>0.323332</v>
       </c>
       <c r="E47" t="n">
-        <v>0.147635</v>
+        <v>0.146181</v>
       </c>
       <c r="F47" t="n">
-        <v>0.265679</v>
+        <v>0.266941</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.19283</v>
+        <v>0.192578</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307083</v>
+        <v>0.307608</v>
       </c>
       <c r="D48" t="n">
-        <v>0.321981</v>
+        <v>0.322657</v>
       </c>
       <c r="E48" t="n">
-        <v>0.144065</v>
+        <v>0.142676</v>
       </c>
       <c r="F48" t="n">
-        <v>0.261397</v>
+        <v>0.264563</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186895</v>
+        <v>0.183094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.307326</v>
+        <v>0.303951</v>
       </c>
       <c r="D49" t="n">
-        <v>0.323691</v>
+        <v>0.325627</v>
       </c>
       <c r="E49" t="n">
-        <v>0.140153</v>
+        <v>0.138979</v>
       </c>
       <c r="F49" t="n">
-        <v>0.257932</v>
+        <v>0.261235</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.180687</v>
+        <v>0.175364</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299166</v>
+        <v>0.298769</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32074</v>
+        <v>0.316759</v>
       </c>
       <c r="E50" t="n">
-        <v>0.136427</v>
+        <v>0.135617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.254373</v>
+        <v>0.258189</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.168514</v>
+        <v>0.173148</v>
       </c>
       <c r="C51" t="n">
-        <v>0.291608</v>
+        <v>0.284237</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318647</v>
+        <v>0.318488</v>
       </c>
       <c r="E51" t="n">
-        <v>0.190104</v>
+        <v>0.187652</v>
       </c>
       <c r="F51" t="n">
-        <v>0.301453</v>
+        <v>0.298839</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165012</v>
+        <v>0.165029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280117</v>
+        <v>0.28062</v>
       </c>
       <c r="D52" t="n">
-        <v>0.321093</v>
+        <v>0.319666</v>
       </c>
       <c r="E52" t="n">
-        <v>0.180491</v>
+        <v>0.184287</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29634</v>
+        <v>0.295425</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.240226</v>
+        <v>0.236148</v>
       </c>
       <c r="C53" t="n">
-        <v>0.353075</v>
+        <v>0.352889</v>
       </c>
       <c r="D53" t="n">
-        <v>0.320247</v>
+        <v>0.321474</v>
       </c>
       <c r="E53" t="n">
-        <v>0.176019</v>
+        <v>0.178218</v>
       </c>
       <c r="F53" t="n">
-        <v>0.293477</v>
+        <v>0.292533</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233646</v>
+        <v>0.232893</v>
       </c>
       <c r="C54" t="n">
-        <v>0.349945</v>
+        <v>0.350047</v>
       </c>
       <c r="D54" t="n">
-        <v>0.322547</v>
+        <v>0.318438</v>
       </c>
       <c r="E54" t="n">
-        <v>0.172317</v>
+        <v>0.174576</v>
       </c>
       <c r="F54" t="n">
-        <v>0.289936</v>
+        <v>0.289517</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.231009</v>
+        <v>0.227837</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347317</v>
+        <v>0.347263</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323376</v>
+        <v>0.320268</v>
       </c>
       <c r="E55" t="n">
-        <v>0.168409</v>
+        <v>0.170845</v>
       </c>
       <c r="F55" t="n">
-        <v>0.286969</v>
+        <v>0.285937</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222754</v>
+        <v>0.222147</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343451</v>
+        <v>0.343869</v>
       </c>
       <c r="D56" t="n">
-        <v>0.325487</v>
+        <v>0.322121</v>
       </c>
       <c r="E56" t="n">
-        <v>0.16408</v>
+        <v>0.166408</v>
       </c>
       <c r="F56" t="n">
-        <v>0.283326</v>
+        <v>0.283824</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.217737</v>
+        <v>0.218417</v>
       </c>
       <c r="C57" t="n">
-        <v>0.339826</v>
+        <v>0.337933</v>
       </c>
       <c r="D57" t="n">
-        <v>0.323735</v>
+        <v>0.326013</v>
       </c>
       <c r="E57" t="n">
-        <v>0.160691</v>
+        <v>0.162789</v>
       </c>
       <c r="F57" t="n">
-        <v>0.28016</v>
+        <v>0.280989</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.212559</v>
+        <v>0.211375</v>
       </c>
       <c r="C58" t="n">
-        <v>0.359321</v>
+        <v>0.324046</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328885</v>
+        <v>0.327805</v>
       </c>
       <c r="E58" t="n">
-        <v>0.156916</v>
+        <v>0.159683</v>
       </c>
       <c r="F58" t="n">
-        <v>0.276721</v>
+        <v>0.27771</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206688</v>
+        <v>0.206367</v>
       </c>
       <c r="C59" t="n">
-        <v>0.328549</v>
+        <v>0.328634</v>
       </c>
       <c r="D59" t="n">
-        <v>0.330008</v>
+        <v>0.329901</v>
       </c>
       <c r="E59" t="n">
-        <v>0.153423</v>
+        <v>0.156394</v>
       </c>
       <c r="F59" t="n">
-        <v>0.273318</v>
+        <v>0.27434</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.201166</v>
+        <v>0.203898</v>
       </c>
       <c r="C60" t="n">
-        <v>0.328923</v>
+        <v>0.32429</v>
       </c>
       <c r="D60" t="n">
-        <v>0.334391</v>
+        <v>0.332761</v>
       </c>
       <c r="E60" t="n">
-        <v>0.149829</v>
+        <v>0.152459</v>
       </c>
       <c r="F60" t="n">
-        <v>0.269657</v>
+        <v>0.271441</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.195329</v>
+        <v>0.199327</v>
       </c>
       <c r="C61" t="n">
-        <v>0.344731</v>
+        <v>0.337127</v>
       </c>
       <c r="D61" t="n">
-        <v>0.333776</v>
+        <v>0.335154</v>
       </c>
       <c r="E61" t="n">
-        <v>0.146555</v>
+        <v>0.149052</v>
       </c>
       <c r="F61" t="n">
-        <v>0.266691</v>
+        <v>0.268308</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189487</v>
+        <v>0.190257</v>
       </c>
       <c r="C62" t="n">
-        <v>0.314251</v>
+        <v>0.311305</v>
       </c>
       <c r="D62" t="n">
-        <v>0.336582</v>
+        <v>0.335505</v>
       </c>
       <c r="E62" t="n">
-        <v>0.143145</v>
+        <v>0.145659</v>
       </c>
       <c r="F62" t="n">
-        <v>0.263368</v>
+        <v>0.265525</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187702</v>
+        <v>0.188577</v>
       </c>
       <c r="C63" t="n">
-        <v>0.344043</v>
+        <v>0.320678</v>
       </c>
       <c r="D63" t="n">
-        <v>0.340132</v>
+        <v>0.340566</v>
       </c>
       <c r="E63" t="n">
-        <v>0.139258</v>
+        <v>0.142092</v>
       </c>
       <c r="F63" t="n">
-        <v>0.260231</v>
+        <v>0.262292</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182203</v>
+        <v>0.177913</v>
       </c>
       <c r="C64" t="n">
-        <v>0.317257</v>
+        <v>0.316673</v>
       </c>
       <c r="D64" t="n">
-        <v>0.38586</v>
+        <v>0.373359</v>
       </c>
       <c r="E64" t="n">
-        <v>0.135385</v>
+        <v>0.13567</v>
       </c>
       <c r="F64" t="n">
-        <v>0.256327</v>
+        <v>0.259049</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175288</v>
+        <v>0.170189</v>
       </c>
       <c r="C65" t="n">
-        <v>0.326511</v>
+        <v>0.28618</v>
       </c>
       <c r="D65" t="n">
-        <v>0.387302</v>
+        <v>0.375403</v>
       </c>
       <c r="E65" t="n">
-        <v>0.135932</v>
+        <v>0.13488</v>
       </c>
       <c r="F65" t="n">
-        <v>0.252673</v>
+        <v>0.255809</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.167283</v>
+        <v>0.161712</v>
       </c>
       <c r="C66" t="n">
-        <v>0.306028</v>
+        <v>0.308367</v>
       </c>
       <c r="D66" t="n">
-        <v>0.389833</v>
+        <v>0.375366</v>
       </c>
       <c r="E66" t="n">
-        <v>0.188917</v>
+        <v>0.185456</v>
       </c>
       <c r="F66" t="n">
-        <v>0.298344</v>
+        <v>0.296456</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.238936</v>
+        <v>0.238914</v>
       </c>
       <c r="C67" t="n">
-        <v>0.389377</v>
+        <v>0.382472</v>
       </c>
       <c r="D67" t="n">
-        <v>0.394344</v>
+        <v>0.369015</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183733</v>
+        <v>0.180945</v>
       </c>
       <c r="F67" t="n">
-        <v>0.294512</v>
+        <v>0.292869</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234221</v>
+        <v>0.2352</v>
       </c>
       <c r="C68" t="n">
-        <v>0.353067</v>
+        <v>0.379645</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389843</v>
+        <v>0.378619</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1785</v>
+        <v>0.177437</v>
       </c>
       <c r="F68" t="n">
-        <v>0.290626</v>
+        <v>0.290551</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.231563</v>
+        <v>0.230691</v>
       </c>
       <c r="C69" t="n">
-        <v>0.38066</v>
+        <v>0.375506</v>
       </c>
       <c r="D69" t="n">
-        <v>0.390372</v>
+        <v>0.381502</v>
       </c>
       <c r="E69" t="n">
-        <v>0.170269</v>
+        <v>0.172618</v>
       </c>
       <c r="F69" t="n">
-        <v>0.286784</v>
+        <v>0.287727</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.226599</v>
+        <v>0.225662</v>
       </c>
       <c r="C70" t="n">
-        <v>0.377028</v>
+        <v>0.370228</v>
       </c>
       <c r="D70" t="n">
-        <v>0.390836</v>
+        <v>0.383142</v>
       </c>
       <c r="E70" t="n">
-        <v>0.166512</v>
+        <v>0.169071</v>
       </c>
       <c r="F70" t="n">
-        <v>0.283505</v>
+        <v>0.284915</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219548</v>
+        <v>0.219165</v>
       </c>
       <c r="C71" t="n">
-        <v>0.37274</v>
+        <v>0.364763</v>
       </c>
       <c r="D71" t="n">
-        <v>0.385902</v>
+        <v>0.372315</v>
       </c>
       <c r="E71" t="n">
-        <v>0.166212</v>
+        <v>0.164784</v>
       </c>
       <c r="F71" t="n">
-        <v>0.280181</v>
+        <v>0.280355</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.216197</v>
+        <v>0.213393</v>
       </c>
       <c r="C72" t="n">
-        <v>0.358227</v>
+        <v>0.38792</v>
       </c>
       <c r="D72" t="n">
-        <v>0.395407</v>
+        <v>0.371901</v>
       </c>
       <c r="E72" t="n">
-        <v>0.162732</v>
+        <v>0.161176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.277161</v>
+        <v>0.277984</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.208309</v>
+        <v>0.210002</v>
       </c>
       <c r="C73" t="n">
-        <v>0.436778</v>
+        <v>0.438903</v>
       </c>
       <c r="D73" t="n">
-        <v>0.389546</v>
+        <v>0.383992</v>
       </c>
       <c r="E73" t="n">
-        <v>0.15871</v>
+        <v>0.15803</v>
       </c>
       <c r="F73" t="n">
-        <v>0.273883</v>
+        <v>0.27478</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2025</v>
+        <v>0.205255</v>
       </c>
       <c r="C74" t="n">
-        <v>0.442504</v>
+        <v>0.34584</v>
       </c>
       <c r="D74" t="n">
-        <v>0.394444</v>
+        <v>0.371579</v>
       </c>
       <c r="E74" t="n">
-        <v>0.155712</v>
+        <v>0.154516</v>
       </c>
       <c r="F74" t="n">
-        <v>0.269815</v>
+        <v>0.272598</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.199797</v>
+        <v>0.197265</v>
       </c>
       <c r="C75" t="n">
-        <v>0.451184</v>
+        <v>0.382938</v>
       </c>
       <c r="D75" t="n">
-        <v>0.386697</v>
+        <v>0.375238</v>
       </c>
       <c r="E75" t="n">
-        <v>0.152251</v>
+        <v>0.151132</v>
       </c>
       <c r="F75" t="n">
-        <v>0.266901</v>
+        <v>0.269211</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.191179</v>
+        <v>0.195609</v>
       </c>
       <c r="C76" t="n">
-        <v>0.484866</v>
+        <v>0.411626</v>
       </c>
       <c r="D76" t="n">
-        <v>0.378629</v>
+        <v>0.375942</v>
       </c>
       <c r="E76" t="n">
-        <v>0.145406</v>
+        <v>0.147533</v>
       </c>
       <c r="F76" t="n">
-        <v>0.263127</v>
+        <v>0.266376</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.189686</v>
+        <v>0.185751</v>
       </c>
       <c r="C77" t="n">
-        <v>0.471254</v>
+        <v>0.417402</v>
       </c>
       <c r="D77" t="n">
-        <v>0.392081</v>
+        <v>0.385569</v>
       </c>
       <c r="E77" t="n">
-        <v>0.141871</v>
+        <v>0.141388</v>
       </c>
       <c r="F77" t="n">
-        <v>0.259594</v>
+        <v>0.262721</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.179476</v>
+        <v>0.183806</v>
       </c>
       <c r="C78" t="n">
-        <v>0.376272</v>
+        <v>0.413142</v>
       </c>
       <c r="D78" t="n">
-        <v>0.451137</v>
+        <v>0.436897</v>
       </c>
       <c r="E78" t="n">
-        <v>0.138212</v>
+        <v>0.137867</v>
       </c>
       <c r="F78" t="n">
-        <v>0.256523</v>
+        <v>0.259905</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.171839</v>
+        <v>0.177101</v>
       </c>
       <c r="C79" t="n">
-        <v>0.351142</v>
+        <v>0.408592</v>
       </c>
       <c r="D79" t="n">
-        <v>0.441101</v>
+        <v>0.423516</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138255</v>
+        <v>0.137231</v>
       </c>
       <c r="F79" t="n">
-        <v>0.253156</v>
+        <v>0.256721</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.163267</v>
+        <v>0.169074</v>
       </c>
       <c r="C80" t="n">
-        <v>0.448283</v>
+        <v>0.390926</v>
       </c>
       <c r="D80" t="n">
-        <v>0.45161</v>
+        <v>0.43467</v>
       </c>
       <c r="E80" t="n">
-        <v>0.189632</v>
+        <v>0.188023</v>
       </c>
       <c r="F80" t="n">
-        <v>0.297716</v>
+        <v>0.296177</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.240246</v>
+        <v>0.242152</v>
       </c>
       <c r="C81" t="n">
-        <v>0.37538</v>
+        <v>0.373492</v>
       </c>
       <c r="D81" t="n">
-        <v>0.434026</v>
+        <v>0.414479</v>
       </c>
       <c r="E81" t="n">
-        <v>0.186841</v>
+        <v>0.184148</v>
       </c>
       <c r="F81" t="n">
-        <v>0.294287</v>
+        <v>0.292994</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.237883</v>
+        <v>0.238566</v>
       </c>
       <c r="C82" t="n">
-        <v>0.373157</v>
+        <v>0.367427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.428858</v>
+        <v>0.421737</v>
       </c>
       <c r="E82" t="n">
-        <v>0.178045</v>
+        <v>0.176795</v>
       </c>
       <c r="F82" t="n">
-        <v>0.290653</v>
+        <v>0.287706</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233804</v>
+        <v>0.232201</v>
       </c>
       <c r="C83" t="n">
-        <v>0.368843</v>
+        <v>0.362779</v>
       </c>
       <c r="D83" t="n">
-        <v>0.441329</v>
+        <v>0.404766</v>
       </c>
       <c r="E83" t="n">
-        <v>0.172741</v>
+        <v>0.172616</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287452</v>
+        <v>0.284982</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228079</v>
+        <v>0.227363</v>
       </c>
       <c r="C84" t="n">
-        <v>0.363006</v>
+        <v>0.357894</v>
       </c>
       <c r="D84" t="n">
-        <v>0.439401</v>
+        <v>0.40238</v>
       </c>
       <c r="E84" t="n">
-        <v>0.172393</v>
+        <v>0.171226</v>
       </c>
       <c r="F84" t="n">
-        <v>0.284278</v>
+        <v>0.281585</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223133</v>
+        <v>0.222619</v>
       </c>
       <c r="C85" t="n">
-        <v>0.357132</v>
+        <v>0.352418</v>
       </c>
       <c r="D85" t="n">
-        <v>0.43275</v>
+        <v>0.398935</v>
       </c>
       <c r="E85" t="n">
-        <v>0.168007</v>
+        <v>0.167347</v>
       </c>
       <c r="F85" t="n">
-        <v>0.281004</v>
+        <v>0.278349</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.217545</v>
+        <v>0.2172</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351165</v>
+        <v>0.346378</v>
       </c>
       <c r="D86" t="n">
-        <v>0.415622</v>
+        <v>0.40793</v>
       </c>
       <c r="E86" t="n">
-        <v>0.164381</v>
+        <v>0.163604</v>
       </c>
       <c r="F86" t="n">
-        <v>0.277592</v>
+        <v>0.275775</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.211987</v>
+        <v>0.212973</v>
       </c>
       <c r="C87" t="n">
-        <v>0.433753</v>
+        <v>0.352128</v>
       </c>
       <c r="D87" t="n">
-        <v>0.424619</v>
+        <v>0.407391</v>
       </c>
       <c r="E87" t="n">
-        <v>0.160975</v>
+        <v>0.159591</v>
       </c>
       <c r="F87" t="n">
-        <v>0.274848</v>
+        <v>0.272834</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206523</v>
+        <v>0.206582</v>
       </c>
       <c r="C88" t="n">
-        <v>0.384655</v>
+        <v>0.425088</v>
       </c>
       <c r="D88" t="n">
-        <v>0.42118</v>
+        <v>0.403489</v>
       </c>
       <c r="E88" t="n">
-        <v>0.157383</v>
+        <v>0.156502</v>
       </c>
       <c r="F88" t="n">
-        <v>0.271198</v>
+        <v>0.269954</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201676</v>
+        <v>0.201992</v>
       </c>
       <c r="C89" t="n">
-        <v>0.446435</v>
+        <v>0.409347</v>
       </c>
       <c r="D89" t="n">
-        <v>0.419392</v>
+        <v>0.400559</v>
       </c>
       <c r="E89" t="n">
-        <v>0.154081</v>
+        <v>0.152765</v>
       </c>
       <c r="F89" t="n">
-        <v>0.268014</v>
+        <v>0.266931</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196199</v>
+        <v>0.196896</v>
       </c>
       <c r="C90" t="n">
-        <v>0.421739</v>
+        <v>0.392338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.415566</v>
+        <v>0.39997</v>
       </c>
       <c r="E90" t="n">
-        <v>0.150853</v>
+        <v>0.14964</v>
       </c>
       <c r="F90" t="n">
-        <v>0.264541</v>
+        <v>0.264124</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.190973</v>
+        <v>0.19169</v>
       </c>
       <c r="C91" t="n">
-        <v>0.418964</v>
+        <v>0.410393</v>
       </c>
       <c r="D91" t="n">
-        <v>0.412905</v>
+        <v>0.39765</v>
       </c>
       <c r="E91" t="n">
-        <v>0.147367</v>
+        <v>0.145844</v>
       </c>
       <c r="F91" t="n">
-        <v>0.261134</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185625</v>
+        <v>0.18525</v>
       </c>
       <c r="C92" t="n">
-        <v>0.346739</v>
+        <v>0.439464</v>
       </c>
       <c r="D92" t="n">
-        <v>0.476869</v>
+        <v>0.446053</v>
       </c>
       <c r="E92" t="n">
-        <v>0.143737</v>
+        <v>0.142717</v>
       </c>
       <c r="F92" t="n">
-        <v>0.257926</v>
+        <v>0.257661</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173235</v>
+        <v>0.173674</v>
       </c>
       <c r="C93" t="n">
-        <v>0.413468</v>
+        <v>0.407489</v>
       </c>
       <c r="D93" t="n">
-        <v>0.471825</v>
+        <v>0.437643</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139852</v>
+        <v>0.136169</v>
       </c>
       <c r="F93" t="n">
-        <v>0.254213</v>
+        <v>0.254651</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.165831</v>
+        <v>0.169246</v>
       </c>
       <c r="C94" t="n">
-        <v>0.359946</v>
+        <v>0.323457</v>
       </c>
       <c r="D94" t="n">
-        <v>0.466892</v>
+        <v>0.430804</v>
       </c>
       <c r="E94" t="n">
-        <v>0.190993</v>
+        <v>0.187221</v>
       </c>
       <c r="F94" t="n">
-        <v>0.299148</v>
+        <v>0.294231</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.242903</v>
+        <v>0.240309</v>
       </c>
       <c r="C95" t="n">
-        <v>0.518908</v>
+        <v>0.478784</v>
       </c>
       <c r="D95" t="n">
-        <v>0.445876</v>
+        <v>0.413497</v>
       </c>
       <c r="E95" t="n">
-        <v>0.182776</v>
+        <v>0.18249</v>
       </c>
       <c r="F95" t="n">
-        <v>0.291513</v>
+        <v>0.290882</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.238445</v>
+        <v>0.236028</v>
       </c>
       <c r="C96" t="n">
-        <v>0.357464</v>
+        <v>0.354791</v>
       </c>
       <c r="D96" t="n">
-        <v>0.424425</v>
+        <v>0.42383</v>
       </c>
       <c r="E96" t="n">
-        <v>0.178243</v>
+        <v>0.178125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.288331</v>
+        <v>0.290059</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.234249</v>
+        <v>0.231522</v>
       </c>
       <c r="C97" t="n">
-        <v>0.353424</v>
+        <v>0.350216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.420924</v>
+        <v>0.406325</v>
       </c>
       <c r="E97" t="n">
-        <v>0.173972</v>
+        <v>0.173954</v>
       </c>
       <c r="F97" t="n">
-        <v>0.284737</v>
+        <v>0.284895</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.228893</v>
+        <v>0.22824</v>
       </c>
       <c r="C98" t="n">
-        <v>0.348976</v>
+        <v>0.345863</v>
       </c>
       <c r="D98" t="n">
-        <v>0.414741</v>
+        <v>0.402231</v>
       </c>
       <c r="E98" t="n">
-        <v>0.169865</v>
+        <v>0.169731</v>
       </c>
       <c r="F98" t="n">
-        <v>0.281359</v>
+        <v>0.281732</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.223588</v>
+        <v>0.223212</v>
       </c>
       <c r="C99" t="n">
-        <v>0.344034</v>
+        <v>0.340553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.41517</v>
+        <v>0.397824</v>
       </c>
       <c r="E99" t="n">
-        <v>0.16575</v>
+        <v>0.165912</v>
       </c>
       <c r="F99" t="n">
-        <v>0.278226</v>
+        <v>0.281376</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218651</v>
+        <v>0.217538</v>
       </c>
       <c r="C100" t="n">
-        <v>0.338836</v>
+        <v>0.3355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.425163</v>
+        <v>0.400563</v>
       </c>
       <c r="E100" t="n">
-        <v>0.162031</v>
+        <v>0.1623</v>
       </c>
       <c r="F100" t="n">
-        <v>0.274972</v>
+        <v>0.276059</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.210725</v>
+        <v>0.212331</v>
       </c>
       <c r="C101" t="n">
-        <v>0.475061</v>
+        <v>0.394538</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403655</v>
+        <v>0.387017</v>
       </c>
       <c r="E101" t="n">
-        <v>0.158362</v>
+        <v>0.158363</v>
       </c>
       <c r="F101" t="n">
-        <v>0.272255</v>
+        <v>0.272931</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.205258</v>
+        <v>0.207544</v>
       </c>
       <c r="C102" t="n">
-        <v>0.48245</v>
+        <v>0.366942</v>
       </c>
       <c r="D102" t="n">
-        <v>0.397811</v>
+        <v>0.384323</v>
       </c>
       <c r="E102" t="n">
-        <v>0.158289</v>
+        <v>0.157604</v>
       </c>
       <c r="F102" t="n">
-        <v>0.268653</v>
+        <v>0.269282</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.199706</v>
+        <v>0.203039</v>
       </c>
       <c r="C103" t="n">
-        <v>0.430071</v>
+        <v>0.453712</v>
       </c>
       <c r="D103" t="n">
-        <v>0.394602</v>
+        <v>0.395428</v>
       </c>
       <c r="E103" t="n">
-        <v>0.151053</v>
+        <v>0.151467</v>
       </c>
       <c r="F103" t="n">
-        <v>0.265112</v>
+        <v>0.26675</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194106</v>
+        <v>0.19744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.415995</v>
+        <v>0.404812</v>
       </c>
       <c r="D104" t="n">
-        <v>0.408851</v>
+        <v>0.409616</v>
       </c>
       <c r="E104" t="n">
-        <v>0.148069</v>
+        <v>0.147997</v>
       </c>
       <c r="F104" t="n">
-        <v>0.261598</v>
+        <v>0.263508</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188859</v>
+        <v>0.188289</v>
       </c>
       <c r="C105" t="n">
-        <v>0.306582</v>
+        <v>0.313158</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401669</v>
+        <v>0.394021</v>
       </c>
       <c r="E105" t="n">
-        <v>0.144654</v>
+        <v>0.144396</v>
       </c>
       <c r="F105" t="n">
-        <v>0.258556</v>
+        <v>0.26074</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.182578</v>
+        <v>0.186944</v>
       </c>
       <c r="C106" t="n">
-        <v>0.406099</v>
+        <v>0.445902</v>
       </c>
       <c r="D106" t="n">
-        <v>0.400412</v>
+        <v>0.388038</v>
       </c>
       <c r="E106" t="n">
-        <v>0.14112</v>
+        <v>0.140822</v>
       </c>
       <c r="F106" t="n">
-        <v>0.255176</v>
+        <v>0.257603</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.175414</v>
+        <v>0.181156</v>
       </c>
       <c r="C107" t="n">
-        <v>0.401143</v>
+        <v>0.412564</v>
       </c>
       <c r="D107" t="n">
-        <v>0.426894</v>
+        <v>0.437071</v>
       </c>
       <c r="E107" t="n">
-        <v>0.137306</v>
+        <v>0.13716</v>
       </c>
       <c r="F107" t="n">
-        <v>0.252359</v>
+        <v>0.254546</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.172695</v>
+        <v>0.173393</v>
       </c>
       <c r="C108" t="n">
-        <v>0.444569</v>
+        <v>0.386943</v>
       </c>
       <c r="D108" t="n">
-        <v>0.417617</v>
+        <v>0.434363</v>
       </c>
       <c r="E108" t="n">
-        <v>0.188375</v>
+        <v>0.188989</v>
       </c>
       <c r="F108" t="n">
-        <v>0.295823</v>
+        <v>0.294068</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157337</v>
+        <v>0.15789</v>
       </c>
       <c r="C109" t="n">
-        <v>0.337557</v>
+        <v>0.340613</v>
       </c>
       <c r="D109" t="n">
-        <v>0.421009</v>
+        <v>0.408011</v>
       </c>
       <c r="E109" t="n">
-        <v>0.18305</v>
+        <v>0.183895</v>
       </c>
       <c r="F109" t="n">
-        <v>0.292443</v>
+        <v>0.291551</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.240031</v>
+        <v>0.23751</v>
       </c>
       <c r="C110" t="n">
-        <v>0.475126</v>
+        <v>0.51797</v>
       </c>
       <c r="D110" t="n">
-        <v>0.428321</v>
+        <v>0.407378</v>
       </c>
       <c r="E110" t="n">
-        <v>0.179044</v>
+        <v>0.179613</v>
       </c>
       <c r="F110" t="n">
-        <v>0.288764</v>
+        <v>0.288534</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.235602</v>
+        <v>0.233718</v>
       </c>
       <c r="C111" t="n">
-        <v>0.471757</v>
+        <v>0.5197850000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.423848</v>
+        <v>0.402919</v>
       </c>
       <c r="E111" t="n">
-        <v>0.178371</v>
+        <v>0.177714</v>
       </c>
       <c r="F111" t="n">
-        <v>0.285536</v>
+        <v>0.284174</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.23006</v>
+        <v>0.22771</v>
       </c>
       <c r="C112" t="n">
-        <v>0.467213</v>
+        <v>0.519292</v>
       </c>
       <c r="D112" t="n">
-        <v>0.412016</v>
+        <v>0.405265</v>
       </c>
       <c r="E112" t="n">
-        <v>0.174097</v>
+        <v>0.17364</v>
       </c>
       <c r="F112" t="n">
-        <v>0.282395</v>
+        <v>0.281377</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.225017</v>
+        <v>0.222852</v>
       </c>
       <c r="C113" t="n">
-        <v>0.462609</v>
+        <v>0.518649</v>
       </c>
       <c r="D113" t="n">
-        <v>0.405635</v>
+        <v>0.400123</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166739</v>
+        <v>0.166935</v>
       </c>
       <c r="F113" t="n">
-        <v>0.279336</v>
+        <v>0.279198</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.220202</v>
+        <v>0.217189</v>
       </c>
       <c r="C114" t="n">
-        <v>0.45712</v>
+        <v>0.515348</v>
       </c>
       <c r="D114" t="n">
-        <v>0.406423</v>
+        <v>0.397603</v>
       </c>
       <c r="E114" t="n">
-        <v>0.162894</v>
+        <v>0.163105</v>
       </c>
       <c r="F114" t="n">
-        <v>0.275978</v>
+        <v>0.277181</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.214292</v>
+        <v>0.211461</v>
       </c>
       <c r="C115" t="n">
-        <v>0.479645</v>
+        <v>0.465353</v>
       </c>
       <c r="D115" t="n">
-        <v>0.400825</v>
+        <v>0.384573</v>
       </c>
       <c r="E115" t="n">
-        <v>0.159352</v>
+        <v>0.159539</v>
       </c>
       <c r="F115" t="n">
-        <v>0.272643</v>
+        <v>0.273492</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206733</v>
+        <v>0.205872</v>
       </c>
       <c r="C116" t="n">
-        <v>0.488803</v>
+        <v>0.470522</v>
       </c>
       <c r="D116" t="n">
-        <v>0.396031</v>
+        <v>0.382486</v>
       </c>
       <c r="E116" t="n">
-        <v>0.155749</v>
+        <v>0.155794</v>
       </c>
       <c r="F116" t="n">
-        <v>0.270113</v>
+        <v>0.27154</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.204038</v>
+        <v>0.200405</v>
       </c>
       <c r="C117" t="n">
-        <v>0.326329</v>
+        <v>0.313422</v>
       </c>
       <c r="D117" t="n">
-        <v>0.389256</v>
+        <v>0.38909</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152317</v>
+        <v>0.152139</v>
       </c>
       <c r="F117" t="n">
-        <v>0.26705</v>
+        <v>0.267425</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.195498</v>
+        <v>0.19846</v>
       </c>
       <c r="C118" t="n">
-        <v>0.460449</v>
+        <v>0.468894</v>
       </c>
       <c r="D118" t="n">
-        <v>0.396246</v>
+        <v>0.380805</v>
       </c>
       <c r="E118" t="n">
-        <v>0.148769</v>
+        <v>0.148787</v>
       </c>
       <c r="F118" t="n">
-        <v>0.263476</v>
+        <v>0.264565</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193328</v>
+        <v>0.193379</v>
       </c>
       <c r="C119" t="n">
-        <v>0.460035</v>
+        <v>0.454722</v>
       </c>
       <c r="D119" t="n">
-        <v>0.385563</v>
+        <v>0.393547</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1453</v>
+        <v>0.145189</v>
       </c>
       <c r="F119" t="n">
-        <v>0.258995</v>
+        <v>0.261389</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.187982</v>
+        <v>0.188328</v>
       </c>
       <c r="C120" t="n">
-        <v>0.451269</v>
+        <v>0.473263</v>
       </c>
       <c r="D120" t="n">
-        <v>0.383006</v>
+        <v>0.384395</v>
       </c>
       <c r="E120" t="n">
-        <v>0.141792</v>
+        <v>0.141623</v>
       </c>
       <c r="F120" t="n">
-        <v>0.255604</v>
+        <v>0.258314</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182092</v>
+        <v>0.180938</v>
       </c>
       <c r="C121" t="n">
-        <v>0.391754</v>
+        <v>0.436212</v>
       </c>
       <c r="D121" t="n">
-        <v>0.477485</v>
+        <v>0.458352</v>
       </c>
       <c r="E121" t="n">
-        <v>0.138195</v>
+        <v>0.137954</v>
       </c>
       <c r="F121" t="n">
-        <v>0.252384</v>
+        <v>0.255003</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.168999</v>
+        <v>0.170057</v>
       </c>
       <c r="C122" t="n">
-        <v>0.395172</v>
+        <v>0.385371</v>
       </c>
       <c r="D122" t="n">
-        <v>0.457863</v>
+        <v>0.46896</v>
       </c>
       <c r="E122" t="n">
-        <v>0.134277</v>
+        <v>0.134217</v>
       </c>
       <c r="F122" t="n">
-        <v>0.248927</v>
+        <v>0.252515</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.166609</v>
+        <v>0.160506</v>
       </c>
       <c r="C123" t="n">
-        <v>0.373178</v>
+        <v>0.370028</v>
       </c>
       <c r="D123" t="n">
-        <v>0.435298</v>
+        <v>0.448962</v>
       </c>
       <c r="E123" t="n">
-        <v>0.187324</v>
+        <v>0.187519</v>
       </c>
       <c r="F123" t="n">
-        <v>0.293264</v>
+        <v>0.290661</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.239023</v>
+        <v>0.238025</v>
       </c>
       <c r="C124" t="n">
-        <v>0.414056</v>
+        <v>0.434371</v>
       </c>
       <c r="D124" t="n">
-        <v>0.44491</v>
+        <v>0.428057</v>
       </c>
       <c r="E124" t="n">
-        <v>0.183054</v>
+        <v>0.182828</v>
       </c>
       <c r="F124" t="n">
-        <v>0.289743</v>
+        <v>0.287912</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.23435</v>
+        <v>0.233677</v>
       </c>
       <c r="C125" t="n">
-        <v>0.472195</v>
+        <v>0.485333</v>
       </c>
       <c r="D125" t="n">
-        <v>0.438011</v>
+        <v>0.422345</v>
       </c>
       <c r="E125" t="n">
-        <v>0.17854</v>
+        <v>0.17833</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286372</v>
+        <v>0.284817</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229612</v>
+        <v>0.228902</v>
       </c>
       <c r="C126" t="n">
-        <v>0.449881</v>
+        <v>0.471017</v>
       </c>
       <c r="D126" t="n">
-        <v>0.445349</v>
+        <v>0.427453</v>
       </c>
       <c r="E126" t="n">
-        <v>0.174648</v>
+        <v>0.17408</v>
       </c>
       <c r="F126" t="n">
-        <v>0.282961</v>
+        <v>0.281908</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.226273</v>
+        <v>0.224051</v>
       </c>
       <c r="C127" t="n">
-        <v>0.450762</v>
+        <v>0.453073</v>
       </c>
       <c r="D127" t="n">
-        <v>0.427733</v>
+        <v>0.410984</v>
       </c>
       <c r="E127" t="n">
-        <v>0.170833</v>
+        <v>0.170292</v>
       </c>
       <c r="F127" t="n">
-        <v>0.279323</v>
+        <v>0.27902</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.220947</v>
+        <v>0.219098</v>
       </c>
       <c r="C128" t="n">
-        <v>0.469738</v>
+        <v>0.471955</v>
       </c>
       <c r="D128" t="n">
-        <v>0.419213</v>
+        <v>0.418135</v>
       </c>
       <c r="E128" t="n">
-        <v>0.167081</v>
+        <v>0.166255</v>
       </c>
       <c r="F128" t="n">
-        <v>0.276402</v>
+        <v>0.276122</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.213457</v>
+        <v>0.213668</v>
       </c>
       <c r="C129" t="n">
-        <v>0.422651</v>
+        <v>0.380691</v>
       </c>
       <c r="D129" t="n">
-        <v>0.422992</v>
+        <v>0.42489</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163485</v>
+        <v>0.16277</v>
       </c>
       <c r="F129" t="n">
-        <v>0.273288</v>
+        <v>0.274087</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.210118</v>
+        <v>0.207048</v>
       </c>
       <c r="C130" t="n">
-        <v>0.457547</v>
+        <v>0.448269</v>
       </c>
       <c r="D130" t="n">
-        <v>0.398173</v>
+        <v>0.416158</v>
       </c>
       <c r="E130" t="n">
-        <v>0.159906</v>
+        <v>0.15911</v>
       </c>
       <c r="F130" t="n">
-        <v>0.26991</v>
+        <v>0.270534</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.205164</v>
+        <v>0.201487</v>
       </c>
       <c r="C131" t="n">
-        <v>0.449147</v>
+        <v>0.450888</v>
       </c>
       <c r="D131" t="n">
-        <v>0.397671</v>
+        <v>0.415</v>
       </c>
       <c r="E131" t="n">
-        <v>0.156517</v>
+        <v>0.155485</v>
       </c>
       <c r="F131" t="n">
-        <v>0.267445</v>
+        <v>0.267944</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.196765</v>
+        <v>0.199667</v>
       </c>
       <c r="C132" t="n">
-        <v>0.445011</v>
+        <v>0.357856</v>
       </c>
       <c r="D132" t="n">
-        <v>0.40044</v>
+        <v>0.401102</v>
       </c>
       <c r="E132" t="n">
-        <v>0.153252</v>
+        <v>0.152139</v>
       </c>
       <c r="F132" t="n">
-        <v>0.26349</v>
+        <v>0.265415</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190823</v>
+        <v>0.194411</v>
       </c>
       <c r="C133" t="n">
-        <v>0.443265</v>
+        <v>0.481522</v>
       </c>
       <c r="D133" t="n">
-        <v>0.403179</v>
+        <v>0.39161</v>
       </c>
       <c r="E133" t="n">
-        <v>0.149793</v>
+        <v>0.148665</v>
       </c>
       <c r="F133" t="n">
-        <v>0.26085</v>
+        <v>0.262076</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18488</v>
+        <v>0.18701</v>
       </c>
       <c r="C134" t="n">
-        <v>0.467146</v>
+        <v>0.429046</v>
       </c>
       <c r="D134" t="n">
-        <v>0.386189</v>
+        <v>0.405818</v>
       </c>
       <c r="E134" t="n">
-        <v>0.142549</v>
+        <v>0.142358</v>
       </c>
       <c r="F134" t="n">
-        <v>0.257397</v>
+        <v>0.258969</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.17826</v>
+        <v>0.183294</v>
       </c>
       <c r="C135" t="n">
-        <v>0.441715</v>
+        <v>0.45692</v>
       </c>
       <c r="D135" t="n">
-        <v>0.472795</v>
+        <v>0.466047</v>
       </c>
       <c r="E135" t="n">
-        <v>0.138962</v>
+        <v>0.138713</v>
       </c>
       <c r="F135" t="n">
-        <v>0.253431</v>
+        <v>0.255686</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17093</v>
+        <v>0.171456</v>
       </c>
       <c r="C136" t="n">
-        <v>0.353281</v>
+        <v>0.41125</v>
       </c>
       <c r="D136" t="n">
-        <v>0.45795</v>
+        <v>0.45222</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135098</v>
+        <v>0.135</v>
       </c>
       <c r="F136" t="n">
-        <v>0.250562</v>
+        <v>0.252521</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.168184</v>
+        <v>0.166091</v>
       </c>
       <c r="C137" t="n">
-        <v>0.363215</v>
+        <v>0.407264</v>
       </c>
       <c r="D137" t="n">
-        <v>0.468593</v>
+        <v>0.439088</v>
       </c>
       <c r="E137" t="n">
-        <v>0.185174</v>
+        <v>0.186158</v>
       </c>
       <c r="F137" t="n">
-        <v>0.29354</v>
+        <v>0.292268</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.238873</v>
+        <v>0.240986</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5497379999999999</v>
+        <v>0.473399</v>
       </c>
       <c r="D138" t="n">
-        <v>0.445655</v>
+        <v>0.449125</v>
       </c>
       <c r="E138" t="n">
-        <v>0.180732</v>
+        <v>0.181318</v>
       </c>
       <c r="F138" t="n">
-        <v>0.290222</v>
+        <v>0.288359</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.234636</v>
+        <v>0.236504</v>
       </c>
       <c r="C139" t="n">
-        <v>0.508186</v>
+        <v>0.496802</v>
       </c>
       <c r="D139" t="n">
-        <v>0.438292</v>
+        <v>0.440772</v>
       </c>
       <c r="E139" t="n">
-        <v>0.176206</v>
+        <v>0.176818</v>
       </c>
       <c r="F139" t="n">
-        <v>0.287655</v>
+        <v>0.285973</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.229663</v>
+        <v>0.23152</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5195959999999999</v>
+        <v>0.478239</v>
       </c>
       <c r="D140" t="n">
-        <v>0.434034</v>
+        <v>0.438741</v>
       </c>
       <c r="E140" t="n">
-        <v>0.175687</v>
+        <v>0.17512</v>
       </c>
       <c r="F140" t="n">
-        <v>0.284136</v>
+        <v>0.282683</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.224379</v>
+        <v>0.224915</v>
       </c>
       <c r="C141" t="n">
-        <v>0.438008</v>
+        <v>0.469401</v>
       </c>
       <c r="D141" t="n">
-        <v>0.419849</v>
+        <v>0.439187</v>
       </c>
       <c r="E141" t="n">
-        <v>0.171547</v>
+        <v>0.171035</v>
       </c>
       <c r="F141" t="n">
-        <v>0.280673</v>
+        <v>0.279757</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.2208</v>
+        <v>0.221032</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5256150000000001</v>
+        <v>0.38775</v>
       </c>
       <c r="D142" t="n">
-        <v>0.421915</v>
+        <v>0.427812</v>
       </c>
       <c r="E142" t="n">
-        <v>0.167801</v>
+        <v>0.167118</v>
       </c>
       <c r="F142" t="n">
-        <v>0.277388</v>
+        <v>0.276794</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215692</v>
+        <v>0.215698</v>
       </c>
       <c r="C143" t="n">
-        <v>0.499261</v>
+        <v>0.502474</v>
       </c>
       <c r="D143" t="n">
-        <v>0.416957</v>
+        <v>0.408549</v>
       </c>
       <c r="E143" t="n">
-        <v>0.164209</v>
+        <v>0.16357</v>
       </c>
       <c r="F143" t="n">
-        <v>0.274251</v>
+        <v>0.274326</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198039</v>
+        <v>0.185157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316419</v>
+        <v>0.318502</v>
       </c>
       <c r="D2" t="n">
-        <v>0.309565</v>
+        <v>0.322208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.196182</v>
+        <v>0.0888352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.316663</v>
+        <v>0.259649</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.193762</v>
+        <v>0.187289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315423</v>
+        <v>0.313136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.314294</v>
+        <v>0.32316</v>
       </c>
       <c r="E3" t="n">
-        <v>0.196841</v>
+        <v>0.0886378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.318276</v>
+        <v>0.258074</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.188337</v>
+        <v>0.181513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312745</v>
+        <v>0.313253</v>
       </c>
       <c r="D4" t="n">
-        <v>0.317344</v>
+        <v>0.325755</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196898</v>
+        <v>0.0862497</v>
       </c>
       <c r="F4" t="n">
-        <v>0.316417</v>
+        <v>0.25636</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.182788</v>
+        <v>0.177588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303331</v>
+        <v>0.308646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332271</v>
+        <v>0.327505</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196851</v>
+        <v>0.09388249999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.315708</v>
+        <v>0.254142</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181828</v>
+        <v>0.172433</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301634</v>
+        <v>0.303835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333413</v>
+        <v>0.328969</v>
       </c>
       <c r="E6" t="n">
-        <v>0.197339</v>
+        <v>0.0912126</v>
       </c>
       <c r="F6" t="n">
-        <v>0.316</v>
+        <v>0.251079</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169635</v>
+        <v>0.166797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293504</v>
+        <v>0.298207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.315713</v>
+        <v>0.3181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.197654</v>
+        <v>0.09038110000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.315572</v>
+        <v>0.247503</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166119</v>
+        <v>0.159823</v>
       </c>
       <c r="C8" t="n">
-        <v>0.281763</v>
+        <v>0.287695</v>
       </c>
       <c r="D8" t="n">
-        <v>0.315335</v>
+        <v>0.318086</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198048</v>
+        <v>0.0876634</v>
       </c>
       <c r="F8" t="n">
-        <v>0.315043</v>
+        <v>0.246786</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.158341</v>
+        <v>0.152438</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27807</v>
+        <v>0.286019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.317159</v>
+        <v>0.319706</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215092</v>
+        <v>0.164383</v>
       </c>
       <c r="F9" t="n">
-        <v>0.328643</v>
+        <v>0.290845</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.237257</v>
+        <v>0.229495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351217</v>
+        <v>0.3423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.316448</v>
+        <v>0.322568</v>
       </c>
       <c r="E10" t="n">
-        <v>0.213228</v>
+        <v>0.160151</v>
       </c>
       <c r="F10" t="n">
-        <v>0.32841</v>
+        <v>0.287972</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.23291</v>
+        <v>0.22596</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347033</v>
+        <v>0.351936</v>
       </c>
       <c r="D11" t="n">
-        <v>0.317772</v>
+        <v>0.322308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.212467</v>
+        <v>0.154913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.326143</v>
+        <v>0.286251</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.22683</v>
+        <v>0.220638</v>
       </c>
       <c r="C12" t="n">
-        <v>0.342523</v>
+        <v>0.346062</v>
       </c>
       <c r="D12" t="n">
-        <v>0.320455</v>
+        <v>0.321919</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212113</v>
+        <v>0.152871</v>
       </c>
       <c r="F12" t="n">
-        <v>0.325918</v>
+        <v>0.282758</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221872</v>
+        <v>0.2151</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340801</v>
+        <v>0.342635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.322094</v>
+        <v>0.325481</v>
       </c>
       <c r="E13" t="n">
-        <v>0.211485</v>
+        <v>0.149522</v>
       </c>
       <c r="F13" t="n">
-        <v>0.325397</v>
+        <v>0.281418</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.218494</v>
+        <v>0.214344</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336581</v>
+        <v>0.338101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.323662</v>
+        <v>0.325681</v>
       </c>
       <c r="E14" t="n">
-        <v>0.210565</v>
+        <v>0.14485</v>
       </c>
       <c r="F14" t="n">
-        <v>0.323269</v>
+        <v>0.277074</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.213004</v>
+        <v>0.207039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.319841</v>
+        <v>0.322237</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324178</v>
+        <v>0.324833</v>
       </c>
       <c r="E15" t="n">
-        <v>0.209938</v>
+        <v>0.141256</v>
       </c>
       <c r="F15" t="n">
-        <v>0.322049</v>
+        <v>0.274296</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.20851</v>
+        <v>0.201815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.323498</v>
+        <v>0.327567</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326241</v>
+        <v>0.327059</v>
       </c>
       <c r="E16" t="n">
-        <v>0.208726</v>
+        <v>0.138519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.320796</v>
+        <v>0.271051</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203756</v>
+        <v>0.197135</v>
       </c>
       <c r="C17" t="n">
-        <v>0.313249</v>
+        <v>0.317824</v>
       </c>
       <c r="D17" t="n">
-        <v>0.327901</v>
+        <v>0.330112</v>
       </c>
       <c r="E17" t="n">
-        <v>0.20794</v>
+        <v>0.135729</v>
       </c>
       <c r="F17" t="n">
-        <v>0.320214</v>
+        <v>0.268351</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.199901</v>
+        <v>0.191989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.314213</v>
+        <v>0.318077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.331556</v>
+        <v>0.330685</v>
       </c>
       <c r="E18" t="n">
-        <v>0.207039</v>
+        <v>0.133356</v>
       </c>
       <c r="F18" t="n">
-        <v>0.319789</v>
+        <v>0.264372</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.193629</v>
+        <v>0.188189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.308842</v>
+        <v>0.311591</v>
       </c>
       <c r="D19" t="n">
-        <v>0.333714</v>
+        <v>0.332365</v>
       </c>
       <c r="E19" t="n">
-        <v>0.20665</v>
+        <v>0.130961</v>
       </c>
       <c r="F19" t="n">
-        <v>0.318676</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187185</v>
+        <v>0.182541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.301654</v>
+        <v>0.30583</v>
       </c>
       <c r="D20" t="n">
-        <v>0.335579</v>
+        <v>0.333322</v>
       </c>
       <c r="E20" t="n">
-        <v>0.205974</v>
+        <v>0.127629</v>
       </c>
       <c r="F20" t="n">
-        <v>0.318552</v>
+        <v>0.260141</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.181744</v>
+        <v>0.175971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.299518</v>
+        <v>0.3034</v>
       </c>
       <c r="D21" t="n">
-        <v>0.318668</v>
+        <v>0.323129</v>
       </c>
       <c r="E21" t="n">
-        <v>0.205177</v>
+        <v>0.124191</v>
       </c>
       <c r="F21" t="n">
-        <v>0.319185</v>
+        <v>0.255937</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169611</v>
+        <v>0.168726</v>
       </c>
       <c r="C22" t="n">
-        <v>0.288004</v>
+        <v>0.295569</v>
       </c>
       <c r="D22" t="n">
-        <v>0.318504</v>
+        <v>0.323856</v>
       </c>
       <c r="E22" t="n">
-        <v>0.204458</v>
+        <v>0.121534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.316293</v>
+        <v>0.252618</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.165369</v>
+        <v>0.161103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277601</v>
+        <v>0.285132</v>
       </c>
       <c r="D23" t="n">
-        <v>0.319039</v>
+        <v>0.324894</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220767</v>
+        <v>0.177424</v>
       </c>
       <c r="F23" t="n">
-        <v>0.331025</v>
+        <v>0.296318</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.236637</v>
+        <v>0.232156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.35504</v>
+        <v>0.359547</v>
       </c>
       <c r="D24" t="n">
-        <v>0.322216</v>
+        <v>0.327074</v>
       </c>
       <c r="E24" t="n">
-        <v>0.218939</v>
+        <v>0.172283</v>
       </c>
       <c r="F24" t="n">
-        <v>0.330063</v>
+        <v>0.292453</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.235156</v>
+        <v>0.228091</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349105</v>
+        <v>0.349679</v>
       </c>
       <c r="D25" t="n">
-        <v>0.323625</v>
+        <v>0.326089</v>
       </c>
       <c r="E25" t="n">
-        <v>0.217618</v>
+        <v>0.165776</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329757</v>
+        <v>0.289725</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229281</v>
+        <v>0.224397</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344807</v>
+        <v>0.346209</v>
       </c>
       <c r="D26" t="n">
-        <v>0.322615</v>
+        <v>0.323294</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216425</v>
+        <v>0.163911</v>
       </c>
       <c r="F26" t="n">
-        <v>0.327824</v>
+        <v>0.285711</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.225395</v>
+        <v>0.219899</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343028</v>
+        <v>0.343846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.323999</v>
+        <v>0.32577</v>
       </c>
       <c r="E27" t="n">
-        <v>0.215003</v>
+        <v>0.160988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.32727</v>
+        <v>0.283569</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220174</v>
+        <v>0.215539</v>
       </c>
       <c r="C28" t="n">
-        <v>0.338369</v>
+        <v>0.339391</v>
       </c>
       <c r="D28" t="n">
-        <v>0.325367</v>
+        <v>0.326779</v>
       </c>
       <c r="E28" t="n">
-        <v>0.213842</v>
+        <v>0.157781</v>
       </c>
       <c r="F28" t="n">
-        <v>0.326686</v>
+        <v>0.280674</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.215007</v>
+        <v>0.210558</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333117</v>
+        <v>0.333939</v>
       </c>
       <c r="D29" t="n">
-        <v>0.32906</v>
+        <v>0.328612</v>
       </c>
       <c r="E29" t="n">
-        <v>0.212555</v>
+        <v>0.154912</v>
       </c>
       <c r="F29" t="n">
-        <v>0.327074</v>
+        <v>0.27936</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210651</v>
+        <v>0.205263</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330089</v>
+        <v>0.332029</v>
       </c>
       <c r="D30" t="n">
-        <v>0.330025</v>
+        <v>0.331142</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21131</v>
+        <v>0.150274</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32554</v>
+        <v>0.275273</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.205018</v>
+        <v>0.199597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322506</v>
+        <v>0.322691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331852</v>
+        <v>0.331918</v>
       </c>
       <c r="E31" t="n">
-        <v>0.210128</v>
+        <v>0.147184</v>
       </c>
       <c r="F31" t="n">
-        <v>0.32433</v>
+        <v>0.273108</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196874</v>
+        <v>0.194967</v>
       </c>
       <c r="C32" t="n">
-        <v>0.319564</v>
+        <v>0.322761</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332338</v>
+        <v>0.332325</v>
       </c>
       <c r="E32" t="n">
-        <v>0.209063</v>
+        <v>0.143713</v>
       </c>
       <c r="F32" t="n">
-        <v>0.32262</v>
+        <v>0.270037</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196106</v>
+        <v>0.189697</v>
       </c>
       <c r="C33" t="n">
-        <v>0.309981</v>
+        <v>0.313572</v>
       </c>
       <c r="D33" t="n">
-        <v>0.336587</v>
+        <v>0.332911</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208206</v>
+        <v>0.139649</v>
       </c>
       <c r="F33" t="n">
-        <v>0.32185</v>
+        <v>0.265852</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.189556</v>
+        <v>0.18401</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309942</v>
+        <v>0.314729</v>
       </c>
       <c r="D34" t="n">
-        <v>0.338697</v>
+        <v>0.334204</v>
       </c>
       <c r="E34" t="n">
-        <v>0.207283</v>
+        <v>0.137684</v>
       </c>
       <c r="F34" t="n">
-        <v>0.321654</v>
+        <v>0.263289</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185612</v>
+        <v>0.178903</v>
       </c>
       <c r="C35" t="n">
-        <v>0.302861</v>
+        <v>0.30623</v>
       </c>
       <c r="D35" t="n">
-        <v>0.322838</v>
+        <v>0.330331</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2065</v>
+        <v>0.133169</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320729</v>
+        <v>0.258307</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178782</v>
+        <v>0.172134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.290962</v>
+        <v>0.296632</v>
       </c>
       <c r="D36" t="n">
-        <v>0.323149</v>
+        <v>0.328919</v>
       </c>
       <c r="E36" t="n">
-        <v>0.20579</v>
+        <v>0.130087</v>
       </c>
       <c r="F36" t="n">
-        <v>0.319726</v>
+        <v>0.255085</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16974</v>
+        <v>0.16558</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276509</v>
+        <v>0.283391</v>
       </c>
       <c r="D37" t="n">
-        <v>0.322484</v>
+        <v>0.326178</v>
       </c>
       <c r="E37" t="n">
-        <v>0.222266</v>
+        <v>0.179513</v>
       </c>
       <c r="F37" t="n">
-        <v>0.334461</v>
+        <v>0.297911</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242459</v>
+        <v>0.236326</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352154</v>
+        <v>0.351749</v>
       </c>
       <c r="D38" t="n">
-        <v>0.324654</v>
+        <v>0.329361</v>
       </c>
       <c r="E38" t="n">
-        <v>0.220484</v>
+        <v>0.174872</v>
       </c>
       <c r="F38" t="n">
-        <v>0.333141</v>
+        <v>0.296179</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235937</v>
+        <v>0.231541</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348957</v>
+        <v>0.348579</v>
       </c>
       <c r="D39" t="n">
-        <v>0.326529</v>
+        <v>0.327776</v>
       </c>
       <c r="E39" t="n">
-        <v>0.218646</v>
+        <v>0.169917</v>
       </c>
       <c r="F39" t="n">
-        <v>0.330717</v>
+        <v>0.291812</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232247</v>
+        <v>0.227974</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345654</v>
+        <v>0.345406</v>
       </c>
       <c r="D40" t="n">
-        <v>0.326624</v>
+        <v>0.3279</v>
       </c>
       <c r="E40" t="n">
-        <v>0.217024</v>
+        <v>0.167141</v>
       </c>
       <c r="F40" t="n">
-        <v>0.329927</v>
+        <v>0.289489</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227155</v>
+        <v>0.223994</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34176</v>
+        <v>0.341296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327161</v>
+        <v>0.33086</v>
       </c>
       <c r="E41" t="n">
-        <v>0.215607</v>
+        <v>0.162295</v>
       </c>
       <c r="F41" t="n">
-        <v>0.328181</v>
+        <v>0.285156</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.223449</v>
+        <v>0.219005</v>
       </c>
       <c r="C42" t="n">
-        <v>0.336746</v>
+        <v>0.337562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.328339</v>
+        <v>0.3313</v>
       </c>
       <c r="E42" t="n">
-        <v>0.214423</v>
+        <v>0.159195</v>
       </c>
       <c r="F42" t="n">
-        <v>0.328124</v>
+        <v>0.283537</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.215928</v>
+        <v>0.213032</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332156</v>
+        <v>0.332818</v>
       </c>
       <c r="D43" t="n">
-        <v>0.32823</v>
+        <v>0.329934</v>
       </c>
       <c r="E43" t="n">
-        <v>0.213016</v>
+        <v>0.156581</v>
       </c>
       <c r="F43" t="n">
-        <v>0.325913</v>
+        <v>0.280404</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.214382</v>
+        <v>0.208577</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328002</v>
+        <v>0.327914</v>
       </c>
       <c r="D44" t="n">
-        <v>0.329964</v>
+        <v>0.330614</v>
       </c>
       <c r="E44" t="n">
-        <v>0.211863</v>
+        <v>0.15267</v>
       </c>
       <c r="F44" t="n">
-        <v>0.325104</v>
+        <v>0.278472</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207838</v>
+        <v>0.203211</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324408</v>
+        <v>0.326559</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331189</v>
+        <v>0.331909</v>
       </c>
       <c r="E45" t="n">
-        <v>0.210727</v>
+        <v>0.150905</v>
       </c>
       <c r="F45" t="n">
-        <v>0.324074</v>
+        <v>0.27349</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.20195</v>
+        <v>0.198054</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32382</v>
+        <v>0.323941</v>
       </c>
       <c r="D46" t="n">
-        <v>0.332638</v>
+        <v>0.331726</v>
       </c>
       <c r="E46" t="n">
-        <v>0.209586</v>
+        <v>0.147498</v>
       </c>
       <c r="F46" t="n">
-        <v>0.323702</v>
+        <v>0.270685</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197266</v>
+        <v>0.192335</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313051</v>
+        <v>0.315553</v>
       </c>
       <c r="D47" t="n">
-        <v>0.337086</v>
+        <v>0.336466</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208629</v>
+        <v>0.144491</v>
       </c>
       <c r="F47" t="n">
-        <v>0.322908</v>
+        <v>0.268616</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192275</v>
+        <v>0.18772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306904</v>
+        <v>0.307406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33761</v>
+        <v>0.335604</v>
       </c>
       <c r="E48" t="n">
-        <v>0.207675</v>
+        <v>0.140596</v>
       </c>
       <c r="F48" t="n">
-        <v>0.321162</v>
+        <v>0.26432</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182895</v>
+        <v>0.182535</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300135</v>
+        <v>0.305293</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341829</v>
+        <v>0.337898</v>
       </c>
       <c r="E49" t="n">
-        <v>0.206862</v>
+        <v>0.13763</v>
       </c>
       <c r="F49" t="n">
-        <v>0.320523</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175668</v>
+        <v>0.174556</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299076</v>
+        <v>0.299822</v>
       </c>
       <c r="D50" t="n">
-        <v>0.32396</v>
+        <v>0.330341</v>
       </c>
       <c r="E50" t="n">
-        <v>0.205838</v>
+        <v>0.134591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.320389</v>
+        <v>0.258115</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173333</v>
+        <v>0.167701</v>
       </c>
       <c r="C51" t="n">
-        <v>0.283257</v>
+        <v>0.288356</v>
       </c>
       <c r="D51" t="n">
-        <v>0.326193</v>
+        <v>0.3295</v>
       </c>
       <c r="E51" t="n">
-        <v>0.223613</v>
+        <v>0.181155</v>
       </c>
       <c r="F51" t="n">
-        <v>0.335276</v>
+        <v>0.298259</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165105</v>
+        <v>0.159893</v>
       </c>
       <c r="C52" t="n">
-        <v>0.280242</v>
+        <v>0.286282</v>
       </c>
       <c r="D52" t="n">
-        <v>0.326803</v>
+        <v>0.330912</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220533</v>
+        <v>0.178062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.333519</v>
+        <v>0.295474</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.237109</v>
+        <v>0.234029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.351196</v>
+        <v>0.349881</v>
       </c>
       <c r="D53" t="n">
-        <v>0.328003</v>
+        <v>0.332668</v>
       </c>
       <c r="E53" t="n">
-        <v>0.219129</v>
+        <v>0.17292</v>
       </c>
       <c r="F53" t="n">
-        <v>0.33189</v>
+        <v>0.293163</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.233327</v>
+        <v>0.22999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.348436</v>
+        <v>0.346124</v>
       </c>
       <c r="D54" t="n">
-        <v>0.327154</v>
+        <v>0.331068</v>
       </c>
       <c r="E54" t="n">
-        <v>0.217434</v>
+        <v>0.168511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.331723</v>
+        <v>0.290571</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.229418</v>
+        <v>0.224831</v>
       </c>
       <c r="C55" t="n">
-        <v>0.344551</v>
+        <v>0.342618</v>
       </c>
       <c r="D55" t="n">
-        <v>0.329754</v>
+        <v>0.331962</v>
       </c>
       <c r="E55" t="n">
-        <v>0.215743</v>
+        <v>0.165947</v>
       </c>
       <c r="F55" t="n">
-        <v>0.329122</v>
+        <v>0.286442</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222924</v>
+        <v>0.220279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.340935</v>
+        <v>0.339199</v>
       </c>
       <c r="D56" t="n">
-        <v>0.331337</v>
+        <v>0.333605</v>
       </c>
       <c r="E56" t="n">
-        <v>0.214463</v>
+        <v>0.161472</v>
       </c>
       <c r="F56" t="n">
-        <v>0.328198</v>
+        <v>0.284572</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.219082</v>
+        <v>0.214926</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335479</v>
+        <v>0.335236</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335005</v>
+        <v>0.335956</v>
       </c>
       <c r="E57" t="n">
-        <v>0.213327</v>
+        <v>0.158662</v>
       </c>
       <c r="F57" t="n">
-        <v>0.327301</v>
+        <v>0.281251</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.214071</v>
+        <v>0.209769</v>
       </c>
       <c r="C58" t="n">
-        <v>0.323354</v>
+        <v>0.324666</v>
       </c>
       <c r="D58" t="n">
-        <v>0.338561</v>
+        <v>0.33797</v>
       </c>
       <c r="E58" t="n">
-        <v>0.212086</v>
+        <v>0.155471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.326308</v>
+        <v>0.278912</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.205877</v>
+        <v>0.204644</v>
       </c>
       <c r="C59" t="n">
-        <v>0.327605</v>
+        <v>0.326828</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341323</v>
+        <v>0.341602</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210918</v>
+        <v>0.15237</v>
       </c>
       <c r="F59" t="n">
-        <v>0.325386</v>
+        <v>0.276068</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203442</v>
+        <v>0.199692</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32311</v>
+        <v>0.321789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.345857</v>
+        <v>0.34321</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209806</v>
+        <v>0.149011</v>
       </c>
       <c r="F60" t="n">
-        <v>0.324682</v>
+        <v>0.272976</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.198804</v>
+        <v>0.194626</v>
       </c>
       <c r="C61" t="n">
-        <v>0.338317</v>
+        <v>0.336695</v>
       </c>
       <c r="D61" t="n">
-        <v>0.349254</v>
+        <v>0.347332</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208846</v>
+        <v>0.146127</v>
       </c>
       <c r="F61" t="n">
-        <v>0.323463</v>
+        <v>0.269934</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190133</v>
+        <v>0.189169</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310381</v>
+        <v>0.310825</v>
       </c>
       <c r="D62" t="n">
-        <v>0.352205</v>
+        <v>0.348914</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207847</v>
+        <v>0.142859</v>
       </c>
       <c r="F62" t="n">
-        <v>0.322319</v>
+        <v>0.266938</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.183308</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321623</v>
+        <v>0.321448</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35729</v>
+        <v>0.35248</v>
       </c>
       <c r="E63" t="n">
-        <v>0.206913</v>
+        <v>0.139769</v>
       </c>
       <c r="F63" t="n">
-        <v>0.321296</v>
+        <v>0.263455</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.182676</v>
+        <v>0.17743</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316358</v>
+        <v>0.317216</v>
       </c>
       <c r="D64" t="n">
-        <v>0.380665</v>
+        <v>0.386551</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205993</v>
+        <v>0.136411</v>
       </c>
       <c r="F64" t="n">
-        <v>0.320746</v>
+        <v>0.259723</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.175436</v>
+        <v>0.170508</v>
       </c>
       <c r="C65" t="n">
-        <v>0.285989</v>
+        <v>0.293068</v>
       </c>
       <c r="D65" t="n">
-        <v>0.384326</v>
+        <v>0.387456</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2053</v>
+        <v>0.13397</v>
       </c>
       <c r="F65" t="n">
-        <v>0.319907</v>
+        <v>0.256108</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.16151</v>
+        <v>0.162671</v>
       </c>
       <c r="C66" t="n">
-        <v>0.307283</v>
+        <v>0.313133</v>
       </c>
       <c r="D66" t="n">
-        <v>0.38735</v>
+        <v>0.392436</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22174</v>
+        <v>0.182299</v>
       </c>
       <c r="F66" t="n">
-        <v>0.334744</v>
+        <v>0.297881</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.239245</v>
+        <v>0.235555</v>
       </c>
       <c r="C67" t="n">
-        <v>0.383015</v>
+        <v>0.38487</v>
       </c>
       <c r="D67" t="n">
-        <v>0.378608</v>
+        <v>0.385251</v>
       </c>
       <c r="E67" t="n">
-        <v>0.219736</v>
+        <v>0.177251</v>
       </c>
       <c r="F67" t="n">
-        <v>0.332708</v>
+        <v>0.294723</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.234984</v>
+        <v>0.231857</v>
       </c>
       <c r="C68" t="n">
-        <v>0.380777</v>
+        <v>0.382363</v>
       </c>
       <c r="D68" t="n">
-        <v>0.389722</v>
+        <v>0.396995</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21814</v>
+        <v>0.172526</v>
       </c>
       <c r="F68" t="n">
-        <v>0.33176</v>
+        <v>0.292263</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230165</v>
+        <v>0.226837</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375024</v>
+        <v>0.377352</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391123</v>
+        <v>0.397812</v>
       </c>
       <c r="E69" t="n">
-        <v>0.216714</v>
+        <v>0.168441</v>
       </c>
       <c r="F69" t="n">
-        <v>0.329921</v>
+        <v>0.28854</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.22637</v>
+        <v>0.222275</v>
       </c>
       <c r="C70" t="n">
-        <v>0.371186</v>
+        <v>0.373169</v>
       </c>
       <c r="D70" t="n">
-        <v>0.393549</v>
+        <v>0.398079</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21532</v>
+        <v>0.165413</v>
       </c>
       <c r="F70" t="n">
-        <v>0.329055</v>
+        <v>0.28574</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219685</v>
+        <v>0.217376</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365124</v>
+        <v>0.367</v>
       </c>
       <c r="D71" t="n">
-        <v>0.383449</v>
+        <v>0.38803</v>
       </c>
       <c r="E71" t="n">
-        <v>0.214075</v>
+        <v>0.161224</v>
       </c>
       <c r="F71" t="n">
-        <v>0.327182</v>
+        <v>0.282721</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213435</v>
+        <v>0.212117</v>
       </c>
       <c r="C72" t="n">
-        <v>0.385198</v>
+        <v>0.391479</v>
       </c>
       <c r="D72" t="n">
-        <v>0.383347</v>
+        <v>0.389359</v>
       </c>
       <c r="E72" t="n">
-        <v>0.212847</v>
+        <v>0.158327</v>
       </c>
       <c r="F72" t="n">
-        <v>0.326094</v>
+        <v>0.279896</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.21052</v>
+        <v>0.206821</v>
       </c>
       <c r="C73" t="n">
-        <v>0.434361</v>
+        <v>0.447911</v>
       </c>
       <c r="D73" t="n">
-        <v>0.395812</v>
+        <v>0.399191</v>
       </c>
       <c r="E73" t="n">
-        <v>0.211554</v>
+        <v>0.154922</v>
       </c>
       <c r="F73" t="n">
-        <v>0.326223</v>
+        <v>0.276351</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.202826</v>
+        <v>0.201866</v>
       </c>
       <c r="C74" t="n">
-        <v>0.50515</v>
+        <v>0.40098</v>
       </c>
       <c r="D74" t="n">
-        <v>0.396497</v>
+        <v>0.391095</v>
       </c>
       <c r="E74" t="n">
-        <v>0.210331</v>
+        <v>0.15125</v>
       </c>
       <c r="F74" t="n">
-        <v>0.325121</v>
+        <v>0.273737</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.200433</v>
+        <v>0.19641</v>
       </c>
       <c r="C75" t="n">
-        <v>0.424146</v>
+        <v>0.391133</v>
       </c>
       <c r="D75" t="n">
-        <v>0.394012</v>
+        <v>0.391326</v>
       </c>
       <c r="E75" t="n">
-        <v>0.209315</v>
+        <v>0.148855</v>
       </c>
       <c r="F75" t="n">
-        <v>0.324058</v>
+        <v>0.271022</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195052</v>
+        <v>0.191223</v>
       </c>
       <c r="C76" t="n">
-        <v>0.432666</v>
+        <v>0.422793</v>
       </c>
       <c r="D76" t="n">
-        <v>0.385415</v>
+        <v>0.39226</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208313</v>
+        <v>0.145096</v>
       </c>
       <c r="F76" t="n">
-        <v>0.321859</v>
+        <v>0.268504</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18588</v>
+        <v>0.18521</v>
       </c>
       <c r="C77" t="n">
-        <v>0.413597</v>
+        <v>0.426271</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399165</v>
+        <v>0.399541</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207214</v>
+        <v>0.141666</v>
       </c>
       <c r="F77" t="n">
-        <v>0.322049</v>
+        <v>0.264362</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183954</v>
+        <v>0.17963</v>
       </c>
       <c r="C78" t="n">
-        <v>0.404342</v>
+        <v>0.414234</v>
       </c>
       <c r="D78" t="n">
-        <v>0.450311</v>
+        <v>0.463162</v>
       </c>
       <c r="E78" t="n">
-        <v>0.206537</v>
+        <v>0.138639</v>
       </c>
       <c r="F78" t="n">
-        <v>0.319915</v>
+        <v>0.261439</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177332</v>
+        <v>0.172979</v>
       </c>
       <c r="C79" t="n">
-        <v>0.315879</v>
+        <v>0.324183</v>
       </c>
       <c r="D79" t="n">
-        <v>0.44593</v>
+        <v>0.455943</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205816</v>
+        <v>0.135973</v>
       </c>
       <c r="F79" t="n">
-        <v>0.319103</v>
+        <v>0.258015</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169589</v>
+        <v>0.164891</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389973</v>
+        <v>0.361112</v>
       </c>
       <c r="D80" t="n">
-        <v>0.442258</v>
+        <v>0.437372</v>
       </c>
       <c r="E80" t="n">
-        <v>0.224387</v>
+        <v>0.182707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.334767</v>
+        <v>0.297204</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242077</v>
+        <v>0.236976</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373661</v>
+        <v>0.376866</v>
       </c>
       <c r="D81" t="n">
-        <v>0.422901</v>
+        <v>0.446056</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221993</v>
+        <v>0.177856</v>
       </c>
       <c r="F81" t="n">
-        <v>0.332937</v>
+        <v>0.293579</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238337</v>
+        <v>0.232915</v>
       </c>
       <c r="C82" t="n">
-        <v>0.370128</v>
+        <v>0.372568</v>
       </c>
       <c r="D82" t="n">
-        <v>0.431972</v>
+        <v>0.442018</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219747</v>
+        <v>0.17334</v>
       </c>
       <c r="F82" t="n">
-        <v>0.332091</v>
+        <v>0.289823</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.233393</v>
+        <v>0.22823</v>
       </c>
       <c r="C83" t="n">
-        <v>0.36513</v>
+        <v>0.366861</v>
       </c>
       <c r="D83" t="n">
-        <v>0.416602</v>
+        <v>0.421625</v>
       </c>
       <c r="E83" t="n">
-        <v>0.218249</v>
+        <v>0.169479</v>
       </c>
       <c r="F83" t="n">
-        <v>0.330379</v>
+        <v>0.287675</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.228169</v>
+        <v>0.223658</v>
       </c>
       <c r="C84" t="n">
-        <v>0.359783</v>
+        <v>0.362452</v>
       </c>
       <c r="D84" t="n">
-        <v>0.415232</v>
+        <v>0.420772</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216523</v>
+        <v>0.166573</v>
       </c>
       <c r="F84" t="n">
-        <v>0.328979</v>
+        <v>0.284196</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.223053</v>
+        <v>0.218303</v>
       </c>
       <c r="C85" t="n">
-        <v>0.354822</v>
+        <v>0.356197</v>
       </c>
       <c r="D85" t="n">
-        <v>0.411634</v>
+        <v>0.41717</v>
       </c>
       <c r="E85" t="n">
-        <v>0.215208</v>
+        <v>0.163112</v>
       </c>
       <c r="F85" t="n">
-        <v>0.328088</v>
+        <v>0.281961</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.215091</v>
+        <v>0.213644</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3488</v>
+        <v>0.351356</v>
       </c>
       <c r="D86" t="n">
-        <v>0.420989</v>
+        <v>0.428137</v>
       </c>
       <c r="E86" t="n">
-        <v>0.213791</v>
+        <v>0.159868</v>
       </c>
       <c r="F86" t="n">
-        <v>0.327214</v>
+        <v>0.279097</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.20965</v>
+        <v>0.208341</v>
       </c>
       <c r="C87" t="n">
-        <v>0.354432</v>
+        <v>0.361028</v>
       </c>
       <c r="D87" t="n">
-        <v>0.420751</v>
+        <v>0.42866</v>
       </c>
       <c r="E87" t="n">
-        <v>0.212218</v>
+        <v>0.156644</v>
       </c>
       <c r="F87" t="n">
-        <v>0.326101</v>
+        <v>0.276898</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206688</v>
+        <v>0.203129</v>
       </c>
       <c r="C88" t="n">
-        <v>0.427409</v>
+        <v>0.432048</v>
       </c>
       <c r="D88" t="n">
-        <v>0.418385</v>
+        <v>0.424797</v>
       </c>
       <c r="E88" t="n">
-        <v>0.210796</v>
+        <v>0.15307</v>
       </c>
       <c r="F88" t="n">
-        <v>0.325197</v>
+        <v>0.273854</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201045</v>
+        <v>0.197569</v>
       </c>
       <c r="C89" t="n">
-        <v>0.411439</v>
+        <v>0.421335</v>
       </c>
       <c r="D89" t="n">
-        <v>0.416137</v>
+        <v>0.422342</v>
       </c>
       <c r="E89" t="n">
-        <v>0.209645</v>
+        <v>0.14992</v>
       </c>
       <c r="F89" t="n">
-        <v>0.324161</v>
+        <v>0.271781</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19653</v>
+        <v>0.192324</v>
       </c>
       <c r="C90" t="n">
-        <v>0.394311</v>
+        <v>0.404634</v>
       </c>
       <c r="D90" t="n">
-        <v>0.416668</v>
+        <v>0.422055</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208763</v>
+        <v>0.147093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.323356</v>
+        <v>0.267128</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.191541</v>
+        <v>0.186682</v>
       </c>
       <c r="C91" t="n">
-        <v>0.412321</v>
+        <v>0.422162</v>
       </c>
       <c r="D91" t="n">
-        <v>0.41446</v>
+        <v>0.417191</v>
       </c>
       <c r="E91" t="n">
-        <v>0.20778</v>
+        <v>0.14356</v>
       </c>
       <c r="F91" t="n">
-        <v>0.322384</v>
+        <v>0.26504</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185137</v>
+        <v>0.18041</v>
       </c>
       <c r="C92" t="n">
-        <v>0.441949</v>
+        <v>0.453135</v>
       </c>
       <c r="D92" t="n">
-        <v>0.452927</v>
+        <v>0.468812</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206887</v>
+        <v>0.140315</v>
       </c>
       <c r="F92" t="n">
-        <v>0.321361</v>
+        <v>0.261847</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173724</v>
+        <v>0.174183</v>
       </c>
       <c r="C93" t="n">
-        <v>0.409194</v>
+        <v>0.423253</v>
       </c>
       <c r="D93" t="n">
-        <v>0.448389</v>
+        <v>0.462862</v>
       </c>
       <c r="E93" t="n">
-        <v>0.206105</v>
+        <v>0.136553</v>
       </c>
       <c r="F93" t="n">
-        <v>0.320525</v>
+        <v>0.258501</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.171365</v>
+        <v>0.166384</v>
       </c>
       <c r="C94" t="n">
-        <v>0.325018</v>
+        <v>0.334178</v>
       </c>
       <c r="D94" t="n">
-        <v>0.441247</v>
+        <v>0.455085</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224713</v>
+        <v>0.182866</v>
       </c>
       <c r="F94" t="n">
-        <v>0.336322</v>
+        <v>0.297321</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.241006</v>
+        <v>0.237877</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478767</v>
+        <v>0.411509</v>
       </c>
       <c r="D95" t="n">
-        <v>0.422132</v>
+        <v>0.43314</v>
       </c>
       <c r="E95" t="n">
-        <v>0.221477</v>
+        <v>0.178319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.333852</v>
+        <v>0.296119</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236891</v>
+        <v>0.233223</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354454</v>
+        <v>0.357847</v>
       </c>
       <c r="D96" t="n">
-        <v>0.423552</v>
+        <v>0.445688</v>
       </c>
       <c r="E96" t="n">
-        <v>0.219726</v>
+        <v>0.174169</v>
       </c>
       <c r="F96" t="n">
-        <v>0.330728</v>
+        <v>0.291002</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.232382</v>
+        <v>0.228819</v>
       </c>
       <c r="C97" t="n">
-        <v>0.349837</v>
+        <v>0.353688</v>
       </c>
       <c r="D97" t="n">
-        <v>0.405597</v>
+        <v>0.427007</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218326</v>
+        <v>0.170383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.328395</v>
+        <v>0.287925</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.229574</v>
+        <v>0.223951</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345736</v>
+        <v>0.349328</v>
       </c>
       <c r="D98" t="n">
-        <v>0.401539</v>
+        <v>0.42263</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216936</v>
+        <v>0.166792</v>
       </c>
       <c r="F98" t="n">
-        <v>0.326904</v>
+        <v>0.284993</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.224339</v>
+        <v>0.218885</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340185</v>
+        <v>0.343494</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397842</v>
+        <v>0.420451</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215503</v>
+        <v>0.163303</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325631</v>
+        <v>0.282147</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.218044</v>
+        <v>0.213724</v>
       </c>
       <c r="C100" t="n">
-        <v>0.33502</v>
+        <v>0.338543</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40025</v>
+        <v>0.423841</v>
       </c>
       <c r="E100" t="n">
-        <v>0.213887</v>
+        <v>0.159741</v>
       </c>
       <c r="F100" t="n">
-        <v>0.324933</v>
+        <v>0.27885</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212853</v>
+        <v>0.208285</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394261</v>
+        <v>0.401202</v>
       </c>
       <c r="D101" t="n">
-        <v>0.385912</v>
+        <v>0.409372</v>
       </c>
       <c r="E101" t="n">
-        <v>0.212073</v>
+        <v>0.156781</v>
       </c>
       <c r="F101" t="n">
-        <v>0.32338</v>
+        <v>0.276467</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.20764</v>
+        <v>0.203073</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366303</v>
+        <v>0.374041</v>
       </c>
       <c r="D102" t="n">
-        <v>0.383046</v>
+        <v>0.405147</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211313</v>
+        <v>0.154462</v>
       </c>
       <c r="F102" t="n">
-        <v>0.322356</v>
+        <v>0.273552</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202565</v>
+        <v>0.198091</v>
       </c>
       <c r="C103" t="n">
-        <v>0.431119</v>
+        <v>0.442451</v>
       </c>
       <c r="D103" t="n">
-        <v>0.38107</v>
+        <v>0.40357</v>
       </c>
       <c r="E103" t="n">
-        <v>0.210208</v>
+        <v>0.150474</v>
       </c>
       <c r="F103" t="n">
-        <v>0.321237</v>
+        <v>0.270559</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.197309</v>
+        <v>0.193078</v>
       </c>
       <c r="C104" t="n">
-        <v>0.389164</v>
+        <v>0.399094</v>
       </c>
       <c r="D104" t="n">
-        <v>0.393786</v>
+        <v>0.41511</v>
       </c>
       <c r="E104" t="n">
-        <v>0.209123</v>
+        <v>0.147261</v>
       </c>
       <c r="F104" t="n">
-        <v>0.320443</v>
+        <v>0.267538</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.192703</v>
+        <v>0.187707</v>
       </c>
       <c r="C105" t="n">
-        <v>0.387519</v>
+        <v>0.318163</v>
       </c>
       <c r="D105" t="n">
-        <v>0.391946</v>
+        <v>0.401664</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208125</v>
+        <v>0.144131</v>
       </c>
       <c r="F105" t="n">
-        <v>0.320842</v>
+        <v>0.264416</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.187166</v>
+        <v>0.182061</v>
       </c>
       <c r="C106" t="n">
-        <v>0.363726</v>
+        <v>0.435547</v>
       </c>
       <c r="D106" t="n">
-        <v>0.38562</v>
+        <v>0.397315</v>
       </c>
       <c r="E106" t="n">
-        <v>0.206923</v>
+        <v>0.141263</v>
       </c>
       <c r="F106" t="n">
-        <v>0.318609</v>
+        <v>0.261233</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.180898</v>
+        <v>0.175473</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391249</v>
+        <v>0.404527</v>
       </c>
       <c r="D107" t="n">
-        <v>0.414839</v>
+        <v>0.439209</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206578</v>
+        <v>0.140054</v>
       </c>
       <c r="F107" t="n">
-        <v>0.318042</v>
+        <v>0.257809</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173592</v>
+        <v>0.16885</v>
       </c>
       <c r="C108" t="n">
-        <v>0.367711</v>
+        <v>0.382108</v>
       </c>
       <c r="D108" t="n">
-        <v>0.411002</v>
+        <v>0.435934</v>
       </c>
       <c r="E108" t="n">
-        <v>0.225377</v>
+        <v>0.183632</v>
       </c>
       <c r="F108" t="n">
-        <v>0.333574</v>
+        <v>0.29764</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157576</v>
+        <v>0.159521</v>
       </c>
       <c r="C109" t="n">
-        <v>0.328899</v>
+        <v>0.339753</v>
       </c>
       <c r="D109" t="n">
-        <v>0.398261</v>
+        <v>0.411519</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222654</v>
+        <v>0.17952</v>
       </c>
       <c r="F109" t="n">
-        <v>0.331271</v>
+        <v>0.294617</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.238084</v>
+        <v>0.234385</v>
       </c>
       <c r="C110" t="n">
-        <v>0.493874</v>
+        <v>0.420608</v>
       </c>
       <c r="D110" t="n">
-        <v>0.398461</v>
+        <v>0.411462</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220439</v>
+        <v>0.175814</v>
       </c>
       <c r="F110" t="n">
-        <v>0.329667</v>
+        <v>0.291248</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.23378</v>
+        <v>0.229937</v>
       </c>
       <c r="C111" t="n">
-        <v>0.49468</v>
+        <v>0.416837</v>
       </c>
       <c r="D111" t="n">
-        <v>0.384808</v>
+        <v>0.407446</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218671</v>
+        <v>0.17224</v>
       </c>
       <c r="F111" t="n">
-        <v>0.328932</v>
+        <v>0.28813</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.228874</v>
+        <v>0.225224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.493379</v>
+        <v>0.412427</v>
       </c>
       <c r="D112" t="n">
-        <v>0.398083</v>
+        <v>0.408926</v>
       </c>
       <c r="E112" t="n">
-        <v>0.21703</v>
+        <v>0.168626</v>
       </c>
       <c r="F112" t="n">
-        <v>0.327765</v>
+        <v>0.285409</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.223411</v>
+        <v>0.220111</v>
       </c>
       <c r="C113" t="n">
-        <v>0.49166</v>
+        <v>0.408715</v>
       </c>
       <c r="D113" t="n">
-        <v>0.395514</v>
+        <v>0.406604</v>
       </c>
       <c r="E113" t="n">
-        <v>0.215311</v>
+        <v>0.164796</v>
       </c>
       <c r="F113" t="n">
-        <v>0.326127</v>
+        <v>0.282807</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.218023</v>
+        <v>0.214849</v>
       </c>
       <c r="C114" t="n">
-        <v>0.48826</v>
+        <v>0.40422</v>
       </c>
       <c r="D114" t="n">
-        <v>0.392894</v>
+        <v>0.403576</v>
       </c>
       <c r="E114" t="n">
-        <v>0.213837</v>
+        <v>0.160861</v>
       </c>
       <c r="F114" t="n">
-        <v>0.32536</v>
+        <v>0.279751</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.212687</v>
+        <v>0.209643</v>
       </c>
       <c r="C115" t="n">
-        <v>0.441477</v>
+        <v>0.407014</v>
       </c>
       <c r="D115" t="n">
-        <v>0.383092</v>
+        <v>0.411096</v>
       </c>
       <c r="E115" t="n">
-        <v>0.212533</v>
+        <v>0.15768</v>
       </c>
       <c r="F115" t="n">
-        <v>0.324163</v>
+        <v>0.276819</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20634</v>
+        <v>0.204414</v>
       </c>
       <c r="C116" t="n">
-        <v>0.445081</v>
+        <v>0.413403</v>
       </c>
       <c r="D116" t="n">
-        <v>0.367245</v>
+        <v>0.407868</v>
       </c>
       <c r="E116" t="n">
-        <v>0.211504</v>
+        <v>0.154856</v>
       </c>
       <c r="F116" t="n">
-        <v>0.323461</v>
+        <v>0.274305</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.201157</v>
+        <v>0.199428</v>
       </c>
       <c r="C117" t="n">
-        <v>0.312737</v>
+        <v>0.319663</v>
       </c>
       <c r="D117" t="n">
-        <v>0.374621</v>
+        <v>0.396557</v>
       </c>
       <c r="E117" t="n">
-        <v>0.210245</v>
+        <v>0.151336</v>
       </c>
       <c r="F117" t="n">
-        <v>0.322705</v>
+        <v>0.271418</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.198963</v>
+        <v>0.194462</v>
       </c>
       <c r="C118" t="n">
-        <v>0.436189</v>
+        <v>0.418063</v>
       </c>
       <c r="D118" t="n">
-        <v>0.367856</v>
+        <v>0.391252</v>
       </c>
       <c r="E118" t="n">
-        <v>0.209234</v>
+        <v>0.148633</v>
       </c>
       <c r="F118" t="n">
-        <v>0.321874</v>
+        <v>0.26841</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193526</v>
+        <v>0.1887</v>
       </c>
       <c r="C119" t="n">
-        <v>0.428167</v>
+        <v>0.385686</v>
       </c>
       <c r="D119" t="n">
-        <v>0.378087</v>
+        <v>0.399719</v>
       </c>
       <c r="E119" t="n">
-        <v>0.207987</v>
+        <v>0.145527</v>
       </c>
       <c r="F119" t="n">
-        <v>0.320122</v>
+        <v>0.265265</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188202</v>
+        <v>0.183094</v>
       </c>
       <c r="C120" t="n">
-        <v>0.447219</v>
+        <v>0.379207</v>
       </c>
       <c r="D120" t="n">
-        <v>0.371122</v>
+        <v>0.399703</v>
       </c>
       <c r="E120" t="n">
-        <v>0.20732</v>
+        <v>0.142063</v>
       </c>
       <c r="F120" t="n">
-        <v>0.319888</v>
+        <v>0.261991</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.182012</v>
+        <v>0.177128</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412973</v>
+        <v>0.444244</v>
       </c>
       <c r="D121" t="n">
-        <v>0.457049</v>
+        <v>0.462897</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206505</v>
+        <v>0.1389</v>
       </c>
       <c r="F121" t="n">
-        <v>0.319026</v>
+        <v>0.258584</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.169649</v>
+        <v>0.170389</v>
       </c>
       <c r="C122" t="n">
-        <v>0.367922</v>
+        <v>0.369277</v>
       </c>
       <c r="D122" t="n">
-        <v>0.449197</v>
+        <v>0.462845</v>
       </c>
       <c r="E122" t="n">
-        <v>0.205755</v>
+        <v>0.135383</v>
       </c>
       <c r="F122" t="n">
-        <v>0.318222</v>
+        <v>0.255427</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.16647</v>
+        <v>0.161738</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35522</v>
+        <v>0.355982</v>
       </c>
       <c r="D123" t="n">
-        <v>0.431685</v>
+        <v>0.462484</v>
       </c>
       <c r="E123" t="n">
-        <v>0.223069</v>
+        <v>0.180385</v>
       </c>
       <c r="F123" t="n">
-        <v>0.332148</v>
+        <v>0.295024</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238661</v>
+        <v>0.235283</v>
       </c>
       <c r="C124" t="n">
-        <v>0.429524</v>
+        <v>0.399088</v>
       </c>
       <c r="D124" t="n">
-        <v>0.417153</v>
+        <v>0.430125</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220802</v>
+        <v>0.176535</v>
       </c>
       <c r="F124" t="n">
-        <v>0.330367</v>
+        <v>0.291879</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.234681</v>
+        <v>0.231098</v>
       </c>
       <c r="C125" t="n">
-        <v>0.469972</v>
+        <v>0.39579</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412764</v>
+        <v>0.426188</v>
       </c>
       <c r="E125" t="n">
-        <v>0.218843</v>
+        <v>0.172651</v>
       </c>
       <c r="F125" t="n">
-        <v>0.328841</v>
+        <v>0.289137</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.229597</v>
+        <v>0.226239</v>
       </c>
       <c r="C126" t="n">
-        <v>0.455892</v>
+        <v>0.439874</v>
       </c>
       <c r="D126" t="n">
-        <v>0.40667</v>
+        <v>0.432958</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217116</v>
+        <v>0.168804</v>
       </c>
       <c r="F126" t="n">
-        <v>0.327443</v>
+        <v>0.286129</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224571</v>
+        <v>0.221377</v>
       </c>
       <c r="C127" t="n">
-        <v>0.429964</v>
+        <v>0.373052</v>
       </c>
       <c r="D127" t="n">
-        <v>0.394613</v>
+        <v>0.41818</v>
       </c>
       <c r="E127" t="n">
-        <v>0.215593</v>
+        <v>0.165203</v>
       </c>
       <c r="F127" t="n">
-        <v>0.326121</v>
+        <v>0.28301</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218421</v>
+        <v>0.216216</v>
       </c>
       <c r="C128" t="n">
-        <v>0.454873</v>
+        <v>0.529045</v>
       </c>
       <c r="D128" t="n">
-        <v>0.398683</v>
+        <v>0.422015</v>
       </c>
       <c r="E128" t="n">
-        <v>0.214216</v>
+        <v>0.161761</v>
       </c>
       <c r="F128" t="n">
-        <v>0.324968</v>
+        <v>0.280245</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21347</v>
+        <v>0.21081</v>
       </c>
       <c r="C129" t="n">
-        <v>0.375299</v>
+        <v>0.383877</v>
       </c>
       <c r="D129" t="n">
-        <v>0.417697</v>
+        <v>0.430455</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212873</v>
+        <v>0.158758</v>
       </c>
       <c r="F129" t="n">
-        <v>0.324189</v>
+        <v>0.277319</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207751</v>
+        <v>0.20572</v>
       </c>
       <c r="C130" t="n">
-        <v>0.427108</v>
+        <v>0.418966</v>
       </c>
       <c r="D130" t="n">
-        <v>0.411372</v>
+        <v>0.424714</v>
       </c>
       <c r="E130" t="n">
-        <v>0.211602</v>
+        <v>0.155507</v>
       </c>
       <c r="F130" t="n">
-        <v>0.322645</v>
+        <v>0.274495</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.204367</v>
+        <v>0.20055</v>
       </c>
       <c r="C131" t="n">
-        <v>0.430129</v>
+        <v>0.443287</v>
       </c>
       <c r="D131" t="n">
-        <v>0.412141</v>
+        <v>0.422395</v>
       </c>
       <c r="E131" t="n">
-        <v>0.210411</v>
+        <v>0.152301</v>
       </c>
       <c r="F131" t="n">
-        <v>0.322276</v>
+        <v>0.271864</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.200025</v>
+        <v>0.19566</v>
       </c>
       <c r="C132" t="n">
-        <v>0.358121</v>
+        <v>0.324247</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401472</v>
+        <v>0.409132</v>
       </c>
       <c r="E132" t="n">
-        <v>0.209437</v>
+        <v>0.149371</v>
       </c>
       <c r="F132" t="n">
-        <v>0.32046</v>
+        <v>0.269291</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.190771</v>
+        <v>0.19031</v>
       </c>
       <c r="C133" t="n">
-        <v>0.455985</v>
+        <v>0.391717</v>
       </c>
       <c r="D133" t="n">
-        <v>0.377124</v>
+        <v>0.408452</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208425</v>
+        <v>0.146181</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319751</v>
+        <v>0.265556</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184923</v>
+        <v>0.184408</v>
       </c>
       <c r="C134" t="n">
-        <v>0.412288</v>
+        <v>0.40395</v>
       </c>
       <c r="D134" t="n">
-        <v>0.407241</v>
+        <v>0.404289</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207227</v>
+        <v>0.142484</v>
       </c>
       <c r="F134" t="n">
-        <v>0.319589</v>
+        <v>0.262525</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.18395</v>
+        <v>0.178401</v>
       </c>
       <c r="C135" t="n">
-        <v>0.432271</v>
+        <v>0.407131</v>
       </c>
       <c r="D135" t="n">
-        <v>0.44982</v>
+        <v>0.459682</v>
       </c>
       <c r="E135" t="n">
-        <v>0.206585</v>
+        <v>0.139373</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3177</v>
+        <v>0.259257</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17138</v>
+        <v>0.17188</v>
       </c>
       <c r="C136" t="n">
-        <v>0.394043</v>
+        <v>0.323307</v>
       </c>
       <c r="D136" t="n">
-        <v>0.437821</v>
+        <v>0.474646</v>
       </c>
       <c r="E136" t="n">
-        <v>0.205801</v>
+        <v>0.135983</v>
       </c>
       <c r="F136" t="n">
-        <v>0.317149</v>
+        <v>0.255901</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.162429</v>
+        <v>0.163616</v>
       </c>
       <c r="C137" t="n">
-        <v>0.387207</v>
+        <v>0.483122</v>
       </c>
       <c r="D137" t="n">
-        <v>0.417013</v>
+        <v>0.444596</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22352</v>
+        <v>0.180542</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332331</v>
+        <v>0.294905</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240913</v>
+        <v>0.236115</v>
       </c>
       <c r="C138" t="n">
-        <v>0.46183</v>
+        <v>0.481809</v>
       </c>
       <c r="D138" t="n">
-        <v>0.425602</v>
+        <v>0.452406</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221163</v>
+        <v>0.176847</v>
       </c>
       <c r="F138" t="n">
-        <v>0.330729</v>
+        <v>0.292382</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236358</v>
+        <v>0.231948</v>
       </c>
       <c r="C139" t="n">
-        <v>0.474479</v>
+        <v>0.485149</v>
       </c>
       <c r="D139" t="n">
-        <v>0.429063</v>
+        <v>0.445186</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219193</v>
+        <v>0.173128</v>
       </c>
       <c r="F139" t="n">
-        <v>0.329914</v>
+        <v>0.290103</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.231514</v>
+        <v>0.227187</v>
       </c>
       <c r="C140" t="n">
-        <v>0.464012</v>
+        <v>0.385314</v>
       </c>
       <c r="D140" t="n">
-        <v>0.426355</v>
+        <v>0.440575</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217464</v>
+        <v>0.169416</v>
       </c>
       <c r="F140" t="n">
-        <v>0.32868</v>
+        <v>0.286546</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.22447</v>
+        <v>0.222335</v>
       </c>
       <c r="C141" t="n">
-        <v>0.446345</v>
+        <v>0.432262</v>
       </c>
       <c r="D141" t="n">
-        <v>0.411172</v>
+        <v>0.43696</v>
       </c>
       <c r="E141" t="n">
-        <v>0.215914</v>
+        <v>0.16583</v>
       </c>
       <c r="F141" t="n">
-        <v>0.326783</v>
+        <v>0.283546</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.22105</v>
+        <v>0.217177</v>
       </c>
       <c r="C142" t="n">
-        <v>0.383967</v>
+        <v>0.45232</v>
       </c>
       <c r="D142" t="n">
-        <v>0.407645</v>
+        <v>0.431692</v>
       </c>
       <c r="E142" t="n">
-        <v>0.214433</v>
+        <v>0.162483</v>
       </c>
       <c r="F142" t="n">
-        <v>0.325394</v>
+        <v>0.280985</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215665</v>
+        <v>0.211941</v>
       </c>
       <c r="C143" t="n">
-        <v>0.480403</v>
+        <v>0.481999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.404022</v>
+        <v>0.412046</v>
       </c>
       <c r="E143" t="n">
-        <v>0.213105</v>
+        <v>0.158926</v>
       </c>
       <c r="F143" t="n">
-        <v>0.32422</v>
+        <v>0.27785</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.185157</v>
+        <v>0.186244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.318502</v>
+        <v>0.318099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.322208</v>
+        <v>0.323677</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0888352</v>
+        <v>0.0904317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259649</v>
+        <v>0.260223</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.187289</v>
+        <v>0.186551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.313136</v>
+        <v>0.313542</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32316</v>
+        <v>0.326243</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0886378</v>
+        <v>0.0877165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.258074</v>
+        <v>0.258994</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181513</v>
+        <v>0.182012</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313253</v>
+        <v>0.313849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.325755</v>
+        <v>0.326199</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0862497</v>
+        <v>0.0883705</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25636</v>
+        <v>0.257691</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177588</v>
+        <v>0.177513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.308646</v>
+        <v>0.307666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.327505</v>
+        <v>0.327844</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09388249999999999</v>
+        <v>0.0944369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.254142</v>
+        <v>0.255294</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172433</v>
+        <v>0.172288</v>
       </c>
       <c r="C6" t="n">
-        <v>0.303835</v>
+        <v>0.304653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.328969</v>
+        <v>0.329293</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0912126</v>
+        <v>0.0929586</v>
       </c>
       <c r="F6" t="n">
-        <v>0.251079</v>
+        <v>0.251602</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.166797</v>
+        <v>0.166408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.298207</v>
+        <v>0.298802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3181</v>
+        <v>0.317986</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09038110000000001</v>
+        <v>0.0916614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.247503</v>
+        <v>0.24836</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.159823</v>
+        <v>0.1598</v>
       </c>
       <c r="C8" t="n">
-        <v>0.287695</v>
+        <v>0.288232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.318086</v>
+        <v>0.318524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0876634</v>
+        <v>0.0903089</v>
       </c>
       <c r="F8" t="n">
-        <v>0.246786</v>
+        <v>0.246483</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.152438</v>
+        <v>0.151444</v>
       </c>
       <c r="C9" t="n">
-        <v>0.286019</v>
+        <v>0.284768</v>
       </c>
       <c r="D9" t="n">
-        <v>0.319706</v>
+        <v>0.319428</v>
       </c>
       <c r="E9" t="n">
-        <v>0.164383</v>
+        <v>0.165062</v>
       </c>
       <c r="F9" t="n">
-        <v>0.290845</v>
+        <v>0.290169</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.229495</v>
+        <v>0.228092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3423</v>
+        <v>0.352478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322568</v>
+        <v>0.320951</v>
       </c>
       <c r="E10" t="n">
-        <v>0.160151</v>
+        <v>0.158769</v>
       </c>
       <c r="F10" t="n">
-        <v>0.287972</v>
+        <v>0.285969</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.22596</v>
+        <v>0.226545</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351936</v>
+        <v>0.350117</v>
       </c>
       <c r="D11" t="n">
-        <v>0.322308</v>
+        <v>0.320831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.154913</v>
+        <v>0.155563</v>
       </c>
       <c r="F11" t="n">
-        <v>0.286251</v>
+        <v>0.285713</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220638</v>
+        <v>0.221329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.346062</v>
+        <v>0.345212</v>
       </c>
       <c r="D12" t="n">
-        <v>0.321919</v>
+        <v>0.320831</v>
       </c>
       <c r="E12" t="n">
-        <v>0.152871</v>
+        <v>0.151365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.282758</v>
+        <v>0.281687</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2151</v>
+        <v>0.215763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342635</v>
+        <v>0.341759</v>
       </c>
       <c r="D13" t="n">
-        <v>0.325481</v>
+        <v>0.321602</v>
       </c>
       <c r="E13" t="n">
-        <v>0.149522</v>
+        <v>0.147267</v>
       </c>
       <c r="F13" t="n">
-        <v>0.281418</v>
+        <v>0.281632</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.214344</v>
+        <v>0.214145</v>
       </c>
       <c r="C14" t="n">
-        <v>0.338101</v>
+        <v>0.338799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.325681</v>
+        <v>0.325808</v>
       </c>
       <c r="E14" t="n">
-        <v>0.14485</v>
+        <v>0.145049</v>
       </c>
       <c r="F14" t="n">
-        <v>0.277074</v>
+        <v>0.276677</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.207039</v>
+        <v>0.2062</v>
       </c>
       <c r="C15" t="n">
-        <v>0.322237</v>
+        <v>0.320247</v>
       </c>
       <c r="D15" t="n">
-        <v>0.324833</v>
+        <v>0.323569</v>
       </c>
       <c r="E15" t="n">
-        <v>0.141256</v>
+        <v>0.141722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.274296</v>
+        <v>0.274493</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201815</v>
+        <v>0.202445</v>
       </c>
       <c r="C16" t="n">
-        <v>0.327567</v>
+        <v>0.327126</v>
       </c>
       <c r="D16" t="n">
-        <v>0.327059</v>
+        <v>0.325151</v>
       </c>
       <c r="E16" t="n">
-        <v>0.138519</v>
+        <v>0.138677</v>
       </c>
       <c r="F16" t="n">
-        <v>0.271051</v>
+        <v>0.270162</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.197135</v>
+        <v>0.197875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.317824</v>
+        <v>0.31732</v>
       </c>
       <c r="D17" t="n">
-        <v>0.330112</v>
+        <v>0.327331</v>
       </c>
       <c r="E17" t="n">
-        <v>0.135729</v>
+        <v>0.135795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.268351</v>
+        <v>0.268088</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.191989</v>
+        <v>0.192478</v>
       </c>
       <c r="C18" t="n">
-        <v>0.318077</v>
+        <v>0.317927</v>
       </c>
       <c r="D18" t="n">
-        <v>0.330685</v>
+        <v>0.330674</v>
       </c>
       <c r="E18" t="n">
-        <v>0.133356</v>
+        <v>0.134651</v>
       </c>
       <c r="F18" t="n">
-        <v>0.264372</v>
+        <v>0.26441</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188189</v>
+        <v>0.187905</v>
       </c>
       <c r="C19" t="n">
-        <v>0.311591</v>
+        <v>0.311222</v>
       </c>
       <c r="D19" t="n">
-        <v>0.332365</v>
+        <v>0.330535</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130961</v>
+        <v>0.13299</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2624</v>
+        <v>0.262966</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.182541</v>
+        <v>0.182416</v>
       </c>
       <c r="C20" t="n">
-        <v>0.30583</v>
+        <v>0.307167</v>
       </c>
       <c r="D20" t="n">
-        <v>0.333322</v>
+        <v>0.332652</v>
       </c>
       <c r="E20" t="n">
-        <v>0.127629</v>
+        <v>0.128382</v>
       </c>
       <c r="F20" t="n">
-        <v>0.260141</v>
+        <v>0.26023</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.175971</v>
+        <v>0.176314</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3034</v>
+        <v>0.302536</v>
       </c>
       <c r="D21" t="n">
-        <v>0.323129</v>
+        <v>0.323805</v>
       </c>
       <c r="E21" t="n">
-        <v>0.124191</v>
+        <v>0.12472</v>
       </c>
       <c r="F21" t="n">
-        <v>0.255937</v>
+        <v>0.256086</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.168726</v>
+        <v>0.1686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.295569</v>
+        <v>0.294937</v>
       </c>
       <c r="D22" t="n">
-        <v>0.323856</v>
+        <v>0.323416</v>
       </c>
       <c r="E22" t="n">
-        <v>0.121534</v>
+        <v>0.121424</v>
       </c>
       <c r="F22" t="n">
-        <v>0.252618</v>
+        <v>0.251955</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.161103</v>
+        <v>0.160843</v>
       </c>
       <c r="C23" t="n">
-        <v>0.285132</v>
+        <v>0.285415</v>
       </c>
       <c r="D23" t="n">
-        <v>0.324894</v>
+        <v>0.324918</v>
       </c>
       <c r="E23" t="n">
-        <v>0.177424</v>
+        <v>0.178201</v>
       </c>
       <c r="F23" t="n">
-        <v>0.296318</v>
+        <v>0.296425</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.232156</v>
+        <v>0.231658</v>
       </c>
       <c r="C24" t="n">
-        <v>0.359547</v>
+        <v>0.35577</v>
       </c>
       <c r="D24" t="n">
-        <v>0.327074</v>
+        <v>0.325581</v>
       </c>
       <c r="E24" t="n">
-        <v>0.172283</v>
+        <v>0.172212</v>
       </c>
       <c r="F24" t="n">
-        <v>0.292453</v>
+        <v>0.293344</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228091</v>
+        <v>0.228714</v>
       </c>
       <c r="C25" t="n">
-        <v>0.349679</v>
+        <v>0.350044</v>
       </c>
       <c r="D25" t="n">
-        <v>0.326089</v>
+        <v>0.328145</v>
       </c>
       <c r="E25" t="n">
-        <v>0.165776</v>
+        <v>0.167164</v>
       </c>
       <c r="F25" t="n">
-        <v>0.289725</v>
+        <v>0.289729</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224397</v>
+        <v>0.224681</v>
       </c>
       <c r="C26" t="n">
-        <v>0.346209</v>
+        <v>0.346136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.323294</v>
+        <v>0.325796</v>
       </c>
       <c r="E26" t="n">
-        <v>0.163911</v>
+        <v>0.162931</v>
       </c>
       <c r="F26" t="n">
-        <v>0.285711</v>
+        <v>0.286162</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219899</v>
+        <v>0.220147</v>
       </c>
       <c r="C27" t="n">
-        <v>0.343846</v>
+        <v>0.343843</v>
       </c>
       <c r="D27" t="n">
-        <v>0.32577</v>
+        <v>0.325905</v>
       </c>
       <c r="E27" t="n">
-        <v>0.160988</v>
+        <v>0.159181</v>
       </c>
       <c r="F27" t="n">
-        <v>0.283569</v>
+        <v>0.283621</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.215539</v>
+        <v>0.215155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339391</v>
+        <v>0.339104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.326779</v>
+        <v>0.328184</v>
       </c>
       <c r="E28" t="n">
-        <v>0.157781</v>
+        <v>0.156804</v>
       </c>
       <c r="F28" t="n">
-        <v>0.280674</v>
+        <v>0.280829</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.210558</v>
+        <v>0.210713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.333939</v>
+        <v>0.333638</v>
       </c>
       <c r="D29" t="n">
-        <v>0.328612</v>
+        <v>0.331386</v>
       </c>
       <c r="E29" t="n">
-        <v>0.154912</v>
+        <v>0.153879</v>
       </c>
       <c r="F29" t="n">
-        <v>0.27936</v>
+        <v>0.279313</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.205263</v>
+        <v>0.205389</v>
       </c>
       <c r="C30" t="n">
-        <v>0.332029</v>
+        <v>0.329244</v>
       </c>
       <c r="D30" t="n">
-        <v>0.331142</v>
+        <v>0.330136</v>
       </c>
       <c r="E30" t="n">
-        <v>0.150274</v>
+        <v>0.149953</v>
       </c>
       <c r="F30" t="n">
-        <v>0.275273</v>
+        <v>0.276738</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.199597</v>
+        <v>0.200235</v>
       </c>
       <c r="C31" t="n">
-        <v>0.322691</v>
+        <v>0.321793</v>
       </c>
       <c r="D31" t="n">
-        <v>0.331918</v>
+        <v>0.33345</v>
       </c>
       <c r="E31" t="n">
-        <v>0.147184</v>
+        <v>0.146819</v>
       </c>
       <c r="F31" t="n">
-        <v>0.273108</v>
+        <v>0.272581</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.194967</v>
+        <v>0.195515</v>
       </c>
       <c r="C32" t="n">
-        <v>0.322761</v>
+        <v>0.3231</v>
       </c>
       <c r="D32" t="n">
-        <v>0.332325</v>
+        <v>0.333618</v>
       </c>
       <c r="E32" t="n">
-        <v>0.143713</v>
+        <v>0.143116</v>
       </c>
       <c r="F32" t="n">
-        <v>0.270037</v>
+        <v>0.269792</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.189697</v>
+        <v>0.190066</v>
       </c>
       <c r="C33" t="n">
-        <v>0.313572</v>
+        <v>0.313577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332911</v>
+        <v>0.334169</v>
       </c>
       <c r="E33" t="n">
-        <v>0.139649</v>
+        <v>0.140531</v>
       </c>
       <c r="F33" t="n">
-        <v>0.265852</v>
+        <v>0.265885</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18401</v>
+        <v>0.185496</v>
       </c>
       <c r="C34" t="n">
-        <v>0.314729</v>
+        <v>0.312501</v>
       </c>
       <c r="D34" t="n">
-        <v>0.334204</v>
+        <v>0.335903</v>
       </c>
       <c r="E34" t="n">
-        <v>0.137684</v>
+        <v>0.138751</v>
       </c>
       <c r="F34" t="n">
-        <v>0.263289</v>
+        <v>0.26427</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.178903</v>
+        <v>0.178958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.30623</v>
+        <v>0.306344</v>
       </c>
       <c r="D35" t="n">
-        <v>0.330331</v>
+        <v>0.328189</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133169</v>
+        <v>0.133986</v>
       </c>
       <c r="F35" t="n">
-        <v>0.258307</v>
+        <v>0.259208</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.172134</v>
+        <v>0.17229</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296632</v>
+        <v>0.296946</v>
       </c>
       <c r="D36" t="n">
-        <v>0.328919</v>
+        <v>0.329459</v>
       </c>
       <c r="E36" t="n">
-        <v>0.130087</v>
+        <v>0.129898</v>
       </c>
       <c r="F36" t="n">
-        <v>0.255085</v>
+        <v>0.255557</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.16558</v>
+        <v>0.164882</v>
       </c>
       <c r="C37" t="n">
-        <v>0.283391</v>
+        <v>0.283583</v>
       </c>
       <c r="D37" t="n">
-        <v>0.326178</v>
+        <v>0.326272</v>
       </c>
       <c r="E37" t="n">
-        <v>0.179513</v>
+        <v>0.180786</v>
       </c>
       <c r="F37" t="n">
-        <v>0.297911</v>
+        <v>0.298199</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236326</v>
+        <v>0.236271</v>
       </c>
       <c r="C38" t="n">
-        <v>0.351749</v>
+        <v>0.351465</v>
       </c>
       <c r="D38" t="n">
-        <v>0.329361</v>
+        <v>0.328646</v>
       </c>
       <c r="E38" t="n">
-        <v>0.174872</v>
+        <v>0.174523</v>
       </c>
       <c r="F38" t="n">
-        <v>0.296179</v>
+        <v>0.295934</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231541</v>
+        <v>0.231498</v>
       </c>
       <c r="C39" t="n">
-        <v>0.348579</v>
+        <v>0.348442</v>
       </c>
       <c r="D39" t="n">
-        <v>0.327776</v>
+        <v>0.327311</v>
       </c>
       <c r="E39" t="n">
-        <v>0.169917</v>
+        <v>0.171047</v>
       </c>
       <c r="F39" t="n">
-        <v>0.291812</v>
+        <v>0.292196</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.227974</v>
+        <v>0.228034</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345406</v>
+        <v>0.344654</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3279</v>
+        <v>0.32958</v>
       </c>
       <c r="E40" t="n">
-        <v>0.167141</v>
+        <v>0.165514</v>
       </c>
       <c r="F40" t="n">
-        <v>0.289489</v>
+        <v>0.289313</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.223994</v>
+        <v>0.2241</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341296</v>
+        <v>0.340693</v>
       </c>
       <c r="D41" t="n">
-        <v>0.33086</v>
+        <v>0.331235</v>
       </c>
       <c r="E41" t="n">
-        <v>0.162295</v>
+        <v>0.163989</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285156</v>
+        <v>0.285594</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219005</v>
+        <v>0.219106</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337562</v>
+        <v>0.336663</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3313</v>
+        <v>0.328146</v>
       </c>
       <c r="E42" t="n">
-        <v>0.159195</v>
+        <v>0.160907</v>
       </c>
       <c r="F42" t="n">
-        <v>0.283537</v>
+        <v>0.283919</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213032</v>
+        <v>0.213192</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332818</v>
+        <v>0.331881</v>
       </c>
       <c r="D43" t="n">
-        <v>0.329934</v>
+        <v>0.33021</v>
       </c>
       <c r="E43" t="n">
-        <v>0.156581</v>
+        <v>0.155577</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280404</v>
+        <v>0.279743</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.208577</v>
+        <v>0.208948</v>
       </c>
       <c r="C44" t="n">
-        <v>0.327914</v>
+        <v>0.328122</v>
       </c>
       <c r="D44" t="n">
-        <v>0.330614</v>
+        <v>0.333229</v>
       </c>
       <c r="E44" t="n">
-        <v>0.15267</v>
+        <v>0.152482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.278472</v>
+        <v>0.277162</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.203211</v>
+        <v>0.203281</v>
       </c>
       <c r="C45" t="n">
-        <v>0.326559</v>
+        <v>0.32638</v>
       </c>
       <c r="D45" t="n">
-        <v>0.331909</v>
+        <v>0.334353</v>
       </c>
       <c r="E45" t="n">
-        <v>0.150905</v>
+        <v>0.149642</v>
       </c>
       <c r="F45" t="n">
-        <v>0.27349</v>
+        <v>0.273896</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.198054</v>
+        <v>0.198289</v>
       </c>
       <c r="C46" t="n">
-        <v>0.323941</v>
+        <v>0.323281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.331726</v>
+        <v>0.333743</v>
       </c>
       <c r="E46" t="n">
-        <v>0.147498</v>
+        <v>0.146468</v>
       </c>
       <c r="F46" t="n">
-        <v>0.270685</v>
+        <v>0.270829</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.192335</v>
+        <v>0.192409</v>
       </c>
       <c r="C47" t="n">
-        <v>0.315553</v>
+        <v>0.314148</v>
       </c>
       <c r="D47" t="n">
-        <v>0.336466</v>
+        <v>0.336915</v>
       </c>
       <c r="E47" t="n">
-        <v>0.144491</v>
+        <v>0.144545</v>
       </c>
       <c r="F47" t="n">
-        <v>0.268616</v>
+        <v>0.268279</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.18772</v>
+        <v>0.187746</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307406</v>
+        <v>0.306978</v>
       </c>
       <c r="D48" t="n">
-        <v>0.335604</v>
+        <v>0.3367</v>
       </c>
       <c r="E48" t="n">
-        <v>0.140596</v>
+        <v>0.140957</v>
       </c>
       <c r="F48" t="n">
-        <v>0.26432</v>
+        <v>0.264768</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.182535</v>
+        <v>0.181972</v>
       </c>
       <c r="C49" t="n">
-        <v>0.305293</v>
+        <v>0.304789</v>
       </c>
       <c r="D49" t="n">
-        <v>0.337898</v>
+        <v>0.337922</v>
       </c>
       <c r="E49" t="n">
-        <v>0.13763</v>
+        <v>0.137558</v>
       </c>
       <c r="F49" t="n">
-        <v>0.261414</v>
+        <v>0.261267</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.174556</v>
+        <v>0.174876</v>
       </c>
       <c r="C50" t="n">
-        <v>0.299822</v>
+        <v>0.299427</v>
       </c>
       <c r="D50" t="n">
-        <v>0.330341</v>
+        <v>0.329013</v>
       </c>
       <c r="E50" t="n">
-        <v>0.134591</v>
+        <v>0.134603</v>
       </c>
       <c r="F50" t="n">
-        <v>0.258115</v>
+        <v>0.257915</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.167701</v>
+        <v>0.167786</v>
       </c>
       <c r="C51" t="n">
-        <v>0.288356</v>
+        <v>0.287902</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3295</v>
+        <v>0.329761</v>
       </c>
       <c r="E51" t="n">
-        <v>0.181155</v>
+        <v>0.181041</v>
       </c>
       <c r="F51" t="n">
-        <v>0.298259</v>
+        <v>0.297599</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.159893</v>
+        <v>0.159652</v>
       </c>
       <c r="C52" t="n">
-        <v>0.286282</v>
+        <v>0.287005</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330912</v>
+        <v>0.3327</v>
       </c>
       <c r="E52" t="n">
-        <v>0.178062</v>
+        <v>0.176282</v>
       </c>
       <c r="F52" t="n">
-        <v>0.295474</v>
+        <v>0.296271</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.234029</v>
+        <v>0.233767</v>
       </c>
       <c r="C53" t="n">
-        <v>0.349881</v>
+        <v>0.351219</v>
       </c>
       <c r="D53" t="n">
-        <v>0.332668</v>
+        <v>0.334855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.17292</v>
+        <v>0.173348</v>
       </c>
       <c r="F53" t="n">
-        <v>0.293163</v>
+        <v>0.293007</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.22999</v>
+        <v>0.230032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.346124</v>
+        <v>0.347463</v>
       </c>
       <c r="D54" t="n">
-        <v>0.331068</v>
+        <v>0.331959</v>
       </c>
       <c r="E54" t="n">
-        <v>0.168511</v>
+        <v>0.168015</v>
       </c>
       <c r="F54" t="n">
-        <v>0.290571</v>
+        <v>0.290063</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.224831</v>
+        <v>0.224875</v>
       </c>
       <c r="C55" t="n">
-        <v>0.342618</v>
+        <v>0.344813</v>
       </c>
       <c r="D55" t="n">
-        <v>0.331962</v>
+        <v>0.333662</v>
       </c>
       <c r="E55" t="n">
-        <v>0.165947</v>
+        <v>0.165016</v>
       </c>
       <c r="F55" t="n">
-        <v>0.286442</v>
+        <v>0.286549</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220279</v>
+        <v>0.22034</v>
       </c>
       <c r="C56" t="n">
-        <v>0.339199</v>
+        <v>0.341844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.333605</v>
+        <v>0.335123</v>
       </c>
       <c r="E56" t="n">
-        <v>0.161472</v>
+        <v>0.161118</v>
       </c>
       <c r="F56" t="n">
-        <v>0.284572</v>
+        <v>0.284777</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.214926</v>
+        <v>0.214977</v>
       </c>
       <c r="C57" t="n">
-        <v>0.335236</v>
+        <v>0.337618</v>
       </c>
       <c r="D57" t="n">
-        <v>0.335956</v>
+        <v>0.338605</v>
       </c>
       <c r="E57" t="n">
-        <v>0.158662</v>
+        <v>0.159518</v>
       </c>
       <c r="F57" t="n">
-        <v>0.281251</v>
+        <v>0.281566</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.209769</v>
+        <v>0.210055</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324666</v>
+        <v>0.325224</v>
       </c>
       <c r="D58" t="n">
-        <v>0.33797</v>
+        <v>0.341065</v>
       </c>
       <c r="E58" t="n">
-        <v>0.155471</v>
+        <v>0.155889</v>
       </c>
       <c r="F58" t="n">
-        <v>0.278912</v>
+        <v>0.278933</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.204644</v>
+        <v>0.204887</v>
       </c>
       <c r="C59" t="n">
-        <v>0.326828</v>
+        <v>0.329701</v>
       </c>
       <c r="D59" t="n">
-        <v>0.341602</v>
+        <v>0.34398</v>
       </c>
       <c r="E59" t="n">
-        <v>0.15237</v>
+        <v>0.152013</v>
       </c>
       <c r="F59" t="n">
-        <v>0.276068</v>
+        <v>0.27585</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.199692</v>
+        <v>0.20018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.321789</v>
+        <v>0.324268</v>
       </c>
       <c r="D60" t="n">
-        <v>0.34321</v>
+        <v>0.345263</v>
       </c>
       <c r="E60" t="n">
-        <v>0.149011</v>
+        <v>0.148988</v>
       </c>
       <c r="F60" t="n">
-        <v>0.272976</v>
+        <v>0.272291</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.194626</v>
+        <v>0.19482</v>
       </c>
       <c r="C61" t="n">
-        <v>0.336695</v>
+        <v>0.342766</v>
       </c>
       <c r="D61" t="n">
-        <v>0.347332</v>
+        <v>0.349115</v>
       </c>
       <c r="E61" t="n">
-        <v>0.146127</v>
+        <v>0.145931</v>
       </c>
       <c r="F61" t="n">
-        <v>0.269934</v>
+        <v>0.26953</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.189169</v>
+        <v>0.189189</v>
       </c>
       <c r="C62" t="n">
-        <v>0.310825</v>
+        <v>0.311752</v>
       </c>
       <c r="D62" t="n">
-        <v>0.348914</v>
+        <v>0.351461</v>
       </c>
       <c r="E62" t="n">
-        <v>0.142859</v>
+        <v>0.143003</v>
       </c>
       <c r="F62" t="n">
-        <v>0.266938</v>
+        <v>0.266356</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.183308</v>
+        <v>0.183414</v>
       </c>
       <c r="C63" t="n">
-        <v>0.321448</v>
+        <v>0.322653</v>
       </c>
       <c r="D63" t="n">
-        <v>0.35248</v>
+        <v>0.353969</v>
       </c>
       <c r="E63" t="n">
-        <v>0.139769</v>
+        <v>0.141042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.263455</v>
+        <v>0.263208</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17743</v>
+        <v>0.177404</v>
       </c>
       <c r="C64" t="n">
-        <v>0.317216</v>
+        <v>0.319274</v>
       </c>
       <c r="D64" t="n">
-        <v>0.386551</v>
+        <v>0.385487</v>
       </c>
       <c r="E64" t="n">
-        <v>0.136411</v>
+        <v>0.136135</v>
       </c>
       <c r="F64" t="n">
-        <v>0.259723</v>
+        <v>0.25963</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.170508</v>
+        <v>0.170661</v>
       </c>
       <c r="C65" t="n">
-        <v>0.293068</v>
+        <v>0.292913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.387456</v>
+        <v>0.388102</v>
       </c>
       <c r="E65" t="n">
-        <v>0.13397</v>
+        <v>0.133516</v>
       </c>
       <c r="F65" t="n">
-        <v>0.256108</v>
+        <v>0.256317</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.162671</v>
+        <v>0.162658</v>
       </c>
       <c r="C66" t="n">
-        <v>0.313133</v>
+        <v>0.313206</v>
       </c>
       <c r="D66" t="n">
-        <v>0.392436</v>
+        <v>0.391459</v>
       </c>
       <c r="E66" t="n">
-        <v>0.182299</v>
+        <v>0.182679</v>
       </c>
       <c r="F66" t="n">
-        <v>0.297881</v>
+        <v>0.297219</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.235555</v>
+        <v>0.235593</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38487</v>
+        <v>0.38353</v>
       </c>
       <c r="D67" t="n">
-        <v>0.385251</v>
+        <v>0.382299</v>
       </c>
       <c r="E67" t="n">
-        <v>0.177251</v>
+        <v>0.17883</v>
       </c>
       <c r="F67" t="n">
-        <v>0.294723</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.231857</v>
+        <v>0.231908</v>
       </c>
       <c r="C68" t="n">
-        <v>0.382363</v>
+        <v>0.381345</v>
       </c>
       <c r="D68" t="n">
-        <v>0.396995</v>
+        <v>0.394795</v>
       </c>
       <c r="E68" t="n">
-        <v>0.172526</v>
+        <v>0.17298</v>
       </c>
       <c r="F68" t="n">
-        <v>0.292263</v>
+        <v>0.291033</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.226837</v>
+        <v>0.226978</v>
       </c>
       <c r="C69" t="n">
-        <v>0.377352</v>
+        <v>0.376457</v>
       </c>
       <c r="D69" t="n">
-        <v>0.397812</v>
+        <v>0.396107</v>
       </c>
       <c r="E69" t="n">
-        <v>0.168441</v>
+        <v>0.170867</v>
       </c>
       <c r="F69" t="n">
-        <v>0.28854</v>
+        <v>0.288249</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222275</v>
+        <v>0.222238</v>
       </c>
       <c r="C70" t="n">
-        <v>0.373169</v>
+        <v>0.372412</v>
       </c>
       <c r="D70" t="n">
-        <v>0.398079</v>
+        <v>0.398435</v>
       </c>
       <c r="E70" t="n">
-        <v>0.165413</v>
+        <v>0.164761</v>
       </c>
       <c r="F70" t="n">
-        <v>0.28574</v>
+        <v>0.285275</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.217376</v>
+        <v>0.21775</v>
       </c>
       <c r="C71" t="n">
-        <v>0.367</v>
+        <v>0.366088</v>
       </c>
       <c r="D71" t="n">
-        <v>0.38803</v>
+        <v>0.388389</v>
       </c>
       <c r="E71" t="n">
-        <v>0.161224</v>
+        <v>0.161654</v>
       </c>
       <c r="F71" t="n">
-        <v>0.282721</v>
+        <v>0.282673</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.212117</v>
+        <v>0.211891</v>
       </c>
       <c r="C72" t="n">
-        <v>0.391479</v>
+        <v>0.388882</v>
       </c>
       <c r="D72" t="n">
-        <v>0.389359</v>
+        <v>0.389667</v>
       </c>
       <c r="E72" t="n">
-        <v>0.158327</v>
+        <v>0.158346</v>
       </c>
       <c r="F72" t="n">
-        <v>0.279896</v>
+        <v>0.280117</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.206821</v>
+        <v>0.206327</v>
       </c>
       <c r="C73" t="n">
-        <v>0.447911</v>
+        <v>0.444929</v>
       </c>
       <c r="D73" t="n">
-        <v>0.399191</v>
+        <v>0.399479</v>
       </c>
       <c r="E73" t="n">
-        <v>0.154922</v>
+        <v>0.155002</v>
       </c>
       <c r="F73" t="n">
-        <v>0.276351</v>
+        <v>0.276269</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201866</v>
+        <v>0.201736</v>
       </c>
       <c r="C74" t="n">
-        <v>0.40098</v>
+        <v>0.399316</v>
       </c>
       <c r="D74" t="n">
-        <v>0.391095</v>
+        <v>0.391039</v>
       </c>
       <c r="E74" t="n">
-        <v>0.15125</v>
+        <v>0.15223</v>
       </c>
       <c r="F74" t="n">
-        <v>0.273737</v>
+        <v>0.27406</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.19641</v>
+        <v>0.19642</v>
       </c>
       <c r="C75" t="n">
-        <v>0.391133</v>
+        <v>0.390697</v>
       </c>
       <c r="D75" t="n">
-        <v>0.391326</v>
+        <v>0.392194</v>
       </c>
       <c r="E75" t="n">
-        <v>0.148855</v>
+        <v>0.148868</v>
       </c>
       <c r="F75" t="n">
-        <v>0.271022</v>
+        <v>0.271174</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.191223</v>
+        <v>0.190976</v>
       </c>
       <c r="C76" t="n">
-        <v>0.422793</v>
+        <v>0.421546</v>
       </c>
       <c r="D76" t="n">
-        <v>0.39226</v>
+        <v>0.391794</v>
       </c>
       <c r="E76" t="n">
-        <v>0.145096</v>
+        <v>0.145049</v>
       </c>
       <c r="F76" t="n">
-        <v>0.268504</v>
+        <v>0.267117</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.18521</v>
+        <v>0.185059</v>
       </c>
       <c r="C77" t="n">
-        <v>0.426271</v>
+        <v>0.426216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.399541</v>
+        <v>0.400201</v>
       </c>
       <c r="E77" t="n">
-        <v>0.141666</v>
+        <v>0.142035</v>
       </c>
       <c r="F77" t="n">
-        <v>0.264362</v>
+        <v>0.264058</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.17963</v>
+        <v>0.17933</v>
       </c>
       <c r="C78" t="n">
-        <v>0.414234</v>
+        <v>0.412266</v>
       </c>
       <c r="D78" t="n">
-        <v>0.463162</v>
+        <v>0.462058</v>
       </c>
       <c r="E78" t="n">
-        <v>0.138639</v>
+        <v>0.138711</v>
       </c>
       <c r="F78" t="n">
-        <v>0.261439</v>
+        <v>0.261419</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.172979</v>
+        <v>0.172871</v>
       </c>
       <c r="C79" t="n">
-        <v>0.324183</v>
+        <v>0.323578</v>
       </c>
       <c r="D79" t="n">
-        <v>0.455943</v>
+        <v>0.456572</v>
       </c>
       <c r="E79" t="n">
-        <v>0.135973</v>
+        <v>0.135789</v>
       </c>
       <c r="F79" t="n">
-        <v>0.258015</v>
+        <v>0.257775</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.164891</v>
+        <v>0.164751</v>
       </c>
       <c r="C80" t="n">
-        <v>0.361112</v>
+        <v>0.361003</v>
       </c>
       <c r="D80" t="n">
-        <v>0.437372</v>
+        <v>0.437437</v>
       </c>
       <c r="E80" t="n">
-        <v>0.182707</v>
+        <v>0.183196</v>
       </c>
       <c r="F80" t="n">
-        <v>0.297204</v>
+        <v>0.297722</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.236976</v>
+        <v>0.236883</v>
       </c>
       <c r="C81" t="n">
-        <v>0.376866</v>
+        <v>0.376586</v>
       </c>
       <c r="D81" t="n">
-        <v>0.446056</v>
+        <v>0.445459</v>
       </c>
       <c r="E81" t="n">
-        <v>0.177856</v>
+        <v>0.17837</v>
       </c>
       <c r="F81" t="n">
-        <v>0.293579</v>
+        <v>0.293441</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.232915</v>
+        <v>0.232836</v>
       </c>
       <c r="C82" t="n">
-        <v>0.372568</v>
+        <v>0.372299</v>
       </c>
       <c r="D82" t="n">
-        <v>0.442018</v>
+        <v>0.441947</v>
       </c>
       <c r="E82" t="n">
-        <v>0.17334</v>
+        <v>0.173777</v>
       </c>
       <c r="F82" t="n">
-        <v>0.289823</v>
+        <v>0.289898</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.22823</v>
+        <v>0.228433</v>
       </c>
       <c r="C83" t="n">
-        <v>0.366861</v>
+        <v>0.367097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.421625</v>
+        <v>0.421486</v>
       </c>
       <c r="E83" t="n">
-        <v>0.169479</v>
+        <v>0.169879</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287675</v>
+        <v>0.287519</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.223658</v>
+        <v>0.223477</v>
       </c>
       <c r="C84" t="n">
-        <v>0.362452</v>
+        <v>0.361999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.420772</v>
+        <v>0.422492</v>
       </c>
       <c r="E84" t="n">
-        <v>0.166573</v>
+        <v>0.166903</v>
       </c>
       <c r="F84" t="n">
-        <v>0.284196</v>
+        <v>0.284384</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.218303</v>
+        <v>0.218515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356197</v>
+        <v>0.356511</v>
       </c>
       <c r="D85" t="n">
-        <v>0.41717</v>
+        <v>0.417995</v>
       </c>
       <c r="E85" t="n">
-        <v>0.163112</v>
+        <v>0.163222</v>
       </c>
       <c r="F85" t="n">
-        <v>0.281961</v>
+        <v>0.281634</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.213644</v>
+        <v>0.213451</v>
       </c>
       <c r="C86" t="n">
-        <v>0.351356</v>
+        <v>0.351046</v>
       </c>
       <c r="D86" t="n">
-        <v>0.428137</v>
+        <v>0.428147</v>
       </c>
       <c r="E86" t="n">
-        <v>0.159868</v>
+        <v>0.160368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.279097</v>
+        <v>0.278806</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.208341</v>
+        <v>0.208199</v>
       </c>
       <c r="C87" t="n">
-        <v>0.361028</v>
+        <v>0.360428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.42866</v>
+        <v>0.427728</v>
       </c>
       <c r="E87" t="n">
-        <v>0.156644</v>
+        <v>0.156928</v>
       </c>
       <c r="F87" t="n">
-        <v>0.276898</v>
+        <v>0.276802</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.203129</v>
+        <v>0.202816</v>
       </c>
       <c r="C88" t="n">
-        <v>0.432048</v>
+        <v>0.430729</v>
       </c>
       <c r="D88" t="n">
-        <v>0.424797</v>
+        <v>0.42298</v>
       </c>
       <c r="E88" t="n">
-        <v>0.15307</v>
+        <v>0.153319</v>
       </c>
       <c r="F88" t="n">
-        <v>0.273854</v>
+        <v>0.273857</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.197569</v>
+        <v>0.197613</v>
       </c>
       <c r="C89" t="n">
-        <v>0.421335</v>
+        <v>0.419217</v>
       </c>
       <c r="D89" t="n">
-        <v>0.422342</v>
+        <v>0.420391</v>
       </c>
       <c r="E89" t="n">
-        <v>0.14992</v>
+        <v>0.150596</v>
       </c>
       <c r="F89" t="n">
-        <v>0.271781</v>
+        <v>0.270239</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192324</v>
+        <v>0.191908</v>
       </c>
       <c r="C90" t="n">
-        <v>0.404634</v>
+        <v>0.402842</v>
       </c>
       <c r="D90" t="n">
-        <v>0.422055</v>
+        <v>0.421613</v>
       </c>
       <c r="E90" t="n">
-        <v>0.147093</v>
+        <v>0.147322</v>
       </c>
       <c r="F90" t="n">
-        <v>0.267128</v>
+        <v>0.267324</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186682</v>
+        <v>0.186473</v>
       </c>
       <c r="C91" t="n">
-        <v>0.422162</v>
+        <v>0.419836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.417191</v>
+        <v>0.416384</v>
       </c>
       <c r="E91" t="n">
-        <v>0.14356</v>
+        <v>0.143755</v>
       </c>
       <c r="F91" t="n">
-        <v>0.26504</v>
+        <v>0.264093</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18041</v>
+        <v>0.180201</v>
       </c>
       <c r="C92" t="n">
-        <v>0.453135</v>
+        <v>0.450798</v>
       </c>
       <c r="D92" t="n">
-        <v>0.468812</v>
+        <v>0.471869</v>
       </c>
       <c r="E92" t="n">
-        <v>0.140315</v>
+        <v>0.140496</v>
       </c>
       <c r="F92" t="n">
-        <v>0.261847</v>
+        <v>0.262164</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.174183</v>
+        <v>0.173751</v>
       </c>
       <c r="C93" t="n">
-        <v>0.423253</v>
+        <v>0.420647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462862</v>
+        <v>0.461428</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136553</v>
+        <v>0.136911</v>
       </c>
       <c r="F93" t="n">
-        <v>0.258501</v>
+        <v>0.258617</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.166384</v>
+        <v>0.166906</v>
       </c>
       <c r="C94" t="n">
-        <v>0.334178</v>
+        <v>0.333253</v>
       </c>
       <c r="D94" t="n">
-        <v>0.455085</v>
+        <v>0.453444</v>
       </c>
       <c r="E94" t="n">
-        <v>0.182866</v>
+        <v>0.182962</v>
       </c>
       <c r="F94" t="n">
-        <v>0.297321</v>
+        <v>0.298033</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.237877</v>
+        <v>0.237581</v>
       </c>
       <c r="C95" t="n">
-        <v>0.411509</v>
+        <v>0.411071</v>
       </c>
       <c r="D95" t="n">
-        <v>0.43314</v>
+        <v>0.433537</v>
       </c>
       <c r="E95" t="n">
-        <v>0.178319</v>
+        <v>0.17846</v>
       </c>
       <c r="F95" t="n">
-        <v>0.296119</v>
+        <v>0.296057</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.233223</v>
+        <v>0.233188</v>
       </c>
       <c r="C96" t="n">
-        <v>0.357847</v>
+        <v>0.358642</v>
       </c>
       <c r="D96" t="n">
-        <v>0.445688</v>
+        <v>0.44508</v>
       </c>
       <c r="E96" t="n">
-        <v>0.174169</v>
+        <v>0.174079</v>
       </c>
       <c r="F96" t="n">
-        <v>0.291002</v>
+        <v>0.291416</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.228819</v>
+        <v>0.228863</v>
       </c>
       <c r="C97" t="n">
-        <v>0.353688</v>
+        <v>0.354147</v>
       </c>
       <c r="D97" t="n">
-        <v>0.427007</v>
+        <v>0.427505</v>
       </c>
       <c r="E97" t="n">
-        <v>0.170383</v>
+        <v>0.170221</v>
       </c>
       <c r="F97" t="n">
-        <v>0.287925</v>
+        <v>0.288031</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.223951</v>
+        <v>0.224033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.349328</v>
+        <v>0.349544</v>
       </c>
       <c r="D98" t="n">
-        <v>0.42263</v>
+        <v>0.423688</v>
       </c>
       <c r="E98" t="n">
-        <v>0.166792</v>
+        <v>0.168449</v>
       </c>
       <c r="F98" t="n">
-        <v>0.284993</v>
+        <v>0.284951</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.218885</v>
+        <v>0.219073</v>
       </c>
       <c r="C99" t="n">
-        <v>0.343494</v>
+        <v>0.343924</v>
       </c>
       <c r="D99" t="n">
-        <v>0.420451</v>
+        <v>0.419845</v>
       </c>
       <c r="E99" t="n">
-        <v>0.163303</v>
+        <v>0.163012</v>
       </c>
       <c r="F99" t="n">
-        <v>0.282147</v>
+        <v>0.282317</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.213724</v>
+        <v>0.213885</v>
       </c>
       <c r="C100" t="n">
-        <v>0.338543</v>
+        <v>0.338981</v>
       </c>
       <c r="D100" t="n">
-        <v>0.423841</v>
+        <v>0.422875</v>
       </c>
       <c r="E100" t="n">
-        <v>0.159741</v>
+        <v>0.159822</v>
       </c>
       <c r="F100" t="n">
-        <v>0.27885</v>
+        <v>0.279045</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.208285</v>
+        <v>0.208375</v>
       </c>
       <c r="C101" t="n">
-        <v>0.401202</v>
+        <v>0.400257</v>
       </c>
       <c r="D101" t="n">
-        <v>0.409372</v>
+        <v>0.408646</v>
       </c>
       <c r="E101" t="n">
-        <v>0.156781</v>
+        <v>0.156921</v>
       </c>
       <c r="F101" t="n">
-        <v>0.276467</v>
+        <v>0.276572</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.203073</v>
+        <v>0.203162</v>
       </c>
       <c r="C102" t="n">
-        <v>0.374041</v>
+        <v>0.373224</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405147</v>
+        <v>0.405377</v>
       </c>
       <c r="E102" t="n">
-        <v>0.154462</v>
+        <v>0.154476</v>
       </c>
       <c r="F102" t="n">
-        <v>0.273552</v>
+        <v>0.27348</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.198091</v>
+        <v>0.197993</v>
       </c>
       <c r="C103" t="n">
-        <v>0.442451</v>
+        <v>0.440691</v>
       </c>
       <c r="D103" t="n">
-        <v>0.40357</v>
+        <v>0.402675</v>
       </c>
       <c r="E103" t="n">
-        <v>0.150474</v>
+        <v>0.150551</v>
       </c>
       <c r="F103" t="n">
-        <v>0.270559</v>
+        <v>0.270738</v>
       </c>
     </row>
     <row r="104">
@@ -7125,16 +7125,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.193078</v>
+        <v>0.19282</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399094</v>
+        <v>0.398095</v>
       </c>
       <c r="D104" t="n">
-        <v>0.41511</v>
+        <v>0.414503</v>
       </c>
       <c r="E104" t="n">
-        <v>0.147261</v>
+        <v>0.147362</v>
       </c>
       <c r="F104" t="n">
         <v>0.267538</v>
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.187707</v>
+        <v>0.187827</v>
       </c>
       <c r="C105" t="n">
-        <v>0.318163</v>
+        <v>0.317952</v>
       </c>
       <c r="D105" t="n">
-        <v>0.401664</v>
+        <v>0.399897</v>
       </c>
       <c r="E105" t="n">
-        <v>0.144131</v>
+        <v>0.144316</v>
       </c>
       <c r="F105" t="n">
-        <v>0.264416</v>
+        <v>0.26464</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.182061</v>
+        <v>0.18182</v>
       </c>
       <c r="C106" t="n">
-        <v>0.435547</v>
+        <v>0.433555</v>
       </c>
       <c r="D106" t="n">
-        <v>0.397315</v>
+        <v>0.392879</v>
       </c>
       <c r="E106" t="n">
-        <v>0.141263</v>
+        <v>0.141459</v>
       </c>
       <c r="F106" t="n">
-        <v>0.261233</v>
+        <v>0.261426</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.175473</v>
+        <v>0.175229</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404527</v>
+        <v>0.402861</v>
       </c>
       <c r="D107" t="n">
-        <v>0.439209</v>
+        <v>0.438564</v>
       </c>
       <c r="E107" t="n">
-        <v>0.140054</v>
+        <v>0.138183</v>
       </c>
       <c r="F107" t="n">
-        <v>0.257809</v>
+        <v>0.257995</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.16885</v>
+        <v>0.16878</v>
       </c>
       <c r="C108" t="n">
-        <v>0.382108</v>
+        <v>0.380914</v>
       </c>
       <c r="D108" t="n">
-        <v>0.435934</v>
+        <v>0.435326</v>
       </c>
       <c r="E108" t="n">
-        <v>0.183632</v>
+        <v>0.185101</v>
       </c>
       <c r="F108" t="n">
-        <v>0.29764</v>
+        <v>0.297656</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.159521</v>
+        <v>0.159396</v>
       </c>
       <c r="C109" t="n">
-        <v>0.339753</v>
+        <v>0.338653</v>
       </c>
       <c r="D109" t="n">
-        <v>0.411519</v>
+        <v>0.412021</v>
       </c>
       <c r="E109" t="n">
-        <v>0.17952</v>
+        <v>0.1792</v>
       </c>
       <c r="F109" t="n">
-        <v>0.294617</v>
+        <v>0.294714</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234385</v>
+        <v>0.234267</v>
       </c>
       <c r="C110" t="n">
-        <v>0.420608</v>
+        <v>0.41976</v>
       </c>
       <c r="D110" t="n">
-        <v>0.411462</v>
+        <v>0.412183</v>
       </c>
       <c r="E110" t="n">
-        <v>0.175814</v>
+        <v>0.175914</v>
       </c>
       <c r="F110" t="n">
-        <v>0.291248</v>
+        <v>0.291368</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.229937</v>
+        <v>0.230037</v>
       </c>
       <c r="C111" t="n">
-        <v>0.416837</v>
+        <v>0.416036</v>
       </c>
       <c r="D111" t="n">
-        <v>0.407446</v>
+        <v>0.40823</v>
       </c>
       <c r="E111" t="n">
-        <v>0.17224</v>
+        <v>0.172157</v>
       </c>
       <c r="F111" t="n">
-        <v>0.28813</v>
+        <v>0.288235</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.225224</v>
+        <v>0.225155</v>
       </c>
       <c r="C112" t="n">
-        <v>0.412427</v>
+        <v>0.411788</v>
       </c>
       <c r="D112" t="n">
-        <v>0.408926</v>
+        <v>0.410456</v>
       </c>
       <c r="E112" t="n">
-        <v>0.168626</v>
+        <v>0.168721</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285409</v>
+        <v>0.285518</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.220111</v>
+        <v>0.220061</v>
       </c>
       <c r="C113" t="n">
-        <v>0.408715</v>
+        <v>0.407651</v>
       </c>
       <c r="D113" t="n">
-        <v>0.406604</v>
+        <v>0.406833</v>
       </c>
       <c r="E113" t="n">
-        <v>0.164796</v>
+        <v>0.164675</v>
       </c>
       <c r="F113" t="n">
-        <v>0.282807</v>
+        <v>0.282862</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.214849</v>
+        <v>0.21504</v>
       </c>
       <c r="C114" t="n">
-        <v>0.40422</v>
+        <v>0.403511</v>
       </c>
       <c r="D114" t="n">
-        <v>0.403576</v>
+        <v>0.405001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.160861</v>
+        <v>0.161105</v>
       </c>
       <c r="F114" t="n">
-        <v>0.279751</v>
+        <v>0.279928</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.209643</v>
+        <v>0.209637</v>
       </c>
       <c r="C115" t="n">
-        <v>0.407014</v>
+        <v>0.406285</v>
       </c>
       <c r="D115" t="n">
-        <v>0.411096</v>
+        <v>0.411042</v>
       </c>
       <c r="E115" t="n">
-        <v>0.15768</v>
+        <v>0.15775</v>
       </c>
       <c r="F115" t="n">
-        <v>0.276819</v>
+        <v>0.276915</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.204414</v>
+        <v>0.204354</v>
       </c>
       <c r="C116" t="n">
-        <v>0.413403</v>
+        <v>0.412189</v>
       </c>
       <c r="D116" t="n">
-        <v>0.407868</v>
+        <v>0.408622</v>
       </c>
       <c r="E116" t="n">
-        <v>0.154856</v>
+        <v>0.154769</v>
       </c>
       <c r="F116" t="n">
-        <v>0.274305</v>
+        <v>0.274234</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199428</v>
+        <v>0.199114</v>
       </c>
       <c r="C117" t="n">
-        <v>0.319663</v>
+        <v>0.319495</v>
       </c>
       <c r="D117" t="n">
-        <v>0.396557</v>
+        <v>0.397222</v>
       </c>
       <c r="E117" t="n">
-        <v>0.151336</v>
+        <v>0.151311</v>
       </c>
       <c r="F117" t="n">
-        <v>0.271418</v>
+        <v>0.271813</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.194462</v>
+        <v>0.194426</v>
       </c>
       <c r="C118" t="n">
-        <v>0.418063</v>
+        <v>0.416336</v>
       </c>
       <c r="D118" t="n">
-        <v>0.391252</v>
+        <v>0.391878</v>
       </c>
       <c r="E118" t="n">
-        <v>0.148633</v>
+        <v>0.148638</v>
       </c>
       <c r="F118" t="n">
-        <v>0.26841</v>
+        <v>0.268486</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1887</v>
+        <v>0.188633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.385686</v>
+        <v>0.384718</v>
       </c>
       <c r="D119" t="n">
-        <v>0.399719</v>
+        <v>0.401074</v>
       </c>
       <c r="E119" t="n">
-        <v>0.145527</v>
+        <v>0.145244</v>
       </c>
       <c r="F119" t="n">
-        <v>0.265265</v>
+        <v>0.265384</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.183094</v>
+        <v>0.182725</v>
       </c>
       <c r="C120" t="n">
-        <v>0.379207</v>
+        <v>0.378215</v>
       </c>
       <c r="D120" t="n">
-        <v>0.399703</v>
+        <v>0.399627</v>
       </c>
       <c r="E120" t="n">
-        <v>0.142063</v>
+        <v>0.142042</v>
       </c>
       <c r="F120" t="n">
-        <v>0.261991</v>
+        <v>0.262369</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.177128</v>
+        <v>0.176792</v>
       </c>
       <c r="C121" t="n">
-        <v>0.444244</v>
+        <v>0.442726</v>
       </c>
       <c r="D121" t="n">
-        <v>0.462897</v>
+        <v>0.462707</v>
       </c>
       <c r="E121" t="n">
-        <v>0.1389</v>
+        <v>0.138849</v>
       </c>
       <c r="F121" t="n">
-        <v>0.258584</v>
+        <v>0.258992</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.170389</v>
+        <v>0.17029</v>
       </c>
       <c r="C122" t="n">
-        <v>0.369277</v>
+        <v>0.368063</v>
       </c>
       <c r="D122" t="n">
-        <v>0.462845</v>
+        <v>0.462549</v>
       </c>
       <c r="E122" t="n">
-        <v>0.135383</v>
+        <v>0.135491</v>
       </c>
       <c r="F122" t="n">
-        <v>0.255427</v>
+        <v>0.255658</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.161738</v>
+        <v>0.16162</v>
       </c>
       <c r="C123" t="n">
-        <v>0.355982</v>
+        <v>0.353913</v>
       </c>
       <c r="D123" t="n">
-        <v>0.462484</v>
+        <v>0.462926</v>
       </c>
       <c r="E123" t="n">
-        <v>0.180385</v>
+        <v>0.180554</v>
       </c>
       <c r="F123" t="n">
-        <v>0.295024</v>
+        <v>0.29495</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.235283</v>
+        <v>0.235291</v>
       </c>
       <c r="C124" t="n">
-        <v>0.399088</v>
+        <v>0.398588</v>
       </c>
       <c r="D124" t="n">
-        <v>0.430125</v>
+        <v>0.42959</v>
       </c>
       <c r="E124" t="n">
-        <v>0.176535</v>
+        <v>0.176567</v>
       </c>
       <c r="F124" t="n">
-        <v>0.291879</v>
+        <v>0.291819</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.231098</v>
+        <v>0.231085</v>
       </c>
       <c r="C125" t="n">
-        <v>0.39579</v>
+        <v>0.394996</v>
       </c>
       <c r="D125" t="n">
-        <v>0.426188</v>
+        <v>0.426753</v>
       </c>
       <c r="E125" t="n">
-        <v>0.172651</v>
+        <v>0.172755</v>
       </c>
       <c r="F125" t="n">
-        <v>0.289137</v>
+        <v>0.28904</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.226239</v>
+        <v>0.226281</v>
       </c>
       <c r="C126" t="n">
-        <v>0.439874</v>
+        <v>0.438826</v>
       </c>
       <c r="D126" t="n">
-        <v>0.432958</v>
+        <v>0.431518</v>
       </c>
       <c r="E126" t="n">
-        <v>0.168804</v>
+        <v>0.169</v>
       </c>
       <c r="F126" t="n">
-        <v>0.286129</v>
+        <v>0.286026</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.221377</v>
+        <v>0.221347</v>
       </c>
       <c r="C127" t="n">
-        <v>0.373052</v>
+        <v>0.372143</v>
       </c>
       <c r="D127" t="n">
-        <v>0.41818</v>
+        <v>0.418953</v>
       </c>
       <c r="E127" t="n">
-        <v>0.165203</v>
+        <v>0.165552</v>
       </c>
       <c r="F127" t="n">
-        <v>0.28301</v>
+        <v>0.283352</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216216</v>
+        <v>0.216094</v>
       </c>
       <c r="C128" t="n">
-        <v>0.529045</v>
+        <v>0.5238159999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.422015</v>
+        <v>0.421613</v>
       </c>
       <c r="E128" t="n">
-        <v>0.161761</v>
+        <v>0.162181</v>
       </c>
       <c r="F128" t="n">
-        <v>0.280245</v>
+        <v>0.280345</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21081</v>
+        <v>0.210835</v>
       </c>
       <c r="C129" t="n">
-        <v>0.383877</v>
+        <v>0.383097</v>
       </c>
       <c r="D129" t="n">
-        <v>0.430455</v>
+        <v>0.429488</v>
       </c>
       <c r="E129" t="n">
-        <v>0.158758</v>
+        <v>0.158929</v>
       </c>
       <c r="F129" t="n">
-        <v>0.277319</v>
+        <v>0.277275</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.20572</v>
+        <v>0.205492</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418966</v>
+        <v>0.416474</v>
       </c>
       <c r="D130" t="n">
-        <v>0.424714</v>
+        <v>0.423695</v>
       </c>
       <c r="E130" t="n">
-        <v>0.155507</v>
+        <v>0.15556</v>
       </c>
       <c r="F130" t="n">
-        <v>0.274495</v>
+        <v>0.274643</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.20055</v>
+        <v>0.200451</v>
       </c>
       <c r="C131" t="n">
-        <v>0.443287</v>
+        <v>0.441066</v>
       </c>
       <c r="D131" t="n">
-        <v>0.422395</v>
+        <v>0.421967</v>
       </c>
       <c r="E131" t="n">
-        <v>0.152301</v>
+        <v>0.152168</v>
       </c>
       <c r="F131" t="n">
-        <v>0.271864</v>
+        <v>0.271869</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.19566</v>
+        <v>0.195502</v>
       </c>
       <c r="C132" t="n">
-        <v>0.324247</v>
+        <v>0.324077</v>
       </c>
       <c r="D132" t="n">
-        <v>0.409132</v>
+        <v>0.408834</v>
       </c>
       <c r="E132" t="n">
-        <v>0.149371</v>
+        <v>0.149442</v>
       </c>
       <c r="F132" t="n">
-        <v>0.269291</v>
+        <v>0.268838</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.19031</v>
+        <v>0.190028</v>
       </c>
       <c r="C133" t="n">
-        <v>0.391717</v>
+        <v>0.390518</v>
       </c>
       <c r="D133" t="n">
-        <v>0.408452</v>
+        <v>0.407751</v>
       </c>
       <c r="E133" t="n">
-        <v>0.146181</v>
+        <v>0.146219</v>
       </c>
       <c r="F133" t="n">
-        <v>0.265556</v>
+        <v>0.265625</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.184408</v>
+        <v>0.184404</v>
       </c>
       <c r="C134" t="n">
-        <v>0.40395</v>
+        <v>0.40225</v>
       </c>
       <c r="D134" t="n">
-        <v>0.404289</v>
+        <v>0.40445</v>
       </c>
       <c r="E134" t="n">
-        <v>0.142484</v>
+        <v>0.142602</v>
       </c>
       <c r="F134" t="n">
-        <v>0.262525</v>
+        <v>0.262822</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.178401</v>
+        <v>0.178294</v>
       </c>
       <c r="C135" t="n">
-        <v>0.407131</v>
+        <v>0.405253</v>
       </c>
       <c r="D135" t="n">
-        <v>0.459682</v>
+        <v>0.458655</v>
       </c>
       <c r="E135" t="n">
-        <v>0.139373</v>
+        <v>0.139533</v>
       </c>
       <c r="F135" t="n">
-        <v>0.259257</v>
+        <v>0.259499</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.17188</v>
+        <v>0.171893</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323307</v>
+        <v>0.322875</v>
       </c>
       <c r="D136" t="n">
-        <v>0.474646</v>
+        <v>0.47398</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135983</v>
+        <v>0.136272</v>
       </c>
       <c r="F136" t="n">
-        <v>0.255901</v>
+        <v>0.256063</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.163616</v>
+        <v>0.163682</v>
       </c>
       <c r="C137" t="n">
-        <v>0.483122</v>
+        <v>0.480781</v>
       </c>
       <c r="D137" t="n">
-        <v>0.444596</v>
+        <v>0.444049</v>
       </c>
       <c r="E137" t="n">
-        <v>0.180542</v>
+        <v>0.180548</v>
       </c>
       <c r="F137" t="n">
-        <v>0.294905</v>
+        <v>0.295188</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.236115</v>
+        <v>0.236128</v>
       </c>
       <c r="C138" t="n">
-        <v>0.481809</v>
+        <v>0.479528</v>
       </c>
       <c r="D138" t="n">
-        <v>0.452406</v>
+        <v>0.451434</v>
       </c>
       <c r="E138" t="n">
-        <v>0.176847</v>
+        <v>0.176969</v>
       </c>
       <c r="F138" t="n">
-        <v>0.292382</v>
+        <v>0.292996</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.231948</v>
+        <v>0.231843</v>
       </c>
       <c r="C139" t="n">
-        <v>0.485149</v>
+        <v>0.482245</v>
       </c>
       <c r="D139" t="n">
-        <v>0.445186</v>
+        <v>0.444051</v>
       </c>
       <c r="E139" t="n">
-        <v>0.173128</v>
+        <v>0.173201</v>
       </c>
       <c r="F139" t="n">
-        <v>0.290103</v>
+        <v>0.290091</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.227187</v>
+        <v>0.227275</v>
       </c>
       <c r="C140" t="n">
-        <v>0.385314</v>
+        <v>0.384361</v>
       </c>
       <c r="D140" t="n">
-        <v>0.440575</v>
+        <v>0.439427</v>
       </c>
       <c r="E140" t="n">
-        <v>0.169416</v>
+        <v>0.169508</v>
       </c>
       <c r="F140" t="n">
-        <v>0.286546</v>
+        <v>0.287095</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.222335</v>
+        <v>0.222402</v>
       </c>
       <c r="C141" t="n">
-        <v>0.432262</v>
+        <v>0.431301</v>
       </c>
       <c r="D141" t="n">
-        <v>0.43696</v>
+        <v>0.435565</v>
       </c>
       <c r="E141" t="n">
-        <v>0.16583</v>
+        <v>0.165981</v>
       </c>
       <c r="F141" t="n">
-        <v>0.283546</v>
+        <v>0.283644</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.217177</v>
+        <v>0.217272</v>
       </c>
       <c r="C142" t="n">
-        <v>0.45232</v>
+        <v>0.449938</v>
       </c>
       <c r="D142" t="n">
-        <v>0.431692</v>
+        <v>0.431301</v>
       </c>
       <c r="E142" t="n">
-        <v>0.162483</v>
+        <v>0.162785</v>
       </c>
       <c r="F142" t="n">
-        <v>0.280985</v>
+        <v>0.28106</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.211941</v>
+        <v>0.211988</v>
       </c>
       <c r="C143" t="n">
-        <v>0.481999</v>
+        <v>0.480169</v>
       </c>
       <c r="D143" t="n">
-        <v>0.412046</v>
+        <v>0.412544</v>
       </c>
       <c r="E143" t="n">
-        <v>0.158926</v>
+        <v>0.159171</v>
       </c>
       <c r="F143" t="n">
-        <v>0.27785</v>
+        <v>0.278289</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.198089</v>
+        <v>0.187183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.316615</v>
+        <v>0.320234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.310598</v>
+        <v>0.326929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.101777</v>
+        <v>0.0947308</v>
       </c>
       <c r="F2" t="n">
-        <v>0.259576</v>
+        <v>0.278199</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.194104</v>
+        <v>0.185591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315525</v>
+        <v>0.316972</v>
       </c>
       <c r="D3" t="n">
-        <v>0.313933</v>
+        <v>0.327539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.093082</v>
+        <v>0.0919051</v>
       </c>
       <c r="F3" t="n">
-        <v>0.259467</v>
+        <v>0.279346</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.189385</v>
+        <v>0.180812</v>
       </c>
       <c r="C4" t="n">
-        <v>0.312231</v>
+        <v>0.315453</v>
       </c>
       <c r="D4" t="n">
-        <v>0.312601</v>
+        <v>0.329736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09057419999999999</v>
+        <v>0.091904</v>
       </c>
       <c r="F4" t="n">
-        <v>0.256783</v>
+        <v>0.270051</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.18291</v>
+        <v>0.174876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.303781</v>
+        <v>0.309228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.315144</v>
+        <v>0.331513</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0974136</v>
+        <v>0.09168709999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.255471</v>
+        <v>0.264559</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.181489</v>
+        <v>0.172024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.301343</v>
+        <v>0.306933</v>
       </c>
       <c r="D6" t="n">
-        <v>0.318521</v>
+        <v>0.333864</v>
       </c>
       <c r="E6" t="n">
-        <v>0.095438</v>
+        <v>0.08741599999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.250487</v>
+        <v>0.260385</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.169829</v>
+        <v>0.164849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.293302</v>
+        <v>0.30029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.307626</v>
+        <v>0.323465</v>
       </c>
       <c r="E7" t="n">
-        <v>0.094293</v>
+        <v>0.0886919</v>
       </c>
       <c r="F7" t="n">
-        <v>0.249261</v>
+        <v>0.256012</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.166869</v>
+        <v>0.156595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.280966</v>
+        <v>0.288298</v>
       </c>
       <c r="D8" t="n">
-        <v>0.309107</v>
+        <v>0.323669</v>
       </c>
       <c r="E8" t="n">
-        <v>0.091742</v>
+        <v>0.0842595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.246865</v>
+        <v>0.253215</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.15909</v>
+        <v>0.149026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.277491</v>
+        <v>0.287467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.310006</v>
+        <v>0.323325</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16994</v>
+        <v>0.172031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.288874</v>
+        <v>0.307677</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.235542</v>
+        <v>0.227257</v>
       </c>
       <c r="C10" t="n">
-        <v>0.351814</v>
+        <v>0.356024</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306224</v>
+        <v>0.323133</v>
       </c>
       <c r="E10" t="n">
-        <v>0.164542</v>
+        <v>0.167678</v>
       </c>
       <c r="F10" t="n">
-        <v>0.286199</v>
+        <v>0.303535</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.234125</v>
+        <v>0.224294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.347708</v>
+        <v>0.353641</v>
       </c>
       <c r="D11" t="n">
-        <v>0.310255</v>
+        <v>0.326884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.161047</v>
+        <v>0.166262</v>
       </c>
       <c r="F11" t="n">
-        <v>0.28409</v>
+        <v>0.301533</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.225977</v>
+        <v>0.221043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.343516</v>
+        <v>0.348785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.311368</v>
+        <v>0.327469</v>
       </c>
       <c r="E12" t="n">
-        <v>0.155988</v>
+        <v>0.158432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.28032</v>
+        <v>0.298035</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221382</v>
+        <v>0.215286</v>
       </c>
       <c r="C13" t="n">
-        <v>0.341127</v>
+        <v>0.34523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.311041</v>
+        <v>0.327486</v>
       </c>
       <c r="E13" t="n">
-        <v>0.152391</v>
+        <v>0.156115</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279461</v>
+        <v>0.299306</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217742</v>
+        <v>0.21178</v>
       </c>
       <c r="C14" t="n">
-        <v>0.336383</v>
+        <v>0.341752</v>
       </c>
       <c r="D14" t="n">
-        <v>0.312058</v>
+        <v>0.328684</v>
       </c>
       <c r="E14" t="n">
-        <v>0.149203</v>
+        <v>0.152857</v>
       </c>
       <c r="F14" t="n">
-        <v>0.276573</v>
+        <v>0.294028</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.211087</v>
+        <v>0.20626</v>
       </c>
       <c r="C15" t="n">
-        <v>0.320453</v>
+        <v>0.325092</v>
       </c>
       <c r="D15" t="n">
-        <v>0.311879</v>
+        <v>0.327756</v>
       </c>
       <c r="E15" t="n">
-        <v>0.145722</v>
+        <v>0.14945</v>
       </c>
       <c r="F15" t="n">
-        <v>0.27409</v>
+        <v>0.293226</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.208708</v>
+        <v>0.201098</v>
       </c>
       <c r="C16" t="n">
-        <v>0.326131</v>
+        <v>0.32869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.311899</v>
+        <v>0.329651</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1436</v>
+        <v>0.146729</v>
       </c>
       <c r="F16" t="n">
-        <v>0.270243</v>
+        <v>0.287971</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.203577</v>
+        <v>0.196524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.31409</v>
+        <v>0.319807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.314684</v>
+        <v>0.332926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.140721</v>
+        <v>0.143083</v>
       </c>
       <c r="F17" t="n">
-        <v>0.267694</v>
+        <v>0.28299</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.200114</v>
+        <v>0.190576</v>
       </c>
       <c r="C18" t="n">
-        <v>0.317274</v>
+        <v>0.3206</v>
       </c>
       <c r="D18" t="n">
-        <v>0.315634</v>
+        <v>0.332601</v>
       </c>
       <c r="E18" t="n">
-        <v>0.136419</v>
+        <v>0.139564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.264664</v>
+        <v>0.280376</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.19412</v>
+        <v>0.186234</v>
       </c>
       <c r="C19" t="n">
-        <v>0.307781</v>
+        <v>0.313566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3184</v>
+        <v>0.334659</v>
       </c>
       <c r="E19" t="n">
-        <v>0.133352</v>
+        <v>0.137206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.260866</v>
+        <v>0.271329</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.188394</v>
+        <v>0.180447</v>
       </c>
       <c r="C20" t="n">
-        <v>0.304253</v>
+        <v>0.309498</v>
       </c>
       <c r="D20" t="n">
-        <v>0.31958</v>
+        <v>0.337322</v>
       </c>
       <c r="E20" t="n">
-        <v>0.130373</v>
+        <v>0.133774</v>
       </c>
       <c r="F20" t="n">
-        <v>0.258888</v>
+        <v>0.272827</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.182195</v>
+        <v>0.174364</v>
       </c>
       <c r="C21" t="n">
-        <v>0.301341</v>
+        <v>0.305449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.309329</v>
+        <v>0.327155</v>
       </c>
       <c r="E21" t="n">
-        <v>0.127186</v>
+        <v>0.129798</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25542</v>
+        <v>0.26768</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.169605</v>
+        <v>0.166049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.290034</v>
+        <v>0.29834</v>
       </c>
       <c r="D22" t="n">
-        <v>0.309064</v>
+        <v>0.328319</v>
       </c>
       <c r="E22" t="n">
-        <v>0.123881</v>
+        <v>0.126015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.251841</v>
+        <v>0.264147</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.166006</v>
+        <v>0.159103</v>
       </c>
       <c r="C23" t="n">
-        <v>0.277491</v>
+        <v>0.288675</v>
       </c>
       <c r="D23" t="n">
-        <v>0.310758</v>
+        <v>0.328878</v>
       </c>
       <c r="E23" t="n">
-        <v>0.180404</v>
+        <v>0.186869</v>
       </c>
       <c r="F23" t="n">
-        <v>0.295465</v>
+        <v>0.320239</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.237271</v>
+        <v>0.232355</v>
       </c>
       <c r="C24" t="n">
-        <v>0.356694</v>
+        <v>0.36168</v>
       </c>
       <c r="D24" t="n">
-        <v>0.312071</v>
+        <v>0.329149</v>
       </c>
       <c r="E24" t="n">
-        <v>0.175728</v>
+        <v>0.179398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.291069</v>
+        <v>0.311883</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.234738</v>
+        <v>0.228467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.350089</v>
+        <v>0.352999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.313333</v>
+        <v>0.331213</v>
       </c>
       <c r="E25" t="n">
-        <v>0.170665</v>
+        <v>0.175255</v>
       </c>
       <c r="F25" t="n">
-        <v>0.288591</v>
+        <v>0.306476</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.229354</v>
+        <v>0.224911</v>
       </c>
       <c r="C26" t="n">
-        <v>0.345816</v>
+        <v>0.349273</v>
       </c>
       <c r="D26" t="n">
-        <v>0.311383</v>
+        <v>0.328059</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1665</v>
+        <v>0.17104</v>
       </c>
       <c r="F26" t="n">
-        <v>0.286171</v>
+        <v>0.305948</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.224834</v>
+        <v>0.219839</v>
       </c>
       <c r="C27" t="n">
-        <v>0.344043</v>
+        <v>0.346123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.310811</v>
+        <v>0.329227</v>
       </c>
       <c r="E27" t="n">
-        <v>0.162714</v>
+        <v>0.167752</v>
       </c>
       <c r="F27" t="n">
-        <v>0.281729</v>
+        <v>0.297814</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.220248</v>
+        <v>0.214754</v>
       </c>
       <c r="C28" t="n">
-        <v>0.339718</v>
+        <v>0.342576</v>
       </c>
       <c r="D28" t="n">
-        <v>0.312885</v>
+        <v>0.332118</v>
       </c>
       <c r="E28" t="n">
-        <v>0.158694</v>
+        <v>0.164089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.280122</v>
+        <v>0.294835</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.21545</v>
+        <v>0.210207</v>
       </c>
       <c r="C29" t="n">
-        <v>0.334835</v>
+        <v>0.336588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.316998</v>
+        <v>0.333405</v>
       </c>
       <c r="E29" t="n">
-        <v>0.155843</v>
+        <v>0.160473</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277211</v>
+        <v>0.291286</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.210901</v>
+        <v>0.205138</v>
       </c>
       <c r="C30" t="n">
-        <v>0.330709</v>
+        <v>0.33301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.318441</v>
+        <v>0.335294</v>
       </c>
       <c r="E30" t="n">
-        <v>0.15225</v>
+        <v>0.156828</v>
       </c>
       <c r="F30" t="n">
-        <v>0.274972</v>
+        <v>0.288348</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202854</v>
+        <v>0.199793</v>
       </c>
       <c r="C31" t="n">
-        <v>0.325196</v>
+        <v>0.324979</v>
       </c>
       <c r="D31" t="n">
-        <v>0.318874</v>
+        <v>0.33599</v>
       </c>
       <c r="E31" t="n">
-        <v>0.14908</v>
+        <v>0.153181</v>
       </c>
       <c r="F31" t="n">
-        <v>0.272613</v>
+        <v>0.286407</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.196975</v>
+        <v>0.194662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.323584</v>
+        <v>0.325736</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319484</v>
+        <v>0.337622</v>
       </c>
       <c r="E32" t="n">
-        <v>0.145783</v>
+        <v>0.149165</v>
       </c>
       <c r="F32" t="n">
-        <v>0.268539</v>
+        <v>0.285602</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.195849</v>
+        <v>0.190171</v>
       </c>
       <c r="C33" t="n">
-        <v>0.310895</v>
+        <v>0.316049</v>
       </c>
       <c r="D33" t="n">
-        <v>0.320876</v>
+        <v>0.33898</v>
       </c>
       <c r="E33" t="n">
-        <v>0.142414</v>
+        <v>0.146041</v>
       </c>
       <c r="F33" t="n">
-        <v>0.265469</v>
+        <v>0.280608</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.190076</v>
+        <v>0.18314</v>
       </c>
       <c r="C34" t="n">
-        <v>0.309306</v>
+        <v>0.316621</v>
       </c>
       <c r="D34" t="n">
-        <v>0.322637</v>
+        <v>0.339822</v>
       </c>
       <c r="E34" t="n">
-        <v>0.139195</v>
+        <v>0.142952</v>
       </c>
       <c r="F34" t="n">
-        <v>0.263428</v>
+        <v>0.272861</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.185657</v>
+        <v>0.178099</v>
       </c>
       <c r="C35" t="n">
-        <v>0.300052</v>
+        <v>0.308522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.314349</v>
+        <v>0.333447</v>
       </c>
       <c r="E35" t="n">
-        <v>0.13304</v>
+        <v>0.139222</v>
       </c>
       <c r="F35" t="n">
-        <v>0.259237</v>
+        <v>0.27114</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.178311</v>
+        <v>0.170877</v>
       </c>
       <c r="C36" t="n">
-        <v>0.292171</v>
+        <v>0.297797</v>
       </c>
       <c r="D36" t="n">
-        <v>0.314613</v>
+        <v>0.333318</v>
       </c>
       <c r="E36" t="n">
-        <v>0.128384</v>
+        <v>0.135048</v>
       </c>
       <c r="F36" t="n">
-        <v>0.255794</v>
+        <v>0.270291</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.170318</v>
+        <v>0.162326</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276615</v>
+        <v>0.286527</v>
       </c>
       <c r="D37" t="n">
-        <v>0.315803</v>
+        <v>0.332346</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18424</v>
+        <v>0.189738</v>
       </c>
       <c r="F37" t="n">
-        <v>0.297181</v>
+        <v>0.314125</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.242424</v>
+        <v>0.236184</v>
       </c>
       <c r="C38" t="n">
-        <v>0.352424</v>
+        <v>0.354371</v>
       </c>
       <c r="D38" t="n">
-        <v>0.317327</v>
+        <v>0.331306</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179439</v>
+        <v>0.184124</v>
       </c>
       <c r="F38" t="n">
-        <v>0.293422</v>
+        <v>0.309772</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.236839</v>
+        <v>0.231939</v>
       </c>
       <c r="C39" t="n">
-        <v>0.349214</v>
+        <v>0.350765</v>
       </c>
       <c r="D39" t="n">
-        <v>0.317469</v>
+        <v>0.333832</v>
       </c>
       <c r="E39" t="n">
-        <v>0.175645</v>
+        <v>0.179861</v>
       </c>
       <c r="F39" t="n">
-        <v>0.291645</v>
+        <v>0.310508</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231875</v>
+        <v>0.228215</v>
       </c>
       <c r="C40" t="n">
-        <v>0.345933</v>
+        <v>0.347882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.316158</v>
+        <v>0.333992</v>
       </c>
       <c r="E40" t="n">
-        <v>0.171693</v>
+        <v>0.175326</v>
       </c>
       <c r="F40" t="n">
-        <v>0.287904</v>
+        <v>0.303522</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.227221</v>
+        <v>0.224212</v>
       </c>
       <c r="C41" t="n">
-        <v>0.341846</v>
+        <v>0.34351</v>
       </c>
       <c r="D41" t="n">
-        <v>0.317281</v>
+        <v>0.336152</v>
       </c>
       <c r="E41" t="n">
-        <v>0.166969</v>
+        <v>0.171194</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285234</v>
+        <v>0.300198</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.224312</v>
+        <v>0.219451</v>
       </c>
       <c r="C42" t="n">
-        <v>0.337174</v>
+        <v>0.340131</v>
       </c>
       <c r="D42" t="n">
-        <v>0.317857</v>
+        <v>0.334876</v>
       </c>
       <c r="E42" t="n">
-        <v>0.163077</v>
+        <v>0.167679</v>
       </c>
       <c r="F42" t="n">
-        <v>0.282862</v>
+        <v>0.298975</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.216362</v>
+        <v>0.213224</v>
       </c>
       <c r="C43" t="n">
-        <v>0.332504</v>
+        <v>0.334584</v>
       </c>
       <c r="D43" t="n">
-        <v>0.316019</v>
+        <v>0.332744</v>
       </c>
       <c r="E43" t="n">
-        <v>0.15958</v>
+        <v>0.165102</v>
       </c>
       <c r="F43" t="n">
-        <v>0.279813</v>
+        <v>0.29852</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.213468</v>
+        <v>0.20866</v>
       </c>
       <c r="C44" t="n">
-        <v>0.325579</v>
+        <v>0.331076</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318753</v>
+        <v>0.334826</v>
       </c>
       <c r="E44" t="n">
-        <v>0.156445</v>
+        <v>0.160661</v>
       </c>
       <c r="F44" t="n">
-        <v>0.277194</v>
+        <v>0.295314</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.207843</v>
+        <v>0.20277</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324486</v>
+        <v>0.329371</v>
       </c>
       <c r="D45" t="n">
-        <v>0.318634</v>
+        <v>0.335235</v>
       </c>
       <c r="E45" t="n">
-        <v>0.153119</v>
+        <v>0.157119</v>
       </c>
       <c r="F45" t="n">
-        <v>0.27431</v>
+        <v>0.290233</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.202098</v>
+        <v>0.197198</v>
       </c>
       <c r="C46" t="n">
-        <v>0.322461</v>
+        <v>0.32653</v>
       </c>
       <c r="D46" t="n">
-        <v>0.319676</v>
+        <v>0.336595</v>
       </c>
       <c r="E46" t="n">
-        <v>0.149617</v>
+        <v>0.153799</v>
       </c>
       <c r="F46" t="n">
-        <v>0.270291</v>
+        <v>0.286236</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.197084</v>
+        <v>0.191692</v>
       </c>
       <c r="C47" t="n">
-        <v>0.313913</v>
+        <v>0.317691</v>
       </c>
       <c r="D47" t="n">
-        <v>0.323332</v>
+        <v>0.339221</v>
       </c>
       <c r="E47" t="n">
-        <v>0.146181</v>
+        <v>0.1506</v>
       </c>
       <c r="F47" t="n">
-        <v>0.266941</v>
+        <v>0.277864</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.192578</v>
+        <v>0.186795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.307608</v>
+        <v>0.317412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.322657</v>
+        <v>0.340794</v>
       </c>
       <c r="E48" t="n">
-        <v>0.142676</v>
+        <v>0.147095</v>
       </c>
       <c r="F48" t="n">
-        <v>0.264563</v>
+        <v>0.273924</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.183094</v>
+        <v>0.180418</v>
       </c>
       <c r="C49" t="n">
-        <v>0.303951</v>
+        <v>0.307634</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325627</v>
+        <v>0.341496</v>
       </c>
       <c r="E49" t="n">
-        <v>0.138979</v>
+        <v>0.143121</v>
       </c>
       <c r="F49" t="n">
-        <v>0.261235</v>
+        <v>0.269862</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.175364</v>
+        <v>0.173564</v>
       </c>
       <c r="C50" t="n">
-        <v>0.298769</v>
+        <v>0.302475</v>
       </c>
       <c r="D50" t="n">
-        <v>0.316759</v>
+        <v>0.332772</v>
       </c>
       <c r="E50" t="n">
-        <v>0.135617</v>
+        <v>0.139225</v>
       </c>
       <c r="F50" t="n">
-        <v>0.258189</v>
+        <v>0.26549</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.173148</v>
+        <v>0.165362</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284237</v>
+        <v>0.290516</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318488</v>
+        <v>0.333725</v>
       </c>
       <c r="E51" t="n">
-        <v>0.187652</v>
+        <v>0.190967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.298839</v>
+        <v>0.318288</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.165029</v>
+        <v>0.156956</v>
       </c>
       <c r="C52" t="n">
-        <v>0.28062</v>
+        <v>0.287907</v>
       </c>
       <c r="D52" t="n">
-        <v>0.319666</v>
+        <v>0.333356</v>
       </c>
       <c r="E52" t="n">
-        <v>0.184287</v>
+        <v>0.186673</v>
       </c>
       <c r="F52" t="n">
-        <v>0.295425</v>
+        <v>0.311842</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.236148</v>
+        <v>0.234155</v>
       </c>
       <c r="C53" t="n">
-        <v>0.352889</v>
+        <v>0.353664</v>
       </c>
       <c r="D53" t="n">
-        <v>0.321474</v>
+        <v>0.335771</v>
       </c>
       <c r="E53" t="n">
-        <v>0.178218</v>
+        <v>0.181938</v>
       </c>
       <c r="F53" t="n">
-        <v>0.292533</v>
+        <v>0.308794</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.232893</v>
+        <v>0.230337</v>
       </c>
       <c r="C54" t="n">
-        <v>0.350047</v>
+        <v>0.350033</v>
       </c>
       <c r="D54" t="n">
-        <v>0.318438</v>
+        <v>0.334876</v>
       </c>
       <c r="E54" t="n">
-        <v>0.174576</v>
+        <v>0.178275</v>
       </c>
       <c r="F54" t="n">
-        <v>0.289517</v>
+        <v>0.305264</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.227837</v>
+        <v>0.225821</v>
       </c>
       <c r="C55" t="n">
-        <v>0.347263</v>
+        <v>0.346874</v>
       </c>
       <c r="D55" t="n">
-        <v>0.320268</v>
+        <v>0.335681</v>
       </c>
       <c r="E55" t="n">
-        <v>0.170845</v>
+        <v>0.174653</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285937</v>
+        <v>0.302499</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.222147</v>
+        <v>0.220664</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343869</v>
+        <v>0.343332</v>
       </c>
       <c r="D56" t="n">
-        <v>0.322121</v>
+        <v>0.33767</v>
       </c>
       <c r="E56" t="n">
-        <v>0.166408</v>
+        <v>0.170756</v>
       </c>
       <c r="F56" t="n">
-        <v>0.283824</v>
+        <v>0.298198</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.218417</v>
+        <v>0.215121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.337933</v>
+        <v>0.340417</v>
       </c>
       <c r="D57" t="n">
-        <v>0.326013</v>
+        <v>0.341616</v>
       </c>
       <c r="E57" t="n">
-        <v>0.162789</v>
+        <v>0.167436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.280989</v>
+        <v>0.299251</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.211375</v>
+        <v>0.209696</v>
       </c>
       <c r="C58" t="n">
-        <v>0.324046</v>
+        <v>0.328158</v>
       </c>
       <c r="D58" t="n">
-        <v>0.327805</v>
+        <v>0.342832</v>
       </c>
       <c r="E58" t="n">
-        <v>0.159683</v>
+        <v>0.163887</v>
       </c>
       <c r="F58" t="n">
-        <v>0.27771</v>
+        <v>0.293968</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.206367</v>
+        <v>0.204177</v>
       </c>
       <c r="C59" t="n">
-        <v>0.328634</v>
+        <v>0.332006</v>
       </c>
       <c r="D59" t="n">
-        <v>0.329901</v>
+        <v>0.345986</v>
       </c>
       <c r="E59" t="n">
-        <v>0.156394</v>
+        <v>0.160587</v>
       </c>
       <c r="F59" t="n">
-        <v>0.27434</v>
+        <v>0.291133</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.203898</v>
+        <v>0.199401</v>
       </c>
       <c r="C60" t="n">
-        <v>0.32429</v>
+        <v>0.326309</v>
       </c>
       <c r="D60" t="n">
-        <v>0.332761</v>
+        <v>0.349481</v>
       </c>
       <c r="E60" t="n">
-        <v>0.152459</v>
+        <v>0.156638</v>
       </c>
       <c r="F60" t="n">
-        <v>0.271441</v>
+        <v>0.285583</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.199327</v>
+        <v>0.193927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.337127</v>
+        <v>0.342346</v>
       </c>
       <c r="D61" t="n">
-        <v>0.335154</v>
+        <v>0.352701</v>
       </c>
       <c r="E61" t="n">
-        <v>0.149052</v>
+        <v>0.153548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.268308</v>
+        <v>0.28391</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.190257</v>
+        <v>0.188653</v>
       </c>
       <c r="C62" t="n">
-        <v>0.311305</v>
+        <v>0.313609</v>
       </c>
       <c r="D62" t="n">
-        <v>0.335505</v>
+        <v>0.353689</v>
       </c>
       <c r="E62" t="n">
-        <v>0.145659</v>
+        <v>0.14962</v>
       </c>
       <c r="F62" t="n">
-        <v>0.265525</v>
+        <v>0.278236</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188577</v>
+        <v>0.182551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.320678</v>
+        <v>0.322995</v>
       </c>
       <c r="D63" t="n">
-        <v>0.340566</v>
+        <v>0.357508</v>
       </c>
       <c r="E63" t="n">
-        <v>0.142092</v>
+        <v>0.145919</v>
       </c>
       <c r="F63" t="n">
-        <v>0.262292</v>
+        <v>0.275539</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177913</v>
+        <v>0.175717</v>
       </c>
       <c r="C64" t="n">
-        <v>0.316673</v>
+        <v>0.322674</v>
       </c>
       <c r="D64" t="n">
-        <v>0.373359</v>
+        <v>0.39135</v>
       </c>
       <c r="E64" t="n">
-        <v>0.13567</v>
+        <v>0.14223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.259049</v>
+        <v>0.266895</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.170189</v>
+        <v>0.167767</v>
       </c>
       <c r="C65" t="n">
-        <v>0.28618</v>
+        <v>0.291861</v>
       </c>
       <c r="D65" t="n">
-        <v>0.375403</v>
+        <v>0.391472</v>
       </c>
       <c r="E65" t="n">
-        <v>0.13488</v>
+        <v>0.138467</v>
       </c>
       <c r="F65" t="n">
-        <v>0.255809</v>
+        <v>0.259292</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.161712</v>
+        <v>0.159918</v>
       </c>
       <c r="C66" t="n">
-        <v>0.308367</v>
+        <v>0.314439</v>
       </c>
       <c r="D66" t="n">
-        <v>0.375366</v>
+        <v>0.393586</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185456</v>
+        <v>0.190085</v>
       </c>
       <c r="F66" t="n">
-        <v>0.296456</v>
+        <v>0.314207</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.238914</v>
+        <v>0.236153</v>
       </c>
       <c r="C67" t="n">
-        <v>0.382472</v>
+        <v>0.384891</v>
       </c>
       <c r="D67" t="n">
-        <v>0.369015</v>
+        <v>0.385023</v>
       </c>
       <c r="E67" t="n">
-        <v>0.180945</v>
+        <v>0.18675</v>
       </c>
       <c r="F67" t="n">
-        <v>0.292869</v>
+        <v>0.310036</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2352</v>
+        <v>0.232041</v>
       </c>
       <c r="C68" t="n">
-        <v>0.379645</v>
+        <v>0.382582</v>
       </c>
       <c r="D68" t="n">
-        <v>0.378619</v>
+        <v>0.397087</v>
       </c>
       <c r="E68" t="n">
-        <v>0.177437</v>
+        <v>0.183211</v>
       </c>
       <c r="F68" t="n">
-        <v>0.290551</v>
+        <v>0.303961</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.230691</v>
+        <v>0.227279</v>
       </c>
       <c r="C69" t="n">
-        <v>0.375506</v>
+        <v>0.376979</v>
       </c>
       <c r="D69" t="n">
-        <v>0.381502</v>
+        <v>0.397895</v>
       </c>
       <c r="E69" t="n">
-        <v>0.172618</v>
+        <v>0.178478</v>
       </c>
       <c r="F69" t="n">
-        <v>0.287727</v>
+        <v>0.300266</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.225662</v>
+        <v>0.222371</v>
       </c>
       <c r="C70" t="n">
-        <v>0.370228</v>
+        <v>0.372031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.383142</v>
+        <v>0.398981</v>
       </c>
       <c r="E70" t="n">
-        <v>0.169071</v>
+        <v>0.174349</v>
       </c>
       <c r="F70" t="n">
-        <v>0.284915</v>
+        <v>0.296699</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.219165</v>
+        <v>0.217384</v>
       </c>
       <c r="C71" t="n">
-        <v>0.364763</v>
+        <v>0.365935</v>
       </c>
       <c r="D71" t="n">
-        <v>0.372315</v>
+        <v>0.38718</v>
       </c>
       <c r="E71" t="n">
-        <v>0.164784</v>
+        <v>0.170397</v>
       </c>
       <c r="F71" t="n">
-        <v>0.280355</v>
+        <v>0.291187</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.213393</v>
+        <v>0.211792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.38792</v>
+        <v>0.391514</v>
       </c>
       <c r="D72" t="n">
-        <v>0.371901</v>
+        <v>0.38892</v>
       </c>
       <c r="E72" t="n">
-        <v>0.161176</v>
+        <v>0.1667</v>
       </c>
       <c r="F72" t="n">
-        <v>0.277984</v>
+        <v>0.287756</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.210002</v>
+        <v>0.206488</v>
       </c>
       <c r="C73" t="n">
-        <v>0.438903</v>
+        <v>0.450159</v>
       </c>
       <c r="D73" t="n">
-        <v>0.383992</v>
+        <v>0.399736</v>
       </c>
       <c r="E73" t="n">
-        <v>0.15803</v>
+        <v>0.16339</v>
       </c>
       <c r="F73" t="n">
-        <v>0.27478</v>
+        <v>0.283275</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.205255</v>
+        <v>0.201205</v>
       </c>
       <c r="C74" t="n">
-        <v>0.34584</v>
+        <v>0.402377</v>
       </c>
       <c r="D74" t="n">
-        <v>0.371579</v>
+        <v>0.390068</v>
       </c>
       <c r="E74" t="n">
-        <v>0.154516</v>
+        <v>0.159467</v>
       </c>
       <c r="F74" t="n">
-        <v>0.272598</v>
+        <v>0.284877</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.197265</v>
+        <v>0.195581</v>
       </c>
       <c r="C75" t="n">
-        <v>0.382938</v>
+        <v>0.394201</v>
       </c>
       <c r="D75" t="n">
-        <v>0.375238</v>
+        <v>0.387345</v>
       </c>
       <c r="E75" t="n">
-        <v>0.151132</v>
+        <v>0.155973</v>
       </c>
       <c r="F75" t="n">
-        <v>0.269211</v>
+        <v>0.276227</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.195609</v>
+        <v>0.189937</v>
       </c>
       <c r="C76" t="n">
-        <v>0.411626</v>
+        <v>0.423822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.375942</v>
+        <v>0.391295</v>
       </c>
       <c r="E76" t="n">
-        <v>0.147533</v>
+        <v>0.152363</v>
       </c>
       <c r="F76" t="n">
-        <v>0.266376</v>
+        <v>0.27661</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.185751</v>
+        <v>0.183992</v>
       </c>
       <c r="C77" t="n">
-        <v>0.417402</v>
+        <v>0.427369</v>
       </c>
       <c r="D77" t="n">
-        <v>0.385569</v>
+        <v>0.40077</v>
       </c>
       <c r="E77" t="n">
-        <v>0.141388</v>
+        <v>0.148729</v>
       </c>
       <c r="F77" t="n">
-        <v>0.262721</v>
+        <v>0.268496</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.183806</v>
+        <v>0.177768</v>
       </c>
       <c r="C78" t="n">
-        <v>0.413142</v>
+        <v>0.413495</v>
       </c>
       <c r="D78" t="n">
-        <v>0.436897</v>
+        <v>0.464294</v>
       </c>
       <c r="E78" t="n">
-        <v>0.137867</v>
+        <v>0.14468</v>
       </c>
       <c r="F78" t="n">
-        <v>0.259905</v>
+        <v>0.264284</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.177101</v>
+        <v>0.170707</v>
       </c>
       <c r="C79" t="n">
-        <v>0.408592</v>
+        <v>0.323068</v>
       </c>
       <c r="D79" t="n">
-        <v>0.423516</v>
+        <v>0.457466</v>
       </c>
       <c r="E79" t="n">
-        <v>0.137231</v>
+        <v>0.140799</v>
       </c>
       <c r="F79" t="n">
-        <v>0.256721</v>
+        <v>0.260936</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.169074</v>
+        <v>0.16146</v>
       </c>
       <c r="C80" t="n">
-        <v>0.390926</v>
+        <v>0.360476</v>
       </c>
       <c r="D80" t="n">
-        <v>0.43467</v>
+        <v>0.437479</v>
       </c>
       <c r="E80" t="n">
-        <v>0.188023</v>
+        <v>0.191787</v>
       </c>
       <c r="F80" t="n">
-        <v>0.296177</v>
+        <v>0.308884</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.242152</v>
+        <v>0.237513</v>
       </c>
       <c r="C81" t="n">
-        <v>0.373492</v>
+        <v>0.377093</v>
       </c>
       <c r="D81" t="n">
-        <v>0.414479</v>
+        <v>0.446646</v>
       </c>
       <c r="E81" t="n">
-        <v>0.184148</v>
+        <v>0.187378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.292994</v>
+        <v>0.305643</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.238566</v>
+        <v>0.233249</v>
       </c>
       <c r="C82" t="n">
-        <v>0.367427</v>
+        <v>0.372531</v>
       </c>
       <c r="D82" t="n">
-        <v>0.421737</v>
+        <v>0.441911</v>
       </c>
       <c r="E82" t="n">
-        <v>0.176795</v>
+        <v>0.183124</v>
       </c>
       <c r="F82" t="n">
-        <v>0.287706</v>
+        <v>0.304821</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.232201</v>
+        <v>0.228569</v>
       </c>
       <c r="C83" t="n">
-        <v>0.362779</v>
+        <v>0.3666</v>
       </c>
       <c r="D83" t="n">
-        <v>0.404766</v>
+        <v>0.423469</v>
       </c>
       <c r="E83" t="n">
-        <v>0.172616</v>
+        <v>0.179287</v>
       </c>
       <c r="F83" t="n">
-        <v>0.284982</v>
+        <v>0.304992</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.227363</v>
+        <v>0.223561</v>
       </c>
       <c r="C84" t="n">
-        <v>0.357894</v>
+        <v>0.361284</v>
       </c>
       <c r="D84" t="n">
-        <v>0.40238</v>
+        <v>0.423187</v>
       </c>
       <c r="E84" t="n">
-        <v>0.171226</v>
+        <v>0.17552</v>
       </c>
       <c r="F84" t="n">
-        <v>0.281585</v>
+        <v>0.2948</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.222619</v>
+        <v>0.218479</v>
       </c>
       <c r="C85" t="n">
-        <v>0.352418</v>
+        <v>0.356136</v>
       </c>
       <c r="D85" t="n">
-        <v>0.398935</v>
+        <v>0.417515</v>
       </c>
       <c r="E85" t="n">
-        <v>0.167347</v>
+        <v>0.172055</v>
       </c>
       <c r="F85" t="n">
-        <v>0.278349</v>
+        <v>0.291091</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2172</v>
+        <v>0.213121</v>
       </c>
       <c r="C86" t="n">
-        <v>0.346378</v>
+        <v>0.35231</v>
       </c>
       <c r="D86" t="n">
-        <v>0.40793</v>
+        <v>0.42843</v>
       </c>
       <c r="E86" t="n">
-        <v>0.163604</v>
+        <v>0.168536</v>
       </c>
       <c r="F86" t="n">
-        <v>0.275775</v>
+        <v>0.287321</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212973</v>
+        <v>0.207805</v>
       </c>
       <c r="C87" t="n">
-        <v>0.352128</v>
+        <v>0.361671</v>
       </c>
       <c r="D87" t="n">
-        <v>0.407391</v>
+        <v>0.427033</v>
       </c>
       <c r="E87" t="n">
-        <v>0.159591</v>
+        <v>0.164842</v>
       </c>
       <c r="F87" t="n">
-        <v>0.272834</v>
+        <v>0.285052</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.206582</v>
+        <v>0.20261</v>
       </c>
       <c r="C88" t="n">
-        <v>0.425088</v>
+        <v>0.432329</v>
       </c>
       <c r="D88" t="n">
-        <v>0.403489</v>
+        <v>0.426352</v>
       </c>
       <c r="E88" t="n">
-        <v>0.156502</v>
+        <v>0.161239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.269954</v>
+        <v>0.28101</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201992</v>
+        <v>0.196879</v>
       </c>
       <c r="C89" t="n">
-        <v>0.409347</v>
+        <v>0.420949</v>
       </c>
       <c r="D89" t="n">
-        <v>0.400559</v>
+        <v>0.421836</v>
       </c>
       <c r="E89" t="n">
-        <v>0.152765</v>
+        <v>0.157331</v>
       </c>
       <c r="F89" t="n">
-        <v>0.266931</v>
+        <v>0.277049</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196896</v>
+        <v>0.191691</v>
       </c>
       <c r="C90" t="n">
-        <v>0.392338</v>
+        <v>0.403688</v>
       </c>
       <c r="D90" t="n">
-        <v>0.39997</v>
+        <v>0.422295</v>
       </c>
       <c r="E90" t="n">
-        <v>0.14964</v>
+        <v>0.153637</v>
       </c>
       <c r="F90" t="n">
-        <v>0.264124</v>
+        <v>0.273196</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.19169</v>
+        <v>0.186133</v>
       </c>
       <c r="C91" t="n">
-        <v>0.410393</v>
+        <v>0.421399</v>
       </c>
       <c r="D91" t="n">
-        <v>0.39765</v>
+        <v>0.418358</v>
       </c>
       <c r="E91" t="n">
-        <v>0.145844</v>
+        <v>0.149882</v>
       </c>
       <c r="F91" t="n">
-        <v>0.261</v>
+        <v>0.269354</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.18525</v>
+        <v>0.178603</v>
       </c>
       <c r="C92" t="n">
-        <v>0.439464</v>
+        <v>0.452915</v>
       </c>
       <c r="D92" t="n">
-        <v>0.446053</v>
+        <v>0.469599</v>
       </c>
       <c r="E92" t="n">
-        <v>0.142717</v>
+        <v>0.146073</v>
       </c>
       <c r="F92" t="n">
-        <v>0.257661</v>
+        <v>0.264926</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173674</v>
+        <v>0.172416</v>
       </c>
       <c r="C93" t="n">
-        <v>0.407489</v>
+        <v>0.422949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.437643</v>
+        <v>0.462894</v>
       </c>
       <c r="E93" t="n">
-        <v>0.136169</v>
+        <v>0.142542</v>
       </c>
       <c r="F93" t="n">
-        <v>0.254651</v>
+        <v>0.262298</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.169246</v>
+        <v>0.164255</v>
       </c>
       <c r="C94" t="n">
-        <v>0.323457</v>
+        <v>0.333947</v>
       </c>
       <c r="D94" t="n">
-        <v>0.430804</v>
+        <v>0.454592</v>
       </c>
       <c r="E94" t="n">
-        <v>0.187221</v>
+        <v>0.192391</v>
       </c>
       <c r="F94" t="n">
-        <v>0.294231</v>
+        <v>0.312001</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.240309</v>
+        <v>0.238271</v>
       </c>
       <c r="C95" t="n">
-        <v>0.478784</v>
+        <v>0.412748</v>
       </c>
       <c r="D95" t="n">
-        <v>0.413497</v>
+        <v>0.432572</v>
       </c>
       <c r="E95" t="n">
-        <v>0.18249</v>
+        <v>0.187497</v>
       </c>
       <c r="F95" t="n">
-        <v>0.290882</v>
+        <v>0.308782</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.236028</v>
+        <v>0.234002</v>
       </c>
       <c r="C96" t="n">
-        <v>0.354791</v>
+        <v>0.358214</v>
       </c>
       <c r="D96" t="n">
-        <v>0.42383</v>
+        <v>0.449083</v>
       </c>
       <c r="E96" t="n">
-        <v>0.178125</v>
+        <v>0.183496</v>
       </c>
       <c r="F96" t="n">
-        <v>0.290059</v>
+        <v>0.306116</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.231522</v>
+        <v>0.229361</v>
       </c>
       <c r="C97" t="n">
-        <v>0.350216</v>
+        <v>0.354307</v>
       </c>
       <c r="D97" t="n">
-        <v>0.406325</v>
+        <v>0.429385</v>
       </c>
       <c r="E97" t="n">
-        <v>0.173954</v>
+        <v>0.179916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.284895</v>
+        <v>0.302878</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.22824</v>
+        <v>0.224582</v>
       </c>
       <c r="C98" t="n">
-        <v>0.345863</v>
+        <v>0.349926</v>
       </c>
       <c r="D98" t="n">
-        <v>0.402231</v>
+        <v>0.424873</v>
       </c>
       <c r="E98" t="n">
-        <v>0.169731</v>
+        <v>0.176124</v>
       </c>
       <c r="F98" t="n">
-        <v>0.281732</v>
+        <v>0.301046</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.223212</v>
+        <v>0.219412</v>
       </c>
       <c r="C99" t="n">
-        <v>0.340553</v>
+        <v>0.344232</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397824</v>
+        <v>0.421407</v>
       </c>
       <c r="E99" t="n">
-        <v>0.165912</v>
+        <v>0.172517</v>
       </c>
       <c r="F99" t="n">
-        <v>0.281376</v>
+        <v>0.293384</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.217538</v>
+        <v>0.214037</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3355</v>
+        <v>0.338992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.400563</v>
+        <v>0.424512</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1623</v>
+        <v>0.169063</v>
       </c>
       <c r="F100" t="n">
-        <v>0.276059</v>
+        <v>0.293619</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.212331</v>
+        <v>0.208619</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394538</v>
+        <v>0.399485</v>
       </c>
       <c r="D101" t="n">
-        <v>0.387017</v>
+        <v>0.408463</v>
       </c>
       <c r="E101" t="n">
-        <v>0.158363</v>
+        <v>0.165986</v>
       </c>
       <c r="F101" t="n">
-        <v>0.272931</v>
+        <v>0.289106</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.207544</v>
+        <v>0.203028</v>
       </c>
       <c r="C102" t="n">
-        <v>0.366942</v>
+        <v>0.37398</v>
       </c>
       <c r="D102" t="n">
-        <v>0.384323</v>
+        <v>0.405955</v>
       </c>
       <c r="E102" t="n">
-        <v>0.157604</v>
+        <v>0.162118</v>
       </c>
       <c r="F102" t="n">
-        <v>0.269282</v>
+        <v>0.281413</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203039</v>
+        <v>0.197605</v>
       </c>
       <c r="C103" t="n">
-        <v>0.453712</v>
+        <v>0.441292</v>
       </c>
       <c r="D103" t="n">
-        <v>0.395428</v>
+        <v>0.403919</v>
       </c>
       <c r="E103" t="n">
-        <v>0.151467</v>
+        <v>0.158625</v>
       </c>
       <c r="F103" t="n">
-        <v>0.26675</v>
+        <v>0.281926</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.19744</v>
+        <v>0.192404</v>
       </c>
       <c r="C104" t="n">
-        <v>0.404812</v>
+        <v>0.399072</v>
       </c>
       <c r="D104" t="n">
-        <v>0.409616</v>
+        <v>0.417017</v>
       </c>
       <c r="E104" t="n">
-        <v>0.147997</v>
+        <v>0.155362</v>
       </c>
       <c r="F104" t="n">
-        <v>0.263508</v>
+        <v>0.277558</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.188289</v>
+        <v>0.186966</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313158</v>
+        <v>0.318113</v>
       </c>
       <c r="D105" t="n">
-        <v>0.394021</v>
+        <v>0.402624</v>
       </c>
       <c r="E105" t="n">
-        <v>0.144396</v>
+        <v>0.151749</v>
       </c>
       <c r="F105" t="n">
-        <v>0.26074</v>
+        <v>0.273978</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.186944</v>
+        <v>0.180412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.445902</v>
+        <v>0.436339</v>
       </c>
       <c r="D106" t="n">
-        <v>0.388038</v>
+        <v>0.397687</v>
       </c>
       <c r="E106" t="n">
-        <v>0.140822</v>
+        <v>0.147867</v>
       </c>
       <c r="F106" t="n">
-        <v>0.257603</v>
+        <v>0.26995</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.181156</v>
+        <v>0.173516</v>
       </c>
       <c r="C107" t="n">
-        <v>0.412564</v>
+        <v>0.404979</v>
       </c>
       <c r="D107" t="n">
-        <v>0.437071</v>
+        <v>0.440977</v>
       </c>
       <c r="E107" t="n">
-        <v>0.13716</v>
+        <v>0.144263</v>
       </c>
       <c r="F107" t="n">
-        <v>0.254546</v>
+        <v>0.263501</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.173393</v>
+        <v>0.166586</v>
       </c>
       <c r="C108" t="n">
-        <v>0.386943</v>
+        <v>0.381239</v>
       </c>
       <c r="D108" t="n">
-        <v>0.434363</v>
+        <v>0.437313</v>
       </c>
       <c r="E108" t="n">
-        <v>0.188989</v>
+        <v>0.192907</v>
       </c>
       <c r="F108" t="n">
-        <v>0.294068</v>
+        <v>0.314966</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.15789</v>
+        <v>0.157068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.340613</v>
+        <v>0.339731</v>
       </c>
       <c r="D109" t="n">
-        <v>0.408011</v>
+        <v>0.412174</v>
       </c>
       <c r="E109" t="n">
-        <v>0.183895</v>
+        <v>0.188573</v>
       </c>
       <c r="F109" t="n">
-        <v>0.291551</v>
+        <v>0.307622</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.23751</v>
+        <v>0.234885</v>
       </c>
       <c r="C110" t="n">
-        <v>0.51797</v>
+        <v>0.420344</v>
       </c>
       <c r="D110" t="n">
-        <v>0.407378</v>
+        <v>0.412324</v>
       </c>
       <c r="E110" t="n">
-        <v>0.179613</v>
+        <v>0.185178</v>
       </c>
       <c r="F110" t="n">
-        <v>0.288534</v>
+        <v>0.305228</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.233718</v>
+        <v>0.230499</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5197850000000001</v>
+        <v>0.416313</v>
       </c>
       <c r="D111" t="n">
-        <v>0.402919</v>
+        <v>0.407949</v>
       </c>
       <c r="E111" t="n">
-        <v>0.177714</v>
+        <v>0.181543</v>
       </c>
       <c r="F111" t="n">
-        <v>0.284174</v>
+        <v>0.299113</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.22771</v>
+        <v>0.225816</v>
       </c>
       <c r="C112" t="n">
-        <v>0.519292</v>
+        <v>0.412747</v>
       </c>
       <c r="D112" t="n">
-        <v>0.405265</v>
+        <v>0.411083</v>
       </c>
       <c r="E112" t="n">
-        <v>0.17364</v>
+        <v>0.177761</v>
       </c>
       <c r="F112" t="n">
-        <v>0.281377</v>
+        <v>0.295582</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.222852</v>
+        <v>0.220564</v>
       </c>
       <c r="C113" t="n">
-        <v>0.518649</v>
+        <v>0.409023</v>
       </c>
       <c r="D113" t="n">
-        <v>0.400123</v>
+        <v>0.407303</v>
       </c>
       <c r="E113" t="n">
-        <v>0.166935</v>
+        <v>0.174084</v>
       </c>
       <c r="F113" t="n">
-        <v>0.279198</v>
+        <v>0.293489</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.217189</v>
+        <v>0.215465</v>
       </c>
       <c r="C114" t="n">
-        <v>0.515348</v>
+        <v>0.404827</v>
       </c>
       <c r="D114" t="n">
-        <v>0.397603</v>
+        <v>0.404332</v>
       </c>
       <c r="E114" t="n">
-        <v>0.163105</v>
+        <v>0.170372</v>
       </c>
       <c r="F114" t="n">
-        <v>0.277181</v>
+        <v>0.293458</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211461</v>
+        <v>0.209864</v>
       </c>
       <c r="C115" t="n">
-        <v>0.465353</v>
+        <v>0.407273</v>
       </c>
       <c r="D115" t="n">
-        <v>0.384573</v>
+        <v>0.411357</v>
       </c>
       <c r="E115" t="n">
-        <v>0.159539</v>
+        <v>0.166837</v>
       </c>
       <c r="F115" t="n">
-        <v>0.273492</v>
+        <v>0.28973</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.205872</v>
+        <v>0.204543</v>
       </c>
       <c r="C116" t="n">
-        <v>0.470522</v>
+        <v>0.413487</v>
       </c>
       <c r="D116" t="n">
-        <v>0.382486</v>
+        <v>0.408745</v>
       </c>
       <c r="E116" t="n">
-        <v>0.155794</v>
+        <v>0.163432</v>
       </c>
       <c r="F116" t="n">
-        <v>0.27154</v>
+        <v>0.28622</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.200405</v>
+        <v>0.199195</v>
       </c>
       <c r="C117" t="n">
-        <v>0.313422</v>
+        <v>0.319792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.38909</v>
+        <v>0.397584</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152139</v>
+        <v>0.159646</v>
       </c>
       <c r="F117" t="n">
-        <v>0.267425</v>
+        <v>0.282398</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19846</v>
+        <v>0.19358</v>
       </c>
       <c r="C118" t="n">
-        <v>0.468894</v>
+        <v>0.418479</v>
       </c>
       <c r="D118" t="n">
-        <v>0.380805</v>
+        <v>0.390536</v>
       </c>
       <c r="E118" t="n">
-        <v>0.148787</v>
+        <v>0.156331</v>
       </c>
       <c r="F118" t="n">
-        <v>0.264565</v>
+        <v>0.275497</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.193379</v>
+        <v>0.188055</v>
       </c>
       <c r="C119" t="n">
-        <v>0.454722</v>
+        <v>0.385482</v>
       </c>
       <c r="D119" t="n">
-        <v>0.393547</v>
+        <v>0.401344</v>
       </c>
       <c r="E119" t="n">
-        <v>0.145189</v>
+        <v>0.152623</v>
       </c>
       <c r="F119" t="n">
-        <v>0.261389</v>
+        <v>0.273881</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.188328</v>
+        <v>0.182256</v>
       </c>
       <c r="C120" t="n">
-        <v>0.473263</v>
+        <v>0.379102</v>
       </c>
       <c r="D120" t="n">
-        <v>0.384395</v>
+        <v>0.399408</v>
       </c>
       <c r="E120" t="n">
-        <v>0.141623</v>
+        <v>0.148832</v>
       </c>
       <c r="F120" t="n">
-        <v>0.258314</v>
+        <v>0.270123</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.180938</v>
+        <v>0.175376</v>
       </c>
       <c r="C121" t="n">
-        <v>0.436212</v>
+        <v>0.444755</v>
       </c>
       <c r="D121" t="n">
-        <v>0.458352</v>
+        <v>0.463671</v>
       </c>
       <c r="E121" t="n">
-        <v>0.137954</v>
+        <v>0.145092</v>
       </c>
       <c r="F121" t="n">
-        <v>0.255003</v>
+        <v>0.265844</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.170057</v>
+        <v>0.167895</v>
       </c>
       <c r="C122" t="n">
-        <v>0.385371</v>
+        <v>0.368481</v>
       </c>
       <c r="D122" t="n">
-        <v>0.46896</v>
+        <v>0.462</v>
       </c>
       <c r="E122" t="n">
-        <v>0.134217</v>
+        <v>0.140972</v>
       </c>
       <c r="F122" t="n">
-        <v>0.252515</v>
+        <v>0.258972</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.160506</v>
+        <v>0.159161</v>
       </c>
       <c r="C123" t="n">
-        <v>0.370028</v>
+        <v>0.35593</v>
       </c>
       <c r="D123" t="n">
-        <v>0.448962</v>
+        <v>0.462561</v>
       </c>
       <c r="E123" t="n">
-        <v>0.187519</v>
+        <v>0.189825</v>
       </c>
       <c r="F123" t="n">
-        <v>0.290661</v>
+        <v>0.308719</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.238025</v>
+        <v>0.235718</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434371</v>
+        <v>0.399286</v>
       </c>
       <c r="D124" t="n">
-        <v>0.428057</v>
+        <v>0.431131</v>
       </c>
       <c r="E124" t="n">
-        <v>0.182828</v>
+        <v>0.185679</v>
       </c>
       <c r="F124" t="n">
-        <v>0.287912</v>
+        <v>0.302548</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.233677</v>
+        <v>0.231441</v>
       </c>
       <c r="C125" t="n">
-        <v>0.485333</v>
+        <v>0.395776</v>
       </c>
       <c r="D125" t="n">
-        <v>0.422345</v>
+        <v>0.426971</v>
       </c>
       <c r="E125" t="n">
-        <v>0.17833</v>
+        <v>0.181735</v>
       </c>
       <c r="F125" t="n">
-        <v>0.284817</v>
+        <v>0.299269</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.228902</v>
+        <v>0.226711</v>
       </c>
       <c r="C126" t="n">
-        <v>0.471017</v>
+        <v>0.439915</v>
       </c>
       <c r="D126" t="n">
-        <v>0.427453</v>
+        <v>0.432886</v>
       </c>
       <c r="E126" t="n">
-        <v>0.17408</v>
+        <v>0.178048</v>
       </c>
       <c r="F126" t="n">
-        <v>0.281908</v>
+        <v>0.295617</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.224051</v>
+        <v>0.2217</v>
       </c>
       <c r="C127" t="n">
-        <v>0.453073</v>
+        <v>0.372703</v>
       </c>
       <c r="D127" t="n">
-        <v>0.410984</v>
+        <v>0.418318</v>
       </c>
       <c r="E127" t="n">
-        <v>0.170292</v>
+        <v>0.17442</v>
       </c>
       <c r="F127" t="n">
-        <v>0.27902</v>
+        <v>0.293381</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.219098</v>
+        <v>0.21648</v>
       </c>
       <c r="C128" t="n">
-        <v>0.471955</v>
+        <v>0.527714</v>
       </c>
       <c r="D128" t="n">
-        <v>0.418135</v>
+        <v>0.423178</v>
       </c>
       <c r="E128" t="n">
-        <v>0.166255</v>
+        <v>0.171033</v>
       </c>
       <c r="F128" t="n">
-        <v>0.276122</v>
+        <v>0.288912</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.213668</v>
+        <v>0.210983</v>
       </c>
       <c r="C129" t="n">
-        <v>0.380691</v>
+        <v>0.383918</v>
       </c>
       <c r="D129" t="n">
-        <v>0.42489</v>
+        <v>0.429718</v>
       </c>
       <c r="E129" t="n">
-        <v>0.16277</v>
+        <v>0.167454</v>
       </c>
       <c r="F129" t="n">
-        <v>0.274087</v>
+        <v>0.286134</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.207048</v>
+        <v>0.205737</v>
       </c>
       <c r="C130" t="n">
-        <v>0.448269</v>
+        <v>0.418005</v>
       </c>
       <c r="D130" t="n">
-        <v>0.416158</v>
+        <v>0.424665</v>
       </c>
       <c r="E130" t="n">
-        <v>0.15911</v>
+        <v>0.163739</v>
       </c>
       <c r="F130" t="n">
-        <v>0.270534</v>
+        <v>0.281711</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.201487</v>
+        <v>0.200238</v>
       </c>
       <c r="C131" t="n">
-        <v>0.450888</v>
+        <v>0.442853</v>
       </c>
       <c r="D131" t="n">
-        <v>0.415</v>
+        <v>0.422109</v>
       </c>
       <c r="E131" t="n">
-        <v>0.155485</v>
+        <v>0.160138</v>
       </c>
       <c r="F131" t="n">
-        <v>0.267944</v>
+        <v>0.277543</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.199667</v>
+        <v>0.194959</v>
       </c>
       <c r="C132" t="n">
-        <v>0.357856</v>
+        <v>0.324551</v>
       </c>
       <c r="D132" t="n">
-        <v>0.401102</v>
+        <v>0.409098</v>
       </c>
       <c r="E132" t="n">
-        <v>0.152139</v>
+        <v>0.156633</v>
       </c>
       <c r="F132" t="n">
-        <v>0.265415</v>
+        <v>0.274765</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.194411</v>
+        <v>0.189046</v>
       </c>
       <c r="C133" t="n">
-        <v>0.481522</v>
+        <v>0.39141</v>
       </c>
       <c r="D133" t="n">
-        <v>0.39161</v>
+        <v>0.408581</v>
       </c>
       <c r="E133" t="n">
-        <v>0.148665</v>
+        <v>0.152841</v>
       </c>
       <c r="F133" t="n">
-        <v>0.262076</v>
+        <v>0.270994</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.18701</v>
+        <v>0.183385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.429046</v>
+        <v>0.403736</v>
       </c>
       <c r="D134" t="n">
-        <v>0.405818</v>
+        <v>0.404632</v>
       </c>
       <c r="E134" t="n">
-        <v>0.142358</v>
+        <v>0.149593</v>
       </c>
       <c r="F134" t="n">
-        <v>0.258969</v>
+        <v>0.270825</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.183294</v>
+        <v>0.177103</v>
       </c>
       <c r="C135" t="n">
-        <v>0.45692</v>
+        <v>0.406805</v>
       </c>
       <c r="D135" t="n">
-        <v>0.466047</v>
+        <v>0.461363</v>
       </c>
       <c r="E135" t="n">
-        <v>0.138713</v>
+        <v>0.145895</v>
       </c>
       <c r="F135" t="n">
-        <v>0.255686</v>
+        <v>0.266577</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.171456</v>
+        <v>0.170455</v>
       </c>
       <c r="C136" t="n">
-        <v>0.41125</v>
+        <v>0.323377</v>
       </c>
       <c r="D136" t="n">
-        <v>0.45222</v>
+        <v>0.474884</v>
       </c>
       <c r="E136" t="n">
-        <v>0.135</v>
+        <v>0.141938</v>
       </c>
       <c r="F136" t="n">
-        <v>0.252521</v>
+        <v>0.262265</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.166091</v>
+        <v>0.16099</v>
       </c>
       <c r="C137" t="n">
-        <v>0.407264</v>
+        <v>0.483014</v>
       </c>
       <c r="D137" t="n">
-        <v>0.439088</v>
+        <v>0.445314</v>
       </c>
       <c r="E137" t="n">
-        <v>0.186158</v>
+        <v>0.190602</v>
       </c>
       <c r="F137" t="n">
-        <v>0.292268</v>
+        <v>0.310964</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.240986</v>
+        <v>0.236715</v>
       </c>
       <c r="C138" t="n">
-        <v>0.473399</v>
+        <v>0.481119</v>
       </c>
       <c r="D138" t="n">
-        <v>0.449125</v>
+        <v>0.451526</v>
       </c>
       <c r="E138" t="n">
-        <v>0.181318</v>
+        <v>0.186454</v>
       </c>
       <c r="F138" t="n">
-        <v>0.288359</v>
+        <v>0.30778</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.236504</v>
+        <v>0.232423</v>
       </c>
       <c r="C139" t="n">
-        <v>0.496802</v>
+        <v>0.484766</v>
       </c>
       <c r="D139" t="n">
-        <v>0.440772</v>
+        <v>0.445078</v>
       </c>
       <c r="E139" t="n">
-        <v>0.176818</v>
+        <v>0.182726</v>
       </c>
       <c r="F139" t="n">
-        <v>0.285973</v>
+        <v>0.303926</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.23152</v>
+        <v>0.227849</v>
       </c>
       <c r="C140" t="n">
-        <v>0.478239</v>
+        <v>0.385519</v>
       </c>
       <c r="D140" t="n">
-        <v>0.438741</v>
+        <v>0.441015</v>
       </c>
       <c r="E140" t="n">
-        <v>0.17512</v>
+        <v>0.178945</v>
       </c>
       <c r="F140" t="n">
-        <v>0.282683</v>
+        <v>0.297792</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.224915</v>
+        <v>0.222849</v>
       </c>
       <c r="C141" t="n">
-        <v>0.469401</v>
+        <v>0.432967</v>
       </c>
       <c r="D141" t="n">
-        <v>0.439187</v>
+        <v>0.436963</v>
       </c>
       <c r="E141" t="n">
-        <v>0.171035</v>
+        <v>0.175203</v>
       </c>
       <c r="F141" t="n">
-        <v>0.279757</v>
+        <v>0.293366</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.221032</v>
+        <v>0.217696</v>
       </c>
       <c r="C142" t="n">
-        <v>0.38775</v>
+        <v>0.45237</v>
       </c>
       <c r="D142" t="n">
-        <v>0.427812</v>
+        <v>0.43283</v>
       </c>
       <c r="E142" t="n">
-        <v>0.167118</v>
+        <v>0.171721</v>
       </c>
       <c r="F142" t="n">
-        <v>0.276794</v>
+        <v>0.29054</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.215698</v>
+        <v>0.212308</v>
       </c>
       <c r="C143" t="n">
-        <v>0.502474</v>
+        <v>0.48207</v>
       </c>
       <c r="D143" t="n">
-        <v>0.408549</v>
+        <v>0.413764</v>
       </c>
       <c r="E143" t="n">
-        <v>0.16357</v>
+        <v>0.167979</v>
       </c>
       <c r="F143" t="n">
-        <v>0.274326</v>
+        <v>0.286557</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.187183</v>
+        <v>0.186932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320234</v>
+        <v>0.320261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.326929</v>
+        <v>0.32617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0947308</v>
+        <v>0.0953418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.278199</v>
+        <v>0.277949</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.185591</v>
+        <v>0.185434</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316972</v>
+        <v>0.316007</v>
       </c>
       <c r="D3" t="n">
-        <v>0.327539</v>
+        <v>0.32753</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0919051</v>
+        <v>0.0947543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.279346</v>
+        <v>0.274087</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.180812</v>
+        <v>0.180158</v>
       </c>
       <c r="C4" t="n">
-        <v>0.315453</v>
+        <v>0.315395</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329736</v>
+        <v>0.329157</v>
       </c>
       <c r="E4" t="n">
-        <v>0.091904</v>
+        <v>0.0923268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.270051</v>
+        <v>0.268517</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.174876</v>
+        <v>0.175613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.309228</v>
+        <v>0.310163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.331513</v>
+        <v>0.332595</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09168709999999999</v>
+        <v>0.0923226</v>
       </c>
       <c r="F5" t="n">
-        <v>0.264559</v>
+        <v>0.263115</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172024</v>
+        <v>0.172739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.306933</v>
+        <v>0.308217</v>
       </c>
       <c r="D6" t="n">
-        <v>0.333864</v>
+        <v>0.33455</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08741599999999999</v>
+        <v>0.0903871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.260385</v>
+        <v>0.259074</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.164849</v>
+        <v>0.165228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.30029</v>
+        <v>0.301095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.323465</v>
+        <v>0.322759</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0886919</v>
+        <v>0.08798830000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.256012</v>
+        <v>0.255576</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156595</v>
+        <v>0.156485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.288298</v>
+        <v>0.289989</v>
       </c>
       <c r="D8" t="n">
-        <v>0.323669</v>
+        <v>0.322907</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0842595</v>
+        <v>0.0856044</v>
       </c>
       <c r="F8" t="n">
-        <v>0.253215</v>
+        <v>0.253159</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.149026</v>
+        <v>0.148829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.287467</v>
+        <v>0.289193</v>
       </c>
       <c r="D9" t="n">
-        <v>0.323325</v>
+        <v>0.323363</v>
       </c>
       <c r="E9" t="n">
-        <v>0.172031</v>
+        <v>0.173759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.307677</v>
+        <v>0.310971</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227257</v>
+        <v>0.227334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.356024</v>
+        <v>0.355392</v>
       </c>
       <c r="D10" t="n">
-        <v>0.323133</v>
+        <v>0.322795</v>
       </c>
       <c r="E10" t="n">
-        <v>0.167678</v>
+        <v>0.167602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.303535</v>
+        <v>0.302542</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.224294</v>
+        <v>0.224907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.353641</v>
+        <v>0.352856</v>
       </c>
       <c r="D11" t="n">
-        <v>0.326884</v>
+        <v>0.326054</v>
       </c>
       <c r="E11" t="n">
-        <v>0.166262</v>
+        <v>0.164651</v>
       </c>
       <c r="F11" t="n">
-        <v>0.301533</v>
+        <v>0.301089</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.221043</v>
+        <v>0.220215</v>
       </c>
       <c r="C12" t="n">
-        <v>0.348785</v>
+        <v>0.348768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327469</v>
+        <v>0.327688</v>
       </c>
       <c r="E12" t="n">
-        <v>0.158432</v>
+        <v>0.159339</v>
       </c>
       <c r="F12" t="n">
-        <v>0.298035</v>
+        <v>0.297194</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215286</v>
+        <v>0.215293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.34523</v>
+        <v>0.345451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.327486</v>
+        <v>0.328363</v>
       </c>
       <c r="E13" t="n">
-        <v>0.156115</v>
+        <v>0.156405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.299306</v>
+        <v>0.299168</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21178</v>
+        <v>0.21197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341752</v>
+        <v>0.341709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328684</v>
+        <v>0.328017</v>
       </c>
       <c r="E14" t="n">
-        <v>0.152857</v>
+        <v>0.152819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.294028</v>
+        <v>0.295651</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.20626</v>
+        <v>0.206665</v>
       </c>
       <c r="C15" t="n">
-        <v>0.325092</v>
+        <v>0.324961</v>
       </c>
       <c r="D15" t="n">
-        <v>0.327756</v>
+        <v>0.328187</v>
       </c>
       <c r="E15" t="n">
-        <v>0.14945</v>
+        <v>0.148557</v>
       </c>
       <c r="F15" t="n">
-        <v>0.293226</v>
+        <v>0.292388</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201098</v>
+        <v>0.201411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.32869</v>
+        <v>0.329759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.329651</v>
+        <v>0.329729</v>
       </c>
       <c r="E16" t="n">
-        <v>0.146729</v>
+        <v>0.146617</v>
       </c>
       <c r="F16" t="n">
-        <v>0.287971</v>
+        <v>0.288717</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.196524</v>
+        <v>0.196509</v>
       </c>
       <c r="C17" t="n">
-        <v>0.319807</v>
+        <v>0.319794</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332926</v>
+        <v>0.332991</v>
       </c>
       <c r="E17" t="n">
-        <v>0.143083</v>
+        <v>0.14353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.28299</v>
+        <v>0.283918</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.190576</v>
+        <v>0.190566</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3206</v>
+        <v>0.320902</v>
       </c>
       <c r="D18" t="n">
-        <v>0.332601</v>
+        <v>0.333217</v>
       </c>
       <c r="E18" t="n">
-        <v>0.139564</v>
+        <v>0.139577</v>
       </c>
       <c r="F18" t="n">
-        <v>0.280376</v>
+        <v>0.276209</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.186234</v>
+        <v>0.186591</v>
       </c>
       <c r="C19" t="n">
-        <v>0.313566</v>
+        <v>0.313316</v>
       </c>
       <c r="D19" t="n">
-        <v>0.334659</v>
+        <v>0.33386</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137206</v>
+        <v>0.137817</v>
       </c>
       <c r="F19" t="n">
-        <v>0.271329</v>
+        <v>0.272014</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.180447</v>
+        <v>0.180114</v>
       </c>
       <c r="C20" t="n">
-        <v>0.309498</v>
+        <v>0.308737</v>
       </c>
       <c r="D20" t="n">
-        <v>0.337322</v>
+        <v>0.336844</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133774</v>
+        <v>0.133825</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272827</v>
+        <v>0.273361</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.174364</v>
+        <v>0.174345</v>
       </c>
       <c r="C21" t="n">
-        <v>0.305449</v>
+        <v>0.30527</v>
       </c>
       <c r="D21" t="n">
-        <v>0.327155</v>
+        <v>0.326599</v>
       </c>
       <c r="E21" t="n">
-        <v>0.129798</v>
+        <v>0.130097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.26768</v>
+        <v>0.268323</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.166049</v>
+        <v>0.165641</v>
       </c>
       <c r="C22" t="n">
-        <v>0.29834</v>
+        <v>0.296838</v>
       </c>
       <c r="D22" t="n">
-        <v>0.328319</v>
+        <v>0.327248</v>
       </c>
       <c r="E22" t="n">
-        <v>0.126015</v>
+        <v>0.125785</v>
       </c>
       <c r="F22" t="n">
-        <v>0.264147</v>
+        <v>0.263512</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159103</v>
+        <v>0.159112</v>
       </c>
       <c r="C23" t="n">
-        <v>0.288675</v>
+        <v>0.28871</v>
       </c>
       <c r="D23" t="n">
-        <v>0.328878</v>
+        <v>0.327479</v>
       </c>
       <c r="E23" t="n">
-        <v>0.186869</v>
+        <v>0.185746</v>
       </c>
       <c r="F23" t="n">
-        <v>0.320239</v>
+        <v>0.311247</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.232355</v>
+        <v>0.23191</v>
       </c>
       <c r="C24" t="n">
-        <v>0.36168</v>
+        <v>0.347621</v>
       </c>
       <c r="D24" t="n">
-        <v>0.329149</v>
+        <v>0.327493</v>
       </c>
       <c r="E24" t="n">
-        <v>0.179398</v>
+        <v>0.17935</v>
       </c>
       <c r="F24" t="n">
-        <v>0.311883</v>
+        <v>0.311075</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228467</v>
+        <v>0.228606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.352999</v>
+        <v>0.353185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.331213</v>
+        <v>0.330229</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175255</v>
+        <v>0.175178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.306476</v>
+        <v>0.305045</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224911</v>
+        <v>0.224556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349273</v>
+        <v>0.349268</v>
       </c>
       <c r="D26" t="n">
-        <v>0.328059</v>
+        <v>0.328411</v>
       </c>
       <c r="E26" t="n">
-        <v>0.17104</v>
+        <v>0.170827</v>
       </c>
       <c r="F26" t="n">
-        <v>0.305948</v>
+        <v>0.305649</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.219839</v>
+        <v>0.220033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.346123</v>
+        <v>0.345536</v>
       </c>
       <c r="D27" t="n">
-        <v>0.329227</v>
+        <v>0.329352</v>
       </c>
       <c r="E27" t="n">
-        <v>0.167752</v>
+        <v>0.167976</v>
       </c>
       <c r="F27" t="n">
-        <v>0.297814</v>
+        <v>0.297997</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.214754</v>
+        <v>0.21526</v>
       </c>
       <c r="C28" t="n">
-        <v>0.342576</v>
+        <v>0.341783</v>
       </c>
       <c r="D28" t="n">
-        <v>0.332118</v>
+        <v>0.331939</v>
       </c>
       <c r="E28" t="n">
-        <v>0.164089</v>
+        <v>0.164293</v>
       </c>
       <c r="F28" t="n">
-        <v>0.294835</v>
+        <v>0.294262</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.210207</v>
+        <v>0.210038</v>
       </c>
       <c r="C29" t="n">
-        <v>0.336588</v>
+        <v>0.33587</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333405</v>
+        <v>0.333676</v>
       </c>
       <c r="E29" t="n">
-        <v>0.160473</v>
+        <v>0.161054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.291286</v>
+        <v>0.288864</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.205138</v>
+        <v>0.204513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.33301</v>
+        <v>0.333803</v>
       </c>
       <c r="D30" t="n">
-        <v>0.335294</v>
+        <v>0.334158</v>
       </c>
       <c r="E30" t="n">
-        <v>0.156828</v>
+        <v>0.157327</v>
       </c>
       <c r="F30" t="n">
-        <v>0.288348</v>
+        <v>0.287294</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.199793</v>
+        <v>0.199718</v>
       </c>
       <c r="C31" t="n">
-        <v>0.324979</v>
+        <v>0.323983</v>
       </c>
       <c r="D31" t="n">
-        <v>0.33599</v>
+        <v>0.336242</v>
       </c>
       <c r="E31" t="n">
-        <v>0.153181</v>
+        <v>0.153154</v>
       </c>
       <c r="F31" t="n">
-        <v>0.286407</v>
+        <v>0.287722</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.194662</v>
+        <v>0.194324</v>
       </c>
       <c r="C32" t="n">
-        <v>0.325736</v>
+        <v>0.32601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337622</v>
+        <v>0.337314</v>
       </c>
       <c r="E32" t="n">
-        <v>0.149165</v>
+        <v>0.149394</v>
       </c>
       <c r="F32" t="n">
-        <v>0.285602</v>
+        <v>0.281959</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.190171</v>
+        <v>0.189566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316049</v>
+        <v>0.316564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.33898</v>
+        <v>0.338324</v>
       </c>
       <c r="E33" t="n">
-        <v>0.146041</v>
+        <v>0.146505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.280608</v>
+        <v>0.276334</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.18314</v>
+        <v>0.183392</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316621</v>
+        <v>0.316098</v>
       </c>
       <c r="D34" t="n">
-        <v>0.339822</v>
+        <v>0.340066</v>
       </c>
       <c r="E34" t="n">
-        <v>0.142952</v>
+        <v>0.143463</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272861</v>
+        <v>0.272541</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.178099</v>
+        <v>0.178551</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308522</v>
+        <v>0.308259</v>
       </c>
       <c r="D35" t="n">
-        <v>0.333447</v>
+        <v>0.331666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.139222</v>
+        <v>0.139164</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27114</v>
+        <v>0.269686</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.170877</v>
+        <v>0.169992</v>
       </c>
       <c r="C36" t="n">
-        <v>0.297797</v>
+        <v>0.298759</v>
       </c>
       <c r="D36" t="n">
-        <v>0.333318</v>
+        <v>0.333196</v>
       </c>
       <c r="E36" t="n">
-        <v>0.135048</v>
+        <v>0.13504</v>
       </c>
       <c r="F36" t="n">
-        <v>0.270291</v>
+        <v>0.26785</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.162326</v>
+        <v>0.162633</v>
       </c>
       <c r="C37" t="n">
-        <v>0.286527</v>
+        <v>0.285626</v>
       </c>
       <c r="D37" t="n">
-        <v>0.332346</v>
+        <v>0.331996</v>
       </c>
       <c r="E37" t="n">
-        <v>0.189738</v>
+        <v>0.18829</v>
       </c>
       <c r="F37" t="n">
-        <v>0.314125</v>
+        <v>0.31552</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236184</v>
+        <v>0.236753</v>
       </c>
       <c r="C38" t="n">
-        <v>0.354371</v>
+        <v>0.353908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.331306</v>
+        <v>0.332698</v>
       </c>
       <c r="E38" t="n">
-        <v>0.184124</v>
+        <v>0.183205</v>
       </c>
       <c r="F38" t="n">
-        <v>0.309772</v>
+        <v>0.31002</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231939</v>
+        <v>0.232369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.350765</v>
+        <v>0.351009</v>
       </c>
       <c r="D39" t="n">
-        <v>0.333832</v>
+        <v>0.332617</v>
       </c>
       <c r="E39" t="n">
-        <v>0.179861</v>
+        <v>0.179231</v>
       </c>
       <c r="F39" t="n">
-        <v>0.310508</v>
+        <v>0.313531</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228215</v>
+        <v>0.228654</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347882</v>
+        <v>0.347617</v>
       </c>
       <c r="D40" t="n">
-        <v>0.333992</v>
+        <v>0.3349</v>
       </c>
       <c r="E40" t="n">
-        <v>0.175326</v>
+        <v>0.175007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.303522</v>
+        <v>0.306043</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224212</v>
+        <v>0.224602</v>
       </c>
       <c r="C41" t="n">
-        <v>0.34351</v>
+        <v>0.343603</v>
       </c>
       <c r="D41" t="n">
-        <v>0.336152</v>
+        <v>0.335116</v>
       </c>
       <c r="E41" t="n">
-        <v>0.171194</v>
+        <v>0.171081</v>
       </c>
       <c r="F41" t="n">
-        <v>0.300198</v>
+        <v>0.300704</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219451</v>
+        <v>0.219207</v>
       </c>
       <c r="C42" t="n">
-        <v>0.340131</v>
+        <v>0.339638</v>
       </c>
       <c r="D42" t="n">
-        <v>0.334876</v>
+        <v>0.334392</v>
       </c>
       <c r="E42" t="n">
-        <v>0.167679</v>
+        <v>0.167394</v>
       </c>
       <c r="F42" t="n">
-        <v>0.298975</v>
+        <v>0.299756</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213224</v>
+        <v>0.213109</v>
       </c>
       <c r="C43" t="n">
-        <v>0.334584</v>
+        <v>0.334866</v>
       </c>
       <c r="D43" t="n">
-        <v>0.332744</v>
+        <v>0.332718</v>
       </c>
       <c r="E43" t="n">
-        <v>0.165102</v>
+        <v>0.164196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.29852</v>
+        <v>0.298702</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.20866</v>
+        <v>0.2085</v>
       </c>
       <c r="C44" t="n">
-        <v>0.331076</v>
+        <v>0.335036</v>
       </c>
       <c r="D44" t="n">
-        <v>0.334826</v>
+        <v>0.337633</v>
       </c>
       <c r="E44" t="n">
-        <v>0.160661</v>
+        <v>0.160875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.295314</v>
+        <v>0.291788</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20277</v>
+        <v>0.20282</v>
       </c>
       <c r="C45" t="n">
-        <v>0.329371</v>
+        <v>0.33353</v>
       </c>
       <c r="D45" t="n">
-        <v>0.335235</v>
+        <v>0.337943</v>
       </c>
       <c r="E45" t="n">
-        <v>0.157119</v>
+        <v>0.156445</v>
       </c>
       <c r="F45" t="n">
-        <v>0.290233</v>
+        <v>0.286467</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.197198</v>
+        <v>0.197377</v>
       </c>
       <c r="C46" t="n">
-        <v>0.32653</v>
+        <v>0.326977</v>
       </c>
       <c r="D46" t="n">
-        <v>0.336595</v>
+        <v>0.33721</v>
       </c>
       <c r="E46" t="n">
-        <v>0.153799</v>
+        <v>0.153822</v>
       </c>
       <c r="F46" t="n">
-        <v>0.286236</v>
+        <v>0.285971</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.191692</v>
+        <v>0.191512</v>
       </c>
       <c r="C47" t="n">
-        <v>0.317691</v>
+        <v>0.317997</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339221</v>
+        <v>0.339774</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1506</v>
+        <v>0.150416</v>
       </c>
       <c r="F47" t="n">
-        <v>0.277864</v>
+        <v>0.278102</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.186795</v>
+        <v>0.186588</v>
       </c>
       <c r="C48" t="n">
-        <v>0.317412</v>
+        <v>0.318056</v>
       </c>
       <c r="D48" t="n">
-        <v>0.340794</v>
+        <v>0.341878</v>
       </c>
       <c r="E48" t="n">
-        <v>0.147095</v>
+        <v>0.146923</v>
       </c>
       <c r="F48" t="n">
-        <v>0.273924</v>
+        <v>0.273573</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.180418</v>
+        <v>0.181079</v>
       </c>
       <c r="C49" t="n">
-        <v>0.307634</v>
+        <v>0.312116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341496</v>
+        <v>0.341502</v>
       </c>
       <c r="E49" t="n">
-        <v>0.143121</v>
+        <v>0.14284</v>
       </c>
       <c r="F49" t="n">
-        <v>0.269862</v>
+        <v>0.269766</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.173564</v>
+        <v>0.17314</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302475</v>
+        <v>0.304522</v>
       </c>
       <c r="D50" t="n">
-        <v>0.332772</v>
+        <v>0.335597</v>
       </c>
       <c r="E50" t="n">
-        <v>0.139225</v>
+        <v>0.139278</v>
       </c>
       <c r="F50" t="n">
-        <v>0.26549</v>
+        <v>0.265559</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.165362</v>
+        <v>0.165989</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290516</v>
+        <v>0.29183</v>
       </c>
       <c r="D51" t="n">
-        <v>0.333725</v>
+        <v>0.337262</v>
       </c>
       <c r="E51" t="n">
-        <v>0.190967</v>
+        <v>0.190618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.318288</v>
+        <v>0.318576</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.156956</v>
+        <v>0.156946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.287907</v>
+        <v>0.291162</v>
       </c>
       <c r="D52" t="n">
-        <v>0.333356</v>
+        <v>0.336614</v>
       </c>
       <c r="E52" t="n">
-        <v>0.186673</v>
+        <v>0.186256</v>
       </c>
       <c r="F52" t="n">
-        <v>0.311842</v>
+        <v>0.31239</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.234155</v>
+        <v>0.234509</v>
       </c>
       <c r="C53" t="n">
-        <v>0.353664</v>
+        <v>0.355224</v>
       </c>
       <c r="D53" t="n">
-        <v>0.335771</v>
+        <v>0.338346</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181938</v>
+        <v>0.182162</v>
       </c>
       <c r="F53" t="n">
-        <v>0.308794</v>
+        <v>0.309027</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.230337</v>
+        <v>0.230385</v>
       </c>
       <c r="C54" t="n">
-        <v>0.350033</v>
+        <v>0.352119</v>
       </c>
       <c r="D54" t="n">
-        <v>0.334876</v>
+        <v>0.337475</v>
       </c>
       <c r="E54" t="n">
-        <v>0.178275</v>
+        <v>0.178175</v>
       </c>
       <c r="F54" t="n">
-        <v>0.305264</v>
+        <v>0.306453</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225821</v>
+        <v>0.225644</v>
       </c>
       <c r="C55" t="n">
-        <v>0.346874</v>
+        <v>0.34862</v>
       </c>
       <c r="D55" t="n">
-        <v>0.335681</v>
+        <v>0.337971</v>
       </c>
       <c r="E55" t="n">
-        <v>0.174653</v>
+        <v>0.174253</v>
       </c>
       <c r="F55" t="n">
-        <v>0.302499</v>
+        <v>0.302748</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220664</v>
+        <v>0.220829</v>
       </c>
       <c r="C56" t="n">
-        <v>0.343332</v>
+        <v>0.345256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.33767</v>
+        <v>0.339447</v>
       </c>
       <c r="E56" t="n">
-        <v>0.170756</v>
+        <v>0.170901</v>
       </c>
       <c r="F56" t="n">
-        <v>0.298198</v>
+        <v>0.301002</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.215121</v>
+        <v>0.215093</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340417</v>
+        <v>0.340593</v>
       </c>
       <c r="D57" t="n">
-        <v>0.341616</v>
+        <v>0.343546</v>
       </c>
       <c r="E57" t="n">
-        <v>0.167436</v>
+        <v>0.167383</v>
       </c>
       <c r="F57" t="n">
-        <v>0.299251</v>
+        <v>0.297721</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.209696</v>
+        <v>0.209791</v>
       </c>
       <c r="C58" t="n">
-        <v>0.328158</v>
+        <v>0.328112</v>
       </c>
       <c r="D58" t="n">
-        <v>0.342832</v>
+        <v>0.346882</v>
       </c>
       <c r="E58" t="n">
-        <v>0.163887</v>
+        <v>0.163961</v>
       </c>
       <c r="F58" t="n">
-        <v>0.293968</v>
+        <v>0.294507</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.204177</v>
+        <v>0.204397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.332006</v>
+        <v>0.333031</v>
       </c>
       <c r="D59" t="n">
-        <v>0.345986</v>
+        <v>0.350469</v>
       </c>
       <c r="E59" t="n">
-        <v>0.160587</v>
+        <v>0.160302</v>
       </c>
       <c r="F59" t="n">
-        <v>0.291133</v>
+        <v>0.28957</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.199401</v>
+        <v>0.199601</v>
       </c>
       <c r="C60" t="n">
-        <v>0.326309</v>
+        <v>0.326678</v>
       </c>
       <c r="D60" t="n">
-        <v>0.349481</v>
+        <v>0.353561</v>
       </c>
       <c r="E60" t="n">
-        <v>0.156638</v>
+        <v>0.156651</v>
       </c>
       <c r="F60" t="n">
-        <v>0.285583</v>
+        <v>0.286497</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.193927</v>
+        <v>0.193831</v>
       </c>
       <c r="C61" t="n">
-        <v>0.342346</v>
+        <v>0.345693</v>
       </c>
       <c r="D61" t="n">
-        <v>0.352701</v>
+        <v>0.35508</v>
       </c>
       <c r="E61" t="n">
-        <v>0.153548</v>
+        <v>0.15345</v>
       </c>
       <c r="F61" t="n">
-        <v>0.28391</v>
+        <v>0.284169</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.188653</v>
+        <v>0.188447</v>
       </c>
       <c r="C62" t="n">
-        <v>0.313609</v>
+        <v>0.314112</v>
       </c>
       <c r="D62" t="n">
-        <v>0.353689</v>
+        <v>0.356077</v>
       </c>
       <c r="E62" t="n">
-        <v>0.14962</v>
+        <v>0.149408</v>
       </c>
       <c r="F62" t="n">
-        <v>0.278236</v>
+        <v>0.279511</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.182551</v>
+        <v>0.182241</v>
       </c>
       <c r="C63" t="n">
-        <v>0.322995</v>
+        <v>0.323764</v>
       </c>
       <c r="D63" t="n">
-        <v>0.357508</v>
+        <v>0.359162</v>
       </c>
       <c r="E63" t="n">
-        <v>0.145919</v>
+        <v>0.145901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.275539</v>
+        <v>0.275677</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175717</v>
+        <v>0.175821</v>
       </c>
       <c r="C64" t="n">
-        <v>0.322674</v>
+        <v>0.320944</v>
       </c>
       <c r="D64" t="n">
-        <v>0.39135</v>
+        <v>0.389718</v>
       </c>
       <c r="E64" t="n">
-        <v>0.14223</v>
+        <v>0.141981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.266895</v>
+        <v>0.270094</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.167767</v>
+        <v>0.168078</v>
       </c>
       <c r="C65" t="n">
-        <v>0.291861</v>
+        <v>0.294047</v>
       </c>
       <c r="D65" t="n">
-        <v>0.391472</v>
+        <v>0.393388</v>
       </c>
       <c r="E65" t="n">
-        <v>0.138467</v>
+        <v>0.13851</v>
       </c>
       <c r="F65" t="n">
-        <v>0.259292</v>
+        <v>0.262325</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159918</v>
+        <v>0.159961</v>
       </c>
       <c r="C66" t="n">
-        <v>0.314439</v>
+        <v>0.313982</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393586</v>
+        <v>0.393623</v>
       </c>
       <c r="E66" t="n">
-        <v>0.190085</v>
+        <v>0.189918</v>
       </c>
       <c r="F66" t="n">
-        <v>0.314207</v>
+        <v>0.314348</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.236153</v>
+        <v>0.23642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.384891</v>
+        <v>0.38771</v>
       </c>
       <c r="D67" t="n">
-        <v>0.385023</v>
+        <v>0.389265</v>
       </c>
       <c r="E67" t="n">
-        <v>0.18675</v>
+        <v>0.186514</v>
       </c>
       <c r="F67" t="n">
-        <v>0.310036</v>
+        <v>0.31056</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.232041</v>
+        <v>0.232126</v>
       </c>
       <c r="C68" t="n">
-        <v>0.382582</v>
+        <v>0.384498</v>
       </c>
       <c r="D68" t="n">
-        <v>0.397087</v>
+        <v>0.398528</v>
       </c>
       <c r="E68" t="n">
-        <v>0.183211</v>
+        <v>0.180744</v>
       </c>
       <c r="F68" t="n">
-        <v>0.303961</v>
+        <v>0.306976</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227279</v>
+        <v>0.227442</v>
       </c>
       <c r="C69" t="n">
-        <v>0.376979</v>
+        <v>0.379295</v>
       </c>
       <c r="D69" t="n">
-        <v>0.397895</v>
+        <v>0.399232</v>
       </c>
       <c r="E69" t="n">
-        <v>0.178478</v>
+        <v>0.177716</v>
       </c>
       <c r="F69" t="n">
-        <v>0.300266</v>
+        <v>0.305886</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222371</v>
+        <v>0.222268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.372031</v>
+        <v>0.374562</v>
       </c>
       <c r="D70" t="n">
-        <v>0.398981</v>
+        <v>0.40074</v>
       </c>
       <c r="E70" t="n">
-        <v>0.174349</v>
+        <v>0.17386</v>
       </c>
       <c r="F70" t="n">
-        <v>0.296699</v>
+        <v>0.303438</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.217384</v>
+        <v>0.217234</v>
       </c>
       <c r="C71" t="n">
-        <v>0.365935</v>
+        <v>0.368778</v>
       </c>
       <c r="D71" t="n">
-        <v>0.38718</v>
+        <v>0.389583</v>
       </c>
       <c r="E71" t="n">
-        <v>0.170397</v>
+        <v>0.170612</v>
       </c>
       <c r="F71" t="n">
-        <v>0.291187</v>
+        <v>0.294351</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.211792</v>
+        <v>0.211657</v>
       </c>
       <c r="C72" t="n">
-        <v>0.391514</v>
+        <v>0.39488</v>
       </c>
       <c r="D72" t="n">
-        <v>0.38892</v>
+        <v>0.392231</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1667</v>
+        <v>0.166906</v>
       </c>
       <c r="F72" t="n">
-        <v>0.287756</v>
+        <v>0.291529</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.206488</v>
+        <v>0.206614</v>
       </c>
       <c r="C73" t="n">
-        <v>0.450159</v>
+        <v>0.45046</v>
       </c>
       <c r="D73" t="n">
-        <v>0.399736</v>
+        <v>0.403668</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16339</v>
+        <v>0.16331</v>
       </c>
       <c r="F73" t="n">
-        <v>0.283275</v>
+        <v>0.287518</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201205</v>
+        <v>0.201268</v>
       </c>
       <c r="C74" t="n">
-        <v>0.402377</v>
+        <v>0.402863</v>
       </c>
       <c r="D74" t="n">
-        <v>0.390068</v>
+        <v>0.393046</v>
       </c>
       <c r="E74" t="n">
-        <v>0.159467</v>
+        <v>0.159673</v>
       </c>
       <c r="F74" t="n">
-        <v>0.284877</v>
+        <v>0.288037</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195581</v>
+        <v>0.195651</v>
       </c>
       <c r="C75" t="n">
-        <v>0.394201</v>
+        <v>0.394344</v>
       </c>
       <c r="D75" t="n">
-        <v>0.387345</v>
+        <v>0.388993</v>
       </c>
       <c r="E75" t="n">
-        <v>0.155973</v>
+        <v>0.156011</v>
       </c>
       <c r="F75" t="n">
-        <v>0.276227</v>
+        <v>0.279612</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.189937</v>
+        <v>0.190016</v>
       </c>
       <c r="C76" t="n">
-        <v>0.423822</v>
+        <v>0.42559</v>
       </c>
       <c r="D76" t="n">
-        <v>0.391295</v>
+        <v>0.393742</v>
       </c>
       <c r="E76" t="n">
-        <v>0.152363</v>
+        <v>0.152403</v>
       </c>
       <c r="F76" t="n">
-        <v>0.27661</v>
+        <v>0.279567</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.183992</v>
+        <v>0.184015</v>
       </c>
       <c r="C77" t="n">
-        <v>0.427369</v>
+        <v>0.429817</v>
       </c>
       <c r="D77" t="n">
-        <v>0.40077</v>
+        <v>0.403969</v>
       </c>
       <c r="E77" t="n">
-        <v>0.148729</v>
+        <v>0.148763</v>
       </c>
       <c r="F77" t="n">
-        <v>0.268496</v>
+        <v>0.275405</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.177768</v>
+        <v>0.177836</v>
       </c>
       <c r="C78" t="n">
-        <v>0.413495</v>
+        <v>0.423564</v>
       </c>
       <c r="D78" t="n">
-        <v>0.464294</v>
+        <v>0.456364</v>
       </c>
       <c r="E78" t="n">
-        <v>0.14468</v>
+        <v>0.144846</v>
       </c>
       <c r="F78" t="n">
-        <v>0.264284</v>
+        <v>0.271328</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.170707</v>
+        <v>0.170435</v>
       </c>
       <c r="C79" t="n">
-        <v>0.323068</v>
+        <v>0.325886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.457466</v>
+        <v>0.45946</v>
       </c>
       <c r="E79" t="n">
-        <v>0.140799</v>
+        <v>0.140797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.260936</v>
+        <v>0.264252</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.16146</v>
+        <v>0.16154</v>
       </c>
       <c r="C80" t="n">
-        <v>0.360476</v>
+        <v>0.362801</v>
       </c>
       <c r="D80" t="n">
-        <v>0.437479</v>
+        <v>0.439809</v>
       </c>
       <c r="E80" t="n">
-        <v>0.191787</v>
+        <v>0.191708</v>
       </c>
       <c r="F80" t="n">
-        <v>0.308884</v>
+        <v>0.312608</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.237513</v>
+        <v>0.237408</v>
       </c>
       <c r="C81" t="n">
-        <v>0.377093</v>
+        <v>0.376645</v>
       </c>
       <c r="D81" t="n">
-        <v>0.446646</v>
+        <v>0.446979</v>
       </c>
       <c r="E81" t="n">
-        <v>0.187378</v>
+        <v>0.18728</v>
       </c>
       <c r="F81" t="n">
-        <v>0.305643</v>
+        <v>0.305262</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.233249</v>
+        <v>0.233601</v>
       </c>
       <c r="C82" t="n">
-        <v>0.372531</v>
+        <v>0.372447</v>
       </c>
       <c r="D82" t="n">
-        <v>0.441911</v>
+        <v>0.441679</v>
       </c>
       <c r="E82" t="n">
-        <v>0.183124</v>
+        <v>0.183033</v>
       </c>
       <c r="F82" t="n">
-        <v>0.304821</v>
+        <v>0.304049</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.228569</v>
+        <v>0.22888</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3666</v>
+        <v>0.367174</v>
       </c>
       <c r="D83" t="n">
-        <v>0.423469</v>
+        <v>0.424183</v>
       </c>
       <c r="E83" t="n">
-        <v>0.179287</v>
+        <v>0.179493</v>
       </c>
       <c r="F83" t="n">
-        <v>0.304992</v>
+        <v>0.299267</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.223561</v>
+        <v>0.223661</v>
       </c>
       <c r="C84" t="n">
-        <v>0.361284</v>
+        <v>0.361448</v>
       </c>
       <c r="D84" t="n">
-        <v>0.423187</v>
+        <v>0.422744</v>
       </c>
       <c r="E84" t="n">
-        <v>0.17552</v>
+        <v>0.175389</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2948</v>
+        <v>0.294381</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.218479</v>
+        <v>0.218651</v>
       </c>
       <c r="C85" t="n">
-        <v>0.356136</v>
+        <v>0.356124</v>
       </c>
       <c r="D85" t="n">
-        <v>0.417515</v>
+        <v>0.419105</v>
       </c>
       <c r="E85" t="n">
-        <v>0.172055</v>
+        <v>0.172184</v>
       </c>
       <c r="F85" t="n">
-        <v>0.291091</v>
+        <v>0.291401</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.213121</v>
+        <v>0.213203</v>
       </c>
       <c r="C86" t="n">
-        <v>0.35231</v>
+        <v>0.351856</v>
       </c>
       <c r="D86" t="n">
-        <v>0.42843</v>
+        <v>0.429725</v>
       </c>
       <c r="E86" t="n">
-        <v>0.168536</v>
+        <v>0.168518</v>
       </c>
       <c r="F86" t="n">
-        <v>0.287321</v>
+        <v>0.287069</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.207805</v>
+        <v>0.207718</v>
       </c>
       <c r="C87" t="n">
-        <v>0.361671</v>
+        <v>0.36173</v>
       </c>
       <c r="D87" t="n">
-        <v>0.427033</v>
+        <v>0.427532</v>
       </c>
       <c r="E87" t="n">
-        <v>0.164842</v>
+        <v>0.164996</v>
       </c>
       <c r="F87" t="n">
-        <v>0.285052</v>
+        <v>0.284552</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.20261</v>
+        <v>0.202592</v>
       </c>
       <c r="C88" t="n">
-        <v>0.432329</v>
+        <v>0.432487</v>
       </c>
       <c r="D88" t="n">
-        <v>0.426352</v>
+        <v>0.427266</v>
       </c>
       <c r="E88" t="n">
-        <v>0.161239</v>
+        <v>0.161298</v>
       </c>
       <c r="F88" t="n">
-        <v>0.28101</v>
+        <v>0.281078</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.196879</v>
+        <v>0.196767</v>
       </c>
       <c r="C89" t="n">
-        <v>0.420949</v>
+        <v>0.420279</v>
       </c>
       <c r="D89" t="n">
-        <v>0.421836</v>
+        <v>0.422804</v>
       </c>
       <c r="E89" t="n">
-        <v>0.157331</v>
+        <v>0.15732</v>
       </c>
       <c r="F89" t="n">
-        <v>0.277049</v>
+        <v>0.277073</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.191691</v>
+        <v>0.191061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.403688</v>
+        <v>0.403389</v>
       </c>
       <c r="D90" t="n">
-        <v>0.422295</v>
+        <v>0.423289</v>
       </c>
       <c r="E90" t="n">
-        <v>0.153637</v>
+        <v>0.153879</v>
       </c>
       <c r="F90" t="n">
-        <v>0.273196</v>
+        <v>0.272944</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186133</v>
+        <v>0.185487</v>
       </c>
       <c r="C91" t="n">
-        <v>0.421399</v>
+        <v>0.42127</v>
       </c>
       <c r="D91" t="n">
-        <v>0.418358</v>
+        <v>0.418658</v>
       </c>
       <c r="E91" t="n">
-        <v>0.149882</v>
+        <v>0.150053</v>
       </c>
       <c r="F91" t="n">
-        <v>0.269354</v>
+        <v>0.269139</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.178603</v>
+        <v>0.178836</v>
       </c>
       <c r="C92" t="n">
-        <v>0.452915</v>
+        <v>0.452477</v>
       </c>
       <c r="D92" t="n">
-        <v>0.469599</v>
+        <v>0.468899</v>
       </c>
       <c r="E92" t="n">
-        <v>0.146073</v>
+        <v>0.146301</v>
       </c>
       <c r="F92" t="n">
-        <v>0.264926</v>
+        <v>0.264859</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.172416</v>
+        <v>0.172339</v>
       </c>
       <c r="C93" t="n">
-        <v>0.422949</v>
+        <v>0.422809</v>
       </c>
       <c r="D93" t="n">
-        <v>0.462894</v>
+        <v>0.46296</v>
       </c>
       <c r="E93" t="n">
-        <v>0.142542</v>
+        <v>0.142676</v>
       </c>
       <c r="F93" t="n">
-        <v>0.262298</v>
+        <v>0.264091</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.164255</v>
+        <v>0.164218</v>
       </c>
       <c r="C94" t="n">
-        <v>0.333947</v>
+        <v>0.333349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.454592</v>
+        <v>0.454527</v>
       </c>
       <c r="E94" t="n">
-        <v>0.192391</v>
+        <v>0.192225</v>
       </c>
       <c r="F94" t="n">
-        <v>0.312001</v>
+        <v>0.317246</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.238271</v>
+        <v>0.238476</v>
       </c>
       <c r="C95" t="n">
-        <v>0.412748</v>
+        <v>0.412147</v>
       </c>
       <c r="D95" t="n">
-        <v>0.432572</v>
+        <v>0.432684</v>
       </c>
       <c r="E95" t="n">
-        <v>0.187497</v>
+        <v>0.187469</v>
       </c>
       <c r="F95" t="n">
-        <v>0.308782</v>
+        <v>0.3154</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.234002</v>
+        <v>0.233888</v>
       </c>
       <c r="C96" t="n">
-        <v>0.358214</v>
+        <v>0.358192</v>
       </c>
       <c r="D96" t="n">
-        <v>0.449083</v>
+        <v>0.448884</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183496</v>
+        <v>0.183516</v>
       </c>
       <c r="F96" t="n">
-        <v>0.306116</v>
+        <v>0.306062</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.229361</v>
+        <v>0.229308</v>
       </c>
       <c r="C97" t="n">
-        <v>0.354307</v>
+        <v>0.353999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.429385</v>
+        <v>0.429218</v>
       </c>
       <c r="E97" t="n">
-        <v>0.179916</v>
+        <v>0.180098</v>
       </c>
       <c r="F97" t="n">
-        <v>0.302878</v>
+        <v>0.305408</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.224582</v>
+        <v>0.224532</v>
       </c>
       <c r="C98" t="n">
-        <v>0.349926</v>
+        <v>0.349438</v>
       </c>
       <c r="D98" t="n">
-        <v>0.424873</v>
+        <v>0.424846</v>
       </c>
       <c r="E98" t="n">
-        <v>0.176124</v>
+        <v>0.176228</v>
       </c>
       <c r="F98" t="n">
-        <v>0.301046</v>
+        <v>0.301101</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.219412</v>
+        <v>0.219476</v>
       </c>
       <c r="C99" t="n">
-        <v>0.344232</v>
+        <v>0.343703</v>
       </c>
       <c r="D99" t="n">
-        <v>0.421407</v>
+        <v>0.421222</v>
       </c>
       <c r="E99" t="n">
-        <v>0.172517</v>
+        <v>0.172555</v>
       </c>
       <c r="F99" t="n">
-        <v>0.293384</v>
+        <v>0.297924</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.214037</v>
+        <v>0.214028</v>
       </c>
       <c r="C100" t="n">
-        <v>0.338992</v>
+        <v>0.339033</v>
       </c>
       <c r="D100" t="n">
-        <v>0.424512</v>
+        <v>0.424277</v>
       </c>
       <c r="E100" t="n">
-        <v>0.169063</v>
+        <v>0.169237</v>
       </c>
       <c r="F100" t="n">
-        <v>0.293619</v>
+        <v>0.292602</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.208619</v>
+        <v>0.208551</v>
       </c>
       <c r="C101" t="n">
-        <v>0.399485</v>
+        <v>0.399713</v>
       </c>
       <c r="D101" t="n">
-        <v>0.408463</v>
+        <v>0.408739</v>
       </c>
       <c r="E101" t="n">
-        <v>0.165986</v>
+        <v>0.166055</v>
       </c>
       <c r="F101" t="n">
-        <v>0.289106</v>
+        <v>0.28984</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.203028</v>
+        <v>0.203006</v>
       </c>
       <c r="C102" t="n">
-        <v>0.37398</v>
+        <v>0.373937</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405955</v>
+        <v>0.405947</v>
       </c>
       <c r="E102" t="n">
-        <v>0.162118</v>
+        <v>0.162305</v>
       </c>
       <c r="F102" t="n">
-        <v>0.281413</v>
+        <v>0.28143</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197605</v>
+        <v>0.197776</v>
       </c>
       <c r="C103" t="n">
-        <v>0.441292</v>
+        <v>0.441065</v>
       </c>
       <c r="D103" t="n">
-        <v>0.403919</v>
+        <v>0.404101</v>
       </c>
       <c r="E103" t="n">
-        <v>0.158625</v>
+        <v>0.158655</v>
       </c>
       <c r="F103" t="n">
-        <v>0.281926</v>
+        <v>0.277506</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.192404</v>
+        <v>0.19214</v>
       </c>
       <c r="C104" t="n">
-        <v>0.399072</v>
+        <v>0.398664</v>
       </c>
       <c r="D104" t="n">
-        <v>0.417017</v>
+        <v>0.4163</v>
       </c>
       <c r="E104" t="n">
-        <v>0.155362</v>
+        <v>0.155444</v>
       </c>
       <c r="F104" t="n">
-        <v>0.277558</v>
+        <v>0.277653</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.186966</v>
+        <v>0.186876</v>
       </c>
       <c r="C105" t="n">
-        <v>0.318113</v>
+        <v>0.318173</v>
       </c>
       <c r="D105" t="n">
-        <v>0.402624</v>
+        <v>0.401809</v>
       </c>
       <c r="E105" t="n">
-        <v>0.151749</v>
+        <v>0.151593</v>
       </c>
       <c r="F105" t="n">
-        <v>0.273978</v>
+        <v>0.273839</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.180412</v>
+        <v>0.180462</v>
       </c>
       <c r="C106" t="n">
-        <v>0.436339</v>
+        <v>0.435833</v>
       </c>
       <c r="D106" t="n">
-        <v>0.397687</v>
+        <v>0.397066</v>
       </c>
       <c r="E106" t="n">
-        <v>0.147867</v>
+        <v>0.147978</v>
       </c>
       <c r="F106" t="n">
-        <v>0.26995</v>
+        <v>0.269491</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.173516</v>
+        <v>0.173595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.404979</v>
+        <v>0.404809</v>
       </c>
       <c r="D107" t="n">
-        <v>0.440977</v>
+        <v>0.439867</v>
       </c>
       <c r="E107" t="n">
-        <v>0.144263</v>
+        <v>0.144291</v>
       </c>
       <c r="F107" t="n">
-        <v>0.263501</v>
+        <v>0.265312</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.166586</v>
+        <v>0.166224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.381239</v>
+        <v>0.381859</v>
       </c>
       <c r="D108" t="n">
-        <v>0.437313</v>
+        <v>0.43645</v>
       </c>
       <c r="E108" t="n">
-        <v>0.192907</v>
+        <v>0.19297</v>
       </c>
       <c r="F108" t="n">
-        <v>0.314966</v>
+        <v>0.315579</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.157068</v>
+        <v>0.156929</v>
       </c>
       <c r="C109" t="n">
-        <v>0.339731</v>
+        <v>0.339108</v>
       </c>
       <c r="D109" t="n">
-        <v>0.412174</v>
+        <v>0.412399</v>
       </c>
       <c r="E109" t="n">
-        <v>0.188573</v>
+        <v>0.188592</v>
       </c>
       <c r="F109" t="n">
-        <v>0.307622</v>
+        <v>0.312135</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.234885</v>
+        <v>0.234912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.420344</v>
+        <v>0.420432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.412324</v>
+        <v>0.412517</v>
       </c>
       <c r="E110" t="n">
-        <v>0.185178</v>
+        <v>0.185177</v>
       </c>
       <c r="F110" t="n">
-        <v>0.305228</v>
+        <v>0.304866</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.230499</v>
+        <v>0.230465</v>
       </c>
       <c r="C111" t="n">
-        <v>0.416313</v>
+        <v>0.415905</v>
       </c>
       <c r="D111" t="n">
-        <v>0.407949</v>
+        <v>0.40776</v>
       </c>
       <c r="E111" t="n">
-        <v>0.181543</v>
+        <v>0.181501</v>
       </c>
       <c r="F111" t="n">
-        <v>0.299113</v>
+        <v>0.299335</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.225816</v>
+        <v>0.225736</v>
       </c>
       <c r="C112" t="n">
-        <v>0.412747</v>
+        <v>0.412525</v>
       </c>
       <c r="D112" t="n">
-        <v>0.411083</v>
+        <v>0.410581</v>
       </c>
       <c r="E112" t="n">
-        <v>0.177761</v>
+        <v>0.177778</v>
       </c>
       <c r="F112" t="n">
-        <v>0.295582</v>
+        <v>0.295693</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.220564</v>
+        <v>0.220506</v>
       </c>
       <c r="C113" t="n">
-        <v>0.409023</v>
+        <v>0.408752</v>
       </c>
       <c r="D113" t="n">
-        <v>0.407303</v>
+        <v>0.407191</v>
       </c>
       <c r="E113" t="n">
-        <v>0.174084</v>
+        <v>0.174225</v>
       </c>
       <c r="F113" t="n">
-        <v>0.293489</v>
+        <v>0.296535</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.215465</v>
+        <v>0.215409</v>
       </c>
       <c r="C114" t="n">
-        <v>0.404827</v>
+        <v>0.404358</v>
       </c>
       <c r="D114" t="n">
-        <v>0.404332</v>
+        <v>0.404112</v>
       </c>
       <c r="E114" t="n">
-        <v>0.170372</v>
+        <v>0.170172</v>
       </c>
       <c r="F114" t="n">
-        <v>0.293458</v>
+        <v>0.293775</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.209864</v>
+        <v>0.209881</v>
       </c>
       <c r="C115" t="n">
-        <v>0.407273</v>
+        <v>0.407317</v>
       </c>
       <c r="D115" t="n">
-        <v>0.411357</v>
+        <v>0.411575</v>
       </c>
       <c r="E115" t="n">
-        <v>0.166837</v>
+        <v>0.166994</v>
       </c>
       <c r="F115" t="n">
-        <v>0.28973</v>
+        <v>0.289571</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.204543</v>
+        <v>0.204489</v>
       </c>
       <c r="C116" t="n">
-        <v>0.413487</v>
+        <v>0.413473</v>
       </c>
       <c r="D116" t="n">
-        <v>0.408745</v>
+        <v>0.408776</v>
       </c>
       <c r="E116" t="n">
-        <v>0.163432</v>
+        <v>0.163504</v>
       </c>
       <c r="F116" t="n">
-        <v>0.28622</v>
+        <v>0.28569</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.199195</v>
+        <v>0.199336</v>
       </c>
       <c r="C117" t="n">
-        <v>0.319792</v>
+        <v>0.319677</v>
       </c>
       <c r="D117" t="n">
-        <v>0.397584</v>
+        <v>0.397652</v>
       </c>
       <c r="E117" t="n">
-        <v>0.159646</v>
+        <v>0.159853</v>
       </c>
       <c r="F117" t="n">
-        <v>0.282398</v>
+        <v>0.282394</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.19358</v>
+        <v>0.193819</v>
       </c>
       <c r="C118" t="n">
-        <v>0.418479</v>
+        <v>0.418491</v>
       </c>
       <c r="D118" t="n">
-        <v>0.390536</v>
+        <v>0.390862</v>
       </c>
       <c r="E118" t="n">
-        <v>0.156331</v>
+        <v>0.156171</v>
       </c>
       <c r="F118" t="n">
-        <v>0.275497</v>
+        <v>0.276475</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.188055</v>
+        <v>0.187705</v>
       </c>
       <c r="C119" t="n">
-        <v>0.385482</v>
+        <v>0.386014</v>
       </c>
       <c r="D119" t="n">
-        <v>0.401344</v>
+        <v>0.401499</v>
       </c>
       <c r="E119" t="n">
-        <v>0.152623</v>
+        <v>0.152626</v>
       </c>
       <c r="F119" t="n">
-        <v>0.273881</v>
+        <v>0.273988</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.182256</v>
+        <v>0.181698</v>
       </c>
       <c r="C120" t="n">
-        <v>0.379102</v>
+        <v>0.37964</v>
       </c>
       <c r="D120" t="n">
-        <v>0.399408</v>
+        <v>0.399983</v>
       </c>
       <c r="E120" t="n">
-        <v>0.148832</v>
+        <v>0.148968</v>
       </c>
       <c r="F120" t="n">
-        <v>0.270123</v>
+        <v>0.269084</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.175376</v>
+        <v>0.175542</v>
       </c>
       <c r="C121" t="n">
-        <v>0.444755</v>
+        <v>0.444832</v>
       </c>
       <c r="D121" t="n">
-        <v>0.463671</v>
+        <v>0.463998</v>
       </c>
       <c r="E121" t="n">
-        <v>0.145092</v>
+        <v>0.14512</v>
       </c>
       <c r="F121" t="n">
-        <v>0.265844</v>
+        <v>0.266353</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.167895</v>
+        <v>0.167847</v>
       </c>
       <c r="C122" t="n">
-        <v>0.368481</v>
+        <v>0.365282</v>
       </c>
       <c r="D122" t="n">
-        <v>0.462</v>
+        <v>0.462097</v>
       </c>
       <c r="E122" t="n">
-        <v>0.140972</v>
+        <v>0.141025</v>
       </c>
       <c r="F122" t="n">
-        <v>0.258972</v>
+        <v>0.261095</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.159161</v>
+        <v>0.159133</v>
       </c>
       <c r="C123" t="n">
-        <v>0.35593</v>
+        <v>0.356584</v>
       </c>
       <c r="D123" t="n">
-        <v>0.462561</v>
+        <v>0.462145</v>
       </c>
       <c r="E123" t="n">
-        <v>0.189825</v>
+        <v>0.189726</v>
       </c>
       <c r="F123" t="n">
-        <v>0.308719</v>
+        <v>0.307502</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.235718</v>
+        <v>0.235688</v>
       </c>
       <c r="C124" t="n">
-        <v>0.399286</v>
+        <v>0.399785</v>
       </c>
       <c r="D124" t="n">
-        <v>0.431131</v>
+        <v>0.431498</v>
       </c>
       <c r="E124" t="n">
-        <v>0.185679</v>
+        <v>0.185745</v>
       </c>
       <c r="F124" t="n">
-        <v>0.302548</v>
+        <v>0.30367</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.231441</v>
+        <v>0.231435</v>
       </c>
       <c r="C125" t="n">
-        <v>0.395776</v>
+        <v>0.395721</v>
       </c>
       <c r="D125" t="n">
-        <v>0.426971</v>
+        <v>0.426901</v>
       </c>
       <c r="E125" t="n">
-        <v>0.181735</v>
+        <v>0.181793</v>
       </c>
       <c r="F125" t="n">
-        <v>0.299269</v>
+        <v>0.299224</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.226711</v>
+        <v>0.226642</v>
       </c>
       <c r="C126" t="n">
-        <v>0.439915</v>
+        <v>0.44035</v>
       </c>
       <c r="D126" t="n">
-        <v>0.432886</v>
+        <v>0.433238</v>
       </c>
       <c r="E126" t="n">
-        <v>0.178048</v>
+        <v>0.178103</v>
       </c>
       <c r="F126" t="n">
-        <v>0.295617</v>
+        <v>0.295906</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.2217</v>
+        <v>0.221543</v>
       </c>
       <c r="C127" t="n">
-        <v>0.372703</v>
+        <v>0.372915</v>
       </c>
       <c r="D127" t="n">
-        <v>0.418318</v>
+        <v>0.418976</v>
       </c>
       <c r="E127" t="n">
-        <v>0.17442</v>
+        <v>0.174345</v>
       </c>
       <c r="F127" t="n">
-        <v>0.293381</v>
+        <v>0.292583</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21648</v>
+        <v>0.216284</v>
       </c>
       <c r="C128" t="n">
-        <v>0.527714</v>
+        <v>0.5281979999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.423178</v>
+        <v>0.423291</v>
       </c>
       <c r="E128" t="n">
-        <v>0.171033</v>
+        <v>0.171037</v>
       </c>
       <c r="F128" t="n">
-        <v>0.288912</v>
+        <v>0.289555</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.210983</v>
+        <v>0.210867</v>
       </c>
       <c r="C129" t="n">
-        <v>0.383918</v>
+        <v>0.38414</v>
       </c>
       <c r="D129" t="n">
-        <v>0.429718</v>
+        <v>0.429998</v>
       </c>
       <c r="E129" t="n">
-        <v>0.167454</v>
+        <v>0.16764</v>
       </c>
       <c r="F129" t="n">
-        <v>0.286134</v>
+        <v>0.285919</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.205737</v>
+        <v>0.205543</v>
       </c>
       <c r="C130" t="n">
-        <v>0.418005</v>
+        <v>0.418734</v>
       </c>
       <c r="D130" t="n">
-        <v>0.424665</v>
+        <v>0.42452</v>
       </c>
       <c r="E130" t="n">
-        <v>0.163739</v>
+        <v>0.163939</v>
       </c>
       <c r="F130" t="n">
-        <v>0.281711</v>
+        <v>0.282171</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.200238</v>
+        <v>0.199978</v>
       </c>
       <c r="C131" t="n">
-        <v>0.442853</v>
+        <v>0.44297</v>
       </c>
       <c r="D131" t="n">
-        <v>0.422109</v>
+        <v>0.422486</v>
       </c>
       <c r="E131" t="n">
-        <v>0.160138</v>
+        <v>0.160212</v>
       </c>
       <c r="F131" t="n">
-        <v>0.277543</v>
+        <v>0.278016</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.194959</v>
+        <v>0.194741</v>
       </c>
       <c r="C132" t="n">
-        <v>0.324551</v>
+        <v>0.32474</v>
       </c>
       <c r="D132" t="n">
-        <v>0.409098</v>
+        <v>0.408492</v>
       </c>
       <c r="E132" t="n">
-        <v>0.156633</v>
+        <v>0.156695</v>
       </c>
       <c r="F132" t="n">
-        <v>0.274765</v>
+        <v>0.274918</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.189046</v>
+        <v>0.189469</v>
       </c>
       <c r="C133" t="n">
-        <v>0.39141</v>
+        <v>0.391457</v>
       </c>
       <c r="D133" t="n">
-        <v>0.408581</v>
+        <v>0.408601</v>
       </c>
       <c r="E133" t="n">
-        <v>0.152841</v>
+        <v>0.15291</v>
       </c>
       <c r="F133" t="n">
-        <v>0.270994</v>
+        <v>0.271322</v>
       </c>
     </row>
     <row r="134">
@@ -7728,16 +7728,16 @@
         <v>0.183385</v>
       </c>
       <c r="C134" t="n">
-        <v>0.403736</v>
+        <v>0.40333</v>
       </c>
       <c r="D134" t="n">
-        <v>0.404632</v>
+        <v>0.403871</v>
       </c>
       <c r="E134" t="n">
-        <v>0.149593</v>
+        <v>0.14969</v>
       </c>
       <c r="F134" t="n">
-        <v>0.270825</v>
+        <v>0.269514</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.177103</v>
+        <v>0.176558</v>
       </c>
       <c r="C135" t="n">
-        <v>0.406805</v>
+        <v>0.406818</v>
       </c>
       <c r="D135" t="n">
-        <v>0.461363</v>
+        <v>0.460356</v>
       </c>
       <c r="E135" t="n">
-        <v>0.145895</v>
+        <v>0.145902</v>
       </c>
       <c r="F135" t="n">
-        <v>0.266577</v>
+        <v>0.266522</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.170455</v>
+        <v>0.170053</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323377</v>
+        <v>0.323021</v>
       </c>
       <c r="D136" t="n">
-        <v>0.474884</v>
+        <v>0.47478</v>
       </c>
       <c r="E136" t="n">
-        <v>0.141938</v>
+        <v>0.141819</v>
       </c>
       <c r="F136" t="n">
-        <v>0.262265</v>
+        <v>0.262274</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.16099</v>
+        <v>0.161207</v>
       </c>
       <c r="C137" t="n">
-        <v>0.483014</v>
+        <v>0.482878</v>
       </c>
       <c r="D137" t="n">
-        <v>0.445314</v>
+        <v>0.445254</v>
       </c>
       <c r="E137" t="n">
-        <v>0.190602</v>
+        <v>0.190368</v>
       </c>
       <c r="F137" t="n">
-        <v>0.310964</v>
+        <v>0.310421</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.236715</v>
+        <v>0.23668</v>
       </c>
       <c r="C138" t="n">
-        <v>0.481119</v>
+        <v>0.481201</v>
       </c>
       <c r="D138" t="n">
-        <v>0.451526</v>
+        <v>0.451171</v>
       </c>
       <c r="E138" t="n">
-        <v>0.186454</v>
+        <v>0.186208</v>
       </c>
       <c r="F138" t="n">
-        <v>0.30778</v>
+        <v>0.305581</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.232423</v>
+        <v>0.232496</v>
       </c>
       <c r="C139" t="n">
-        <v>0.484766</v>
+        <v>0.48507</v>
       </c>
       <c r="D139" t="n">
-        <v>0.445078</v>
+        <v>0.445123</v>
       </c>
       <c r="E139" t="n">
-        <v>0.182726</v>
+        <v>0.182595</v>
       </c>
       <c r="F139" t="n">
-        <v>0.303926</v>
+        <v>0.306489</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.227849</v>
+        <v>0.227864</v>
       </c>
       <c r="C140" t="n">
-        <v>0.385519</v>
+        <v>0.385489</v>
       </c>
       <c r="D140" t="n">
-        <v>0.441015</v>
+        <v>0.441259</v>
       </c>
       <c r="E140" t="n">
-        <v>0.178945</v>
+        <v>0.178752</v>
       </c>
       <c r="F140" t="n">
-        <v>0.297792</v>
+        <v>0.298043</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.222849</v>
+        <v>0.222852</v>
       </c>
       <c r="C141" t="n">
-        <v>0.432967</v>
+        <v>0.432976</v>
       </c>
       <c r="D141" t="n">
-        <v>0.436963</v>
+        <v>0.437132</v>
       </c>
       <c r="E141" t="n">
-        <v>0.175203</v>
+        <v>0.175073</v>
       </c>
       <c r="F141" t="n">
-        <v>0.293366</v>
+        <v>0.293045</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.217696</v>
+        <v>0.21777</v>
       </c>
       <c r="C142" t="n">
-        <v>0.45237</v>
+        <v>0.452742</v>
       </c>
       <c r="D142" t="n">
-        <v>0.43283</v>
+        <v>0.4331</v>
       </c>
       <c r="E142" t="n">
-        <v>0.171721</v>
+        <v>0.171653</v>
       </c>
       <c r="F142" t="n">
-        <v>0.29054</v>
+        <v>0.290755</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.212308</v>
+        <v>0.212285</v>
       </c>
       <c r="C143" t="n">
-        <v>0.48207</v>
+        <v>0.482365</v>
       </c>
       <c r="D143" t="n">
-        <v>0.413764</v>
+        <v>0.414088</v>
       </c>
       <c r="E143" t="n">
-        <v>0.167979</v>
+        <v>0.168084</v>
       </c>
       <c r="F143" t="n">
-        <v>0.286557</v>
+        <v>0.287087</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Running erasure.xlsx
+++ b/gcc-x64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.186932</v>
+        <v>0.191034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320261</v>
+        <v>0.320206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32617</v>
+        <v>0.327594</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0953418</v>
+        <v>0.105806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.277949</v>
+        <v>0.278675</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.185434</v>
+        <v>0.186775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316007</v>
+        <v>0.316467</v>
       </c>
       <c r="D3" t="n">
-        <v>0.32753</v>
+        <v>0.329238</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0947543</v>
+        <v>0.09750399999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.274087</v>
+        <v>0.274881</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.180158</v>
+        <v>0.182085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.315395</v>
+        <v>0.316985</v>
       </c>
       <c r="D4" t="n">
-        <v>0.329157</v>
+        <v>0.329</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0923268</v>
+        <v>0.09671399999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.268517</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175613</v>
+        <v>0.176101</v>
       </c>
       <c r="C5" t="n">
-        <v>0.310163</v>
+        <v>0.310299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.332595</v>
+        <v>0.332047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0923226</v>
+        <v>0.0946873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.263115</v>
+        <v>0.263972</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172739</v>
+        <v>0.17136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.308217</v>
+        <v>0.308406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.33455</v>
+        <v>0.333449</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0903871</v>
+        <v>0.0889509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.259074</v>
+        <v>0.259479</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.165228</v>
+        <v>0.165326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301095</v>
+        <v>0.301477</v>
       </c>
       <c r="D7" t="n">
-        <v>0.322759</v>
+        <v>0.324662</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08798830000000001</v>
+        <v>0.0876875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.255576</v>
+        <v>0.254842</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.156485</v>
+        <v>0.156662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.289989</v>
+        <v>0.289285</v>
       </c>
       <c r="D8" t="n">
-        <v>0.322907</v>
+        <v>0.324271</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0856044</v>
+        <v>0.08672779999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.253159</v>
+        <v>0.252886</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.148829</v>
+        <v>0.148731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.289193</v>
+        <v>0.28941</v>
       </c>
       <c r="D9" t="n">
-        <v>0.323363</v>
+        <v>0.325678</v>
       </c>
       <c r="E9" t="n">
-        <v>0.173759</v>
+        <v>0.175871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.310971</v>
+        <v>0.309202</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.227334</v>
+        <v>0.228825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.355392</v>
+        <v>0.358748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.322795</v>
+        <v>0.323515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.167602</v>
+        <v>0.17015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.302542</v>
+        <v>0.303513</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.224907</v>
+        <v>0.22626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.352856</v>
+        <v>0.357097</v>
       </c>
       <c r="D11" t="n">
-        <v>0.326054</v>
+        <v>0.326607</v>
       </c>
       <c r="E11" t="n">
-        <v>0.164651</v>
+        <v>0.166832</v>
       </c>
       <c r="F11" t="n">
-        <v>0.301089</v>
+        <v>0.299555</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.220215</v>
+        <v>0.220735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.348768</v>
+        <v>0.352243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.327688</v>
+        <v>0.32795</v>
       </c>
       <c r="E12" t="n">
-        <v>0.159339</v>
+        <v>0.1611</v>
       </c>
       <c r="F12" t="n">
-        <v>0.297194</v>
+        <v>0.297736</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.215293</v>
+        <v>0.214947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.345451</v>
+        <v>0.349855</v>
       </c>
       <c r="D13" t="n">
-        <v>0.328363</v>
+        <v>0.327875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.156405</v>
+        <v>0.158713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.299168</v>
+        <v>0.29776</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21197</v>
+        <v>0.212157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.341709</v>
+        <v>0.344155</v>
       </c>
       <c r="D14" t="n">
-        <v>0.328017</v>
+        <v>0.328366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.152819</v>
+        <v>0.152394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.295651</v>
+        <v>0.295786</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.206665</v>
+        <v>0.206538</v>
       </c>
       <c r="C15" t="n">
-        <v>0.324961</v>
+        <v>0.324176</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328187</v>
+        <v>0.329715</v>
       </c>
       <c r="E15" t="n">
-        <v>0.148557</v>
+        <v>0.149402</v>
       </c>
       <c r="F15" t="n">
-        <v>0.292388</v>
+        <v>0.291736</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.201411</v>
+        <v>0.201134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.329759</v>
+        <v>0.3296</v>
       </c>
       <c r="D16" t="n">
-        <v>0.329729</v>
+        <v>0.329746</v>
       </c>
       <c r="E16" t="n">
-        <v>0.146617</v>
+        <v>0.14726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.288717</v>
+        <v>0.287692</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.196509</v>
+        <v>0.196282</v>
       </c>
       <c r="C17" t="n">
-        <v>0.319794</v>
+        <v>0.320493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.332991</v>
+        <v>0.332779</v>
       </c>
       <c r="E17" t="n">
-        <v>0.14353</v>
+        <v>0.143677</v>
       </c>
       <c r="F17" t="n">
-        <v>0.283918</v>
+        <v>0.28288</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.190566</v>
+        <v>0.191512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.320902</v>
+        <v>0.320643</v>
       </c>
       <c r="D18" t="n">
-        <v>0.333217</v>
+        <v>0.332898</v>
       </c>
       <c r="E18" t="n">
-        <v>0.139577</v>
+        <v>0.140885</v>
       </c>
       <c r="F18" t="n">
-        <v>0.276209</v>
+        <v>0.279471</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.186591</v>
+        <v>0.186585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.313316</v>
+        <v>0.313638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.33386</v>
+        <v>0.33528</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137817</v>
+        <v>0.13849</v>
       </c>
       <c r="F19" t="n">
-        <v>0.272014</v>
+        <v>0.271942</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.180114</v>
+        <v>0.180511</v>
       </c>
       <c r="C20" t="n">
-        <v>0.308737</v>
+        <v>0.308983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.336844</v>
+        <v>0.336214</v>
       </c>
       <c r="E20" t="n">
-        <v>0.133825</v>
+        <v>0.1338</v>
       </c>
       <c r="F20" t="n">
-        <v>0.273361</v>
+        <v>0.273442</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.174345</v>
+        <v>0.174233</v>
       </c>
       <c r="C21" t="n">
-        <v>0.30527</v>
+        <v>0.30836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.326599</v>
+        <v>0.330309</v>
       </c>
       <c r="E21" t="n">
-        <v>0.130097</v>
+        <v>0.130491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.268323</v>
+        <v>0.267183</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.165641</v>
+        <v>0.166066</v>
       </c>
       <c r="C22" t="n">
-        <v>0.296838</v>
+        <v>0.298002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.327248</v>
+        <v>0.331071</v>
       </c>
       <c r="E22" t="n">
-        <v>0.125785</v>
+        <v>0.12665</v>
       </c>
       <c r="F22" t="n">
-        <v>0.263512</v>
+        <v>0.263713</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.159112</v>
+        <v>0.15881</v>
       </c>
       <c r="C23" t="n">
-        <v>0.28871</v>
+        <v>0.288256</v>
       </c>
       <c r="D23" t="n">
-        <v>0.327479</v>
+        <v>0.329221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.185746</v>
+        <v>0.187372</v>
       </c>
       <c r="F23" t="n">
-        <v>0.311247</v>
+        <v>0.320061</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.23191</v>
+        <v>0.232942</v>
       </c>
       <c r="C24" t="n">
-        <v>0.347621</v>
+        <v>0.358542</v>
       </c>
       <c r="D24" t="n">
-        <v>0.327493</v>
+        <v>0.328639</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17935</v>
+        <v>0.180723</v>
       </c>
       <c r="F24" t="n">
-        <v>0.311075</v>
+        <v>0.310858</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.228606</v>
+        <v>0.229149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.353185</v>
+        <v>0.359202</v>
       </c>
       <c r="D25" t="n">
-        <v>0.330229</v>
+        <v>0.33082</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175178</v>
+        <v>0.176282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.305045</v>
+        <v>0.306651</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.224556</v>
+        <v>0.22481</v>
       </c>
       <c r="C26" t="n">
-        <v>0.349268</v>
+        <v>0.350278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.328411</v>
+        <v>0.32898</v>
       </c>
       <c r="E26" t="n">
-        <v>0.170827</v>
+        <v>0.172737</v>
       </c>
       <c r="F26" t="n">
-        <v>0.305649</v>
+        <v>0.305424</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.220033</v>
+        <v>0.220049</v>
       </c>
       <c r="C27" t="n">
-        <v>0.345536</v>
+        <v>0.34773</v>
       </c>
       <c r="D27" t="n">
-        <v>0.329352</v>
+        <v>0.329468</v>
       </c>
       <c r="E27" t="n">
-        <v>0.167976</v>
+        <v>0.169427</v>
       </c>
       <c r="F27" t="n">
-        <v>0.297997</v>
+        <v>0.297873</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.21526</v>
+        <v>0.214544</v>
       </c>
       <c r="C28" t="n">
-        <v>0.341783</v>
+        <v>0.342026</v>
       </c>
       <c r="D28" t="n">
-        <v>0.331939</v>
+        <v>0.332656</v>
       </c>
       <c r="E28" t="n">
-        <v>0.164293</v>
+        <v>0.16587</v>
       </c>
       <c r="F28" t="n">
-        <v>0.294262</v>
+        <v>0.294127</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.210038</v>
+        <v>0.209613</v>
       </c>
       <c r="C29" t="n">
-        <v>0.33587</v>
+        <v>0.336992</v>
       </c>
       <c r="D29" t="n">
-        <v>0.333676</v>
+        <v>0.334339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.161054</v>
+        <v>0.161231</v>
       </c>
       <c r="F29" t="n">
-        <v>0.288864</v>
+        <v>0.288912</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.204513</v>
+        <v>0.204832</v>
       </c>
       <c r="C30" t="n">
-        <v>0.333803</v>
+        <v>0.334088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.334158</v>
+        <v>0.335753</v>
       </c>
       <c r="E30" t="n">
-        <v>0.157327</v>
+        <v>0.157495</v>
       </c>
       <c r="F30" t="n">
-        <v>0.287294</v>
+        <v>0.286147</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.199718</v>
+        <v>0.199398</v>
       </c>
       <c r="C31" t="n">
-        <v>0.323983</v>
+        <v>0.324572</v>
       </c>
       <c r="D31" t="n">
-        <v>0.336242</v>
+        <v>0.336833</v>
       </c>
       <c r="E31" t="n">
-        <v>0.153154</v>
+        <v>0.153912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.287722</v>
+        <v>0.288522</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.194324</v>
+        <v>0.194597</v>
       </c>
       <c r="C32" t="n">
-        <v>0.32601</v>
+        <v>0.324596</v>
       </c>
       <c r="D32" t="n">
-        <v>0.337314</v>
+        <v>0.337708</v>
       </c>
       <c r="E32" t="n">
-        <v>0.149394</v>
+        <v>0.150397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.281959</v>
+        <v>0.284544</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.189566</v>
+        <v>0.189473</v>
       </c>
       <c r="C33" t="n">
-        <v>0.316564</v>
+        <v>0.317437</v>
       </c>
       <c r="D33" t="n">
-        <v>0.338324</v>
+        <v>0.340028</v>
       </c>
       <c r="E33" t="n">
-        <v>0.146505</v>
+        <v>0.146571</v>
       </c>
       <c r="F33" t="n">
-        <v>0.276334</v>
+        <v>0.280491</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.183392</v>
+        <v>0.183428</v>
       </c>
       <c r="C34" t="n">
-        <v>0.316098</v>
+        <v>0.319824</v>
       </c>
       <c r="D34" t="n">
-        <v>0.340066</v>
+        <v>0.342716</v>
       </c>
       <c r="E34" t="n">
-        <v>0.143463</v>
+        <v>0.143841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272541</v>
+        <v>0.272843</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.178551</v>
+        <v>0.178653</v>
       </c>
       <c r="C35" t="n">
-        <v>0.308259</v>
+        <v>0.308616</v>
       </c>
       <c r="D35" t="n">
-        <v>0.331666</v>
+        <v>0.335259</v>
       </c>
       <c r="E35" t="n">
-        <v>0.139164</v>
+        <v>0.138732</v>
       </c>
       <c r="F35" t="n">
-        <v>0.269686</v>
+        <v>0.270275</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.169992</v>
+        <v>0.171089</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298759</v>
+        <v>0.298501</v>
       </c>
       <c r="D36" t="n">
-        <v>0.333196</v>
+        <v>0.335872</v>
       </c>
       <c r="E36" t="n">
-        <v>0.13504</v>
+        <v>0.135059</v>
       </c>
       <c r="F36" t="n">
-        <v>0.26785</v>
+        <v>0.268438</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.162633</v>
+        <v>0.162836</v>
       </c>
       <c r="C37" t="n">
-        <v>0.285626</v>
+        <v>0.286268</v>
       </c>
       <c r="D37" t="n">
-        <v>0.331996</v>
+        <v>0.336114</v>
       </c>
       <c r="E37" t="n">
-        <v>0.18829</v>
+        <v>0.191136</v>
       </c>
       <c r="F37" t="n">
-        <v>0.31552</v>
+        <v>0.314592</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236753</v>
+        <v>0.236402</v>
       </c>
       <c r="C38" t="n">
-        <v>0.353908</v>
+        <v>0.355197</v>
       </c>
       <c r="D38" t="n">
-        <v>0.332698</v>
+        <v>0.333389</v>
       </c>
       <c r="E38" t="n">
-        <v>0.183205</v>
+        <v>0.183621</v>
       </c>
       <c r="F38" t="n">
-        <v>0.31002</v>
+        <v>0.309942</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232369</v>
+        <v>0.232039</v>
       </c>
       <c r="C39" t="n">
-        <v>0.351009</v>
+        <v>0.351097</v>
       </c>
       <c r="D39" t="n">
-        <v>0.332617</v>
+        <v>0.334788</v>
       </c>
       <c r="E39" t="n">
-        <v>0.179231</v>
+        <v>0.180222</v>
       </c>
       <c r="F39" t="n">
-        <v>0.313531</v>
+        <v>0.312158</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.228654</v>
+        <v>0.228071</v>
       </c>
       <c r="C40" t="n">
-        <v>0.347617</v>
+        <v>0.347855</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3349</v>
+        <v>0.334733</v>
       </c>
       <c r="E40" t="n">
-        <v>0.175007</v>
+        <v>0.17623</v>
       </c>
       <c r="F40" t="n">
-        <v>0.306043</v>
+        <v>0.308459</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.224602</v>
+        <v>0.22447</v>
       </c>
       <c r="C41" t="n">
-        <v>0.343603</v>
+        <v>0.34381</v>
       </c>
       <c r="D41" t="n">
-        <v>0.335116</v>
+        <v>0.335423</v>
       </c>
       <c r="E41" t="n">
-        <v>0.171081</v>
+        <v>0.171741</v>
       </c>
       <c r="F41" t="n">
-        <v>0.300704</v>
+        <v>0.301642</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.219207</v>
+        <v>0.219376</v>
       </c>
       <c r="C42" t="n">
-        <v>0.339638</v>
+        <v>0.33989</v>
       </c>
       <c r="D42" t="n">
-        <v>0.334392</v>
+        <v>0.335255</v>
       </c>
       <c r="E42" t="n">
-        <v>0.167394</v>
+        <v>0.168749</v>
       </c>
       <c r="F42" t="n">
-        <v>0.299756</v>
+        <v>0.299333</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.213109</v>
+        <v>0.213081</v>
       </c>
       <c r="C43" t="n">
-        <v>0.334866</v>
+        <v>0.334933</v>
       </c>
       <c r="D43" t="n">
-        <v>0.332718</v>
+        <v>0.333648</v>
       </c>
       <c r="E43" t="n">
-        <v>0.164196</v>
+        <v>0.164691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.298702</v>
+        <v>0.297205</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2085</v>
+        <v>0.20865</v>
       </c>
       <c r="C44" t="n">
-        <v>0.335036</v>
+        <v>0.331251</v>
       </c>
       <c r="D44" t="n">
-        <v>0.337633</v>
+        <v>0.335094</v>
       </c>
       <c r="E44" t="n">
-        <v>0.160875</v>
+        <v>0.161667</v>
       </c>
       <c r="F44" t="n">
-        <v>0.291788</v>
+        <v>0.291036</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.20282</v>
+        <v>0.202846</v>
       </c>
       <c r="C45" t="n">
-        <v>0.33353</v>
+        <v>0.328582</v>
       </c>
       <c r="D45" t="n">
-        <v>0.337943</v>
+        <v>0.337214</v>
       </c>
       <c r="E45" t="n">
-        <v>0.156445</v>
+        <v>0.157364</v>
       </c>
       <c r="F45" t="n">
-        <v>0.286467</v>
+        <v>0.28873</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.197377</v>
+        <v>0.197635</v>
       </c>
       <c r="C46" t="n">
-        <v>0.326977</v>
+        <v>0.329421</v>
       </c>
       <c r="D46" t="n">
-        <v>0.33721</v>
+        <v>0.339005</v>
       </c>
       <c r="E46" t="n">
-        <v>0.153822</v>
+        <v>0.153967</v>
       </c>
       <c r="F46" t="n">
-        <v>0.285971</v>
+        <v>0.286295</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.191512</v>
+        <v>0.191797</v>
       </c>
       <c r="C47" t="n">
-        <v>0.317997</v>
+        <v>0.323079</v>
       </c>
       <c r="D47" t="n">
-        <v>0.339774</v>
+        <v>0.343003</v>
       </c>
       <c r="E47" t="n">
-        <v>0.150416</v>
+        <v>0.151046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.278102</v>
+        <v>0.277348</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.186588</v>
+        <v>0.186893</v>
       </c>
       <c r="C48" t="n">
-        <v>0.318056</v>
+        <v>0.310952</v>
       </c>
       <c r="D48" t="n">
-        <v>0.341878</v>
+        <v>0.340852</v>
       </c>
       <c r="E48" t="n">
-        <v>0.146923</v>
+        <v>0.147808</v>
       </c>
       <c r="F48" t="n">
-        <v>0.273573</v>
+        <v>0.274322</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.181079</v>
+        <v>0.181229</v>
       </c>
       <c r="C49" t="n">
-        <v>0.312116</v>
+        <v>0.307895</v>
       </c>
       <c r="D49" t="n">
-        <v>0.341502</v>
+        <v>0.341208</v>
       </c>
       <c r="E49" t="n">
-        <v>0.14284</v>
+        <v>0.143358</v>
       </c>
       <c r="F49" t="n">
-        <v>0.269766</v>
+        <v>0.270151</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.17314</v>
+        <v>0.173781</v>
       </c>
       <c r="C50" t="n">
-        <v>0.304522</v>
+        <v>0.303572</v>
       </c>
       <c r="D50" t="n">
-        <v>0.335597</v>
+        <v>0.336341</v>
       </c>
       <c r="E50" t="n">
-        <v>0.139278</v>
+        <v>0.139472</v>
       </c>
       <c r="F50" t="n">
-        <v>0.265559</v>
+        <v>0.265519</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.165989</v>
+        <v>0.165732</v>
       </c>
       <c r="C51" t="n">
-        <v>0.29183</v>
+        <v>0.291138</v>
       </c>
       <c r="D51" t="n">
-        <v>0.337262</v>
+        <v>0.338859</v>
       </c>
       <c r="E51" t="n">
-        <v>0.190618</v>
+        <v>0.190992</v>
       </c>
       <c r="F51" t="n">
-        <v>0.318576</v>
+        <v>0.317511</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.156946</v>
+        <v>0.157516</v>
       </c>
       <c r="C52" t="n">
-        <v>0.291162</v>
+        <v>0.289879</v>
       </c>
       <c r="D52" t="n">
-        <v>0.336614</v>
+        <v>0.336789</v>
       </c>
       <c r="E52" t="n">
-        <v>0.186256</v>
+        <v>0.18683</v>
       </c>
       <c r="F52" t="n">
-        <v>0.31239</v>
+        <v>0.312487</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.234509</v>
+        <v>0.234557</v>
       </c>
       <c r="C53" t="n">
-        <v>0.355224</v>
+        <v>0.353811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.338346</v>
+        <v>0.33846</v>
       </c>
       <c r="E53" t="n">
-        <v>0.182162</v>
+        <v>0.182106</v>
       </c>
       <c r="F53" t="n">
-        <v>0.309027</v>
+        <v>0.309002</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.230385</v>
+        <v>0.230554</v>
       </c>
       <c r="C54" t="n">
-        <v>0.352119</v>
+        <v>0.350939</v>
       </c>
       <c r="D54" t="n">
-        <v>0.337475</v>
+        <v>0.337953</v>
       </c>
       <c r="E54" t="n">
-        <v>0.178175</v>
+        <v>0.178495</v>
       </c>
       <c r="F54" t="n">
-        <v>0.306453</v>
+        <v>0.305218</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.225644</v>
+        <v>0.225783</v>
       </c>
       <c r="C55" t="n">
-        <v>0.34862</v>
+        <v>0.348273</v>
       </c>
       <c r="D55" t="n">
-        <v>0.337971</v>
+        <v>0.338126</v>
       </c>
       <c r="E55" t="n">
-        <v>0.174253</v>
+        <v>0.174744</v>
       </c>
       <c r="F55" t="n">
-        <v>0.302748</v>
+        <v>0.304816</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.220829</v>
+        <v>0.220704</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345256</v>
+        <v>0.346086</v>
       </c>
       <c r="D56" t="n">
-        <v>0.339447</v>
+        <v>0.340381</v>
       </c>
       <c r="E56" t="n">
-        <v>0.170901</v>
+        <v>0.171314</v>
       </c>
       <c r="F56" t="n">
-        <v>0.301002</v>
+        <v>0.301172</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.215093</v>
+        <v>0.215319</v>
       </c>
       <c r="C57" t="n">
-        <v>0.340593</v>
+        <v>0.343011</v>
       </c>
       <c r="D57" t="n">
-        <v>0.343546</v>
+        <v>0.34509</v>
       </c>
       <c r="E57" t="n">
-        <v>0.167383</v>
+        <v>0.167955</v>
       </c>
       <c r="F57" t="n">
-        <v>0.297721</v>
+        <v>0.297874</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.209791</v>
+        <v>0.210219</v>
       </c>
       <c r="C58" t="n">
-        <v>0.328112</v>
+        <v>0.328838</v>
       </c>
       <c r="D58" t="n">
-        <v>0.346882</v>
+        <v>0.348069</v>
       </c>
       <c r="E58" t="n">
-        <v>0.163961</v>
+        <v>0.164288</v>
       </c>
       <c r="F58" t="n">
-        <v>0.294507</v>
+        <v>0.294878</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.204397</v>
+        <v>0.204609</v>
       </c>
       <c r="C59" t="n">
-        <v>0.333031</v>
+        <v>0.335676</v>
       </c>
       <c r="D59" t="n">
-        <v>0.350469</v>
+        <v>0.351688</v>
       </c>
       <c r="E59" t="n">
-        <v>0.160302</v>
+        <v>0.160758</v>
       </c>
       <c r="F59" t="n">
-        <v>0.28957</v>
+        <v>0.289102</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.199601</v>
+        <v>0.199825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.326678</v>
+        <v>0.330504</v>
       </c>
       <c r="D60" t="n">
-        <v>0.353561</v>
+        <v>0.356383</v>
       </c>
       <c r="E60" t="n">
-        <v>0.156651</v>
+        <v>0.157024</v>
       </c>
       <c r="F60" t="n">
-        <v>0.286497</v>
+        <v>0.286238</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.193831</v>
+        <v>0.194107</v>
       </c>
       <c r="C61" t="n">
-        <v>0.345693</v>
+        <v>0.352072</v>
       </c>
       <c r="D61" t="n">
-        <v>0.35508</v>
+        <v>0.358751</v>
       </c>
       <c r="E61" t="n">
-        <v>0.15345</v>
+        <v>0.153742</v>
       </c>
       <c r="F61" t="n">
-        <v>0.284169</v>
+        <v>0.283401</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.188447</v>
+        <v>0.18889</v>
       </c>
       <c r="C62" t="n">
-        <v>0.314112</v>
+        <v>0.316711</v>
       </c>
       <c r="D62" t="n">
-        <v>0.356077</v>
+        <v>0.359595</v>
       </c>
       <c r="E62" t="n">
-        <v>0.149408</v>
+        <v>0.149915</v>
       </c>
       <c r="F62" t="n">
-        <v>0.279511</v>
+        <v>0.27959</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.182241</v>
+        <v>0.182923</v>
       </c>
       <c r="C63" t="n">
-        <v>0.323764</v>
+        <v>0.328841</v>
       </c>
       <c r="D63" t="n">
-        <v>0.359162</v>
+        <v>0.364272</v>
       </c>
       <c r="E63" t="n">
-        <v>0.145901</v>
+        <v>0.146021</v>
       </c>
       <c r="F63" t="n">
-        <v>0.275677</v>
+        <v>0.275214</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.175821</v>
+        <v>0.175716</v>
       </c>
       <c r="C64" t="n">
-        <v>0.320944</v>
+        <v>0.32919</v>
       </c>
       <c r="D64" t="n">
-        <v>0.389718</v>
+        <v>0.404565</v>
       </c>
       <c r="E64" t="n">
-        <v>0.141981</v>
+        <v>0.142364</v>
       </c>
       <c r="F64" t="n">
-        <v>0.270094</v>
+        <v>0.270814</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.168078</v>
+        <v>0.168208</v>
       </c>
       <c r="C65" t="n">
-        <v>0.294047</v>
+        <v>0.296748</v>
       </c>
       <c r="D65" t="n">
-        <v>0.393388</v>
+        <v>0.407225</v>
       </c>
       <c r="E65" t="n">
-        <v>0.13851</v>
+        <v>0.138668</v>
       </c>
       <c r="F65" t="n">
-        <v>0.262325</v>
+        <v>0.263651</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.159961</v>
+        <v>0.16046</v>
       </c>
       <c r="C66" t="n">
-        <v>0.313982</v>
+        <v>0.315673</v>
       </c>
       <c r="D66" t="n">
-        <v>0.393623</v>
+        <v>0.407373</v>
       </c>
       <c r="E66" t="n">
-        <v>0.189918</v>
+        <v>0.195414</v>
       </c>
       <c r="F66" t="n">
-        <v>0.314348</v>
+        <v>0.316763</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.23642</v>
+        <v>0.236429</v>
       </c>
       <c r="C67" t="n">
-        <v>0.38771</v>
+        <v>0.393577</v>
       </c>
       <c r="D67" t="n">
-        <v>0.389265</v>
+        <v>0.399219</v>
       </c>
       <c r="E67" t="n">
-        <v>0.186514</v>
+        <v>0.191448</v>
       </c>
       <c r="F67" t="n">
-        <v>0.31056</v>
+        <v>0.316248</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.232126</v>
+        <v>0.232057</v>
       </c>
       <c r="C68" t="n">
-        <v>0.384498</v>
+        <v>0.389528</v>
       </c>
       <c r="D68" t="n">
-        <v>0.398528</v>
+        <v>0.409337</v>
       </c>
       <c r="E68" t="n">
-        <v>0.180744</v>
+        <v>0.184816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.306976</v>
+        <v>0.307086</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.227442</v>
+        <v>0.227327</v>
       </c>
       <c r="C69" t="n">
-        <v>0.379295</v>
+        <v>0.384523</v>
       </c>
       <c r="D69" t="n">
-        <v>0.399232</v>
+        <v>0.416213</v>
       </c>
       <c r="E69" t="n">
-        <v>0.177716</v>
+        <v>0.179074</v>
       </c>
       <c r="F69" t="n">
-        <v>0.305886</v>
+        <v>0.304541</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.222268</v>
+        <v>0.222323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.374562</v>
+        <v>0.379243</v>
       </c>
       <c r="D70" t="n">
-        <v>0.40074</v>
+        <v>0.415632</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17386</v>
+        <v>0.174488</v>
       </c>
       <c r="F70" t="n">
-        <v>0.303438</v>
+        <v>0.300575</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.217234</v>
+        <v>0.217417</v>
       </c>
       <c r="C71" t="n">
-        <v>0.368778</v>
+        <v>0.373565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.389583</v>
+        <v>0.404072</v>
       </c>
       <c r="E71" t="n">
-        <v>0.170612</v>
+        <v>0.170687</v>
       </c>
       <c r="F71" t="n">
-        <v>0.294351</v>
+        <v>0.294255</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.211657</v>
+        <v>0.21166</v>
       </c>
       <c r="C72" t="n">
-        <v>0.39488</v>
+        <v>0.413222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.392231</v>
+        <v>0.405797</v>
       </c>
       <c r="E72" t="n">
-        <v>0.166906</v>
+        <v>0.166841</v>
       </c>
       <c r="F72" t="n">
-        <v>0.291529</v>
+        <v>0.291133</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.206614</v>
+        <v>0.206558</v>
       </c>
       <c r="C73" t="n">
-        <v>0.45046</v>
+        <v>0.472155</v>
       </c>
       <c r="D73" t="n">
-        <v>0.403668</v>
+        <v>0.416165</v>
       </c>
       <c r="E73" t="n">
-        <v>0.16331</v>
+        <v>0.163135</v>
       </c>
       <c r="F73" t="n">
-        <v>0.287518</v>
+        <v>0.286463</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.201268</v>
+        <v>0.201119</v>
       </c>
       <c r="C74" t="n">
-        <v>0.402863</v>
+        <v>0.361279</v>
       </c>
       <c r="D74" t="n">
-        <v>0.393046</v>
+        <v>0.397464</v>
       </c>
       <c r="E74" t="n">
-        <v>0.159673</v>
+        <v>0.159407</v>
       </c>
       <c r="F74" t="n">
-        <v>0.288037</v>
+        <v>0.287857</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.195651</v>
+        <v>0.195752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.394344</v>
+        <v>0.401163</v>
       </c>
       <c r="D75" t="n">
-        <v>0.388993</v>
+        <v>0.399627</v>
       </c>
       <c r="E75" t="n">
-        <v>0.156011</v>
+        <v>0.155844</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279612</v>
+        <v>0.279217</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.190016</v>
+        <v>0.190222</v>
       </c>
       <c r="C76" t="n">
-        <v>0.42559</v>
+        <v>0.442732</v>
       </c>
       <c r="D76" t="n">
-        <v>0.393742</v>
+        <v>0.402451</v>
       </c>
       <c r="E76" t="n">
-        <v>0.152403</v>
+        <v>0.153886</v>
       </c>
       <c r="F76" t="n">
-        <v>0.279567</v>
+        <v>0.27648</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.184015</v>
+        <v>0.184122</v>
       </c>
       <c r="C77" t="n">
-        <v>0.429817</v>
+        <v>0.448314</v>
       </c>
       <c r="D77" t="n">
-        <v>0.403969</v>
+        <v>0.414981</v>
       </c>
       <c r="E77" t="n">
-        <v>0.148763</v>
+        <v>0.149341</v>
       </c>
       <c r="F77" t="n">
-        <v>0.275405</v>
+        <v>0.272094</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.177836</v>
+        <v>0.177654</v>
       </c>
       <c r="C78" t="n">